--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K64" authorId="0" shapeId="0">
+    <comment ref="K65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="0" shapeId="0">
+    <comment ref="G68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L67" authorId="0" shapeId="0">
+    <comment ref="L68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N67" authorId="0" shapeId="0">
+    <comment ref="N68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0">
+    <comment ref="G70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -703,102 +703,6 @@
           </rPr>
           <t xml:space="preserve">
 * For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Not required OK to simplify design</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Not required OK to simplify design</t>
         </r>
       </text>
     </comment>
@@ -822,11 +726,107 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** For IE verified boot</t>
+** Not required OK to simplify design</t>
         </r>
       </text>
     </comment>
-    <comment ref="N74" authorId="0" shapeId="0">
+    <comment ref="L70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* For AnC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* For AnC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Not required OK to simplify design</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** For IE verified boot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O74" authorId="0" shapeId="0">
+    <comment ref="O75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G75" authorId="0" shapeId="0">
+    <comment ref="G76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C79" authorId="0" shapeId="0">
+    <comment ref="C80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C87" authorId="0" shapeId="0">
+    <comment ref="C88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K87" authorId="0" shapeId="0">
+    <comment ref="K88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -968,78 +968,6 @@
           </rPr>
           <t xml:space="preserve">
 ^^ CNV is discrete in LKF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M87" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** No Modem integration in TGP-LP.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* WFST dropped from POR in ICP*</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
@@ -1063,11 +991,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** Permanently for CNVi starting TGP-LP</t>
+** No Modem integration in TGP-LP.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G91" authorId="0" shapeId="0">
+    <comment ref="I89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1087,11 +1015,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Simplify config and in case we need</t>
+* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
-    <comment ref="H91" authorId="0" shapeId="0">
+    <comment ref="L89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1111,11 +1039,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Simplify config and in case we need</t>
+* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
-    <comment ref="L91" authorId="0" shapeId="0">
+    <comment ref="M89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,55 +1063,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N91" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O91" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+** Permanently for CNVi starting TGP-LP</t>
         </r>
       </text>
     </comment>
@@ -1307,7 +1187,127 @@
         </r>
       </text>
     </comment>
-    <comment ref="M104" authorId="0" shapeId="0">
+    <comment ref="G93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Simplify config and in case we need</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Simplify config and in case we need</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1331,7 +1331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N104" authorId="0" shapeId="0">
+    <comment ref="N105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1355,7 +1355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O104" authorId="0" shapeId="0">
+    <comment ref="O105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N109" authorId="0" shapeId="0">
+    <comment ref="N110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1403,7 +1403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O109" authorId="0" shapeId="0">
+    <comment ref="O110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H118" authorId="0" shapeId="0">
+    <comment ref="H119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M118" authorId="0" shapeId="0">
+    <comment ref="M119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1475,7 +1475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H128" authorId="0" shapeId="0">
+    <comment ref="H129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1499,7 +1499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H132" authorId="0" shapeId="0">
+    <comment ref="H133" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O132" authorId="0" shapeId="0">
+    <comment ref="O133" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1544,54 +1544,6 @@
           </rPr>
           <t xml:space="preserve">
 Yes due to includsion of SKS – it gives capability to IE FW to perform zeroing in case it wants to clear any secrets in SKS.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H135" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O135" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
@@ -1615,7 +1567,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
@@ -1639,11 +1591,59 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H138" authorId="0" shapeId="0">
+    <comment ref="H137" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O137" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H139" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1667,7 +1667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H142" authorId="0" shapeId="0">
+    <comment ref="H143" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1688,30 +1688,6 @@
           </rPr>
           <t xml:space="preserve">
 * Supported via DFX_SRAM_ZERO_BYPASS_EN parameter in SRAM controller.  This is to reduce test time for IE.  Since there is no secret in IE SRAM, a mode to bypass zeroing on IE SRAM is supported.  Refer to SRAM controller HAS.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O142" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-^ Since IE will be used as HSM.</t>
         </r>
       </text>
     </comment>
@@ -1735,11 +1711,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Added as defensive feature and make changes to support RS0 DMA (PCR1405342375 CM KVMcc to support DMA from System Memory)</t>
+^ Since IE will be used as HSM.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G144" authorId="0" shapeId="0">
+    <comment ref="O144" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1749,16 +1725,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Lee, Khee Wooi: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2/3/15 update.  CDF – USB-r only required for IE – no ME/IE USBr muxing needed</t>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Added as defensive feature and make changes to support RS0 DMA (PCR1405342375 CM KVMcc to support DMA from System Memory)</t>
         </r>
       </text>
     </comment>
@@ -1772,6 +1749,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Lee, Khee Wooi: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2/3/15 update.  CDF – USB-r only required for IE – no ME/IE USBr muxing needed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G146" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Author:</t>
         </r>
         <r>
@@ -1787,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H145" authorId="0" shapeId="0">
+    <comment ref="H146" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1812,7 +1812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G147" authorId="0" shapeId="0">
+    <comment ref="G148" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1837,7 +1837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H147" authorId="0" shapeId="0">
+    <comment ref="H148" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1862,7 +1862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L148" authorId="0" shapeId="0">
+    <comment ref="L149" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1886,7 +1886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M148" authorId="0" shapeId="0">
+    <comment ref="M149" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1910,7 +1910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N148" authorId="0" shapeId="0">
+    <comment ref="N149" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1934,7 +1934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O148" authorId="0" shapeId="0">
+    <comment ref="O149" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1958,7 +1958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C154" authorId="0" shapeId="0">
+    <comment ref="C155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1982,7 +1982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G154" authorId="0" shapeId="0">
+    <comment ref="G155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2006,7 +2006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M155" authorId="0" shapeId="0">
+    <comment ref="M156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2035,7 +2035,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="314">
   <si>
     <t>Item</t>
   </si>
@@ -3033,6 +3033,12 @@
   </si>
   <si>
     <t>- Remove Intel PT from MIA config for TGP-LP since it is not needed.</t>
+  </si>
+  <si>
+    <t>ECC p256</t>
+  </si>
+  <si>
+    <t>- Split ECC 256 (SC resistant) to a different row due to SCA bug in ICP-LP</t>
   </si>
 </sst>
 </file>
@@ -3777,13 +3783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3894,14 +3900,55 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="10">
+        <v>42800</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="10"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="10"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3912,13 +3959,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P155"/>
+  <dimension ref="B1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -6394,7 +6441,7 @@
     <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="26"/>
       <c r="C61" s="3" t="s">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="16" t="s">
@@ -6435,7 +6482,7 @@
     <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="26"/>
       <c r="C62" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="16" t="s">
@@ -6453,30 +6500,24 @@
       <c r="I62" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="J62" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="M62" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O62" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="20"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="26"/>
       <c r="C63" s="3" t="s">
-        <v>302</v>
+        <v>160</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="16" t="s">
@@ -6497,11 +6538,11 @@
       <c r="J63" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="K63" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="23" t="s">
-        <v>16</v>
+      <c r="K63" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="M63" s="15" t="s">
         <v>16</v>
@@ -6515,169 +6556,169 @@
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K64" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B65" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D65" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J64" s="15" t="s">
+      <c r="J65" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K64" s="15" t="s">
+      <c r="K65" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="L64" s="15" t="s">
+      <c r="L65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="15" t="s">
+      <c r="M65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N64" s="15" t="s">
+      <c r="N65" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O64" s="15" t="s">
+      <c r="O65" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B65" s="26"/>
-      <c r="C65" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O65" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="26"/>
       <c r="C66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="15">
-        <v>5</v>
-      </c>
-      <c r="F66" s="15">
-        <v>5</v>
-      </c>
-      <c r="G66" s="15">
-        <v>5</v>
+        <v>271</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I66" s="15">
-        <v>5</v>
-      </c>
-      <c r="J66" s="15">
-        <v>5</v>
-      </c>
-      <c r="K66" s="15">
-        <v>5</v>
-      </c>
-      <c r="L66" s="15">
-        <v>5</v>
-      </c>
-      <c r="M66" s="15">
-        <v>5</v>
-      </c>
-      <c r="N66" s="15">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" s="26"/>
       <c r="C67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D67" s="41"/>
-      <c r="E67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>72</v>
+      <c r="E67" s="15">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15">
+        <v>5</v>
+      </c>
+      <c r="G67" s="15">
+        <v>5</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N67" s="15" t="s">
-        <v>72</v>
+      <c r="I67" s="15">
+        <v>5</v>
+      </c>
+      <c r="J67" s="15">
+        <v>5</v>
+      </c>
+      <c r="K67" s="15">
+        <v>5</v>
+      </c>
+      <c r="L67" s="15">
+        <v>5</v>
+      </c>
+      <c r="M67" s="15">
+        <v>5</v>
+      </c>
+      <c r="N67" s="15">
+        <v>5</v>
       </c>
       <c r="O67" s="15" t="s">
         <v>70</v>
@@ -6687,50 +6728,48 @@
     <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" s="26"/>
       <c r="C68" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" s="41"/>
-      <c r="E68" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>66</v>
+      <c r="E68" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M68" s="15" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P68" s="3"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" s="26"/>
       <c r="C69" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="22" t="s">
@@ -6743,7 +6782,7 @@
         <v>66</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I69" s="15" t="s">
         <v>16</v>
@@ -6754,24 +6793,26 @@
       <c r="K69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="22" t="s">
+      <c r="L69" s="15" t="s">
         <v>66</v>
       </c>
       <c r="M69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N69" s="22" t="s">
+      <c r="N69" s="15" t="s">
         <v>66</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P69" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" s="26"/>
       <c r="C70" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D70" s="41"/>
       <c r="E70" s="22" t="s">
@@ -6795,26 +6836,24 @@
       <c r="K70" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="22" t="s">
         <v>66</v>
       </c>
       <c r="M70" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="15" t="s">
+      <c r="N70" s="22" t="s">
         <v>66</v>
       </c>
       <c r="O70" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P70" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="P70" s="3"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" s="26"/>
       <c r="C71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="22" t="s">
@@ -6827,7 +6866,7 @@
         <v>66</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>16</v>
@@ -6839,25 +6878,25 @@
         <v>16</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M71" s="15" t="s">
         <v>16</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B72" s="26"/>
       <c r="C72" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" s="41"/>
       <c r="E72" s="22" t="s">
@@ -6900,7 +6939,7 @@
     <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" s="26"/>
       <c r="C73" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="22" t="s">
@@ -6943,93 +6982,95 @@
     <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" s="26"/>
       <c r="C74" s="3" t="s">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="D74" s="41"/>
-      <c r="E74" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>253</v>
+      <c r="E74" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J74" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M74" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N74" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="O74" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P74" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" s="26"/>
       <c r="C75" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>25</v>
+        <v>293</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="M75" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N75" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="O75" s="32" t="s">
+        <v>161</v>
       </c>
       <c r="P75" s="3"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" s="26"/>
       <c r="C76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="41"/>
+        <v>273</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>272</v>
+      </c>
       <c r="E76" s="15" t="s">
         <v>16</v>
       </c>
@@ -7040,7 +7081,7 @@
         <v>16</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I76" s="15" t="s">
         <v>16</v>
@@ -7061,18 +7102,16 @@
         <v>16</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P76" s="3"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" s="26"/>
       <c r="C77" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>275</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D77" s="41"/>
       <c r="E77" s="15" t="s">
         <v>16</v>
       </c>
@@ -7111,10 +7150,10 @@
     <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="26"/>
       <c r="C78" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>16</v>
@@ -7154,95 +7193,97 @@
     <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="26"/>
       <c r="C79" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E79" s="15">
-        <v>1</v>
-      </c>
-      <c r="F79" s="15">
-        <v>1</v>
-      </c>
-      <c r="G79" s="15">
-        <v>1</v>
-      </c>
-      <c r="H79" s="15">
-        <v>1</v>
-      </c>
-      <c r="I79" s="15">
-        <v>1</v>
-      </c>
-      <c r="J79" s="15">
-        <v>1</v>
-      </c>
-      <c r="K79" s="15">
-        <v>1</v>
-      </c>
-      <c r="L79" s="15">
-        <v>1</v>
-      </c>
-      <c r="M79" s="15">
-        <v>1</v>
-      </c>
-      <c r="N79" s="15">
-        <v>1</v>
-      </c>
-      <c r="O79" s="15">
-        <v>1</v>
+        <v>276</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="P79" s="3"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="26"/>
       <c r="C80" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O80" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="15">
+        <v>1</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1</v>
+      </c>
+      <c r="H80" s="15">
+        <v>1</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1</v>
+      </c>
+      <c r="J80" s="15">
+        <v>1</v>
+      </c>
+      <c r="K80" s="15">
+        <v>1</v>
+      </c>
+      <c r="L80" s="15">
+        <v>1</v>
+      </c>
+      <c r="M80" s="15">
+        <v>1</v>
+      </c>
+      <c r="N80" s="15">
+        <v>1</v>
+      </c>
+      <c r="O80" s="15">
+        <v>1</v>
       </c>
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="26"/>
       <c r="C81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="41"/>
+        <v>281</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>280</v>
+      </c>
       <c r="E81" s="15" t="s">
         <v>16</v>
       </c>
@@ -7250,10 +7291,10 @@
         <v>16</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>16</v>
@@ -7265,107 +7306,107 @@
         <v>16</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M81" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81" s="3"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="26"/>
       <c r="C82" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="O82" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="P82" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="26"/>
       <c r="C83" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="O83" s="23" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" s="26"/>
       <c r="C84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="15" t="s">
@@ -7375,10 +7416,10 @@
         <v>16</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I84" s="15" t="s">
         <v>16</v>
@@ -7390,53 +7431,51 @@
         <v>16</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M84" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O84" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" ht="26" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="26"/>
       <c r="C85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H85" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L85" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="M85" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N85" s="23" t="s">
         <v>25</v>
@@ -7444,42 +7483,42 @@
       <c r="O85" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P85" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B86" s="26"/>
       <c r="C86" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N86" s="23" t="s">
         <v>25</v>
@@ -7487,21 +7526,21 @@
       <c r="O86" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P86" s="2" t="s">
-        <v>157</v>
+      <c r="P86" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="26"/>
       <c r="C87" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="15" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>25</v>
@@ -7510,19 +7549,19 @@
         <v>25</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K87" s="32" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N87" s="23" t="s">
         <v>25</v>
@@ -7530,14 +7569,14 @@
       <c r="O87" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P87" s="3" t="s">
-        <v>294</v>
+      <c r="P87" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="26"/>
       <c r="C88" s="3" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="15" t="s">
@@ -7553,77 +7592,77 @@
         <v>25</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K88" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K88" s="32" t="s">
         <v>25</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M88" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N88" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O88" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88" s="23" t="s">
         <v>25</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" ht="26" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="26"/>
       <c r="C89" s="3" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="15" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="O89" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B90" s="26"/>
       <c r="C90" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="15" t="s">
@@ -7663,51 +7702,53 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B91" s="26"/>
       <c r="C91" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="15" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="N91" s="15" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="O91" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P91" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="26"/>
       <c r="C92" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="15" t="s">
@@ -7745,10 +7786,10 @@
       </c>
       <c r="P92" s="3"/>
     </row>
-    <row r="93" spans="2:16" ht="26" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="26"/>
       <c r="C93" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="15" t="s">
@@ -7758,10 +7799,10 @@
         <v>82</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="I93" s="15" t="s">
         <v>82</v>
@@ -7773,59 +7814,57 @@
         <v>82</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="M93" s="15" t="s">
         <v>82</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P93" s="3"/>
     </row>
     <row r="94" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B94" s="26"/>
       <c r="C94" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="15" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>246</v>
@@ -7834,7 +7873,7 @@
     <row r="95" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B95" s="26"/>
       <c r="C95" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="15" t="s">
@@ -7877,52 +7916,54 @@
     <row r="96" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B96" s="26"/>
       <c r="C96" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I96" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="J96" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="K96" s="16" t="s">
-        <v>253</v>
+        <v>242</v>
+      </c>
+      <c r="D96" s="41"/>
+      <c r="E96" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="N96" s="15" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="P96" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="97" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B97" s="26"/>
       <c r="C97" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="41"/>
+        <v>282</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>247</v>
+      </c>
       <c r="E97" s="16" t="s">
         <v>253</v>
       </c>
@@ -7945,23 +7986,23 @@
         <v>253</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B98" s="26"/>
       <c r="C98" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="16" t="s">
@@ -7986,23 +8027,23 @@
         <v>253</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O98" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B99" s="26"/>
       <c r="C99" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="16" t="s">
@@ -8027,23 +8068,23 @@
         <v>253</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B100" s="26"/>
       <c r="C100" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D100" s="41"/>
       <c r="E100" s="16" t="s">
@@ -8068,23 +8109,23 @@
         <v>253</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M100" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O100" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B101" s="26"/>
       <c r="C101" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="16" t="s">
@@ -8109,23 +8150,23 @@
         <v>253</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B102" s="26"/>
       <c r="C102" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="16" t="s">
@@ -8150,23 +8191,23 @@
         <v>253</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P102" s="3"/>
     </row>
     <row r="103" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B103" s="26"/>
       <c r="C103" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="16" t="s">
@@ -8191,23 +8232,23 @@
         <v>253</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" spans="2:16" ht="39" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B104" s="26"/>
       <c r="C104" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="16" t="s">
@@ -8232,23 +8273,23 @@
         <v>253</v>
       </c>
       <c r="L104" s="15" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="2:16" ht="26" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" ht="39" x14ac:dyDescent="0.35">
       <c r="B105" s="26"/>
       <c r="C105" s="3" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="16" t="s">
@@ -8273,23 +8314,23 @@
         <v>253</v>
       </c>
       <c r="L105" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M105" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="26"/>
       <c r="C106" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="16" t="s">
@@ -8314,23 +8355,23 @@
         <v>253</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M106" s="15" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="26"/>
       <c r="C107" s="3" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="16" t="s">
@@ -8339,155 +8380,153 @@
       <c r="F107" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G107" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J107" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K107" s="15" t="s">
-        <v>25</v>
+      <c r="G107" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K107" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="L107" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M107" s="20" t="s">
-        <v>25</v>
+        <v>249</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="O107" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P107" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="P107" s="3"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="26"/>
       <c r="C108" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D108" s="41"/>
-      <c r="E108" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F108" s="15">
-        <v>12</v>
-      </c>
-      <c r="G108" s="15">
-        <v>12</v>
-      </c>
-      <c r="H108" s="15">
-        <v>12</v>
+      <c r="E108" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J108" s="15">
-        <v>12</v>
-      </c>
-      <c r="K108" s="15">
-        <v>12</v>
-      </c>
-      <c r="L108" s="15">
-        <v>12</v>
-      </c>
-      <c r="M108" s="20">
-        <v>12</v>
-      </c>
-      <c r="N108" s="15">
-        <v>12</v>
-      </c>
-      <c r="O108" s="15">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M108" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O108" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="26"/>
       <c r="C109" s="3" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D109" s="41"/>
-      <c r="E109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="J109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="K109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="L109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="M109" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O109" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P109" s="3"/>
+      <c r="E109" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="15">
+        <v>12</v>
+      </c>
+      <c r="G109" s="15">
+        <v>12</v>
+      </c>
+      <c r="H109" s="15">
+        <v>12</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J109" s="15">
+        <v>12</v>
+      </c>
+      <c r="K109" s="15">
+        <v>12</v>
+      </c>
+      <c r="L109" s="15">
+        <v>12</v>
+      </c>
+      <c r="M109" s="20">
+        <v>12</v>
+      </c>
+      <c r="N109" s="15">
+        <v>12</v>
+      </c>
+      <c r="O109" s="15">
+        <v>12</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="26"/>
       <c r="C110" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M110" s="15" t="s">
-        <v>16</v>
+        <v>173</v>
+      </c>
+      <c r="D110" s="41"/>
+      <c r="E110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="M110" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>16</v>
@@ -8500,89 +8539,91 @@
     <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="26"/>
       <c r="C111" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D111" s="41"/>
+        <v>284</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>283</v>
+      </c>
       <c r="E111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="L111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="M111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="O111" s="15" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="26"/>
       <c r="C112" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="26"/>
       <c r="C113" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="15" t="s">
@@ -8618,305 +8659,305 @@
       <c r="O113" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="P113" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="P113" s="3"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="26"/>
       <c r="C114" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D114" s="41" t="s">
-        <v>285</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D114" s="41"/>
       <c r="E114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P114" s="3"/>
+        <v>298</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="26"/>
       <c r="C115" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" s="41"/>
+        <v>286</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>285</v>
+      </c>
       <c r="E115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="N115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="O115" s="15" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="26"/>
       <c r="C116" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P116" s="3"/>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="26"/>
       <c r="C117" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K117" s="32" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="L117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="N117" s="15" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="O117" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P117" s="3"/>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="26"/>
       <c r="C118" s="3" t="s">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="D118" s="41"/>
       <c r="E118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="J118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="K118" s="32" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="L118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="O118" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="P118" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="26"/>
       <c r="C119" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D119" s="41"/>
-      <c r="E119" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H119" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I119" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="J119" s="16" t="s">
-        <v>253</v>
+      <c r="E119" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="K119" s="32" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="26"/>
       <c r="C120" s="3" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="D120" s="41"/>
-      <c r="E120" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K120" s="15" t="s">
-        <v>16</v>
+      <c r="E120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K120" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="L120" s="15" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="M120" s="15" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="N120" s="15" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="O120" s="15" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="P120" s="3"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="26"/>
       <c r="C121" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="15" t="s">
@@ -8957,89 +8998,89 @@
     <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="26"/>
       <c r="C122" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D122" s="41"/>
-      <c r="E122" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>217</v>
+      <c r="E122" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="L122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="M122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="O122" s="15" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="P122" s="3"/>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="26"/>
       <c r="C123" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D123" s="41"/>
-      <c r="E123" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>16</v>
+      <c r="E123" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="J123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="L123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="M123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="P123" s="3"/>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="26"/>
       <c r="C124" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D124" s="41"/>
       <c r="E124" s="15" t="s">
@@ -9080,7 +9121,7 @@
     <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="26"/>
       <c r="C125" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="15" t="s">
@@ -9121,7 +9162,7 @@
     <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="26"/>
       <c r="C126" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="15" t="s">
@@ -9162,14 +9203,14 @@
     <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="26"/>
       <c r="C127" s="3" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G127" s="15" t="s">
         <v>16</v>
@@ -9178,19 +9219,19 @@
         <v>16</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J127" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K127" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L127" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M127" s="15" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N127" s="15" t="s">
         <v>16</v>
@@ -9198,23 +9239,19 @@
       <c r="O127" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P127" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="2:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="B128" s="27" t="s">
-        <v>115</v>
-      </c>
+      <c r="P127" s="3"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B128" s="26"/>
       <c r="C128" s="3" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G128" s="15" t="s">
         <v>16</v>
@@ -9222,35 +9259,37 @@
       <c r="H128" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I128" s="17" t="s">
-        <v>16</v>
+      <c r="I128" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L128" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M128" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N128" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="O128" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N128" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O128" s="15" t="s">
         <v>16</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="B129" s="26"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" ht="39" x14ac:dyDescent="0.35">
+      <c r="B129" s="27" t="s">
+        <v>115</v>
+      </c>
       <c r="C129" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="15" t="s">
@@ -9265,7 +9304,7 @@
       <c r="H129" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I129" s="15" t="s">
+      <c r="I129" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J129" s="15" t="s">
@@ -9274,26 +9313,26 @@
       <c r="K129" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O129" s="15" t="s">
+      <c r="L129" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M129" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N129" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O129" s="17" t="s">
         <v>16</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B130" s="26"/>
       <c r="C130" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D130" s="41"/>
       <c r="E130" s="15" t="s">
@@ -9329,12 +9368,14 @@
       <c r="O130" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P130" s="3"/>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="P130" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B131" s="26"/>
       <c r="C131" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="15" t="s">
@@ -9375,7 +9416,7 @@
     <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="26"/>
       <c r="C132" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D132" s="41"/>
       <c r="E132" s="15" t="s">
@@ -9416,525 +9457,525 @@
     <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="26"/>
       <c r="C133" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O133" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P133" s="3"/>
     </row>
-    <row r="134" spans="2:16" ht="65" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="26"/>
       <c r="C134" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D134" s="41"/>
       <c r="E134" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O134" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P134" s="3"/>
+    </row>
+    <row r="135" spans="2:16" ht="65" x14ac:dyDescent="0.35">
+      <c r="B135" s="26"/>
+      <c r="C135" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D135" s="41"/>
+      <c r="E135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H135" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N134" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O134" s="15" t="s">
+      <c r="I135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O135" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P134" s="3" t="s">
+      <c r="P135" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="2:16" ht="39" x14ac:dyDescent="0.35">
-      <c r="B135" s="26"/>
-      <c r="C135" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H135" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="I135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="L135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="N135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O135" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="P135" s="2"/>
-    </row>
-    <row r="136" spans="2:16" ht="26" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" ht="39" x14ac:dyDescent="0.35">
       <c r="B136" s="26"/>
       <c r="C136" s="2" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="D136" s="44"/>
       <c r="E136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="H136" s="23" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="J136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="K136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="L136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="M136" s="15" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="N136" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O136" s="23" t="s">
-        <v>66</v>
+        <v>126</v>
+      </c>
+      <c r="O136" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="P136" s="2"/>
     </row>
     <row r="137" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B137" s="26"/>
       <c r="C137" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="D137" s="44"/>
       <c r="E137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H137" s="15" t="s">
-        <v>128</v>
+        <v>70</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="J137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="L137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="M137" s="15" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="N137" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O137" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O137" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P137" s="2"/>
     </row>
     <row r="138" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B138" s="26"/>
       <c r="C138" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D138" s="44"/>
       <c r="E138" s="15" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="H138" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J138" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K138" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L138" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M138" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N138" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O138" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" ht="26" x14ac:dyDescent="0.35">
+      <c r="B139" s="26"/>
+      <c r="C139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="44"/>
+      <c r="E139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O138" s="15" t="s">
+      <c r="I139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N139" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O139" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P138" s="2" t="s">
+      <c r="P139" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B139" s="26"/>
-      <c r="C139" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D139" s="41"/>
-      <c r="E139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P139" s="3"/>
-    </row>
-    <row r="140" spans="2:16" ht="52" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="26"/>
       <c r="C140" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="41"/>
       <c r="E140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="J140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="K140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="L140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="M140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="N140" s="15" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="O140" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="P140" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P140" s="3"/>
     </row>
     <row r="141" spans="2:16" ht="52" x14ac:dyDescent="0.35">
       <c r="B141" s="26"/>
       <c r="C141" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N141" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O141" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="P141" s="3"/>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" ht="52" x14ac:dyDescent="0.35">
       <c r="B142" s="26"/>
       <c r="C142" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D142" s="41"/>
+      <c r="E142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O142" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P142" s="3"/>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B143" s="26"/>
+      <c r="C143" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D142" s="41"/>
-      <c r="E142" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N142" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O142" s="15" t="s">
+      <c r="D143" s="41"/>
+      <c r="E143" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O143" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="P142" s="3"/>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B143" s="28" t="s">
+      <c r="P143" s="3"/>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B144" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D143" s="43"/>
-      <c r="E143" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I143" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J143" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K143" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L143" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M143" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N143" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O143" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P143" s="14"/>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B144" s="28"/>
-      <c r="C144" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D144" s="43"/>
       <c r="E144" s="20" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="J144" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K144" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K144" s="19" t="s">
         <v>25</v>
       </c>
       <c r="L144" s="20" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="N144" s="20" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="O144" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="P144" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="P144" s="14"/>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D145" s="43"/>
       <c r="E145" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I145" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J145" s="20" t="s">
         <v>25</v>
@@ -9943,41 +9984,39 @@
         <v>25</v>
       </c>
       <c r="L145" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N145" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O145" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="P145" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="P145" s="5"/>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D146" s="43"/>
       <c r="E146" s="20" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="J146" s="20" t="s">
         <v>25</v>
@@ -9986,39 +10025,41 @@
         <v>25</v>
       </c>
       <c r="L146" s="20" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="N146" s="20" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="O146" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P146" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="P146" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D147" s="43"/>
       <c r="E147" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F147" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I147" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J147" s="20" t="s">
         <v>25</v>
@@ -10030,24 +10071,24 @@
         <v>16</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N147" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O147" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P147" s="5"/>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D148" s="43"/>
       <c r="E148" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F148" s="20" t="s">
         <v>16</v>
@@ -10059,7 +10100,7 @@
         <v>16</v>
       </c>
       <c r="I148" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J148" s="20" t="s">
         <v>25</v>
@@ -10068,23 +10109,23 @@
         <v>25</v>
       </c>
       <c r="L148" s="20" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="N148" s="20" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="O148" s="20" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="P148" s="5"/>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D149" s="43"/>
       <c r="E149" s="20" t="s">
@@ -10109,23 +10150,23 @@
         <v>25</v>
       </c>
       <c r="L149" s="20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N149" s="20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="O149" s="20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="P149" s="5"/>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D150" s="43"/>
       <c r="E150" s="20" t="s">
@@ -10166,23 +10207,23 @@
     <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="43"/>
       <c r="E151" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F151" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="H151" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J151" s="20" t="s">
         <v>25</v>
@@ -10191,66 +10232,64 @@
         <v>25</v>
       </c>
       <c r="L151" s="20" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N151" s="20" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="O151" s="20" t="s">
         <v>16</v>
       </c>
       <c r="P151" s="5"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D152" s="43"/>
       <c r="E152" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I152" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J152" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K152" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L152" s="20" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N152" s="20" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="O152" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P152" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="P152" s="5"/>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D153" s="43"/>
       <c r="E153" s="20" t="s">
@@ -10263,7 +10302,7 @@
         <v>16</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I153" s="20" t="s">
         <v>16</v>
@@ -10284,45 +10323,47 @@
         <v>16</v>
       </c>
       <c r="O153" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P153" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="P153" s="14" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D154" s="43"/>
       <c r="E154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F154" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H154" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N154" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O154" s="20" t="s">
         <v>16</v>
@@ -10332,43 +10373,84 @@
     <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D155" s="43"/>
       <c r="E155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O155" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P155" s="5"/>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B156" s="28"/>
+      <c r="C156" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D156" s="43"/>
+      <c r="E156" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="F155" s="20" t="s">
+      <c r="F156" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G155" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H155" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I155" s="20" t="s">
+      <c r="G156" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I156" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="J155" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K155" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L155" s="20" t="s">
+      <c r="J156" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="M155" s="32" t="s">
+      <c r="M156" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="N155" s="20" t="s">
+      <c r="N156" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="O155" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P155" s="5"/>
+      <c r="O156" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P156" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -2006,6 +2006,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J156" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Standalone SMS (PCR 1209633796)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M156" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2719,9 +2743,6 @@
   </si>
   <si>
     <t>512 KB</t>
-  </si>
-  <si>
-    <t>Yes (2)</t>
   </si>
   <si>
     <t>CSME 2.0 / IE 1.1</t>
@@ -3038,7 +3059,11 @@
     <t>ECC p256</t>
   </si>
   <si>
-    <t>- Split ECC 256 (SC resistant) to a different row due to SCA bug in ICP-LP</t>
+    <t>- Split ECC 256 (SCA resistant) to a different row due to SCA bug in ICP-LP
+- Update SMS to yes for ICP-N (PCR 1209633796)</t>
+  </si>
+  <si>
+    <t>Yes (x1)</t>
   </si>
 </sst>
 </file>
@@ -3048,7 +3073,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3150,6 +3175,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3785,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3830,7 +3868,7 @@
         <v>193</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -3841,7 +3879,7 @@
         <v>193</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -3852,7 +3890,7 @@
         <v>193</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -3863,7 +3901,7 @@
         <v>193</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -3874,7 +3912,7 @@
         <v>193</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -3885,7 +3923,7 @@
         <v>193</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -3896,18 +3934,18 @@
         <v>193</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>42800</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>313</v>
+      <c r="D11" s="39" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -3961,11 +3999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P156"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -3981,10 +4019,10 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
@@ -3992,7 +4030,7 @@
       <c r="C2" s="29"/>
       <c r="D2" s="42"/>
       <c r="E2" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
@@ -4004,7 +4042,7 @@
         <v>218</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>139</v>
@@ -4045,7 +4083,7 @@
         <v>219</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>141</v>
@@ -4281,10 +4319,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>14</v>
@@ -4302,10 +4340,10 @@
         <v>14</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -4353,32 +4391,32 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>16</v>
@@ -4558,10 +4596,10 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>264</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>265</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>16</v>
@@ -4601,7 +4639,7 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="26"/>
       <c r="C17" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="15" t="s">
@@ -4892,16 +4930,16 @@
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>16</v>
@@ -4933,16 +4971,16 @@
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>16</v>
@@ -4974,16 +5012,16 @@
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>16</v>
@@ -5015,16 +5053,16 @@
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>16</v>
@@ -5056,16 +5094,16 @@
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>16</v>
@@ -5136,10 +5174,10 @@
         <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>35</v>
@@ -5179,10 +5217,10 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="26"/>
       <c r="C31" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>36</v>
@@ -5226,34 +5264,34 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O32" s="15" t="s">
         <v>16</v>
@@ -5386,29 +5424,29 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="26"/>
       <c r="C36" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L36" s="24" t="s">
         <v>16</v>
@@ -5550,38 +5588,38 @@
         <v>49</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="26"/>
       <c r="C40" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M40" s="20" t="s">
         <v>16</v>
@@ -5816,22 +5854,22 @@
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>16</v>
@@ -5857,16 +5895,16 @@
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>16</v>
@@ -5900,16 +5938,16 @@
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>16</v>
@@ -5943,16 +5981,16 @@
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>16</v>
@@ -5986,16 +6024,16 @@
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>153</v>
@@ -6070,16 +6108,16 @@
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>16</v>
@@ -6111,28 +6149,28 @@
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M53" s="15" t="s">
         <v>16</v>
@@ -6234,28 +6272,28 @@
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>16</v>
@@ -6441,20 +6479,20 @@
     <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="26"/>
       <c r="C61" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>16</v>
@@ -6486,19 +6524,19 @@
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J62" s="15" t="s">
         <v>16</v>
@@ -6521,28 +6559,28 @@
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M63" s="15" t="s">
         <v>16</v>
@@ -6558,26 +6596,26 @@
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="26"/>
       <c r="C64" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K64" s="32" t="s">
         <v>16</v>
@@ -6601,10 +6639,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>68</v>
@@ -6625,7 +6663,7 @@
         <v>203</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L65" s="15" t="s">
         <v>68</v>
@@ -6644,10 +6682,10 @@
     <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="26"/>
       <c r="C66" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>16</v>
@@ -7025,20 +7063,20 @@
     <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" s="26"/>
       <c r="C75" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>82</v>
@@ -7066,10 +7104,10 @@
     <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" s="26"/>
       <c r="C76" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>16</v>
@@ -7150,10 +7188,10 @@
     <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="26"/>
       <c r="C78" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="41" t="s">
         <v>274</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>275</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>16</v>
@@ -7193,10 +7231,10 @@
     <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="26"/>
       <c r="C79" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>16</v>
@@ -7236,10 +7274,10 @@
     <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="26"/>
       <c r="C80" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="41" t="s">
         <v>278</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>279</v>
       </c>
       <c r="E80" s="15">
         <v>1</v>
@@ -7279,10 +7317,10 @@
     <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="26"/>
       <c r="C81" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>16</v>
@@ -7613,7 +7651,7 @@
         <v>25</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.35">
@@ -7656,99 +7694,99 @@
         <v>25</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B90" s="26"/>
       <c r="C90" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G90" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="H90" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="I90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L90" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="M90" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N90" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="O90" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="L90" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="M90" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N90" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O90" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="P90" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B91" s="26"/>
       <c r="C91" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="H91" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="I91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L91" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="M91" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N91" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="O91" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="L91" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N91" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O91" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="P91" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="26"/>
       <c r="C92" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="15" t="s">
@@ -7789,7 +7827,7 @@
     <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="26"/>
       <c r="C93" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="15" t="s">
@@ -7830,7 +7868,7 @@
     <row r="94" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B94" s="26"/>
       <c r="C94" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="15" t="s">
@@ -7840,10 +7878,10 @@
         <v>82</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I94" s="15" t="s">
         <v>82</v>
@@ -7855,147 +7893,147 @@
         <v>82</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>82</v>
       </c>
       <c r="N94" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O94" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="O94" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B95" s="26"/>
       <c r="C95" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="H95" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="I95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L95" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J95" s="15" t="s">
+      <c r="M95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N95" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K95" s="15" t="s">
+      <c r="O95" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="L95" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="M95" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O95" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="P95" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B96" s="26"/>
       <c r="C96" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="H96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="I96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="M96" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K96" s="15" t="s">
+      <c r="O96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="L96" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N96" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O96" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="P96" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B97" s="26"/>
       <c r="C97" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P97" s="3"/>
     </row>
@@ -8006,37 +8044,37 @@
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O98" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P98" s="3"/>
     </row>
@@ -8047,37 +8085,37 @@
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P99" s="3"/>
     </row>
@@ -8088,37 +8126,37 @@
       </c>
       <c r="D100" s="41"/>
       <c r="E100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M100" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O100" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P100" s="3"/>
     </row>
@@ -8129,37 +8167,37 @@
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P101" s="3"/>
     </row>
@@ -8170,37 +8208,37 @@
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P102" s="3"/>
     </row>
@@ -8211,37 +8249,37 @@
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P103" s="3"/>
     </row>
@@ -8252,37 +8290,37 @@
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L104" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P104" s="3"/>
     </row>
@@ -8293,119 +8331,119 @@
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L105" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M105" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="26"/>
       <c r="C106" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M106" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="26"/>
       <c r="C107" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L107" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O107" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P107" s="3"/>
     </row>
@@ -8416,10 +8454,10 @@
       </c>
       <c r="D108" s="41"/>
       <c r="E108" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>16</v>
@@ -8502,31 +8540,31 @@
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M110" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>16</v>
@@ -8539,10 +8577,10 @@
     <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="26"/>
       <c r="C111" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D111" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>16</v>
@@ -8582,123 +8620,123 @@
     <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="26"/>
       <c r="C112" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="26"/>
       <c r="C113" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="26"/>
       <c r="C114" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>100</v>
@@ -8707,10 +8745,10 @@
     <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="26"/>
       <c r="C115" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>16</v>
@@ -8875,82 +8913,82 @@
     <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="26"/>
       <c r="C119" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="K119" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L119" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M119" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F119" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="J119" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="K119" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="L119" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="N119" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="26"/>
       <c r="C120" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K120" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L120" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="L120" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="M120" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="N120" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="N120" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="O120" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P120" s="3"/>
     </row>
@@ -9244,7 +9282,7 @@
     <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="26"/>
       <c r="C128" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="15" t="s">
@@ -9326,7 +9364,7 @@
         <v>16</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="2:16" ht="26" x14ac:dyDescent="0.35">
@@ -9744,7 +9782,7 @@
         <v>76</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.35">
@@ -9879,10 +9917,10 @@
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>25</v>
@@ -10037,7 +10075,7 @@
         <v>202</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.35">
@@ -10430,10 +10468,10 @@
         <v>25</v>
       </c>
       <c r="I156" s="20" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="K156" s="20" t="s">
         <v>25</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -3038,16 +3038,10 @@
     <t>Feature not available yet</t>
   </si>
   <si>
-    <t>FW AON buffer size</t>
-  </si>
-  <si>
     <t>0.5 KB</t>
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>HW Save &amp; Restore buffer size</t>
   </si>
   <si>
     <t>- Added HW Save &amp; Restore buffer size row</t>
@@ -3064,6 +3058,12 @@
   </si>
   <si>
     <t>Yes (x1)</t>
+  </si>
+  <si>
+    <t>FW AON Memory</t>
+  </si>
+  <si>
+    <t>HW Save &amp; Restore AON Memory</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3462,12 +3462,8 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3490,7 +3486,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3511,6 +3506,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3823,19 +3824,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="72.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="72.54296875" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="52"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
@@ -3849,7 +3851,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>42734</v>
       </c>
@@ -3889,7 +3891,7 @@
       <c r="C6" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="12" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3911,7 +3913,7 @@
       <c r="C8" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="12" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3919,74 +3921,74 @@
       <c r="B9" s="10">
         <v>42761</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>309</v>
+      <c r="D9" s="53" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>42782</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>310</v>
+      <c r="D10" s="53" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>42800</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>312</v>
+      <c r="D11" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,11 +4001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J153" sqref="J153"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -4018,7 +4020,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4028,40 +4030,40 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="33" t="s">
         <v>138</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="43" t="s">
         <v>255</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="50" t="s">
         <v>192</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -4097,14 +4099,14 @@
       <c r="O3" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4140,7 @@
       <c r="O4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="51"/>
+      <c r="P4" s="48"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
@@ -4147,7 +4149,7 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="15">
         <v>3.5</v>
       </c>
@@ -4188,7 +4190,7 @@
       <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="15">
         <v>1.38</v>
       </c>
@@ -4229,7 +4231,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
@@ -4270,7 +4272,7 @@
       <c r="C8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="23" t="s">
         <v>25</v>
       </c>
@@ -4311,7 +4313,7 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
@@ -4352,7 +4354,7 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="15" t="s">
         <v>16</v>
       </c>
@@ -4393,7 +4395,7 @@
       <c r="C11" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="16" t="s">
         <v>252</v>
       </c>
@@ -4427,14 +4429,14 @@
       <c r="O11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="38"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="15" t="s">
         <v>16</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
@@ -4516,7 +4518,7 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="15" t="s">
         <v>16</v>
       </c>
@@ -4557,7 +4559,7 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="15" t="s">
         <v>146</v>
       </c>
@@ -4598,7 +4600,7 @@
       <c r="C16" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>264</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -4641,7 +4643,7 @@
       <c r="C17" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
         <v>16</v>
       </c>
@@ -4682,7 +4684,7 @@
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="15" t="s">
         <v>16</v>
       </c>
@@ -4723,7 +4725,7 @@
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="15">
         <v>32</v>
       </c>
@@ -4764,7 +4766,7 @@
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
@@ -4805,7 +4807,7 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="15" t="s">
         <v>25</v>
       </c>
@@ -4846,7 +4848,7 @@
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="15">
         <v>32</v>
       </c>
@@ -4887,7 +4889,7 @@
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="15">
         <v>32</v>
       </c>
@@ -4928,7 +4930,7 @@
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="16" t="s">
         <v>252</v>
       </c>
@@ -4969,7 +4971,7 @@
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="16" t="s">
         <v>252</v>
       </c>
@@ -5010,7 +5012,7 @@
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="41"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="16" t="s">
         <v>252</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="16" t="s">
         <v>252</v>
       </c>
@@ -5092,7 +5094,7 @@
       <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="16" t="s">
         <v>252</v>
       </c>
@@ -5133,7 +5135,7 @@
       <c r="C29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15" t="s">
         <v>16</v>
       </c>
@@ -5176,7 +5178,7 @@
       <c r="C30" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="39" t="s">
         <v>256</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -5219,7 +5221,7 @@
       <c r="C31" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="39" t="s">
         <v>258</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -5262,7 +5264,7 @@
       <c r="C32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="41"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="16" t="s">
         <v>252</v>
       </c>
@@ -5303,7 +5305,7 @@
       <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="15">
         <v>128</v>
       </c>
@@ -5344,7 +5346,7 @@
       <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="15" t="s">
         <v>40</v>
       </c>
@@ -5385,7 +5387,7 @@
       <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="15" t="s">
         <v>16</v>
       </c>
@@ -5426,7 +5428,7 @@
       <c r="C36" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="16" t="s">
         <v>252</v>
       </c>
@@ -5469,7 +5471,7 @@
       <c r="C37" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="15" t="s">
         <v>42</v>
       </c>
@@ -5512,7 +5514,7 @@
       <c r="C38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="15" t="s">
         <v>16</v>
       </c>
@@ -5553,7 +5555,7 @@
       <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="15" t="s">
         <v>48</v>
       </c>
@@ -5596,7 +5598,7 @@
       <c r="C40" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="16" t="s">
         <v>252</v>
       </c>
@@ -5630,7 +5632,7 @@
       <c r="O40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="38"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="26" t="s">
@@ -5639,7 +5641,7 @@
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="15">
         <v>1</v>
       </c>
@@ -5680,7 +5682,7 @@
       <c r="C42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="15" t="s">
         <v>16</v>
       </c>
@@ -5723,7 +5725,7 @@
       <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="15" t="s">
         <v>16</v>
       </c>
@@ -5766,7 +5768,7 @@
       <c r="C44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="15" t="s">
         <v>16</v>
       </c>
@@ -5809,7 +5811,7 @@
       <c r="C45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="41"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="15" t="s">
         <v>16</v>
       </c>
@@ -5852,7 +5854,7 @@
       <c r="C46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="41"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="16" t="s">
         <v>252</v>
       </c>
@@ -5893,7 +5895,7 @@
       <c r="C47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="43"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="16" t="s">
         <v>252</v>
       </c>
@@ -5936,7 +5938,7 @@
       <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="43"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="16" t="s">
         <v>252</v>
       </c>
@@ -5979,7 +5981,7 @@
       <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="16" t="s">
         <v>252</v>
       </c>
@@ -6022,7 +6024,7 @@
       <c r="C50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="16" t="s">
         <v>252</v>
       </c>
@@ -6065,7 +6067,7 @@
       <c r="C51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="41"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="15" t="s">
         <v>16</v>
       </c>
@@ -6106,7 +6108,7 @@
       <c r="C52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="41"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="16" t="s">
         <v>252</v>
       </c>
@@ -6147,7 +6149,7 @@
       <c r="C53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="16" t="s">
         <v>252</v>
       </c>
@@ -6188,7 +6190,7 @@
       <c r="C54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="15" t="s">
         <v>16</v>
       </c>
@@ -6229,7 +6231,7 @@
       <c r="C55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="15" t="s">
         <v>16</v>
       </c>
@@ -6270,7 +6272,7 @@
       <c r="C56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="16" t="s">
         <v>252</v>
       </c>
@@ -6311,7 +6313,7 @@
       <c r="C57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="41"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="15" t="s">
         <v>16</v>
       </c>
@@ -6354,7 +6356,7 @@
       <c r="C58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D58" s="41"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="15" t="s">
         <v>16</v>
       </c>
@@ -6395,7 +6397,7 @@
       <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="41"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="15" t="s">
         <v>16</v>
       </c>
@@ -6438,7 +6440,7 @@
       <c r="C60" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="41"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="15" t="s">
         <v>178</v>
       </c>
@@ -6479,9 +6481,9 @@
     <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="26"/>
       <c r="C61" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="41"/>
+        <v>309</v>
+      </c>
+      <c r="D61" s="39"/>
       <c r="E61" s="16" t="s">
         <v>252</v>
       </c>
@@ -6522,7 +6524,7 @@
       <c r="C62" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="41"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="16" t="s">
         <v>252</v>
       </c>
@@ -6557,7 +6559,7 @@
       <c r="C63" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="41"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="16" t="s">
         <v>252</v>
       </c>
@@ -6598,7 +6600,7 @@
       <c r="C64" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="16" t="s">
         <v>252</v>
       </c>
@@ -6641,7 +6643,7 @@
       <c r="C65" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="39" t="s">
         <v>266</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -6684,7 +6686,7 @@
       <c r="C66" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="39" t="s">
         <v>269</v>
       </c>
       <c r="E66" s="15" t="s">
@@ -6727,7 +6729,7 @@
       <c r="C67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="41"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="15">
         <v>5</v>
       </c>
@@ -6768,7 +6770,7 @@
       <c r="C68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="41"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="15" t="s">
         <v>72</v>
       </c>
@@ -6809,7 +6811,7 @@
       <c r="C69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="41"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="22" t="s">
         <v>16</v>
       </c>
@@ -6852,7 +6854,7 @@
       <c r="C70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="41"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="22" t="s">
         <v>16</v>
       </c>
@@ -6893,7 +6895,7 @@
       <c r="C71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="41"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="22" t="s">
         <v>16</v>
       </c>
@@ -6936,7 +6938,7 @@
       <c r="C72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="41"/>
+      <c r="D72" s="39"/>
       <c r="E72" s="22" t="s">
         <v>16</v>
       </c>
@@ -6979,7 +6981,7 @@
       <c r="C73" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="41"/>
+      <c r="D73" s="39"/>
       <c r="E73" s="22" t="s">
         <v>16</v>
       </c>
@@ -7022,7 +7024,7 @@
       <c r="C74" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="41"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="22" t="s">
         <v>16</v>
       </c>
@@ -7065,7 +7067,7 @@
       <c r="C75" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D75" s="41"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="16" t="s">
         <v>252</v>
       </c>
@@ -7106,7 +7108,7 @@
       <c r="C76" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="39" t="s">
         <v>271</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -7149,7 +7151,7 @@
       <c r="C77" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="41"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="15" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7192,7 @@
       <c r="C78" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="39" t="s">
         <v>274</v>
       </c>
       <c r="E78" s="15" t="s">
@@ -7233,7 +7235,7 @@
       <c r="C79" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="39" t="s">
         <v>275</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -7276,7 +7278,7 @@
       <c r="C80" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="39" t="s">
         <v>278</v>
       </c>
       <c r="E80" s="15">
@@ -7319,7 +7321,7 @@
       <c r="C81" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="39" t="s">
         <v>279</v>
       </c>
       <c r="E81" s="15" t="s">
@@ -7362,7 +7364,7 @@
       <c r="C82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="41"/>
+      <c r="D82" s="39"/>
       <c r="E82" s="15" t="s">
         <v>16</v>
       </c>
@@ -7405,7 +7407,7 @@
       <c r="C83" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="41"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="15" t="s">
         <v>25</v>
       </c>
@@ -7446,7 +7448,7 @@
       <c r="C84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D84" s="41"/>
+      <c r="D84" s="39"/>
       <c r="E84" s="15" t="s">
         <v>16</v>
       </c>
@@ -7487,7 +7489,7 @@
       <c r="C85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="41"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="15" t="s">
         <v>16</v>
       </c>
@@ -7530,7 +7532,7 @@
       <c r="C86" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="41"/>
+      <c r="D86" s="39"/>
       <c r="E86" s="15" t="s">
         <v>25</v>
       </c>
@@ -7573,7 +7575,7 @@
       <c r="C87" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="41"/>
+      <c r="D87" s="39"/>
       <c r="E87" s="15" t="s">
         <v>16</v>
       </c>
@@ -7616,7 +7618,7 @@
       <c r="C88" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="15" t="s">
         <v>94</v>
       </c>
@@ -7659,7 +7661,7 @@
       <c r="C89" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D89" s="41"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="15" t="s">
         <v>94</v>
       </c>
@@ -7702,7 +7704,7 @@
       <c r="C90" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D90" s="41"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="15" t="s">
         <v>242</v>
       </c>
@@ -7745,7 +7747,7 @@
       <c r="C91" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D91" s="41"/>
+      <c r="D91" s="39"/>
       <c r="E91" s="15" t="s">
         <v>242</v>
       </c>
@@ -7788,7 +7790,7 @@
       <c r="C92" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="39"/>
       <c r="E92" s="15" t="s">
         <v>82</v>
       </c>
@@ -7829,7 +7831,7 @@
       <c r="C93" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D93" s="41"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="15" t="s">
         <v>82</v>
       </c>
@@ -7870,7 +7872,7 @@
       <c r="C94" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D94" s="41"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="15" t="s">
         <v>82</v>
       </c>
@@ -7913,7 +7915,7 @@
       <c r="C95" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D95" s="41"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="15" t="s">
         <v>242</v>
       </c>
@@ -7956,7 +7958,7 @@
       <c r="C96" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="41"/>
+      <c r="D96" s="39"/>
       <c r="E96" s="15" t="s">
         <v>242</v>
       </c>
@@ -7999,7 +8001,7 @@
       <c r="C97" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="39" t="s">
         <v>246</v>
       </c>
       <c r="E97" s="16" t="s">
@@ -8042,7 +8044,7 @@
       <c r="C98" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D98" s="41"/>
+      <c r="D98" s="39"/>
       <c r="E98" s="16" t="s">
         <v>252</v>
       </c>
@@ -8083,7 +8085,7 @@
       <c r="C99" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D99" s="41"/>
+      <c r="D99" s="39"/>
       <c r="E99" s="16" t="s">
         <v>252</v>
       </c>
@@ -8124,7 +8126,7 @@
       <c r="C100" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D100" s="41"/>
+      <c r="D100" s="39"/>
       <c r="E100" s="16" t="s">
         <v>252</v>
       </c>
@@ -8165,7 +8167,7 @@
       <c r="C101" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D101" s="41"/>
+      <c r="D101" s="39"/>
       <c r="E101" s="16" t="s">
         <v>252</v>
       </c>
@@ -8206,7 +8208,7 @@
       <c r="C102" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D102" s="41"/>
+      <c r="D102" s="39"/>
       <c r="E102" s="16" t="s">
         <v>252</v>
       </c>
@@ -8247,7 +8249,7 @@
       <c r="C103" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D103" s="41"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="16" t="s">
         <v>252</v>
       </c>
@@ -8288,7 +8290,7 @@
       <c r="C104" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D104" s="41"/>
+      <c r="D104" s="39"/>
       <c r="E104" s="16" t="s">
         <v>252</v>
       </c>
@@ -8329,7 +8331,7 @@
       <c r="C105" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D105" s="41"/>
+      <c r="D105" s="39"/>
       <c r="E105" s="16" t="s">
         <v>252</v>
       </c>
@@ -8370,7 +8372,7 @@
       <c r="C106" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D106" s="41"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="16" t="s">
         <v>252</v>
       </c>
@@ -8411,7 +8413,7 @@
       <c r="C107" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D107" s="41"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="16" t="s">
         <v>252</v>
       </c>
@@ -8452,7 +8454,7 @@
       <c r="C108" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D108" s="41"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="16" t="s">
         <v>252</v>
       </c>
@@ -8495,7 +8497,7 @@
       <c r="C109" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D109" s="41"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="15" t="s">
         <v>98</v>
       </c>
@@ -8538,7 +8540,7 @@
       <c r="C110" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D110" s="41"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="16" t="s">
         <v>252</v>
       </c>
@@ -8579,7 +8581,7 @@
       <c r="C111" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" s="39" t="s">
         <v>282</v>
       </c>
       <c r="E111" s="15" t="s">
@@ -8622,7 +8624,7 @@
       <c r="C112" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D112" s="41"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="15" t="s">
         <v>296</v>
       </c>
@@ -8663,7 +8665,7 @@
       <c r="C113" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D113" s="41"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="15" t="s">
         <v>297</v>
       </c>
@@ -8704,7 +8706,7 @@
       <c r="C114" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D114" s="41"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="15" t="s">
         <v>297</v>
       </c>
@@ -8747,7 +8749,7 @@
       <c r="C115" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D115" s="41" t="s">
+      <c r="D115" s="39" t="s">
         <v>284</v>
       </c>
       <c r="E115" s="15" t="s">
@@ -8790,7 +8792,7 @@
       <c r="C116" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D116" s="41"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="15" t="s">
         <v>102</v>
       </c>
@@ -8831,7 +8833,7 @@
       <c r="C117" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="41"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="15" t="s">
         <v>104</v>
       </c>
@@ -8872,7 +8874,7 @@
       <c r="C118" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D118" s="41"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="15" t="s">
         <v>25</v>
       </c>
@@ -8913,9 +8915,9 @@
     <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="26"/>
       <c r="C119" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D119" s="41"/>
+        <v>312</v>
+      </c>
+      <c r="D119" s="39"/>
       <c r="E119" s="15" t="s">
         <v>286</v>
       </c>
@@ -8954,9 +8956,9 @@
     <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="26"/>
       <c r="C120" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D120" s="41"/>
+        <v>313</v>
+      </c>
+      <c r="D120" s="39"/>
       <c r="E120" s="16" t="s">
         <v>252</v>
       </c>
@@ -8976,19 +8978,19 @@
         <v>252</v>
       </c>
       <c r="K120" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L120" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="L120" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="M120" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="N120" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="N120" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="O120" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P120" s="3"/>
     </row>
@@ -8997,7 +8999,7 @@
       <c r="C121" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D121" s="41"/>
+      <c r="D121" s="39"/>
       <c r="E121" s="15" t="s">
         <v>16</v>
       </c>
@@ -9038,7 +9040,7 @@
       <c r="C122" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="41"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="15" t="s">
         <v>16</v>
       </c>
@@ -9079,7 +9081,7 @@
       <c r="C123" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="41"/>
+      <c r="D123" s="39"/>
       <c r="E123" s="30" t="s">
         <v>109</v>
       </c>
@@ -9120,7 +9122,7 @@
       <c r="C124" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D124" s="41"/>
+      <c r="D124" s="39"/>
       <c r="E124" s="15" t="s">
         <v>16</v>
       </c>
@@ -9161,7 +9163,7 @@
       <c r="C125" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D125" s="41"/>
+      <c r="D125" s="39"/>
       <c r="E125" s="15" t="s">
         <v>16</v>
       </c>
@@ -9202,7 +9204,7 @@
       <c r="C126" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D126" s="41"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="15" t="s">
         <v>16</v>
       </c>
@@ -9243,7 +9245,7 @@
       <c r="C127" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D127" s="41"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="15" t="s">
         <v>16</v>
       </c>
@@ -9284,7 +9286,7 @@
       <c r="C128" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D128" s="41"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="15" t="s">
         <v>25</v>
       </c>
@@ -9329,7 +9331,7 @@
       <c r="C129" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D129" s="41"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="15" t="s">
         <v>16</v>
       </c>
@@ -9372,7 +9374,7 @@
       <c r="C130" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D130" s="41"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="15" t="s">
         <v>16</v>
       </c>
@@ -9415,7 +9417,7 @@
       <c r="C131" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D131" s="41"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="15" t="s">
         <v>16</v>
       </c>
@@ -9456,7 +9458,7 @@
       <c r="C132" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D132" s="41"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="15" t="s">
         <v>16</v>
       </c>
@@ -9497,7 +9499,7 @@
       <c r="C133" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D133" s="41"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="15" t="s">
         <v>16</v>
       </c>
@@ -9538,7 +9540,7 @@
       <c r="C134" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D134" s="41"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="15" t="s">
         <v>25</v>
       </c>
@@ -9579,7 +9581,7 @@
       <c r="C135" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D135" s="41"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="15" t="s">
         <v>16</v>
       </c>
@@ -9622,7 +9624,7 @@
       <c r="C136" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D136" s="44"/>
+      <c r="D136" s="42"/>
       <c r="E136" s="15" t="s">
         <v>126</v>
       </c>
@@ -9663,7 +9665,7 @@
       <c r="C137" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D137" s="44"/>
+      <c r="D137" s="42"/>
       <c r="E137" s="15" t="s">
         <v>70</v>
       </c>
@@ -9704,7 +9706,7 @@
       <c r="C138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D138" s="44"/>
+      <c r="D138" s="42"/>
       <c r="E138" s="15" t="s">
         <v>126</v>
       </c>
@@ -9747,7 +9749,7 @@
       <c r="C139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="44"/>
+      <c r="D139" s="42"/>
       <c r="E139" s="15" t="s">
         <v>16</v>
       </c>
@@ -9790,7 +9792,7 @@
       <c r="C140" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D140" s="41"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="15" t="s">
         <v>16</v>
       </c>
@@ -9831,7 +9833,7 @@
       <c r="C141" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="41"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="15" t="s">
         <v>132</v>
       </c>
@@ -9874,7 +9876,7 @@
       <c r="C142" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D142" s="41"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="15" t="s">
         <v>135</v>
       </c>
@@ -9915,7 +9917,7 @@
       <c r="C143" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D143" s="41"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="16" t="s">
         <v>252</v>
       </c>
@@ -9958,7 +9960,7 @@
       <c r="C144" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D144" s="43"/>
+      <c r="D144" s="41"/>
       <c r="E144" s="20" t="s">
         <v>16</v>
       </c>
@@ -9999,7 +10001,7 @@
       <c r="C145" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D145" s="43"/>
+      <c r="D145" s="41"/>
       <c r="E145" s="20" t="s">
         <v>199</v>
       </c>
@@ -10040,7 +10042,7 @@
       <c r="C146" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D146" s="43"/>
+      <c r="D146" s="41"/>
       <c r="E146" s="20" t="s">
         <v>203</v>
       </c>
@@ -10083,7 +10085,7 @@
       <c r="C147" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D147" s="43"/>
+      <c r="D147" s="41"/>
       <c r="E147" s="20" t="s">
         <v>16</v>
       </c>
@@ -10124,7 +10126,7 @@
       <c r="C148" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D148" s="43"/>
+      <c r="D148" s="41"/>
       <c r="E148" s="20" t="s">
         <v>25</v>
       </c>
@@ -10165,7 +10167,7 @@
       <c r="C149" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D149" s="43"/>
+      <c r="D149" s="41"/>
       <c r="E149" s="20" t="s">
         <v>16</v>
       </c>
@@ -10206,7 +10208,7 @@
       <c r="C150" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D150" s="43"/>
+      <c r="D150" s="41"/>
       <c r="E150" s="20" t="s">
         <v>16</v>
       </c>
@@ -10247,7 +10249,7 @@
       <c r="C151" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D151" s="43"/>
+      <c r="D151" s="41"/>
       <c r="E151" s="20" t="s">
         <v>16</v>
       </c>
@@ -10288,7 +10290,7 @@
       <c r="C152" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D152" s="43"/>
+      <c r="D152" s="41"/>
       <c r="E152" s="20" t="s">
         <v>25</v>
       </c>
@@ -10329,7 +10331,7 @@
       <c r="C153" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D153" s="43"/>
+      <c r="D153" s="41"/>
       <c r="E153" s="20" t="s">
         <v>16</v>
       </c>
@@ -10372,7 +10374,7 @@
       <c r="C154" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D154" s="43"/>
+      <c r="D154" s="41"/>
       <c r="E154" s="20" t="s">
         <v>16</v>
       </c>
@@ -10413,7 +10415,7 @@
       <c r="C155" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D155" s="43"/>
+      <c r="D155" s="41"/>
       <c r="E155" s="20" t="s">
         <v>25</v>
       </c>
@@ -10454,7 +10456,7 @@
       <c r="C156" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D156" s="43"/>
+      <c r="D156" s="41"/>
       <c r="E156" s="20" t="s">
         <v>199</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>199</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K156" s="20" t="s">
         <v>25</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -2712,9 +2712,6 @@
     <t>SMS</t>
   </si>
   <si>
-    <t>Yes (x1)^</t>
-  </si>
-  <si>
     <r>
       <t>No</t>
     </r>
@@ -3064,6 +3061,9 @@
   </si>
   <si>
     <t>HW Save &amp; Restore AON Memory</t>
+  </si>
+  <si>
+    <t>Yes (x1)^</t>
   </si>
 </sst>
 </file>
@@ -3486,6 +3486,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3506,12 +3512,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3822,22 +3822,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="72.54296875" style="52" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="52"/>
+    <col min="3" max="3" width="14.90625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="72.54296875" style="45" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
@@ -3870,7 +3870,7 @@
         <v>193</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -3881,7 +3881,7 @@
         <v>193</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -3892,7 +3892,7 @@
         <v>193</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -3903,7 +3903,7 @@
         <v>193</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -3914,7 +3914,7 @@
         <v>193</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -3924,8 +3924,8 @@
       <c r="C9" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>307</v>
+      <c r="D9" s="46" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -3935,8 +3935,8 @@
       <c r="C10" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>308</v>
+      <c r="D10" s="46" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -3947,7 +3947,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -3984,11 +3984,6 @@
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4001,11 +3996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P156"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="M156" sqref="M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -4021,49 +4016,49 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="C2" s="29"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="E2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="33" t="s">
         <v>138</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="52" t="s">
         <v>192</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -4082,10 +4077,10 @@
         <v>6</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>141</v>
@@ -4099,14 +4094,14 @@
       <c r="O3" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="34" t="s">
         <v>3</v>
       </c>
@@ -4123,10 +4118,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>3</v>
@@ -4140,7 +4135,7 @@
       <c r="O4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="48"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
@@ -4321,10 +4316,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>14</v>
@@ -4342,10 +4337,10 @@
         <v>14</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -4393,32 +4388,32 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>16</v>
@@ -4598,10 +4593,10 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>263</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>264</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>16</v>
@@ -4641,7 +4636,7 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="26"/>
       <c r="C17" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
@@ -4932,16 +4927,16 @@
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>16</v>
@@ -4973,16 +4968,16 @@
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>16</v>
@@ -5014,16 +5009,16 @@
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>16</v>
@@ -5055,16 +5050,16 @@
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>16</v>
@@ -5096,16 +5091,16 @@
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>16</v>
@@ -5176,10 +5171,10 @@
         <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>35</v>
@@ -5219,10 +5214,10 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="26"/>
       <c r="C31" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>36</v>
@@ -5266,34 +5261,34 @@
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O32" s="15" t="s">
         <v>16</v>
@@ -5426,29 +5421,29 @@
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="26"/>
       <c r="C36" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L36" s="24" t="s">
         <v>16</v>
@@ -5488,10 +5483,10 @@
         <v>42</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>43</v>
@@ -5590,38 +5585,38 @@
         <v>49</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="26"/>
       <c r="C40" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M40" s="20" t="s">
         <v>16</v>
@@ -5856,22 +5851,22 @@
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>16</v>
@@ -5897,16 +5892,16 @@
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>16</v>
@@ -5940,16 +5935,16 @@
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>16</v>
@@ -5983,16 +5978,16 @@
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>16</v>
@@ -6026,16 +6021,16 @@
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>153</v>
@@ -6110,16 +6105,16 @@
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>16</v>
@@ -6151,28 +6146,28 @@
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M53" s="15" t="s">
         <v>16</v>
@@ -6274,28 +6269,28 @@
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>16</v>
@@ -6481,20 +6476,20 @@
     <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="26"/>
       <c r="C61" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>16</v>
@@ -6526,19 +6521,19 @@
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J62" s="15" t="s">
         <v>16</v>
@@ -6561,28 +6556,28 @@
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M63" s="15" t="s">
         <v>16</v>
@@ -6598,26 +6593,26 @@
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="26"/>
       <c r="C64" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K64" s="32" t="s">
         <v>16</v>
@@ -6641,10 +6636,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>68</v>
@@ -6665,7 +6660,7 @@
         <v>203</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L65" s="15" t="s">
         <v>68</v>
@@ -6684,10 +6679,10 @@
     <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="26"/>
       <c r="C66" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>16</v>
@@ -7065,20 +7060,20 @@
     <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" s="26"/>
       <c r="C75" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>82</v>
@@ -7106,10 +7101,10 @@
     <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" s="26"/>
       <c r="C76" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>16</v>
@@ -7190,10 +7185,10 @@
     <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="26"/>
       <c r="C78" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="39" t="s">
         <v>273</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>274</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>16</v>
@@ -7233,10 +7228,10 @@
     <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="26"/>
       <c r="C79" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>16</v>
@@ -7276,10 +7271,10 @@
     <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="26"/>
       <c r="C80" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D80" s="39" t="s">
         <v>277</v>
-      </c>
-      <c r="D80" s="39" t="s">
-        <v>278</v>
       </c>
       <c r="E80" s="15">
         <v>1</v>
@@ -7319,10 +7314,10 @@
     <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="26"/>
       <c r="C81" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>16</v>
@@ -7653,7 +7648,7 @@
         <v>25</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.35">
@@ -7696,99 +7691,99 @@
         <v>25</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B90" s="26"/>
       <c r="C90" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D90" s="39"/>
       <c r="E90" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G90" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="H90" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I90" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L90" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="M90" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N90" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="O90" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="L90" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M90" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N90" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="O90" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="P90" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B91" s="26"/>
       <c r="C91" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D91" s="39"/>
       <c r="E91" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G91" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="H91" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I91" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L91" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="M91" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N91" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="O91" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="L91" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N91" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="O91" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="P91" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="26"/>
       <c r="C92" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D92" s="39"/>
       <c r="E92" s="15" t="s">
@@ -7829,7 +7824,7 @@
     <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="26"/>
       <c r="C93" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D93" s="39"/>
       <c r="E93" s="15" t="s">
@@ -7870,7 +7865,7 @@
     <row r="94" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B94" s="26"/>
       <c r="C94" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D94" s="39"/>
       <c r="E94" s="15" t="s">
@@ -7880,10 +7875,10 @@
         <v>82</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I94" s="15" t="s">
         <v>82</v>
@@ -7895,147 +7890,147 @@
         <v>82</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>82</v>
       </c>
       <c r="N94" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="O94" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="O94" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B95" s="26"/>
       <c r="C95" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D95" s="39"/>
       <c r="E95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G95" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="H95" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G95" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L95" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="J95" s="15" t="s">
+      <c r="M95" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N95" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K95" s="15" t="s">
+      <c r="O95" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="L95" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M95" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="O95" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="P95" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B96" s="26"/>
       <c r="C96" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="H96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="I96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="M96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K96" s="15" t="s">
+      <c r="O96" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="L96" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N96" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="O96" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="P96" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B97" s="26"/>
       <c r="C97" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P97" s="3"/>
     </row>
@@ -8046,37 +8041,37 @@
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O98" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P98" s="3"/>
     </row>
@@ -8087,37 +8082,37 @@
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P99" s="3"/>
     </row>
@@ -8128,37 +8123,37 @@
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K100" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M100" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N100" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O100" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P100" s="3"/>
     </row>
@@ -8169,37 +8164,37 @@
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P101" s="3"/>
     </row>
@@ -8210,37 +8205,37 @@
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P102" s="3"/>
     </row>
@@ -8251,37 +8246,37 @@
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P103" s="3"/>
     </row>
@@ -8292,37 +8287,37 @@
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L104" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N104" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P104" s="3"/>
     </row>
@@ -8333,119 +8328,119 @@
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L105" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M105" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P105" s="3"/>
     </row>
     <row r="106" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="26"/>
       <c r="C106" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M106" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P106" s="3"/>
     </row>
     <row r="107" spans="2:16" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="26"/>
       <c r="C107" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L107" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N107" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O107" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P107" s="3"/>
     </row>
@@ -8456,10 +8451,10 @@
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>16</v>
@@ -8542,31 +8537,31 @@
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M110" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>16</v>
@@ -8579,10 +8574,10 @@
     <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="26"/>
       <c r="C111" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>16</v>
@@ -8622,123 +8617,123 @@
     <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="26"/>
       <c r="C112" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="26"/>
       <c r="C113" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="26"/>
       <c r="C114" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>100</v>
@@ -8747,10 +8742,10 @@
     <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="26"/>
       <c r="C115" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>16</v>
@@ -8915,82 +8910,82 @@
     <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="26"/>
       <c r="C119" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="K119" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L119" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="M119" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="F119" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="J119" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="K119" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L119" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>287</v>
-      </c>
       <c r="N119" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P119" s="3"/>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="26"/>
       <c r="C120" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K120" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L120" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="L120" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="M120" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="N120" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="N120" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="O120" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P120" s="3"/>
     </row>
@@ -9086,7 +9081,7 @@
         <v>109</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>110</v>
@@ -9284,7 +9279,7 @@
     <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="26"/>
       <c r="C128" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="15" t="s">
@@ -9366,7 +9361,7 @@
         <v>16</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="2:16" ht="26" x14ac:dyDescent="0.35">
@@ -9784,7 +9779,7 @@
         <v>76</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.35">
@@ -9919,10 +9914,10 @@
       </c>
       <c r="D143" s="39"/>
       <c r="E143" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>25</v>
@@ -10077,7 +10072,7 @@
         <v>202</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.35">
@@ -10298,7 +10293,7 @@
         <v>25</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H152" s="20" t="s">
         <v>16</v>
@@ -10313,13 +10308,13 @@
         <v>25</v>
       </c>
       <c r="L152" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M152" s="20" t="s">
         <v>25</v>
       </c>
       <c r="N152" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O152" s="20" t="s">
         <v>16</v>
@@ -10473,7 +10468,7 @@
         <v>199</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K156" s="20" t="s">
         <v>25</v>
@@ -10482,7 +10477,7 @@
         <v>199</v>
       </c>
       <c r="M156" s="32" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="N156" s="20" t="s">
         <v>199</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2286,7 +2286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Standalone SMS (PCR 1209633796)</t>
         </r>
@@ -2295,7 +2295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2331,7 +2331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="330">
   <si>
     <t>Item</t>
   </si>
@@ -3398,7 +3398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3500,19 +3500,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3825,26 +3812,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3882,11 +3851,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3895,6 +3876,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4390,7 +4377,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4399,14 +4386,14 @@
     <col min="2" max="2" width="10" style="13" customWidth="1"/>
     <col min="3" max="3" width="31.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="9.1796875" style="53" customWidth="1"/>
+    <col min="5" max="8" width="9.1796875" style="47" customWidth="1"/>
     <col min="9" max="19" width="9.1796875" style="20" customWidth="1"/>
     <col min="20" max="20" width="29.7265625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="60"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="13" t="s">
         <v>291</v>
       </c>
@@ -4414,19 +4401,19 @@
     <row r="2" spans="2:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="63" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="32" t="s">
         <v>131</v>
       </c>
@@ -4439,33 +4426,33 @@
       <c r="P2" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="48" t="s">
         <v>302</v>
       </c>
       <c r="I3" s="33" t="s">
@@ -4501,24 +4488,24 @@
       <c r="S3" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="60" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="54" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="33" t="s">
@@ -4554,7 +4541,7 @@
       <c r="S4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="47"/>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
@@ -4563,7 +4550,7 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="19">
         <v>2.1</v>
       </c>
@@ -4616,7 +4603,7 @@
       <c r="C6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="19">
         <v>1.1499999999999999</v>
       </c>
@@ -4669,7 +4656,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
@@ -4722,7 +4709,7 @@
       <c r="C8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="22" t="s">
         <v>25</v>
       </c>
@@ -4775,7 +4762,7 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="19" t="s">
         <v>13</v>
       </c>
@@ -4828,7 +4815,7 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="19" t="s">
         <v>16</v>
       </c>
@@ -4881,19 +4868,19 @@
       <c r="C11" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="19" t="s">
         <v>16</v>
       </c>
@@ -4910,7 +4897,7 @@
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="15" t="s">
         <v>16</v>
       </c>
@@ -4963,7 +4950,7 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
@@ -5016,7 +5003,7 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="19" t="s">
         <v>16</v>
       </c>
@@ -5069,7 +5056,7 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="19" t="s">
         <v>25</v>
       </c>
@@ -5122,7 +5109,7 @@
       <c r="C16" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="45" t="s">
         <v>251</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -5177,7 +5164,7 @@
       <c r="C17" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="15" t="s">
         <v>16</v>
       </c>
@@ -5230,11 +5217,11 @@
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="15" t="s">
         <v>16</v>
       </c>
@@ -5275,7 +5262,7 @@
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="23"/>
@@ -5320,7 +5307,7 @@
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
@@ -5373,7 +5360,7 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="19" t="s">
         <v>25</v>
       </c>
@@ -5426,7 +5413,7 @@
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="15">
         <v>32</v>
       </c>
@@ -5479,7 +5466,7 @@
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="15">
         <v>32</v>
       </c>
@@ -5532,17 +5519,17 @@
       <c r="C24" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="15" t="s">
         <v>16</v>
       </c>
@@ -5571,17 +5558,17 @@
       <c r="C25" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="15" t="s">
         <v>16</v>
       </c>
@@ -5610,17 +5597,17 @@
       <c r="C26" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="15" t="s">
         <v>16</v>
       </c>
@@ -5649,17 +5636,17 @@
       <c r="C27" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="15" t="s">
         <v>16</v>
       </c>
@@ -5688,17 +5675,17 @@
       <c r="C28" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="15" t="s">
         <v>16</v>
       </c>
@@ -5727,7 +5714,7 @@
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="15" t="s">
         <v>16</v>
       </c>
@@ -5782,7 +5769,7 @@
       <c r="C30" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="45" t="s">
         <v>244</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -5837,7 +5824,7 @@
       <c r="C31" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="45" t="s">
         <v>246</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -5892,21 +5879,21 @@
       <c r="C32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
       <c r="S32" s="15" t="s">
         <v>16</v>
       </c>
@@ -5917,7 +5904,7 @@
       <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="15">
         <v>128</v>
       </c>
@@ -5970,7 +5957,7 @@
       <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="15" t="s">
         <v>35</v>
       </c>
@@ -6023,7 +6010,7 @@
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="19" t="s">
         <v>16</v>
       </c>
@@ -6076,21 +6063,19 @@
       <c r="C36" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
       <c r="Q36" s="19" t="s">
         <v>16</v>
       </c>
@@ -6109,7 +6094,7 @@
       <c r="C37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="19" t="s">
         <v>305</v>
       </c>
@@ -6164,7 +6149,7 @@
       <c r="C38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="19" t="s">
         <v>16</v>
       </c>
@@ -6217,7 +6202,7 @@
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="51"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="19" t="s">
         <v>44</v>
       </c>
@@ -6272,19 +6257,19 @@
       <c r="C40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
       <c r="Q40" s="19" t="s">
         <v>16</v>
       </c>
@@ -6303,7 +6288,7 @@
       <c r="C41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="19">
         <v>1</v>
       </c>
@@ -6356,7 +6341,7 @@
       <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="19" t="s">
         <v>16</v>
       </c>
@@ -6411,7 +6396,7 @@
       <c r="C43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="51"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="19" t="s">
         <v>16</v>
       </c>
@@ -6466,7 +6451,7 @@
       <c r="C44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="51"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="19" t="s">
         <v>16</v>
       </c>
@@ -6521,7 +6506,7 @@
       <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="51"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="19" t="s">
         <v>16</v>
       </c>
@@ -6576,17 +6561,17 @@
       <c r="C46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
       <c r="O46" s="19" t="s">
         <v>16</v>
       </c>
@@ -6609,15 +6594,15 @@
       <c r="C47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="15" t="s">
         <v>16</v>
       </c>
@@ -6648,15 +6633,15 @@
       <c r="C48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="15" t="s">
         <v>16</v>
       </c>
@@ -6687,15 +6672,15 @@
       <c r="C49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="15" t="s">
         <v>16</v>
       </c>
@@ -6726,15 +6711,15 @@
       <c r="C50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="15" t="s">
         <v>146</v>
       </c>
@@ -6765,7 +6750,7 @@
       <c r="C51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="51"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="19" t="s">
         <v>16</v>
       </c>
@@ -6818,15 +6803,15 @@
       <c r="C52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="15" t="s">
         <v>16</v>
       </c>
@@ -6855,19 +6840,19 @@
       <c r="C53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
       <c r="Q53" s="15" t="s">
         <v>16</v>
       </c>
@@ -6884,7 +6869,7 @@
       <c r="C54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="51"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="19">
         <v>1</v>
       </c>
@@ -6937,7 +6922,7 @@
       <c r="C55" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="51"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="19" t="s">
         <v>16</v>
       </c>
@@ -6990,19 +6975,19 @@
       <c r="C56" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
       <c r="Q56" s="15" t="s">
         <v>16</v>
       </c>
@@ -7019,7 +7004,7 @@
       <c r="C57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="51"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="19" t="s">
         <v>61</v>
       </c>
@@ -7074,7 +7059,7 @@
       <c r="C58" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="19" t="s">
         <v>16</v>
       </c>
@@ -7127,7 +7112,7 @@
       <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="19" t="s">
         <v>61</v>
       </c>
@@ -7182,7 +7167,7 @@
       <c r="C60" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="15" t="s">
         <v>170</v>
       </c>
@@ -7237,15 +7222,15 @@
       <c r="C61" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
       <c r="M61" s="15" t="s">
         <v>16</v>
       </c>
@@ -7274,16 +7259,16 @@
       <c r="C62" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
       <c r="N62" s="15" t="s">
         <v>16</v>
       </c>
@@ -7303,19 +7288,19 @@
       <c r="C63" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
       <c r="Q63" s="15" t="s">
         <v>16</v>
       </c>
@@ -7332,17 +7317,17 @@
       <c r="C64" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
       <c r="O64" s="31" t="s">
         <v>16</v>
       </c>
@@ -7367,7 +7352,7 @@
       <c r="C65" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="45" t="s">
         <v>253</v>
       </c>
       <c r="E65" s="19" t="s">
@@ -7422,7 +7407,7 @@
       <c r="C66" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="45" t="s">
         <v>256</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -7477,7 +7462,7 @@
       <c r="C67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="51"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -7530,7 +7515,7 @@
       <c r="C68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="51"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="19" t="s">
         <v>67</v>
       </c>
@@ -7583,11 +7568,11 @@
       <c r="C69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="51"/>
-      <c r="E69" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="55" t="s">
+      <c r="D69" s="45"/>
+      <c r="E69" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="23" t="s">
@@ -7638,11 +7623,11 @@
       <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="55" t="s">
+      <c r="D70" s="45"/>
+      <c r="E70" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>25</v>
       </c>
       <c r="G70" s="23" t="s">
@@ -7691,11 +7676,11 @@
       <c r="C71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="55" t="s">
+      <c r="D71" s="45"/>
+      <c r="E71" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="49" t="s">
         <v>25</v>
       </c>
       <c r="G71" s="23" t="s">
@@ -7746,11 +7731,11 @@
       <c r="C72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="55" t="s">
+      <c r="D72" s="45"/>
+      <c r="E72" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="49" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="23" t="s">
@@ -7801,11 +7786,11 @@
       <c r="C73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="51"/>
-      <c r="E73" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="55" t="s">
+      <c r="D73" s="45"/>
+      <c r="E73" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="49" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="23" t="s">
@@ -7856,11 +7841,11 @@
       <c r="C74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="55" t="s">
+      <c r="D74" s="45"/>
+      <c r="E74" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="49" t="s">
         <v>25</v>
       </c>
       <c r="G74" s="23" t="s">
@@ -7911,15 +7896,15 @@
       <c r="C75" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D75" s="51"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
       <c r="M75" s="15" t="s">
         <v>77</v>
       </c>
@@ -7948,7 +7933,7 @@
       <c r="C76" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="45" t="s">
         <v>258</v>
       </c>
       <c r="E76" s="19" t="s">
@@ -8003,7 +7988,7 @@
       <c r="C77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="51"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="19" t="s">
         <v>16</v>
       </c>
@@ -8056,7 +8041,7 @@
       <c r="C78" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="45" t="s">
         <v>261</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -8111,7 +8096,7 @@
       <c r="C79" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="45" t="s">
         <v>262</v>
       </c>
       <c r="E79" s="19" t="s">
@@ -8166,13 +8151,13 @@
       <c r="C80" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
       <c r="I80" s="15">
         <v>1</v>
       </c>
@@ -8213,7 +8198,7 @@
       <c r="C81" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="45" t="s">
         <v>266</v>
       </c>
       <c r="E81" s="19" t="s">
@@ -8268,7 +8253,7 @@
       <c r="C82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="51"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="19" t="s">
         <v>25</v>
       </c>
@@ -8323,7 +8308,7 @@
       <c r="C83" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="19" t="s">
         <v>81</v>
       </c>
@@ -8376,7 +8361,7 @@
       <c r="C84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="51"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="19" t="s">
         <v>25</v>
       </c>
@@ -8429,7 +8414,7 @@
       <c r="C85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="51"/>
+      <c r="D85" s="45"/>
       <c r="E85" s="19" t="s">
         <v>25</v>
       </c>
@@ -8484,7 +8469,7 @@
       <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="51"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="19" t="s">
         <v>25</v>
       </c>
@@ -8539,7 +8524,7 @@
       <c r="C87" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="51"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="19" t="s">
         <v>25</v>
       </c>
@@ -8594,7 +8579,7 @@
       <c r="C88" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="51"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="19" t="s">
         <v>25</v>
       </c>
@@ -8649,7 +8634,7 @@
       <c r="C89" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="51"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="19" t="s">
         <v>25</v>
       </c>
@@ -8704,7 +8689,7 @@
       <c r="C90" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="51"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="19" t="s">
         <v>25</v>
       </c>
@@ -8759,7 +8744,7 @@
       <c r="C91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="51"/>
+      <c r="D91" s="45"/>
       <c r="E91" s="19" t="s">
         <v>25</v>
       </c>
@@ -8814,7 +8799,7 @@
       <c r="C92" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="51"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="19" t="s">
         <v>25</v>
       </c>
@@ -8867,7 +8852,7 @@
       <c r="C93" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="51"/>
+      <c r="D93" s="45"/>
       <c r="E93" s="19" t="s">
         <v>25</v>
       </c>
@@ -8920,7 +8905,7 @@
       <c r="C94" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="51"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="19" t="s">
         <v>25</v>
       </c>
@@ -8975,7 +8960,7 @@
       <c r="C95" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D95" s="51"/>
+      <c r="D95" s="45"/>
       <c r="E95" s="19" t="s">
         <v>25</v>
       </c>
@@ -9030,7 +9015,7 @@
       <c r="C96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D96" s="51"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="19" t="s">
         <v>25</v>
       </c>
@@ -9085,20 +9070,20 @@
       <c r="C97" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="58"/>
-      <c r="L97" s="58"/>
-      <c r="M97" s="58"/>
-      <c r="N97" s="58"/>
-      <c r="O97" s="58"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="52"/>
+      <c r="N97" s="52"/>
+      <c r="O97" s="52"/>
       <c r="P97" s="15" t="s">
         <v>214</v>
       </c>
@@ -9118,18 +9103,18 @@
       <c r="C98" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="51"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="58"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="58"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="52"/>
       <c r="P98" s="15" t="s">
         <v>215</v>
       </c>
@@ -9149,18 +9134,18 @@
       <c r="C99" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="58"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="52"/>
+      <c r="O99" s="52"/>
       <c r="P99" s="15" t="s">
         <v>216</v>
       </c>
@@ -9180,18 +9165,18 @@
       <c r="C100" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D100" s="51"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="58"/>
-      <c r="O100" s="58"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="52"/>
       <c r="P100" s="15" t="s">
         <v>217</v>
       </c>
@@ -9211,18 +9196,18 @@
       <c r="C101" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="58"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="58"/>
-      <c r="N101" s="58"/>
-      <c r="O101" s="58"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="52"/>
       <c r="P101" s="15" t="s">
         <v>218</v>
       </c>
@@ -9242,18 +9227,18 @@
       <c r="C102" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D102" s="51"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="O102" s="52"/>
       <c r="P102" s="15" t="s">
         <v>220</v>
       </c>
@@ -9273,18 +9258,18 @@
       <c r="C103" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="52"/>
       <c r="P103" s="15" t="s">
         <v>219</v>
       </c>
@@ -9304,18 +9289,18 @@
       <c r="C104" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
-      <c r="O104" s="58"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="52"/>
       <c r="P104" s="15" t="s">
         <v>236</v>
       </c>
@@ -9335,18 +9320,18 @@
       <c r="C105" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="58"/>
-      <c r="L105" s="58"/>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
-      <c r="O105" s="58"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="52"/>
+      <c r="N105" s="52"/>
+      <c r="O105" s="52"/>
       <c r="P105" s="15" t="s">
         <v>328</v>
       </c>
@@ -9366,18 +9351,18 @@
       <c r="C106" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="58"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="58"/>
-      <c r="N106" s="58"/>
-      <c r="O106" s="58"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="52"/>
       <c r="P106" s="15" t="s">
         <v>223</v>
       </c>
@@ -9397,18 +9382,18 @@
       <c r="C107" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
-      <c r="L107" s="58"/>
-      <c r="M107" s="58"/>
-      <c r="N107" s="58"/>
-      <c r="O107" s="58"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="52"/>
       <c r="P107" s="15" t="s">
         <v>237</v>
       </c>
@@ -9428,13 +9413,13 @@
       <c r="C108" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D108" s="51"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="15" t="s">
         <v>16</v>
       </c>
@@ -9471,7 +9456,7 @@
       <c r="C109" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="51"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="15">
         <v>10</v>
       </c>
@@ -9525,19 +9510,19 @@
         <v>165</v>
       </c>
       <c r="D110" s="38"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="58"/>
-      <c r="L110" s="58"/>
-      <c r="M110" s="58"/>
-      <c r="N110" s="58"/>
-      <c r="O110" s="58"/>
-      <c r="P110" s="58"/>
-      <c r="Q110" s="58"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
+      <c r="O110" s="52"/>
+      <c r="P110" s="52"/>
+      <c r="Q110" s="52"/>
       <c r="R110" s="15" t="s">
         <v>16</v>
       </c>
@@ -10037,16 +10022,16 @@
         <v>300</v>
       </c>
       <c r="D120" s="38"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="58"/>
-      <c r="L120" s="58"/>
-      <c r="M120" s="58"/>
-      <c r="N120" s="58"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="52"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
       <c r="O120" s="31" t="s">
         <v>292</v>
       </c>
@@ -10498,16 +10483,16 @@
         <v>109</v>
       </c>
       <c r="D129" s="38"/>
-      <c r="E129" s="56" t="s">
+      <c r="E129" s="50" t="s">
         <v>86</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G129" s="57" t="s">
+      <c r="G129" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="H129" s="57" t="s">
+      <c r="H129" s="51" t="s">
         <v>309</v>
       </c>
       <c r="I129" s="15" t="s">
@@ -10553,7 +10538,7 @@
         <v>110</v>
       </c>
       <c r="D130" s="38"/>
-      <c r="E130" s="56" t="s">
+      <c r="E130" s="50" t="s">
         <v>86</v>
       </c>
       <c r="F130" s="15" t="s">
@@ -10562,7 +10547,7 @@
       <c r="G130" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H130" s="57" t="s">
+      <c r="H130" s="51" t="s">
         <v>65</v>
       </c>
       <c r="I130" s="15" t="s">
@@ -11036,16 +11021,16 @@
         <v>122</v>
       </c>
       <c r="D139" s="40"/>
-      <c r="E139" s="56" t="s">
+      <c r="E139" s="50" t="s">
         <v>86</v>
       </c>
       <c r="F139" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G139" s="57" t="s">
+      <c r="G139" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="H139" s="57" t="s">
+      <c r="H139" s="51" t="s">
         <v>310</v>
       </c>
       <c r="I139" s="15" t="s">
@@ -11091,16 +11076,16 @@
         <v>123</v>
       </c>
       <c r="D140" s="38"/>
-      <c r="E140" s="56" t="s">
+      <c r="E140" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G140" s="57" t="s">
+      <c r="G140" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="H140" s="57" t="s">
+      <c r="H140" s="51" t="s">
         <v>311</v>
       </c>
       <c r="I140" s="15" t="s">
@@ -11144,16 +11129,16 @@
         <v>124</v>
       </c>
       <c r="D141" s="38"/>
-      <c r="E141" s="56" t="s">
+      <c r="E141" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F141" s="56" t="s">
+      <c r="F141" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G141" s="57" t="s">
+      <c r="G141" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="H141" s="57" t="s">
+      <c r="H141" s="51" t="s">
         <v>168</v>
       </c>
       <c r="I141" s="15" t="s">
@@ -11199,16 +11184,16 @@
         <v>127</v>
       </c>
       <c r="D142" s="38"/>
-      <c r="E142" s="56" t="s">
+      <c r="E142" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="F142" s="56" t="s">
+      <c r="F142" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="G142" s="57" t="s">
+      <c r="G142" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="H142" s="57" t="s">
+      <c r="H142" s="51" t="s">
         <v>128</v>
       </c>
       <c r="I142" s="15" t="s">
@@ -11252,12 +11237,12 @@
         <v>129</v>
       </c>
       <c r="D143" s="38"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="58"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="15" t="s">
         <v>25</v>
       </c>
@@ -11295,12 +11280,12 @@
         <v>188</v>
       </c>
       <c r="D144" s="39"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" s="62" t="s">
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="56" t="s">
         <v>25</v>
       </c>
       <c r="I144" s="19" t="s">
@@ -11344,12 +11329,12 @@
         <v>189</v>
       </c>
       <c r="D145" s="39"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="62" t="s">
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="56" t="s">
         <v>25</v>
       </c>
       <c r="I145" s="19" t="s">
@@ -11393,8 +11378,8 @@
         <v>191</v>
       </c>
       <c r="D146" s="39"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
       <c r="G146" s="19" t="s">
         <v>192</v>
       </c>
@@ -11444,12 +11429,12 @@
         <v>195</v>
       </c>
       <c r="D147" s="39"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" s="62" t="s">
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" s="56" t="s">
         <v>25</v>
       </c>
       <c r="I147" s="19" t="s">
@@ -11493,12 +11478,12 @@
         <v>196</v>
       </c>
       <c r="D148" s="39"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="62"/>
-      <c r="G148" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="62" t="s">
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="56" t="s">
         <v>25</v>
       </c>
       <c r="I148" s="19" t="s">
@@ -11542,12 +11527,12 @@
         <v>197</v>
       </c>
       <c r="D149" s="39"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" s="62" t="s">
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I149" s="19" t="s">
@@ -11591,12 +11576,12 @@
         <v>198</v>
       </c>
       <c r="D150" s="39"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="62"/>
-      <c r="G150" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H150" s="62" t="s">
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I150" s="19" t="s">
@@ -11640,12 +11625,12 @@
         <v>199</v>
       </c>
       <c r="D151" s="39"/>
-      <c r="E151" s="62"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" s="62" t="s">
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="19" t="s">
@@ -11689,12 +11674,12 @@
         <v>200</v>
       </c>
       <c r="D152" s="39"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="62" t="s">
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I152" s="19" t="s">
@@ -11738,12 +11723,12 @@
         <v>201</v>
       </c>
       <c r="D153" s="39"/>
-      <c r="E153" s="62"/>
-      <c r="F153" s="62"/>
-      <c r="G153" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H153" s="62" t="s">
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" s="56" t="s">
         <v>25</v>
       </c>
       <c r="I153" s="19" t="s">
@@ -11789,12 +11774,12 @@
         <v>203</v>
       </c>
       <c r="D154" s="39"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
-      <c r="G154" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" s="62" t="s">
+      <c r="E154" s="56"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I154" s="19" t="s">
@@ -11838,12 +11823,12 @@
         <v>204</v>
       </c>
       <c r="D155" s="39"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" s="62" t="s">
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I155" s="19" t="s">
@@ -11887,12 +11872,12 @@
         <v>205</v>
       </c>
       <c r="D156" s="39"/>
-      <c r="E156" s="62"/>
-      <c r="F156" s="62"/>
-      <c r="G156" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" s="62" t="s">
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="56" t="s">
         <v>25</v>
       </c>
       <c r="I156" s="19" t="s">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2331,7 +2331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="331">
   <si>
     <t>Item</t>
   </si>
@@ -2730,9 +2730,6 @@
   </si>
   <si>
     <t>CSME 3.1</t>
-  </si>
-  <si>
-    <t>CSME 4.0 / IE 2.0</t>
   </si>
   <si>
     <t>ICP-H</t>
@@ -2949,9 +2946,6 @@
   </si>
   <si>
     <t>Hotham</t>
-  </si>
-  <si>
-    <t>FSC (4 TACH, 8 PWM)</t>
   </si>
   <si>
     <t>SMS</t>
@@ -3389,6 +3383,15 @@
   </si>
   <si>
     <t>- Added LBG/DNV CSME/IE and did some clean ups</t>
+  </si>
+  <si>
+    <t>CSME 4.0</t>
+  </si>
+  <si>
+    <t>CSME 4.1 / IE 2.0</t>
+  </si>
+  <si>
+    <t>- Fixed EBG CSME version to CSME 4.1, to sync up with Wiki</t>
   </si>
 </sst>
 </file>
@@ -3553,7 +3556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3681,7 +3684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3836,22 +3839,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3882,6 +3885,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4199,7 +4208,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4213,13 +4222,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -4227,10 +4236,10 @@
         <v>42734</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="87" x14ac:dyDescent="0.35">
@@ -4238,10 +4247,10 @@
         <v>42739</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4249,10 +4258,10 @@
         <v>42740</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -4260,10 +4269,10 @@
         <v>42744</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4271,10 +4280,10 @@
         <v>42746</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -4282,10 +4291,10 @@
         <v>42758</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -4293,10 +4302,10 @@
         <v>42761</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -4304,10 +4313,10 @@
         <v>42782</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4315,10 +4324,10 @@
         <v>42800</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -4326,16 +4335,22 @@
         <v>42810</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
@@ -4373,11 +4388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4395,7 +4410,7 @@
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="54"/>
       <c r="C1" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -4403,13 +4418,13 @@
       <c r="C2" s="28"/>
       <c r="D2" s="44"/>
       <c r="E2" s="63" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="65"/>
       <c r="I2" s="66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
@@ -4418,19 +4433,21 @@
         <v>131</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P2" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="Q2" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="R2" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="S2" s="69"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
@@ -4441,25 +4458,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>4</v>
@@ -4471,22 +4488,22 @@
         <v>6</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="R3" s="35" t="s">
-        <v>136</v>
-      </c>
       <c r="S3" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T3" s="60" t="s">
         <v>7</v>
@@ -4524,10 +4541,10 @@
         <v>3</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>3</v>
@@ -4601,7 +4618,7 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="19">
@@ -4707,7 +4724,7 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="22" t="s">
@@ -4767,13 +4784,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>13</v>
@@ -4782,10 +4799,10 @@
         <v>13</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>14</v>
@@ -4803,10 +4820,10 @@
         <v>14</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T9" s="3"/>
     </row>
@@ -4866,21 +4883,21 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="19" t="s">
         <v>16</v>
       </c>
@@ -5070,47 +5087,47 @@
         <v>25</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>16</v>
@@ -5162,7 +5179,7 @@
     <row r="17" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="15" t="s">
@@ -5218,10 +5235,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="15" t="s">
         <v>16</v>
       </c>
@@ -5263,10 +5280,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="15">
         <v>32</v>
       </c>
@@ -5283,22 +5300,22 @@
         <v>32</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T19" s="3"/>
     </row>
@@ -5308,16 +5325,16 @@
         <v>23</v>
       </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="E20" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="56" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="15" t="s">
@@ -5361,16 +5378,16 @@
         <v>24</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="E21" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="55" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="15" t="s">
@@ -5414,16 +5431,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="15">
+      <c r="E22" s="56">
         <v>32</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="56">
         <v>32</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="56">
         <v>32</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="56">
         <v>32</v>
       </c>
       <c r="I22" s="15">
@@ -5467,16 +5484,16 @@
         <v>27</v>
       </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="15">
+      <c r="E23" s="56">
         <v>32</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="56">
         <v>32</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="56">
         <v>32</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="56">
         <v>32</v>
       </c>
       <c r="I23" s="15">
@@ -5517,19 +5534,19 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="25"/>
       <c r="C24" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+        <v>318</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="15" t="s">
         <v>16</v>
       </c>
@@ -5556,19 +5573,19 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+        <v>319</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="15" t="s">
         <v>16</v>
       </c>
@@ -5595,19 +5612,19 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
+        <v>320</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
       <c r="M26" s="15" t="s">
         <v>16</v>
       </c>
@@ -5634,19 +5651,19 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="25"/>
       <c r="C27" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
+        <v>321</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="15" t="s">
         <v>16</v>
       </c>
@@ -5673,19 +5690,19 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="25"/>
       <c r="C28" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
+        <v>322</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="15" t="s">
         <v>16</v>
       </c>
@@ -5767,10 +5784,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
@@ -5822,10 +5839,10 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="25"/>
       <c r="C31" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>31</v>
@@ -5877,23 +5894,23 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="25"/>
       <c r="C32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="45"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
       <c r="S32" s="15" t="s">
         <v>16</v>
       </c>
@@ -5905,13 +5922,13 @@
         <v>33</v>
       </c>
       <c r="D33" s="45"/>
-      <c r="E33" s="15">
+      <c r="E33" s="56">
         <v>128</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="56">
         <v>128</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="56">
         <v>128</v>
       </c>
       <c r="H33" s="22">
@@ -5958,13 +5975,13 @@
         <v>34</v>
       </c>
       <c r="D34" s="45"/>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="15" t="s">
@@ -6011,13 +6028,13 @@
         <v>36</v>
       </c>
       <c r="D35" s="45"/>
-      <c r="E35" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="23" t="s">
+      <c r="E35" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="23" t="s">
@@ -6061,21 +6078,21 @@
     <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="25"/>
       <c r="C36" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="55"/>
       <c r="Q36" s="19" t="s">
         <v>16</v>
       </c>
@@ -6092,14 +6109,14 @@
         <v>130</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>39</v>
@@ -6123,10 +6140,10 @@
         <v>37</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>38</v>
@@ -6237,39 +6254,39 @@
         <v>44</v>
       </c>
       <c r="P39" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q39" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="Q39" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="R39" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S39" s="15" t="s">
         <v>44</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="25"/>
       <c r="C40" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" s="45"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
       <c r="Q40" s="19" t="s">
         <v>16</v>
       </c>
@@ -6559,19 +6576,19 @@
     <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="45"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="19" t="s">
         <v>16</v>
       </c>
@@ -6595,14 +6612,14 @@
         <v>52</v>
       </c>
       <c r="D47" s="46"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
       <c r="M47" s="15" t="s">
         <v>16</v>
       </c>
@@ -6634,14 +6651,14 @@
         <v>53</v>
       </c>
       <c r="D48" s="46"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
       <c r="M48" s="15" t="s">
         <v>16</v>
       </c>
@@ -6673,14 +6690,14 @@
         <v>54</v>
       </c>
       <c r="D49" s="46"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
       <c r="M49" s="15" t="s">
         <v>16</v>
       </c>
@@ -6712,16 +6729,16 @@
         <v>55</v>
       </c>
       <c r="D50" s="46"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
       <c r="M50" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>25</v>
@@ -6730,16 +6747,16 @@
         <v>25</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>48</v>
@@ -6804,14 +6821,14 @@
         <v>57</v>
       </c>
       <c r="D52" s="45"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
       <c r="M52" s="15" t="s">
         <v>16</v>
       </c>
@@ -6838,21 +6855,21 @@
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B53" s="25"/>
       <c r="C53" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="45"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
       <c r="Q53" s="15" t="s">
         <v>16</v>
       </c>
@@ -6920,7 +6937,7 @@
     <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B55" s="25"/>
       <c r="C55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="19" t="s">
@@ -6973,21 +6990,21 @@
     <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="45"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
       <c r="Q56" s="15" t="s">
         <v>16</v>
       </c>
@@ -7051,13 +7068,13 @@
         <v>25</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="19" t="s">
@@ -7159,78 +7176,78 @@
         <v>25</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B60" s="25"/>
       <c r="C60" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L60" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L60" s="15" t="s">
+      <c r="M60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q60" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="M60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q60" s="19" t="s">
+      <c r="R60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="S60" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="R60" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="S60" s="15" t="s">
+      <c r="T60" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="25"/>
       <c r="C61" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D61" s="45"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
       <c r="M61" s="15" t="s">
         <v>16</v>
       </c>
@@ -7257,18 +7274,18 @@
     <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="25"/>
       <c r="C62" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62" s="45"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
       <c r="N62" s="15" t="s">
         <v>16</v>
       </c>
@@ -7286,21 +7303,21 @@
     <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63" s="45"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
       <c r="Q63" s="15" t="s">
         <v>16</v>
       </c>
@@ -7315,19 +7332,19 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D64" s="45"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
       <c r="O64" s="31" t="s">
         <v>16</v>
       </c>
@@ -7350,22 +7367,22 @@
         <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>63</v>
@@ -7383,10 +7400,10 @@
         <v>63</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>63</v>
@@ -7405,10 +7422,10 @@
     <row r="66" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B66" s="25"/>
       <c r="C66" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>16</v>
@@ -7520,7 +7537,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>65</v>
@@ -7894,17 +7911,17 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B75" s="25"/>
       <c r="C75" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D75" s="45"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
       <c r="M75" s="15" t="s">
         <v>77</v>
       </c>
@@ -7921,20 +7938,20 @@
         <v>77</v>
       </c>
       <c r="R75" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S75" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B76" s="25"/>
       <c r="C76" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>16</v>
@@ -8039,10 +8056,10 @@
     <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="25"/>
       <c r="C78" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>16</v>
@@ -8094,10 +8111,10 @@
     <row r="79" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>16</v>
@@ -8149,15 +8166,15 @@
     <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="25"/>
       <c r="C80" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
+        <v>263</v>
+      </c>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
       <c r="I80" s="15">
         <v>1</v>
       </c>
@@ -8196,10 +8213,10 @@
     <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="25"/>
       <c r="C81" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>16</v>
@@ -8300,7 +8317,7 @@
         <v>25</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.35">
@@ -8349,7 +8366,7 @@
         <v>25</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S83" s="22" t="s">
         <v>82</v>
@@ -8461,7 +8478,7 @@
         <v>25</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.35">
@@ -8516,7 +8533,7 @@
         <v>25</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.35">
@@ -8571,7 +8588,7 @@
         <v>25</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.35">
@@ -8626,13 +8643,13 @@
         <v>25</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="25"/>
       <c r="C89" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="19" t="s">
@@ -8681,13 +8698,13 @@
         <v>25</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="25"/>
       <c r="C90" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="19" t="s">
@@ -8703,46 +8720,46 @@
         <v>25</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K90" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R90" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="S90" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="T90" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="M90" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N90" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="O90" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P90" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q90" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="R90" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="S90" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="T90" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="25"/>
       <c r="C91" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="19" t="s">
@@ -8758,46 +8775,46 @@
         <v>25</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K91" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R91" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="S91" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N91" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="O91" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P91" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q91" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="R91" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="S91" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="25"/>
       <c r="C92" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="19" t="s">
@@ -8850,7 +8867,7 @@
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="25"/>
       <c r="C93" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="19" t="s">
@@ -8903,7 +8920,7 @@
     <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="25"/>
       <c r="C94" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="19" t="s">
@@ -8925,10 +8942,10 @@
         <v>77</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>77</v>
@@ -8940,25 +8957,25 @@
         <v>77</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q94" s="15" t="s">
         <v>77</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S94" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="25"/>
       <c r="C95" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="19" t="s">
@@ -8974,46 +8991,46 @@
         <v>25</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O95" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="S95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="T95" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="L95" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="M95" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="O95" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P95" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q95" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="R95" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="S95" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="25"/>
       <c r="C96" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="19" t="s">
@@ -9029,382 +9046,382 @@
         <v>25</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K96" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="O96" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R96" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="S96" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="T96" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="N96" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="O96" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P96" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q96" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="R96" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="S96" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="97" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B97" s="25"/>
       <c r="C97" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="52"/>
-      <c r="M97" s="52"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
+        <v>233</v>
+      </c>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="56"/>
       <c r="P97" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T97" s="3"/>
     </row>
     <row r="98" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B98" s="25"/>
       <c r="C98" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D98" s="45"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="52"/>
-      <c r="O98" s="52"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
       <c r="P98" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B99" s="25"/>
       <c r="C99" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99" s="45"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="52"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="56"/>
       <c r="P99" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q99" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B100" s="25"/>
       <c r="C100" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="45"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
-      <c r="K100" s="52"/>
-      <c r="L100" s="52"/>
-      <c r="M100" s="52"/>
-      <c r="N100" s="52"/>
-      <c r="O100" s="52"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="56"/>
       <c r="P100" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S100" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T100" s="3"/>
     </row>
     <row r="101" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B101" s="25"/>
       <c r="C101" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D101" s="45"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="52"/>
-      <c r="M101" s="52"/>
-      <c r="N101" s="52"/>
-      <c r="O101" s="52"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="56"/>
       <c r="P101" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T101" s="3"/>
     </row>
     <row r="102" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B102" s="25"/>
       <c r="C102" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" s="45"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="52"/>
-      <c r="M102" s="52"/>
-      <c r="N102" s="52"/>
-      <c r="O102" s="52"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="56"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="56"/>
       <c r="P102" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T102" s="3"/>
     </row>
     <row r="103" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="45"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="52"/>
-      <c r="O103" s="52"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="56"/>
       <c r="P103" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T103" s="3"/>
     </row>
     <row r="104" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="45"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="52"/>
-      <c r="M104" s="52"/>
-      <c r="N104" s="52"/>
-      <c r="O104" s="52"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="56"/>
       <c r="P104" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q104" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T104" s="3"/>
     </row>
     <row r="105" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B105" s="25"/>
       <c r="C105" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D105" s="45"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
-      <c r="M105" s="52"/>
-      <c r="N105" s="52"/>
-      <c r="O105" s="52"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
       <c r="P105" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q105" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="T105" s="3"/>
     </row>
     <row r="106" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="25"/>
       <c r="C106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="45"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D106" s="45"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="52"/>
-      <c r="N106" s="52"/>
-      <c r="O106" s="52"/>
-      <c r="P106" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="Q106" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T106" s="3"/>
     </row>
     <row r="107" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="25"/>
       <c r="C107" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D107" s="45"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
       <c r="P107" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T107" s="3"/>
     </row>
@@ -9414,12 +9431,12 @@
         <v>90</v>
       </c>
       <c r="D108" s="45"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
       <c r="K108" s="15" t="s">
         <v>16</v>
       </c>
@@ -9507,22 +9524,22 @@
     <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="25"/>
       <c r="C110" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D110" s="38"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
-      <c r="K110" s="52"/>
-      <c r="L110" s="52"/>
-      <c r="M110" s="52"/>
-      <c r="N110" s="52"/>
-      <c r="O110" s="52"/>
-      <c r="P110" s="52"/>
-      <c r="Q110" s="52"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="56"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="56"/>
+      <c r="P110" s="56"/>
+      <c r="Q110" s="56"/>
       <c r="R110" s="15" t="s">
         <v>16</v>
       </c>
@@ -9534,10 +9551,10 @@
     <row r="111" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" s="25"/>
       <c r="C111" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>16</v>
@@ -9589,159 +9606,159 @@
     <row r="112" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D112" s="38"/>
       <c r="E112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="T112" s="3"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="25"/>
       <c r="C113" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D113" s="38"/>
       <c r="E113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T113" s="3"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="25"/>
       <c r="C114" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D114" s="38"/>
       <c r="E114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S114" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>93</v>
@@ -9750,10 +9767,10 @@
     <row r="115" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="25"/>
       <c r="C115" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>16</v>
@@ -9960,92 +9977,92 @@
         <v>25</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="25"/>
       <c r="C119" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q119" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T119" s="3"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="25"/>
       <c r="C120" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D120" s="38"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="52"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="52"/>
-      <c r="L120" s="52"/>
-      <c r="M120" s="52"/>
-      <c r="N120" s="52"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56"/>
       <c r="O120" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P120" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q120" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S120" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T120" s="3"/>
     </row>
@@ -10177,7 +10194,7 @@
         <v>102</v>
       </c>
       <c r="J123" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>103</v>
@@ -10423,7 +10440,7 @@
     <row r="128" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B128" s="25"/>
       <c r="C128" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="19" t="s">
@@ -10472,7 +10489,7 @@
         <v>16</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="2:20" ht="39" x14ac:dyDescent="0.35">
@@ -10490,10 +10507,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>16</v>
@@ -10529,7 +10546,7 @@
         <v>16</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="2:20" ht="26" x14ac:dyDescent="0.35">
@@ -10867,10 +10884,10 @@
         <v>119</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>119</v>
@@ -10882,7 +10899,7 @@
         <v>119</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M136" s="15" t="s">
         <v>119</v>
@@ -10903,14 +10920,14 @@
         <v>119</v>
       </c>
       <c r="S136" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B137" s="25"/>
       <c r="C137" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D137" s="40"/>
       <c r="E137" s="15" t="s">
@@ -10973,10 +10990,10 @@
         <v>119</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I138" s="15" t="s">
         <v>119</v>
@@ -11012,7 +11029,7 @@
         <v>121</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="2:20" ht="26" x14ac:dyDescent="0.35">
@@ -11028,10 +11045,10 @@
         <v>16</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H139" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I139" s="15" t="s">
         <v>16</v>
@@ -11067,7 +11084,7 @@
         <v>71</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.35">
@@ -11083,10 +11100,10 @@
         <v>25</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H140" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I140" s="15" t="s">
         <v>16</v>
@@ -11136,10 +11153,10 @@
         <v>125</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H141" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>125</v>
@@ -11172,10 +11189,10 @@
         <v>125</v>
       </c>
       <c r="S141" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T141" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="2:20" ht="52" x14ac:dyDescent="0.35">
@@ -11185,13 +11202,13 @@
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F142" s="50" t="s">
         <v>128</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H142" s="51" t="s">
         <v>128</v>
@@ -11237,12 +11254,12 @@
         <v>129</v>
       </c>
       <c r="D143" s="38"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="56"/>
+      <c r="J143" s="56"/>
       <c r="K143" s="15" t="s">
         <v>25</v>
       </c>
@@ -11268,24 +11285,24 @@
         <v>25</v>
       </c>
       <c r="S143" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T143" s="3"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B144" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="D144" s="39"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" s="56" t="s">
+      <c r="E144" s="52"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" s="52" t="s">
         <v>25</v>
       </c>
       <c r="I144" s="19" t="s">
@@ -11326,31 +11343,31 @@
     <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B145" s="27"/>
       <c r="C145" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" s="39"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I145" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="J145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>25</v>
       </c>
       <c r="L145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N145" s="19" t="s">
         <v>25</v>
@@ -11359,82 +11376,82 @@
         <v>25</v>
       </c>
       <c r="P145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S145" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B146" s="27"/>
       <c r="C146" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146" s="39"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="19" t="s">
+      <c r="H146" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J146" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K146" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L146" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M146" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="N146" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O146" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P146" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="H146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="J146" s="19" t="s">
+      <c r="Q146" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="R146" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="K146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="L146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="M146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="N146" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O146" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P146" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q146" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="R146" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="S146" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B147" s="27"/>
       <c r="C147" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D147" s="39"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" s="56" t="s">
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" s="52" t="s">
         <v>25</v>
       </c>
       <c r="I147" s="19" t="s">
@@ -11475,15 +11492,15 @@
     <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B148" s="27"/>
       <c r="C148" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D148" s="39"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="56" t="s">
+      <c r="E148" s="52"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="52" t="s">
         <v>25</v>
       </c>
       <c r="I148" s="19" t="s">
@@ -11524,15 +11541,15 @@
     <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B149" s="27"/>
       <c r="C149" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D149" s="39"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" s="56" t="s">
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I149" s="19" t="s">
@@ -11573,15 +11590,15 @@
     <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B150" s="27"/>
       <c r="C150" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D150" s="39"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H150" s="56" t="s">
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I150" s="19" t="s">
@@ -11622,15 +11639,15 @@
     <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B151" s="27"/>
       <c r="C151" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D151" s="39"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" s="56" t="s">
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I151" s="19" t="s">
@@ -11671,15 +11688,15 @@
     <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B152" s="27"/>
       <c r="C152" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D152" s="39"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="56" t="s">
+      <c r="E152" s="52"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I152" s="19" t="s">
@@ -11689,7 +11706,7 @@
         <v>25</v>
       </c>
       <c r="K152" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L152" s="19" t="s">
         <v>16</v>
@@ -11704,13 +11721,13 @@
         <v>25</v>
       </c>
       <c r="P152" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q152" s="19" t="s">
         <v>25</v>
       </c>
       <c r="R152" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S152" s="19" t="s">
         <v>16</v>
@@ -11720,15 +11737,15 @@
     <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B153" s="27"/>
       <c r="C153" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D153" s="39"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H153" s="56" t="s">
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" s="52" t="s">
         <v>25</v>
       </c>
       <c r="I153" s="19" t="s">
@@ -11765,21 +11782,21 @@
         <v>61</v>
       </c>
       <c r="T153" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B154" s="27"/>
       <c r="C154" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D154" s="39"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="56"/>
-      <c r="G154" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" s="56" t="s">
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I154" s="19" t="s">
@@ -11819,16 +11836,14 @@
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B155" s="27"/>
-      <c r="C155" s="5" t="s">
-        <v>204</v>
-      </c>
+      <c r="C155" s="5"/>
       <c r="D155" s="39"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" s="56" t="s">
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="52" t="s">
         <v>16</v>
       </c>
       <c r="I155" s="19" t="s">
@@ -11869,22 +11884,22 @@
     <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B156" s="27"/>
       <c r="C156" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D156" s="39"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" s="56" t="s">
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="52" t="s">
         <v>25</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J156" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>25</v>
@@ -11893,22 +11908,22 @@
         <v>25</v>
       </c>
       <c r="M156" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O156" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P156" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q156" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R156" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S156" s="19" t="s">
         <v>25</v>
@@ -11917,13 +11932,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
-    <sheet name="CSE CSME IE" sheetId="1" r:id="rId2"/>
+    <sheet name="CSE CSME IE OCS" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2322,7 +2322,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Reduced to 1: see PCR#1208535219</t>
+Reduced to 1: see PCR#1208535219
+3/30/17: inreased back to 2 (PCR# 1405772298)</t>
         </r>
       </text>
     </comment>
@@ -2331,7 +2332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="332">
   <si>
     <t>Item</t>
   </si>
@@ -2772,12 +2773,6 @@
   </si>
   <si>
     <t>DMA-HCU (SHA2-384,512)</t>
-  </si>
-  <si>
-    <t>EAU (for RSA 2kbit)</t>
-  </si>
-  <si>
-    <t>EAU (for RSA 3k/4kbit)</t>
   </si>
   <si>
     <t>* For client PCH</t>
@@ -3292,9 +3287,6 @@
     <t>HW Save &amp; Restore AON Memory</t>
   </si>
   <si>
-    <t>Yes (x1)^</t>
-  </si>
-  <si>
     <t>DNV</t>
   </si>
   <si>
@@ -3392,6 +3384,18 @@
   </si>
   <si>
     <t>- Fixed EBG CSME version to CSME 4.1, to sync up with Wiki</t>
+  </si>
+  <si>
+    <t>EAU Gen 1 (RSA 2kbit)</t>
+  </si>
+  <si>
+    <t>EAU Gen 2 (RSA 2k/3k/4kbit)</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>- Updated TGP-LP to have 2 SMS (https://hsdes.intel.com/appstore/article/#/1405772298 )</t>
   </si>
 </sst>
 </file>
@@ -4208,7 +4212,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="B7:D7"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4216,19 +4220,19 @@
     <col min="1" max="1" width="3.36328125" style="42" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" style="37" customWidth="1"/>
     <col min="3" max="3" width="14.90625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="72.54296875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="77.36328125" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -4236,10 +4240,10 @@
         <v>42734</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="87" x14ac:dyDescent="0.35">
@@ -4247,10 +4251,10 @@
         <v>42739</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4258,10 +4262,10 @@
         <v>42740</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -4269,10 +4273,10 @@
         <v>42744</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4280,10 +4284,10 @@
         <v>42746</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -4291,10 +4295,10 @@
         <v>42758</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -4302,10 +4306,10 @@
         <v>42761</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -4313,10 +4317,10 @@
         <v>42782</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4324,10 +4328,10 @@
         <v>42800</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -4335,10 +4339,10 @@
         <v>42810</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -4346,16 +4350,22 @@
         <v>42816</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="10">
+        <v>42824</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
@@ -4389,10 +4399,10 @@
   <dimension ref="B1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="S155" sqref="S155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4410,7 +4420,7 @@
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="54"/>
       <c r="C1" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -4418,13 +4428,13 @@
       <c r="C2" s="28"/>
       <c r="D2" s="44"/>
       <c r="E2" s="63" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="65"/>
       <c r="I2" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
@@ -4433,19 +4443,19 @@
         <v>131</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P2" s="32" t="s">
         <v>132</v>
       </c>
       <c r="Q2" s="53" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="R2" s="68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S2" s="69"/>
       <c r="T2" s="6"/>
@@ -4458,25 +4468,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>4</v>
@@ -4488,10 +4498,10 @@
         <v>6</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>133</v>
@@ -4541,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>3</v>
@@ -4784,13 +4794,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>13</v>
@@ -4799,10 +4809,10 @@
         <v>13</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>14</v>
@@ -4820,10 +4830,10 @@
         <v>14</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T9" s="3"/>
     </row>
@@ -4883,7 +4893,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="55"/>
@@ -5124,10 +5134,10 @@
     <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>16</v>
@@ -5179,7 +5189,7 @@
     <row r="17" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="15" t="s">
@@ -5534,10 +5544,10 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="25"/>
       <c r="C24" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -5573,10 +5583,10 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -5612,10 +5622,10 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
@@ -5651,10 +5661,10 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="25"/>
       <c r="C27" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -5690,10 +5700,10 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="25"/>
       <c r="C28" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
@@ -5784,10 +5794,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
@@ -5839,10 +5849,10 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="25"/>
       <c r="C31" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>31</v>
@@ -6078,7 +6088,7 @@
     <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="25"/>
       <c r="C36" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="55"/>
@@ -6109,14 +6119,14 @@
         <v>130</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>39</v>
@@ -6140,10 +6150,10 @@
         <v>37</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>38</v>
@@ -6266,13 +6276,13 @@
         <v>44</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="25"/>
       <c r="C40" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="55"/>
@@ -6937,7 +6947,7 @@
     <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B55" s="25"/>
       <c r="C55" s="3" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="19" t="s">
@@ -6977,20 +6987,20 @@
         <v>16</v>
       </c>
       <c r="Q55" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T55" s="3"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="55"/>
@@ -7068,13 +7078,13 @@
         <v>25</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="19" t="s">
@@ -7176,68 +7186,68 @@
         <v>25</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B60" s="25"/>
       <c r="C60" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q60" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="R60" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L60" s="15" t="s">
+      <c r="S60" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="M60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q60" s="19" t="s">
+      <c r="T60" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="R60" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="S60" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="25"/>
       <c r="C61" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="55"/>
@@ -7274,7 +7284,7 @@
     <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="25"/>
       <c r="C62" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="55"/>
@@ -7303,7 +7313,7 @@
     <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="55"/>
@@ -7332,7 +7342,7 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="55"/>
@@ -7367,22 +7377,22 @@
         <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>63</v>
@@ -7400,10 +7410,10 @@
         <v>63</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>63</v>
@@ -7422,10 +7432,10 @@
     <row r="66" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B66" s="25"/>
       <c r="C66" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>16</v>
@@ -7537,7 +7547,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>65</v>
@@ -7911,7 +7921,7 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B75" s="25"/>
       <c r="C75" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="55"/>
@@ -7938,20 +7948,20 @@
         <v>77</v>
       </c>
       <c r="R75" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S75" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B76" s="25"/>
       <c r="C76" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>16</v>
@@ -8056,10 +8066,10 @@
     <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="25"/>
       <c r="C78" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>16</v>
@@ -8111,10 +8121,10 @@
     <row r="79" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>16</v>
@@ -8166,10 +8176,10 @@
     <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="25"/>
       <c r="C80" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E80" s="55"/>
       <c r="F80" s="55"/>
@@ -8213,10 +8223,10 @@
     <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="25"/>
       <c r="C81" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>16</v>
@@ -8317,7 +8327,7 @@
         <v>25</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.35">
@@ -8366,7 +8376,7 @@
         <v>25</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S83" s="22" t="s">
         <v>82</v>
@@ -8478,7 +8488,7 @@
         <v>25</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.35">
@@ -8533,7 +8543,7 @@
         <v>25</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.35">
@@ -8588,7 +8598,7 @@
         <v>25</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.35">
@@ -8643,13 +8653,13 @@
         <v>25</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="25"/>
       <c r="C89" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="19" t="s">
@@ -8698,13 +8708,13 @@
         <v>25</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="25"/>
       <c r="C90" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="19" t="s">
@@ -8720,46 +8730,46 @@
         <v>25</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K90" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="R90" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S90" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T90" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="M90" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="N90" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="O90" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="P90" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q90" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R90" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="S90" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="T90" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="25"/>
       <c r="C91" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="19" t="s">
@@ -8775,46 +8785,46 @@
         <v>25</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K91" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="R91" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S91" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="M91" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="N91" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="O91" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="P91" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q91" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R91" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="S91" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="25"/>
       <c r="C92" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="19" t="s">
@@ -8867,7 +8877,7 @@
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="25"/>
       <c r="C93" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="19" t="s">
@@ -8920,7 +8930,7 @@
     <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="25"/>
       <c r="C94" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="19" t="s">
@@ -8942,10 +8952,10 @@
         <v>77</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>77</v>
@@ -8957,25 +8967,25 @@
         <v>77</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q94" s="15" t="s">
         <v>77</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S94" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="25"/>
       <c r="C95" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="19" t="s">
@@ -8991,46 +9001,46 @@
         <v>25</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K95" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O95" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="R95" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S95" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T95" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="L95" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="M95" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="N95" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="O95" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="P95" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q95" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R95" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="S95" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="25"/>
       <c r="C96" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="19" t="s">
@@ -9046,49 +9056,49 @@
         <v>25</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K96" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="R96" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S96" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T96" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="N96" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="O96" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="P96" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q96" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R96" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="S96" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="97" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B97" s="25"/>
       <c r="C97" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
@@ -9102,23 +9112,23 @@
       <c r="N97" s="56"/>
       <c r="O97" s="56"/>
       <c r="P97" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T97" s="3"/>
     </row>
     <row r="98" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B98" s="25"/>
       <c r="C98" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="56"/>
@@ -9133,23 +9143,23 @@
       <c r="N98" s="56"/>
       <c r="O98" s="56"/>
       <c r="P98" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B99" s="25"/>
       <c r="C99" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="56"/>
@@ -9164,23 +9174,23 @@
       <c r="N99" s="56"/>
       <c r="O99" s="56"/>
       <c r="P99" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q99" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B100" s="25"/>
       <c r="C100" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="56"/>
@@ -9195,23 +9205,23 @@
       <c r="N100" s="56"/>
       <c r="O100" s="56"/>
       <c r="P100" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S100" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T100" s="3"/>
     </row>
     <row r="101" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B101" s="25"/>
       <c r="C101" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="56"/>
@@ -9226,23 +9236,23 @@
       <c r="N101" s="56"/>
       <c r="O101" s="56"/>
       <c r="P101" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T101" s="3"/>
     </row>
     <row r="102" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B102" s="25"/>
       <c r="C102" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="56"/>
@@ -9257,23 +9267,23 @@
       <c r="N102" s="56"/>
       <c r="O102" s="56"/>
       <c r="P102" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T102" s="3"/>
     </row>
     <row r="103" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="56"/>
@@ -9288,23 +9298,23 @@
       <c r="N103" s="56"/>
       <c r="O103" s="56"/>
       <c r="P103" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T103" s="3"/>
     </row>
     <row r="104" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="56"/>
@@ -9319,23 +9329,23 @@
       <c r="N104" s="56"/>
       <c r="O104" s="56"/>
       <c r="P104" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q104" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T104" s="3"/>
     </row>
     <row r="105" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B105" s="25"/>
       <c r="C105" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="56"/>
@@ -9350,23 +9360,23 @@
       <c r="N105" s="56"/>
       <c r="O105" s="56"/>
       <c r="P105" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q105" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T105" s="3"/>
     </row>
     <row r="106" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="25"/>
       <c r="C106" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="56"/>
@@ -9381,23 +9391,23 @@
       <c r="N106" s="56"/>
       <c r="O106" s="56"/>
       <c r="P106" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T106" s="3"/>
     </row>
     <row r="107" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="25"/>
       <c r="C107" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="56"/>
@@ -9412,16 +9422,16 @@
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
       <c r="P107" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T107" s="3"/>
     </row>
@@ -9524,7 +9534,7 @@
     <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="25"/>
       <c r="C110" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D110" s="38"/>
       <c r="E110" s="56"/>
@@ -9551,10 +9561,10 @@
     <row r="111" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" s="25"/>
       <c r="C111" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>16</v>
@@ -9606,159 +9616,159 @@
     <row r="112" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D112" s="38"/>
       <c r="E112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T112" s="3"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="25"/>
       <c r="C113" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D113" s="38"/>
       <c r="E113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T113" s="3"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="25"/>
       <c r="C114" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D114" s="38"/>
       <c r="E114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S114" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>93</v>
@@ -9767,10 +9777,10 @@
     <row r="115" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="25"/>
       <c r="C115" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>16</v>
@@ -9977,66 +9987,66 @@
         <v>25</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="25"/>
       <c r="C119" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q119" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T119" s="3"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="25"/>
       <c r="C120" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="55"/>
@@ -10050,19 +10060,19 @@
       <c r="M120" s="56"/>
       <c r="N120" s="56"/>
       <c r="O120" s="31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P120" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q120" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S120" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T120" s="3"/>
     </row>
@@ -10194,7 +10204,7 @@
         <v>102</v>
       </c>
       <c r="J123" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>103</v>
@@ -10440,7 +10450,7 @@
     <row r="128" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B128" s="25"/>
       <c r="C128" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="19" t="s">
@@ -10489,7 +10499,7 @@
         <v>16</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="2:20" ht="39" x14ac:dyDescent="0.35">
@@ -10507,10 +10517,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>16</v>
@@ -10546,7 +10556,7 @@
         <v>16</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="2:20" ht="26" x14ac:dyDescent="0.35">
@@ -10884,10 +10894,10 @@
         <v>119</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>119</v>
@@ -10899,7 +10909,7 @@
         <v>119</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M136" s="15" t="s">
         <v>119</v>
@@ -10920,14 +10930,14 @@
         <v>119</v>
       </c>
       <c r="S136" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B137" s="25"/>
       <c r="C137" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D137" s="40"/>
       <c r="E137" s="15" t="s">
@@ -10990,10 +11000,10 @@
         <v>119</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I138" s="15" t="s">
         <v>119</v>
@@ -11029,7 +11039,7 @@
         <v>121</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="2:20" ht="26" x14ac:dyDescent="0.35">
@@ -11045,10 +11055,10 @@
         <v>16</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H139" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I139" s="15" t="s">
         <v>16</v>
@@ -11084,7 +11094,7 @@
         <v>71</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.35">
@@ -11100,10 +11110,10 @@
         <v>25</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H140" s="51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I140" s="15" t="s">
         <v>16</v>
@@ -11153,10 +11163,10 @@
         <v>125</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H141" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>125</v>
@@ -11189,10 +11199,10 @@
         <v>125</v>
       </c>
       <c r="S141" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T141" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="2:20" ht="52" x14ac:dyDescent="0.35">
@@ -11202,13 +11212,13 @@
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F142" s="50" t="s">
         <v>128</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H142" s="51" t="s">
         <v>128</v>
@@ -11285,16 +11295,16 @@
         <v>25</v>
       </c>
       <c r="S143" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T143" s="3"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B144" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D144" s="39"/>
       <c r="E144" s="52"/>
@@ -11343,7 +11353,7 @@
     <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B145" s="27"/>
       <c r="C145" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D145" s="39"/>
       <c r="E145" s="52"/>
@@ -11355,19 +11365,19 @@
         <v>25</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>25</v>
       </c>
       <c r="L145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N145" s="19" t="s">
         <v>25</v>
@@ -11376,47 +11386,47 @@
         <v>25</v>
       </c>
       <c r="P145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S145" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B146" s="27"/>
       <c r="C146" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="52"/>
       <c r="F146" s="52"/>
       <c r="G146" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H146" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H146" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="I146" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J146" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K146" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="K146" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="L146" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M146" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N146" s="19" t="s">
         <v>25</v>
@@ -11425,25 +11435,25 @@
         <v>25</v>
       </c>
       <c r="P146" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q146" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R146" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S146" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B147" s="27"/>
       <c r="C147" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D147" s="39"/>
       <c r="E147" s="52"/>
@@ -11492,7 +11502,7 @@
     <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B148" s="27"/>
       <c r="C148" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="52"/>
@@ -11541,7 +11551,7 @@
     <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B149" s="27"/>
       <c r="C149" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D149" s="39"/>
       <c r="E149" s="52"/>
@@ -11590,7 +11600,7 @@
     <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B150" s="27"/>
       <c r="C150" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D150" s="39"/>
       <c r="E150" s="52"/>
@@ -11639,7 +11649,7 @@
     <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B151" s="27"/>
       <c r="C151" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="52"/>
@@ -11688,7 +11698,7 @@
     <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B152" s="27"/>
       <c r="C152" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D152" s="39"/>
       <c r="E152" s="52"/>
@@ -11706,7 +11716,7 @@
         <v>25</v>
       </c>
       <c r="K152" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L152" s="19" t="s">
         <v>16</v>
@@ -11721,13 +11731,13 @@
         <v>25</v>
       </c>
       <c r="P152" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q152" s="19" t="s">
         <v>25</v>
       </c>
       <c r="R152" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S152" s="19" t="s">
         <v>16</v>
@@ -11737,7 +11747,7 @@
     <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B153" s="27"/>
       <c r="C153" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D153" s="39"/>
       <c r="E153" s="52"/>
@@ -11782,13 +11792,13 @@
         <v>61</v>
       </c>
       <c r="T153" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B154" s="27"/>
       <c r="C154" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D154" s="39"/>
       <c r="E154" s="52"/>
@@ -11836,7 +11846,9 @@
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B155" s="27"/>
-      <c r="C155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="D155" s="39"/>
       <c r="E155" s="52"/>
       <c r="F155" s="52"/>
@@ -11884,7 +11896,7 @@
     <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B156" s="27"/>
       <c r="C156" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D156" s="39"/>
       <c r="E156" s="52"/>
@@ -11896,10 +11908,10 @@
         <v>25</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J156" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>25</v>
@@ -11908,22 +11920,22 @@
         <v>25</v>
       </c>
       <c r="M156" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O156" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P156" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q156" s="31" t="s">
-        <v>299</v>
+        <v>187</v>
+      </c>
+      <c r="Q156" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="R156" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S156" s="19" t="s">
         <v>25</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2766,9 +2766,6 @@
     <t>128KB^</t>
   </si>
   <si>
-    <t>AES DPA resistance</t>
-  </si>
-  <si>
     <t>CTS-only</t>
   </si>
   <si>
@@ -3396,6 +3393,9 @@
   </si>
   <si>
     <t>- Updated TGP-LP to have 2 SMS (https://hsdes.intel.com/appstore/article/#/1405772298 )</t>
+  </si>
+  <si>
+    <t>AES SCA resistance</t>
   </si>
 </sst>
 </file>
@@ -4226,13 +4226,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -4240,10 +4240,10 @@
         <v>42734</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="87" x14ac:dyDescent="0.35">
@@ -4251,10 +4251,10 @@
         <v>42739</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4262,10 +4262,10 @@
         <v>42740</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -4273,10 +4273,10 @@
         <v>42744</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4284,10 +4284,10 @@
         <v>42746</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
@@ -4295,10 +4295,10 @@
         <v>42758</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -4306,10 +4306,10 @@
         <v>42761</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -4317,10 +4317,10 @@
         <v>42782</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -4328,10 +4328,10 @@
         <v>42800</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -4339,10 +4339,10 @@
         <v>42810</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -4350,10 +4350,10 @@
         <v>42816</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -4361,10 +4361,10 @@
         <v>42824</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
@@ -4399,10 +4399,10 @@
   <dimension ref="B1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S155" sqref="S155"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4420,7 +4420,7 @@
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="54"/>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="2:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -4428,13 +4428,13 @@
       <c r="C2" s="28"/>
       <c r="D2" s="44"/>
       <c r="E2" s="63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="65"/>
       <c r="I2" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
@@ -4443,19 +4443,19 @@
         <v>131</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P2" s="32" t="s">
         <v>132</v>
       </c>
       <c r="Q2" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="68" t="s">
         <v>325</v>
-      </c>
-      <c r="R2" s="68" t="s">
-        <v>326</v>
       </c>
       <c r="S2" s="69"/>
       <c r="T2" s="6"/>
@@ -4468,25 +4468,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>299</v>
-      </c>
       <c r="H3" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>4</v>
@@ -4498,10 +4498,10 @@
         <v>6</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>133</v>
@@ -4551,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>3</v>
@@ -4794,13 +4794,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>13</v>
@@ -4809,10 +4809,10 @@
         <v>13</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>14</v>
@@ -4830,10 +4830,10 @@
         <v>14</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T9" s="3"/>
     </row>
@@ -4893,7 +4893,7 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="55"/>
@@ -5134,10 +5134,10 @@
     <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>246</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>247</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>16</v>
@@ -5189,7 +5189,7 @@
     <row r="17" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="15" t="s">
@@ -5544,10 +5544,10 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="25"/>
       <c r="C24" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -5583,10 +5583,10 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="25"/>
       <c r="C25" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -5622,10 +5622,10 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
@@ -5661,10 +5661,10 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="25"/>
       <c r="C27" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -5700,10 +5700,10 @@
     <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="25"/>
       <c r="C28" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
@@ -5794,10 +5794,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>30</v>
@@ -5849,10 +5849,10 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="25"/>
       <c r="C31" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>31</v>
@@ -6088,7 +6088,7 @@
     <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="25"/>
       <c r="C36" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="55"/>
@@ -6119,14 +6119,14 @@
         <v>130</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>39</v>
@@ -6150,10 +6150,10 @@
         <v>37</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>38</v>
@@ -6276,13 +6276,13 @@
         <v>44</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="25"/>
       <c r="C40" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="55"/>
@@ -6586,7 +6586,7 @@
     <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="55"/>
@@ -6748,7 +6748,7 @@
       <c r="K50" s="56"/>
       <c r="L50" s="56"/>
       <c r="M50" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>25</v>
@@ -6757,16 +6757,16 @@
         <v>25</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>48</v>
@@ -6865,7 +6865,7 @@
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B53" s="25"/>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="55"/>
@@ -6947,7 +6947,7 @@
     <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B55" s="25"/>
       <c r="C55" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="19" t="s">
@@ -7000,7 +7000,7 @@
     <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="55"/>
@@ -7078,13 +7078,13 @@
         <v>25</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="19" t="s">
@@ -7186,68 +7186,68 @@
         <v>25</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B60" s="25"/>
       <c r="C60" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="L60" s="15" t="s">
+      <c r="M60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q60" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="M60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q60" s="19" t="s">
+      <c r="R60" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="S60" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="R60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="S60" s="15" t="s">
+      <c r="T60" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="25"/>
       <c r="C61" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="55"/>
@@ -7284,7 +7284,7 @@
     <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="25"/>
       <c r="C62" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="55"/>
@@ -7313,7 +7313,7 @@
     <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="55"/>
@@ -7342,7 +7342,7 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="55"/>
@@ -7377,22 +7377,22 @@
         <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>63</v>
@@ -7410,10 +7410,10 @@
         <v>63</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>63</v>
@@ -7432,10 +7432,10 @@
     <row r="66" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B66" s="25"/>
       <c r="C66" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>16</v>
@@ -7547,7 +7547,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>65</v>
@@ -7921,7 +7921,7 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B75" s="25"/>
       <c r="C75" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="55"/>
@@ -7948,20 +7948,20 @@
         <v>77</v>
       </c>
       <c r="R75" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S75" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T75" s="3"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B76" s="25"/>
       <c r="C76" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>16</v>
@@ -8066,10 +8066,10 @@
     <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="25"/>
       <c r="C78" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="45" t="s">
         <v>256</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>257</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>16</v>
@@ -8121,10 +8121,10 @@
     <row r="79" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>16</v>
@@ -8176,10 +8176,10 @@
     <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="25"/>
       <c r="C80" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>260</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>261</v>
       </c>
       <c r="E80" s="55"/>
       <c r="F80" s="55"/>
@@ -8223,10 +8223,10 @@
     <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="25"/>
       <c r="C81" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         <v>25</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.35">
@@ -8376,7 +8376,7 @@
         <v>25</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S83" s="22" t="s">
         <v>82</v>
@@ -8488,7 +8488,7 @@
         <v>25</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.35">
@@ -8543,7 +8543,7 @@
         <v>25</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.35">
@@ -8598,7 +8598,7 @@
         <v>25</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.35">
@@ -8653,13 +8653,13 @@
         <v>25</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="25"/>
       <c r="C89" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="19" t="s">
@@ -8708,13 +8708,13 @@
         <v>25</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="25"/>
       <c r="C90" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="19" t="s">
@@ -8730,46 +8730,46 @@
         <v>25</v>
       </c>
       <c r="I90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K90" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="L90" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="K90" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="M90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P90" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N90" s="15" t="s">
+      <c r="Q90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="R90" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="O90" s="15" t="s">
+      <c r="S90" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="P90" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q90" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="R90" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="S90" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="T90" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="25"/>
       <c r="C91" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="19" t="s">
@@ -8785,46 +8785,46 @@
         <v>25</v>
       </c>
       <c r="I91" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K91" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="L91" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="K91" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="M91" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P91" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="Q91" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="R91" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="O91" s="15" t="s">
+      <c r="S91" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="P91" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q91" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="R91" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="S91" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="T91" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="25"/>
       <c r="C92" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="19" t="s">
@@ -8877,7 +8877,7 @@
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="25"/>
       <c r="C93" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="19" t="s">
@@ -8930,7 +8930,7 @@
     <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="25"/>
       <c r="C94" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="19" t="s">
@@ -8952,10 +8952,10 @@
         <v>77</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>77</v>
@@ -8967,25 +8967,25 @@
         <v>77</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q94" s="15" t="s">
         <v>77</v>
       </c>
       <c r="R94" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S94" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="S94" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="25"/>
       <c r="C95" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="19" t="s">
@@ -9001,46 +9001,46 @@
         <v>25</v>
       </c>
       <c r="I95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J95" s="15" t="s">
+      <c r="L95" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="K95" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L95" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="M95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="N95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P95" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N95" s="15" t="s">
+      <c r="Q95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="R95" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="O95" s="15" t="s">
+      <c r="S95" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="P95" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q95" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="R95" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="S95" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="T95" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="25"/>
       <c r="C96" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="19" t="s">
@@ -9056,49 +9056,49 @@
         <v>25</v>
       </c>
       <c r="I96" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K96" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="L96" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="K96" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="M96" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O96" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P96" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N96" s="15" t="s">
+      <c r="Q96" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="R96" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="O96" s="15" t="s">
+      <c r="S96" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="P96" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q96" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="R96" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="S96" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="T96" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B97" s="25"/>
       <c r="C97" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
@@ -9112,23 +9112,23 @@
       <c r="N97" s="56"/>
       <c r="O97" s="56"/>
       <c r="P97" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T97" s="3"/>
     </row>
     <row r="98" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B98" s="25"/>
       <c r="C98" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="56"/>
@@ -9143,23 +9143,23 @@
       <c r="N98" s="56"/>
       <c r="O98" s="56"/>
       <c r="P98" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B99" s="25"/>
       <c r="C99" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="56"/>
@@ -9174,23 +9174,23 @@
       <c r="N99" s="56"/>
       <c r="O99" s="56"/>
       <c r="P99" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q99" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B100" s="25"/>
       <c r="C100" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="56"/>
@@ -9205,23 +9205,23 @@
       <c r="N100" s="56"/>
       <c r="O100" s="56"/>
       <c r="P100" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S100" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T100" s="3"/>
     </row>
     <row r="101" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B101" s="25"/>
       <c r="C101" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="56"/>
@@ -9236,23 +9236,23 @@
       <c r="N101" s="56"/>
       <c r="O101" s="56"/>
       <c r="P101" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T101" s="3"/>
     </row>
     <row r="102" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B102" s="25"/>
       <c r="C102" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="56"/>
@@ -9267,23 +9267,23 @@
       <c r="N102" s="56"/>
       <c r="O102" s="56"/>
       <c r="P102" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T102" s="3"/>
     </row>
     <row r="103" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="56"/>
@@ -9298,23 +9298,23 @@
       <c r="N103" s="56"/>
       <c r="O103" s="56"/>
       <c r="P103" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T103" s="3"/>
     </row>
     <row r="104" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="56"/>
@@ -9329,23 +9329,23 @@
       <c r="N104" s="56"/>
       <c r="O104" s="56"/>
       <c r="P104" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q104" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T104" s="3"/>
     </row>
     <row r="105" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B105" s="25"/>
       <c r="C105" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="56"/>
@@ -9360,23 +9360,23 @@
       <c r="N105" s="56"/>
       <c r="O105" s="56"/>
       <c r="P105" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q105" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T105" s="3"/>
     </row>
     <row r="106" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="25"/>
       <c r="C106" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="56"/>
@@ -9391,23 +9391,23 @@
       <c r="N106" s="56"/>
       <c r="O106" s="56"/>
       <c r="P106" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T106" s="3"/>
     </row>
     <row r="107" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="25"/>
       <c r="C107" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="56"/>
@@ -9422,16 +9422,16 @@
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
       <c r="P107" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T107" s="3"/>
     </row>
@@ -9534,7 +9534,7 @@
     <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="25"/>
       <c r="C110" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D110" s="38"/>
       <c r="E110" s="56"/>
@@ -9561,10 +9561,10 @@
     <row r="111" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" s="25"/>
       <c r="C111" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>16</v>
@@ -9616,159 +9616,159 @@
     <row r="112" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D112" s="38"/>
       <c r="E112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T112" s="3"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="25"/>
       <c r="C113" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D113" s="38"/>
       <c r="E113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F113" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G113" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G113" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="H113" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="I113" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I113" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="J113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T113" s="3"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="25"/>
       <c r="C114" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D114" s="38"/>
       <c r="E114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S114" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>93</v>
@@ -9777,10 +9777,10 @@
     <row r="115" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="25"/>
       <c r="C115" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>16</v>
@@ -9987,66 +9987,66 @@
         <v>25</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="25"/>
       <c r="C119" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G119" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="H119" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="G119" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="H119" s="23" t="s">
-        <v>303</v>
-      </c>
       <c r="I119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="L119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="M119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="N119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="O119" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="P119" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q119" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="J119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="K119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="L119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="O119" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="P119" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q119" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="R119" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T119" s="3"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="25"/>
       <c r="C120" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="55"/>
@@ -10060,19 +10060,19 @@
       <c r="M120" s="56"/>
       <c r="N120" s="56"/>
       <c r="O120" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="P120" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="P120" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="Q120" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="R120" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="R120" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="S120" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T120" s="3"/>
     </row>
@@ -10204,7 +10204,7 @@
         <v>102</v>
       </c>
       <c r="J123" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>103</v>
@@ -10450,7 +10450,7 @@
     <row r="128" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B128" s="25"/>
       <c r="C128" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="19" t="s">
@@ -10499,7 +10499,7 @@
         <v>16</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="2:20" ht="39" x14ac:dyDescent="0.35">
@@ -10517,10 +10517,10 @@
         <v>16</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I129" s="15" t="s">
         <v>16</v>
@@ -10556,7 +10556,7 @@
         <v>16</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="2:20" ht="26" x14ac:dyDescent="0.35">
@@ -10894,10 +10894,10 @@
         <v>119</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>119</v>
@@ -10909,7 +10909,7 @@
         <v>119</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M136" s="15" t="s">
         <v>119</v>
@@ -10930,14 +10930,14 @@
         <v>119</v>
       </c>
       <c r="S136" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T136" s="2"/>
     </row>
     <row r="137" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B137" s="25"/>
       <c r="C137" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D137" s="40"/>
       <c r="E137" s="15" t="s">
@@ -11000,10 +11000,10 @@
         <v>119</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I138" s="15" t="s">
         <v>119</v>
@@ -11039,7 +11039,7 @@
         <v>121</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="2:20" ht="26" x14ac:dyDescent="0.35">
@@ -11055,10 +11055,10 @@
         <v>16</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H139" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I139" s="15" t="s">
         <v>16</v>
@@ -11094,7 +11094,7 @@
         <v>71</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.35">
@@ -11110,10 +11110,10 @@
         <v>25</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H140" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I140" s="15" t="s">
         <v>16</v>
@@ -11163,10 +11163,10 @@
         <v>125</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H141" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>125</v>
@@ -11199,10 +11199,10 @@
         <v>125</v>
       </c>
       <c r="S141" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T141" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="2:20" ht="52" x14ac:dyDescent="0.35">
@@ -11212,13 +11212,13 @@
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F142" s="50" t="s">
         <v>128</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H142" s="51" t="s">
         <v>128</v>
@@ -11295,16 +11295,16 @@
         <v>25</v>
       </c>
       <c r="S143" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T143" s="3"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B144" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="D144" s="39"/>
       <c r="E144" s="52"/>
@@ -11353,7 +11353,7 @@
     <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B145" s="27"/>
       <c r="C145" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D145" s="39"/>
       <c r="E145" s="52"/>
@@ -11365,19 +11365,19 @@
         <v>25</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>25</v>
       </c>
       <c r="L145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N145" s="19" t="s">
         <v>25</v>
@@ -11386,74 +11386,74 @@
         <v>25</v>
       </c>
       <c r="P145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S145" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B146" s="27"/>
       <c r="C146" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="52"/>
       <c r="F146" s="52"/>
       <c r="G146" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J146" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K146" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L146" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M146" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="N146" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O146" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P146" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H146" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="I146" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="J146" s="19" t="s">
+      <c r="Q146" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="R146" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="K146" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L146" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="M146" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="N146" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O146" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P146" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q146" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="R146" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="S146" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B147" s="27"/>
       <c r="C147" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D147" s="39"/>
       <c r="E147" s="52"/>
@@ -11502,7 +11502,7 @@
     <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B148" s="27"/>
       <c r="C148" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="52"/>
@@ -11551,7 +11551,7 @@
     <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B149" s="27"/>
       <c r="C149" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D149" s="39"/>
       <c r="E149" s="52"/>
@@ -11600,7 +11600,7 @@
     <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B150" s="27"/>
       <c r="C150" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D150" s="39"/>
       <c r="E150" s="52"/>
@@ -11649,7 +11649,7 @@
     <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B151" s="27"/>
       <c r="C151" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="52"/>
@@ -11698,7 +11698,7 @@
     <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B152" s="27"/>
       <c r="C152" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D152" s="39"/>
       <c r="E152" s="52"/>
@@ -11716,7 +11716,7 @@
         <v>25</v>
       </c>
       <c r="K152" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L152" s="19" t="s">
         <v>16</v>
@@ -11731,13 +11731,13 @@
         <v>25</v>
       </c>
       <c r="P152" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q152" s="19" t="s">
         <v>25</v>
       </c>
       <c r="R152" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S152" s="19" t="s">
         <v>16</v>
@@ -11747,7 +11747,7 @@
     <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B153" s="27"/>
       <c r="C153" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D153" s="39"/>
       <c r="E153" s="52"/>
@@ -11792,13 +11792,13 @@
         <v>61</v>
       </c>
       <c r="T153" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B154" s="27"/>
       <c r="C154" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D154" s="39"/>
       <c r="E154" s="52"/>
@@ -11847,7 +11847,7 @@
     <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B155" s="27"/>
       <c r="C155" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D155" s="39"/>
       <c r="E155" s="52"/>
@@ -11896,7 +11896,7 @@
     <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B156" s="27"/>
       <c r="C156" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D156" s="39"/>
       <c r="E156" s="52"/>
@@ -11908,10 +11908,10 @@
         <v>25</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J156" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>25</v>
@@ -11920,22 +11920,22 @@
         <v>25</v>
       </c>
       <c r="M156" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O156" s="19" t="s">
         <v>25</v>
       </c>
       <c r="P156" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q156" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R156" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S156" s="19" t="s">
         <v>25</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2332,7 +2332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="333">
   <si>
     <t>Item</t>
   </si>
@@ -3396,6 +3396,9 @@
   </si>
   <si>
     <t>AES SCA resistance</t>
+  </si>
+  <si>
+    <t>- Updated LKF1-B IOMMU to 128 entries (PCR 1405769992)</t>
   </si>
 </sst>
 </file>
@@ -4212,7 +4215,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4368,9 +4371,15 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="10">
+        <v>42825</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
@@ -4399,10 +4408,10 @@
   <dimension ref="B1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5884,8 +5893,8 @@
       <c r="N31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="15" t="s">
-        <v>31</v>
+      <c r="O31" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>32</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O65" authorId="0" shapeId="0">
+    <comment ref="O66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K68" authorId="0" shapeId="0">
+    <comment ref="K69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P68" authorId="0" shapeId="0">
+    <comment ref="P69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R68" authorId="0" shapeId="0">
+    <comment ref="R69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K70" authorId="0" shapeId="0">
+    <comment ref="K71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -703,102 +703,6 @@
           </rPr>
           <t xml:space="preserve">
 * For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L70" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Not required OK to simplify design</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P70" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R70" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S70" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Not required OK to simplify design</t>
         </r>
       </text>
     </comment>
@@ -822,11 +726,107 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** For IE verified boot</t>
+** Not required OK to simplify design</t>
         </r>
       </text>
     </comment>
-    <comment ref="R75" authorId="0" shapeId="0">
+    <comment ref="P71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* For AnC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* For AnC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Not required OK to simplify design</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** For IE verified boot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S75" authorId="0" shapeId="0">
+    <comment ref="S76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K76" authorId="0" shapeId="0">
+    <comment ref="K77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0">
+    <comment ref="C81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="0" shapeId="0">
+    <comment ref="C89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O88" authorId="0" shapeId="0">
+    <comment ref="O89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -968,78 +968,6 @@
           </rPr>
           <t xml:space="preserve">
 ^^ CNV is discrete in LKF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** No Modem integration in TGP-LP.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M89" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* WFST dropped from POR in ICP*</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P89" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
@@ -1063,11 +991,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** Permanently for CNVi starting TGP-LP</t>
+** No Modem integration in TGP-LP.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K92" authorId="0" shapeId="0">
+    <comment ref="M90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1087,11 +1015,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Simplify config and in case we need</t>
+* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
-    <comment ref="L92" authorId="0" shapeId="0">
+    <comment ref="P90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1111,11 +1039,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Simplify config and in case we need</t>
+* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0" shapeId="0">
+    <comment ref="Q90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,55 +1063,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R92" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S92" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+** Permanently for CNVi starting TGP-LP</t>
         </r>
       </text>
     </comment>
@@ -1307,7 +1187,127 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q105" authorId="0" shapeId="0">
+    <comment ref="K94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Simplify config and in case we need</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Simplify config and in case we need</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1331,7 +1331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R105" authorId="0" shapeId="0">
+    <comment ref="R106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1355,7 +1355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S105" authorId="0" shapeId="0">
+    <comment ref="S106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R110" authorId="0" shapeId="0">
+    <comment ref="R111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1403,7 +1403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S110" authorId="0" shapeId="0">
+    <comment ref="S111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L119" authorId="0" shapeId="0">
+    <comment ref="L120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q119" authorId="0" shapeId="0">
+    <comment ref="Q120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1475,7 +1475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L129" authorId="0" shapeId="0">
+    <comment ref="L131" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1499,7 +1499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L133" authorId="0" shapeId="0">
+    <comment ref="L135" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S133" authorId="0" shapeId="0">
+    <comment ref="S135" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1544,150 +1544,6 @@
           </rPr>
           <t xml:space="preserve">
 Yes due to includsion of SKS – it gives capability to IE FW to perform zeroing in case it wants to clear any secrets in SKS.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G136" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H136" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L136" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S136" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L137" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S137" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
@@ -1701,7 +1557,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>* To be further limited by SOC.</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1711,7 +1567,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
@@ -1725,7 +1581,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>* To be further limited by SOC.</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1735,7 +1591,55 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L138" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S138" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
@@ -1759,11 +1663,107 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** CDF Tom/Glenn: It should match what we do for ME</t>
+* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L143" authorId="0" shapeId="0">
+    <comment ref="S139" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G140" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>* To be further limited by SOC.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H140" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>* To be further limited by SOC.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L141" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** CDF Tom/Glenn: It should match what we do for ME</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1787,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S143" authorId="0" shapeId="0">
+    <comment ref="S145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1811,7 +1811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S144" authorId="0" shapeId="0">
+    <comment ref="S146" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H145" authorId="0" shapeId="0">
+    <comment ref="H147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K145" authorId="0" shapeId="0">
+    <comment ref="K147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1881,80 +1881,6 @@
             <family val="2"/>
           </rPr>
           <t>2/3/15 update.  CDF – USB-r only required for IE – no ME/IE USBr muxing needed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K146" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2/3/15 update.  ME can surive with x3 and IE only needs x4.
-3/25/15 update.  CDF IE SMT changed to x3 too since PMT parameterization PCR was rejected.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L146" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2/3/15 update.  ME can surive with x3 and IE only needs x4.
-3/25/15 update.  CDF IE SMT changed to x3 too since PMT parameterization PCR was rejected.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H148" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>No PECI Pin in DNV</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
         </r>
       </text>
     </comment>
@@ -1978,8 +1904,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-CDF requires both PECI pin and IOSF-SB based PECI.
-2/3/15 update.  CDF PECI pins will be through GPIO pad, no ME/IE muxing needed.</t>
+2/3/15 update.  ME can surive with x3 and IE only needs x4.
+3/25/15 update.  CDF IE SMT changed to x3 too since PMT parameterization PCR was rejected.</t>
         </r>
       </text>
     </comment>
@@ -2003,12 +1929,86 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+2/3/15 update.  ME can surive with x3 and IE only needs x4.
+3/25/15 update.  CDF IE SMT changed to x3 too since PMT parameterization PCR was rejected.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H150" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No PECI Pin in DNV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K150" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 CDF requires both PECI pin and IOSF-SB based PECI.
 2/3/15 update.  CDF PECI pins will be through GPIO pad, no ME/IE muxing needed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G149" authorId="0" shapeId="0">
+    <comment ref="L150" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CDF requires both PECI pin and IOSF-SB based PECI.
+2/3/15 update.  CDF PECI pins will be through GPIO pad, no ME/IE muxing needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2035,7 +2035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H149" authorId="0" shapeId="0">
+    <comment ref="H151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2062,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P149" authorId="0" shapeId="0">
+    <comment ref="P151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q149" authorId="0" shapeId="0">
+    <comment ref="Q151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2110,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R149" authorId="0" shapeId="0">
+    <comment ref="R151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2134,7 +2134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S149" authorId="0" shapeId="0">
+    <comment ref="S151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G151" authorId="0" shapeId="0">
+    <comment ref="G153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2185,7 +2185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H151" authorId="0" shapeId="0">
+    <comment ref="H153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2212,7 +2212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C155" authorId="0" shapeId="0">
+    <comment ref="C157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2236,7 +2236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H155" authorId="0" shapeId="0">
+    <comment ref="H157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2254,7 +2254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K155" authorId="0" shapeId="0">
+    <comment ref="K157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2278,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N156" authorId="0" shapeId="0">
+    <comment ref="N158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2302,7 +2302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q156" authorId="0" shapeId="0">
+    <comment ref="Q158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2332,7 +2332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="335">
   <si>
     <t>Item</t>
   </si>
@@ -3395,10 +3395,17 @@
     <t>- Updated TGP-LP to have 2 SMS (https://hsdes.intel.com/appstore/article/#/1405772298 )</t>
   </si>
   <si>
-    <t>AES SCA resistance</t>
-  </si>
-  <si>
-    <t>- Updated LKF1-B IOMMU to 128 entries (PCR 1405769992)</t>
+    <t>AES DRA/DEMA resistance</t>
+  </si>
+  <si>
+    <t>Fuse CRC</t>
+  </si>
+  <si>
+    <t>- Updated LKF1-B IOMMU to 128 entries (PCR 1405769992)
+- Added fuse CRC feature</t>
+  </si>
+  <si>
+    <t>ECDSA</t>
   </si>
 </sst>
 </file>
@@ -3691,7 +3698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3898,6 +3905,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4215,7 +4225,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4370,15 +4380,15 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>42825</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>332</v>
+      <c r="D15" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -4405,13 +4415,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T156"/>
+  <dimension ref="B1:T158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7351,7 +7361,7 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="55"/>
@@ -7364,199 +7374,179 @@
       <c r="L64" s="56"/>
       <c r="M64" s="56"/>
       <c r="N64" s="56"/>
-      <c r="O64" s="31" t="s">
+      <c r="O64" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P64" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S64" s="15" t="s">
+      <c r="Q64" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R64" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="S64" s="22" t="s">
         <v>16</v>
       </c>
       <c r="T64" s="3"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B66" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D66" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E66" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F66" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G66" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H66" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="15" t="s">
+      <c r="J66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L65" s="15" t="s">
+      <c r="L66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M65" s="15" t="s">
+      <c r="M66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N65" s="15" t="s">
+      <c r="N66" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O65" s="15" t="s">
+      <c r="O66" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="P65" s="15" t="s">
+      <c r="P66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q65" s="15" t="s">
+      <c r="Q66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="R65" s="15" t="s">
+      <c r="R66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="S65" s="15" t="s">
+      <c r="S66" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="T65" s="3"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B66" s="25"/>
-      <c r="C66" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S66" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="T66" s="3"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B67" s="25"/>
       <c r="C67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="45"/>
-      <c r="E67" s="19">
-        <v>5</v>
-      </c>
-      <c r="F67" s="19">
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I67" s="15">
-        <v>5</v>
-      </c>
-      <c r="J67" s="15">
-        <v>5</v>
-      </c>
-      <c r="K67" s="15">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M67" s="15">
-        <v>5</v>
-      </c>
-      <c r="N67" s="15">
-        <v>5</v>
-      </c>
-      <c r="O67" s="15">
-        <v>5</v>
-      </c>
-      <c r="P67" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q67" s="15">
-        <v>5</v>
-      </c>
-      <c r="R67" s="15">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R67" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="S67" s="15" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="T67" s="3"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B68" s="25"/>
       <c r="C68" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68" s="45"/>
-      <c r="E68" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>300</v>
+      <c r="E68" s="19">
+        <v>5</v>
+      </c>
+      <c r="F68" s="19">
+        <v>1</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>65</v>
@@ -7564,35 +7554,35 @@
       <c r="H68" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>67</v>
+      <c r="I68" s="15">
+        <v>5</v>
+      </c>
+      <c r="J68" s="15">
+        <v>5</v>
+      </c>
+      <c r="K68" s="15">
+        <v>5</v>
       </c>
       <c r="L68" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q68" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R68" s="15" t="s">
-        <v>67</v>
+      <c r="M68" s="15">
+        <v>5</v>
+      </c>
+      <c r="N68" s="15">
+        <v>5</v>
+      </c>
+      <c r="O68" s="15">
+        <v>5</v>
+      </c>
+      <c r="P68" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="15">
+        <v>5</v>
+      </c>
+      <c r="R68" s="15">
+        <v>5</v>
       </c>
       <c r="S68" s="15" t="s">
         <v>65</v>
@@ -7602,66 +7592,64 @@
     <row r="69" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B69" s="25"/>
       <c r="C69" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D69" s="45"/>
-      <c r="E69" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>25</v>
+      <c r="E69" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>300</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="21" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N69" s="15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q69" s="15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="R69" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="S69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T69" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="T69" s="3"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B70" s="25"/>
       <c r="C70" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="49" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F70" s="49" t="s">
         <v>25</v>
@@ -7670,7 +7658,7 @@
         <v>25</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>16</v>
@@ -7682,7 +7670,7 @@
         <v>61</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="M70" s="15" t="s">
         <v>16</v>
@@ -7693,28 +7681,30 @@
       <c r="O70" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P70" s="21" t="s">
+      <c r="P70" s="15" t="s">
         <v>61</v>
       </c>
       <c r="Q70" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R70" s="21" t="s">
+      <c r="R70" s="15" t="s">
         <v>61</v>
       </c>
       <c r="S70" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="T70" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B71" s="25"/>
       <c r="C71" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71" s="45"/>
       <c r="E71" s="49" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F71" s="49" t="s">
         <v>25</v>
@@ -7723,7 +7713,7 @@
         <v>25</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>16</v>
@@ -7746,30 +7736,28 @@
       <c r="O71" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P71" s="15" t="s">
+      <c r="P71" s="21" t="s">
         <v>61</v>
       </c>
       <c r="Q71" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R71" s="15" t="s">
+      <c r="R71" s="21" t="s">
         <v>61</v>
       </c>
       <c r="S71" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T71" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="T71" s="3"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B72" s="25"/>
       <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="49" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F72" s="49" t="s">
         <v>25</v>
@@ -7778,7 +7766,7 @@
         <v>25</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>16</v>
@@ -7790,7 +7778,7 @@
         <v>61</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M72" s="15" t="s">
         <v>16</v>
@@ -7802,25 +7790,25 @@
         <v>16</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="Q72" s="15" t="s">
         <v>16</v>
       </c>
       <c r="R72" s="15" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="S72" s="15" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B73" s="25"/>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="49" t="s">
@@ -7875,7 +7863,7 @@
     <row r="74" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B74" s="25"/>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="49" t="s">
@@ -7930,101 +7918,103 @@
     <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B75" s="25"/>
       <c r="C75" s="3" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="D75" s="45"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
+      <c r="E75" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="M75" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N75" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q75" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="R75" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="S75" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="T75" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R75" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B76" s="25"/>
       <c r="C76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>25</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D76" s="45"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
       <c r="M76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="15" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="P76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S76" s="15" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="Q76" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R76" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="S76" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B77" s="25"/>
       <c r="C77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="45"/>
+        <v>254</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="E77" s="19" t="s">
         <v>16</v>
       </c>
@@ -8032,10 +8022,10 @@
         <v>16</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I77" s="15" t="s">
         <v>16</v>
@@ -8047,7 +8037,7 @@
         <v>16</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M77" s="15" t="s">
         <v>16</v>
@@ -8068,18 +8058,16 @@
         <v>16</v>
       </c>
       <c r="S77" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T77" s="3"/>
     </row>
     <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="25"/>
       <c r="C78" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>256</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D78" s="45"/>
       <c r="E78" s="19" t="s">
         <v>16</v>
       </c>
@@ -8127,13 +8115,13 @@
       </c>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>16</v>
@@ -8185,122 +8173,124 @@
     <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="25"/>
       <c r="C80" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="15">
-        <v>1</v>
-      </c>
-      <c r="J80" s="15">
-        <v>1</v>
-      </c>
-      <c r="K80" s="15">
-        <v>1</v>
-      </c>
-      <c r="L80" s="15">
-        <v>1</v>
-      </c>
-      <c r="M80" s="15">
-        <v>1</v>
-      </c>
-      <c r="N80" s="15">
-        <v>1</v>
-      </c>
-      <c r="O80" s="15">
-        <v>1</v>
-      </c>
-      <c r="P80" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="15">
-        <v>1</v>
-      </c>
-      <c r="R80" s="15">
-        <v>1</v>
-      </c>
-      <c r="S80" s="15">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S80" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="T80" s="3"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="25"/>
       <c r="C81" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S81" s="15" t="s">
-        <v>16</v>
+        <v>260</v>
+      </c>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="15">
+        <v>1</v>
+      </c>
+      <c r="J81" s="15">
+        <v>1</v>
+      </c>
+      <c r="K81" s="15">
+        <v>1</v>
+      </c>
+      <c r="L81" s="15">
+        <v>1</v>
+      </c>
+      <c r="M81" s="15">
+        <v>1</v>
+      </c>
+      <c r="N81" s="15">
+        <v>1</v>
+      </c>
+      <c r="O81" s="15">
+        <v>1</v>
+      </c>
+      <c r="P81" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="15">
+        <v>1</v>
+      </c>
+      <c r="R81" s="15">
+        <v>1</v>
+      </c>
+      <c r="S81" s="15">
+        <v>1</v>
       </c>
       <c r="T81" s="3"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B82" s="25"/>
       <c r="C82" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="45"/>
+        <v>262</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>261</v>
+      </c>
       <c r="E82" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I82" s="15" t="s">
         <v>16</v>
@@ -8309,10 +8299,10 @@
         <v>16</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M82" s="15" t="s">
         <v>16</v>
@@ -8324,131 +8314,131 @@
         <v>16</v>
       </c>
       <c r="P82" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q82" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="R82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T82" s="3"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B83" s="25"/>
       <c r="C83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="19" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O83" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P83" s="15" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="Q83" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="S83" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T83" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B84" s="25"/>
       <c r="C84" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="19" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q84" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R84" s="22" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="S84" s="22" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="T84" s="3"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B85" s="25"/>
       <c r="C85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="19" t="s">
@@ -8470,10 +8460,10 @@
         <v>16</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M85" s="15" t="s">
         <v>16</v>
@@ -8485,32 +8475,30 @@
         <v>16</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="Q85" s="22" t="s">
         <v>16</v>
       </c>
       <c r="R85" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S85" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="T85" s="3"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B86" s="25"/>
       <c r="C86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>25</v>
@@ -8519,31 +8507,31 @@
         <v>25</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K86" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P86" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="Q86" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R86" s="22" t="s">
         <v>25</v>
@@ -8551,21 +8539,21 @@
       <c r="S86" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T86" s="3" t="s">
-        <v>321</v>
+      <c r="T86" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B87" s="25"/>
       <c r="C87" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>25</v>
@@ -8574,31 +8562,31 @@
         <v>25</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>25</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O87" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q87" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R87" s="22" t="s">
         <v>25</v>
@@ -8606,14 +8594,14 @@
       <c r="S87" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T87" s="2" t="s">
-        <v>146</v>
+      <c r="T87" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B88" s="25"/>
       <c r="C88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="19" t="s">
@@ -8629,10 +8617,10 @@
         <v>25</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="K88" s="15" t="s">
         <v>25</v>
@@ -8641,19 +8629,19 @@
         <v>25</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O88" s="31" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="O88" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="Q88" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R88" s="22" t="s">
         <v>25</v>
@@ -8661,14 +8649,14 @@
       <c r="S88" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T88" s="3" t="s">
-        <v>275</v>
+      <c r="T88" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="25"/>
       <c r="C89" s="3" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="19" t="s">
@@ -8696,34 +8684,34 @@
         <v>25</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O89" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O89" s="31" t="s">
         <v>25</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q89" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="R89" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S89" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q89" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R89" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S89" s="22" t="s">
         <v>25</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="25"/>
       <c r="C90" s="3" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="19" t="s">
@@ -8739,46 +8727,46 @@
         <v>25</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="N90" s="15" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="O90" s="15" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="Q90" s="15" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="S90" s="15" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="25"/>
       <c r="C91" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="19" t="s">
@@ -8833,7 +8821,7 @@
     <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="25"/>
       <c r="C92" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="19" t="s">
@@ -8849,44 +8837,46 @@
         <v>25</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="N92" s="15" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="O92" s="15" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Q92" s="15" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="R92" s="15" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="S92" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="T92" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="25"/>
       <c r="C93" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="19" t="s">
@@ -8939,7 +8929,7 @@
     <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="25"/>
       <c r="C94" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="19" t="s">
@@ -8961,10 +8951,10 @@
         <v>77</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>77</v>
@@ -8976,25 +8966,23 @@
         <v>77</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Q94" s="15" t="s">
         <v>77</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="S94" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>229</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="T94" s="3"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="25"/>
       <c r="C95" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="19" t="s">
@@ -9010,37 +8998,37 @@
         <v>25</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="N95" s="15" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95" s="15" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="R95" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S95" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T95" s="3" t="s">
         <v>229</v>
@@ -9049,7 +9037,7 @@
     <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="25"/>
       <c r="C96" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="19" t="s">
@@ -9101,45 +9089,69 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="2:20" ht="26" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B97" s="25"/>
       <c r="C97" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="56"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="56"/>
+        <v>225</v>
+      </c>
+      <c r="D97" s="45"/>
+      <c r="E97" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="N97" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O97" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="P97" s="15" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="T97" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="98" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B98" s="25"/>
       <c r="C98" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="45"/>
+        <v>263</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
       <c r="G98" s="56"/>
@@ -9152,23 +9164,23 @@
       <c r="N98" s="56"/>
       <c r="O98" s="56"/>
       <c r="P98" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S98" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T98" s="3"/>
     </row>
     <row r="99" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B99" s="25"/>
       <c r="C99" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="56"/>
@@ -9183,23 +9195,23 @@
       <c r="N99" s="56"/>
       <c r="O99" s="56"/>
       <c r="P99" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q99" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T99" s="3"/>
     </row>
     <row r="100" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B100" s="25"/>
       <c r="C100" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="56"/>
@@ -9214,23 +9226,23 @@
       <c r="N100" s="56"/>
       <c r="O100" s="56"/>
       <c r="P100" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S100" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T100" s="3"/>
     </row>
     <row r="101" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B101" s="25"/>
       <c r="C101" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="56"/>
@@ -9245,23 +9257,23 @@
       <c r="N101" s="56"/>
       <c r="O101" s="56"/>
       <c r="P101" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T101" s="3"/>
     </row>
     <row r="102" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B102" s="25"/>
       <c r="C102" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="56"/>
@@ -9276,23 +9288,23 @@
       <c r="N102" s="56"/>
       <c r="O102" s="56"/>
       <c r="P102" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T102" s="3"/>
     </row>
     <row r="103" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="56"/>
@@ -9307,23 +9319,23 @@
       <c r="N103" s="56"/>
       <c r="O103" s="56"/>
       <c r="P103" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S103" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T103" s="3"/>
     </row>
     <row r="104" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="56"/>
@@ -9338,23 +9350,23 @@
       <c r="N104" s="56"/>
       <c r="O104" s="56"/>
       <c r="P104" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q104" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="T104" s="3"/>
     </row>
     <row r="105" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B105" s="25"/>
       <c r="C105" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="56"/>
@@ -9369,23 +9381,23 @@
       <c r="N105" s="56"/>
       <c r="O105" s="56"/>
       <c r="P105" s="15" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="Q105" s="15" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="T105" s="3"/>
     </row>
     <row r="106" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B106" s="25"/>
       <c r="C106" s="3" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="56"/>
@@ -9400,23 +9412,23 @@
       <c r="N106" s="56"/>
       <c r="O106" s="56"/>
       <c r="P106" s="15" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="T106" s="3"/>
     </row>
     <row r="107" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B107" s="25"/>
       <c r="C107" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="56"/>
@@ -9431,23 +9443,23 @@
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
       <c r="P107" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="R107" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="S107" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="T107" s="3"/>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B108" s="25"/>
       <c r="C108" s="3" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="56"/>
@@ -9456,164 +9468,140 @@
       <c r="H108" s="56"/>
       <c r="I108" s="56"/>
       <c r="J108" s="56"/>
-      <c r="K108" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M108" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N108" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O108" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
       <c r="P108" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q108" s="19" t="s">
-        <v>25</v>
+        <v>232</v>
+      </c>
+      <c r="Q108" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="R108" s="15" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="S108" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T108" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="T108" s="3"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B109" s="25"/>
       <c r="C109" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D109" s="45"/>
-      <c r="E109" s="15">
-        <v>10</v>
-      </c>
-      <c r="F109" s="15">
-        <v>10</v>
-      </c>
-      <c r="G109" s="15">
-        <v>10</v>
-      </c>
-      <c r="H109" s="15">
-        <v>10</v>
-      </c>
-      <c r="I109" s="15">
-        <v>12</v>
-      </c>
-      <c r="J109" s="15">
-        <v>12</v>
-      </c>
-      <c r="K109" s="15">
-        <v>12</v>
-      </c>
-      <c r="L109" s="15">
-        <v>12</v>
-      </c>
-      <c r="M109" s="15">
-        <v>12</v>
-      </c>
-      <c r="N109" s="15">
-        <v>12</v>
-      </c>
-      <c r="O109" s="15">
-        <v>12</v>
-      </c>
-      <c r="P109" s="15">
-        <v>12</v>
-      </c>
-      <c r="Q109" s="19">
-        <v>12</v>
-      </c>
-      <c r="R109" s="15">
-        <v>12</v>
-      </c>
-      <c r="S109" s="15">
-        <v>12</v>
-      </c>
-      <c r="T109" s="3"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O109" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q109" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="25"/>
       <c r="C110" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="56"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="56"/>
-      <c r="R110" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S110" s="15" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="D110" s="45"/>
+      <c r="E110" s="15">
+        <v>10</v>
+      </c>
+      <c r="F110" s="15">
+        <v>10</v>
+      </c>
+      <c r="G110" s="15">
+        <v>10</v>
+      </c>
+      <c r="H110" s="15">
+        <v>10</v>
+      </c>
+      <c r="I110" s="15">
+        <v>12</v>
+      </c>
+      <c r="J110" s="15">
+        <v>12</v>
+      </c>
+      <c r="K110" s="15">
+        <v>12</v>
+      </c>
+      <c r="L110" s="15">
+        <v>12</v>
+      </c>
+      <c r="M110" s="15">
+        <v>12</v>
+      </c>
+      <c r="N110" s="15">
+        <v>12</v>
+      </c>
+      <c r="O110" s="15">
+        <v>12</v>
+      </c>
+      <c r="P110" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q110" s="19">
+        <v>12</v>
+      </c>
+      <c r="R110" s="15">
+        <v>12</v>
+      </c>
+      <c r="S110" s="15">
+        <v>12</v>
       </c>
       <c r="T110" s="3"/>
     </row>
-    <row r="111" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B111" s="25"/>
       <c r="C111" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P111" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q111" s="15" t="s">
-        <v>16</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D111" s="38"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="56"/>
+      <c r="J111" s="56"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="56"/>
+      <c r="P111" s="56"/>
+      <c r="Q111" s="56"/>
       <c r="R111" s="15" t="s">
         <v>16</v>
       </c>
@@ -9622,129 +9610,131 @@
       </c>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>278</v>
+        <v>265</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="Q112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="T112" s="3"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="25"/>
       <c r="C113" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D113" s="38"/>
       <c r="E113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>278</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>278</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T113" s="3"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="25"/>
       <c r="C114" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D114" s="38"/>
       <c r="E114" s="15" t="s">
         <v>279</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G114" s="15" t="s">
         <v>279</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I114" s="15" t="s">
         <v>279</v>
@@ -9779,382 +9769,382 @@
       <c r="S114" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="T114" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="T114" s="3"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B115" s="25"/>
       <c r="C115" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>266</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D115" s="38"/>
       <c r="E115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>16</v>
+        <v>279</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="K115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="N115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="O115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="P115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="Q115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="R115" s="15" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="S115" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T115" s="3"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" s="25"/>
       <c r="C116" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116" s="38"/>
+        <v>267</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>266</v>
+      </c>
       <c r="E116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="K116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="N116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="P116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="Q116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="R116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="S116" s="15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="T116" s="3"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B117" s="25"/>
       <c r="C117" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D117" s="38"/>
       <c r="E117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T117" s="3"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B118" s="25"/>
       <c r="C118" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="J118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O118" s="31" t="s">
-        <v>16</v>
+        <v>97</v>
+      </c>
+      <c r="O118" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="P118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="Q118" s="15" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="R118" s="15" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="S118" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T118" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="T118" s="3"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="25"/>
       <c r="C119" s="3" t="s">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="D119" s="38"/>
-      <c r="E119" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="H119" s="23" t="s">
-        <v>302</v>
+      <c r="E119" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="J119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="P119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="Q119" s="15" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="R119" s="15" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="T119" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="25"/>
       <c r="C120" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D120" s="38"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="56"/>
+      <c r="E120" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J120" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K120" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="L120" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="M120" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="N120" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="O120" s="31" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="P120" s="15" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="Q120" s="15" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="S120" s="15" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B121" s="25"/>
       <c r="C121" s="3" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="D121" s="38"/>
-      <c r="E121" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J121" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K121" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M121" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N121" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O121" s="15" t="s">
-        <v>16</v>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="P121" s="15" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="Q121" s="15" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="R121" s="15" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="S121" s="15" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" s="25"/>
       <c r="C122" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I122" s="15" t="s">
         <v>16</v>
@@ -10194,113 +10184,113 @@
     <row r="123" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B123" s="25"/>
       <c r="C123" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D123" s="38"/>
       <c r="E123" s="19" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I123" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J123" s="19" t="s">
-        <v>202</v>
+        <v>25</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="L123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="M123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="P123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="Q123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="R123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="S123" s="15" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B124" s="25"/>
       <c r="C124" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D124" s="38"/>
       <c r="E124" s="19" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H124" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J124" s="15" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="I124" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J124" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="K124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="L124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="O124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="P124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="Q124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="S124" s="15" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="T124" s="3"/>
     </row>
     <row r="125" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" s="25"/>
       <c r="C125" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D125" s="38"/>
       <c r="E125" s="19" t="s">
@@ -10350,23 +10340,23 @@
       </c>
       <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" s="25"/>
       <c r="C126" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D126" s="38"/>
       <c r="E126" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G126" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I126" s="15" t="s">
         <v>16</v>
@@ -10403,23 +10393,23 @@
       </c>
       <c r="T126" s="3"/>
     </row>
-    <row r="127" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B127" s="25"/>
       <c r="C127" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G127" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I127" s="15" t="s">
         <v>16</v>
@@ -10456,10 +10446,10 @@
       </c>
       <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" s="25"/>
       <c r="C128" s="3" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="19" t="s">
@@ -10475,10 +10465,10 @@
         <v>16</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K128" s="15" t="s">
         <v>16</v>
@@ -10487,211 +10477,187 @@
         <v>16</v>
       </c>
       <c r="M128" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N128" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O128" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P128" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q128" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R128" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S128" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T128" s="3"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B129" s="25"/>
+      <c r="C129" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" s="38"/>
+      <c r="E129" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L129" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q129" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T128" s="3" t="s">
+      <c r="R129" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S129" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T129" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="2:20" ht="39" x14ac:dyDescent="0.35">
-      <c r="B129" s="26" t="s">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B130" s="26"/>
+      <c r="C130" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="38"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="56"/>
+      <c r="J130" s="56"/>
+      <c r="K130" s="56"/>
+      <c r="L130" s="56"/>
+      <c r="M130" s="70"/>
+      <c r="N130" s="56"/>
+      <c r="O130" s="56"/>
+      <c r="P130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T130" s="3"/>
+    </row>
+    <row r="131" spans="2:20" ht="39" x14ac:dyDescent="0.35">
+      <c r="B131" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="50" t="s">
+      <c r="D131" s="38"/>
+      <c r="E131" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="51" t="s">
+      <c r="F131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H131" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="I129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M129" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O129" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P129" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q129" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R129" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="S129" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T129" s="3" t="s">
+      <c r="I131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M131" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O131" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P131" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q131" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R131" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S131" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T131" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="2:20" ht="26" x14ac:dyDescent="0.35">
-      <c r="B130" s="25"/>
-      <c r="C130" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H130" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S130" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T130" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="2:20" ht="26" x14ac:dyDescent="0.35">
-      <c r="B131" s="25"/>
-      <c r="C131" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T131" s="3"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B132" s="25"/>
       <c r="C132" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D132" s="38"/>
-      <c r="E132" s="15" t="s">
-        <v>65</v>
+      <c r="E132" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G132" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H132" s="22" t="s">
+      <c r="H132" s="51" t="s">
         <v>65</v>
       </c>
       <c r="I132" s="15" t="s">
@@ -10727,25 +10693,27 @@
       <c r="S132" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T132" s="3"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T132" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B133" s="25"/>
       <c r="C133" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D133" s="38"/>
       <c r="E133" s="15" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H133" s="22" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I133" s="15" t="s">
         <v>16</v>
@@ -10785,67 +10753,67 @@
     <row r="134" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B134" s="25"/>
       <c r="C134" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D134" s="38"/>
       <c r="E134" s="15" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H134" s="22" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S134" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="2:20" ht="65" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B135" s="25"/>
       <c r="C135" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D135" s="38"/>
       <c r="E135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G135" s="22" t="s">
         <v>25</v>
@@ -10860,146 +10828,146 @@
         <v>16</v>
       </c>
       <c r="K135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S135" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T135" s="3"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B136" s="25"/>
+      <c r="C136" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D136" s="38"/>
+      <c r="E136" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T136" s="3"/>
+    </row>
+    <row r="137" spans="2:20" ht="65" x14ac:dyDescent="0.35">
+      <c r="B137" s="25"/>
+      <c r="C137" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137" s="38"/>
+      <c r="E137" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L135" s="15" t="s">
+      <c r="L137" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M135" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N135" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O135" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P135" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q135" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R135" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S135" s="15" t="s">
+      <c r="M137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S137" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T135" s="3" t="s">
+      <c r="T137" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="136" spans="2:20" ht="39" x14ac:dyDescent="0.35">
-      <c r="B136" s="25"/>
-      <c r="C136" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D136" s="40"/>
-      <c r="E136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H136" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="I136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L136" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="O136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="P136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="R136" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="S136" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="T136" s="2"/>
-    </row>
-    <row r="137" spans="2:20" ht="26" x14ac:dyDescent="0.35">
-      <c r="B137" s="25"/>
-      <c r="C137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D137" s="40"/>
-      <c r="E137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H137" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L137" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R137" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S137" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="T137" s="2"/>
     </row>
     <row r="138" spans="2:20" ht="39" x14ac:dyDescent="0.35">
       <c r="B138" s="25"/>
       <c r="C138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D138" s="40"/>
       <c r="E138" s="15" t="s">
@@ -11009,10 +10977,10 @@
         <v>119</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="I138" s="15" t="s">
         <v>119</v>
@@ -11023,8 +10991,8 @@
       <c r="K138" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="L138" s="15" t="s">
-        <v>121</v>
+      <c r="L138" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="M138" s="15" t="s">
         <v>119</v>
@@ -11045,448 +11013,454 @@
         <v>119</v>
       </c>
       <c r="S138" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="T138" s="2"/>
     </row>
     <row r="139" spans="2:20" ht="26" x14ac:dyDescent="0.35">
       <c r="B139" s="25"/>
       <c r="C139" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D139" s="40"/>
+      <c r="E139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L139" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R139" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="S139" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T139" s="2"/>
+    </row>
+    <row r="140" spans="2:20" ht="39" x14ac:dyDescent="0.35">
+      <c r="B140" s="25"/>
+      <c r="C140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="40"/>
+      <c r="E140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L140" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="S140" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" ht="26" x14ac:dyDescent="0.35">
+      <c r="B141" s="25"/>
+      <c r="C141" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D139" s="40"/>
-      <c r="E139" s="50" t="s">
+      <c r="D141" s="40"/>
+      <c r="E141" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="51" t="s">
+      <c r="F141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="H139" s="51" t="s">
+      <c r="H141" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="I139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" s="15" t="s">
+      <c r="I141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R139" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S139" s="15" t="s">
+      <c r="M141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R141" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S141" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="T139" s="2" t="s">
+      <c r="T141" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B140" s="25"/>
-      <c r="C140" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D140" s="38"/>
-      <c r="E140" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="H140" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="I140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S140" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T140" s="3"/>
-    </row>
-    <row r="141" spans="2:20" ht="52" x14ac:dyDescent="0.35">
-      <c r="B141" s="25"/>
-      <c r="C141" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D141" s="38"/>
-      <c r="E141" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F141" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="G141" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="H141" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="I141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L141" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="N141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="P141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="R141" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="S141" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="T141" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="2:20" ht="52" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B142" s="25"/>
       <c r="C142" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="F142" s="50" t="s">
-        <v>128</v>
+        <v>25</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H142" s="51" t="s">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="L142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="M142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="P142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="Q142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="R142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="S142" s="15" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="T142" s="3"/>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:20" ht="52" x14ac:dyDescent="0.35">
       <c r="B143" s="25"/>
       <c r="C143" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D143" s="38"/>
+      <c r="E143" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F143" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G143" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="H143" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L143" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="P143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="R143" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="S143" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20" ht="52" x14ac:dyDescent="0.35">
+      <c r="B144" s="25"/>
+      <c r="C144" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="38"/>
+      <c r="E144" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="F144" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G144" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="H144" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="N144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="S144" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="T144" s="3"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B145" s="25"/>
+      <c r="C145" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D143" s="38"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="56"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L143" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R143" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S143" s="15" t="s">
+      <c r="D145" s="38"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L145" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R145" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S145" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="T143" s="3"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B144" s="27" t="s">
+      <c r="T145" s="3"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B146" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="52"/>
-      <c r="G144" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H144" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="I144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K144" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L144" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N144" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O144" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R144" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S144" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T144" s="14"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B145" s="27"/>
-      <c r="C145" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="52"/>
-      <c r="G145" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="I145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K145" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N145" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O145" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="R145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="S145" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="T145" s="5"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B146" s="27"/>
-      <c r="C146" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="52"/>
       <c r="F146" s="52"/>
-      <c r="G146" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H146" s="19" t="s">
-        <v>190</v>
+      <c r="G146" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="K146" s="19" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="L146" s="19" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="M146" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="N146" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O146" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N146" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O146" s="18" t="s">
         <v>25</v>
       </c>
       <c r="P146" s="19" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="Q146" s="19" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="R146" s="19" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="S146" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="T146" s="5" t="s">
-        <v>273</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="T146" s="14"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B147" s="27"/>
       <c r="C147" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D147" s="39"/>
       <c r="E147" s="52"/>
       <c r="F147" s="52"/>
       <c r="G147" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H147" s="52" t="s">
         <v>25</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>25</v>
       </c>
       <c r="L147" s="19" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="M147" s="19" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="N147" s="19" t="s">
         <v>25</v>
@@ -11495,47 +11469,47 @@
         <v>25</v>
       </c>
       <c r="P147" s="19" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="Q147" s="19" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="R147" s="19" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="S147" s="19" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="T147" s="5"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B148" s="27"/>
       <c r="C148" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="52"/>
       <c r="F148" s="52"/>
-      <c r="G148" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="52" t="s">
-        <v>25</v>
+      <c r="G148" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="J148" s="19" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="K148" s="19" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="L148" s="19" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="M148" s="19" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="N148" s="19" t="s">
         <v>25</v>
@@ -11544,32 +11518,34 @@
         <v>25</v>
       </c>
       <c r="P148" s="19" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="Q148" s="19" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="R148" s="19" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="S148" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T148" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="T148" s="5" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B149" s="27"/>
       <c r="C149" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D149" s="39"/>
       <c r="E149" s="52"/>
       <c r="F149" s="52"/>
       <c r="G149" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H149" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I149" s="19" t="s">
         <v>16</v>
@@ -11578,10 +11554,10 @@
         <v>16</v>
       </c>
       <c r="K149" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L149" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M149" s="19" t="s">
         <v>16</v>
@@ -11593,23 +11569,23 @@
         <v>25</v>
       </c>
       <c r="P149" s="19" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="Q149" s="19" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="R149" s="19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="S149" s="19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="T149" s="5"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B150" s="27"/>
       <c r="C150" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D150" s="39"/>
       <c r="E150" s="52"/>
@@ -11618,10 +11594,10 @@
         <v>16</v>
       </c>
       <c r="H150" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J150" s="19" t="s">
         <v>16</v>
@@ -11633,7 +11609,7 @@
         <v>16</v>
       </c>
       <c r="M150" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N150" s="19" t="s">
         <v>25</v>
@@ -11645,7 +11621,7 @@
         <v>16</v>
       </c>
       <c r="Q150" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R150" s="19" t="s">
         <v>16</v>
@@ -11658,7 +11634,7 @@
     <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B151" s="27"/>
       <c r="C151" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="52"/>
@@ -11691,23 +11667,23 @@
         <v>25</v>
       </c>
       <c r="P151" s="19" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="Q151" s="19" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="R151" s="19" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="S151" s="19" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="T151" s="5"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B152" s="27"/>
       <c r="C152" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D152" s="39"/>
       <c r="E152" s="52"/>
@@ -11719,19 +11695,19 @@
         <v>16</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J152" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K152" s="19" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="L152" s="19" t="s">
         <v>16</v>
       </c>
       <c r="M152" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N152" s="19" t="s">
         <v>25</v>
@@ -11740,13 +11716,13 @@
         <v>25</v>
       </c>
       <c r="P152" s="19" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="Q152" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R152" s="19" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="S152" s="19" t="s">
         <v>16</v>
@@ -11756,16 +11732,16 @@
     <row r="153" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B153" s="27"/>
       <c r="C153" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D153" s="39"/>
       <c r="E153" s="52"/>
       <c r="F153" s="52"/>
       <c r="G153" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H153" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I153" s="19" t="s">
         <v>16</v>
@@ -11777,16 +11753,16 @@
         <v>16</v>
       </c>
       <c r="L153" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M153" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O153" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P153" s="19" t="s">
         <v>16</v>
@@ -11798,16 +11774,14 @@
         <v>16</v>
       </c>
       <c r="S153" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T153" s="14" t="s">
-        <v>198</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="T153" s="5"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B154" s="27"/>
       <c r="C154" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D154" s="39"/>
       <c r="E154" s="52"/>
@@ -11819,34 +11793,34 @@
         <v>16</v>
       </c>
       <c r="I154" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J154" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K154" s="19" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="L154" s="19" t="s">
         <v>16</v>
       </c>
       <c r="M154" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O154" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P154" s="19" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="Q154" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R154" s="19" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="S154" s="19" t="s">
         <v>16</v>
@@ -11856,100 +11830,200 @@
     <row r="155" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B155" s="27"/>
       <c r="C155" s="5" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="D155" s="39"/>
       <c r="E155" s="52"/>
       <c r="F155" s="52"/>
       <c r="G155" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H155" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J155" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L155" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R155" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S155" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T155" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="T155" s="14" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B156" s="27"/>
       <c r="C156" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D156" s="39"/>
       <c r="E156" s="52"/>
       <c r="F156" s="52"/>
       <c r="G156" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H156" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B157" s="27"/>
+      <c r="C157" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D157" s="39"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R157" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S157" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B158" s="27"/>
+      <c r="C158" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D158" s="39"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J156" s="19" t="s">
+      <c r="J158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="K156" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L156" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M156" s="19" t="s">
+      <c r="K158" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L158" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="N156" s="19" t="s">
+      <c r="N158" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="O156" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P156" s="19" t="s">
+      <c r="O158" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="Q156" s="19" t="s">
+      <c r="Q158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="R156" s="19" t="s">
+      <c r="R158" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="S156" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T156" s="5"/>
+      <c r="S158" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T158" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -538,6 +538,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="T59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>PCR 1405876374</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P61" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2406,7 +2430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="348">
   <si>
     <t>Item</t>
   </si>
@@ -3287,9 +3311,6 @@
     <t>LBG</t>
   </si>
   <si>
-    <t>1,660 KB</t>
-  </si>
-  <si>
     <t>MMIO</t>
   </si>
   <si>
@@ -3685,6 +3706,12 @@
   <si>
     <t>- Misc editoral cleanup while doing TGP-LP HAS 0.5/LKF HAS 0.8 releases</t>
   </si>
+  <si>
+    <t>Fixed typo in LBG SRAM size (should be 1664KB, not 1660KB)</t>
+  </si>
+  <si>
+    <t>Added RSA3k to LKF</t>
+  </si>
 </sst>
 </file>
 
@@ -3693,7 +3720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3815,6 +3842,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4848,11 +4888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4982,7 +5022,7 @@
         <v>167</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -4993,7 +5033,7 @@
         <v>167</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -5004,7 +5044,7 @@
         <v>167</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -5015,7 +5055,7 @@
         <v>167</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -5026,7 +5066,7 @@
         <v>167</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -5037,18 +5077,30 @@
         <v>167</v>
       </c>
       <c r="D17" s="43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
+        <v>42857</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="10">
+        <v>42858</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
@@ -5121,11 +5173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="Q47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="Q44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V56" sqref="V56"/>
+      <selection pane="bottomRight" activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5152,16 +5204,16 @@
       <c r="C2" s="28"/>
       <c r="D2" s="44"/>
       <c r="E2" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="113" t="s">
         <v>302</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>303</v>
       </c>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="115"/>
       <c r="J2" s="106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K2" s="107"/>
       <c r="L2" s="107"/>
@@ -5185,10 +5237,10 @@
         <v>125</v>
       </c>
       <c r="V2" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="111" t="s">
         <v>289</v>
-      </c>
-      <c r="W2" s="111" t="s">
-        <v>290</v>
       </c>
       <c r="X2" s="112"/>
       <c r="Y2" s="6"/>
@@ -5204,19 +5256,19 @@
         <v>166</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="63" t="s">
         <v>321</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>322</v>
       </c>
       <c r="J3" s="48" t="s">
         <v>274</v>
@@ -6402,10 +6454,10 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B24" s="25"/>
       <c r="C24" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
@@ -6875,10 +6927,10 @@
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="19" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>39</v>
@@ -7038,7 +7090,7 @@
         <v>44</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -7148,7 +7200,7 @@
     <row r="38" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B38" s="95"/>
       <c r="C38" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" s="76"/>
       <c r="E38" s="97"/>
@@ -7214,7 +7266,7 @@
     <row r="39" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B39" s="95"/>
       <c r="C39" s="75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" s="76"/>
       <c r="E39" s="77" t="s">
@@ -7282,7 +7334,7 @@
     <row r="40" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B40" s="87"/>
       <c r="C40" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="59" t="s">
@@ -7350,7 +7402,7 @@
     <row r="41" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B41" s="87"/>
       <c r="C41" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D41" s="46"/>
       <c r="E41" s="65"/>
@@ -7388,13 +7440,13 @@
         <v>16</v>
       </c>
       <c r="Y41" s="88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B42" s="87"/>
       <c r="C42" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="59" t="s">
@@ -7462,7 +7514,7 @@
     <row r="43" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B43" s="87"/>
       <c r="C43" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" s="46"/>
       <c r="E43" s="65"/>
@@ -7500,7 +7552,7 @@
         <v>16</v>
       </c>
       <c r="Y43" s="88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.35">
@@ -7574,7 +7626,7 @@
     <row r="45" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B45" s="87"/>
       <c r="C45" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="59" t="s">
@@ -7642,7 +7694,7 @@
     <row r="46" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B46" s="87"/>
       <c r="C46" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="59" t="s">
@@ -7710,7 +7762,7 @@
     <row r="47" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B47" s="87"/>
       <c r="C47" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="59" t="s">
@@ -7778,7 +7830,7 @@
     <row r="48" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B48" s="87"/>
       <c r="C48" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="64"/>
@@ -7900,7 +7952,7 @@
     <row r="51" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B51" s="87"/>
       <c r="C51" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="59" t="s">
@@ -7968,7 +8020,7 @@
     <row r="52" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B52" s="87"/>
       <c r="C52" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="59" t="s">
@@ -8036,7 +8088,7 @@
     <row r="53" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B53" s="87"/>
       <c r="C53" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="59" t="s">
@@ -8104,7 +8156,7 @@
     <row r="54" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B54" s="87"/>
       <c r="C54" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="59" t="s">
@@ -8214,7 +8266,7 @@
     <row r="56" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B56" s="87"/>
       <c r="C56" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="64"/>
@@ -8316,7 +8368,7 @@
     <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="87"/>
       <c r="C58" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="59" t="s">
@@ -8384,7 +8436,7 @@
     <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="87"/>
       <c r="C59" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="64"/>
@@ -8402,7 +8454,9 @@
       <c r="Q59" s="56"/>
       <c r="R59" s="56"/>
       <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
+      <c r="T59" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="U59" s="56"/>
       <c r="V59" s="15" t="s">
         <v>16</v>
@@ -8626,11 +8680,11 @@
     <row r="63" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B63" s="87"/>
       <c r="C63" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63" s="59" t="s">
         <v>25</v>
@@ -8642,13 +8696,13 @@
         <v>25</v>
       </c>
       <c r="I63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L63" s="23" t="s">
         <v>25</v>
@@ -8657,44 +8711,44 @@
         <v>25</v>
       </c>
       <c r="N63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U63" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V63" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W63" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X63" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y63" s="88"/>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B64" s="87"/>
       <c r="C64" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="66" t="s">
@@ -8858,7 +8912,7 @@
     <row r="68" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B68" s="87"/>
       <c r="C68" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="64"/>
@@ -8942,136 +8996,136 @@
     <row r="70" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B70" s="98"/>
       <c r="C70" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D70" s="70"/>
       <c r="E70" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="F70" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="F70" s="99" t="s">
-        <v>326</v>
-      </c>
       <c r="G70" s="99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H70" s="99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I70" s="99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X70" s="99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y70" s="100"/>
     </row>
     <row r="71" spans="2:25" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B71" s="89"/>
       <c r="C71" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D71" s="91"/>
       <c r="E71" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G71" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H71" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I71" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X71" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y71" s="94"/>
     </row>
@@ -9270,7 +9324,7 @@
         <v>60</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L75" s="23" t="s">
         <v>58</v>
@@ -10356,7 +10410,7 @@
         <v>25</v>
       </c>
       <c r="Y93" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.35">
@@ -10958,7 +11012,7 @@
     <row r="104" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D104" s="45" t="s">
         <v>209</v>
@@ -10980,16 +11034,16 @@
       <c r="S104" s="56"/>
       <c r="T104" s="56"/>
       <c r="U104" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V104" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X104" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y104" s="3"/>
     </row>
@@ -11016,16 +11070,16 @@
       <c r="S105" s="56"/>
       <c r="T105" s="56"/>
       <c r="U105" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V105" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X105" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y105" s="3"/>
     </row>
@@ -11052,16 +11106,16 @@
       <c r="S106" s="56"/>
       <c r="T106" s="56"/>
       <c r="U106" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V106" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X106" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y106" s="3"/>
     </row>
@@ -11088,16 +11142,16 @@
       <c r="S107" s="56"/>
       <c r="T107" s="56"/>
       <c r="U107" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V107" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X107" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y107" s="3"/>
     </row>
@@ -11124,16 +11178,16 @@
       <c r="S108" s="56"/>
       <c r="T108" s="56"/>
       <c r="U108" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V108" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X108" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y108" s="3"/>
     </row>
@@ -11160,16 +11214,16 @@
       <c r="S109" s="56"/>
       <c r="T109" s="56"/>
       <c r="U109" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V109" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W109" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X109" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y109" s="3"/>
     </row>
@@ -11196,16 +11250,16 @@
       <c r="S110" s="56"/>
       <c r="T110" s="56"/>
       <c r="U110" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V110" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W110" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X110" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y110" s="3"/>
     </row>
@@ -11232,16 +11286,16 @@
       <c r="S111" s="56"/>
       <c r="T111" s="56"/>
       <c r="U111" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V111" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X111" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y111" s="3"/>
     </row>
@@ -11268,16 +11322,16 @@
       <c r="S112" s="56"/>
       <c r="T112" s="56"/>
       <c r="U112" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V112" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X112" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y112" s="3"/>
     </row>
@@ -11304,16 +11358,16 @@
       <c r="S113" s="56"/>
       <c r="T113" s="56"/>
       <c r="U113" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V113" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X113" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y113" s="3"/>
     </row>
@@ -11340,16 +11394,16 @@
       <c r="S114" s="56"/>
       <c r="T114" s="56"/>
       <c r="U114" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V114" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X114" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y114" s="3"/>
     </row>
@@ -11975,16 +12029,16 @@
       <c r="H126" s="60"/>
       <c r="I126" s="60"/>
       <c r="J126" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="L126" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="K126" s="19" t="s">
+      <c r="M126" s="23" t="s">
         <v>277</v>
-      </c>
-      <c r="L126" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="M126" s="23" t="s">
-        <v>278</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>244</v>
@@ -12528,7 +12582,7 @@
     <row r="136" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B136" s="26"/>
       <c r="C136" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D136" s="38"/>
       <c r="E136" s="60"/>
@@ -12581,10 +12635,10 @@
         <v>16</v>
       </c>
       <c r="L137" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M137" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N137" s="15" t="s">
         <v>16</v>
@@ -13109,10 +13163,10 @@
         <v>112</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N146" s="15" t="s">
         <v>112</v>
@@ -13169,10 +13223,10 @@
         <v>16</v>
       </c>
       <c r="L147" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M147" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N147" s="15" t="s">
         <v>16</v>
@@ -13229,10 +13283,10 @@
         <v>25</v>
       </c>
       <c r="L148" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M148" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N148" s="15" t="s">
         <v>16</v>
@@ -13341,13 +13395,13 @@
       <c r="H150" s="60"/>
       <c r="I150" s="60"/>
       <c r="J150" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K150" s="50" t="s">
         <v>121</v>
       </c>
       <c r="L150" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M150" s="51" t="s">
         <v>121</v>
@@ -14036,7 +14090,7 @@
     <row r="163" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B163" s="27"/>
       <c r="C163" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D163" s="39"/>
       <c r="E163" s="61"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T59" authorId="0" shapeId="0">
+    <comment ref="T60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P61" authorId="0" shapeId="0">
+    <comment ref="P62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X61" authorId="0" shapeId="0">
+    <comment ref="X62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T72" authorId="0" shapeId="0">
+    <comment ref="T73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P75" authorId="0" shapeId="0">
+    <comment ref="P76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U75" authorId="0" shapeId="0">
+    <comment ref="U76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W75" authorId="0" shapeId="0">
+    <comment ref="W76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -706,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P77" authorId="0" shapeId="0">
+    <comment ref="P78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,102 +727,6 @@
           </rPr>
           <t xml:space="preserve">
 * For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q77" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Not required OK to simplify design</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U77" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W77" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* For AnC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X77" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Not required OK to simplify design</t>
         </r>
       </text>
     </comment>
@@ -846,11 +750,107 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** For IE verified boot</t>
+** Not required OK to simplify design</t>
         </r>
       </text>
     </comment>
-    <comment ref="W82" authorId="0" shapeId="0">
+    <comment ref="U78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* For AnC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* For AnC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Not required OK to simplify design</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q79" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** For IE verified boot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X82" authorId="0" shapeId="0">
+    <comment ref="X83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P83" authorId="0" shapeId="0">
+    <comment ref="P84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C87" authorId="0" shapeId="0">
+    <comment ref="C88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C95" authorId="0" shapeId="0">
+    <comment ref="C96" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -971,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T95" authorId="0" shapeId="0">
+    <comment ref="T96" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -992,78 +992,6 @@
           </rPr>
           <t xml:space="preserve">
 ^^ CNV is discrete in LKF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V95" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** No Modem integration in TGP-LP.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R96" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* WFST dropped from POR in ICP*</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U96" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
@@ -1087,11 +1015,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** Permanently for CNVi starting TGP-LP</t>
+** No Modem integration in TGP-LP.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0">
+    <comment ref="R97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1111,11 +1039,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Simplify config and in case we need</t>
+* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q99" authorId="0" shapeId="0">
+    <comment ref="U97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,11 +1063,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Simplify config and in case we need</t>
+* WFST dropped from POR in ICP*</t>
         </r>
       </text>
     </comment>
-    <comment ref="U99" authorId="0" shapeId="0">
+    <comment ref="V97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1159,55 +1087,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W99" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X99" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+** Permanently for CNVi starting TGP-LP</t>
         </r>
       </text>
     </comment>
@@ -1331,7 +1211,127 @@
         </r>
       </text>
     </comment>
-    <comment ref="U105" authorId="0" shapeId="0">
+    <comment ref="P101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Simplify config and in case we need</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Simplify config and in case we need</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+** Needed for “Switchable eMMC for Host/IE Mutually Exclusive Usage”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U110" authorId="0" shapeId="0">
+    <comment ref="U111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1381,7 +1381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U112" authorId="0" shapeId="0">
+    <comment ref="U113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V112" authorId="0" shapeId="0">
+    <comment ref="V113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W112" authorId="0" shapeId="0">
+    <comment ref="W113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X112" authorId="0" shapeId="0">
+    <comment ref="X113" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W117" authorId="0" shapeId="0">
+    <comment ref="W118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1501,7 +1501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X117" authorId="0" shapeId="0">
+    <comment ref="X118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q126" authorId="0" shapeId="0">
+    <comment ref="Q127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1549,7 +1549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V126" authorId="0" shapeId="0">
+    <comment ref="V127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1573,7 +1573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q137" authorId="0" shapeId="0">
+    <comment ref="Q138" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q141" authorId="0" shapeId="0">
+    <comment ref="Q142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1621,7 +1621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X141" authorId="0" shapeId="0">
+    <comment ref="X142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L144" authorId="0" shapeId="0">
+    <comment ref="L145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1669,55 +1669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M144" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q144" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X144" authorId="0" shapeId="0">
+    <comment ref="M145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1761,7 +1713,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
@@ -1785,11 +1737,59 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L146" authorId="0" shapeId="0">
+    <comment ref="Q146" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X146" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* Just in case SOC is unable to enable Orange support,  There is a simple register bit that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1813,7 +1813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M146" authorId="0" shapeId="0">
+    <comment ref="M147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1837,7 +1837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q147" authorId="0" shapeId="0">
+    <comment ref="Q148" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q151" authorId="0" shapeId="0">
+    <comment ref="Q152" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1882,30 +1882,6 @@
           </rPr>
           <t xml:space="preserve">
 * Supported via DFX_SRAM_ZERO_BYPASS_EN parameter in SRAM controller.  This is to reduce test time for IE.  Since there is no secret in IE SRAM, a mode to bypass zeroing on IE SRAM is supported.  Refer to SRAM controller HAS.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X151" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-^ Since IE will be used as HSM.</t>
         </r>
       </text>
     </comment>
@@ -1929,11 +1905,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Added as defensive feature and make changes to support RS0 DMA (PCR1405342375 CM KVMcc to support DMA from System Memory)</t>
+^ Since IE will be used as HSM.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M153" authorId="0" shapeId="0">
+    <comment ref="X153" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Added as defensive feature and make changes to support RS0 DMA (PCR1405342375 CM KVMcc to support DMA from System Memory)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1956,29 +1956,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P153" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Lee, Khee Wooi: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2/3/15 update.  CDF – USB-r only required for IE – no ME/IE USBr muxing needed</t>
         </r>
       </text>
     </comment>
@@ -1992,6 +1969,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Lee, Khee Wooi: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2/3/15 update.  CDF – USB-r only required for IE – no ME/IE USBr muxing needed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P155" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Author:</t>
         </r>
         <r>
@@ -2007,7 +2007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q154" authorId="0" shapeId="0">
+    <comment ref="Q155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2032,7 +2032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M156" authorId="0" shapeId="0">
+    <comment ref="M157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2056,7 +2056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P156" authorId="0" shapeId="0">
+    <comment ref="P157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2081,7 +2081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q156" authorId="0" shapeId="0">
+    <comment ref="Q157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2106,7 +2106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L157" authorId="0" shapeId="0">
+    <comment ref="L158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2133,7 +2133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M157" authorId="0" shapeId="0">
+    <comment ref="M158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U157" authorId="0" shapeId="0">
+    <comment ref="U158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V157" authorId="0" shapeId="0">
+    <comment ref="V158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W157" authorId="0" shapeId="0">
+    <comment ref="W158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2232,7 +2232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X157" authorId="0" shapeId="0">
+    <comment ref="X158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L159" authorId="0" shapeId="0">
+    <comment ref="L160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2283,7 +2283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M159" authorId="0" shapeId="0">
+    <comment ref="M160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2310,7 +2310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C163" authorId="0" shapeId="0">
+    <comment ref="C164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M163" authorId="0" shapeId="0">
+    <comment ref="M164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2352,7 +2352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P163" authorId="0" shapeId="0">
+    <comment ref="P164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2376,7 +2376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S164" authorId="0" shapeId="0">
+    <comment ref="S165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2400,7 +2400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V164" authorId="0" shapeId="0">
+    <comment ref="V165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2430,7 +2430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="350">
   <si>
     <t>Item</t>
   </si>
@@ -3711,6 +3711,12 @@
   </si>
   <si>
     <t>Added RSA3k to LKF</t>
+  </si>
+  <si>
+    <t>HW Extend Register for FW Meassurement</t>
+  </si>
+  <si>
+    <t>Added HW extend register row</t>
   </si>
 </sst>
 </file>
@@ -4888,11 +4894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5103,9 +5109,15 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10">
+        <v>42872</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
@@ -5171,13 +5183,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y164"/>
+  <dimension ref="B1:Y165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="Q44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="R44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T59" sqref="T59"/>
+      <selection pane="bottomRight" activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8300,67 +8312,37 @@
     <row r="57" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B57" s="87"/>
       <c r="C57" s="3" t="s">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="D57" s="45"/>
-      <c r="E57" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S57" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X57" s="15" t="s">
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U57" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W57" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X57" s="22" t="s">
         <v>16</v>
       </c>
       <c r="Y57" s="88"/>
@@ -8368,34 +8350,34 @@
     <row r="58" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B58" s="87"/>
       <c r="C58" s="3" t="s">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F58" s="59" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H58" s="59" t="s">
         <v>25</v>
       </c>
       <c r="I58" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="15" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="15" t="s">
@@ -8414,139 +8396,137 @@
         <v>16</v>
       </c>
       <c r="S58" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T58" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U58" s="15" t="s">
         <v>16</v>
       </c>
       <c r="V58" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W58" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X58" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y58" s="88"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B59" s="87"/>
       <c r="C59" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D59" s="45"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="56"/>
+      <c r="E59" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="V59" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W59" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="X59" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y59" s="88"/>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B60" s="87"/>
       <c r="C60" s="3" t="s">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c r="D60" s="45"/>
-      <c r="E60" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q60" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U60" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" s="56"/>
       <c r="V60" s="15" t="s">
         <v>16</v>
       </c>
       <c r="W60" s="15" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y60" s="88" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Y60" s="88"/>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B61" s="87"/>
       <c r="C61" s="3" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F61" s="59" t="s">
         <v>25</v>
@@ -8558,13 +8538,13 @@
         <v>25</v>
       </c>
       <c r="I61" s="59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="L61" s="23" t="s">
         <v>25</v>
@@ -8582,7 +8562,7 @@
         <v>54</v>
       </c>
       <c r="Q61" s="15" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>16</v>
@@ -8594,7 +8574,7 @@
         <v>16</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="V61" s="15" t="s">
         <v>16</v>
@@ -8602,19 +8582,21 @@
       <c r="W61" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X61" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y61" s="88"/>
+      <c r="X61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y61" s="88" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B62" s="87"/>
       <c r="C62" s="3" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="59" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F62" s="59" t="s">
         <v>25</v>
@@ -8626,13 +8608,13 @@
         <v>25</v>
       </c>
       <c r="I62" s="59" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L62" s="23" t="s">
         <v>25</v>
@@ -8650,7 +8632,7 @@
         <v>54</v>
       </c>
       <c r="Q62" s="15" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>16</v>
@@ -8662,7 +8644,7 @@
         <v>16</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="V62" s="15" t="s">
         <v>16</v>
@@ -8670,21 +8652,19 @@
       <c r="W62" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X62" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y62" s="88" t="s">
-        <v>138</v>
-      </c>
+      <c r="X62" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y62" s="88"/>
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B63" s="87"/>
       <c r="C63" s="3" t="s">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="D63" s="45"/>
-      <c r="E63" s="66" t="s">
-        <v>326</v>
+      <c r="E63" s="59" t="s">
+        <v>25</v>
       </c>
       <c r="F63" s="59" t="s">
         <v>25</v>
@@ -8695,14 +8675,14 @@
       <c r="H63" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="J63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="K63" s="66" t="s">
-        <v>326</v>
+      <c r="I63" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="L63" s="23" t="s">
         <v>25</v>
@@ -8710,52 +8690,54 @@
       <c r="M63" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="O63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="P63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="R63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="S63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="T63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="U63" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="V63" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="W63" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="X63" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y63" s="88"/>
+      <c r="N63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U63" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W63" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="X63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y63" s="88" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B64" s="87"/>
       <c r="C64" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="66" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G64" s="59" t="s">
         <v>25</v>
@@ -8763,76 +8745,98 @@
       <c r="H64" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
+      <c r="I64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="J64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="K64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="O64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="P64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="R64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="S64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="T64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="U64" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="V64" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="W64" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="X64" s="19" t="s">
+        <v>328</v>
+      </c>
       <c r="Y64" s="88"/>
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B65" s="87"/>
       <c r="C65" s="3" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="D65" s="45"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V65" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="W65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E65" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
       <c r="Y65" s="88"/>
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B66" s="87"/>
       <c r="C66" s="3" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="64"/>
@@ -8841,7 +8845,9 @@
       <c r="H66" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="64"/>
+      <c r="I66" s="67" t="s">
+        <v>16</v>
+      </c>
       <c r="J66" s="55"/>
       <c r="K66" s="55"/>
       <c r="L66" s="55"/>
@@ -8850,7 +8856,9 @@
       <c r="O66" s="56"/>
       <c r="P66" s="56"/>
       <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
+      <c r="R66" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="S66" s="15" t="s">
         <v>16</v>
       </c>
@@ -8874,18 +8882,16 @@
     <row r="67" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B67" s="87"/>
       <c r="C67" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="64"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="67" t="s">
-        <v>25</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I67" s="64"/>
       <c r="J67" s="55"/>
       <c r="K67" s="55"/>
       <c r="L67" s="55"/>
@@ -8895,10 +8901,16 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
       <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="15" t="s">
+      <c r="S67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V67" s="19" t="s">
         <v>16</v>
       </c>
       <c r="W67" s="15" t="s">
@@ -8912,7 +8924,7 @@
     <row r="68" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B68" s="87"/>
       <c r="C68" s="3" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="64"/>
@@ -8934,19 +8946,15 @@
       <c r="Q68" s="56"/>
       <c r="R68" s="56"/>
       <c r="S68" s="56"/>
-      <c r="T68" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="V68" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="W68" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="X68" s="22" t="s">
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X68" s="15" t="s">
         <v>16</v>
       </c>
       <c r="Y68" s="88"/>
@@ -8954,14 +8962,14 @@
     <row r="69" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B69" s="87"/>
       <c r="C69" s="3" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="67" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69" s="67" t="s">
         <v>25</v>
@@ -8976,343 +8984,327 @@
       <c r="Q69" s="56"/>
       <c r="R69" s="56"/>
       <c r="S69" s="56"/>
-      <c r="T69" s="31" t="s">
+      <c r="T69" s="22" t="s">
         <v>16</v>
       </c>
       <c r="U69" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X69" s="15" t="s">
+      <c r="V69" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W69" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X69" s="22" t="s">
         <v>16</v>
       </c>
       <c r="Y69" s="88"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="98"/>
-      <c r="C70" s="69" t="s">
+      <c r="B70" s="87"/>
+      <c r="C70" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="U70" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y70" s="88"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B71" s="98"/>
+      <c r="C71" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="99" t="s">
+      <c r="D71" s="70"/>
+      <c r="E71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="F70" s="99" t="s">
+      <c r="F71" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="G70" s="99" t="s">
+      <c r="G71" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="99" t="s">
+      <c r="H71" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="I70" s="99" t="s">
+      <c r="I71" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="J70" s="99" t="s">
+      <c r="J71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="K70" s="99" t="s">
+      <c r="K71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="L70" s="99" t="s">
+      <c r="L71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="M70" s="99" t="s">
+      <c r="M71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="N70" s="99" t="s">
+      <c r="N71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="O70" s="99" t="s">
+      <c r="O71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="P70" s="99" t="s">
+      <c r="P71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="Q70" s="99" t="s">
+      <c r="Q71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="R70" s="99" t="s">
+      <c r="R71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="S70" s="99" t="s">
+      <c r="S71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="T70" s="99" t="s">
+      <c r="T71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="U70" s="99" t="s">
+      <c r="U71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="V70" s="99" t="s">
+      <c r="V71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="W70" s="99" t="s">
+      <c r="W71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="X70" s="99" t="s">
+      <c r="X71" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="Y70" s="100"/>
-    </row>
-    <row r="71" spans="2:25" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="89"/>
-      <c r="C71" s="90" t="s">
+      <c r="Y71" s="100"/>
+    </row>
+    <row r="72" spans="2:25" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="89"/>
+      <c r="C72" s="90" t="s">
         <v>299</v>
       </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="92" t="s">
+      <c r="D72" s="91"/>
+      <c r="E72" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="F71" s="92" t="s">
+      <c r="F72" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="G71" s="92" t="s">
+      <c r="G72" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="H71" s="92" t="s">
+      <c r="H72" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="I71" s="92" t="s">
+      <c r="I72" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="J71" s="93" t="s">
+      <c r="J72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="K71" s="93" t="s">
+      <c r="K72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="L71" s="93" t="s">
+      <c r="L72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="M71" s="93" t="s">
+      <c r="M72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="N71" s="93" t="s">
+      <c r="N72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="O71" s="93" t="s">
+      <c r="O72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="P71" s="93" t="s">
+      <c r="P72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="Q71" s="93" t="s">
+      <c r="Q72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="R71" s="93" t="s">
+      <c r="R72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="S71" s="93" t="s">
+      <c r="S72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="T71" s="93" t="s">
+      <c r="T72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="U71" s="93" t="s">
+      <c r="U72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="V71" s="93" t="s">
+      <c r="V72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="W71" s="93" t="s">
+      <c r="W72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="X71" s="93" t="s">
+      <c r="X72" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="Y71" s="94"/>
-    </row>
-    <row r="72" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="24" t="s">
+      <c r="Y72" s="94"/>
+    </row>
+    <row r="73" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C73" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="D73" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="18" t="s">
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="K72" s="18" t="s">
+      <c r="K73" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="L72" s="78" t="s">
+      <c r="L73" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="M72" s="78" t="s">
+      <c r="M73" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="N73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="O72" s="17" t="s">
+      <c r="O73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P72" s="17" t="s">
+      <c r="P73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Q72" s="17" t="s">
+      <c r="Q73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="R72" s="17" t="s">
+      <c r="R73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="S72" s="17" t="s">
+      <c r="S73" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="T72" s="17" t="s">
+      <c r="T73" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="U72" s="17" t="s">
+      <c r="U73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="V72" s="17" t="s">
+      <c r="V73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="W72" s="17" t="s">
+      <c r="W73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="X72" s="17" t="s">
+      <c r="X73" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Y72" s="75"/>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="25"/>
-      <c r="C73" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M73" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q73" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X73" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y73" s="3"/>
+      <c r="Y73" s="75"/>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B74" s="25"/>
       <c r="C74" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="45"/>
+        <v>229</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>228</v>
+      </c>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
       <c r="G74" s="59"/>
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
-      <c r="J74" s="19">
-        <v>5</v>
-      </c>
-      <c r="K74" s="19">
-        <v>1</v>
+      <c r="J74" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N74" s="15">
-        <v>5</v>
-      </c>
-      <c r="O74" s="15">
-        <v>5</v>
-      </c>
-      <c r="P74" s="15">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="Q74" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R74" s="15">
-        <v>5</v>
-      </c>
-      <c r="S74" s="15">
-        <v>5</v>
-      </c>
-      <c r="T74" s="15">
-        <v>5</v>
-      </c>
-      <c r="U74" s="15">
-        <v>5</v>
-      </c>
-      <c r="V74" s="15">
-        <v>5</v>
-      </c>
-      <c r="W74" s="15">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W74" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Y74" s="3"/>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B75" s="25"/>
       <c r="C75" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="59"/>
@@ -9320,11 +9312,11 @@
       <c r="G75" s="59"/>
       <c r="H75" s="59"/>
       <c r="I75" s="59"/>
-      <c r="J75" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>275</v>
+      <c r="J75" s="19">
+        <v>5</v>
+      </c>
+      <c r="K75" s="19">
+        <v>1</v>
       </c>
       <c r="L75" s="23" t="s">
         <v>58</v>
@@ -9332,35 +9324,35 @@
       <c r="M75" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P75" s="15" t="s">
-        <v>60</v>
+      <c r="N75" s="15">
+        <v>5</v>
+      </c>
+      <c r="O75" s="15">
+        <v>5</v>
+      </c>
+      <c r="P75" s="15">
+        <v>5</v>
       </c>
       <c r="Q75" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="T75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="V75" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W75" s="15" t="s">
-        <v>60</v>
+      <c r="R75" s="15">
+        <v>5</v>
+      </c>
+      <c r="S75" s="15">
+        <v>5</v>
+      </c>
+      <c r="T75" s="15">
+        <v>5</v>
+      </c>
+      <c r="U75" s="15">
+        <v>5</v>
+      </c>
+      <c r="V75" s="15">
+        <v>5</v>
+      </c>
+      <c r="W75" s="15">
+        <v>5</v>
       </c>
       <c r="X75" s="15" t="s">
         <v>58</v>
@@ -9370,7 +9362,7 @@
     <row r="76" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B76" s="25"/>
       <c r="C76" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="59"/>
@@ -9378,59 +9370,57 @@
       <c r="G76" s="59"/>
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
-      <c r="J76" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K76" s="49" t="s">
-        <v>25</v>
+      <c r="J76" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="O76" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="P76" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="Q76" s="15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="R76" s="15" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="S76" s="15" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="T76" s="15" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="V76" s="15" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="X76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="Y76" s="3"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B77" s="25"/>
       <c r="C77" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="59"/>
@@ -9439,7 +9429,7 @@
       <c r="H77" s="59"/>
       <c r="I77" s="59"/>
       <c r="J77" s="49" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K77" s="49" t="s">
         <v>25</v>
@@ -9448,7 +9438,7 @@
         <v>25</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N77" s="21" t="s">
         <v>16</v>
@@ -9460,7 +9450,7 @@
         <v>54</v>
       </c>
       <c r="Q77" s="15" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>16</v>
@@ -9471,24 +9461,26 @@
       <c r="T77" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U77" s="21" t="s">
+      <c r="U77" s="15" t="s">
         <v>54</v>
       </c>
       <c r="V77" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W77" s="21" t="s">
-        <v>54</v>
+      <c r="W77" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="X77" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y77" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="Y77" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B78" s="25"/>
       <c r="C78" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="59"/>
@@ -9497,7 +9489,7 @@
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="49" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K78" s="49" t="s">
         <v>25</v>
@@ -9506,7 +9498,7 @@
         <v>25</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>16</v>
@@ -9529,26 +9521,24 @@
       <c r="T78" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U78" s="15" t="s">
+      <c r="U78" s="21" t="s">
         <v>54</v>
       </c>
       <c r="V78" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W78" s="15" t="s">
+      <c r="W78" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X78" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y78" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="Y78" s="3"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B79" s="25"/>
       <c r="C79" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="59"/>
@@ -9557,7 +9547,7 @@
       <c r="H79" s="59"/>
       <c r="I79" s="59"/>
       <c r="J79" s="49" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K79" s="49" t="s">
         <v>25</v>
@@ -9566,7 +9556,7 @@
         <v>25</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N79" s="21" t="s">
         <v>16</v>
@@ -9578,7 +9568,7 @@
         <v>54</v>
       </c>
       <c r="Q79" s="15" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>16</v>
@@ -9590,25 +9580,25 @@
         <v>16</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="V79" s="15" t="s">
         <v>16</v>
       </c>
       <c r="W79" s="15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="X79" s="15" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B80" s="25"/>
       <c r="C80" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="59"/>
@@ -9668,7 +9658,7 @@
     <row r="81" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B81" s="25"/>
       <c r="C81" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="59"/>
@@ -9728,7 +9718,7 @@
     <row r="82" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B82" s="25"/>
       <c r="C82" s="3" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="59"/>
@@ -9736,103 +9726,105 @@
       <c r="G82" s="59"/>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
+      <c r="J82" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="R82" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S82" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="S82" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="T82" s="15" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V82" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="W82" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="X82" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y82" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="V82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X82" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B83" s="25"/>
       <c r="C83" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>230</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D83" s="45"/>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
       <c r="G83" s="59"/>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
-      <c r="J83" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M83" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
       <c r="R83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S83" s="15" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="S83" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="T83" s="15" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="U83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X83" s="15" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="V83" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="W83" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="X83" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B84" s="25"/>
       <c r="C84" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="45"/>
+        <v>231</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="E84" s="59"/>
       <c r="F84" s="59"/>
       <c r="G84" s="59"/>
@@ -9845,10 +9837,10 @@
         <v>16</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>16</v>
@@ -9860,7 +9852,7 @@
         <v>16</v>
       </c>
       <c r="Q84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R84" s="15" t="s">
         <v>16</v>
@@ -9881,18 +9873,16 @@
         <v>16</v>
       </c>
       <c r="X84" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y84" s="3"/>
     </row>
     <row r="85" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="25"/>
       <c r="C85" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>233</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D85" s="45"/>
       <c r="E85" s="59"/>
       <c r="F85" s="59"/>
       <c r="G85" s="59"/>
@@ -9945,13 +9935,13 @@
       </c>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="25"/>
       <c r="C86" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86" s="59"/>
       <c r="F86" s="59"/>
@@ -10008,137 +9998,139 @@
     <row r="87" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B87" s="25"/>
       <c r="C87" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E87" s="59"/>
       <c r="F87" s="59"/>
       <c r="G87" s="59"/>
       <c r="H87" s="59"/>
       <c r="I87" s="59"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="15">
-        <v>1</v>
-      </c>
-      <c r="O87" s="15">
-        <v>1</v>
-      </c>
-      <c r="P87" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="15">
-        <v>1</v>
-      </c>
-      <c r="R87" s="15">
-        <v>1</v>
-      </c>
-      <c r="S87" s="15">
-        <v>1</v>
-      </c>
-      <c r="T87" s="15">
-        <v>1</v>
-      </c>
-      <c r="U87" s="15">
-        <v>1</v>
-      </c>
-      <c r="V87" s="15">
-        <v>1</v>
-      </c>
-      <c r="W87" s="15">
-        <v>1</v>
-      </c>
-      <c r="X87" s="15">
-        <v>1</v>
+      <c r="J87" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X87" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="Y87" s="3"/>
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B88" s="25"/>
       <c r="C88" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
       <c r="G88" s="59"/>
       <c r="H88" s="59"/>
       <c r="I88" s="59"/>
-      <c r="J88" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X88" s="15" t="s">
-        <v>16</v>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="15">
+        <v>1</v>
+      </c>
+      <c r="O88" s="15">
+        <v>1</v>
+      </c>
+      <c r="P88" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="15">
+        <v>1</v>
+      </c>
+      <c r="R88" s="15">
+        <v>1</v>
+      </c>
+      <c r="S88" s="15">
+        <v>1</v>
+      </c>
+      <c r="T88" s="15">
+        <v>1</v>
+      </c>
+      <c r="U88" s="15">
+        <v>1</v>
+      </c>
+      <c r="V88" s="15">
+        <v>1</v>
+      </c>
+      <c r="W88" s="15">
+        <v>1</v>
+      </c>
+      <c r="X88" s="15">
+        <v>1</v>
       </c>
       <c r="Y88" s="3"/>
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B89" s="25"/>
       <c r="C89" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="45"/>
+        <v>239</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
       <c r="G89" s="59"/>
       <c r="H89" s="59"/>
       <c r="I89" s="59"/>
       <c r="J89" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M89" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N89" s="15" t="s">
         <v>16</v>
@@ -10147,10 +10139,10 @@
         <v>16</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q89" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R89" s="15" t="s">
         <v>16</v>
@@ -10162,25 +10154,23 @@
         <v>16</v>
       </c>
       <c r="U89" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="V89" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="W89" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="X89" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y89" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="V89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y89" s="3"/>
     </row>
     <row r="90" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B90" s="25"/>
       <c r="C90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="59"/>
@@ -10189,56 +10179,58 @@
       <c r="H90" s="59"/>
       <c r="I90" s="59"/>
       <c r="J90" s="19" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N90" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O90" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="Q90" s="15" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="R90" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S90" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T90" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U90" s="15" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="V90" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W90" s="22" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="X90" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y90" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B91" s="25"/>
       <c r="C91" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="59"/>
@@ -10247,56 +10239,56 @@
       <c r="H91" s="59"/>
       <c r="I91" s="59"/>
       <c r="J91" s="19" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N91" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O91" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P91" s="15" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="Q91" s="15" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S91" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T91" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U91" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V91" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W91" s="22" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="X91" s="22" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="Y91" s="3"/>
     </row>
     <row r="92" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B92" s="25"/>
       <c r="C92" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="59"/>
@@ -10323,10 +10315,10 @@
         <v>16</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q92" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R92" s="15" t="s">
         <v>16</v>
@@ -10338,25 +10330,23 @@
         <v>16</v>
       </c>
       <c r="U92" s="15" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="V92" s="22" t="s">
         <v>16</v>
       </c>
       <c r="W92" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X92" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y92" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Y92" s="3"/>
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B93" s="25"/>
       <c r="C93" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="59"/>
@@ -10368,7 +10358,7 @@
         <v>25</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L93" s="23" t="s">
         <v>25</v>
@@ -10377,31 +10367,31 @@
         <v>25</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P93" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U93" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q93" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R93" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S93" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T93" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U93" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="V93" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W93" s="22" t="s">
         <v>25</v>
@@ -10409,14 +10399,14 @@
       <c r="X93" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Y93" s="3" t="s">
-        <v>286</v>
+      <c r="Y93" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B94" s="25"/>
       <c r="C94" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="59"/>
@@ -10428,7 +10418,7 @@
         <v>25</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L94" s="23" t="s">
         <v>25</v>
@@ -10437,31 +10427,31 @@
         <v>25</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="Q94" s="15" t="s">
         <v>25</v>
       </c>
       <c r="R94" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S94" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T94" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U94" s="15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="V94" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W94" s="22" t="s">
         <v>25</v>
@@ -10469,14 +10459,14 @@
       <c r="X94" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Y94" s="2" t="s">
-        <v>138</v>
+      <c r="Y94" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B95" s="25"/>
       <c r="C95" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="59"/>
@@ -10497,10 +10487,10 @@
         <v>25</v>
       </c>
       <c r="N95" s="15" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="P95" s="15" t="s">
         <v>25</v>
@@ -10509,19 +10499,19 @@
         <v>25</v>
       </c>
       <c r="R95" s="15" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="S95" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="T95" s="31" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="T95" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="V95" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W95" s="22" t="s">
         <v>25</v>
@@ -10529,14 +10519,14 @@
       <c r="X95" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Y95" s="3" t="s">
-        <v>251</v>
+      <c r="Y95" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B96" s="25"/>
       <c r="C96" s="3" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="59"/>
@@ -10569,34 +10559,34 @@
         <v>25</v>
       </c>
       <c r="R96" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S96" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T96" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T96" s="31" t="s">
         <v>25</v>
       </c>
       <c r="U96" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="V96" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W96" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="X96" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="V96" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W96" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="X96" s="22" t="s">
         <v>25</v>
       </c>
       <c r="Y96" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B97" s="25"/>
       <c r="C97" s="3" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="59"/>
@@ -10617,46 +10607,46 @@
         <v>25</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="S97" s="15" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="T97" s="15" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="U97" s="15" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="V97" s="15" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="X97" s="15" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="Y97" s="3" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B98" s="25"/>
       <c r="C98" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="59"/>
@@ -10716,7 +10706,7 @@
     <row r="99" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B99" s="25"/>
       <c r="C99" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="59"/>
@@ -10737,44 +10727,46 @@
         <v>25</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="Q99" s="15" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="S99" s="15" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="T99" s="15" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="V99" s="15" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="W99" s="15" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="X99" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y99" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="Y99" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B100" s="25"/>
       <c r="C100" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="59"/>
@@ -10832,7 +10824,7 @@
     <row r="101" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B101" s="25"/>
       <c r="C101" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="59"/>
@@ -10859,10 +10851,10 @@
         <v>70</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="R101" s="15" t="s">
         <v>70</v>
@@ -10874,25 +10866,23 @@
         <v>70</v>
       </c>
       <c r="U101" s="15" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>70</v>
       </c>
       <c r="W101" s="15" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="X101" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>208</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="Y101" s="3"/>
     </row>
     <row r="102" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B102" s="25"/>
       <c r="C102" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="59"/>
@@ -10913,37 +10903,37 @@
         <v>25</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="S102" s="15" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="T102" s="15" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="U102" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V102" s="15" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="W102" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X102" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>208</v>
@@ -10952,7 +10942,7 @@
     <row r="103" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B103" s="25"/>
       <c r="C103" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="59"/>
@@ -11012,47 +11002,71 @@
     <row r="104" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B104" s="25"/>
       <c r="C104" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="45" t="s">
-        <v>209</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D104" s="45"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
       <c r="G104" s="59"/>
       <c r="H104" s="59"/>
       <c r="I104" s="59"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="56"/>
-      <c r="O104" s="56"/>
-      <c r="P104" s="56"/>
-      <c r="Q104" s="56"/>
-      <c r="R104" s="56"/>
-      <c r="S104" s="56"/>
-      <c r="T104" s="56"/>
+      <c r="J104" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="O104" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="P104" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q104" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="R104" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="S104" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="T104" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="U104" s="15" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="V104" s="15" t="s">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="X104" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y104" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="Y104" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="105" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B105" s="25"/>
       <c r="C105" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="45"/>
+        <v>329</v>
+      </c>
+      <c r="D105" s="45" t="s">
+        <v>209</v>
+      </c>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
       <c r="G105" s="59"/>
@@ -11070,23 +11084,23 @@
       <c r="S105" s="56"/>
       <c r="T105" s="56"/>
       <c r="U105" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V105" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X105" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y105" s="3"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B106" s="25"/>
       <c r="C106" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="59"/>
@@ -11106,23 +11120,23 @@
       <c r="S106" s="56"/>
       <c r="T106" s="56"/>
       <c r="U106" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V106" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X106" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y106" s="3"/>
     </row>
     <row r="107" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B107" s="25"/>
       <c r="C107" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="59"/>
@@ -11142,23 +11156,23 @@
       <c r="S107" s="56"/>
       <c r="T107" s="56"/>
       <c r="U107" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V107" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W107" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X107" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y107" s="3"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B108" s="25"/>
       <c r="C108" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="59"/>
@@ -11178,23 +11192,23 @@
       <c r="S108" s="56"/>
       <c r="T108" s="56"/>
       <c r="U108" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V108" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X108" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y108" s="3"/>
     </row>
     <row r="109" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B109" s="25"/>
       <c r="C109" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="59"/>
@@ -11214,23 +11228,23 @@
       <c r="S109" s="56"/>
       <c r="T109" s="56"/>
       <c r="U109" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V109" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W109" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X109" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y109" s="3"/>
     </row>
     <row r="110" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B110" s="25"/>
       <c r="C110" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="59"/>
@@ -11250,23 +11264,23 @@
       <c r="S110" s="56"/>
       <c r="T110" s="56"/>
       <c r="U110" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V110" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W110" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X110" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y110" s="3"/>
     </row>
     <row r="111" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B111" s="25"/>
       <c r="C111" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="59"/>
@@ -11286,23 +11300,23 @@
       <c r="S111" s="56"/>
       <c r="T111" s="56"/>
       <c r="U111" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V111" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W111" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X111" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y111" s="3"/>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="59"/>
@@ -11322,23 +11336,23 @@
       <c r="S112" s="56"/>
       <c r="T112" s="56"/>
       <c r="U112" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V112" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W112" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X112" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y112" s="3"/>
     </row>
     <row r="113" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B113" s="25"/>
       <c r="C113" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="59"/>
@@ -11358,23 +11372,23 @@
       <c r="S113" s="56"/>
       <c r="T113" s="56"/>
       <c r="U113" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V113" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W113" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X113" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y113" s="3"/>
     </row>
     <row r="114" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B114" s="25"/>
       <c r="C114" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="59"/>
@@ -11394,23 +11408,23 @@
       <c r="S114" s="56"/>
       <c r="T114" s="56"/>
       <c r="U114" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V114" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W114" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X114" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y114" s="3"/>
     </row>
     <row r="115" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B115" s="25"/>
       <c r="C115" s="3" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="59"/>
@@ -11424,41 +11438,29 @@
       <c r="M115" s="56"/>
       <c r="N115" s="56"/>
       <c r="O115" s="56"/>
-      <c r="P115" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q115" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R115" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S115" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T115" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="P115" s="56"/>
+      <c r="Q115" s="56"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="56"/>
+      <c r="T115" s="56"/>
       <c r="U115" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="V115" s="19" t="s">
-        <v>25</v>
+        <v>340</v>
+      </c>
+      <c r="V115" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="W115" s="15" t="s">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="X115" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y115" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="Y115" s="3"/>
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B116" s="25"/>
       <c r="C116" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="59"/>
@@ -11466,137 +11468,125 @@
       <c r="G116" s="59"/>
       <c r="H116" s="59"/>
       <c r="I116" s="59"/>
-      <c r="J116" s="15">
-        <v>10</v>
-      </c>
-      <c r="K116" s="15">
-        <v>10</v>
-      </c>
-      <c r="L116" s="15">
-        <v>10</v>
-      </c>
-      <c r="M116" s="15">
-        <v>10</v>
-      </c>
-      <c r="N116" s="15">
-        <v>12</v>
-      </c>
-      <c r="O116" s="15">
-        <v>12</v>
-      </c>
-      <c r="P116" s="15">
-        <v>12</v>
-      </c>
-      <c r="Q116" s="15">
-        <v>12</v>
-      </c>
-      <c r="R116" s="15">
-        <v>12</v>
-      </c>
-      <c r="S116" s="15">
-        <v>12</v>
-      </c>
-      <c r="T116" s="15">
-        <v>12</v>
-      </c>
-      <c r="U116" s="15">
-        <v>12</v>
-      </c>
-      <c r="V116" s="19">
-        <v>12</v>
-      </c>
-      <c r="W116" s="15">
-        <v>12</v>
-      </c>
-      <c r="X116" s="15">
-        <v>12</v>
-      </c>
-      <c r="Y116" s="3"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
+      <c r="P116" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q116" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R116" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S116" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T116" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U116" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V116" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W116" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X116" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y116" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B117" s="25"/>
       <c r="C117" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="56"/>
-      <c r="P117" s="56"/>
-      <c r="Q117" s="56"/>
-      <c r="R117" s="56"/>
-      <c r="S117" s="56"/>
-      <c r="T117" s="56"/>
-      <c r="U117" s="56"/>
-      <c r="V117" s="56"/>
-      <c r="W117" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X117" s="15" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="D117" s="45"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="15">
+        <v>10</v>
+      </c>
+      <c r="K117" s="15">
+        <v>10</v>
+      </c>
+      <c r="L117" s="15">
+        <v>10</v>
+      </c>
+      <c r="M117" s="15">
+        <v>10</v>
+      </c>
+      <c r="N117" s="15">
+        <v>12</v>
+      </c>
+      <c r="O117" s="15">
+        <v>12</v>
+      </c>
+      <c r="P117" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q117" s="15">
+        <v>12</v>
+      </c>
+      <c r="R117" s="15">
+        <v>12</v>
+      </c>
+      <c r="S117" s="15">
+        <v>12</v>
+      </c>
+      <c r="T117" s="15">
+        <v>12</v>
+      </c>
+      <c r="U117" s="15">
+        <v>12</v>
+      </c>
+      <c r="V117" s="19">
+        <v>12</v>
+      </c>
+      <c r="W117" s="15">
+        <v>12</v>
+      </c>
+      <c r="X117" s="15">
+        <v>12</v>
       </c>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B118" s="25"/>
       <c r="C118" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>240</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D118" s="38"/>
       <c r="E118" s="60"/>
       <c r="F118" s="60"/>
       <c r="G118" s="60"/>
       <c r="H118" s="60"/>
       <c r="I118" s="60"/>
-      <c r="J118" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K118" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M118" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U118" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V118" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="56"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="56"/>
+      <c r="T118" s="56"/>
+      <c r="U118" s="56"/>
+      <c r="V118" s="56"/>
       <c r="W118" s="15" t="s">
         <v>16</v>
       </c>
@@ -11605,68 +11595,70 @@
       </c>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" s="25"/>
       <c r="C119" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D119" s="38"/>
+        <v>241</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>240</v>
+      </c>
       <c r="E119" s="60"/>
       <c r="F119" s="60"/>
       <c r="G119" s="60"/>
       <c r="H119" s="60"/>
       <c r="I119" s="60"/>
-      <c r="J119" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="K119" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L119" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>254</v>
+      <c r="J119" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="P119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="Q119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="R119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="T119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="U119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="V119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="X119" s="15" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="Y119" s="3"/>
     </row>
     <row r="120" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B120" s="25"/>
       <c r="C120" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="60"/>
@@ -11675,56 +11667,56 @@
       <c r="H120" s="60"/>
       <c r="I120" s="60"/>
       <c r="J120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K120" s="15" t="s">
         <v>254</v>
       </c>
       <c r="L120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M120" s="15" t="s">
         <v>254</v>
       </c>
       <c r="N120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X120" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y120" s="3"/>
     </row>
     <row r="121" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B121" s="25"/>
       <c r="C121" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="60"/>
@@ -11736,13 +11728,13 @@
         <v>255</v>
       </c>
       <c r="K121" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L121" s="15" t="s">
         <v>255</v>
       </c>
       <c r="M121" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N121" s="15" t="s">
         <v>255</v>
@@ -11777,132 +11769,132 @@
       <c r="X121" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="Y121" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+      <c r="Y121" s="3"/>
+    </row>
+    <row r="122" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B122" s="25"/>
       <c r="C122" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>242</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D122" s="38"/>
       <c r="E122" s="60"/>
       <c r="F122" s="60"/>
       <c r="G122" s="60"/>
       <c r="H122" s="60"/>
       <c r="I122" s="60"/>
       <c r="J122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="M122" s="22" t="s">
-        <v>16</v>
+        <v>255</v>
+      </c>
+      <c r="L122" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="M122" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="O122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="P122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="Q122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="S122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="T122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="U122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="V122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="W122" s="15" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="X122" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="Y122" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" s="25"/>
       <c r="C123" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D123" s="38"/>
+        <v>243</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>242</v>
+      </c>
       <c r="E123" s="60"/>
       <c r="F123" s="60"/>
       <c r="G123" s="60"/>
       <c r="H123" s="60"/>
       <c r="I123" s="60"/>
       <c r="J123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="P123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="Q123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="R123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="S123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="T123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="U123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="V123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="W123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="X123" s="15" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="Y123" s="3"/>
     </row>
     <row r="124" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B124" s="25"/>
       <c r="C124" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D124" s="38"/>
       <c r="E124" s="60"/>
@@ -11911,56 +11903,56 @@
       <c r="H124" s="60"/>
       <c r="I124" s="60"/>
       <c r="J124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X124" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y124" s="3"/>
     </row>
     <row r="125" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B125" s="25"/>
       <c r="C125" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D125" s="38"/>
       <c r="E125" s="60"/>
@@ -11969,58 +11961,56 @@
       <c r="H125" s="60"/>
       <c r="I125" s="60"/>
       <c r="J125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="P125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="Q125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="R125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="S125" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T125" s="31" t="s">
-        <v>16</v>
+        <v>90</v>
+      </c>
+      <c r="T125" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="U125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="V125" s="15" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="W125" s="15" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="X125" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y125" s="3" t="s">
-        <v>154</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="Y125" s="3"/>
     </row>
     <row r="126" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B126" s="25"/>
       <c r="C126" s="3" t="s">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c r="D126" s="38"/>
       <c r="E126" s="60"/>
@@ -12028,57 +12018,59 @@
       <c r="G126" s="60"/>
       <c r="H126" s="60"/>
       <c r="I126" s="60"/>
-      <c r="J126" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K126" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="L126" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="M126" s="23" t="s">
-        <v>277</v>
+      <c r="J126" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K126" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="O126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="P126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="Q126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="R126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="S126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="T126" s="31" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="U126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="V126" s="15" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="W126" s="15" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="X126" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y126" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="Y126" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="127" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B127" s="25"/>
       <c r="C127" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="60"/>
@@ -12086,37 +12078,57 @@
       <c r="G127" s="60"/>
       <c r="H127" s="60"/>
       <c r="I127" s="60"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="55"/>
-      <c r="L127" s="55"/>
-      <c r="M127" s="55"/>
-      <c r="N127" s="56"/>
-      <c r="O127" s="56"/>
-      <c r="P127" s="56"/>
-      <c r="Q127" s="56"/>
-      <c r="R127" s="56"/>
-      <c r="S127" s="56"/>
+      <c r="J127" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K127" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="L127" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="M127" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="N127" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O127" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="P127" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q127" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="R127" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="S127" s="15" t="s">
+        <v>244</v>
+      </c>
       <c r="T127" s="31" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="U127" s="15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="V127" s="15" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="X127" s="15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B128" s="25"/>
       <c r="C128" s="3" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="60"/>
@@ -12124,57 +12136,37 @@
       <c r="G128" s="60"/>
       <c r="H128" s="60"/>
       <c r="I128" s="60"/>
-      <c r="J128" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K128" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L128" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M128" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S128" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T128" s="15" t="s">
-        <v>16</v>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
+      <c r="L128" s="55"/>
+      <c r="M128" s="55"/>
+      <c r="N128" s="56"/>
+      <c r="O128" s="56"/>
+      <c r="P128" s="56"/>
+      <c r="Q128" s="56"/>
+      <c r="R128" s="56"/>
+      <c r="S128" s="56"/>
+      <c r="T128" s="31" t="s">
+        <v>263</v>
       </c>
       <c r="U128" s="15" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="V128" s="15" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="X128" s="15" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" s="25"/>
       <c r="C129" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D129" s="38"/>
       <c r="E129" s="60"/>
@@ -12183,16 +12175,16 @@
       <c r="H129" s="60"/>
       <c r="I129" s="60"/>
       <c r="J129" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M129" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N129" s="15" t="s">
         <v>16</v>
@@ -12232,7 +12224,7 @@
     <row r="130" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B130" s="25"/>
       <c r="C130" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D130" s="38"/>
       <c r="E130" s="60"/>
@@ -12241,56 +12233,56 @@
       <c r="H130" s="60"/>
       <c r="I130" s="60"/>
       <c r="J130" s="19" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M130" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N130" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="O130" s="19" t="s">
-        <v>189</v>
+        <v>25</v>
+      </c>
+      <c r="N130" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O130" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="P130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="Q130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="R130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="S130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="T130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="U130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="V130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="W130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="X130" s="15" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B131" s="25"/>
       <c r="C131" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D131" s="38"/>
       <c r="E131" s="60"/>
@@ -12299,56 +12291,56 @@
       <c r="H131" s="60"/>
       <c r="I131" s="60"/>
       <c r="J131" s="19" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M131" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N131" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O131" s="15" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="N131" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O131" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="P131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="Q131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="R131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="S131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="T131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="U131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="V131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="W131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="X131" s="15" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="Y131" s="3"/>
     </row>
     <row r="132" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" s="25"/>
       <c r="C132" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D132" s="38"/>
       <c r="E132" s="60"/>
@@ -12403,10 +12395,10 @@
       </c>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" s="25"/>
       <c r="C133" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D133" s="38"/>
       <c r="E133" s="60"/>
@@ -12415,16 +12407,16 @@
       <c r="H133" s="60"/>
       <c r="I133" s="60"/>
       <c r="J133" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M133" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N133" s="15" t="s">
         <v>16</v>
@@ -12461,10 +12453,10 @@
       </c>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B134" s="25"/>
       <c r="C134" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D134" s="38"/>
       <c r="E134" s="60"/>
@@ -12473,16 +12465,16 @@
       <c r="H134" s="60"/>
       <c r="I134" s="60"/>
       <c r="J134" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M134" s="23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N134" s="15" t="s">
         <v>16</v>
@@ -12519,10 +12511,10 @@
       </c>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" s="25"/>
       <c r="C135" s="3" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="D135" s="38"/>
       <c r="E135" s="60"/>
@@ -12543,10 +12535,10 @@
         <v>16</v>
       </c>
       <c r="N135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P135" s="15" t="s">
         <v>16</v>
@@ -12555,19 +12547,19 @@
         <v>16</v>
       </c>
       <c r="R135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U135" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V135" s="15" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="W135" s="15" t="s">
         <v>16</v>
@@ -12575,14 +12567,12 @@
       <c r="X135" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Y135" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="Y135" s="3"/>
     </row>
     <row r="136" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B136" s="26"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="3" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="D136" s="38"/>
       <c r="E136" s="60"/>
@@ -12590,37 +12580,59 @@
       <c r="G136" s="60"/>
       <c r="H136" s="60"/>
       <c r="I136" s="60"/>
-      <c r="J136" s="55"/>
-      <c r="K136" s="55"/>
-      <c r="L136" s="55"/>
-      <c r="M136" s="55"/>
-      <c r="N136" s="56"/>
-      <c r="O136" s="56"/>
-      <c r="P136" s="56"/>
-      <c r="Q136" s="56"/>
-      <c r="R136" s="58"/>
-      <c r="S136" s="56"/>
-      <c r="T136" s="56"/>
-      <c r="U136" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V136" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W136" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="X136" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="2:25" ht="39" x14ac:dyDescent="0.35">
-      <c r="B137" s="26" t="s">
-        <v>101</v>
-      </c>
+      <c r="J136" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M136" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P136" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q136" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U136" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V136" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W136" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X136" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y136" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B137" s="26"/>
       <c r="C137" s="3" t="s">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="D137" s="38"/>
       <c r="E137" s="60"/>
@@ -12628,39 +12640,17 @@
       <c r="G137" s="60"/>
       <c r="H137" s="60"/>
       <c r="I137" s="60"/>
-      <c r="J137" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K137" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="M137" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="N137" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O137" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P137" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q137" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R137" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="S137" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T137" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J137" s="55"/>
+      <c r="K137" s="55"/>
+      <c r="L137" s="55"/>
+      <c r="M137" s="55"/>
+      <c r="N137" s="56"/>
+      <c r="O137" s="56"/>
+      <c r="P137" s="56"/>
+      <c r="Q137" s="56"/>
+      <c r="R137" s="58"/>
+      <c r="S137" s="56"/>
+      <c r="T137" s="56"/>
       <c r="U137" s="16" t="s">
         <v>16</v>
       </c>
@@ -12673,14 +12663,14 @@
       <c r="X137" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Y137" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="2:25" ht="26" x14ac:dyDescent="0.35">
-      <c r="B138" s="25"/>
+      <c r="Y137" s="3"/>
+    </row>
+    <row r="138" spans="2:25" ht="39" x14ac:dyDescent="0.35">
+      <c r="B138" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="C138" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D138" s="38"/>
       <c r="E138" s="60"/>
@@ -12694,11 +12684,11 @@
       <c r="K138" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L138" s="22" t="s">
-        <v>58</v>
+      <c r="L138" s="51" t="s">
+        <v>278</v>
       </c>
       <c r="M138" s="51" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="N138" s="15" t="s">
         <v>16</v>
@@ -12712,7 +12702,7 @@
       <c r="Q138" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R138" s="15" t="s">
+      <c r="R138" s="16" t="s">
         <v>16</v>
       </c>
       <c r="S138" s="15" t="s">
@@ -12721,26 +12711,26 @@
       <c r="T138" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="V138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W138" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X138" s="15" t="s">
+      <c r="U138" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V138" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W138" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X138" s="16" t="s">
         <v>16</v>
       </c>
       <c r="Y138" s="3" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="2:25" ht="26" x14ac:dyDescent="0.35">
       <c r="B139" s="25"/>
       <c r="C139" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D139" s="38"/>
       <c r="E139" s="60"/>
@@ -12748,16 +12738,16 @@
       <c r="G139" s="60"/>
       <c r="H139" s="60"/>
       <c r="I139" s="60"/>
-      <c r="J139" s="15" t="s">
-        <v>58</v>
+      <c r="J139" s="50" t="s">
+        <v>79</v>
       </c>
       <c r="K139" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L139" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M139" s="22" t="s">
+      <c r="M139" s="51" t="s">
         <v>58</v>
       </c>
       <c r="N139" s="15" t="s">
@@ -12793,12 +12783,14 @@
       <c r="X139" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="Y139" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="2:25" ht="26" x14ac:dyDescent="0.35">
       <c r="B140" s="25"/>
       <c r="C140" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="38"/>
       <c r="E140" s="60"/>
@@ -12856,7 +12848,7 @@
     <row r="141" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B141" s="25"/>
       <c r="C141" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D141" s="38"/>
       <c r="E141" s="60"/>
@@ -12865,16 +12857,16 @@
       <c r="H141" s="60"/>
       <c r="I141" s="60"/>
       <c r="J141" s="15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K141" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L141" s="22" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M141" s="22" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N141" s="15" t="s">
         <v>16</v>
@@ -12914,7 +12906,7 @@
     <row r="142" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B142" s="25"/>
       <c r="C142" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="60"/>
@@ -12926,7 +12918,7 @@
         <v>16</v>
       </c>
       <c r="K142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L142" s="22" t="s">
         <v>25</v>
@@ -12935,44 +12927,44 @@
         <v>25</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X142" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="2:25" ht="65" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B143" s="25"/>
       <c r="C143" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D143" s="38"/>
       <c r="E143" s="60"/>
@@ -12981,7 +12973,7 @@
       <c r="H143" s="60"/>
       <c r="I143" s="60"/>
       <c r="J143" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K143" s="15" t="s">
         <v>25</v>
@@ -12993,104 +12985,104 @@
         <v>25</v>
       </c>
       <c r="N143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P143" s="15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="Q143" s="15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="R143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W143" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="X143" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y143" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="2:25" ht="39" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="Y143" s="3"/>
+    </row>
+    <row r="144" spans="2:25" ht="65" x14ac:dyDescent="0.35">
       <c r="B144" s="25"/>
-      <c r="C144" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D144" s="40"/>
+      <c r="C144" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D144" s="38"/>
       <c r="E144" s="60"/>
       <c r="F144" s="60"/>
       <c r="G144" s="60"/>
       <c r="H144" s="60"/>
       <c r="I144" s="60"/>
       <c r="J144" s="15" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="K144" s="15" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="N144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="O144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="P144" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q144" s="22" t="s">
-        <v>158</v>
+        <v>54</v>
+      </c>
+      <c r="Q144" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="R144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="S144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="T144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="U144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="V144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="W144" s="15" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="X144" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y144" s="2"/>
-    </row>
-    <row r="145" spans="2:25" ht="26" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="Y144" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="2:25" ht="39" x14ac:dyDescent="0.35">
       <c r="B145" s="25"/>
       <c r="C145" s="2" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="60"/>
@@ -13099,56 +13091,56 @@
       <c r="H145" s="60"/>
       <c r="I145" s="60"/>
       <c r="J145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="K145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="N145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="O145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="P145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="Q145" s="22" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="R145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="S145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="T145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="U145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="V145" s="15" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="W145" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X145" s="22" t="s">
-        <v>54</v>
+        <v>112</v>
+      </c>
+      <c r="X145" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="2:25" ht="39" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:25" ht="26" x14ac:dyDescent="0.35">
       <c r="B146" s="25"/>
       <c r="C146" s="2" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="60"/>
@@ -13157,58 +13149,56 @@
       <c r="H146" s="60"/>
       <c r="I146" s="60"/>
       <c r="J146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="K146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="N146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="O146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="P146" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q146" s="15" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="Q146" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="R146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="S146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="T146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="U146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="V146" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="W146" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X146" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y146" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="2:25" ht="26" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="X146" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y146" s="2"/>
+    </row>
+    <row r="147" spans="2:25" ht="39" x14ac:dyDescent="0.35">
       <c r="B147" s="25"/>
       <c r="C147" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D147" s="40"/>
       <c r="E147" s="60"/>
@@ -13216,77 +13206,77 @@
       <c r="G147" s="60"/>
       <c r="H147" s="60"/>
       <c r="I147" s="60"/>
-      <c r="J147" s="50" t="s">
-        <v>79</v>
+      <c r="J147" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="K147" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L147" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="M147" s="51" t="s">
-        <v>279</v>
+        <v>112</v>
+      </c>
+      <c r="L147" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M147" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="N147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="O147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="P147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="Q147" s="15" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="R147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="S147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="T147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="U147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="V147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="W147" s="15" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="X147" s="15" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="Y147" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="2:25" ht="26" x14ac:dyDescent="0.35">
       <c r="B148" s="25"/>
-      <c r="C148" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D148" s="38"/>
+      <c r="C148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D148" s="40"/>
       <c r="E148" s="60"/>
       <c r="F148" s="60"/>
       <c r="G148" s="60"/>
       <c r="H148" s="60"/>
       <c r="I148" s="60"/>
       <c r="J148" s="50" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K148" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L148" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M148" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N148" s="15" t="s">
         <v>16</v>
@@ -13298,7 +13288,7 @@
         <v>16</v>
       </c>
       <c r="Q148" s="15" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="R148" s="15" t="s">
         <v>16</v>
@@ -13319,14 +13309,16 @@
         <v>16</v>
       </c>
       <c r="X148" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="2:25" ht="52" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="149" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B149" s="25"/>
       <c r="C149" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D149" s="38"/>
       <c r="E149" s="60"/>
@@ -13335,58 +13327,56 @@
       <c r="H149" s="60"/>
       <c r="I149" s="60"/>
       <c r="J149" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="K149" s="50" t="s">
-        <v>118</v>
+        <v>25</v>
+      </c>
+      <c r="K149" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="L149" s="51" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="M149" s="51" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="N149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="O149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="P149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="Q149" s="15" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="R149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="S149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="T149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="U149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="V149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="X149" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y149" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Y149" s="3"/>
     </row>
     <row r="150" spans="2:25" ht="52" x14ac:dyDescent="0.35">
       <c r="B150" s="25"/>
       <c r="C150" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D150" s="38"/>
       <c r="E150" s="60"/>
@@ -13395,56 +13385,58 @@
       <c r="H150" s="60"/>
       <c r="I150" s="60"/>
       <c r="J150" s="50" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="K150" s="50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L150" s="51" t="s">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="M150" s="51" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="N150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q150" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W150" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X150" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y150" s="3"/>
-    </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="Y150" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="2:25" ht="52" x14ac:dyDescent="0.35">
       <c r="B151" s="25"/>
       <c r="C151" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D151" s="38"/>
       <c r="E151" s="60"/>
@@ -13452,101 +13444,105 @@
       <c r="G151" s="60"/>
       <c r="H151" s="60"/>
       <c r="I151" s="60"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="57"/>
-      <c r="L151" s="57"/>
-      <c r="M151" s="57"/>
-      <c r="N151" s="56"/>
-      <c r="O151" s="56"/>
+      <c r="J151" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="K151" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L151" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="M151" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="N151" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O151" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="P151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="Q151" s="15" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="R151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="S151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="T151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="U151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="V151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="W151" s="15" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="X151" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y151" s="3"/>
+    </row>
+    <row r="152" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B152" s="25"/>
+      <c r="C152" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D152" s="38"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="60"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="57"/>
+      <c r="L152" s="57"/>
+      <c r="M152" s="57"/>
+      <c r="N152" s="56"/>
+      <c r="O152" s="56"/>
+      <c r="P152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q152" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W152" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X152" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Y151" s="3"/>
-    </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B152" s="27" t="s">
+      <c r="Y152" s="3"/>
+    </row>
+    <row r="153" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B153" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="D152" s="39"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="61"/>
-      <c r="J152" s="52"/>
-      <c r="K152" s="52"/>
-      <c r="L152" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="M152" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="N152" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O152" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P152" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q152" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R152" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S152" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T152" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U152" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="V152" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="W152" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X152" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y152" s="14"/>
-    </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B153" s="27"/>
-      <c r="C153" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D153" s="39"/>
       <c r="E153" s="61"/>
@@ -13557,50 +13553,50 @@
       <c r="J153" s="52"/>
       <c r="K153" s="52"/>
       <c r="L153" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M153" s="52" t="s">
         <v>25</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="O153" s="19" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="P153" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Q153" s="19" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="R153" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="S153" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T153" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S153" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T153" s="18" t="s">
         <v>25</v>
       </c>
       <c r="U153" s="19" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="V153" s="19" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="W153" s="19" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="X153" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y153" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="Y153" s="14"/>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B154" s="27"/>
       <c r="C154" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D154" s="39"/>
       <c r="E154" s="61"/>
@@ -13610,26 +13606,26 @@
       <c r="I154" s="61"/>
       <c r="J154" s="52"/>
       <c r="K154" s="52"/>
-      <c r="L154" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="M154" s="19" t="s">
-        <v>177</v>
+      <c r="L154" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M154" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O154" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P154" s="19" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="Q154" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R154" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S154" s="19" t="s">
         <v>25</v>
@@ -13638,25 +13634,23 @@
         <v>25</v>
       </c>
       <c r="U154" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V154" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W154" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X154" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y154" s="5" t="s">
-        <v>249</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Y154" s="5"/>
     </row>
     <row r="155" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B155" s="27"/>
       <c r="C155" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D155" s="39"/>
       <c r="E155" s="61"/>
@@ -13666,26 +13660,26 @@
       <c r="I155" s="61"/>
       <c r="J155" s="52"/>
       <c r="K155" s="52"/>
-      <c r="L155" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="M155" s="52" t="s">
-        <v>25</v>
+      <c r="L155" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M155" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="O155" s="19" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="P155" s="19" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="Q155" s="19" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="R155" s="19" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="S155" s="19" t="s">
         <v>25</v>
@@ -13694,23 +13688,25 @@
         <v>25</v>
       </c>
       <c r="U155" s="19" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="V155" s="19" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="W155" s="19" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="X155" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y155" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="Y155" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="156" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B156" s="27"/>
       <c r="C156" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D156" s="39"/>
       <c r="E156" s="61"/>
@@ -13721,25 +13717,25 @@
       <c r="J156" s="52"/>
       <c r="K156" s="52"/>
       <c r="L156" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M156" s="52" t="s">
         <v>25</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O156" s="19" t="s">
         <v>16</v>
       </c>
       <c r="P156" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q156" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R156" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S156" s="19" t="s">
         <v>25</v>
@@ -13751,20 +13747,20 @@
         <v>16</v>
       </c>
       <c r="V156" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W156" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="X156" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y156" s="5"/>
     </row>
     <row r="157" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B157" s="27"/>
       <c r="C157" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D157" s="39"/>
       <c r="E157" s="61"/>
@@ -13778,10 +13774,10 @@
         <v>16</v>
       </c>
       <c r="M157" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O157" s="19" t="s">
         <v>16</v>
@@ -13793,7 +13789,7 @@
         <v>16</v>
       </c>
       <c r="R157" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S157" s="19" t="s">
         <v>25</v>
@@ -13802,23 +13798,23 @@
         <v>25</v>
       </c>
       <c r="U157" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="V157" s="19" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="W157" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="X157" s="19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="Y157" s="5"/>
     </row>
     <row r="158" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B158" s="27"/>
       <c r="C158" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D158" s="39"/>
       <c r="E158" s="61"/>
@@ -13856,23 +13852,23 @@
         <v>25</v>
       </c>
       <c r="U158" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="V158" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="W158" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="X158" s="19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="Y158" s="5"/>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B159" s="27"/>
       <c r="C159" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D159" s="39"/>
       <c r="E159" s="61"/>
@@ -13926,7 +13922,7 @@
     <row r="160" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B160" s="27"/>
       <c r="C160" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D160" s="39"/>
       <c r="E160" s="61"/>
@@ -13943,19 +13939,19 @@
         <v>16</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O160" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P160" s="19" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="Q160" s="19" t="s">
         <v>16</v>
       </c>
       <c r="R160" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S160" s="19" t="s">
         <v>25</v>
@@ -13964,13 +13960,13 @@
         <v>25</v>
       </c>
       <c r="U160" s="19" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="V160" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W160" s="19" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="X160" s="19" t="s">
         <v>16</v>
@@ -13980,7 +13976,7 @@
     <row r="161" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B161" s="27"/>
       <c r="C161" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D161" s="39"/>
       <c r="E161" s="61"/>
@@ -13991,52 +13987,50 @@
       <c r="J161" s="52"/>
       <c r="K161" s="52"/>
       <c r="L161" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M161" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O161" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P161" s="19" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="Q161" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R161" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S161" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T161" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U161" s="19" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="V161" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W161" s="19" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="X161" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y161" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Y161" s="5"/>
     </row>
     <row r="162" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B162" s="27"/>
       <c r="C162" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D162" s="39"/>
       <c r="E162" s="61"/>
@@ -14047,10 +14041,10 @@
       <c r="J162" s="52"/>
       <c r="K162" s="52"/>
       <c r="L162" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M162" s="52" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N162" s="19" t="s">
         <v>16</v>
@@ -14062,7 +14056,7 @@
         <v>16</v>
       </c>
       <c r="Q162" s="19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R162" s="19" t="s">
         <v>16</v>
@@ -14083,14 +14077,16 @@
         <v>16</v>
       </c>
       <c r="X162" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y162" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="Y162" s="14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="163" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B163" s="27"/>
       <c r="C163" s="5" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="D163" s="39"/>
       <c r="E163" s="61"/>
@@ -14107,34 +14103,34 @@
         <v>16</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O163" s="19" t="s">
         <v>16</v>
       </c>
       <c r="P163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q163" s="19" t="s">
         <v>16</v>
       </c>
       <c r="R163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="W163" s="19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X163" s="19" t="s">
         <v>16</v>
@@ -14144,7 +14140,7 @@
     <row r="164" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B164" s="27"/>
       <c r="C164" s="5" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="D164" s="39"/>
       <c r="E164" s="61"/>
@@ -14155,45 +14151,99 @@
       <c r="J164" s="52"/>
       <c r="K164" s="52"/>
       <c r="L164" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M164" s="52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O164" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q164" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="V164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="W164" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X164" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y164" s="5"/>
+    </row>
+    <row r="165" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B165" s="27"/>
+      <c r="C165" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" s="39"/>
+      <c r="E165" s="61"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="61"/>
+      <c r="J165" s="52"/>
+      <c r="K165" s="52"/>
+      <c r="L165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="O164" s="19" t="s">
+      <c r="O165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="P164" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q164" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R164" s="19" t="s">
+      <c r="P165" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q165" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="S164" s="19" t="s">
+      <c r="S165" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="T164" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U164" s="19" t="s">
+      <c r="T165" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="V164" s="19" t="s">
+      <c r="V165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="W164" s="19" t="s">
+      <c r="W165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="X164" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y164" s="5"/>
+      <c r="X165" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y165" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -3722,7 +3722,7 @@
     <t>DMA-AES_P (AES-128,256, 10-clk/round, ICV)</t>
   </si>
   <si>
-    <t>Feature in development but not available yet</t>
+    <t>Feature in development, not available yet in this IP version</t>
   </si>
 </sst>
 </file>
@@ -4558,6 +4558,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4599,18 +4611,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5218,7 +5218,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5241,11 +5241,11 @@
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="119"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:25" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="117" t="s">
         <v>345</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -5255,24 +5255,24 @@
       <c r="E3" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="107" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="104" t="s">
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="110"/>
       <c r="R3" s="30" t="s">
         <v>123</v>
       </c>
@@ -5288,20 +5288,20 @@
       <c r="V3" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="W3" s="102" t="s">
+      <c r="W3" s="106" t="s">
         <v>287</v>
       </c>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="118" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="105" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="100" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="103" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="61" t="s">
@@ -5364,14 +5364,14 @@
       <c r="X4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="Y4" s="118"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="115"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="117"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="61" t="s">
         <v>44</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="X5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="118"/>
+      <c r="Y5" s="105"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
@@ -14284,13 +14284,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="Y3:Y5"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -1198,6 +1198,30 @@
           <t xml:space="preserve">
 Parameter up to 32
 12/30/2016: change from 8 to 1 for all projects since design never implemented 8 and there is no known usage to have more than 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W97" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This is actually not needed since TGP-K will remove the DSP, so will not have FW for IPC.  DSP FW will not be loaded.  Kept for consistency only</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -4911,6 +4935,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4961,9 +4988,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5580,10 +5604,10 @@
   <dimension ref="B1:Z167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="Q79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5612,7 +5636,7 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:26" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>340</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -5622,24 +5646,24 @@
       <c r="E3" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="115" t="s">
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="112" t="s">
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
       <c r="R3" s="30" t="s">
         <v>122</v>
       </c>
@@ -5658,20 +5682,20 @@
       <c r="W3" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="X3" s="110" t="s">
+      <c r="X3" s="111" t="s">
         <v>283</v>
       </c>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="109" t="s">
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="110" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="105"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="100" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="108" t="s">
         <v>164</v>
       </c>
       <c r="E4" s="61" t="s">
@@ -5737,14 +5761,14 @@
       <c r="Y4" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="Z4" s="109"/>
+      <c r="Z4" s="110"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="106"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="61" t="s">
         <v>43</v>
       </c>
@@ -5808,7 +5832,7 @@
       <c r="Y5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="109"/>
+      <c r="Z5" s="110"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
@@ -9627,7 +9651,7 @@
       <c r="V71" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="W71" s="121" t="s">
+      <c r="W71" s="104" t="s">
         <v>14</v>
       </c>
       <c r="X71" s="21" t="s">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -720,30 +720,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="T62" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>PCR 1405876374</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="W62" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2755,7 +2731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="361">
   <si>
     <t>Feature</t>
   </si>
@@ -4086,6 +4062,9 @@
   <si>
     <t>- Remove power glitch detection from TGP-LP (moved to CSME 5.0 ADL)
 - Added configuration column for TGP-K CSE 4.2</t>
+  </si>
+  <si>
+    <t>Remove RSA 3k/4k from LKF since OKW is postponed</t>
   </si>
 </sst>
 </file>
@@ -5300,11 +5279,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5548,9 +5527,15 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="9">
+        <v>42912</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
@@ -5603,11 +5588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Q79" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="O42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W97" sqref="W97"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5618,9 +5603,7 @@
     <col min="4" max="4" width="11.1796875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="9.7265625" style="19" customWidth="1"/>
     <col min="10" max="13" width="9.7265625" style="45" customWidth="1"/>
-    <col min="14" max="19" width="9.7265625" style="19" customWidth="1"/>
-    <col min="20" max="21" width="9.7265625" style="19" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="9.7265625" style="19" customWidth="1"/>
+    <col min="14" max="25" width="9.7265625" style="19" customWidth="1"/>
     <col min="26" max="26" width="29.7265625" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -9105,9 +9088,7 @@
       <c r="Q62" s="54"/>
       <c r="R62" s="54"/>
       <c r="S62" s="54"/>
-      <c r="T62" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="T62" s="54"/>
       <c r="U62" s="54"/>
       <c r="V62" s="14" t="s">
         <v>14</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2545,6 +2545,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="X164" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>No Vnn removal support</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L165" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2916,7 +2940,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="376">
   <si>
     <t>Feature</t>
   </si>
@@ -4329,6 +4353,9 @@
   </si>
   <si>
     <t>Revision #</t>
+  </si>
+  <si>
+    <t>- Added small comment on no Vnn removal support for PECI</t>
   </si>
 </sst>
 </file>
@@ -6015,6 +6042,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6077,15 +6113,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6399,16 +6426,16 @@
   <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="283" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="262" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" style="25" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="26" customWidth="1"/>
     <col min="5" max="5" width="77.36328125" style="26" bestFit="1" customWidth="1"/>
@@ -6416,7 +6443,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="260" t="s">
         <v>374</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6430,7 +6457,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="282">
+      <c r="B3" s="261">
         <v>1</v>
       </c>
       <c r="C3" s="9">
@@ -6444,7 +6471,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="B4" s="282">
+      <c r="B4" s="261">
         <v>2</v>
       </c>
       <c r="C4" s="9">
@@ -6458,7 +6485,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="282">
+      <c r="B5" s="261">
         <v>3</v>
       </c>
       <c r="C5" s="9">
@@ -6472,7 +6499,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B6" s="282">
+      <c r="B6" s="261">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -6486,7 +6513,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="282">
+      <c r="B7" s="261">
         <v>5</v>
       </c>
       <c r="C7" s="9">
@@ -6500,7 +6527,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="282">
+      <c r="B8" s="261">
         <v>6</v>
       </c>
       <c r="C8" s="9">
@@ -6514,7 +6541,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="282">
+      <c r="B9" s="261">
         <v>7</v>
       </c>
       <c r="C9" s="9">
@@ -6528,7 +6555,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="282">
+      <c r="B10" s="261">
         <v>8</v>
       </c>
       <c r="C10" s="9">
@@ -6542,7 +6569,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="282">
+      <c r="B11" s="261">
         <v>9</v>
       </c>
       <c r="C11" s="9">
@@ -6556,7 +6583,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="282">
+      <c r="B12" s="261">
         <v>10</v>
       </c>
       <c r="C12" s="9">
@@ -6570,7 +6597,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="282">
+      <c r="B13" s="261">
         <v>11</v>
       </c>
       <c r="C13" s="9">
@@ -6584,7 +6611,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="282">
+      <c r="B14" s="261">
         <v>12</v>
       </c>
       <c r="C14" s="9">
@@ -6598,7 +6625,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="282">
+      <c r="B15" s="261">
         <v>13</v>
       </c>
       <c r="C15" s="9">
@@ -6612,7 +6639,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="282">
+      <c r="B16" s="261">
         <v>14</v>
       </c>
       <c r="C16" s="9">
@@ -6626,7 +6653,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="282">
+      <c r="B17" s="261">
         <v>15</v>
       </c>
       <c r="C17" s="9">
@@ -6640,7 +6667,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="282">
+      <c r="B18" s="261">
         <v>16</v>
       </c>
       <c r="C18" s="9">
@@ -6654,7 +6681,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="282">
+      <c r="B19" s="261">
         <v>17</v>
       </c>
       <c r="C19" s="9">
@@ -6668,7 +6695,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="282">
+      <c r="B20" s="261">
         <v>18</v>
       </c>
       <c r="C20" s="9">
@@ -6682,7 +6709,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="282">
+      <c r="B21" s="261">
         <v>19</v>
       </c>
       <c r="C21" s="9">
@@ -6696,7 +6723,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="282">
+      <c r="B22" s="261">
         <v>20</v>
       </c>
       <c r="C22" s="9">
@@ -6710,7 +6737,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="282">
+      <c r="B23" s="261">
         <v>21</v>
       </c>
       <c r="C23" s="9">
@@ -6724,7 +6751,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B24" s="282">
+      <c r="B24" s="261">
         <v>22</v>
       </c>
       <c r="C24" s="9">
@@ -6738,7 +6765,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="282">
+      <c r="B25" s="261">
         <v>23</v>
       </c>
       <c r="C25" s="9">
@@ -6752,37 +6779,45 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="282"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="261">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <v>43033</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="282"/>
+      <c r="B27" s="261"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="282"/>
+      <c r="B28" s="261"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="282"/>
+      <c r="B29" s="261"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="282"/>
+      <c r="B30" s="261"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="282"/>
+      <c r="B31" s="261"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -6799,7 +6834,7 @@
   <dimension ref="B1:AB173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="S142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
@@ -6829,7 +6864,7 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:28" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="263" t="s">
         <v>326</v>
       </c>
       <c r="C3" s="101" t="s">
@@ -6837,29 +6872,29 @@
       </c>
       <c r="D3" s="102"/>
       <c r="E3" s="136"/>
-      <c r="F3" s="270" t="s">
+      <c r="F3" s="273" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="273" t="s">
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="276" t="s">
         <v>367</v>
       </c>
-      <c r="K3" s="274"/>
-      <c r="L3" s="275" t="s">
+      <c r="K3" s="277"/>
+      <c r="L3" s="278" t="s">
         <v>368</v>
       </c>
-      <c r="M3" s="276"/>
-      <c r="N3" s="279" t="s">
+      <c r="M3" s="279"/>
+      <c r="N3" s="282" t="s">
         <v>369</v>
       </c>
-      <c r="O3" s="277"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="277" t="s">
+      <c r="O3" s="280"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="R3" s="278"/>
+      <c r="R3" s="281"/>
       <c r="S3" s="230" t="s">
         <v>116</v>
       </c>
@@ -6881,20 +6916,20 @@
       <c r="Y3" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="Z3" s="268" t="s">
+      <c r="Z3" s="271" t="s">
         <v>272</v>
       </c>
-      <c r="AA3" s="269"/>
-      <c r="AB3" s="265" t="s">
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="268" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="261"/>
+      <c r="B4" s="264"/>
       <c r="C4" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="266" t="s">
         <v>156</v>
       </c>
       <c r="E4" s="137" t="s">
@@ -6966,14 +7001,14 @@
       <c r="AA4" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="AB4" s="266"/>
+      <c r="AB4" s="269"/>
     </row>
     <row r="5" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="262"/>
+      <c r="B5" s="265"/>
       <c r="C5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="264"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="139" t="s">
         <v>39</v>
       </c>
@@ -7043,7 +7078,7 @@
       <c r="AA5" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="267"/>
+      <c r="AB5" s="270"/>
     </row>
     <row r="6" spans="2:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="54" t="s">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -1979,6 +1979,43 @@
         </r>
       </text>
     </comment>
+    <comment ref="W130" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No since the FuSA requirement of IOSF primary command/data parity in TGP-LP doesn’t involved IOSF agent, the PSFs are expected to generate and check the parity within the PSFs.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X130" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No since the FuSA requirement of IOSF primary command/data parity in TGP-LP doesn’t involved IOSF agent, the PSFs are expected to generate and check the parity within the PSFs.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R137" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2315,6 +2352,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA159" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Orange means VISA is accessible to Orange and REd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R161" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2638,123 +2699,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="V167" authorId="0" shapeId="0">
+    <comment ref="AB167" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">* 10/28/16. Confirmed by Vitaly no longer needed by client AMT.  Confirmed no longer needed by SPS. Kept as “yes” to avoid design/validation work to remove.  To be functiona disabled or put into D3 by BIOS for power gating.  
+--
+From: Dutkiewicz, Michal 
+Sent: Friday, November 03, 2017 1:32 AM
+To: Yeem, Kah Meng &lt;kah.meng.yeem@intel.com&gt;; Mielicki, Lukasz &lt;lukasz.mielicki@intel.com&gt;; Feuerstraeter, Mark T &lt;mark.t.feuerstraeter@intel.com&gt;; Doucette, Bryan C &lt;bryan.c.doucette@intel.com&gt;; Segal, Mark &lt;mark.segal@intel.com&gt;
+Cc: Lee, Khee Wooi &lt;khee.wooi.lee@intel.com&gt;
+Subject: RE: IDEr Function Disable via BIOS
+BIOS has been disabling IDEr unconditionally since SKL project. There is no BIOS IP guide, however, this requirement is documented in ME BIOS Writers Guide (ME BWG).
+Regards,
+Michal
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-* 10/28. Confirmed by Vitaly no longer needed by client AMT.  Confirmed no longer needed by SPS. Kept as “yes” to avoid design/validation work to remove.  To be functiona disabled or put into D3 by BIOS for power gating.  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W167" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* 10/28. Confirmed by Vitaly no longer needed by client AMT.  Confirmed no longer needed by SPS. Kept as “yes” to avoid design/validation work to remove.  To be functiona disabled or put into D3 by BIOS for power gating.  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X167" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* 10/28. Confirmed by Vitaly no longer needed by client AMT.  Confirmed no longer needed by SPS. Kept as “yes” to avoid design/validation work to remove.  To be functiona disabled or put into D3 by BIOS for power gating.  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z167" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* 10/28. Confirmed by Vitaly no longer needed by client AMT.  Confirmed no longer needed by SPS. Kept as “yes” to avoid design/validation work to remove.  To be functiona disabled or put into D3 by BIOS for power gating.  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA167" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* 10/28. Confirmed by Vitaly no longer needed by client AMT.  Confirmed no longer needed by SPS. Kept as “yes” to avoid design/validation work to remove.  To be functiona disabled or put into D3 by BIOS for power gating.  </t>
+</t>
         </r>
       </text>
     </comment>
@@ -2955,7 +2929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="380">
   <si>
     <t>Feature</t>
   </si>
@@ -3390,9 +3364,6 @@
   </si>
   <si>
     <t>* For Vnn removal</t>
-  </si>
-  <si>
-    <t>* For FuSa</t>
   </si>
   <si>
     <t>Green^</t>
@@ -4383,6 +4354,12 @@
     <t>- Added Key Locker and GKEY3 rows
 - Defeature AES DPA from ICP-H (PCR 1406571432)
 - Updated VISA Signal color coding of EBG IE to orange</t>
+  </si>
+  <si>
+    <t>* see comment</t>
+  </si>
+  <si>
+    <t>- Updated TGP-LP/-H IOSF-P parity support to "no" since the FuSA requirement of IOSF primary command/data parity in TGP-LP doesn’t involved IOSF agent, the PSFs are expected to generate and check the parity within the PSFs.</t>
   </si>
 </sst>
 </file>
@@ -6072,6 +6049,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6134,30 +6135,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6474,7 +6451,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6489,16 +6466,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="254" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6509,10 +6486,10 @@
         <v>42734</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="87" x14ac:dyDescent="0.35">
@@ -6523,10 +6500,10 @@
         <v>42739</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6537,10 +6514,10 @@
         <v>42740</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -6551,10 +6528,10 @@
         <v>42744</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6565,10 +6542,10 @@
         <v>42746</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -6579,10 +6556,10 @@
         <v>42758</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
@@ -6593,10 +6570,10 @@
         <v>42761</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
@@ -6607,10 +6584,10 @@
         <v>42782</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6621,10 +6598,10 @@
         <v>42800</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
@@ -6635,10 +6612,10 @@
         <v>42810</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
@@ -6649,10 +6626,10 @@
         <v>42816</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
@@ -6663,10 +6640,10 @@
         <v>42824</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6677,10 +6654,10 @@
         <v>42825</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6691,10 +6668,10 @@
         <v>42828</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -6705,10 +6682,10 @@
         <v>42832</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -6719,10 +6696,10 @@
         <v>42857</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -6733,10 +6710,10 @@
         <v>42858</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -6747,10 +6724,10 @@
         <v>42872</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -6761,10 +6738,10 @@
         <v>42874</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6775,10 +6752,10 @@
         <v>42893</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -6789,10 +6766,10 @@
         <v>42912</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -6803,10 +6780,10 @@
         <v>43024</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -6817,10 +6794,10 @@
         <v>43031</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6831,10 +6808,10 @@
         <v>43033</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6845,17 +6822,25 @@
         <v>43040</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="255"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="255">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
+        <v>43060</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="255"/>
@@ -6887,10 +6872,10 @@
   <dimension ref="B1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="S111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="W135" sqref="W135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6907,119 +6892,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B1" s="288"/>
-      <c r="C1" s="289" t="s">
-        <v>371</v>
+      <c r="B1" s="266"/>
+      <c r="C1" s="267" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="288"/>
-      <c r="C2" s="287"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="268"/>
     </row>
     <row r="3" spans="2:28" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="261" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="286" t="s">
-        <v>324</v>
+      <c r="B3" s="269" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="265" t="s">
+        <v>323</v>
       </c>
       <c r="D3" s="98"/>
       <c r="E3" s="132"/>
-      <c r="F3" s="271" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="274" t="s">
+      <c r="F3" s="279" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="282" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" s="283"/>
+      <c r="L3" s="284" t="s">
         <v>366</v>
       </c>
-      <c r="K3" s="275"/>
-      <c r="L3" s="276" t="s">
+      <c r="M3" s="285"/>
+      <c r="N3" s="288" t="s">
         <v>367</v>
       </c>
-      <c r="M3" s="277"/>
-      <c r="N3" s="280" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="278"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="278" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" s="279"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="286" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="287"/>
       <c r="S3" s="224" t="s">
         <v>116</v>
       </c>
       <c r="T3" s="99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U3" s="100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V3" s="225" t="s">
         <v>117</v>
       </c>
       <c r="W3" s="114" t="s">
+        <v>270</v>
+      </c>
+      <c r="X3" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y3" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z3" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="X3" s="101" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y3" s="101" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z3" s="269" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA3" s="270"/>
-      <c r="AB3" s="266" t="s">
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="274" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="262"/>
+      <c r="B4" s="270"/>
       <c r="C4" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="264" t="s">
-        <v>156</v>
+        <v>324</v>
+      </c>
+      <c r="D4" s="272" t="s">
+        <v>155</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="134" t="s">
         <v>298</v>
       </c>
-      <c r="I4" s="134" t="s">
-        <v>299</v>
-      </c>
       <c r="J4" s="167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>258</v>
-      </c>
       <c r="M4" s="168" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N4" s="209" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>3</v>
@@ -7031,10 +7016,10 @@
         <v>5</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V4" s="227" t="s">
         <v>118</v>
@@ -7043,10 +7028,10 @@
         <v>119</v>
       </c>
       <c r="X4" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y4" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z4" s="24" t="s">
         <v>120</v>
@@ -7054,14 +7039,14 @@
       <c r="AA4" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="AB4" s="267"/>
+      <c r="AB4" s="275"/>
     </row>
     <row r="5" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="263"/>
+      <c r="B5" s="271"/>
       <c r="C5" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="265"/>
+      <c r="D5" s="273"/>
       <c r="E5" s="135" t="s">
         <v>39</v>
       </c>
@@ -7108,10 +7093,10 @@
         <v>2</v>
       </c>
       <c r="T5" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U5" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V5" s="229" t="s">
         <v>2</v>
@@ -7123,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z5" s="108" t="s">
         <v>2</v>
@@ -7131,11 +7116,11 @@
       <c r="AA5" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="268"/>
+      <c r="AB5" s="276"/>
     </row>
     <row r="6" spans="2:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>7</v>
@@ -7272,7 +7257,7 @@
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B8" s="59"/>
       <c r="C8" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="139"/>
@@ -7332,14 +7317,14 @@
         <v>363</v>
       </c>
       <c r="AA8" s="154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB8" s="235"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B9" s="59"/>
       <c r="C9" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="139"/>
@@ -7406,7 +7391,7 @@
     <row r="10" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B10" s="59"/>
       <c r="C10" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="139"/>
@@ -7466,14 +7451,14 @@
         <v>8</v>
       </c>
       <c r="AA10" s="154" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB10" s="235"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B11" s="59"/>
       <c r="C11" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="139"/>
@@ -7482,58 +7467,58 @@
       <c r="H11" s="39"/>
       <c r="I11" s="140"/>
       <c r="J11" s="173" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="M11" s="174" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="181" t="s">
         <v>348</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="O11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="P11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="M11" s="174" t="s">
+      <c r="Q11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="N11" s="181" t="s">
-        <v>349</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>349</v>
-      </c>
       <c r="R11" s="154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S11" s="181" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V11" s="154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W11" s="124" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA11" s="154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB11" s="235"/>
     </row>
@@ -7674,7 +7659,7 @@
     <row r="14" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B14" s="59"/>
       <c r="C14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="139"/>
@@ -7925,56 +7910,56 @@
         <v>19</v>
       </c>
       <c r="N18" s="181" t="s">
+        <v>350</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="R18" s="154" t="s">
+        <v>350</v>
+      </c>
+      <c r="S18" s="181" t="s">
+        <v>350</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="154" t="s">
+        <v>350</v>
+      </c>
+      <c r="W18" s="124" t="s">
+        <v>350</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA18" s="154" t="s">
         <v>351</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="R18" s="154" t="s">
-        <v>351</v>
-      </c>
-      <c r="S18" s="181" t="s">
-        <v>351</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="154" t="s">
-        <v>351</v>
-      </c>
-      <c r="W18" s="124" t="s">
-        <v>351</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA18" s="154" t="s">
-        <v>352</v>
       </c>
       <c r="AB18" s="235"/>
     </row>
     <row r="19" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="59"/>
       <c r="C19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>208</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>209</v>
       </c>
       <c r="E19" s="139"/>
       <c r="F19" s="39"/>
@@ -8036,7 +8021,7 @@
     <row r="20" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="59"/>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="139"/>
@@ -8455,10 +8440,10 @@
     <row r="27" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B27" s="59"/>
       <c r="C27" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" s="139"/>
       <c r="F27" s="39"/>
@@ -8567,7 +8552,7 @@
     <row r="29" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D29" s="83"/>
       <c r="E29" s="141"/>
@@ -8604,10 +8589,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" s="137"/>
       <c r="F30" s="55"/>
@@ -8673,10 +8658,10 @@
     <row r="31" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B31" s="59"/>
       <c r="C31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="139"/>
       <c r="F31" s="39"/>
@@ -8964,7 +8949,7 @@
     <row r="36" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B36" s="59"/>
       <c r="C36" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="139"/>
@@ -8997,7 +8982,7 @@
     <row r="37" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="81"/>
       <c r="C37" s="82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D37" s="83"/>
       <c r="E37" s="141"/>
@@ -9030,7 +9015,7 @@
         <v>115</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="137"/>
@@ -9069,10 +9054,10 @@
         <v>31</v>
       </c>
       <c r="T38" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U38" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V38" s="213" t="s">
         <v>32</v>
@@ -9084,7 +9069,7 @@
         <v>32</v>
       </c>
       <c r="Y38" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z38" s="58" t="s">
         <v>32</v>
@@ -9229,13 +9214,13 @@
         <v>38</v>
       </c>
       <c r="AB40" s="235" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="88"/>
       <c r="C41" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="83"/>
       <c r="E41" s="143"/>
@@ -9275,10 +9260,10 @@
     </row>
     <row r="42" spans="2:28" s="47" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="91" t="s">
         <v>358</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>359</v>
       </c>
       <c r="D42" s="115"/>
       <c r="E42" s="144"/>
@@ -9390,7 +9375,7 @@
     <row r="44" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B44" s="60"/>
       <c r="C44" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="146"/>
@@ -9465,7 +9450,7 @@
     <row r="45" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B45" s="60"/>
       <c r="C45" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="148" t="s">
@@ -9542,7 +9527,7 @@
     <row r="46" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B46" s="59"/>
       <c r="C46" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="139" t="s">
@@ -9619,7 +9604,7 @@
     <row r="47" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B47" s="59"/>
       <c r="C47" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="149"/>
@@ -9664,13 +9649,13 @@
         <v>10</v>
       </c>
       <c r="AB47" s="235" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B48" s="59"/>
       <c r="C48" s="259" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="139" t="s">
@@ -9747,7 +9732,7 @@
     <row r="49" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B49" s="59"/>
       <c r="C49" s="260" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="149"/>
@@ -9792,7 +9777,7 @@
         <v>10</v>
       </c>
       <c r="AB49" s="235" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.35">
@@ -9875,7 +9860,7 @@
     <row r="51" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B51" s="59"/>
       <c r="C51" s="259" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="139" t="s">
@@ -9952,7 +9937,7 @@
     <row r="52" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B52" s="59"/>
       <c r="C52" s="259" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="139" t="s">
@@ -10029,7 +10014,7 @@
     <row r="53" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B53" s="59"/>
       <c r="C53" s="259" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="139" t="s">
@@ -10106,7 +10091,7 @@
     <row r="54" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B54" s="59"/>
       <c r="C54" s="259" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="151"/>
@@ -10249,7 +10234,7 @@
     <row r="57" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B57" s="59"/>
       <c r="C57" s="259" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="139" t="s">
@@ -10326,7 +10311,7 @@
     <row r="58" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B58" s="59"/>
       <c r="C58" s="259" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="139" t="s">
@@ -10403,7 +10388,7 @@
     <row r="59" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B59" s="59"/>
       <c r="C59" s="259" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="139" t="s">
@@ -10480,7 +10465,7 @@
     <row r="60" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B60" s="59"/>
       <c r="C60" s="259" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="139" t="s">
@@ -10606,7 +10591,7 @@
     <row r="62" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B62" s="59"/>
       <c r="C62" s="259" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="151"/>
@@ -10647,7 +10632,7 @@
     <row r="63" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B63" s="59"/>
       <c r="C63" s="259" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="151"/>
@@ -10769,7 +10754,7 @@
     <row r="65" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B65" s="59"/>
       <c r="C65" s="259" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="139" t="s">
@@ -10846,7 +10831,7 @@
     <row r="66" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B66" s="59"/>
       <c r="C66" s="259" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="151"/>
@@ -11122,7 +11107,7 @@
     <row r="70" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B70" s="59"/>
       <c r="C70" s="259" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="151"/>
@@ -11130,18 +11115,18 @@
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="152"/>
-      <c r="J70" s="282"/>
-      <c r="K70" s="283"/>
+      <c r="J70" s="261"/>
+      <c r="K70" s="262"/>
       <c r="L70" s="37"/>
       <c r="M70" s="180"/>
-      <c r="N70" s="284"/>
-      <c r="O70" s="285"/>
-      <c r="P70" s="285"/>
-      <c r="Q70" s="285"/>
+      <c r="N70" s="263"/>
+      <c r="O70" s="264"/>
+      <c r="P70" s="264"/>
+      <c r="Q70" s="264"/>
       <c r="R70" s="183"/>
-      <c r="S70" s="284"/>
-      <c r="T70" s="285"/>
-      <c r="U70" s="285"/>
+      <c r="S70" s="263"/>
+      <c r="T70" s="264"/>
+      <c r="U70" s="264"/>
       <c r="V70" s="183"/>
       <c r="W70" s="124" t="s">
         <v>10</v>
@@ -11163,11 +11148,11 @@
     <row r="71" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B71" s="59"/>
       <c r="C71" s="259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>19</v>
@@ -11179,13 +11164,13 @@
         <v>19</v>
       </c>
       <c r="I71" s="154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J71" s="153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K71" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L71" s="20" t="s">
         <v>19</v>
@@ -11194,53 +11179,53 @@
         <v>19</v>
       </c>
       <c r="N71" s="153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O71" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P71" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q71" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R71" s="154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S71" s="153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T71" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U71" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V71" s="154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W71" s="120" t="s">
+        <v>352</v>
+      </c>
+      <c r="X71" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y71" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="X71" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y71" s="21" t="s">
-        <v>354</v>
-      </c>
       <c r="Z71" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA71" s="174" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB71" s="235"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B72" s="59"/>
       <c r="C72" s="259" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="153" t="s">
@@ -11317,7 +11302,7 @@
     <row r="73" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B73" s="59"/>
       <c r="C73" s="259" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="151"/>
@@ -11464,7 +11449,7 @@
     <row r="76" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B76" s="59"/>
       <c r="C76" s="259" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="151"/>
@@ -11513,7 +11498,7 @@
     <row r="77" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B77" s="59"/>
       <c r="C77" s="259" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="151"/>
@@ -11562,154 +11547,154 @@
     <row r="78" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B78" s="61"/>
       <c r="C78" s="95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D78" s="48"/>
       <c r="E78" s="156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="F78" s="62" t="s">
-        <v>302</v>
-      </c>
       <c r="G78" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I78" s="157" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J78" s="156" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M78" s="157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N78" s="156" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R78" s="157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S78" s="156" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V78" s="157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W78" s="130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA78" s="157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB78" s="241"/>
     </row>
     <row r="79" spans="2:28" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="94"/>
       <c r="C79" s="95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D79" s="96"/>
       <c r="E79" s="156" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F79" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G79" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I79" s="157" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J79" s="192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M79" s="193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N79" s="192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R79" s="193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S79" s="192" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V79" s="193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W79" s="131" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z79" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA79" s="193" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB79" s="242"/>
     </row>
@@ -11718,10 +11703,10 @@
         <v>49</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D80" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E80" s="137"/>
       <c r="F80" s="55"/>
@@ -11729,16 +11714,16 @@
       <c r="H80" s="55"/>
       <c r="I80" s="138"/>
       <c r="J80" s="171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K80" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L80" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M80" s="172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N80" s="186" t="s">
         <v>50</v>
@@ -11759,10 +11744,10 @@
         <v>50</v>
       </c>
       <c r="T80" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U80" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V80" s="213" t="s">
         <v>50</v>
@@ -11774,7 +11759,7 @@
         <v>50</v>
       </c>
       <c r="Y80" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z80" s="58" t="s">
         <v>50</v>
@@ -11787,7 +11772,7 @@
     <row r="81" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B81" s="60"/>
       <c r="C81" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="148"/>
@@ -11828,10 +11813,10 @@
     <row r="82" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B82" s="59"/>
       <c r="C82" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="139"/>
       <c r="F82" s="39"/>
@@ -11976,7 +11961,7 @@
         <v>54</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L84" s="20" t="s">
         <v>52</v>
@@ -12443,7 +12428,7 @@
     <row r="91" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B91" s="59"/>
       <c r="C91" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="139"/>
@@ -12484,7 +12469,7 @@
     <row r="92" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B92" s="59"/>
       <c r="C92" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="139"/>
@@ -12533,10 +12518,10 @@
     <row r="93" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B93" s="59"/>
       <c r="C93" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E93" s="139"/>
       <c r="F93" s="39"/>
@@ -12669,10 +12654,10 @@
     <row r="95" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="59"/>
       <c r="C95" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>219</v>
       </c>
       <c r="E95" s="139"/>
       <c r="F95" s="39"/>
@@ -12738,10 +12723,10 @@
     <row r="96" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B96" s="59"/>
       <c r="C96" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E96" s="139"/>
       <c r="F96" s="39"/>
@@ -12807,10 +12792,10 @@
     <row r="97" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B97" s="59"/>
       <c r="C97" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="E97" s="139"/>
       <c r="F97" s="39"/>
@@ -12868,10 +12853,10 @@
     <row r="98" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B98" s="59"/>
       <c r="C98" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E98" s="139"/>
       <c r="F98" s="39"/>
@@ -13272,7 +13257,7 @@
         <v>19</v>
       </c>
       <c r="AB103" s="235" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.35">
@@ -13410,7 +13395,7 @@
         <v>19</v>
       </c>
       <c r="AB105" s="235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.35">
@@ -13452,10 +13437,10 @@
         <v>19</v>
       </c>
       <c r="S106" s="181" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T106" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U106" s="13" t="s">
         <v>19</v>
@@ -13479,13 +13464,13 @@
         <v>19</v>
       </c>
       <c r="AB106" s="235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B107" s="59"/>
       <c r="C107" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="139"/>
@@ -13506,55 +13491,55 @@
         <v>19</v>
       </c>
       <c r="N107" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q107" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O107" s="13" t="s">
+      <c r="R107" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="P107" s="13" t="s">
+      <c r="S107" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="T107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="U107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V107" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="Q107" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="R107" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="S107" s="181" t="s">
+      <c r="W107" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="X107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z107" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="T107" s="13" t="s">
+      <c r="AA107" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="U107" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="V107" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="W107" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="X107" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y107" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z107" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA107" s="154" t="s">
-        <v>194</v>
-      </c>
       <c r="AB107" s="235" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B108" s="59"/>
       <c r="C108" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="139"/>
@@ -13575,55 +13560,55 @@
         <v>19</v>
       </c>
       <c r="N108" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="O108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q108" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O108" s="13" t="s">
+      <c r="R108" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="P108" s="13" t="s">
+      <c r="S108" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="T108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="U108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V108" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="Q108" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="R108" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="S108" s="181" t="s">
+      <c r="W108" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="X108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z108" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="T108" s="13" t="s">
+      <c r="AA108" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="U108" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="V108" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="W108" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="X108" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y108" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z108" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA108" s="154" t="s">
-        <v>194</v>
-      </c>
       <c r="AB108" s="235" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B109" s="59"/>
       <c r="C109" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="139"/>
@@ -13690,7 +13675,7 @@
     <row r="110" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B110" s="59"/>
       <c r="C110" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="139"/>
@@ -13757,7 +13742,7 @@
     <row r="111" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B111" s="59"/>
       <c r="C111" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="139"/>
@@ -13787,10 +13772,10 @@
         <v>64</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R111" s="154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S111" s="181" t="s">
         <v>64</v>
@@ -13802,7 +13787,7 @@
         <v>64</v>
       </c>
       <c r="V111" s="154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W111" s="124" t="s">
         <v>64</v>
@@ -13814,19 +13799,19 @@
         <v>64</v>
       </c>
       <c r="Z111" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA111" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB111" s="235" t="s">
         <v>195</v>
-      </c>
-      <c r="AA111" s="154" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB111" s="235" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B112" s="59"/>
       <c r="C112" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="139"/>
@@ -13847,55 +13832,55 @@
         <v>19</v>
       </c>
       <c r="N112" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q112" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O112" s="13" t="s">
+      <c r="R112" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="P112" s="13" t="s">
+      <c r="S112" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="T112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="U112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V112" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="Q112" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="R112" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="S112" s="181" t="s">
+      <c r="W112" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="X112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y112" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z112" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="T112" s="13" t="s">
+      <c r="AA112" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="U112" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="V112" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="W112" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="X112" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y112" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z112" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA112" s="154" t="s">
-        <v>194</v>
-      </c>
       <c r="AB112" s="235" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B113" s="59"/>
       <c r="C113" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="139"/>
@@ -13916,58 +13901,58 @@
         <v>19</v>
       </c>
       <c r="N113" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q113" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O113" s="13" t="s">
+      <c r="R113" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="P113" s="13" t="s">
+      <c r="S113" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="T113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V113" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="Q113" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="R113" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="S113" s="181" t="s">
+      <c r="W113" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="X113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y113" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z113" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="T113" s="13" t="s">
+      <c r="AA113" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="U113" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="V113" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="W113" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="X113" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y113" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z113" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA113" s="154" t="s">
-        <v>194</v>
-      </c>
       <c r="AB113" s="235" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B114" s="59"/>
       <c r="C114" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E114" s="139"/>
       <c r="F114" s="39"/>
@@ -13987,22 +13972,22 @@
       <c r="T114" s="38"/>
       <c r="U114" s="38"/>
       <c r="V114" s="154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W114" s="124" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X114" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y114" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z114" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA114" s="154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB114" s="235"/>
     </row>
@@ -14030,22 +14015,22 @@
       <c r="T115" s="38"/>
       <c r="U115" s="38"/>
       <c r="V115" s="154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W115" s="124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X115" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y115" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z115" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA115" s="154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB115" s="235"/>
     </row>
@@ -14073,22 +14058,22 @@
       <c r="T116" s="38"/>
       <c r="U116" s="38"/>
       <c r="V116" s="154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W116" s="124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X116" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y116" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z116" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA116" s="154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB116" s="235"/>
     </row>
@@ -14116,22 +14101,22 @@
       <c r="T117" s="38"/>
       <c r="U117" s="38"/>
       <c r="V117" s="154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W117" s="124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X117" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y117" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z117" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA117" s="154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB117" s="235"/>
     </row>
@@ -14159,22 +14144,22 @@
       <c r="T118" s="38"/>
       <c r="U118" s="38"/>
       <c r="V118" s="154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W118" s="124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X118" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y118" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z118" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA118" s="154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB118" s="235"/>
     </row>
@@ -14202,22 +14187,22 @@
       <c r="T119" s="38"/>
       <c r="U119" s="38"/>
       <c r="V119" s="154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W119" s="124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X119" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y119" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z119" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA119" s="154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AB119" s="235"/>
     </row>
@@ -14245,22 +14230,22 @@
       <c r="T120" s="38"/>
       <c r="U120" s="38"/>
       <c r="V120" s="154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W120" s="124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X120" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y120" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z120" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA120" s="154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB120" s="235"/>
     </row>
@@ -14288,22 +14273,22 @@
       <c r="T121" s="38"/>
       <c r="U121" s="38"/>
       <c r="V121" s="154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W121" s="124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X121" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y121" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z121" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA121" s="154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB121" s="235"/>
     </row>
@@ -14331,29 +14316,29 @@
       <c r="T122" s="38"/>
       <c r="U122" s="38"/>
       <c r="V122" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W122" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X122" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y122" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z122" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA122" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB122" s="235"/>
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B123" s="59"/>
       <c r="C123" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="139"/>
@@ -14374,29 +14359,29 @@
       <c r="T123" s="38"/>
       <c r="U123" s="38"/>
       <c r="V123" s="154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W123" s="124" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X123" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y123" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z123" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA123" s="154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB123" s="235"/>
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B124" s="59"/>
       <c r="C124" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="139"/>
@@ -14417,22 +14402,22 @@
       <c r="T124" s="38"/>
       <c r="U124" s="38"/>
       <c r="V124" s="154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W124" s="124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X124" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y124" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z124" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA124" s="154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB124" s="235"/>
     </row>
@@ -14596,10 +14581,10 @@
     <row r="128" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" s="59"/>
       <c r="C128" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E128" s="158"/>
       <c r="F128" s="40"/>
@@ -14661,7 +14646,7 @@
     <row r="129" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B129" s="59"/>
       <c r="C129" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="158"/>
@@ -14728,7 +14713,7 @@
     <row r="130" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B130" s="59"/>
       <c r="C130" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="158"/>
@@ -14776,10 +14761,10 @@
         <v>19</v>
       </c>
       <c r="W130" s="124" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="X130" s="13" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="Y130" s="13" t="s">
         <v>19</v>
@@ -14790,14 +14775,12 @@
       <c r="AA130" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AB130" s="235" t="s">
-        <v>145</v>
-      </c>
+      <c r="AB130" s="235"/>
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B131" s="59"/>
       <c r="C131" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="158"/>
@@ -14806,65 +14789,65 @@
       <c r="H131" s="40"/>
       <c r="I131" s="140"/>
       <c r="J131" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M131" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N131" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R131" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S131" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V131" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W131" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z131" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA131" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB131" s="235"/>
     </row>
     <row r="132" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B132" s="59"/>
       <c r="C132" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="158"/>
@@ -14873,65 +14856,65 @@
       <c r="H132" s="40"/>
       <c r="I132" s="140"/>
       <c r="J132" s="181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K132" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L132" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L132" s="13" t="s">
-        <v>241</v>
-      </c>
       <c r="M132" s="154" t="s">
+        <v>239</v>
+      </c>
+      <c r="N132" s="181" t="s">
         <v>240</v>
       </c>
-      <c r="N132" s="181" t="s">
-        <v>241</v>
-      </c>
       <c r="O132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R132" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S132" s="181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V132" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W132" s="124" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z132" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA132" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB132" s="235"/>
     </row>
     <row r="133" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B133" s="59"/>
       <c r="C133" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="158"/>
@@ -14940,58 +14923,58 @@
       <c r="H133" s="40"/>
       <c r="I133" s="140"/>
       <c r="J133" s="181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M133" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N133" s="181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R133" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S133" s="181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V133" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W133" s="124" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z133" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA133" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB133" s="235" t="s">
         <v>80</v>
@@ -15000,10 +14983,10 @@
     <row r="134" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" s="59"/>
       <c r="C134" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E134" s="158"/>
       <c r="F134" s="40"/>
@@ -15136,7 +15119,7 @@
     <row r="136" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B136" s="59"/>
       <c r="C136" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="158"/>
@@ -15205,7 +15188,7 @@
     <row r="137" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B137" s="59"/>
       <c r="C137" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="158"/>
@@ -15214,65 +15197,65 @@
       <c r="H137" s="40"/>
       <c r="I137" s="140"/>
       <c r="J137" s="173" t="s">
+        <v>259</v>
+      </c>
+      <c r="K137" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L137" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="K137" s="16" t="s">
+      <c r="M137" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="L137" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="M137" s="176" t="s">
-        <v>261</v>
-      </c>
       <c r="N137" s="181" t="s">
+        <v>229</v>
+      </c>
+      <c r="O137" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="P137" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q137" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="R137" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="S137" s="181" t="s">
+        <v>229</v>
+      </c>
+      <c r="T137" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="U137" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="V137" s="154" t="s">
+        <v>229</v>
+      </c>
+      <c r="W137" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="O137" s="13" t="s">
+      <c r="X137" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="P137" s="13" t="s">
+      <c r="Y137" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="Q137" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="R137" s="154" t="s">
-        <v>230</v>
-      </c>
-      <c r="S137" s="181" t="s">
-        <v>230</v>
-      </c>
-      <c r="T137" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="U137" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="V137" s="154" t="s">
-        <v>230</v>
-      </c>
-      <c r="W137" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="X137" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y137" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="Z137" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA137" s="154" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AB137" s="235"/>
     </row>
     <row r="138" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B138" s="59"/>
       <c r="C138" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="158"/>
@@ -15292,25 +15275,25 @@
       <c r="S138" s="182"/>
       <c r="T138" s="38"/>
       <c r="U138" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="V138" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="V138" s="154" t="s">
-        <v>248</v>
-      </c>
       <c r="W138" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="X138" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y138" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z138" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="X138" s="13" t="s">
+      <c r="AA138" s="154" t="s">
         <v>247</v>
-      </c>
-      <c r="Y138" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z138" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA138" s="154" t="s">
-        <v>248</v>
       </c>
       <c r="AB138" s="235"/>
     </row>
@@ -15473,10 +15456,10 @@
         <v>87</v>
       </c>
       <c r="O141" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P141" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q141" s="13" t="s">
         <v>88</v>
@@ -15782,7 +15765,7 @@
     <row r="146" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="81"/>
       <c r="C146" s="82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D146" s="83"/>
       <c r="E146" s="143"/>
@@ -15842,10 +15825,10 @@
         <v>10</v>
       </c>
       <c r="L147" s="111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M147" s="198" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N147" s="186" t="s">
         <v>10</v>
@@ -15890,7 +15873,7 @@
         <v>10</v>
       </c>
       <c r="AB147" s="80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="2:28" ht="26" x14ac:dyDescent="0.35">
@@ -16317,10 +16300,10 @@
         <v>104</v>
       </c>
       <c r="L154" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M154" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N154" s="181" t="s">
         <v>104</v>
@@ -16335,7 +16318,7 @@
         <v>104</v>
       </c>
       <c r="R154" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S154" s="181" t="s">
         <v>104</v>
@@ -16362,14 +16345,14 @@
         <v>104</v>
       </c>
       <c r="AA154" s="154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB154" s="243"/>
     </row>
     <row r="155" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B155" s="59"/>
       <c r="C155" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" s="116"/>
       <c r="E155" s="158"/>
@@ -16451,10 +16434,10 @@
         <v>104</v>
       </c>
       <c r="L156" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M156" s="178" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N156" s="181" t="s">
         <v>104</v>
@@ -16499,7 +16482,7 @@
         <v>106</v>
       </c>
       <c r="AB156" s="243" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="2:28" ht="26" x14ac:dyDescent="0.35">
@@ -16520,10 +16503,10 @@
         <v>10</v>
       </c>
       <c r="L157" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M157" s="200" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N157" s="181" t="s">
         <v>10</v>
@@ -16568,7 +16551,7 @@
         <v>58</v>
       </c>
       <c r="AB157" s="243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="2:28" x14ac:dyDescent="0.35">
@@ -16589,10 +16572,10 @@
         <v>19</v>
       </c>
       <c r="L158" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M158" s="200" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N158" s="181" t="s">
         <v>10</v>
@@ -16656,10 +16639,10 @@
         <v>110</v>
       </c>
       <c r="L159" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M159" s="200" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N159" s="181" t="s">
         <v>110</v>
@@ -16704,7 +16687,7 @@
         <v>111</v>
       </c>
       <c r="AB159" s="235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="2:28" ht="52" x14ac:dyDescent="0.35">
@@ -16719,13 +16702,13 @@
       <c r="H160" s="40"/>
       <c r="I160" s="140"/>
       <c r="J160" s="199" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K160" s="33" t="s">
         <v>113</v>
       </c>
       <c r="L160" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M160" s="200" t="s">
         <v>113</v>
@@ -16823,16 +16806,16 @@
         <v>19</v>
       </c>
       <c r="AA161" s="218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB161" s="237"/>
     </row>
     <row r="162" spans="2:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B162" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" s="70" t="s">
         <v>160</v>
-      </c>
-      <c r="C162" s="70" t="s">
-        <v>161</v>
       </c>
       <c r="D162" s="117"/>
       <c r="E162" s="160"/>
@@ -16899,7 +16882,7 @@
     <row r="163" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B163" s="73"/>
       <c r="C163" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="162"/>
@@ -16908,7 +16891,7 @@
       <c r="H163" s="41"/>
       <c r="I163" s="163"/>
       <c r="J163" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K163" s="35" t="s">
         <v>19</v>
@@ -16920,22 +16903,22 @@
         <v>10</v>
       </c>
       <c r="N163" s="173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P163" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q163" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R163" s="174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S163" s="173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T163" s="16" t="s">
         <v>19</v>
@@ -16944,29 +16927,29 @@
         <v>19</v>
       </c>
       <c r="V163" s="174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W163" s="120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X163" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y163" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Z163" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA163" s="174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB163" s="245"/>
     </row>
     <row r="164" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B164" s="73"/>
       <c r="C164" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="162"/>
@@ -16975,67 +16958,67 @@
       <c r="H164" s="41"/>
       <c r="I164" s="163"/>
       <c r="J164" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K164" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L164" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M164" s="176" t="s">
+        <v>166</v>
+      </c>
+      <c r="N164" s="173" t="s">
+        <v>166</v>
+      </c>
+      <c r="O164" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P164" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q164" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="R164" s="174" t="s">
+        <v>166</v>
+      </c>
+      <c r="S164" s="173" t="s">
+        <v>166</v>
+      </c>
+      <c r="T164" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U164" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V164" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="K164" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="L164" s="16" t="s">
+      <c r="W164" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="X164" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y164" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z164" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="M164" s="176" t="s">
-        <v>167</v>
-      </c>
-      <c r="N164" s="173" t="s">
-        <v>167</v>
-      </c>
-      <c r="O164" s="16" t="s">
+      <c r="AA164" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="P164" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q164" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="R164" s="174" t="s">
-        <v>167</v>
-      </c>
-      <c r="S164" s="173" t="s">
-        <v>167</v>
-      </c>
-      <c r="T164" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U164" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V164" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="W164" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="X164" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y164" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z164" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA164" s="174" t="s">
-        <v>166</v>
-      </c>
       <c r="AB164" s="245" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B165" s="73"/>
       <c r="C165" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="162"/>
@@ -17102,7 +17085,7 @@
     <row r="166" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B166" s="73"/>
       <c r="C166" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="162"/>
@@ -17169,7 +17152,7 @@
     <row r="167" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B167" s="73"/>
       <c r="C167" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="162"/>
@@ -17231,12 +17214,14 @@
       <c r="AA167" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="AB167" s="245"/>
+      <c r="AB167" s="245" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="168" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B168" s="73"/>
       <c r="C168" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="162"/>
@@ -17303,7 +17288,7 @@
     <row r="169" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B169" s="73"/>
       <c r="C169" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="162"/>
@@ -17370,7 +17355,7 @@
     <row r="170" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B170" s="73"/>
       <c r="C170" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="162"/>
@@ -17385,10 +17370,10 @@
         <v>19</v>
       </c>
       <c r="L170" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M170" s="257" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N170" s="173" t="s">
         <v>19</v>
@@ -17400,10 +17385,10 @@
         <v>19</v>
       </c>
       <c r="Q170" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R170" s="206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S170" s="173" t="s">
         <v>19</v>
@@ -17415,7 +17400,7 @@
         <v>19</v>
       </c>
       <c r="V170" s="174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W170" s="120" t="s">
         <v>19</v>
@@ -17427,17 +17412,17 @@
         <v>19</v>
       </c>
       <c r="Z170" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA170" s="174" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB170" s="245"/>
     </row>
     <row r="171" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B171" s="73"/>
       <c r="C171" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="162"/>
@@ -17500,13 +17485,13 @@
         <v>48</v>
       </c>
       <c r="AB171" s="246" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B172" s="73"/>
       <c r="C172" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="162"/>
@@ -17573,7 +17558,7 @@
     <row r="173" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B173" s="73"/>
       <c r="C173" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="162"/>
@@ -17640,7 +17625,7 @@
     <row r="174" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="74"/>
       <c r="C174" s="75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D174" s="118"/>
       <c r="E174" s="164"/>
@@ -17649,7 +17634,7 @@
       <c r="H174" s="76"/>
       <c r="I174" s="165"/>
       <c r="J174" s="220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K174" s="77" t="s">
         <v>19</v>
@@ -17661,13 +17646,13 @@
         <v>19</v>
       </c>
       <c r="N174" s="220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O174" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P174" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q174" s="78" t="s">
         <v>19</v>
@@ -17676,28 +17661,28 @@
         <v>19</v>
       </c>
       <c r="S174" s="220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T174" s="79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U174" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V174" s="221" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W174" s="166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X174" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y174" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z174" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA174" s="221" t="s">
         <v>19</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2228,7 +2228,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.</t>
+* Green to enable OEM to debug IE in case there is issue with Orange enabling.  There is a simple register bit (see below line) that OEM FW can set/clear to enable/disable access in Green for its customer.
+12/05/2017: added orange too since red implied orange</t>
         </r>
       </text>
     </comment>
@@ -2929,7 +2930,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="380">
   <si>
     <t>Feature</t>
   </si>
@@ -3374,10 +3375,6 @@
   <si>
     <t>Red
 Orange
-Green*</t>
-  </si>
-  <si>
-    <t>Red
 Green*</t>
   </si>
   <si>
@@ -4360,6 +4357,9 @@
   </si>
   <si>
     <t>- Updated TGP-LP/-H IOSF-P parity support to "no" since the FuSA requirement of IOSF primary command/data parity in TGP-LP doesn’t involved IOSF agent, the PSFs are expected to generate and check the parity within the PSFs.</t>
+  </si>
+  <si>
+    <t>Added Orange as the state IE TAP is allowed since Red implies Orange (heirachical)</t>
   </si>
 </sst>
 </file>
@@ -6451,7 +6451,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6466,16 +6466,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6486,10 +6486,10 @@
         <v>42734</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="87" x14ac:dyDescent="0.35">
@@ -6500,10 +6500,10 @@
         <v>42739</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6514,10 +6514,10 @@
         <v>42740</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -6528,10 +6528,10 @@
         <v>42744</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6542,10 +6542,10 @@
         <v>42746</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -6556,10 +6556,10 @@
         <v>42758</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
@@ -6570,10 +6570,10 @@
         <v>42761</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
@@ -6584,10 +6584,10 @@
         <v>42782</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6598,10 +6598,10 @@
         <v>42800</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
@@ -6612,10 +6612,10 @@
         <v>42810</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
@@ -6626,10 +6626,10 @@
         <v>42816</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
@@ -6640,10 +6640,10 @@
         <v>42824</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6654,10 +6654,10 @@
         <v>42825</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6668,10 +6668,10 @@
         <v>42828</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -6682,10 +6682,10 @@
         <v>42832</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -6696,10 +6696,10 @@
         <v>42857</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -6710,10 +6710,10 @@
         <v>42858</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -6724,10 +6724,10 @@
         <v>42872</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -6738,10 +6738,10 @@
         <v>42874</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6752,10 +6752,10 @@
         <v>42893</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -6766,10 +6766,10 @@
         <v>42912</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -6780,10 +6780,10 @@
         <v>43024</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -6794,10 +6794,10 @@
         <v>43031</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -6808,10 +6808,10 @@
         <v>43033</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6822,10 +6822,10 @@
         <v>43040</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -6836,17 +6836,25 @@
         <v>43060</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="255">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9">
+        <v>43074</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="255"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="255"/>
@@ -6872,10 +6880,10 @@
   <dimension ref="B1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="S111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="Q150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W135" sqref="W135"/>
+      <selection pane="bottomRight" activeCell="X156" sqref="X156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6894,7 +6902,7 @@
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B1" s="266"/>
       <c r="C1" s="267" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6903,59 +6911,59 @@
     </row>
     <row r="3" spans="2:28" ht="13" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="269" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="265" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="98"/>
       <c r="E3" s="132"/>
       <c r="F3" s="279" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="280"/>
       <c r="H3" s="280"/>
       <c r="I3" s="281"/>
       <c r="J3" s="282" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K3" s="283"/>
       <c r="L3" s="284" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M3" s="285"/>
       <c r="N3" s="288" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O3" s="286"/>
       <c r="P3" s="289"/>
       <c r="Q3" s="286" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R3" s="287"/>
       <c r="S3" s="224" t="s">
         <v>116</v>
       </c>
       <c r="T3" s="99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U3" s="100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V3" s="225" t="s">
         <v>117</v>
       </c>
       <c r="W3" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="X3" s="101" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y3" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z3" s="277" t="s">
         <v>270</v>
-      </c>
-      <c r="X3" s="101" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y3" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z3" s="277" t="s">
-        <v>271</v>
       </c>
       <c r="AA3" s="278"/>
       <c r="AB3" s="274" t="s">
@@ -6965,46 +6973,46 @@
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4" s="270"/>
       <c r="C4" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="272" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="134" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="134" t="s">
-        <v>298</v>
-      </c>
       <c r="J4" s="167" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>257</v>
-      </c>
       <c r="M4" s="168" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N4" s="209" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>3</v>
@@ -7016,10 +7024,10 @@
         <v>5</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V4" s="227" t="s">
         <v>118</v>
@@ -7028,10 +7036,10 @@
         <v>119</v>
       </c>
       <c r="X4" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y4" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z4" s="24" t="s">
         <v>120</v>
@@ -7093,10 +7101,10 @@
         <v>2</v>
       </c>
       <c r="T5" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U5" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V5" s="229" t="s">
         <v>2</v>
@@ -7108,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z5" s="108" t="s">
         <v>2</v>
@@ -7120,7 +7128,7 @@
     </row>
     <row r="6" spans="2:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>7</v>
@@ -7257,7 +7265,7 @@
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B8" s="59"/>
       <c r="C8" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="139"/>
@@ -7317,14 +7325,14 @@
         <v>363</v>
       </c>
       <c r="AA8" s="154" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AB8" s="235"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B9" s="59"/>
       <c r="C9" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="139"/>
@@ -7391,7 +7399,7 @@
     <row r="10" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B10" s="59"/>
       <c r="C10" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="139"/>
@@ -7451,14 +7459,14 @@
         <v>8</v>
       </c>
       <c r="AA10" s="154" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB10" s="235"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B11" s="59"/>
       <c r="C11" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="139"/>
@@ -7467,58 +7475,58 @@
       <c r="H11" s="39"/>
       <c r="I11" s="140"/>
       <c r="J11" s="173" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="M11" s="174" t="s">
+        <v>346</v>
+      </c>
+      <c r="N11" s="181" t="s">
         <v>347</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="O11" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="P11" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="M11" s="174" t="s">
+      <c r="Q11" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="N11" s="181" t="s">
-        <v>348</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="R11" s="154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S11" s="181" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V11" s="154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W11" s="124" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA11" s="154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB11" s="235"/>
     </row>
@@ -7659,7 +7667,7 @@
     <row r="14" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B14" s="59"/>
       <c r="C14" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="139"/>
@@ -7910,56 +7918,56 @@
         <v>19</v>
       </c>
       <c r="N18" s="181" t="s">
+        <v>349</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="R18" s="154" t="s">
+        <v>349</v>
+      </c>
+      <c r="S18" s="181" t="s">
+        <v>349</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="154" t="s">
+        <v>349</v>
+      </c>
+      <c r="W18" s="124" t="s">
+        <v>349</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA18" s="154" t="s">
         <v>350</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="R18" s="154" t="s">
-        <v>350</v>
-      </c>
-      <c r="S18" s="181" t="s">
-        <v>350</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V18" s="154" t="s">
-        <v>350</v>
-      </c>
-      <c r="W18" s="124" t="s">
-        <v>350</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA18" s="154" t="s">
-        <v>351</v>
       </c>
       <c r="AB18" s="235"/>
     </row>
     <row r="19" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="59"/>
       <c r="C19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>208</v>
       </c>
       <c r="E19" s="139"/>
       <c r="F19" s="39"/>
@@ -8021,7 +8029,7 @@
     <row r="20" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="59"/>
       <c r="C20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="139"/>
@@ -8440,10 +8448,10 @@
     <row r="27" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B27" s="59"/>
       <c r="C27" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="139"/>
       <c r="F27" s="39"/>
@@ -8552,7 +8560,7 @@
     <row r="29" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29" s="83"/>
       <c r="E29" s="141"/>
@@ -8589,10 +8597,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="137"/>
       <c r="F30" s="55"/>
@@ -8658,10 +8666,10 @@
     <row r="31" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B31" s="59"/>
       <c r="C31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E31" s="139"/>
       <c r="F31" s="39"/>
@@ -8949,7 +8957,7 @@
     <row r="36" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B36" s="59"/>
       <c r="C36" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="139"/>
@@ -8982,7 +8990,7 @@
     <row r="37" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="81"/>
       <c r="C37" s="82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" s="83"/>
       <c r="E37" s="141"/>
@@ -9015,7 +9023,7 @@
         <v>115</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="137"/>
@@ -9054,10 +9062,10 @@
         <v>31</v>
       </c>
       <c r="T38" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U38" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V38" s="213" t="s">
         <v>32</v>
@@ -9069,7 +9077,7 @@
         <v>32</v>
       </c>
       <c r="Y38" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z38" s="58" t="s">
         <v>32</v>
@@ -9214,13 +9222,13 @@
         <v>38</v>
       </c>
       <c r="AB40" s="235" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="88"/>
       <c r="C41" s="82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" s="83"/>
       <c r="E41" s="143"/>
@@ -9260,10 +9268,10 @@
     </row>
     <row r="42" spans="2:28" s="47" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="91" t="s">
         <v>357</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>358</v>
       </c>
       <c r="D42" s="115"/>
       <c r="E42" s="144"/>
@@ -9375,7 +9383,7 @@
     <row r="44" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B44" s="60"/>
       <c r="C44" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="146"/>
@@ -9450,7 +9458,7 @@
     <row r="45" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B45" s="60"/>
       <c r="C45" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="148" t="s">
@@ -9527,7 +9535,7 @@
     <row r="46" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B46" s="59"/>
       <c r="C46" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="139" t="s">
@@ -9604,7 +9612,7 @@
     <row r="47" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B47" s="59"/>
       <c r="C47" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="149"/>
@@ -9649,13 +9657,13 @@
         <v>10</v>
       </c>
       <c r="AB47" s="235" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B48" s="59"/>
       <c r="C48" s="259" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="139" t="s">
@@ -9732,7 +9740,7 @@
     <row r="49" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B49" s="59"/>
       <c r="C49" s="260" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="149"/>
@@ -9777,7 +9785,7 @@
         <v>10</v>
       </c>
       <c r="AB49" s="235" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.35">
@@ -9860,7 +9868,7 @@
     <row r="51" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B51" s="59"/>
       <c r="C51" s="259" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="139" t="s">
@@ -9937,7 +9945,7 @@
     <row r="52" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B52" s="59"/>
       <c r="C52" s="259" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="139" t="s">
@@ -10014,7 +10022,7 @@
     <row r="53" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B53" s="59"/>
       <c r="C53" s="259" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="139" t="s">
@@ -10091,7 +10099,7 @@
     <row r="54" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B54" s="59"/>
       <c r="C54" s="259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="151"/>
@@ -10234,7 +10242,7 @@
     <row r="57" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B57" s="59"/>
       <c r="C57" s="259" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="139" t="s">
@@ -10311,7 +10319,7 @@
     <row r="58" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B58" s="59"/>
       <c r="C58" s="259" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="139" t="s">
@@ -10388,7 +10396,7 @@
     <row r="59" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B59" s="59"/>
       <c r="C59" s="259" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="139" t="s">
@@ -10465,7 +10473,7 @@
     <row r="60" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B60" s="59"/>
       <c r="C60" s="259" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="139" t="s">
@@ -10591,7 +10599,7 @@
     <row r="62" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B62" s="59"/>
       <c r="C62" s="259" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="151"/>
@@ -10632,7 +10640,7 @@
     <row r="63" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B63" s="59"/>
       <c r="C63" s="259" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="151"/>
@@ -10754,7 +10762,7 @@
     <row r="65" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B65" s="59"/>
       <c r="C65" s="259" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="139" t="s">
@@ -10831,7 +10839,7 @@
     <row r="66" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B66" s="59"/>
       <c r="C66" s="259" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="151"/>
@@ -11107,7 +11115,7 @@
     <row r="70" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B70" s="59"/>
       <c r="C70" s="259" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="151"/>
@@ -11148,11 +11156,11 @@
     <row r="71" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B71" s="59"/>
       <c r="C71" s="259" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>19</v>
@@ -11164,13 +11172,13 @@
         <v>19</v>
       </c>
       <c r="I71" s="154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J71" s="153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K71" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L71" s="20" t="s">
         <v>19</v>
@@ -11179,53 +11187,53 @@
         <v>19</v>
       </c>
       <c r="N71" s="153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O71" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P71" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q71" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R71" s="154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S71" s="153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T71" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U71" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V71" s="154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W71" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="X71" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y71" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="X71" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y71" s="21" t="s">
-        <v>353</v>
-      </c>
       <c r="Z71" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA71" s="174" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB71" s="235"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B72" s="59"/>
       <c r="C72" s="259" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="153" t="s">
@@ -11302,7 +11310,7 @@
     <row r="73" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B73" s="59"/>
       <c r="C73" s="259" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="151"/>
@@ -11449,7 +11457,7 @@
     <row r="76" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B76" s="59"/>
       <c r="C76" s="259" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="151"/>
@@ -11498,7 +11506,7 @@
     <row r="77" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B77" s="59"/>
       <c r="C77" s="259" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="151"/>
@@ -11547,154 +11555,154 @@
     <row r="78" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B78" s="61"/>
       <c r="C78" s="95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D78" s="48"/>
       <c r="E78" s="156" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="F78" s="62" t="s">
-        <v>301</v>
-      </c>
       <c r="G78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H78" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I78" s="157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J78" s="156" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M78" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N78" s="156" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R78" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S78" s="156" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V78" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W78" s="130" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z78" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA78" s="157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB78" s="241"/>
     </row>
     <row r="79" spans="2:28" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="94"/>
       <c r="C79" s="95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D79" s="96"/>
       <c r="E79" s="156" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F79" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G79" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H79" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I79" s="157" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J79" s="192" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M79" s="193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N79" s="192" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R79" s="193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S79" s="192" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V79" s="193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W79" s="131" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z79" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA79" s="193" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB79" s="242"/>
     </row>
@@ -11703,10 +11711,10 @@
         <v>49</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D80" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E80" s="137"/>
       <c r="F80" s="55"/>
@@ -11714,16 +11722,16 @@
       <c r="H80" s="55"/>
       <c r="I80" s="138"/>
       <c r="J80" s="171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K80" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L80" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M80" s="172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N80" s="186" t="s">
         <v>50</v>
@@ -11744,10 +11752,10 @@
         <v>50</v>
       </c>
       <c r="T80" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U80" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V80" s="213" t="s">
         <v>50</v>
@@ -11759,7 +11767,7 @@
         <v>50</v>
       </c>
       <c r="Y80" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z80" s="58" t="s">
         <v>50</v>
@@ -11772,7 +11780,7 @@
     <row r="81" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B81" s="60"/>
       <c r="C81" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="148"/>
@@ -11813,10 +11821,10 @@
     <row r="82" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B82" s="59"/>
       <c r="C82" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E82" s="139"/>
       <c r="F82" s="39"/>
@@ -11961,7 +11969,7 @@
         <v>54</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L84" s="20" t="s">
         <v>52</v>
@@ -12428,7 +12436,7 @@
     <row r="91" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B91" s="59"/>
       <c r="C91" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="139"/>
@@ -12469,7 +12477,7 @@
     <row r="92" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B92" s="59"/>
       <c r="C92" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="139"/>
@@ -12518,10 +12526,10 @@
     <row r="93" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B93" s="59"/>
       <c r="C93" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E93" s="139"/>
       <c r="F93" s="39"/>
@@ -12654,10 +12662,10 @@
     <row r="95" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="59"/>
       <c r="C95" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="E95" s="139"/>
       <c r="F95" s="39"/>
@@ -12723,10 +12731,10 @@
     <row r="96" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B96" s="59"/>
       <c r="C96" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="139"/>
       <c r="F96" s="39"/>
@@ -12792,10 +12800,10 @@
     <row r="97" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B97" s="59"/>
       <c r="C97" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="E97" s="139"/>
       <c r="F97" s="39"/>
@@ -12853,10 +12861,10 @@
     <row r="98" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B98" s="59"/>
       <c r="C98" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E98" s="139"/>
       <c r="F98" s="39"/>
@@ -13257,7 +13265,7 @@
         <v>19</v>
       </c>
       <c r="AB103" s="235" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.35">
@@ -13395,7 +13403,7 @@
         <v>19</v>
       </c>
       <c r="AB105" s="235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.35">
@@ -13437,7 +13445,7 @@
         <v>19</v>
       </c>
       <c r="S106" s="181" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T106" s="13" t="s">
         <v>146</v>
@@ -13464,13 +13472,13 @@
         <v>19</v>
       </c>
       <c r="AB106" s="235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B107" s="59"/>
       <c r="C107" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="139"/>
@@ -13491,55 +13499,55 @@
         <v>19</v>
       </c>
       <c r="N107" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q107" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O107" s="13" t="s">
+      <c r="R107" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="P107" s="13" t="s">
+      <c r="S107" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="T107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="V107" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="Q107" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="R107" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="S107" s="181" t="s">
+      <c r="W107" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="X107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z107" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="T107" s="13" t="s">
+      <c r="AA107" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="U107" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="V107" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="W107" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="X107" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y107" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z107" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA107" s="154" t="s">
-        <v>193</v>
-      </c>
       <c r="AB107" s="235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B108" s="59"/>
       <c r="C108" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="139"/>
@@ -13560,55 +13568,55 @@
         <v>19</v>
       </c>
       <c r="N108" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="O108" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P108" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q108" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O108" s="13" t="s">
+      <c r="R108" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="P108" s="13" t="s">
+      <c r="S108" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="T108" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U108" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="V108" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="Q108" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="R108" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="S108" s="181" t="s">
+      <c r="W108" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="X108" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y108" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z108" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="T108" s="13" t="s">
+      <c r="AA108" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="U108" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="V108" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="W108" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="X108" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y108" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z108" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA108" s="154" t="s">
-        <v>193</v>
-      </c>
       <c r="AB108" s="235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B109" s="59"/>
       <c r="C109" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="139"/>
@@ -13675,7 +13683,7 @@
     <row r="110" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B110" s="59"/>
       <c r="C110" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="139"/>
@@ -13742,7 +13750,7 @@
     <row r="111" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B111" s="59"/>
       <c r="C111" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="139"/>
@@ -13772,10 +13780,10 @@
         <v>64</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R111" s="154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S111" s="181" t="s">
         <v>64</v>
@@ -13787,7 +13795,7 @@
         <v>64</v>
       </c>
       <c r="V111" s="154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W111" s="124" t="s">
         <v>64</v>
@@ -13799,19 +13807,19 @@
         <v>64</v>
       </c>
       <c r="Z111" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA111" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB111" s="235" t="s">
         <v>194</v>
-      </c>
-      <c r="AA111" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB111" s="235" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B112" s="59"/>
       <c r="C112" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="139"/>
@@ -13832,55 +13840,55 @@
         <v>19</v>
       </c>
       <c r="N112" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P112" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q112" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O112" s="13" t="s">
+      <c r="R112" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="P112" s="13" t="s">
+      <c r="S112" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="T112" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U112" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="V112" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="Q112" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="R112" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="S112" s="181" t="s">
+      <c r="W112" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="X112" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y112" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z112" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="T112" s="13" t="s">
+      <c r="AA112" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="U112" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="V112" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="W112" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="X112" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y112" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z112" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA112" s="154" t="s">
-        <v>193</v>
-      </c>
       <c r="AB112" s="235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B113" s="59"/>
       <c r="C113" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="139"/>
@@ -13901,58 +13909,58 @@
         <v>19</v>
       </c>
       <c r="N113" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q113" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O113" s="13" t="s">
+      <c r="R113" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="P113" s="13" t="s">
+      <c r="S113" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="T113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="U113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="V113" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="Q113" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="R113" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="S113" s="181" t="s">
+      <c r="W113" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="X113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z113" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="T113" s="13" t="s">
+      <c r="AA113" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="U113" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="V113" s="154" t="s">
-        <v>193</v>
-      </c>
-      <c r="W113" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="X113" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y113" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z113" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA113" s="154" t="s">
-        <v>193</v>
-      </c>
       <c r="AB113" s="235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B114" s="59"/>
       <c r="C114" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E114" s="139"/>
       <c r="F114" s="39"/>
@@ -13972,22 +13980,22 @@
       <c r="T114" s="38"/>
       <c r="U114" s="38"/>
       <c r="V114" s="154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W114" s="124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X114" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y114" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Z114" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA114" s="154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB114" s="235"/>
     </row>
@@ -14015,22 +14023,22 @@
       <c r="T115" s="38"/>
       <c r="U115" s="38"/>
       <c r="V115" s="154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W115" s="124" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X115" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y115" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z115" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA115" s="154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB115" s="235"/>
     </row>
@@ -14058,22 +14066,22 @@
       <c r="T116" s="38"/>
       <c r="U116" s="38"/>
       <c r="V116" s="154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W116" s="124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X116" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y116" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z116" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA116" s="154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB116" s="235"/>
     </row>
@@ -14101,22 +14109,22 @@
       <c r="T117" s="38"/>
       <c r="U117" s="38"/>
       <c r="V117" s="154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W117" s="124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X117" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y117" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z117" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA117" s="154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB117" s="235"/>
     </row>
@@ -14144,22 +14152,22 @@
       <c r="T118" s="38"/>
       <c r="U118" s="38"/>
       <c r="V118" s="154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W118" s="124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X118" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y118" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z118" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA118" s="154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB118" s="235"/>
     </row>
@@ -14187,22 +14195,22 @@
       <c r="T119" s="38"/>
       <c r="U119" s="38"/>
       <c r="V119" s="154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W119" s="124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X119" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y119" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z119" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA119" s="154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AB119" s="235"/>
     </row>
@@ -14230,22 +14238,22 @@
       <c r="T120" s="38"/>
       <c r="U120" s="38"/>
       <c r="V120" s="154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W120" s="124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X120" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y120" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z120" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA120" s="154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AB120" s="235"/>
     </row>
@@ -14273,22 +14281,22 @@
       <c r="T121" s="38"/>
       <c r="U121" s="38"/>
       <c r="V121" s="154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W121" s="124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X121" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y121" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z121" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA121" s="154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB121" s="235"/>
     </row>
@@ -14316,29 +14324,29 @@
       <c r="T122" s="38"/>
       <c r="U122" s="38"/>
       <c r="V122" s="154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W122" s="124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X122" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y122" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z122" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA122" s="154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB122" s="235"/>
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B123" s="59"/>
       <c r="C123" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="139"/>
@@ -14359,29 +14367,29 @@
       <c r="T123" s="38"/>
       <c r="U123" s="38"/>
       <c r="V123" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W123" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X123" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y123" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z123" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA123" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB123" s="235"/>
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B124" s="59"/>
       <c r="C124" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="139"/>
@@ -14402,22 +14410,22 @@
       <c r="T124" s="38"/>
       <c r="U124" s="38"/>
       <c r="V124" s="154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W124" s="124" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X124" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y124" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z124" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA124" s="154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB124" s="235"/>
     </row>
@@ -14581,10 +14589,10 @@
     <row r="128" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" s="59"/>
       <c r="C128" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E128" s="158"/>
       <c r="F128" s="40"/>
@@ -14646,7 +14654,7 @@
     <row r="129" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B129" s="59"/>
       <c r="C129" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="158"/>
@@ -14713,7 +14721,7 @@
     <row r="130" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B130" s="59"/>
       <c r="C130" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="158"/>
@@ -14780,7 +14788,7 @@
     <row r="131" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B131" s="59"/>
       <c r="C131" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="158"/>
@@ -14789,65 +14797,65 @@
       <c r="H131" s="40"/>
       <c r="I131" s="140"/>
       <c r="J131" s="181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M131" s="154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N131" s="181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R131" s="154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S131" s="181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V131" s="154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W131" s="124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z131" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA131" s="154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB131" s="235"/>
     </row>
     <row r="132" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B132" s="59"/>
       <c r="C132" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="158"/>
@@ -14856,65 +14864,65 @@
       <c r="H132" s="40"/>
       <c r="I132" s="140"/>
       <c r="J132" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K132" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="L132" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L132" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="M132" s="154" t="s">
+        <v>238</v>
+      </c>
+      <c r="N132" s="181" t="s">
         <v>239</v>
       </c>
-      <c r="N132" s="181" t="s">
-        <v>240</v>
-      </c>
       <c r="O132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R132" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S132" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V132" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W132" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z132" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA132" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB132" s="235"/>
     </row>
     <row r="133" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B133" s="59"/>
       <c r="C133" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="158"/>
@@ -14923,58 +14931,58 @@
       <c r="H133" s="40"/>
       <c r="I133" s="140"/>
       <c r="J133" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M133" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N133" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R133" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S133" s="181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V133" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W133" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z133" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA133" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB133" s="235" t="s">
         <v>80</v>
@@ -14983,10 +14991,10 @@
     <row r="134" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" s="59"/>
       <c r="C134" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E134" s="158"/>
       <c r="F134" s="40"/>
@@ -15119,7 +15127,7 @@
     <row r="136" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B136" s="59"/>
       <c r="C136" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="158"/>
@@ -15188,7 +15196,7 @@
     <row r="137" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B137" s="59"/>
       <c r="C137" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="158"/>
@@ -15197,65 +15205,65 @@
       <c r="H137" s="40"/>
       <c r="I137" s="140"/>
       <c r="J137" s="173" t="s">
+        <v>258</v>
+      </c>
+      <c r="K137" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L137" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="K137" s="16" t="s">
+      <c r="M137" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="L137" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M137" s="176" t="s">
-        <v>260</v>
-      </c>
       <c r="N137" s="181" t="s">
+        <v>228</v>
+      </c>
+      <c r="O137" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="P137" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q137" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="R137" s="154" t="s">
+        <v>228</v>
+      </c>
+      <c r="S137" s="181" t="s">
+        <v>228</v>
+      </c>
+      <c r="T137" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="U137" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="V137" s="154" t="s">
+        <v>228</v>
+      </c>
+      <c r="W137" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="O137" s="13" t="s">
+      <c r="X137" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="P137" s="13" t="s">
+      <c r="Y137" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="Q137" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="R137" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="S137" s="181" t="s">
-        <v>229</v>
-      </c>
-      <c r="T137" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="U137" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="V137" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="W137" s="124" t="s">
-        <v>230</v>
-      </c>
-      <c r="X137" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y137" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="Z137" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA137" s="154" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB137" s="235"/>
     </row>
     <row r="138" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B138" s="59"/>
       <c r="C138" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="158"/>
@@ -15275,25 +15283,25 @@
       <c r="S138" s="182"/>
       <c r="T138" s="38"/>
       <c r="U138" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="V138" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="V138" s="154" t="s">
-        <v>247</v>
-      </c>
       <c r="W138" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="X138" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y138" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z138" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="X138" s="13" t="s">
+      <c r="AA138" s="154" t="s">
         <v>246</v>
-      </c>
-      <c r="Y138" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z138" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA138" s="154" t="s">
-        <v>247</v>
       </c>
       <c r="AB138" s="235"/>
     </row>
@@ -15456,10 +15464,10 @@
         <v>87</v>
       </c>
       <c r="O141" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P141" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q141" s="13" t="s">
         <v>88</v>
@@ -15765,7 +15773,7 @@
     <row r="146" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="81"/>
       <c r="C146" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" s="83"/>
       <c r="E146" s="143"/>
@@ -15825,10 +15833,10 @@
         <v>10</v>
       </c>
       <c r="L147" s="111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M147" s="198" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N147" s="186" t="s">
         <v>10</v>
@@ -15873,7 +15881,7 @@
         <v>10</v>
       </c>
       <c r="AB147" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="2:28" ht="26" x14ac:dyDescent="0.35">
@@ -16345,14 +16353,14 @@
         <v>104</v>
       </c>
       <c r="AA154" s="154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB154" s="243"/>
     </row>
     <row r="155" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B155" s="59"/>
       <c r="C155" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="116"/>
       <c r="E155" s="158"/>
@@ -16434,10 +16442,10 @@
         <v>104</v>
       </c>
       <c r="L156" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M156" s="178" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N156" s="181" t="s">
         <v>104</v>
@@ -16482,7 +16490,7 @@
         <v>106</v>
       </c>
       <c r="AB156" s="243" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="2:28" ht="26" x14ac:dyDescent="0.35">
@@ -16503,10 +16511,10 @@
         <v>10</v>
       </c>
       <c r="L157" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M157" s="200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N157" s="181" t="s">
         <v>10</v>
@@ -16551,7 +16559,7 @@
         <v>58</v>
       </c>
       <c r="AB157" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="2:28" x14ac:dyDescent="0.35">
@@ -16572,10 +16580,10 @@
         <v>19</v>
       </c>
       <c r="L158" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M158" s="200" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N158" s="181" t="s">
         <v>10</v>
@@ -16687,7 +16695,7 @@
         <v>111</v>
       </c>
       <c r="AB159" s="235" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="2:28" ht="52" x14ac:dyDescent="0.35">
@@ -16702,13 +16710,13 @@
       <c r="H160" s="40"/>
       <c r="I160" s="140"/>
       <c r="J160" s="199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K160" s="33" t="s">
         <v>113</v>
       </c>
       <c r="L160" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M160" s="200" t="s">
         <v>113</v>
@@ -16812,10 +16820,10 @@
     </row>
     <row r="162" spans="2:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B162" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="70" t="s">
         <v>159</v>
-      </c>
-      <c r="C162" s="70" t="s">
-        <v>160</v>
       </c>
       <c r="D162" s="117"/>
       <c r="E162" s="160"/>
@@ -16882,7 +16890,7 @@
     <row r="163" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B163" s="73"/>
       <c r="C163" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="162"/>
@@ -16891,7 +16899,7 @@
       <c r="H163" s="41"/>
       <c r="I163" s="163"/>
       <c r="J163" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K163" s="35" t="s">
         <v>19</v>
@@ -16903,22 +16911,22 @@
         <v>10</v>
       </c>
       <c r="N163" s="173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P163" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q163" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R163" s="174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S163" s="173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T163" s="16" t="s">
         <v>19</v>
@@ -16927,29 +16935,29 @@
         <v>19</v>
       </c>
       <c r="V163" s="174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W163" s="120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X163" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y163" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Z163" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA163" s="174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB163" s="245"/>
     </row>
     <row r="164" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B164" s="73"/>
       <c r="C164" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="162"/>
@@ -16958,67 +16966,67 @@
       <c r="H164" s="41"/>
       <c r="I164" s="163"/>
       <c r="J164" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K164" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L164" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M164" s="176" t="s">
+        <v>165</v>
+      </c>
+      <c r="N164" s="173" t="s">
+        <v>165</v>
+      </c>
+      <c r="O164" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="P164" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q164" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="R164" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="S164" s="173" t="s">
+        <v>165</v>
+      </c>
+      <c r="T164" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U164" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V164" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="K164" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L164" s="16" t="s">
+      <c r="W164" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="X164" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y164" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z164" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="M164" s="176" t="s">
-        <v>166</v>
-      </c>
-      <c r="N164" s="173" t="s">
-        <v>166</v>
-      </c>
-      <c r="O164" s="16" t="s">
+      <c r="AA164" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="P164" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q164" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="R164" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="S164" s="173" t="s">
-        <v>166</v>
-      </c>
-      <c r="T164" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U164" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="V164" s="174" t="s">
-        <v>165</v>
-      </c>
-      <c r="W164" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="X164" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y164" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z164" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA164" s="174" t="s">
-        <v>165</v>
-      </c>
       <c r="AB164" s="245" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B165" s="73"/>
       <c r="C165" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="162"/>
@@ -17085,7 +17093,7 @@
     <row r="166" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B166" s="73"/>
       <c r="C166" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="162"/>
@@ -17152,7 +17160,7 @@
     <row r="167" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B167" s="73"/>
       <c r="C167" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="162"/>
@@ -17215,13 +17223,13 @@
         <v>48</v>
       </c>
       <c r="AB167" s="245" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B168" s="73"/>
       <c r="C168" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="162"/>
@@ -17288,7 +17296,7 @@
     <row r="169" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B169" s="73"/>
       <c r="C169" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="162"/>
@@ -17355,7 +17363,7 @@
     <row r="170" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B170" s="73"/>
       <c r="C170" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="162"/>
@@ -17370,10 +17378,10 @@
         <v>19</v>
       </c>
       <c r="L170" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M170" s="257" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N170" s="173" t="s">
         <v>19</v>
@@ -17385,10 +17393,10 @@
         <v>19</v>
       </c>
       <c r="Q170" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R170" s="206" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S170" s="173" t="s">
         <v>19</v>
@@ -17400,7 +17408,7 @@
         <v>19</v>
       </c>
       <c r="V170" s="174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W170" s="120" t="s">
         <v>19</v>
@@ -17412,17 +17420,17 @@
         <v>19</v>
       </c>
       <c r="Z170" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA170" s="174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB170" s="245"/>
     </row>
     <row r="171" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B171" s="73"/>
       <c r="C171" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="162"/>
@@ -17485,13 +17493,13 @@
         <v>48</v>
       </c>
       <c r="AB171" s="246" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B172" s="73"/>
       <c r="C172" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="162"/>
@@ -17558,7 +17566,7 @@
     <row r="173" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B173" s="73"/>
       <c r="C173" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="162"/>
@@ -17625,7 +17633,7 @@
     <row r="174" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="74"/>
       <c r="C174" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D174" s="118"/>
       <c r="E174" s="164"/>
@@ -17634,7 +17642,7 @@
       <c r="H174" s="76"/>
       <c r="I174" s="165"/>
       <c r="J174" s="220" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K174" s="77" t="s">
         <v>19</v>
@@ -17646,13 +17654,13 @@
         <v>19</v>
       </c>
       <c r="N174" s="220" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O174" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P174" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q174" s="78" t="s">
         <v>19</v>
@@ -17661,28 +17669,28 @@
         <v>19</v>
       </c>
       <c r="S174" s="220" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T174" s="79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U174" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V174" s="221" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W174" s="166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X174" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y174" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z174" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA174" s="221" t="s">
         <v>19</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -2923,6 +2923,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB168" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Per mail thread with Praveen 12/12/2017</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C172" authorId="0" shapeId="0">
       <text>
         <r>
@@ -3066,7 +3090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="381">
   <si>
     <t>Feature</t>
   </si>
@@ -4406,24 +4430,15 @@
     <t>* Can stop capturing branches in ring 0.</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>1 KB</t>
   </si>
   <si>
-    <t>Configurable/Vary Per Project</t>
-  </si>
-  <si>
     <t>General (Fuse Puller, PwrCtrl, Clock throttle, PME, S&amp;R)</t>
   </si>
   <si>
     <t>PAE XD bit support (For execution protection)</t>
   </si>
   <si>
-    <t>Standard For All Projects</t>
-  </si>
-  <si>
     <t>IOSF (IOSF-P and IOSF-SB ATT)</t>
   </si>
   <si>
@@ -4439,27 +4454,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>IPC 0 channel (with ISH/OSE): 32DW Data registers</t>
-  </si>
-  <si>
-    <t>IPC 1 channel (with IE/CSME): 32DW Data registers</t>
-  </si>
-  <si>
-    <t>IPC 2 channel (with PMC): 32DW Data registers</t>
-  </si>
-  <si>
-    <t>IPC 3 channel (with IUNIT): 1DW Data registers</t>
-  </si>
-  <si>
-    <t>IPC 4 channel (with PUNIT): 0DW Data registers</t>
-  </si>
-  <si>
-    <t>IPC 5 channel (with cAVS): 1DW Data registers</t>
-  </si>
-  <si>
-    <t>IPC 7 channel (with CNVi): 32DW Data registers</t>
-  </si>
-  <si>
     <t>PMC</t>
   </si>
   <si>
@@ -4469,19 +4463,10 @@
     <t>PUNIT</t>
   </si>
   <si>
-    <t>CAVS</t>
-  </si>
-  <si>
     <t>CNVi</t>
   </si>
   <si>
     <t>WFST</t>
-  </si>
-  <si>
-    <t>IPC 6 channel (with Modem): 32DW Data registers</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>- Added MCC CSE+ Column
@@ -4489,7 +4474,57 @@
 - Improved IPC channels to specifically call out peer IP for the channel so that a channel can be assigned for different IPs according to project</t>
   </si>
   <si>
-    <t>No?</t>
+    <t>IPC 0 channel (default with ISH/OSE)</t>
+  </si>
+  <si>
+    <t>IPC 1 channel (default with IE/CSME)</t>
+  </si>
+  <si>
+    <t>IPC 2 channel (default with PMC)</t>
+  </si>
+  <si>
+    <t>IPC 3 channel (default with IUNIT)</t>
+  </si>
+  <si>
+    <t>IPC 4 channel (default with PUNIT)</t>
+  </si>
+  <si>
+    <t>IPC 5 channel (default with cAVS)</t>
+  </si>
+  <si>
+    <t>IPC 6 channel (default Modem)</t>
+  </si>
+  <si>
+    <t>IPC 7 channel (default with CNVi)</t>
+  </si>
+  <si>
+    <t>cAVS</t>
+  </si>
+  <si>
+    <t>ISI</t>
+  </si>
+  <si>
+    <t>Configurable/Vary Per Project                                                        Configurable/Vary Per Project                                                        Configurable/Vary Per Project                                                        Configurable/Vary Per Project                                                        Configurable/Vary Per Project                                                        Configurable/Vary Per Project                                                        Configurable/Vary Per Project</t>
+  </si>
+  <si>
+    <t>- Added PMT to MCC CSE configuration after mail thread with Praveen</t>
+  </si>
+  <si>
+    <t>Not Applicable
+Not Applicable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard For All Projects                                                                                Standard For All Projects                                                                                Standard For All Projects          
+Standard For All Projects                                                                                Standard For All Projects                                                                                Standard For All Projects          </t>
+  </si>
+  <si>
+    <t>IUNIT?</t>
+  </si>
+  <si>
+    <t>CNVi?</t>
   </si>
 </sst>
 </file>
@@ -4652,7 +4687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4725,14 +4760,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="66">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -5565,11 +5594,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6315,6 +6437,198 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6327,6 +6641,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6360,251 +6677,74 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6918,10 +7058,10 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7331,20 +7471,28 @@
         <v>28</v>
       </c>
       <c r="C30" s="9">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="236"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="236">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9">
+        <v>43081</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="236"/>
@@ -7424,18 +7572,18 @@
   <dimension ref="A1:AD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="S36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="V108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
+      <selection pane="bottomRight" activeCell="AB117" sqref="AB117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="350" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9.7265625" style="17" customWidth="1"/>
     <col min="10" max="13" width="9.7265625" style="28" customWidth="1"/>
     <col min="14" max="29" width="9.7265625" style="17" customWidth="1"/>
@@ -7451,42 +7599,42 @@
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="246"/>
-      <c r="C2" s="344" t="s">
-        <v>357</v>
+      <c r="C2" s="303" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="313" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="325" t="s">
+      <c r="C3" s="309" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="326"/>
+      <c r="D3" s="310"/>
       <c r="E3" s="248"/>
-      <c r="F3" s="253" t="s">
+      <c r="F3" s="318" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="256" t="s">
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="321" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="257"/>
-      <c r="L3" s="258" t="s">
+      <c r="K3" s="322"/>
+      <c r="L3" s="323" t="s">
         <v>325</v>
       </c>
-      <c r="M3" s="259"/>
-      <c r="N3" s="262" t="s">
+      <c r="M3" s="324"/>
+      <c r="N3" s="327" t="s">
         <v>326</v>
       </c>
-      <c r="O3" s="260"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="260" t="s">
+      <c r="O3" s="325"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="325" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="261"/>
+      <c r="R3" s="326"/>
       <c r="S3" s="205" t="s">
         <v>102</v>
       </c>
@@ -7508,27 +7656,27 @@
       <c r="Y3" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="Z3" s="252" t="s">
+      <c r="Z3" s="316" t="s">
         <v>231</v>
       </c>
-      <c r="AA3" s="279"/>
-      <c r="AB3" s="294" t="s">
+      <c r="AA3" s="317"/>
+      <c r="AB3" s="278" t="s">
         <v>340</v>
       </c>
-      <c r="AC3" s="299" t="s">
+      <c r="AC3" s="280" t="s">
         <v>343</v>
       </c>
-      <c r="AD3" s="295" t="s">
+      <c r="AD3" s="306" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="250"/>
-      <c r="C4" s="324" t="s">
+      <c r="B4" s="314"/>
+      <c r="C4" s="311" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="327"/>
-      <c r="E4" s="322" t="s">
+      <c r="D4" s="312"/>
+      <c r="E4" s="300" t="s">
         <v>239</v>
       </c>
       <c r="F4" s="40" t="s">
@@ -7594,26 +7742,26 @@
       <c r="Z4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" s="280" t="s">
+      <c r="AA4" s="264" t="s">
         <v>106</v>
       </c>
       <c r="AB4" s="229" t="s">
         <v>341</v>
       </c>
-      <c r="AC4" s="300" t="s">
+      <c r="AC4" s="281" t="s">
         <v>344</v>
       </c>
-      <c r="AD4" s="296"/>
+      <c r="AD4" s="307"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="251"/>
-      <c r="C5" s="307" t="s">
+      <c r="B5" s="315"/>
+      <c r="C5" s="286" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="328" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="323" t="s">
+      <c r="D5" s="302" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="301" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="92" t="s">
@@ -7679,36 +7827,38 @@
       <c r="Z5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="281" t="s">
+      <c r="AA5" s="265" t="s">
         <v>4</v>
       </c>
       <c r="AB5" s="230" t="s">
         <v>342</v>
       </c>
-      <c r="AC5" s="301" t="s">
+      <c r="AC5" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="AD5" s="297"/>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="329" t="s">
-        <v>355</v>
-      </c>
+      <c r="AD5" s="308"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="351"/>
       <c r="B6" s="54" t="s">
         <v>321</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="316" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="340"/>
-      <c r="F6" s="341"/>
-      <c r="G6" s="341"/>
-      <c r="H6" s="341"/>
-      <c r="I6" s="341"/>
-      <c r="J6" s="342"/>
+      <c r="D6" s="295" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="340" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="341" t="s">
+        <v>378</v>
+      </c>
       <c r="K6" s="342"/>
       <c r="L6" s="342"/>
       <c r="M6" s="342"/>
@@ -7721,1078 +7871,1078 @@
       <c r="T6" s="342"/>
       <c r="U6" s="342"/>
       <c r="V6" s="342"/>
-      <c r="W6" s="343"/>
-      <c r="X6" s="343"/>
-      <c r="Y6" s="343"/>
+      <c r="W6" s="342"/>
+      <c r="X6" s="342"/>
+      <c r="Y6" s="342"/>
       <c r="Z6" s="342"/>
       <c r="AA6" s="342"/>
-      <c r="AB6" s="343"/>
+      <c r="AB6" s="342"/>
       <c r="AC6" s="343"/>
-      <c r="AD6" s="314"/>
-    </row>
-    <row r="7" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="329"/>
+      <c r="AD6" s="293"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="351"/>
       <c r="B7" s="54"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="305"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="332"/>
-      <c r="L7" s="332"/>
-      <c r="M7" s="332"/>
-      <c r="N7" s="333"/>
-      <c r="O7" s="333"/>
-      <c r="P7" s="333"/>
-      <c r="Q7" s="333"/>
-      <c r="R7" s="333"/>
-      <c r="S7" s="333"/>
-      <c r="T7" s="333"/>
-      <c r="U7" s="333"/>
-      <c r="V7" s="333"/>
-      <c r="W7" s="332"/>
-      <c r="X7" s="332"/>
-      <c r="Y7" s="332"/>
-      <c r="Z7" s="333"/>
-      <c r="AA7" s="333"/>
-      <c r="AB7" s="332"/>
-      <c r="AC7" s="332"/>
-      <c r="AD7" s="315"/>
-    </row>
-    <row r="8" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="329"/>
+      <c r="D7" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="334"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="335"/>
+      <c r="H7" s="335"/>
+      <c r="I7" s="336"/>
+      <c r="J7" s="344"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="345"/>
+      <c r="N7" s="345"/>
+      <c r="O7" s="345"/>
+      <c r="P7" s="345"/>
+      <c r="Q7" s="345"/>
+      <c r="R7" s="345"/>
+      <c r="S7" s="345"/>
+      <c r="T7" s="345"/>
+      <c r="U7" s="345"/>
+      <c r="V7" s="345"/>
+      <c r="W7" s="345"/>
+      <c r="X7" s="345"/>
+      <c r="Y7" s="345"/>
+      <c r="Z7" s="345"/>
+      <c r="AA7" s="345"/>
+      <c r="AB7" s="345"/>
+      <c r="AC7" s="346"/>
+      <c r="AD7" s="294"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="351"/>
       <c r="B8" s="54"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="317" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="305"/>
-      <c r="F8" s="331"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="331"/>
-      <c r="I8" s="331"/>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="333"/>
-      <c r="M8" s="333"/>
-      <c r="N8" s="333"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="333"/>
-      <c r="Q8" s="333"/>
-      <c r="R8" s="333"/>
-      <c r="S8" s="333"/>
-      <c r="T8" s="333"/>
-      <c r="U8" s="333"/>
-      <c r="V8" s="333"/>
-      <c r="W8" s="332"/>
-      <c r="X8" s="332"/>
-      <c r="Y8" s="332"/>
-      <c r="Z8" s="333"/>
-      <c r="AA8" s="333"/>
-      <c r="AB8" s="332"/>
-      <c r="AC8" s="332"/>
-      <c r="AD8" s="315"/>
-    </row>
-    <row r="9" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="329"/>
+      <c r="D8" s="296" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="334"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="335"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="345"/>
+      <c r="Q8" s="345"/>
+      <c r="R8" s="345"/>
+      <c r="S8" s="345"/>
+      <c r="T8" s="345"/>
+      <c r="U8" s="345"/>
+      <c r="V8" s="345"/>
+      <c r="W8" s="345"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="345"/>
+      <c r="Z8" s="345"/>
+      <c r="AA8" s="345"/>
+      <c r="AB8" s="345"/>
+      <c r="AC8" s="346"/>
+      <c r="AD8" s="294"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="351"/>
       <c r="B9" s="54"/>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="318" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="305"/>
-      <c r="F9" s="331"/>
-      <c r="G9" s="331"/>
-      <c r="H9" s="331"/>
-      <c r="I9" s="331"/>
-      <c r="J9" s="332"/>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="333"/>
-      <c r="S9" s="333"/>
-      <c r="T9" s="333"/>
-      <c r="U9" s="333"/>
-      <c r="V9" s="333"/>
-      <c r="W9" s="332"/>
-      <c r="X9" s="332"/>
-      <c r="Y9" s="332"/>
-      <c r="Z9" s="333"/>
-      <c r="AA9" s="333"/>
-      <c r="AB9" s="332"/>
-      <c r="AC9" s="332"/>
-      <c r="AD9" s="315"/>
-    </row>
-    <row r="10" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="329"/>
+      <c r="D9" s="297" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="334"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="335"/>
+      <c r="H9" s="335"/>
+      <c r="I9" s="336"/>
+      <c r="J9" s="344"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="345"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="345"/>
+      <c r="R9" s="345"/>
+      <c r="S9" s="345"/>
+      <c r="T9" s="345"/>
+      <c r="U9" s="345"/>
+      <c r="V9" s="345"/>
+      <c r="W9" s="345"/>
+      <c r="X9" s="345"/>
+      <c r="Y9" s="345"/>
+      <c r="Z9" s="345"/>
+      <c r="AA9" s="345"/>
+      <c r="AB9" s="345"/>
+      <c r="AC9" s="346"/>
+      <c r="AD9" s="294"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="351"/>
       <c r="B10" s="54"/>
       <c r="C10" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="317" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="305"/>
-      <c r="F10" s="331"/>
-      <c r="G10" s="331"/>
-      <c r="H10" s="331"/>
-      <c r="I10" s="331"/>
-      <c r="J10" s="333"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="333"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="333"/>
-      <c r="O10" s="333"/>
-      <c r="P10" s="333"/>
-      <c r="Q10" s="333"/>
-      <c r="R10" s="333"/>
-      <c r="S10" s="333"/>
-      <c r="T10" s="333"/>
-      <c r="U10" s="333"/>
-      <c r="V10" s="333"/>
-      <c r="W10" s="332"/>
-      <c r="X10" s="332"/>
-      <c r="Y10" s="332"/>
-      <c r="Z10" s="333"/>
-      <c r="AA10" s="333"/>
-      <c r="AB10" s="332"/>
-      <c r="AC10" s="332"/>
-      <c r="AD10" s="315"/>
-    </row>
-    <row r="11" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="329"/>
+        <v>352</v>
+      </c>
+      <c r="D10" s="296" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="334"/>
+      <c r="F10" s="335"/>
+      <c r="G10" s="335"/>
+      <c r="H10" s="335"/>
+      <c r="I10" s="336"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="345"/>
+      <c r="L10" s="345"/>
+      <c r="M10" s="345"/>
+      <c r="N10" s="345"/>
+      <c r="O10" s="345"/>
+      <c r="P10" s="345"/>
+      <c r="Q10" s="345"/>
+      <c r="R10" s="345"/>
+      <c r="S10" s="345"/>
+      <c r="T10" s="345"/>
+      <c r="U10" s="345"/>
+      <c r="V10" s="345"/>
+      <c r="W10" s="345"/>
+      <c r="X10" s="345"/>
+      <c r="Y10" s="345"/>
+      <c r="Z10" s="345"/>
+      <c r="AA10" s="345"/>
+      <c r="AB10" s="345"/>
+      <c r="AC10" s="346"/>
+      <c r="AD10" s="294"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="351"/>
       <c r="B11" s="54"/>
       <c r="C11" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="317" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="305"/>
-      <c r="F11" s="331"/>
-      <c r="G11" s="331"/>
-      <c r="H11" s="331"/>
-      <c r="I11" s="331"/>
-      <c r="J11" s="333"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="333"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="333"/>
-      <c r="O11" s="333"/>
-      <c r="P11" s="333"/>
-      <c r="Q11" s="333"/>
-      <c r="R11" s="333"/>
-      <c r="S11" s="333"/>
-      <c r="T11" s="333"/>
-      <c r="U11" s="333"/>
-      <c r="V11" s="333"/>
-      <c r="W11" s="332"/>
-      <c r="X11" s="332"/>
-      <c r="Y11" s="332"/>
-      <c r="Z11" s="333"/>
-      <c r="AA11" s="333"/>
-      <c r="AB11" s="332"/>
-      <c r="AC11" s="332"/>
-      <c r="AD11" s="315"/>
-    </row>
-    <row r="12" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="329"/>
+      <c r="D11" s="296" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="334"/>
+      <c r="F11" s="335"/>
+      <c r="G11" s="335"/>
+      <c r="H11" s="335"/>
+      <c r="I11" s="336"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="345"/>
+      <c r="L11" s="345"/>
+      <c r="M11" s="345"/>
+      <c r="N11" s="345"/>
+      <c r="O11" s="345"/>
+      <c r="P11" s="345"/>
+      <c r="Q11" s="345"/>
+      <c r="R11" s="345"/>
+      <c r="S11" s="345"/>
+      <c r="T11" s="345"/>
+      <c r="U11" s="345"/>
+      <c r="V11" s="345"/>
+      <c r="W11" s="345"/>
+      <c r="X11" s="345"/>
+      <c r="Y11" s="345"/>
+      <c r="Z11" s="345"/>
+      <c r="AA11" s="345"/>
+      <c r="AB11" s="345"/>
+      <c r="AC11" s="346"/>
+      <c r="AD11" s="294"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="351"/>
       <c r="B12" s="54"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="319" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="305"/>
-      <c r="F12" s="331"/>
-      <c r="G12" s="331"/>
-      <c r="H12" s="331"/>
-      <c r="I12" s="331"/>
-      <c r="J12" s="333"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="333"/>
-      <c r="P12" s="333"/>
-      <c r="Q12" s="333"/>
-      <c r="R12" s="333"/>
-      <c r="S12" s="333"/>
-      <c r="T12" s="333"/>
-      <c r="U12" s="333"/>
-      <c r="V12" s="333"/>
-      <c r="W12" s="332"/>
-      <c r="X12" s="332"/>
-      <c r="Y12" s="332"/>
-      <c r="Z12" s="333"/>
-      <c r="AA12" s="333"/>
-      <c r="AB12" s="332"/>
-      <c r="AC12" s="332"/>
-      <c r="AD12" s="315"/>
-    </row>
-    <row r="13" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="329"/>
+      <c r="D12" s="298" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="334"/>
+      <c r="F12" s="335"/>
+      <c r="G12" s="335"/>
+      <c r="H12" s="335"/>
+      <c r="I12" s="336"/>
+      <c r="J12" s="344"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="345"/>
+      <c r="N12" s="345"/>
+      <c r="O12" s="345"/>
+      <c r="P12" s="345"/>
+      <c r="Q12" s="345"/>
+      <c r="R12" s="345"/>
+      <c r="S12" s="345"/>
+      <c r="T12" s="345"/>
+      <c r="U12" s="345"/>
+      <c r="V12" s="345"/>
+      <c r="W12" s="345"/>
+      <c r="X12" s="345"/>
+      <c r="Y12" s="345"/>
+      <c r="Z12" s="345"/>
+      <c r="AA12" s="345"/>
+      <c r="AB12" s="345"/>
+      <c r="AC12" s="346"/>
+      <c r="AD12" s="294"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="351"/>
       <c r="B13" s="54"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="320" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="305"/>
-      <c r="F13" s="331"/>
-      <c r="G13" s="331"/>
-      <c r="H13" s="331"/>
-      <c r="I13" s="331"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="332"/>
-      <c r="M13" s="332"/>
-      <c r="N13" s="333"/>
-      <c r="O13" s="333"/>
-      <c r="P13" s="333"/>
-      <c r="Q13" s="333"/>
-      <c r="R13" s="333"/>
-      <c r="S13" s="333"/>
-      <c r="T13" s="333"/>
-      <c r="U13" s="333"/>
-      <c r="V13" s="333"/>
-      <c r="W13" s="332"/>
-      <c r="X13" s="332"/>
-      <c r="Y13" s="332"/>
-      <c r="Z13" s="333"/>
-      <c r="AA13" s="333"/>
-      <c r="AB13" s="332"/>
-      <c r="AC13" s="332"/>
-      <c r="AD13" s="315"/>
-    </row>
-    <row r="14" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="329"/>
+      <c r="D13" s="299" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="334"/>
+      <c r="F13" s="335"/>
+      <c r="G13" s="335"/>
+      <c r="H13" s="335"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="344"/>
+      <c r="K13" s="345"/>
+      <c r="L13" s="345"/>
+      <c r="M13" s="345"/>
+      <c r="N13" s="345"/>
+      <c r="O13" s="345"/>
+      <c r="P13" s="345"/>
+      <c r="Q13" s="345"/>
+      <c r="R13" s="345"/>
+      <c r="S13" s="345"/>
+      <c r="T13" s="345"/>
+      <c r="U13" s="345"/>
+      <c r="V13" s="345"/>
+      <c r="W13" s="345"/>
+      <c r="X13" s="345"/>
+      <c r="Y13" s="345"/>
+      <c r="Z13" s="345"/>
+      <c r="AA13" s="345"/>
+      <c r="AB13" s="345"/>
+      <c r="AC13" s="346"/>
+      <c r="AD13" s="294"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="351"/>
       <c r="B14" s="54"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="319">
+      <c r="D14" s="298">
         <v>32</v>
       </c>
-      <c r="E14" s="305"/>
-      <c r="F14" s="331"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="331"/>
-      <c r="I14" s="331"/>
-      <c r="J14" s="333"/>
-      <c r="K14" s="333"/>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
-      <c r="Q14" s="333"/>
-      <c r="R14" s="333"/>
-      <c r="S14" s="333"/>
-      <c r="T14" s="333"/>
-      <c r="U14" s="333"/>
-      <c r="V14" s="333"/>
-      <c r="W14" s="332"/>
-      <c r="X14" s="332"/>
-      <c r="Y14" s="332"/>
-      <c r="Z14" s="333"/>
-      <c r="AA14" s="333"/>
-      <c r="AB14" s="332"/>
-      <c r="AC14" s="332"/>
-      <c r="AD14" s="315"/>
-    </row>
-    <row r="15" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="329"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="335"/>
+      <c r="G14" s="335"/>
+      <c r="H14" s="335"/>
+      <c r="I14" s="336"/>
+      <c r="J14" s="344"/>
+      <c r="K14" s="345"/>
+      <c r="L14" s="345"/>
+      <c r="M14" s="345"/>
+      <c r="N14" s="345"/>
+      <c r="O14" s="345"/>
+      <c r="P14" s="345"/>
+      <c r="Q14" s="345"/>
+      <c r="R14" s="345"/>
+      <c r="S14" s="345"/>
+      <c r="T14" s="345"/>
+      <c r="U14" s="345"/>
+      <c r="V14" s="345"/>
+      <c r="W14" s="345"/>
+      <c r="X14" s="345"/>
+      <c r="Y14" s="345"/>
+      <c r="Z14" s="345"/>
+      <c r="AA14" s="345"/>
+      <c r="AB14" s="345"/>
+      <c r="AC14" s="346"/>
+      <c r="AD14" s="294"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="351"/>
       <c r="B15" s="54"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="319">
+      <c r="D15" s="298">
         <v>32</v>
       </c>
-      <c r="E15" s="305"/>
-      <c r="F15" s="331"/>
-      <c r="G15" s="331"/>
-      <c r="H15" s="331"/>
-      <c r="I15" s="331"/>
-      <c r="J15" s="333"/>
-      <c r="K15" s="333"/>
-      <c r="L15" s="333"/>
-      <c r="M15" s="333"/>
-      <c r="N15" s="333"/>
-      <c r="O15" s="333"/>
-      <c r="P15" s="333"/>
-      <c r="Q15" s="333"/>
-      <c r="R15" s="333"/>
-      <c r="S15" s="333"/>
-      <c r="T15" s="333"/>
-      <c r="U15" s="333"/>
-      <c r="V15" s="333"/>
-      <c r="W15" s="332"/>
-      <c r="X15" s="332"/>
-      <c r="Y15" s="332"/>
-      <c r="Z15" s="333"/>
-      <c r="AA15" s="333"/>
-      <c r="AB15" s="332"/>
-      <c r="AC15" s="332"/>
-      <c r="AD15" s="315"/>
-    </row>
-    <row r="16" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="329"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="335"/>
+      <c r="G15" s="335"/>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="344"/>
+      <c r="K15" s="345"/>
+      <c r="L15" s="345"/>
+      <c r="M15" s="345"/>
+      <c r="N15" s="345"/>
+      <c r="O15" s="345"/>
+      <c r="P15" s="345"/>
+      <c r="Q15" s="345"/>
+      <c r="R15" s="345"/>
+      <c r="S15" s="345"/>
+      <c r="T15" s="345"/>
+      <c r="U15" s="345"/>
+      <c r="V15" s="345"/>
+      <c r="W15" s="345"/>
+      <c r="X15" s="345"/>
+      <c r="Y15" s="345"/>
+      <c r="Z15" s="345"/>
+      <c r="AA15" s="345"/>
+      <c r="AB15" s="345"/>
+      <c r="AC15" s="346"/>
+      <c r="AD15" s="294"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="351"/>
       <c r="B16" s="54"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="317" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="305"/>
-      <c r="F16" s="331"/>
-      <c r="G16" s="331"/>
-      <c r="H16" s="331"/>
-      <c r="I16" s="331"/>
-      <c r="J16" s="333"/>
-      <c r="K16" s="333"/>
-      <c r="L16" s="333"/>
-      <c r="M16" s="333"/>
-      <c r="N16" s="333"/>
-      <c r="O16" s="333"/>
-      <c r="P16" s="333"/>
-      <c r="Q16" s="333"/>
-      <c r="R16" s="333"/>
-      <c r="S16" s="333"/>
-      <c r="T16" s="333"/>
-      <c r="U16" s="333"/>
-      <c r="V16" s="333"/>
-      <c r="W16" s="332"/>
-      <c r="X16" s="332"/>
-      <c r="Y16" s="332"/>
-      <c r="Z16" s="333"/>
-      <c r="AA16" s="333"/>
-      <c r="AB16" s="333"/>
-      <c r="AC16" s="333"/>
-      <c r="AD16" s="315"/>
-    </row>
-    <row r="17" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="329"/>
+      <c r="D16" s="296" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="334"/>
+      <c r="F16" s="335"/>
+      <c r="G16" s="335"/>
+      <c r="H16" s="335"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="344"/>
+      <c r="K16" s="345"/>
+      <c r="L16" s="345"/>
+      <c r="M16" s="345"/>
+      <c r="N16" s="345"/>
+      <c r="O16" s="345"/>
+      <c r="P16" s="345"/>
+      <c r="Q16" s="345"/>
+      <c r="R16" s="345"/>
+      <c r="S16" s="345"/>
+      <c r="T16" s="345"/>
+      <c r="U16" s="345"/>
+      <c r="V16" s="345"/>
+      <c r="W16" s="345"/>
+      <c r="X16" s="345"/>
+      <c r="Y16" s="345"/>
+      <c r="Z16" s="345"/>
+      <c r="AA16" s="345"/>
+      <c r="AB16" s="345"/>
+      <c r="AC16" s="346"/>
+      <c r="AD16" s="294"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="351"/>
       <c r="B17" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="309" t="s">
+      <c r="D17" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="305"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="331"/>
-      <c r="H17" s="331"/>
-      <c r="I17" s="331"/>
-      <c r="J17" s="333"/>
-      <c r="K17" s="333"/>
-      <c r="L17" s="333"/>
-      <c r="M17" s="333"/>
-      <c r="N17" s="333"/>
-      <c r="O17" s="333"/>
-      <c r="P17" s="333"/>
-      <c r="Q17" s="333"/>
-      <c r="R17" s="333"/>
-      <c r="S17" s="333"/>
-      <c r="T17" s="333"/>
-      <c r="U17" s="333"/>
-      <c r="V17" s="333"/>
-      <c r="W17" s="333"/>
-      <c r="X17" s="333"/>
-      <c r="Y17" s="333"/>
-      <c r="Z17" s="333"/>
-      <c r="AA17" s="333"/>
-      <c r="AB17" s="333"/>
-      <c r="AC17" s="333"/>
-      <c r="AD17" s="315"/>
-    </row>
-    <row r="18" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="329"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="335"/>
+      <c r="I17" s="336"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="345"/>
+      <c r="L17" s="345"/>
+      <c r="M17" s="345"/>
+      <c r="N17" s="345"/>
+      <c r="O17" s="345"/>
+      <c r="P17" s="345"/>
+      <c r="Q17" s="345"/>
+      <c r="R17" s="345"/>
+      <c r="S17" s="345"/>
+      <c r="T17" s="345"/>
+      <c r="U17" s="345"/>
+      <c r="V17" s="345"/>
+      <c r="W17" s="345"/>
+      <c r="X17" s="345"/>
+      <c r="Y17" s="345"/>
+      <c r="Z17" s="345"/>
+      <c r="AA17" s="345"/>
+      <c r="AB17" s="345"/>
+      <c r="AC17" s="346"/>
+      <c r="AD17" s="294"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="351"/>
       <c r="B18" s="54"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="308">
+      <c r="D18" s="287">
         <v>128</v>
       </c>
-      <c r="E18" s="305"/>
-      <c r="F18" s="331"/>
-      <c r="G18" s="331"/>
-      <c r="H18" s="331"/>
-      <c r="I18" s="331"/>
-      <c r="J18" s="333"/>
-      <c r="K18" s="333"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="333"/>
-      <c r="Q18" s="333"/>
-      <c r="R18" s="333"/>
-      <c r="S18" s="333"/>
-      <c r="T18" s="333"/>
-      <c r="U18" s="333"/>
-      <c r="V18" s="333"/>
-      <c r="W18" s="332"/>
-      <c r="X18" s="332"/>
-      <c r="Y18" s="332"/>
-      <c r="Z18" s="333"/>
-      <c r="AA18" s="333"/>
-      <c r="AB18" s="333"/>
-      <c r="AC18" s="333"/>
-      <c r="AD18" s="315"/>
-    </row>
-    <row r="19" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="329"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="335"/>
+      <c r="G18" s="335"/>
+      <c r="H18" s="335"/>
+      <c r="I18" s="336"/>
+      <c r="J18" s="344"/>
+      <c r="K18" s="345"/>
+      <c r="L18" s="345"/>
+      <c r="M18" s="345"/>
+      <c r="N18" s="345"/>
+      <c r="O18" s="345"/>
+      <c r="P18" s="345"/>
+      <c r="Q18" s="345"/>
+      <c r="R18" s="345"/>
+      <c r="S18" s="345"/>
+      <c r="T18" s="345"/>
+      <c r="U18" s="345"/>
+      <c r="V18" s="345"/>
+      <c r="W18" s="345"/>
+      <c r="X18" s="345"/>
+      <c r="Y18" s="345"/>
+      <c r="Z18" s="345"/>
+      <c r="AA18" s="345"/>
+      <c r="AB18" s="345"/>
+      <c r="AC18" s="346"/>
+      <c r="AD18" s="294"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="351"/>
       <c r="B19" s="54"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="308" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="305"/>
-      <c r="F19" s="331"/>
-      <c r="G19" s="331"/>
-      <c r="H19" s="331"/>
-      <c r="I19" s="331"/>
-      <c r="J19" s="333"/>
-      <c r="K19" s="333"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
-      <c r="Q19" s="333"/>
-      <c r="R19" s="333"/>
-      <c r="S19" s="333"/>
-      <c r="T19" s="333"/>
-      <c r="U19" s="333"/>
-      <c r="V19" s="333"/>
-      <c r="W19" s="332"/>
-      <c r="X19" s="332"/>
-      <c r="Y19" s="332"/>
-      <c r="Z19" s="333"/>
-      <c r="AA19" s="333"/>
-      <c r="AB19" s="333"/>
-      <c r="AC19" s="333"/>
-      <c r="AD19" s="315"/>
-    </row>
-    <row r="20" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="329"/>
+      <c r="D19" s="287" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19" s="334"/>
+      <c r="F19" s="335"/>
+      <c r="G19" s="335"/>
+      <c r="H19" s="335"/>
+      <c r="I19" s="336"/>
+      <c r="J19" s="344"/>
+      <c r="K19" s="345"/>
+      <c r="L19" s="345"/>
+      <c r="M19" s="345"/>
+      <c r="N19" s="345"/>
+      <c r="O19" s="345"/>
+      <c r="P19" s="345"/>
+      <c r="Q19" s="345"/>
+      <c r="R19" s="345"/>
+      <c r="S19" s="345"/>
+      <c r="T19" s="345"/>
+      <c r="U19" s="345"/>
+      <c r="V19" s="345"/>
+      <c r="W19" s="345"/>
+      <c r="X19" s="345"/>
+      <c r="Y19" s="345"/>
+      <c r="Z19" s="345"/>
+      <c r="AA19" s="345"/>
+      <c r="AB19" s="345"/>
+      <c r="AC19" s="346"/>
+      <c r="AD19" s="294"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="351"/>
       <c r="B20" s="75"/>
       <c r="C20" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="310" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="305"/>
-      <c r="F20" s="331"/>
-      <c r="G20" s="331"/>
-      <c r="H20" s="331"/>
-      <c r="I20" s="331"/>
-      <c r="J20" s="332"/>
-      <c r="K20" s="332"/>
-      <c r="L20" s="332"/>
-      <c r="M20" s="332"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
-      <c r="Q20" s="333"/>
-      <c r="R20" s="333"/>
-      <c r="S20" s="333"/>
-      <c r="T20" s="333"/>
-      <c r="U20" s="333"/>
-      <c r="V20" s="333"/>
-      <c r="W20" s="332"/>
-      <c r="X20" s="332"/>
-      <c r="Y20" s="332"/>
-      <c r="Z20" s="333"/>
-      <c r="AA20" s="333"/>
-      <c r="AB20" s="333"/>
-      <c r="AC20" s="333"/>
-      <c r="AD20" s="315"/>
-    </row>
-    <row r="21" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="329"/>
-      <c r="B21" s="311" t="s">
+      <c r="D20" s="289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="334"/>
+      <c r="F20" s="335"/>
+      <c r="G20" s="335"/>
+      <c r="H20" s="335"/>
+      <c r="I20" s="336"/>
+      <c r="J20" s="344"/>
+      <c r="K20" s="345"/>
+      <c r="L20" s="345"/>
+      <c r="M20" s="345"/>
+      <c r="N20" s="345"/>
+      <c r="O20" s="345"/>
+      <c r="P20" s="345"/>
+      <c r="Q20" s="345"/>
+      <c r="R20" s="345"/>
+      <c r="S20" s="345"/>
+      <c r="T20" s="345"/>
+      <c r="U20" s="345"/>
+      <c r="V20" s="345"/>
+      <c r="W20" s="345"/>
+      <c r="X20" s="345"/>
+      <c r="Y20" s="345"/>
+      <c r="Z20" s="345"/>
+      <c r="AA20" s="345"/>
+      <c r="AB20" s="345"/>
+      <c r="AC20" s="346"/>
+      <c r="AD20" s="294"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="351"/>
+      <c r="B21" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="312" t="s">
+      <c r="C21" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="313" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="305"/>
-      <c r="F21" s="331"/>
-      <c r="G21" s="331"/>
-      <c r="H21" s="331"/>
-      <c r="I21" s="331"/>
-      <c r="J21" s="333"/>
-      <c r="K21" s="333"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="333"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
-      <c r="Q21" s="333"/>
-      <c r="R21" s="333"/>
-      <c r="S21" s="333"/>
-      <c r="T21" s="333"/>
-      <c r="U21" s="333"/>
-      <c r="V21" s="333"/>
-      <c r="W21" s="332"/>
-      <c r="X21" s="332"/>
-      <c r="Y21" s="332"/>
-      <c r="Z21" s="333"/>
-      <c r="AA21" s="333"/>
-      <c r="AB21" s="333"/>
-      <c r="AC21" s="333"/>
-      <c r="AD21" s="315"/>
-    </row>
-    <row r="22" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="329"/>
+      <c r="D21" s="292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="334"/>
+      <c r="F21" s="335"/>
+      <c r="G21" s="335"/>
+      <c r="H21" s="335"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="344"/>
+      <c r="K21" s="345"/>
+      <c r="L21" s="345"/>
+      <c r="M21" s="345"/>
+      <c r="N21" s="345"/>
+      <c r="O21" s="345"/>
+      <c r="P21" s="345"/>
+      <c r="Q21" s="345"/>
+      <c r="R21" s="345"/>
+      <c r="S21" s="345"/>
+      <c r="T21" s="345"/>
+      <c r="U21" s="345"/>
+      <c r="V21" s="345"/>
+      <c r="W21" s="345"/>
+      <c r="X21" s="345"/>
+      <c r="Y21" s="345"/>
+      <c r="Z21" s="345"/>
+      <c r="AA21" s="345"/>
+      <c r="AB21" s="345"/>
+      <c r="AC21" s="346"/>
+      <c r="AD21" s="294"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="351"/>
       <c r="B22" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="305"/>
-      <c r="F22" s="331"/>
-      <c r="G22" s="331"/>
-      <c r="H22" s="331"/>
-      <c r="I22" s="331"/>
-      <c r="J22" s="332"/>
-      <c r="K22" s="332"/>
-      <c r="L22" s="332"/>
-      <c r="M22" s="332"/>
-      <c r="N22" s="333"/>
-      <c r="O22" s="333"/>
-      <c r="P22" s="333"/>
-      <c r="Q22" s="333"/>
-      <c r="R22" s="333"/>
-      <c r="S22" s="333"/>
-      <c r="T22" s="333"/>
-      <c r="U22" s="333"/>
-      <c r="V22" s="333"/>
-      <c r="W22" s="333"/>
-      <c r="X22" s="333"/>
-      <c r="Y22" s="333"/>
-      <c r="Z22" s="333"/>
-      <c r="AA22" s="333"/>
-      <c r="AB22" s="333"/>
-      <c r="AC22" s="306"/>
+        <v>353</v>
+      </c>
+      <c r="D22" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="334"/>
+      <c r="F22" s="335"/>
+      <c r="G22" s="335"/>
+      <c r="H22" s="335"/>
+      <c r="I22" s="336"/>
+      <c r="J22" s="344"/>
+      <c r="K22" s="345"/>
+      <c r="L22" s="345"/>
+      <c r="M22" s="345"/>
+      <c r="N22" s="345"/>
+      <c r="O22" s="345"/>
+      <c r="P22" s="345"/>
+      <c r="Q22" s="345"/>
+      <c r="R22" s="345"/>
+      <c r="S22" s="345"/>
+      <c r="T22" s="345"/>
+      <c r="U22" s="345"/>
+      <c r="V22" s="345"/>
+      <c r="W22" s="345"/>
+      <c r="X22" s="345"/>
+      <c r="Y22" s="345"/>
+      <c r="Z22" s="345"/>
+      <c r="AA22" s="345"/>
+      <c r="AB22" s="345"/>
+      <c r="AC22" s="346"/>
       <c r="AD22" s="216"/>
     </row>
-    <row r="23" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="329"/>
+    <row r="23" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="351"/>
       <c r="B23" s="54"/>
       <c r="C23" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D23" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="305"/>
-      <c r="F23" s="331"/>
-      <c r="G23" s="331"/>
-      <c r="H23" s="331"/>
-      <c r="I23" s="331"/>
-      <c r="J23" s="332"/>
-      <c r="K23" s="332"/>
-      <c r="L23" s="332"/>
-      <c r="M23" s="332"/>
-      <c r="N23" s="333"/>
-      <c r="O23" s="333"/>
-      <c r="P23" s="333"/>
-      <c r="Q23" s="333"/>
-      <c r="R23" s="333"/>
-      <c r="S23" s="333"/>
-      <c r="T23" s="333"/>
-      <c r="U23" s="333"/>
-      <c r="V23" s="333"/>
-      <c r="W23" s="333"/>
-      <c r="X23" s="333"/>
-      <c r="Y23" s="333"/>
-      <c r="Z23" s="333"/>
-      <c r="AA23" s="333"/>
-      <c r="AB23" s="333"/>
-      <c r="AC23" s="306"/>
+        <v>351</v>
+      </c>
+      <c r="D23" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="334"/>
+      <c r="F23" s="335"/>
+      <c r="G23" s="335"/>
+      <c r="H23" s="335"/>
+      <c r="I23" s="336"/>
+      <c r="J23" s="344"/>
+      <c r="K23" s="345"/>
+      <c r="L23" s="345"/>
+      <c r="M23" s="345"/>
+      <c r="N23" s="345"/>
+      <c r="O23" s="345"/>
+      <c r="P23" s="345"/>
+      <c r="Q23" s="345"/>
+      <c r="R23" s="345"/>
+      <c r="S23" s="345"/>
+      <c r="T23" s="345"/>
+      <c r="U23" s="345"/>
+      <c r="V23" s="345"/>
+      <c r="W23" s="345"/>
+      <c r="X23" s="345"/>
+      <c r="Y23" s="345"/>
+      <c r="Z23" s="345"/>
+      <c r="AA23" s="345"/>
+      <c r="AB23" s="345"/>
+      <c r="AC23" s="346"/>
       <c r="AD23" s="216"/>
     </row>
-    <row r="24" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="329"/>
+    <row r="24" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="351"/>
       <c r="B24" s="54"/>
       <c r="C24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="305"/>
-      <c r="F24" s="331"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="331"/>
-      <c r="I24" s="331"/>
-      <c r="J24" s="332"/>
-      <c r="K24" s="332"/>
-      <c r="L24" s="332"/>
-      <c r="M24" s="332"/>
-      <c r="N24" s="333"/>
-      <c r="O24" s="333"/>
-      <c r="P24" s="333"/>
-      <c r="Q24" s="333"/>
-      <c r="R24" s="333"/>
-      <c r="S24" s="333"/>
-      <c r="T24" s="333"/>
-      <c r="U24" s="333"/>
-      <c r="V24" s="333"/>
-      <c r="W24" s="333"/>
-      <c r="X24" s="333"/>
-      <c r="Y24" s="333"/>
-      <c r="Z24" s="333"/>
-      <c r="AA24" s="333"/>
-      <c r="AB24" s="333"/>
-      <c r="AC24" s="306"/>
+      <c r="D24" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="334"/>
+      <c r="F24" s="335"/>
+      <c r="G24" s="335"/>
+      <c r="H24" s="335"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="344"/>
+      <c r="K24" s="345"/>
+      <c r="L24" s="345"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="345"/>
+      <c r="O24" s="345"/>
+      <c r="P24" s="345"/>
+      <c r="Q24" s="345"/>
+      <c r="R24" s="345"/>
+      <c r="S24" s="345"/>
+      <c r="T24" s="345"/>
+      <c r="U24" s="345"/>
+      <c r="V24" s="345"/>
+      <c r="W24" s="345"/>
+      <c r="X24" s="345"/>
+      <c r="Y24" s="345"/>
+      <c r="Z24" s="345"/>
+      <c r="AA24" s="345"/>
+      <c r="AB24" s="345"/>
+      <c r="AC24" s="346"/>
       <c r="AD24" s="216"/>
     </row>
-    <row r="25" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="329"/>
+    <row r="25" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="351"/>
       <c r="B25" s="54"/>
       <c r="C25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="305"/>
-      <c r="F25" s="331"/>
-      <c r="G25" s="331"/>
-      <c r="H25" s="331"/>
-      <c r="I25" s="331"/>
-      <c r="J25" s="332"/>
-      <c r="K25" s="332"/>
-      <c r="L25" s="332"/>
-      <c r="M25" s="332"/>
-      <c r="N25" s="333"/>
-      <c r="O25" s="333"/>
-      <c r="P25" s="333"/>
-      <c r="Q25" s="333"/>
-      <c r="R25" s="333"/>
-      <c r="S25" s="333"/>
-      <c r="T25" s="333"/>
-      <c r="U25" s="333"/>
-      <c r="V25" s="333"/>
-      <c r="W25" s="333"/>
-      <c r="X25" s="333"/>
-      <c r="Y25" s="333"/>
-      <c r="Z25" s="333"/>
-      <c r="AA25" s="333"/>
-      <c r="AB25" s="333"/>
-      <c r="AC25" s="306"/>
+      <c r="D25" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="334"/>
+      <c r="F25" s="335"/>
+      <c r="G25" s="335"/>
+      <c r="H25" s="335"/>
+      <c r="I25" s="336"/>
+      <c r="J25" s="344"/>
+      <c r="K25" s="345"/>
+      <c r="L25" s="345"/>
+      <c r="M25" s="345"/>
+      <c r="N25" s="345"/>
+      <c r="O25" s="345"/>
+      <c r="P25" s="345"/>
+      <c r="Q25" s="345"/>
+      <c r="R25" s="345"/>
+      <c r="S25" s="345"/>
+      <c r="T25" s="345"/>
+      <c r="U25" s="345"/>
+      <c r="V25" s="345"/>
+      <c r="W25" s="345"/>
+      <c r="X25" s="345"/>
+      <c r="Y25" s="345"/>
+      <c r="Z25" s="345"/>
+      <c r="AA25" s="345"/>
+      <c r="AB25" s="345"/>
+      <c r="AC25" s="346"/>
       <c r="AD25" s="216"/>
     </row>
-    <row r="26" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="329"/>
+    <row r="26" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="351"/>
       <c r="B26" s="54"/>
       <c r="C26" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D26" s="308" t="s">
+      <c r="D26" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="305"/>
-      <c r="F26" s="331"/>
-      <c r="G26" s="331"/>
-      <c r="H26" s="331"/>
-      <c r="I26" s="331"/>
-      <c r="J26" s="333"/>
-      <c r="K26" s="333"/>
-      <c r="L26" s="333"/>
-      <c r="M26" s="333"/>
-      <c r="N26" s="333"/>
-      <c r="O26" s="333"/>
-      <c r="P26" s="333"/>
-      <c r="Q26" s="333"/>
-      <c r="R26" s="333"/>
-      <c r="S26" s="333"/>
-      <c r="T26" s="333"/>
-      <c r="U26" s="333"/>
-      <c r="V26" s="333"/>
-      <c r="W26" s="333"/>
-      <c r="X26" s="333"/>
-      <c r="Y26" s="333"/>
-      <c r="Z26" s="333"/>
-      <c r="AA26" s="333"/>
-      <c r="AB26" s="333"/>
-      <c r="AC26" s="306"/>
+      <c r="E26" s="334"/>
+      <c r="F26" s="335"/>
+      <c r="G26" s="335"/>
+      <c r="H26" s="335"/>
+      <c r="I26" s="336"/>
+      <c r="J26" s="344"/>
+      <c r="K26" s="345"/>
+      <c r="L26" s="345"/>
+      <c r="M26" s="345"/>
+      <c r="N26" s="345"/>
+      <c r="O26" s="345"/>
+      <c r="P26" s="345"/>
+      <c r="Q26" s="345"/>
+      <c r="R26" s="345"/>
+      <c r="S26" s="345"/>
+      <c r="T26" s="345"/>
+      <c r="U26" s="345"/>
+      <c r="V26" s="345"/>
+      <c r="W26" s="345"/>
+      <c r="X26" s="345"/>
+      <c r="Y26" s="345"/>
+      <c r="Z26" s="345"/>
+      <c r="AA26" s="345"/>
+      <c r="AB26" s="345"/>
+      <c r="AC26" s="346"/>
       <c r="AD26" s="216"/>
     </row>
-    <row r="27" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="329"/>
+    <row r="27" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="351"/>
       <c r="B27" s="54"/>
       <c r="C27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="308" t="s">
+      <c r="D27" s="287" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="305"/>
-      <c r="F27" s="331"/>
-      <c r="G27" s="331"/>
-      <c r="H27" s="331"/>
-      <c r="I27" s="331"/>
-      <c r="J27" s="333"/>
-      <c r="K27" s="333"/>
-      <c r="L27" s="333"/>
-      <c r="M27" s="333"/>
-      <c r="N27" s="333"/>
-      <c r="O27" s="333"/>
-      <c r="P27" s="333"/>
-      <c r="Q27" s="333"/>
-      <c r="R27" s="333"/>
-      <c r="S27" s="333"/>
-      <c r="T27" s="333"/>
-      <c r="U27" s="333"/>
-      <c r="V27" s="333"/>
-      <c r="W27" s="333"/>
-      <c r="X27" s="333"/>
-      <c r="Y27" s="333"/>
-      <c r="Z27" s="333"/>
-      <c r="AA27" s="333"/>
-      <c r="AB27" s="333"/>
-      <c r="AC27" s="306"/>
+      <c r="E27" s="334"/>
+      <c r="F27" s="335"/>
+      <c r="G27" s="335"/>
+      <c r="H27" s="335"/>
+      <c r="I27" s="336"/>
+      <c r="J27" s="344"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="345"/>
+      <c r="M27" s="345"/>
+      <c r="N27" s="345"/>
+      <c r="O27" s="345"/>
+      <c r="P27" s="345"/>
+      <c r="Q27" s="345"/>
+      <c r="R27" s="345"/>
+      <c r="S27" s="345"/>
+      <c r="T27" s="345"/>
+      <c r="U27" s="345"/>
+      <c r="V27" s="345"/>
+      <c r="W27" s="345"/>
+      <c r="X27" s="345"/>
+      <c r="Y27" s="345"/>
+      <c r="Z27" s="345"/>
+      <c r="AA27" s="345"/>
+      <c r="AB27" s="345"/>
+      <c r="AC27" s="346"/>
       <c r="AD27" s="216"/>
     </row>
-    <row r="28" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="329"/>
+    <row r="28" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="351"/>
       <c r="B28" s="54"/>
       <c r="C28" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="308" t="s">
+      <c r="D28" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="305"/>
-      <c r="F28" s="331"/>
-      <c r="G28" s="331"/>
-      <c r="H28" s="331"/>
-      <c r="I28" s="331"/>
-      <c r="J28" s="333"/>
-      <c r="K28" s="333"/>
-      <c r="L28" s="333"/>
-      <c r="M28" s="333"/>
-      <c r="N28" s="333"/>
-      <c r="O28" s="333"/>
-      <c r="P28" s="333"/>
-      <c r="Q28" s="333"/>
-      <c r="R28" s="333"/>
-      <c r="S28" s="333"/>
-      <c r="T28" s="333"/>
-      <c r="U28" s="333"/>
-      <c r="V28" s="333"/>
-      <c r="W28" s="333"/>
-      <c r="X28" s="333"/>
-      <c r="Y28" s="333"/>
-      <c r="Z28" s="333"/>
-      <c r="AA28" s="333"/>
-      <c r="AB28" s="333"/>
-      <c r="AC28" s="306"/>
+      <c r="E28" s="334"/>
+      <c r="F28" s="335"/>
+      <c r="G28" s="335"/>
+      <c r="H28" s="335"/>
+      <c r="I28" s="336"/>
+      <c r="J28" s="344"/>
+      <c r="K28" s="345"/>
+      <c r="L28" s="345"/>
+      <c r="M28" s="345"/>
+      <c r="N28" s="345"/>
+      <c r="O28" s="345"/>
+      <c r="P28" s="345"/>
+      <c r="Q28" s="345"/>
+      <c r="R28" s="345"/>
+      <c r="S28" s="345"/>
+      <c r="T28" s="345"/>
+      <c r="U28" s="345"/>
+      <c r="V28" s="345"/>
+      <c r="W28" s="345"/>
+      <c r="X28" s="345"/>
+      <c r="Y28" s="345"/>
+      <c r="Z28" s="345"/>
+      <c r="AA28" s="345"/>
+      <c r="AB28" s="345"/>
+      <c r="AC28" s="346"/>
       <c r="AD28" s="216" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="329"/>
+    <row r="29" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="351"/>
       <c r="B29" s="54"/>
       <c r="C29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="305"/>
-      <c r="F29" s="331"/>
-      <c r="G29" s="331"/>
-      <c r="H29" s="331"/>
-      <c r="I29" s="331"/>
-      <c r="J29" s="333"/>
-      <c r="K29" s="333"/>
-      <c r="L29" s="333"/>
-      <c r="M29" s="333"/>
-      <c r="N29" s="333"/>
-      <c r="O29" s="333"/>
-      <c r="P29" s="333"/>
-      <c r="Q29" s="333"/>
-      <c r="R29" s="333"/>
-      <c r="S29" s="333"/>
-      <c r="T29" s="333"/>
-      <c r="U29" s="333"/>
-      <c r="V29" s="333"/>
-      <c r="W29" s="333"/>
-      <c r="X29" s="333"/>
-      <c r="Y29" s="333"/>
-      <c r="Z29" s="333"/>
-      <c r="AA29" s="333"/>
-      <c r="AB29" s="333"/>
-      <c r="AC29" s="306"/>
+      <c r="D29" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="334"/>
+      <c r="F29" s="335"/>
+      <c r="G29" s="335"/>
+      <c r="H29" s="335"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="344"/>
+      <c r="K29" s="345"/>
+      <c r="L29" s="345"/>
+      <c r="M29" s="345"/>
+      <c r="N29" s="345"/>
+      <c r="O29" s="345"/>
+      <c r="P29" s="345"/>
+      <c r="Q29" s="345"/>
+      <c r="R29" s="345"/>
+      <c r="S29" s="345"/>
+      <c r="T29" s="345"/>
+      <c r="U29" s="345"/>
+      <c r="V29" s="345"/>
+      <c r="W29" s="345"/>
+      <c r="X29" s="345"/>
+      <c r="Y29" s="345"/>
+      <c r="Z29" s="345"/>
+      <c r="AA29" s="345"/>
+      <c r="AB29" s="345"/>
+      <c r="AC29" s="346"/>
       <c r="AD29" s="216"/>
     </row>
-    <row r="30" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="329"/>
+    <row r="30" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="351"/>
       <c r="B30" s="54"/>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="308" t="s">
+      <c r="D30" s="287" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="305"/>
-      <c r="F30" s="331"/>
-      <c r="G30" s="331"/>
-      <c r="H30" s="331"/>
-      <c r="I30" s="331"/>
-      <c r="J30" s="333"/>
-      <c r="K30" s="333"/>
-      <c r="L30" s="333"/>
-      <c r="M30" s="333"/>
-      <c r="N30" s="333"/>
-      <c r="O30" s="333"/>
-      <c r="P30" s="333"/>
-      <c r="Q30" s="333"/>
-      <c r="R30" s="333"/>
-      <c r="S30" s="333"/>
-      <c r="T30" s="333"/>
-      <c r="U30" s="333"/>
-      <c r="V30" s="333"/>
-      <c r="W30" s="333"/>
-      <c r="X30" s="333"/>
-      <c r="Y30" s="333"/>
-      <c r="Z30" s="333"/>
-      <c r="AA30" s="333"/>
-      <c r="AB30" s="333"/>
-      <c r="AC30" s="306"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="335"/>
+      <c r="G30" s="335"/>
+      <c r="H30" s="335"/>
+      <c r="I30" s="336"/>
+      <c r="J30" s="344"/>
+      <c r="K30" s="345"/>
+      <c r="L30" s="345"/>
+      <c r="M30" s="345"/>
+      <c r="N30" s="345"/>
+      <c r="O30" s="345"/>
+      <c r="P30" s="345"/>
+      <c r="Q30" s="345"/>
+      <c r="R30" s="345"/>
+      <c r="S30" s="345"/>
+      <c r="T30" s="345"/>
+      <c r="U30" s="345"/>
+      <c r="V30" s="345"/>
+      <c r="W30" s="345"/>
+      <c r="X30" s="345"/>
+      <c r="Y30" s="345"/>
+      <c r="Z30" s="345"/>
+      <c r="AA30" s="345"/>
+      <c r="AB30" s="345"/>
+      <c r="AC30" s="346"/>
       <c r="AD30" s="216"/>
     </row>
-    <row r="31" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="329"/>
+    <row r="31" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="351"/>
       <c r="B31" s="54"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="305"/>
-      <c r="F31" s="331"/>
-      <c r="G31" s="331"/>
-      <c r="H31" s="331"/>
-      <c r="I31" s="331"/>
-      <c r="J31" s="332"/>
-      <c r="K31" s="332"/>
-      <c r="L31" s="332"/>
-      <c r="M31" s="332"/>
-      <c r="N31" s="333"/>
-      <c r="O31" s="333"/>
-      <c r="P31" s="333"/>
-      <c r="Q31" s="333"/>
-      <c r="R31" s="333"/>
-      <c r="S31" s="333"/>
-      <c r="T31" s="333"/>
-      <c r="U31" s="333"/>
-      <c r="V31" s="333"/>
-      <c r="W31" s="333"/>
-      <c r="X31" s="333"/>
-      <c r="Y31" s="333"/>
-      <c r="Z31" s="333"/>
-      <c r="AA31" s="333"/>
-      <c r="AB31" s="333"/>
-      <c r="AC31" s="306"/>
+      <c r="D31" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="334"/>
+      <c r="F31" s="335"/>
+      <c r="G31" s="335"/>
+      <c r="H31" s="335"/>
+      <c r="I31" s="336"/>
+      <c r="J31" s="344"/>
+      <c r="K31" s="345"/>
+      <c r="L31" s="345"/>
+      <c r="M31" s="345"/>
+      <c r="N31" s="345"/>
+      <c r="O31" s="345"/>
+      <c r="P31" s="345"/>
+      <c r="Q31" s="345"/>
+      <c r="R31" s="345"/>
+      <c r="S31" s="345"/>
+      <c r="T31" s="345"/>
+      <c r="U31" s="345"/>
+      <c r="V31" s="345"/>
+      <c r="W31" s="345"/>
+      <c r="X31" s="345"/>
+      <c r="Y31" s="345"/>
+      <c r="Z31" s="345"/>
+      <c r="AA31" s="345"/>
+      <c r="AB31" s="345"/>
+      <c r="AC31" s="346"/>
       <c r="AD31" s="216"/>
     </row>
-    <row r="32" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="329"/>
+    <row r="32" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="351"/>
       <c r="B32" s="54"/>
       <c r="C32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="305"/>
-      <c r="F32" s="331"/>
-      <c r="G32" s="331"/>
-      <c r="H32" s="331"/>
-      <c r="I32" s="331"/>
-      <c r="J32" s="332"/>
-      <c r="K32" s="332"/>
-      <c r="L32" s="332"/>
-      <c r="M32" s="332"/>
-      <c r="N32" s="333"/>
-      <c r="O32" s="333"/>
-      <c r="P32" s="333"/>
-      <c r="Q32" s="333"/>
-      <c r="R32" s="333"/>
-      <c r="S32" s="333"/>
-      <c r="T32" s="333"/>
-      <c r="U32" s="333"/>
-      <c r="V32" s="333"/>
-      <c r="W32" s="333"/>
-      <c r="X32" s="333"/>
-      <c r="Y32" s="333"/>
-      <c r="Z32" s="333"/>
-      <c r="AA32" s="333"/>
-      <c r="AB32" s="333"/>
-      <c r="AC32" s="306"/>
+      <c r="D32" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="334"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
+      <c r="H32" s="335"/>
+      <c r="I32" s="336"/>
+      <c r="J32" s="344"/>
+      <c r="K32" s="345"/>
+      <c r="L32" s="345"/>
+      <c r="M32" s="345"/>
+      <c r="N32" s="345"/>
+      <c r="O32" s="345"/>
+      <c r="P32" s="345"/>
+      <c r="Q32" s="345"/>
+      <c r="R32" s="345"/>
+      <c r="S32" s="345"/>
+      <c r="T32" s="345"/>
+      <c r="U32" s="345"/>
+      <c r="V32" s="345"/>
+      <c r="W32" s="345"/>
+      <c r="X32" s="345"/>
+      <c r="Y32" s="345"/>
+      <c r="Z32" s="345"/>
+      <c r="AA32" s="345"/>
+      <c r="AB32" s="345"/>
+      <c r="AC32" s="346"/>
       <c r="AD32" s="216"/>
     </row>
-    <row r="33" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="329"/>
+    <row r="33" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="351"/>
       <c r="B33" s="54"/>
       <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="305"/>
-      <c r="F33" s="331"/>
-      <c r="G33" s="331"/>
-      <c r="H33" s="331"/>
-      <c r="I33" s="331"/>
-      <c r="J33" s="332"/>
-      <c r="K33" s="332"/>
-      <c r="L33" s="332"/>
-      <c r="M33" s="332"/>
-      <c r="N33" s="333"/>
-      <c r="O33" s="333"/>
-      <c r="P33" s="333"/>
-      <c r="Q33" s="333"/>
-      <c r="R33" s="333"/>
-      <c r="S33" s="333"/>
-      <c r="T33" s="333"/>
-      <c r="U33" s="333"/>
-      <c r="V33" s="333"/>
-      <c r="W33" s="333"/>
-      <c r="X33" s="333"/>
-      <c r="Y33" s="333"/>
-      <c r="Z33" s="333"/>
-      <c r="AA33" s="333"/>
-      <c r="AB33" s="333"/>
-      <c r="AC33" s="306"/>
+      <c r="D33" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="334"/>
+      <c r="F33" s="335"/>
+      <c r="G33" s="335"/>
+      <c r="H33" s="335"/>
+      <c r="I33" s="336"/>
+      <c r="J33" s="344"/>
+      <c r="K33" s="345"/>
+      <c r="L33" s="345"/>
+      <c r="M33" s="345"/>
+      <c r="N33" s="345"/>
+      <c r="O33" s="345"/>
+      <c r="P33" s="345"/>
+      <c r="Q33" s="345"/>
+      <c r="R33" s="345"/>
+      <c r="S33" s="345"/>
+      <c r="T33" s="345"/>
+      <c r="U33" s="345"/>
+      <c r="V33" s="345"/>
+      <c r="W33" s="345"/>
+      <c r="X33" s="345"/>
+      <c r="Y33" s="345"/>
+      <c r="Z33" s="345"/>
+      <c r="AA33" s="345"/>
+      <c r="AB33" s="345"/>
+      <c r="AC33" s="346"/>
       <c r="AD33" s="216"/>
     </row>
-    <row r="34" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="329"/>
+    <row r="34" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="351"/>
       <c r="B34" s="54"/>
       <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="308" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="305"/>
-      <c r="F34" s="331"/>
-      <c r="G34" s="331"/>
-      <c r="H34" s="331"/>
-      <c r="I34" s="331"/>
-      <c r="J34" s="332"/>
-      <c r="K34" s="332"/>
-      <c r="L34" s="332"/>
-      <c r="M34" s="332"/>
-      <c r="N34" s="333"/>
-      <c r="O34" s="333"/>
-      <c r="P34" s="333"/>
-      <c r="Q34" s="333"/>
-      <c r="R34" s="333"/>
-      <c r="S34" s="333"/>
-      <c r="T34" s="333"/>
-      <c r="U34" s="333"/>
-      <c r="V34" s="333"/>
-      <c r="W34" s="333"/>
-      <c r="X34" s="333"/>
-      <c r="Y34" s="333"/>
-      <c r="Z34" s="333"/>
-      <c r="AA34" s="333"/>
-      <c r="AB34" s="333"/>
-      <c r="AC34" s="306"/>
+      <c r="D34" s="287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="334"/>
+      <c r="F34" s="335"/>
+      <c r="G34" s="335"/>
+      <c r="H34" s="335"/>
+      <c r="I34" s="336"/>
+      <c r="J34" s="344"/>
+      <c r="K34" s="345"/>
+      <c r="L34" s="345"/>
+      <c r="M34" s="345"/>
+      <c r="N34" s="345"/>
+      <c r="O34" s="345"/>
+      <c r="P34" s="345"/>
+      <c r="Q34" s="345"/>
+      <c r="R34" s="345"/>
+      <c r="S34" s="345"/>
+      <c r="T34" s="345"/>
+      <c r="U34" s="345"/>
+      <c r="V34" s="345"/>
+      <c r="W34" s="345"/>
+      <c r="X34" s="345"/>
+      <c r="Y34" s="345"/>
+      <c r="Z34" s="345"/>
+      <c r="AA34" s="345"/>
+      <c r="AB34" s="345"/>
+      <c r="AC34" s="346"/>
       <c r="AD34" s="216"/>
     </row>
-    <row r="35" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="329"/>
+    <row r="35" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="351"/>
       <c r="B35" s="75"/>
       <c r="C35" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="310" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="305"/>
-      <c r="F35" s="331"/>
-      <c r="G35" s="331"/>
-      <c r="H35" s="331"/>
-      <c r="I35" s="331"/>
-      <c r="J35" s="332"/>
-      <c r="K35" s="332"/>
-      <c r="L35" s="332"/>
-      <c r="M35" s="332"/>
-      <c r="N35" s="333"/>
-      <c r="O35" s="333"/>
-      <c r="P35" s="333"/>
-      <c r="Q35" s="333"/>
-      <c r="R35" s="333"/>
-      <c r="S35" s="333"/>
-      <c r="T35" s="333"/>
-      <c r="U35" s="333"/>
-      <c r="V35" s="333"/>
-      <c r="W35" s="333"/>
-      <c r="X35" s="333"/>
-      <c r="Y35" s="333"/>
-      <c r="Z35" s="333"/>
-      <c r="AA35" s="333"/>
-      <c r="AB35" s="333"/>
-      <c r="AC35" s="306"/>
+      <c r="D35" s="289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="337"/>
+      <c r="F35" s="338"/>
+      <c r="G35" s="338"/>
+      <c r="H35" s="338"/>
+      <c r="I35" s="339"/>
+      <c r="J35" s="347"/>
+      <c r="K35" s="348"/>
+      <c r="L35" s="348"/>
+      <c r="M35" s="348"/>
+      <c r="N35" s="348"/>
+      <c r="O35" s="348"/>
+      <c r="P35" s="348"/>
+      <c r="Q35" s="348"/>
+      <c r="R35" s="348"/>
+      <c r="S35" s="348"/>
+      <c r="T35" s="348"/>
+      <c r="U35" s="348"/>
+      <c r="V35" s="348"/>
+      <c r="W35" s="348"/>
+      <c r="X35" s="348"/>
+      <c r="Y35" s="348"/>
+      <c r="Z35" s="348"/>
+      <c r="AA35" s="348"/>
+      <c r="AB35" s="348"/>
+      <c r="AC35" s="349"/>
       <c r="AD35" s="216"/>
     </row>
-    <row r="36" spans="1:30" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="330" t="s">
-        <v>352</v>
-      </c>
+    <row r="36" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="351"/>
       <c r="B36" s="48" t="s">
         <v>321</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="334"/>
+      <c r="D36" s="329" t="s">
+        <v>374</v>
+      </c>
       <c r="E36" s="119"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
@@ -8849,22 +8999,22 @@
       <c r="Z36" s="53">
         <v>3.6</v>
       </c>
-      <c r="AA36" s="282">
+      <c r="AA36" s="266">
         <v>3.6</v>
       </c>
       <c r="AB36" s="200">
         <v>3.6</v>
       </c>
-      <c r="AC36" s="277"/>
+      <c r="AC36" s="262"/>
       <c r="AD36" s="74"/>
     </row>
-    <row r="37" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="330"/>
+    <row r="37" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="351"/>
       <c r="B37" s="54"/>
       <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="335"/>
+      <c r="D37" s="330"/>
       <c r="E37" s="121"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -8927,16 +9077,16 @@
       <c r="AB37" s="156">
         <v>1.79</v>
       </c>
-      <c r="AC37" s="266"/>
+      <c r="AC37" s="251"/>
       <c r="AD37" s="216"/>
     </row>
-    <row r="38" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="330"/>
+    <row r="38" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="351"/>
       <c r="B38" s="54"/>
       <c r="C38" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="335"/>
+      <c r="D38" s="330"/>
       <c r="E38" s="121"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -8999,16 +9149,16 @@
       <c r="AB38" s="156">
         <v>384</v>
       </c>
-      <c r="AC38" s="266"/>
+      <c r="AC38" s="251"/>
       <c r="AD38" s="216"/>
     </row>
-    <row r="39" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="330"/>
+    <row r="39" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="351"/>
       <c r="B39" s="54"/>
       <c r="C39" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="335"/>
+      <c r="D39" s="330"/>
       <c r="E39" s="121"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -9065,22 +9215,22 @@
       <c r="Z39" s="16">
         <v>120</v>
       </c>
-      <c r="AA39" s="283">
+      <c r="AA39" s="267">
         <v>120</v>
       </c>
       <c r="AB39" s="136">
         <v>200</v>
       </c>
-      <c r="AC39" s="265"/>
+      <c r="AC39" s="250"/>
       <c r="AD39" s="216"/>
     </row>
-    <row r="40" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="330"/>
+    <row r="40" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="351"/>
       <c r="B40" s="54"/>
       <c r="C40" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="335"/>
+      <c r="D40" s="330"/>
       <c r="E40" s="121"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -9143,16 +9293,16 @@
       <c r="AB40" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AC40" s="266"/>
+      <c r="AC40" s="251"/>
       <c r="AD40" s="216"/>
     </row>
-    <row r="41" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="330"/>
+    <row r="41" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="351"/>
       <c r="B41" s="54"/>
       <c r="C41" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="335"/>
+      <c r="D41" s="330"/>
       <c r="E41" s="121"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -9215,16 +9365,16 @@
       <c r="AB41" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="AC41" s="265"/>
+      <c r="AC41" s="250"/>
       <c r="AD41" s="216"/>
     </row>
-    <row r="42" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="330"/>
+    <row r="42" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="351"/>
       <c r="B42" s="54"/>
       <c r="C42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="335"/>
+      <c r="D42" s="330"/>
       <c r="E42" s="121"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -9287,16 +9437,16 @@
       <c r="AB42" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="AC42" s="298"/>
+      <c r="AC42" s="279"/>
       <c r="AD42" s="216"/>
     </row>
-    <row r="43" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="330"/>
+    <row r="43" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="351"/>
       <c r="B43" s="54"/>
       <c r="C43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="335"/>
+      <c r="D43" s="330"/>
       <c r="E43" s="121"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -9333,16 +9483,16 @@
       <c r="AB43" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC43" s="266"/>
+      <c r="AC43" s="251"/>
       <c r="AD43" s="217"/>
     </row>
-    <row r="44" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="330"/>
+    <row r="44" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="351"/>
       <c r="B44" s="54"/>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="335"/>
+      <c r="D44" s="330"/>
       <c r="E44" s="121"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -9405,16 +9555,16 @@
       <c r="AB44" s="136" t="s">
         <v>309</v>
       </c>
-      <c r="AC44" s="265"/>
+      <c r="AC44" s="250"/>
       <c r="AD44" s="216"/>
     </row>
-    <row r="45" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="330"/>
+    <row r="45" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="351"/>
       <c r="B45" s="54"/>
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="335"/>
+      <c r="D45" s="330"/>
       <c r="E45" s="121"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -9469,16 +9619,16 @@
       <c r="AB45" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC45" s="266"/>
+      <c r="AC45" s="251"/>
       <c r="AD45" s="216"/>
     </row>
-    <row r="46" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="330"/>
+    <row r="46" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="351"/>
       <c r="B46" s="54"/>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="335"/>
+      <c r="D46" s="330"/>
       <c r="E46" s="121"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -9533,18 +9683,18 @@
       <c r="AB46" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="AC46" s="266"/>
+      <c r="AC46" s="251"/>
       <c r="AD46" s="216" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="330"/>
+    <row r="47" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="351"/>
       <c r="B47" s="54"/>
       <c r="C47" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="335"/>
+      <c r="D47" s="330"/>
       <c r="E47" s="121"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -9589,16 +9739,16 @@
       <c r="AB47" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AC47" s="266"/>
+      <c r="AC47" s="251"/>
       <c r="AD47" s="216"/>
     </row>
-    <row r="48" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="330"/>
+    <row r="48" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="351"/>
       <c r="B48" s="75"/>
       <c r="C48" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="D48" s="336"/>
+      <c r="D48" s="330"/>
       <c r="E48" s="123"/>
       <c r="F48" s="77"/>
       <c r="G48" s="77"/>
@@ -9623,24 +9773,24 @@
       <c r="Z48" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA48" s="284" t="s">
+      <c r="AA48" s="268" t="s">
         <v>10</v>
       </c>
       <c r="AB48" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="AC48" s="267"/>
+      <c r="AC48" s="252"/>
       <c r="AD48" s="218"/>
     </row>
-    <row r="49" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="330"/>
+    <row r="49" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="351"/>
       <c r="B49" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="334"/>
+      <c r="D49" s="330"/>
       <c r="E49" s="121"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -9703,16 +9853,16 @@
       <c r="AB49" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="AC49" s="265"/>
+      <c r="AC49" s="250"/>
       <c r="AD49" s="216"/>
     </row>
-    <row r="50" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="330"/>
+    <row r="50" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="351"/>
       <c r="B50" s="54"/>
       <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="335"/>
+      <c r="D50" s="330"/>
       <c r="E50" s="121"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -9741,16 +9891,16 @@
       <c r="AB50" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC50" s="265"/>
+      <c r="AC50" s="250"/>
       <c r="AD50" s="216"/>
     </row>
-    <row r="51" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="330"/>
+    <row r="51" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="351"/>
       <c r="B51" s="54"/>
       <c r="C51" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="335"/>
+      <c r="D51" s="330"/>
       <c r="E51" s="121"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -9779,16 +9929,16 @@
       <c r="AB51" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC51" s="265"/>
+      <c r="AC51" s="250"/>
       <c r="AD51" s="216"/>
     </row>
-    <row r="52" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="330"/>
+    <row r="52" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="351"/>
       <c r="B52" s="75"/>
       <c r="C52" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="336"/>
+      <c r="D52" s="330"/>
       <c r="E52" s="123"/>
       <c r="F52" s="77"/>
       <c r="G52" s="77"/>
@@ -9811,20 +9961,20 @@
       <c r="X52" s="61"/>
       <c r="Y52" s="61"/>
       <c r="Z52" s="61"/>
-      <c r="AA52" s="285"/>
+      <c r="AA52" s="269"/>
       <c r="AB52" s="170"/>
-      <c r="AC52" s="303"/>
+      <c r="AC52" s="284"/>
       <c r="AD52" s="218"/>
     </row>
-    <row r="53" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="330"/>
+    <row r="53" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="351"/>
       <c r="B53" s="48" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="334"/>
+      <c r="D53" s="330"/>
       <c r="E53" s="119"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
@@ -9881,24 +10031,24 @@
       <c r="Z53" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AA53" s="282" t="s">
+      <c r="AA53" s="266" t="s">
         <v>31</v>
       </c>
       <c r="AB53" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="AC53" s="264"/>
+      <c r="AC53" s="249"/>
       <c r="AD53" s="74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="330"/>
+    <row r="54" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="351"/>
       <c r="B54" s="54"/>
       <c r="C54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="335"/>
+      <c r="D54" s="330"/>
       <c r="E54" s="121"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -9961,18 +10111,18 @@
       <c r="AB54" s="136" t="s">
         <v>346</v>
       </c>
-      <c r="AC54" s="265"/>
+      <c r="AC54" s="250"/>
       <c r="AD54" s="216" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="330"/>
+    <row r="55" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="351"/>
       <c r="B55" s="80"/>
       <c r="C55" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="336"/>
+      <c r="D55" s="330"/>
       <c r="E55" s="125"/>
       <c r="F55" s="81"/>
       <c r="G55" s="81"/>
@@ -10003,24 +10153,24 @@
       <c r="Z55" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA55" s="284" t="s">
+      <c r="AA55" s="268" t="s">
         <v>10</v>
       </c>
       <c r="AB55" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="AC55" s="267"/>
+      <c r="AC55" s="252"/>
       <c r="AD55" s="219"/>
     </row>
-    <row r="56" spans="1:30" s="45" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="330"/>
+    <row r="56" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="351"/>
       <c r="B56" s="82" t="s">
         <v>316</v>
       </c>
       <c r="C56" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="D56" s="321"/>
+      <c r="D56" s="330"/>
       <c r="E56" s="126"/>
       <c r="F56" s="84"/>
       <c r="G56" s="84"/>
@@ -10043,24 +10193,24 @@
       <c r="X56" s="85"/>
       <c r="Y56" s="85"/>
       <c r="Z56" s="85"/>
-      <c r="AA56" s="286" t="s">
+      <c r="AA56" s="270" t="s">
         <v>10</v>
       </c>
       <c r="AB56" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="AC56" s="268"/>
+      <c r="AC56" s="253"/>
       <c r="AD56" s="220"/>
     </row>
-    <row r="57" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="330"/>
+    <row r="57" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="351"/>
       <c r="B57" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="334"/>
+      <c r="D57" s="330"/>
       <c r="E57" s="119" t="s">
         <v>19</v>
       </c>
@@ -10127,22 +10277,22 @@
       <c r="Z57" s="53">
         <v>1</v>
       </c>
-      <c r="AA57" s="282">
+      <c r="AA57" s="266">
         <v>1</v>
       </c>
       <c r="AB57" s="194">
         <v>1</v>
       </c>
-      <c r="AC57" s="264"/>
+      <c r="AC57" s="249"/>
       <c r="AD57" s="74"/>
     </row>
-    <row r="58" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="330"/>
+    <row r="58" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="351"/>
       <c r="B58" s="55"/>
       <c r="C58" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="335"/>
+      <c r="D58" s="330"/>
       <c r="E58" s="128"/>
       <c r="F58" s="47" t="s">
         <v>10</v>
@@ -10213,16 +10363,16 @@
       <c r="AB58" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AC58" s="269"/>
+      <c r="AC58" s="254"/>
       <c r="AD58" s="221"/>
     </row>
-    <row r="59" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="330"/>
+    <row r="59" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="351"/>
       <c r="B59" s="55"/>
       <c r="C59" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="335"/>
+      <c r="D59" s="330"/>
       <c r="E59" s="130" t="s">
         <v>10</v>
       </c>
@@ -10289,22 +10439,22 @@
       <c r="Z59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA59" s="283" t="s">
+      <c r="AA59" s="267" t="s">
         <v>10</v>
       </c>
       <c r="AB59" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC59" s="270"/>
+      <c r="AC59" s="255"/>
       <c r="AD59" s="221"/>
     </row>
-    <row r="60" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="330"/>
+    <row r="60" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="351"/>
       <c r="B60" s="54"/>
       <c r="C60" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="335"/>
+      <c r="D60" s="330"/>
       <c r="E60" s="121" t="s">
         <v>10</v>
       </c>
@@ -10377,16 +10527,16 @@
       <c r="AB60" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC60" s="265"/>
+      <c r="AC60" s="250"/>
       <c r="AD60" s="216"/>
     </row>
-    <row r="61" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="330"/>
+    <row r="61" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="351"/>
       <c r="B61" s="54"/>
       <c r="C61" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="337"/>
+      <c r="D61" s="330"/>
       <c r="E61" s="131"/>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -10431,18 +10581,18 @@
       <c r="AB61" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC61" s="265"/>
+      <c r="AC61" s="250"/>
       <c r="AD61" s="216" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="330"/>
+    <row r="62" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="351"/>
       <c r="B62" s="54"/>
       <c r="C62" s="240" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="335"/>
+      <c r="D62" s="330"/>
       <c r="E62" s="121" t="s">
         <v>19</v>
       </c>
@@ -10515,16 +10665,16 @@
       <c r="AB62" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC62" s="265"/>
+      <c r="AC62" s="250"/>
       <c r="AD62" s="216"/>
     </row>
-    <row r="63" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="330"/>
+    <row r="63" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="351"/>
       <c r="B63" s="54"/>
       <c r="C63" s="241" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="337"/>
+      <c r="D63" s="330"/>
       <c r="E63" s="131"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -10569,18 +10719,18 @@
       <c r="AB63" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC63" s="265"/>
+      <c r="AC63" s="250"/>
       <c r="AD63" s="216" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="330"/>
+    <row r="64" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="351"/>
       <c r="B64" s="54"/>
       <c r="C64" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="335"/>
+      <c r="D64" s="330"/>
       <c r="E64" s="121" t="s">
         <v>10</v>
       </c>
@@ -10653,16 +10803,16 @@
       <c r="AB64" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC64" s="265"/>
+      <c r="AC64" s="250"/>
       <c r="AD64" s="216"/>
     </row>
-    <row r="65" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="330"/>
+    <row r="65" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="351"/>
       <c r="B65" s="54"/>
       <c r="C65" s="240" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="335"/>
+      <c r="D65" s="330"/>
       <c r="E65" s="121" t="s">
         <v>10</v>
       </c>
@@ -10735,16 +10885,16 @@
       <c r="AB65" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC65" s="265"/>
+      <c r="AC65" s="250"/>
       <c r="AD65" s="216"/>
     </row>
-    <row r="66" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="330"/>
+    <row r="66" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="351"/>
       <c r="B66" s="54"/>
       <c r="C66" s="240" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="335"/>
+      <c r="D66" s="330"/>
       <c r="E66" s="121" t="s">
         <v>10</v>
       </c>
@@ -10817,16 +10967,16 @@
       <c r="AB66" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC66" s="265"/>
+      <c r="AC66" s="250"/>
       <c r="AD66" s="216"/>
     </row>
-    <row r="67" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="330"/>
+    <row r="67" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="351"/>
       <c r="B67" s="54"/>
       <c r="C67" s="240" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="335"/>
+      <c r="D67" s="330"/>
       <c r="E67" s="121" t="s">
         <v>10</v>
       </c>
@@ -10899,16 +11049,16 @@
       <c r="AB67" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC67" s="265"/>
+      <c r="AC67" s="250"/>
       <c r="AD67" s="216"/>
     </row>
-    <row r="68" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="330"/>
+    <row r="68" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="351"/>
       <c r="B68" s="54"/>
       <c r="C68" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="335"/>
+      <c r="D68" s="330"/>
       <c r="E68" s="133"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
@@ -10949,16 +11099,16 @@
       <c r="AB68" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC68" s="265"/>
+      <c r="AC68" s="250"/>
       <c r="AD68" s="216"/>
     </row>
-    <row r="69" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="330"/>
+    <row r="69" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="351"/>
       <c r="B69" s="54"/>
       <c r="C69" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="337"/>
+      <c r="D69" s="330"/>
       <c r="E69" s="131"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -11003,16 +11153,16 @@
       <c r="AB69" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC69" s="265"/>
+      <c r="AC69" s="250"/>
       <c r="AD69" s="216"/>
     </row>
-    <row r="70" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="330"/>
+    <row r="70" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="351"/>
       <c r="B70" s="54"/>
       <c r="C70" s="241" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="337"/>
+      <c r="D70" s="330"/>
       <c r="E70" s="131"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -11057,16 +11207,16 @@
       <c r="AB70" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="AC70" s="265"/>
+      <c r="AC70" s="250"/>
       <c r="AD70" s="216"/>
     </row>
-    <row r="71" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="330"/>
+    <row r="71" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="351"/>
       <c r="B71" s="54"/>
       <c r="C71" s="240" t="s">
         <v>252</v>
       </c>
-      <c r="D71" s="335"/>
+      <c r="D71" s="330"/>
       <c r="E71" s="121" t="s">
         <v>10</v>
       </c>
@@ -11139,16 +11289,16 @@
       <c r="AB71" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC71" s="265"/>
+      <c r="AC71" s="250"/>
       <c r="AD71" s="216"/>
     </row>
-    <row r="72" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="330"/>
+    <row r="72" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="351"/>
       <c r="B72" s="54"/>
       <c r="C72" s="240" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="335"/>
+      <c r="D72" s="330"/>
       <c r="E72" s="121" t="s">
         <v>10</v>
       </c>
@@ -11221,16 +11371,16 @@
       <c r="AB72" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC72" s="265"/>
+      <c r="AC72" s="250"/>
       <c r="AD72" s="216"/>
     </row>
-    <row r="73" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="330"/>
+    <row r="73" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="351"/>
       <c r="B73" s="54"/>
       <c r="C73" s="240" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="335"/>
+      <c r="D73" s="330"/>
       <c r="E73" s="121" t="s">
         <v>10</v>
       </c>
@@ -11303,16 +11453,16 @@
       <c r="AB73" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC73" s="265"/>
+      <c r="AC73" s="250"/>
       <c r="AD73" s="216"/>
     </row>
-    <row r="74" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="330"/>
+    <row r="74" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="351"/>
       <c r="B74" s="54"/>
       <c r="C74" s="240" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="335"/>
+      <c r="D74" s="330"/>
       <c r="E74" s="121" t="s">
         <v>10</v>
       </c>
@@ -11385,16 +11535,16 @@
       <c r="AB74" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC74" s="265"/>
+      <c r="AC74" s="250"/>
       <c r="AD74" s="216"/>
     </row>
-    <row r="75" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="330"/>
+    <row r="75" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="351"/>
       <c r="B75" s="54"/>
       <c r="C75" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="335"/>
+      <c r="D75" s="330"/>
       <c r="E75" s="133"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
@@ -11439,16 +11589,16 @@
       <c r="AB75" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC75" s="265"/>
+      <c r="AC75" s="250"/>
       <c r="AD75" s="216"/>
     </row>
-    <row r="76" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="330"/>
+    <row r="76" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="351"/>
       <c r="B76" s="54"/>
       <c r="C76" s="240" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="335"/>
+      <c r="D76" s="330"/>
       <c r="E76" s="133"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
@@ -11485,16 +11635,16 @@
       <c r="AB76" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC76" s="265"/>
+      <c r="AC76" s="250"/>
       <c r="AD76" s="216"/>
     </row>
-    <row r="77" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="330"/>
+    <row r="77" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="351"/>
       <c r="B77" s="54"/>
       <c r="C77" s="240" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="335"/>
+      <c r="D77" s="330"/>
       <c r="E77" s="133"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
@@ -11529,22 +11679,22 @@
       <c r="Z77" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA77" s="287" t="s">
+      <c r="AA77" s="271" t="s">
         <v>10</v>
       </c>
       <c r="AB77" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AC77" s="271"/>
+      <c r="AC77" s="256"/>
       <c r="AD77" s="216"/>
     </row>
-    <row r="78" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="330"/>
+    <row r="78" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="351"/>
       <c r="B78" s="54"/>
       <c r="C78" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="335"/>
+      <c r="D78" s="330"/>
       <c r="E78" s="121" t="s">
         <v>19</v>
       </c>
@@ -11617,16 +11767,16 @@
       <c r="AB78" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC78" s="265"/>
+      <c r="AC78" s="250"/>
       <c r="AD78" s="216"/>
     </row>
-    <row r="79" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="330"/>
+    <row r="79" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="351"/>
       <c r="B79" s="54"/>
       <c r="C79" s="240" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="335"/>
+      <c r="D79" s="330"/>
       <c r="E79" s="121" t="s">
         <v>10</v>
       </c>
@@ -11699,16 +11849,16 @@
       <c r="AB79" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC79" s="265"/>
+      <c r="AC79" s="250"/>
       <c r="AD79" s="216"/>
     </row>
-    <row r="80" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="330"/>
+    <row r="80" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="351"/>
       <c r="B80" s="54"/>
       <c r="C80" s="240" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="335"/>
+      <c r="D80" s="330"/>
       <c r="E80" s="133"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
@@ -11745,16 +11895,16 @@
       <c r="AB80" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC80" s="265"/>
+      <c r="AC80" s="250"/>
       <c r="AD80" s="216"/>
     </row>
-    <row r="81" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="330"/>
+    <row r="81" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="351"/>
       <c r="B81" s="54"/>
       <c r="C81" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="335"/>
+      <c r="D81" s="330"/>
       <c r="E81" s="121" t="s">
         <v>19</v>
       </c>
@@ -11827,18 +11977,18 @@
       <c r="AB81" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC81" s="265"/>
+      <c r="AC81" s="250"/>
       <c r="AD81" s="216" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="330"/>
+    <row r="82" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="351"/>
       <c r="B82" s="54"/>
       <c r="C82" s="240" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="335"/>
+      <c r="D82" s="330"/>
       <c r="E82" s="121" t="s">
         <v>10</v>
       </c>
@@ -11905,22 +12055,22 @@
       <c r="Z82" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AA82" s="288" t="s">
+      <c r="AA82" s="272" t="s">
         <v>55</v>
       </c>
       <c r="AB82" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC82" s="272"/>
+      <c r="AC82" s="257"/>
       <c r="AD82" s="216"/>
     </row>
-    <row r="83" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="330"/>
+    <row r="83" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="351"/>
       <c r="B83" s="54"/>
       <c r="C83" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="335"/>
+      <c r="D83" s="330"/>
       <c r="E83" s="121" t="s">
         <v>19</v>
       </c>
@@ -11993,18 +12143,18 @@
       <c r="AB83" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC83" s="265"/>
+      <c r="AC83" s="250"/>
       <c r="AD83" s="216" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="330"/>
+    <row r="84" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="351"/>
       <c r="B84" s="54"/>
       <c r="C84" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="335"/>
+      <c r="D84" s="330"/>
       <c r="E84" s="133"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
@@ -12041,16 +12191,16 @@
       <c r="AB84" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC84" s="265"/>
+      <c r="AC84" s="250"/>
       <c r="AD84" s="216"/>
     </row>
-    <row r="85" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="330"/>
+    <row r="85" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="351"/>
       <c r="B85" s="54"/>
       <c r="C85" s="240" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="335"/>
+      <c r="D85" s="330"/>
       <c r="E85" s="135" t="s">
         <v>262</v>
       </c>
@@ -12117,22 +12267,22 @@
       <c r="Z85" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="AA85" s="283" t="s">
+      <c r="AA85" s="267" t="s">
         <v>311</v>
       </c>
       <c r="AB85" s="156" t="s">
         <v>311</v>
       </c>
-      <c r="AC85" s="266"/>
+      <c r="AC85" s="251"/>
       <c r="AD85" s="216"/>
     </row>
-    <row r="86" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="330"/>
+    <row r="86" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="351"/>
       <c r="B86" s="54"/>
       <c r="C86" s="240" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="335"/>
+      <c r="D86" s="330"/>
       <c r="E86" s="135" t="s">
         <v>19</v>
       </c>
@@ -12205,16 +12355,16 @@
       <c r="AB86" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC86" s="265"/>
+      <c r="AC86" s="250"/>
       <c r="AD86" s="216"/>
     </row>
-    <row r="87" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="330"/>
+    <row r="87" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="351"/>
       <c r="B87" s="54"/>
       <c r="C87" s="240" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="335"/>
+      <c r="D87" s="330"/>
       <c r="E87" s="133"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
@@ -12263,16 +12413,16 @@
       <c r="AB87" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC87" s="265"/>
+      <c r="AC87" s="250"/>
       <c r="AD87" s="216"/>
     </row>
-    <row r="88" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="330"/>
+    <row r="88" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="351"/>
       <c r="B88" s="54"/>
       <c r="C88" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="335"/>
+      <c r="D88" s="330"/>
       <c r="E88" s="133"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
@@ -12317,16 +12467,16 @@
       <c r="AB88" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC88" s="265"/>
+      <c r="AC88" s="250"/>
       <c r="AD88" s="216"/>
     </row>
-    <row r="89" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="330"/>
+    <row r="89" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="351"/>
       <c r="B89" s="54"/>
       <c r="C89" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="335"/>
+      <c r="D89" s="330"/>
       <c r="E89" s="133"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
@@ -12367,16 +12517,16 @@
       <c r="AB89" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC89" s="265"/>
+      <c r="AC89" s="250"/>
       <c r="AD89" s="216"/>
     </row>
-    <row r="90" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="330"/>
+    <row r="90" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="351"/>
       <c r="B90" s="54"/>
       <c r="C90" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="D90" s="335"/>
+      <c r="D90" s="330"/>
       <c r="E90" s="133"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
@@ -12415,22 +12565,22 @@
       <c r="Z90" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA90" s="287" t="s">
+      <c r="AA90" s="271" t="s">
         <v>10</v>
       </c>
       <c r="AB90" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AC90" s="271"/>
+      <c r="AC90" s="256"/>
       <c r="AD90" s="216"/>
     </row>
-    <row r="91" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="330"/>
+    <row r="91" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="351"/>
       <c r="B91" s="54"/>
       <c r="C91" s="240" t="s">
         <v>206</v>
       </c>
-      <c r="D91" s="335"/>
+      <c r="D91" s="330"/>
       <c r="E91" s="133"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
@@ -12475,16 +12625,16 @@
       <c r="AB91" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC91" s="265"/>
+      <c r="AC91" s="250"/>
       <c r="AD91" s="216"/>
     </row>
-    <row r="92" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="330"/>
+    <row r="92" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="351"/>
       <c r="B92" s="56"/>
       <c r="C92" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="D92" s="335"/>
+      <c r="D92" s="330"/>
       <c r="E92" s="138" t="s">
         <v>260</v>
       </c>
@@ -12557,16 +12707,16 @@
       <c r="AB92" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="AC92" s="273"/>
+      <c r="AC92" s="258"/>
       <c r="AD92" s="222"/>
     </row>
-    <row r="93" spans="1:30" s="45" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="330"/>
+    <row r="93" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="351"/>
       <c r="B93" s="86"/>
       <c r="C93" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="D93" s="336"/>
+      <c r="D93" s="330"/>
       <c r="E93" s="138" t="s">
         <v>242</v>
       </c>
@@ -12633,24 +12783,24 @@
       <c r="Z93" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="AA93" s="289" t="s">
+      <c r="AA93" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="AB93" s="302" t="s">
+      <c r="AB93" s="283" t="s">
         <v>259</v>
       </c>
-      <c r="AC93" s="274"/>
+      <c r="AC93" s="259"/>
       <c r="AD93" s="223"/>
     </row>
-    <row r="94" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="330"/>
+    <row r="94" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="351"/>
       <c r="B94" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="334"/>
+      <c r="D94" s="330"/>
       <c r="E94" s="119"/>
       <c r="F94" s="50"/>
       <c r="G94" s="50"/>
@@ -12707,22 +12857,22 @@
       <c r="Z94" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AA94" s="282" t="s">
+      <c r="AA94" s="266" t="s">
         <v>47</v>
       </c>
       <c r="AB94" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="AC94" s="264"/>
+      <c r="AC94" s="249"/>
       <c r="AD94" s="74"/>
     </row>
-    <row r="95" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="330"/>
+    <row r="95" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="351"/>
       <c r="B95" s="55"/>
       <c r="C95" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="D95" s="335"/>
+      <c r="D95" s="330"/>
       <c r="E95" s="130"/>
       <c r="F95" s="47"/>
       <c r="G95" s="47"/>
@@ -12753,22 +12903,22 @@
       <c r="Z95" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA95" s="290" t="s">
+      <c r="AA95" s="274" t="s">
         <v>10</v>
       </c>
       <c r="AB95" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="AC95" s="275"/>
+      <c r="AC95" s="260"/>
       <c r="AD95" s="221"/>
     </row>
-    <row r="96" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="330"/>
+    <row r="96" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="351"/>
       <c r="B96" s="54"/>
       <c r="C96" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D96" s="335"/>
+      <c r="D96" s="330"/>
       <c r="E96" s="121"/>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -12831,16 +12981,16 @@
       <c r="AB96" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC96" s="265"/>
+      <c r="AC96" s="250"/>
       <c r="AD96" s="216"/>
     </row>
-    <row r="97" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="330"/>
+    <row r="97" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="351"/>
       <c r="B97" s="54"/>
       <c r="C97" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="335"/>
+      <c r="D97" s="330"/>
       <c r="E97" s="121"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -12903,16 +13053,16 @@
       <c r="AB97" s="136">
         <v>5</v>
       </c>
-      <c r="AC97" s="265"/>
+      <c r="AC97" s="250"/>
       <c r="AD97" s="216"/>
     </row>
-    <row r="98" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="330"/>
+    <row r="98" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="351"/>
       <c r="B98" s="54"/>
       <c r="C98" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D98" s="335"/>
+      <c r="D98" s="330"/>
       <c r="E98" s="121"/>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -12975,16 +13125,16 @@
       <c r="AB98" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="AC98" s="265"/>
+      <c r="AC98" s="250"/>
       <c r="AD98" s="216"/>
     </row>
-    <row r="99" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="330"/>
+    <row r="99" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="351"/>
       <c r="B99" s="54"/>
       <c r="C99" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="335"/>
+      <c r="D99" s="330"/>
       <c r="E99" s="121"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -13047,18 +13197,18 @@
       <c r="AB99" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC99" s="265"/>
+      <c r="AC99" s="250"/>
       <c r="AD99" s="216" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="330"/>
+    <row r="100" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="351"/>
       <c r="B100" s="54"/>
       <c r="C100" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="335"/>
+      <c r="D100" s="330"/>
       <c r="E100" s="121"/>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -13121,16 +13271,16 @@
       <c r="AB100" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC100" s="265"/>
+      <c r="AC100" s="250"/>
       <c r="AD100" s="216"/>
     </row>
-    <row r="101" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="330"/>
+    <row r="101" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="351"/>
       <c r="B101" s="54"/>
       <c r="C101" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="335"/>
+      <c r="D101" s="330"/>
       <c r="E101" s="121"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -13193,18 +13343,18 @@
       <c r="AB101" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC101" s="265"/>
+      <c r="AC101" s="250"/>
       <c r="AD101" s="216" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="330"/>
+    <row r="102" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="351"/>
       <c r="B102" s="54"/>
       <c r="C102" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="335"/>
+      <c r="D102" s="330"/>
       <c r="E102" s="121"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -13267,18 +13417,18 @@
       <c r="AB102" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC102" s="265"/>
+      <c r="AC102" s="250"/>
       <c r="AD102" s="216" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="330"/>
+    <row r="103" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="351"/>
       <c r="B103" s="54"/>
       <c r="C103" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="335"/>
+      <c r="D103" s="330"/>
       <c r="E103" s="121"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -13341,18 +13491,18 @@
       <c r="AB103" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC103" s="265"/>
+      <c r="AC103" s="250"/>
       <c r="AD103" s="216" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="330"/>
+    <row r="104" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="351"/>
       <c r="B104" s="54"/>
       <c r="C104" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D104" s="335"/>
+      <c r="D104" s="330"/>
       <c r="E104" s="121"/>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -13415,18 +13565,18 @@
       <c r="AB104" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC104" s="265"/>
+      <c r="AC104" s="250"/>
       <c r="AD104" s="216" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="330"/>
+    <row r="105" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="351"/>
       <c r="B105" s="54"/>
       <c r="C105" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="335"/>
+      <c r="D105" s="330"/>
       <c r="E105" s="121"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -13463,16 +13613,16 @@
       <c r="AB105" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC105" s="265"/>
+      <c r="AC105" s="250"/>
       <c r="AD105" s="216"/>
     </row>
-    <row r="106" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="330"/>
+    <row r="106" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="351"/>
       <c r="B106" s="54"/>
       <c r="C106" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="335"/>
+      <c r="D106" s="330"/>
       <c r="E106" s="121"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -13511,22 +13661,22 @@
       <c r="Z106" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="AA106" s="288" t="s">
+      <c r="AA106" s="272" t="s">
         <v>116</v>
       </c>
       <c r="AB106" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="AC106" s="272"/>
+      <c r="AC106" s="257"/>
       <c r="AD106" s="216"/>
     </row>
-    <row r="107" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="330"/>
+    <row r="107" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="351"/>
       <c r="B107" s="54"/>
       <c r="C107" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="335"/>
+      <c r="D107" s="330"/>
       <c r="E107" s="121"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -13589,16 +13739,16 @@
       <c r="AB107" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC107" s="265"/>
+      <c r="AC107" s="250"/>
       <c r="AD107" s="216"/>
     </row>
-    <row r="108" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="330"/>
+    <row r="108" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="351"/>
       <c r="B108" s="54"/>
       <c r="C108" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="335"/>
+      <c r="D108" s="330"/>
       <c r="E108" s="121"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -13653,88 +13803,88 @@
       <c r="AB108" s="136">
         <v>1</v>
       </c>
-      <c r="AC108" s="265"/>
+      <c r="AC108" s="250"/>
       <c r="AD108" s="216"/>
     </row>
-    <row r="109" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="330"/>
+    <row r="109" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="351"/>
       <c r="B109" s="54"/>
       <c r="C109" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D109" s="335"/>
+        <v>364</v>
+      </c>
+      <c r="D109" s="330"/>
       <c r="E109" s="121"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
       <c r="I109" s="122"/>
       <c r="J109" s="155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L109" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M109" s="158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N109" s="163" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P109" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q109" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R109" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S109" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T109" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U109" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V109" s="136" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W109" s="107" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="X109" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Y109" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Z109" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA109" s="287" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="AA109" s="271" t="s">
+        <v>357</v>
       </c>
       <c r="AB109" s="160" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC109" s="271"/>
+        <v>356</v>
+      </c>
+      <c r="AC109" s="256"/>
       <c r="AD109" s="224"/>
     </row>
-    <row r="110" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="330"/>
+    <row r="110" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="351"/>
       <c r="B110" s="54"/>
       <c r="C110" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D110" s="335"/>
+        <v>365</v>
+      </c>
+      <c r="D110" s="330"/>
       <c r="E110" s="121"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -13753,13 +13903,13 @@
         <v>2</v>
       </c>
       <c r="N110" s="163" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P110" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q110" s="13" t="s">
         <v>4</v>
@@ -13768,477 +13918,477 @@
         <v>2</v>
       </c>
       <c r="S110" s="163" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="T110" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U110" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V110" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="W110" s="107" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X110" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y110" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z110" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AA110" s="287" t="s">
+      <c r="AA110" s="271" t="s">
         <v>2</v>
       </c>
       <c r="AB110" s="160" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC110" s="271"/>
+        <v>357</v>
+      </c>
+      <c r="AC110" s="256"/>
       <c r="AD110" s="216"/>
     </row>
-    <row r="111" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="330"/>
+    <row r="111" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="351"/>
       <c r="B111" s="54"/>
       <c r="C111" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D111" s="335"/>
+        <v>366</v>
+      </c>
+      <c r="D111" s="330"/>
       <c r="E111" s="121"/>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
       <c r="I111" s="122"/>
       <c r="J111" s="155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M111" s="158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N111" s="163" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P111" s="13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="R111" s="136" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="S111" s="163" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="U111" s="13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="V111" s="136" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="W111" s="107" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="X111" s="19" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Y111" s="13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Z111" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA111" s="287" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="AA111" s="271" t="s">
+        <v>358</v>
       </c>
       <c r="AB111" s="160" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC111" s="271"/>
+        <v>358</v>
+      </c>
+      <c r="AC111" s="256"/>
       <c r="AD111" s="216"/>
     </row>
-    <row r="112" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="330"/>
+    <row r="112" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="351"/>
       <c r="B112" s="54"/>
       <c r="C112" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D112" s="335"/>
+        <v>367</v>
+      </c>
+      <c r="D112" s="330"/>
       <c r="E112" s="121"/>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
       <c r="I112" s="122"/>
       <c r="J112" s="155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L112" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M112" s="158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N112" s="163" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P112" s="13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R112" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S112" s="163" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="U112" s="13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="V112" s="136" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="W112" s="107" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="X112" s="19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Y112" s="13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Z112" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA112" s="287" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB112" s="345" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC112" s="271"/>
+        <v>357</v>
+      </c>
+      <c r="AA112" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB112" s="305" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC112" s="256"/>
       <c r="AD112" s="224"/>
     </row>
-    <row r="113" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="330"/>
+    <row r="113" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="351"/>
       <c r="B113" s="54"/>
       <c r="C113" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D113" s="335"/>
+        <v>368</v>
+      </c>
+      <c r="D113" s="330"/>
       <c r="E113" s="121"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
       <c r="I113" s="122"/>
       <c r="J113" s="155" t="s">
+        <v>357</v>
+      </c>
+      <c r="K113" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K113" s="16" t="s">
-        <v>370</v>
-      </c>
       <c r="L113" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="M113" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="N113" s="163" t="s">
+        <v>357</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q113" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="M113" s="158" t="s">
-        <v>360</v>
-      </c>
-      <c r="N113" s="163" t="s">
-        <v>360</v>
-      </c>
-      <c r="O113" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="P113" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q113" s="13" t="s">
-        <v>370</v>
-      </c>
       <c r="R113" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S113" s="163" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V113" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="W113" s="107" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X113" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y113" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z113" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA113" s="287" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="AA113" s="271" t="s">
+        <v>357</v>
       </c>
       <c r="AB113" s="160" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC113" s="271"/>
+        <v>357</v>
+      </c>
+      <c r="AC113" s="256"/>
       <c r="AD113" s="216"/>
     </row>
-    <row r="114" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="330"/>
+    <row r="114" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="351"/>
       <c r="B114" s="54"/>
       <c r="C114" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D114" s="335"/>
+        <v>369</v>
+      </c>
+      <c r="D114" s="330"/>
       <c r="E114" s="121"/>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
       <c r="I114" s="122"/>
       <c r="J114" s="155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L114" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M114" s="158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N114" s="163" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q114" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R114" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S114" s="163" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="U114" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V114" s="136" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="W114" s="107" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X114" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y114" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z114" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA114" s="287" t="s">
-        <v>360</v>
+        <v>372</v>
+      </c>
+      <c r="AA114" s="271" t="s">
+        <v>372</v>
       </c>
       <c r="AB114" s="160" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC114" s="271"/>
+        <v>372</v>
+      </c>
+      <c r="AC114" s="256"/>
       <c r="AD114" s="224"/>
     </row>
-    <row r="115" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="330"/>
+    <row r="115" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="351"/>
       <c r="B115" s="54"/>
       <c r="C115" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D115" s="335"/>
+        <v>370</v>
+      </c>
+      <c r="D115" s="330"/>
       <c r="E115" s="121"/>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
       <c r="I115" s="122"/>
       <c r="J115" s="155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L115" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M115" s="158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N115" s="163" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="O115" s="13" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="P115" s="13" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Q115" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R115" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S115" s="163" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="T115" s="13" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="U115" s="21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V115" s="136" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="W115" s="107" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X115" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y115" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z115" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA115" s="287" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB115" s="345" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC115" s="271"/>
+        <v>357</v>
+      </c>
+      <c r="AA115" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB115" s="304" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC115" s="256"/>
       <c r="AD115" s="216"/>
     </row>
-    <row r="116" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="330"/>
+    <row r="116" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="351"/>
       <c r="B116" s="54"/>
       <c r="C116" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D116" s="335"/>
+        <v>371</v>
+      </c>
+      <c r="D116" s="330"/>
       <c r="E116" s="121"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
       <c r="I116" s="122"/>
       <c r="J116" s="155" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L116" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M116" s="158" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N116" s="163" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="P116" s="13" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Q116" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R116" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S116" s="163" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="T116" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U116" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V116" s="136" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="W116" s="109" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="X116" s="13" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Y116" s="13" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Z116" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AA116" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB116" s="232" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC116" s="265"/>
+        <v>357</v>
+      </c>
+      <c r="AB116" s="211" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC116" s="250"/>
       <c r="AD116" s="216"/>
     </row>
-    <row r="117" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="330"/>
+    <row r="117" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="351"/>
       <c r="B117" s="54"/>
       <c r="C117" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="335"/>
+      <c r="D117" s="330"/>
       <c r="E117" s="121"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -14301,18 +14451,18 @@
       <c r="AB117" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC117" s="265"/>
+      <c r="AC117" s="250"/>
       <c r="AD117" s="216" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="330"/>
+    <row r="118" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="351"/>
       <c r="B118" s="54"/>
       <c r="C118" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D118" s="335"/>
+      <c r="D118" s="330"/>
       <c r="E118" s="121"/>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -14375,18 +14525,18 @@
       <c r="AB118" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC118" s="265"/>
+      <c r="AC118" s="250"/>
       <c r="AD118" s="216" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="330"/>
+    <row r="119" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="351"/>
       <c r="B119" s="54"/>
       <c r="C119" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D119" s="335"/>
+      <c r="D119" s="330"/>
       <c r="E119" s="121"/>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -14449,16 +14599,16 @@
       <c r="AB119" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="AC119" s="265"/>
+      <c r="AC119" s="250"/>
       <c r="AD119" s="216"/>
     </row>
-    <row r="120" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="330"/>
+    <row r="120" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="351"/>
       <c r="B120" s="54"/>
       <c r="C120" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D120" s="335"/>
+      <c r="D120" s="330"/>
       <c r="E120" s="121"/>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -14521,16 +14671,16 @@
       <c r="AB120" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="AC120" s="265"/>
+      <c r="AC120" s="250"/>
       <c r="AD120" s="216"/>
     </row>
-    <row r="121" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="330"/>
+    <row r="121" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="351"/>
       <c r="B121" s="54"/>
       <c r="C121" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D121" s="335"/>
+      <c r="D121" s="330"/>
       <c r="E121" s="121"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -14593,18 +14743,18 @@
       <c r="AB121" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="AC121" s="265"/>
+      <c r="AC121" s="250"/>
       <c r="AD121" s="216" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="330"/>
+    <row r="122" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="351"/>
       <c r="B122" s="54"/>
       <c r="C122" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D122" s="335"/>
+      <c r="D122" s="330"/>
       <c r="E122" s="121"/>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -14667,18 +14817,18 @@
       <c r="AB122" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC122" s="265"/>
+      <c r="AC122" s="250"/>
       <c r="AD122" s="216" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="330"/>
+    <row r="123" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="351"/>
       <c r="B123" s="54"/>
       <c r="C123" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D123" s="335"/>
+      <c r="D123" s="330"/>
       <c r="E123" s="121"/>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -14741,18 +14891,18 @@
       <c r="AB123" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC123" s="265"/>
+      <c r="AC123" s="250"/>
       <c r="AD123" s="216" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="330"/>
+    <row r="124" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="351"/>
       <c r="B124" s="54"/>
       <c r="C124" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D124" s="335"/>
+      <c r="D124" s="330"/>
       <c r="E124" s="121"/>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -14791,16 +14941,16 @@
       <c r="AB124" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="AC124" s="265"/>
+      <c r="AC124" s="250"/>
       <c r="AD124" s="216"/>
     </row>
-    <row r="125" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="330"/>
+    <row r="125" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="351"/>
       <c r="B125" s="54"/>
       <c r="C125" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="335"/>
+      <c r="D125" s="330"/>
       <c r="E125" s="121"/>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -14839,16 +14989,16 @@
       <c r="AB125" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="AC125" s="265"/>
+      <c r="AC125" s="250"/>
       <c r="AD125" s="216"/>
     </row>
-    <row r="126" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="330"/>
+    <row r="126" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="351"/>
       <c r="B126" s="54"/>
       <c r="C126" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D126" s="335"/>
+      <c r="D126" s="330"/>
       <c r="E126" s="121"/>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -14887,16 +15037,16 @@
       <c r="AB126" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="AC126" s="265"/>
+      <c r="AC126" s="250"/>
       <c r="AD126" s="216"/>
     </row>
-    <row r="127" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="330"/>
+    <row r="127" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="351"/>
       <c r="B127" s="54"/>
       <c r="C127" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D127" s="335"/>
+      <c r="D127" s="330"/>
       <c r="E127" s="121"/>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -14935,16 +15085,16 @@
       <c r="AB127" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="AC127" s="265"/>
+      <c r="AC127" s="250"/>
       <c r="AD127" s="216"/>
     </row>
-    <row r="128" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="330"/>
+    <row r="128" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="351"/>
       <c r="B128" s="54"/>
       <c r="C128" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D128" s="335"/>
+      <c r="D128" s="330"/>
       <c r="E128" s="121"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -14983,16 +15133,16 @@
       <c r="AB128" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="AC128" s="265"/>
+      <c r="AC128" s="250"/>
       <c r="AD128" s="216"/>
     </row>
-    <row r="129" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="330"/>
+    <row r="129" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="351"/>
       <c r="B129" s="54"/>
       <c r="C129" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D129" s="335"/>
+      <c r="D129" s="330"/>
       <c r="E129" s="121"/>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -15031,16 +15181,16 @@
       <c r="AB129" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="AC129" s="265"/>
+      <c r="AC129" s="250"/>
       <c r="AD129" s="216"/>
     </row>
-    <row r="130" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="330"/>
+    <row r="130" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="351"/>
       <c r="B130" s="54"/>
       <c r="C130" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D130" s="335"/>
+      <c r="D130" s="330"/>
       <c r="E130" s="121"/>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -15079,16 +15229,16 @@
       <c r="AB130" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="AC130" s="265"/>
+      <c r="AC130" s="250"/>
       <c r="AD130" s="216"/>
     </row>
-    <row r="131" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="330"/>
+    <row r="131" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="351"/>
       <c r="B131" s="54"/>
       <c r="C131" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D131" s="335"/>
+      <c r="D131" s="330"/>
       <c r="E131" s="121"/>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -15127,16 +15277,16 @@
       <c r="AB131" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="AC131" s="265"/>
+      <c r="AC131" s="250"/>
       <c r="AD131" s="216"/>
     </row>
-    <row r="132" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="330"/>
+    <row r="132" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="351"/>
       <c r="B132" s="54"/>
       <c r="C132" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D132" s="335"/>
+      <c r="D132" s="330"/>
       <c r="E132" s="121"/>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -15175,16 +15325,16 @@
       <c r="AB132" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="AC132" s="265"/>
+      <c r="AC132" s="250"/>
       <c r="AD132" s="216"/>
     </row>
-    <row r="133" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="330"/>
+    <row r="133" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="351"/>
       <c r="B133" s="54"/>
       <c r="C133" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D133" s="335"/>
+      <c r="D133" s="330"/>
       <c r="E133" s="121"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -15223,16 +15373,16 @@
       <c r="AB133" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="AC133" s="265"/>
+      <c r="AC133" s="250"/>
       <c r="AD133" s="216"/>
     </row>
-    <row r="134" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="330"/>
+    <row r="134" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="351"/>
       <c r="B134" s="54"/>
       <c r="C134" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D134" s="335"/>
+      <c r="D134" s="330"/>
       <c r="E134" s="121"/>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -15271,16 +15421,16 @@
       <c r="AB134" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="AC134" s="265"/>
+      <c r="AC134" s="250"/>
       <c r="AD134" s="216"/>
     </row>
-    <row r="135" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="330"/>
+    <row r="135" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="351"/>
       <c r="B135" s="54"/>
       <c r="C135" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D135" s="335"/>
+      <c r="D135" s="330"/>
       <c r="E135" s="121"/>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -15329,18 +15479,18 @@
       <c r="AB135" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC135" s="265"/>
+      <c r="AC135" s="250"/>
       <c r="AD135" s="216" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="330"/>
+    <row r="136" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="351"/>
       <c r="B136" s="54"/>
       <c r="C136" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D136" s="335"/>
+      <c r="D136" s="330"/>
       <c r="E136" s="121"/>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -15403,16 +15553,16 @@
       <c r="AB136" s="136">
         <v>12</v>
       </c>
-      <c r="AC136" s="265"/>
+      <c r="AC136" s="250"/>
       <c r="AD136" s="216"/>
     </row>
-    <row r="137" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="330"/>
+    <row r="137" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="351"/>
       <c r="B137" s="54"/>
       <c r="C137" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D137" s="335"/>
+      <c r="D137" s="330"/>
       <c r="E137" s="140"/>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -15437,22 +15587,22 @@
       <c r="Z137" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA137" s="288" t="s">
+      <c r="AA137" s="272" t="s">
         <v>10</v>
       </c>
       <c r="AB137" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC137" s="265"/>
+      <c r="AC137" s="250"/>
       <c r="AD137" s="216"/>
     </row>
-    <row r="138" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="330"/>
+    <row r="138" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="351"/>
       <c r="B138" s="54"/>
       <c r="C138" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D138" s="335"/>
+      <c r="D138" s="330"/>
       <c r="E138" s="140"/>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -15515,16 +15665,16 @@
       <c r="AB138" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC138" s="265"/>
+      <c r="AC138" s="250"/>
       <c r="AD138" s="216"/>
     </row>
-    <row r="139" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="330"/>
+    <row r="139" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="351"/>
       <c r="B139" s="54"/>
       <c r="C139" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D139" s="335"/>
+      <c r="D139" s="330"/>
       <c r="E139" s="140"/>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -15587,16 +15737,16 @@
       <c r="AB139" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="AC139" s="265"/>
+      <c r="AC139" s="250"/>
       <c r="AD139" s="216"/>
     </row>
-    <row r="140" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="330"/>
+    <row r="140" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="351"/>
       <c r="B140" s="54"/>
       <c r="C140" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D140" s="335"/>
+      <c r="D140" s="330"/>
       <c r="E140" s="140"/>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -15659,18 +15809,18 @@
       <c r="AB140" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="AC140" s="265"/>
+      <c r="AC140" s="250"/>
       <c r="AD140" s="216" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="330"/>
+    <row r="141" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="351"/>
       <c r="B141" s="54"/>
       <c r="C141" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D141" s="335"/>
+      <c r="D141" s="330"/>
       <c r="E141" s="140"/>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -15733,16 +15883,16 @@
       <c r="AB141" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="AC141" s="265"/>
+      <c r="AC141" s="250"/>
       <c r="AD141" s="216"/>
     </row>
-    <row r="142" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="330"/>
+    <row r="142" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="351"/>
       <c r="B142" s="54"/>
       <c r="C142" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D142" s="335"/>
+      <c r="D142" s="330"/>
       <c r="E142" s="140"/>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -15783,16 +15933,16 @@
       <c r="AB142" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="AC142" s="265"/>
+      <c r="AC142" s="250"/>
       <c r="AD142" s="216"/>
     </row>
-    <row r="143" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="330"/>
+    <row r="143" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="351"/>
       <c r="B143" s="54"/>
       <c r="C143" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D143" s="335"/>
+      <c r="D143" s="330"/>
       <c r="E143" s="140"/>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -15855,16 +16005,16 @@
       <c r="AB143" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC143" s="265"/>
+      <c r="AC143" s="250"/>
       <c r="AD143" s="216"/>
     </row>
-    <row r="144" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="330"/>
+    <row r="144" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="351"/>
       <c r="B144" s="54"/>
       <c r="C144" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D144" s="335"/>
+      <c r="D144" s="330"/>
       <c r="E144" s="140"/>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -15927,16 +16077,16 @@
       <c r="AB144" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="AC144" s="265"/>
+      <c r="AC144" s="250"/>
       <c r="AD144" s="216"/>
     </row>
-    <row r="145" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="330"/>
+    <row r="145" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="351"/>
       <c r="B145" s="75"/>
       <c r="C145" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="D145" s="336"/>
+      <c r="D145" s="330"/>
       <c r="E145" s="125"/>
       <c r="F145" s="81"/>
       <c r="G145" s="81"/>
@@ -15969,24 +16119,24 @@
       <c r="Z145" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA145" s="284" t="s">
+      <c r="AA145" s="268" t="s">
         <v>10</v>
       </c>
       <c r="AB145" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="AC145" s="267"/>
+      <c r="AC145" s="252"/>
       <c r="AD145" s="218"/>
     </row>
-    <row r="146" spans="1:30" ht="40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="330"/>
+    <row r="146" spans="1:30" ht="39.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="351"/>
       <c r="B146" s="98" t="s">
         <v>79</v>
       </c>
       <c r="C146" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D146" s="334"/>
+      <c r="D146" s="330"/>
       <c r="E146" s="141"/>
       <c r="F146" s="99"/>
       <c r="G146" s="99"/>
@@ -16043,24 +16193,24 @@
       <c r="Z146" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="AA146" s="291" t="s">
+      <c r="AA146" s="275" t="s">
         <v>10</v>
       </c>
       <c r="AB146" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="AC146" s="276"/>
+      <c r="AC146" s="261"/>
       <c r="AD146" s="74" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="330"/>
+    <row r="147" spans="1:30" ht="26" x14ac:dyDescent="0.35">
+      <c r="A147" s="351"/>
       <c r="B147" s="54"/>
       <c r="C147" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D147" s="335"/>
+      <c r="D147" s="330"/>
       <c r="E147" s="140"/>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -16123,18 +16273,18 @@
       <c r="AB147" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC147" s="265"/>
+      <c r="AC147" s="250"/>
       <c r="AD147" s="216" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="330"/>
+    <row r="148" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="351"/>
       <c r="B148" s="54"/>
       <c r="C148" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="335"/>
+      <c r="D148" s="330"/>
       <c r="E148" s="140"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -16197,16 +16347,16 @@
       <c r="AB148" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC148" s="265"/>
+      <c r="AC148" s="250"/>
       <c r="AD148" s="216"/>
     </row>
-    <row r="149" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="330"/>
+    <row r="149" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="351"/>
       <c r="B149" s="54"/>
       <c r="C149" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D149" s="335"/>
+      <c r="D149" s="330"/>
       <c r="E149" s="140"/>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -16269,16 +16419,16 @@
       <c r="AB149" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC149" s="265"/>
+      <c r="AC149" s="250"/>
       <c r="AD149" s="216"/>
     </row>
-    <row r="150" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="330"/>
+    <row r="150" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="351"/>
       <c r="B150" s="54"/>
       <c r="C150" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D150" s="335"/>
+      <c r="D150" s="330"/>
       <c r="E150" s="140"/>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -16341,16 +16491,16 @@
       <c r="AB150" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC150" s="265"/>
+      <c r="AC150" s="250"/>
       <c r="AD150" s="216"/>
     </row>
-    <row r="151" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="330"/>
+    <row r="151" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="351"/>
       <c r="B151" s="54"/>
       <c r="C151" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D151" s="335"/>
+      <c r="D151" s="330"/>
       <c r="E151" s="140"/>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -16413,16 +16563,16 @@
       <c r="AB151" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC151" s="265"/>
+      <c r="AC151" s="250"/>
       <c r="AD151" s="216"/>
     </row>
-    <row r="152" spans="1:30" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="330"/>
+    <row r="152" spans="1:30" ht="52" x14ac:dyDescent="0.35">
+      <c r="A152" s="351"/>
       <c r="B152" s="54"/>
       <c r="C152" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D152" s="335"/>
+      <c r="D152" s="330"/>
       <c r="E152" s="140"/>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -16485,18 +16635,18 @@
       <c r="AB152" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC152" s="265"/>
+      <c r="AC152" s="250"/>
       <c r="AD152" s="216" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="330"/>
+    <row r="153" spans="1:30" ht="39" x14ac:dyDescent="0.35">
+      <c r="A153" s="351"/>
       <c r="B153" s="54"/>
       <c r="C153" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D153" s="335"/>
+      <c r="D153" s="330"/>
       <c r="E153" s="140"/>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -16559,16 +16709,16 @@
       <c r="AB153" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="AC153" s="265"/>
+      <c r="AC153" s="250"/>
       <c r="AD153" s="224"/>
     </row>
-    <row r="154" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="330"/>
+    <row r="154" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="351"/>
       <c r="B154" s="54"/>
       <c r="C154" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D154" s="335"/>
+      <c r="D154" s="330"/>
       <c r="E154" s="140"/>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -16625,22 +16775,22 @@
       <c r="Z154" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA154" s="287" t="s">
+      <c r="AA154" s="271" t="s">
         <v>45</v>
       </c>
       <c r="AB154" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="AC154" s="271"/>
+      <c r="AC154" s="256"/>
       <c r="AD154" s="224"/>
     </row>
-    <row r="155" spans="1:30" ht="40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="330"/>
+    <row r="155" spans="1:30" ht="39" x14ac:dyDescent="0.35">
+      <c r="A155" s="351"/>
       <c r="B155" s="54"/>
       <c r="C155" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D155" s="335"/>
+      <c r="D155" s="330"/>
       <c r="E155" s="140"/>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -16703,18 +16853,18 @@
       <c r="AB155" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="AC155" s="265"/>
+      <c r="AC155" s="250"/>
       <c r="AD155" s="224" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="330"/>
+    <row r="156" spans="1:30" ht="26" x14ac:dyDescent="0.35">
+      <c r="A156" s="351"/>
       <c r="B156" s="54"/>
       <c r="C156" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D156" s="335"/>
+      <c r="D156" s="330"/>
       <c r="E156" s="140"/>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -16777,18 +16927,18 @@
       <c r="AB156" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC156" s="265"/>
+      <c r="AC156" s="250"/>
       <c r="AD156" s="224" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="330"/>
+    <row r="157" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="351"/>
       <c r="B157" s="54"/>
       <c r="C157" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D157" s="335"/>
+      <c r="D157" s="330"/>
       <c r="E157" s="140"/>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -16851,16 +17001,16 @@
       <c r="AB157" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC157" s="265"/>
+      <c r="AC157" s="250"/>
       <c r="AD157" s="216"/>
     </row>
-    <row r="158" spans="1:30" ht="40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="330"/>
+    <row r="158" spans="1:30" ht="39" x14ac:dyDescent="0.35">
+      <c r="A158" s="351"/>
       <c r="B158" s="54"/>
       <c r="C158" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D158" s="335"/>
+      <c r="D158" s="330"/>
       <c r="E158" s="140"/>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -16923,18 +17073,18 @@
       <c r="AB158" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="AC158" s="265"/>
+      <c r="AC158" s="250"/>
       <c r="AD158" s="216" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="330"/>
+    <row r="159" spans="1:30" ht="52" x14ac:dyDescent="0.35">
+      <c r="A159" s="351"/>
       <c r="B159" s="54"/>
       <c r="C159" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="335"/>
+      <c r="D159" s="330"/>
       <c r="E159" s="140"/>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -16997,16 +17147,16 @@
       <c r="AB159" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="AC159" s="265"/>
+      <c r="AC159" s="250"/>
       <c r="AD159" s="216"/>
     </row>
-    <row r="160" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="330"/>
+    <row r="160" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="351"/>
       <c r="B160" s="75"/>
       <c r="C160" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D160" s="336"/>
+      <c r="D160" s="330"/>
       <c r="E160" s="125"/>
       <c r="F160" s="81"/>
       <c r="G160" s="81"/>
@@ -17049,24 +17199,24 @@
       <c r="Z160" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AA160" s="284" t="s">
+      <c r="AA160" s="268" t="s">
         <v>128</v>
       </c>
       <c r="AB160" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="AC160" s="267"/>
+      <c r="AC160" s="252"/>
       <c r="AD160" s="218"/>
     </row>
-    <row r="161" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="330"/>
+    <row r="161" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="351"/>
       <c r="B161" s="63" t="s">
         <v>140</v>
       </c>
       <c r="C161" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="338"/>
+      <c r="D161" s="330"/>
       <c r="E161" s="142"/>
       <c r="F161" s="65"/>
       <c r="G161" s="65"/>
@@ -17123,22 +17273,22 @@
       <c r="Z161" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AA161" s="292" t="s">
+      <c r="AA161" s="276" t="s">
         <v>10</v>
       </c>
       <c r="AB161" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="AC161" s="277"/>
+      <c r="AC161" s="262"/>
       <c r="AD161" s="225"/>
     </row>
-    <row r="162" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="330"/>
+    <row r="162" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="351"/>
       <c r="B162" s="67"/>
       <c r="C162" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D162" s="337"/>
+      <c r="D162" s="330"/>
       <c r="E162" s="144"/>
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
@@ -17195,22 +17345,22 @@
       <c r="Z162" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="AA162" s="283" t="s">
+      <c r="AA162" s="267" t="s">
         <v>143</v>
       </c>
       <c r="AB162" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC162" s="266"/>
+      <c r="AC162" s="251"/>
       <c r="AD162" s="226"/>
     </row>
-    <row r="163" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="330"/>
+    <row r="163" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="351"/>
       <c r="B163" s="67"/>
       <c r="C163" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D163" s="337"/>
+      <c r="D163" s="330"/>
       <c r="E163" s="144"/>
       <c r="F163" s="39"/>
       <c r="G163" s="39"/>
@@ -17267,24 +17417,24 @@
       <c r="Z163" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AA163" s="283" t="s">
+      <c r="AA163" s="267" t="s">
         <v>146</v>
       </c>
       <c r="AB163" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC163" s="266"/>
+      <c r="AC163" s="251"/>
       <c r="AD163" s="226" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="330"/>
+    <row r="164" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="351"/>
       <c r="B164" s="67"/>
       <c r="C164" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D164" s="337"/>
+      <c r="D164" s="330"/>
       <c r="E164" s="144"/>
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
@@ -17341,22 +17491,22 @@
       <c r="Z164" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AA164" s="283" t="s">
+      <c r="AA164" s="267" t="s">
         <v>19</v>
       </c>
       <c r="AB164" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC164" s="266"/>
+      <c r="AC164" s="251"/>
       <c r="AD164" s="226"/>
     </row>
-    <row r="165" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="330"/>
+    <row r="165" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="351"/>
       <c r="B165" s="67"/>
       <c r="C165" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D165" s="337"/>
+      <c r="D165" s="330"/>
       <c r="E165" s="144"/>
       <c r="F165" s="39"/>
       <c r="G165" s="39"/>
@@ -17413,22 +17563,22 @@
       <c r="Z165" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA165" s="283" t="s">
+      <c r="AA165" s="267" t="s">
         <v>10</v>
       </c>
       <c r="AB165" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC165" s="266"/>
+      <c r="AC165" s="251"/>
       <c r="AD165" s="226"/>
     </row>
-    <row r="166" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="330"/>
+    <row r="166" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="351"/>
       <c r="B166" s="67"/>
       <c r="C166" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D166" s="337"/>
+      <c r="D166" s="330"/>
       <c r="E166" s="144"/>
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
@@ -17485,24 +17635,24 @@
       <c r="Z166" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AA166" s="283" t="s">
+      <c r="AA166" s="267" t="s">
         <v>45</v>
       </c>
       <c r="AB166" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC166" s="266"/>
+      <c r="AC166" s="251"/>
       <c r="AD166" s="226" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="330"/>
+    <row r="167" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="351"/>
       <c r="B167" s="67"/>
       <c r="C167" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D167" s="337"/>
+      <c r="D167" s="330"/>
       <c r="E167" s="144"/>
       <c r="F167" s="39"/>
       <c r="G167" s="39"/>
@@ -17559,22 +17709,22 @@
       <c r="Z167" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA167" s="283" t="s">
+      <c r="AA167" s="267" t="s">
         <v>10</v>
       </c>
       <c r="AB167" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC167" s="266"/>
+      <c r="AC167" s="251"/>
       <c r="AD167" s="226"/>
     </row>
-    <row r="168" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="330"/>
+    <row r="168" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="351"/>
       <c r="B168" s="67"/>
       <c r="C168" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D168" s="337"/>
+      <c r="D168" s="330"/>
       <c r="E168" s="144"/>
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
@@ -17631,22 +17781,22 @@
       <c r="Z168" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA168" s="283" t="s">
+      <c r="AA168" s="267" t="s">
         <v>10</v>
       </c>
       <c r="AB168" s="232" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC168" s="266"/>
+        <v>10</v>
+      </c>
+      <c r="AC168" s="251"/>
       <c r="AD168" s="226"/>
     </row>
-    <row r="169" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="330"/>
+    <row r="169" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="351"/>
       <c r="B169" s="67"/>
       <c r="C169" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D169" s="337"/>
+      <c r="D169" s="330"/>
       <c r="E169" s="144"/>
       <c r="F169" s="39"/>
       <c r="G169" s="39"/>
@@ -17703,22 +17853,22 @@
       <c r="Z169" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="AA169" s="283" t="s">
+      <c r="AA169" s="267" t="s">
         <v>319</v>
       </c>
       <c r="AB169" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC169" s="266"/>
+      <c r="AC169" s="251"/>
       <c r="AD169" s="226"/>
     </row>
-    <row r="170" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="330"/>
+    <row r="170" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="351"/>
       <c r="B170" s="67"/>
       <c r="C170" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D170" s="337"/>
+      <c r="D170" s="330"/>
       <c r="E170" s="144"/>
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
@@ -17775,24 +17925,24 @@
       <c r="Z170" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA170" s="283" t="s">
+      <c r="AA170" s="267" t="s">
         <v>45</v>
       </c>
       <c r="AB170" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="AC170" s="266"/>
+      <c r="AC170" s="251"/>
       <c r="AD170" s="227" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="330"/>
+    <row r="171" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="351"/>
       <c r="B171" s="67"/>
       <c r="C171" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D171" s="337"/>
+      <c r="D171" s="330"/>
       <c r="E171" s="144"/>
       <c r="F171" s="39"/>
       <c r="G171" s="39"/>
@@ -17849,22 +17999,22 @@
       <c r="Z171" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA171" s="283" t="s">
+      <c r="AA171" s="267" t="s">
         <v>10</v>
       </c>
       <c r="AB171" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="AC171" s="266"/>
+      <c r="AC171" s="251"/>
       <c r="AD171" s="226"/>
     </row>
-    <row r="172" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="330"/>
+    <row r="172" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="351"/>
       <c r="B172" s="67"/>
       <c r="C172" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="337"/>
+      <c r="D172" s="330"/>
       <c r="E172" s="144"/>
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
@@ -17921,22 +18071,22 @@
       <c r="Z172" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AA172" s="283" t="s">
+      <c r="AA172" s="267" t="s">
         <v>10</v>
       </c>
       <c r="AB172" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC172" s="266"/>
+      <c r="AC172" s="251"/>
       <c r="AD172" s="226"/>
     </row>
-    <row r="173" spans="1:30" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="330"/>
+    <row r="173" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="351"/>
       <c r="B173" s="68"/>
       <c r="C173" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D173" s="339"/>
+      <c r="D173" s="331"/>
       <c r="E173" s="146"/>
       <c r="F173" s="70"/>
       <c r="G173" s="70"/>
@@ -17993,18 +18143,18 @@
       <c r="Z173" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="AA173" s="293" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB173" s="304" t="s">
+      <c r="AA173" s="277" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB173" s="285" t="s">
         <v>143</v>
       </c>
-      <c r="AC173" s="278"/>
+      <c r="AC173" s="263"/>
       <c r="AD173" s="228"/>
     </row>
     <row r="174" spans="1:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="AD3:AD5"/>
     <mergeCell ref="A6:A35"/>
     <mergeCell ref="C3:D3"/>
@@ -18017,6 +18167,9 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="D36:D173"/>
+    <mergeCell ref="E6:I35"/>
+    <mergeCell ref="J6:AC35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>+ PRTC, Hotahm, SMS</t>
+          <t>+ PRTC, Hotahm, SMS, PMT</t>
         </r>
         <r>
           <rPr>
@@ -571,6 +571,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">From: Mendelson, Tsippy 
+Sent: Wednesday, December 13, 2017 2:32 PM
+To: Lee, Khee Wooi &lt;khee.wooi.lee@intel.com&gt;
+Cc: Stevens, William A &lt;william.a.stevens@intel.com&gt;
+Subject: RE: EHL/MCC - CSE IP2/IP3 
+My understanding is that current findings on LKF show that supporting UFS requires 6 SRAM banks and 
+4 is not enough. I notified Praveen that they need to change this.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V54" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1440,6 +1460,77 @@
         </r>
       </text>
     </comment>
+    <comment ref="C109" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>All IPC channels have 32DW IPC Message regsiters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB112" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From: Lee, Khee Wooi 
+Sent: Tuesday, December 12, 2017 8:34 PM
+To: Jain, Praveen K &lt;praveen.k.jain@intel.com&gt;
+Cc: Klinglesmith, Michael T &lt;michael.t.klinglesmith@intel.com&gt;; Hunsaker, Mikal &lt;mikal.hunsaker@intel.com&gt;; Lee, Khee Wooi &lt;khee.wooi.lee@intel.com&gt;
+Subject: RE: MCC CSE
+Praveen,
+Thanks.  No issue with including PMT, just a caveat:  MCC team needs to take note to configure your IOSF-P fabric to hook up PMT IP, in addition to CSE.  PMT IP is a standalone IOSF-P device, not inside the CSE IP boundary.  Since MCC starting base is TGP-LP, your IOSF-P fabric will not have the PMT port by default, so just need to add.
+• For the record, I have updated the MCC row to include PMT – see table below.
+[PKJ] I am still trying to get the clarification from IOG folks on this requirement. So PMT option may still change.
+On a different note, I am planning to re-task CSE-Modem IPC channel (#6) to CSE-ISI, to avoid hardware changes. A few things need your confirmation:
+• Can you confirm MCC has no integrated modem?
+[PKJ] MCC has no integrated modem on die. 
+• Can you confirm whether MCC has CNVi and IPU? – no hardware impact but we want to know for sure so that the IPC target Port-ID parameter is tied correctly.
+[PKJ] MCC has same CNVi as TGP-LP. IPU (assuming this refers to the camera unit) – Not in MCC. Not in JSL-compute die as well.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Q113" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1561,6 +1652,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB115" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From: Lee, Khee Wooi 
+Sent: Tuesday, December 12, 2017 8:34 PM
+To: Jain, Praveen K &lt;praveen.k.jain@intel.com&gt;
+Cc: Klinglesmith, Michael T &lt;michael.t.klinglesmith@intel.com&gt;; Hunsaker, Mikal &lt;mikal.hunsaker@intel.com&gt;; Lee, Khee Wooi &lt;khee.wooi.lee@intel.com&gt;
+Subject: RE: MCC CSE
+Praveen,
+Thanks.  No issue with including PMT, just a caveat:  MCC team needs to take note to configure your IOSF-P fabric to hook up PMT IP, in addition to CSE.  PMT IP is a standalone IOSF-P device, not inside the CSE IP boundary.  Since MCC starting base is TGP-LP, your IOSF-P fabric will not have the PMT port by default, so just need to add.
+• For the record, I have updated the MCC row to include PMT – see table below.
+[PKJ] I am still trying to get the clarification from IOG folks on this requirement. So PMT option may still change.
+On a different note, I am planning to re-task CSE-Modem IPC channel (#6) to CSE-ISI, to avoid hardware changes. A few things need your confirmation:
+• Can you confirm MCC has no integrated modem?
+[PKJ] MCC has no integrated modem on die. 
+• Can you confirm whether MCC has CNVi and IPU? – no hardware impact but we want to know for sure so that the IPC target Port-ID parameter is tied correctly.
+[PKJ] MCC has same CNVi as TGP-LP. IPU (assuming this refers to the camera unit) – Not in MCC. Not in JSL-compute die as well.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S116" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1630,6 +1768,53 @@
           </rPr>
           <t xml:space="preserve">
 ** Permanently for CNVi starting TGP-LP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB116" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From: Lee, Khee Wooi 
+Sent: Tuesday, December 12, 2017 8:34 PM
+To: Jain, Praveen K &lt;praveen.k.jain@intel.com&gt;
+Cc: Klinglesmith, Michael T &lt;michael.t.klinglesmith@intel.com&gt;; Hunsaker, Mikal &lt;mikal.hunsaker@intel.com&gt;; Lee, Khee Wooi &lt;khee.wooi.lee@intel.com&gt;
+Subject: RE: MCC CSE
+Praveen,
+Thanks.  No issue with including PMT, just a caveat:  MCC team needs to take note to configure your IOSF-P fabric to hook up PMT IP, in addition to CSE.  PMT IP is a standalone IOSF-P device, not inside the CSE IP boundary.  Since MCC starting base is TGP-LP, your IOSF-P fabric will not have the PMT port by default, so just need to add.
+• For the record, I have updated the MCC row to include PMT – see table below.
+[PKJ] I am still trying to get the clarification from IOG folks on this requirement. So PMT option may still change.
+On a different note, I am planning to re-task CSE-Modem IPC channel (#6) to CSE-ISI, to avoid hardware changes. A few things need your confirmation:
+• Can you confirm MCC has no integrated modem?
+[PKJ] MCC has no integrated modem on die. 
+• Can you confirm whether MCC has CNVi and IPU? – no hardware impact but we want to know for sure so that the IPC target Port-ID parameter is tied correctly.
+[PKJ] MCC has same CNVi as TGP-LP. IPU (assuming this refers to the camera unit) – Not in MCC. Not in JSL-compute die as well.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -3090,7 +3275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="381">
   <si>
     <t>Feature</t>
   </si>
@@ -4474,30 +4659,6 @@
 - Improved IPC channels to specifically call out peer IP for the channel so that a channel can be assigned for different IPs according to project</t>
   </si>
   <si>
-    <t>IPC 0 channel (default with ISH/OSE)</t>
-  </si>
-  <si>
-    <t>IPC 1 channel (default with IE/CSME)</t>
-  </si>
-  <si>
-    <t>IPC 2 channel (default with PMC)</t>
-  </si>
-  <si>
-    <t>IPC 3 channel (default with IUNIT)</t>
-  </si>
-  <si>
-    <t>IPC 4 channel (default with PUNIT)</t>
-  </si>
-  <si>
-    <t>IPC 5 channel (default with cAVS)</t>
-  </si>
-  <si>
-    <t>IPC 6 channel (default Modem)</t>
-  </si>
-  <si>
-    <t>IPC 7 channel (default with CNVi)</t>
-  </si>
-  <si>
     <t>cAVS</t>
   </si>
   <si>
@@ -4521,10 +4682,35 @@
 Standard For All Projects                                                                                Standard For All Projects                                                                                Standard For All Projects          </t>
   </si>
   <si>
-    <t>IUNIT?</t>
-  </si>
-  <si>
-    <t>CNVi?</t>
+    <t>IPC 0 channel (default for ISH/OSE)</t>
+  </si>
+  <si>
+    <t>IPC 1 channel (default for IE/CSME)</t>
+  </si>
+  <si>
+    <t>IPC 2 channel (default for PMC)</t>
+  </si>
+  <si>
+    <t>IPC 3 channel (default for IUNIT)</t>
+  </si>
+  <si>
+    <t>IPC 4 channel (default for PUNIT)</t>
+  </si>
+  <si>
+    <t>IPC 5 channel (default for cAVS)</t>
+  </si>
+  <si>
+    <t>IPC 6 channel (default for Modem)</t>
+  </si>
+  <si>
+    <t>IPC 7 channel (default for CNVi)</t>
+  </si>
+  <si>
+    <t>768 KB</t>
+  </si>
+  <si>
+    <t>- Updated MCC CSE SRAM size to 768KB
+- Removed IUNIT IPC since MCC has no IUNIT</t>
   </si>
 </sst>
 </file>
@@ -6605,8 +6791,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6617,6 +6803,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -6686,6 +6875,9 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6710,9 +6902,6 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6740,11 +6929,8 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7061,7 +7247,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7491,14 +7677,22 @@
         <v>137</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="236"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="236">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9">
+        <v>43082</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="236"/>
@@ -7572,15 +7766,15 @@
   <dimension ref="A1:AD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="V108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="U36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB117" sqref="AB117"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="350" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="305" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08984375" style="17" bestFit="1" customWidth="1"/>
@@ -7604,37 +7798,37 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="313" t="s">
+      <c r="B3" s="314" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="309" t="s">
+      <c r="C3" s="310" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="310"/>
+      <c r="D3" s="311"/>
       <c r="E3" s="248"/>
-      <c r="F3" s="318" t="s">
+      <c r="F3" s="319" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="321" t="s">
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="322" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="322"/>
-      <c r="L3" s="323" t="s">
+      <c r="K3" s="323"/>
+      <c r="L3" s="324" t="s">
         <v>325</v>
       </c>
-      <c r="M3" s="324"/>
-      <c r="N3" s="327" t="s">
+      <c r="M3" s="325"/>
+      <c r="N3" s="328" t="s">
         <v>326</v>
       </c>
-      <c r="O3" s="325"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="325" t="s">
+      <c r="O3" s="326"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="326"/>
+      <c r="R3" s="327"/>
       <c r="S3" s="205" t="s">
         <v>102</v>
       </c>
@@ -7656,10 +7850,10 @@
       <c r="Y3" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="Z3" s="316" t="s">
+      <c r="Z3" s="317" t="s">
         <v>231</v>
       </c>
-      <c r="AA3" s="317"/>
+      <c r="AA3" s="318"/>
       <c r="AB3" s="278" t="s">
         <v>340</v>
       </c>
@@ -7671,11 +7865,11 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="314"/>
-      <c r="C4" s="311" t="s">
+      <c r="B4" s="315"/>
+      <c r="C4" s="312" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="312"/>
+      <c r="D4" s="313"/>
       <c r="E4" s="300" t="s">
         <v>239</v>
       </c>
@@ -7754,12 +7948,12 @@
       <c r="AD4" s="307"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="315"/>
+      <c r="B5" s="316"/>
       <c r="C5" s="286" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="302" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E5" s="301" t="s">
         <v>36</v>
@@ -7839,7 +8033,7 @@
       <c r="AD5" s="308"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="351"/>
+      <c r="A6" s="309"/>
       <c r="B6" s="54" t="s">
         <v>321</v>
       </c>
@@ -7849,39 +8043,39 @@
       <c r="D6" s="295" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="340" t="s">
-        <v>376</v>
-      </c>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="333"/>
-      <c r="J6" s="341" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6" s="342"/>
-      <c r="L6" s="342"/>
-      <c r="M6" s="342"/>
-      <c r="N6" s="342"/>
-      <c r="O6" s="342"/>
-      <c r="P6" s="342"/>
-      <c r="Q6" s="342"/>
-      <c r="R6" s="342"/>
-      <c r="S6" s="342"/>
-      <c r="T6" s="342"/>
-      <c r="U6" s="342"/>
-      <c r="V6" s="342"/>
-      <c r="W6" s="342"/>
-      <c r="X6" s="342"/>
-      <c r="Y6" s="342"/>
-      <c r="Z6" s="342"/>
-      <c r="AA6" s="342"/>
-      <c r="AB6" s="342"/>
-      <c r="AC6" s="343"/>
+      <c r="E6" s="333" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="342" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="343"/>
+      <c r="L6" s="343"/>
+      <c r="M6" s="343"/>
+      <c r="N6" s="343"/>
+      <c r="O6" s="343"/>
+      <c r="P6" s="343"/>
+      <c r="Q6" s="343"/>
+      <c r="R6" s="343"/>
+      <c r="S6" s="343"/>
+      <c r="T6" s="343"/>
+      <c r="U6" s="343"/>
+      <c r="V6" s="343"/>
+      <c r="W6" s="343"/>
+      <c r="X6" s="343"/>
+      <c r="Y6" s="343"/>
+      <c r="Z6" s="343"/>
+      <c r="AA6" s="343"/>
+      <c r="AB6" s="343"/>
+      <c r="AC6" s="344"/>
       <c r="AD6" s="293"/>
     </row>
     <row r="7" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="351"/>
+      <c r="A7" s="309"/>
       <c r="B7" s="54"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -7889,35 +8083,35 @@
       <c r="D7" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="334"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="335"/>
-      <c r="H7" s="335"/>
-      <c r="I7" s="336"/>
-      <c r="J7" s="344"/>
-      <c r="K7" s="345"/>
-      <c r="L7" s="345"/>
-      <c r="M7" s="345"/>
-      <c r="N7" s="345"/>
-      <c r="O7" s="345"/>
-      <c r="P7" s="345"/>
-      <c r="Q7" s="345"/>
-      <c r="R7" s="345"/>
-      <c r="S7" s="345"/>
-      <c r="T7" s="345"/>
-      <c r="U7" s="345"/>
-      <c r="V7" s="345"/>
-      <c r="W7" s="345"/>
-      <c r="X7" s="345"/>
-      <c r="Y7" s="345"/>
-      <c r="Z7" s="345"/>
-      <c r="AA7" s="345"/>
-      <c r="AB7" s="345"/>
-      <c r="AC7" s="346"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="346"/>
+      <c r="L7" s="346"/>
+      <c r="M7" s="346"/>
+      <c r="N7" s="346"/>
+      <c r="O7" s="346"/>
+      <c r="P7" s="346"/>
+      <c r="Q7" s="346"/>
+      <c r="R7" s="346"/>
+      <c r="S7" s="346"/>
+      <c r="T7" s="346"/>
+      <c r="U7" s="346"/>
+      <c r="V7" s="346"/>
+      <c r="W7" s="346"/>
+      <c r="X7" s="346"/>
+      <c r="Y7" s="346"/>
+      <c r="Z7" s="346"/>
+      <c r="AA7" s="346"/>
+      <c r="AB7" s="346"/>
+      <c r="AC7" s="347"/>
       <c r="AD7" s="294"/>
     </row>
     <row r="8" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="351"/>
+      <c r="A8" s="309"/>
       <c r="B8" s="54"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -7925,35 +8119,35 @@
       <c r="D8" s="296" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="334"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="335"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="345"/>
-      <c r="L8" s="345"/>
-      <c r="M8" s="345"/>
-      <c r="N8" s="345"/>
-      <c r="O8" s="345"/>
-      <c r="P8" s="345"/>
-      <c r="Q8" s="345"/>
-      <c r="R8" s="345"/>
-      <c r="S8" s="345"/>
-      <c r="T8" s="345"/>
-      <c r="U8" s="345"/>
-      <c r="V8" s="345"/>
-      <c r="W8" s="345"/>
-      <c r="X8" s="345"/>
-      <c r="Y8" s="345"/>
-      <c r="Z8" s="345"/>
-      <c r="AA8" s="345"/>
-      <c r="AB8" s="345"/>
-      <c r="AC8" s="346"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
+      <c r="I8" s="338"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="346"/>
+      <c r="L8" s="346"/>
+      <c r="M8" s="346"/>
+      <c r="N8" s="346"/>
+      <c r="O8" s="346"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="346"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="346"/>
+      <c r="T8" s="346"/>
+      <c r="U8" s="346"/>
+      <c r="V8" s="346"/>
+      <c r="W8" s="346"/>
+      <c r="X8" s="346"/>
+      <c r="Y8" s="346"/>
+      <c r="Z8" s="346"/>
+      <c r="AA8" s="346"/>
+      <c r="AB8" s="346"/>
+      <c r="AC8" s="347"/>
       <c r="AD8" s="294"/>
     </row>
     <row r="9" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="351"/>
+      <c r="A9" s="309"/>
       <c r="B9" s="54"/>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -7961,35 +8155,35 @@
       <c r="D9" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="334"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="336"/>
-      <c r="J9" s="344"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="345"/>
-      <c r="N9" s="345"/>
-      <c r="O9" s="345"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="345"/>
-      <c r="R9" s="345"/>
-      <c r="S9" s="345"/>
-      <c r="T9" s="345"/>
-      <c r="U9" s="345"/>
-      <c r="V9" s="345"/>
-      <c r="W9" s="345"/>
-      <c r="X9" s="345"/>
-      <c r="Y9" s="345"/>
-      <c r="Z9" s="345"/>
-      <c r="AA9" s="345"/>
-      <c r="AB9" s="345"/>
-      <c r="AC9" s="346"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="337"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="338"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="346"/>
+      <c r="M9" s="346"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="346"/>
+      <c r="P9" s="346"/>
+      <c r="Q9" s="346"/>
+      <c r="R9" s="346"/>
+      <c r="S9" s="346"/>
+      <c r="T9" s="346"/>
+      <c r="U9" s="346"/>
+      <c r="V9" s="346"/>
+      <c r="W9" s="346"/>
+      <c r="X9" s="346"/>
+      <c r="Y9" s="346"/>
+      <c r="Z9" s="346"/>
+      <c r="AA9" s="346"/>
+      <c r="AB9" s="346"/>
+      <c r="AC9" s="347"/>
       <c r="AD9" s="294"/>
     </row>
     <row r="10" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="351"/>
+      <c r="A10" s="309"/>
       <c r="B10" s="54"/>
       <c r="C10" s="3" t="s">
         <v>352</v>
@@ -7997,35 +8191,35 @@
       <c r="D10" s="296" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="334"/>
-      <c r="F10" s="335"/>
-      <c r="G10" s="335"/>
-      <c r="H10" s="335"/>
-      <c r="I10" s="336"/>
-      <c r="J10" s="344"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
-      <c r="N10" s="345"/>
-      <c r="O10" s="345"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="345"/>
-      <c r="R10" s="345"/>
-      <c r="S10" s="345"/>
-      <c r="T10" s="345"/>
-      <c r="U10" s="345"/>
-      <c r="V10" s="345"/>
-      <c r="W10" s="345"/>
-      <c r="X10" s="345"/>
-      <c r="Y10" s="345"/>
-      <c r="Z10" s="345"/>
-      <c r="AA10" s="345"/>
-      <c r="AB10" s="345"/>
-      <c r="AC10" s="346"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="337"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="338"/>
+      <c r="J10" s="345"/>
+      <c r="K10" s="346"/>
+      <c r="L10" s="346"/>
+      <c r="M10" s="346"/>
+      <c r="N10" s="346"/>
+      <c r="O10" s="346"/>
+      <c r="P10" s="346"/>
+      <c r="Q10" s="346"/>
+      <c r="R10" s="346"/>
+      <c r="S10" s="346"/>
+      <c r="T10" s="346"/>
+      <c r="U10" s="346"/>
+      <c r="V10" s="346"/>
+      <c r="W10" s="346"/>
+      <c r="X10" s="346"/>
+      <c r="Y10" s="346"/>
+      <c r="Z10" s="346"/>
+      <c r="AA10" s="346"/>
+      <c r="AB10" s="346"/>
+      <c r="AC10" s="347"/>
       <c r="AD10" s="294"/>
     </row>
     <row r="11" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="351"/>
+      <c r="A11" s="309"/>
       <c r="B11" s="54"/>
       <c r="C11" s="3" t="s">
         <v>184</v>
@@ -8033,35 +8227,35 @@
       <c r="D11" s="296" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="334"/>
-      <c r="F11" s="335"/>
-      <c r="G11" s="335"/>
-      <c r="H11" s="335"/>
-      <c r="I11" s="336"/>
-      <c r="J11" s="344"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="345"/>
-      <c r="S11" s="345"/>
-      <c r="T11" s="345"/>
-      <c r="U11" s="345"/>
-      <c r="V11" s="345"/>
-      <c r="W11" s="345"/>
-      <c r="X11" s="345"/>
-      <c r="Y11" s="345"/>
-      <c r="Z11" s="345"/>
-      <c r="AA11" s="345"/>
-      <c r="AB11" s="345"/>
-      <c r="AC11" s="346"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="337"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="337"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="345"/>
+      <c r="K11" s="346"/>
+      <c r="L11" s="346"/>
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
+      <c r="O11" s="346"/>
+      <c r="P11" s="346"/>
+      <c r="Q11" s="346"/>
+      <c r="R11" s="346"/>
+      <c r="S11" s="346"/>
+      <c r="T11" s="346"/>
+      <c r="U11" s="346"/>
+      <c r="V11" s="346"/>
+      <c r="W11" s="346"/>
+      <c r="X11" s="346"/>
+      <c r="Y11" s="346"/>
+      <c r="Z11" s="346"/>
+      <c r="AA11" s="346"/>
+      <c r="AB11" s="346"/>
+      <c r="AC11" s="347"/>
       <c r="AD11" s="294"/>
     </row>
     <row r="12" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="351"/>
+      <c r="A12" s="309"/>
       <c r="B12" s="54"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -8069,35 +8263,35 @@
       <c r="D12" s="298" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="334"/>
-      <c r="F12" s="335"/>
-      <c r="G12" s="335"/>
-      <c r="H12" s="335"/>
-      <c r="I12" s="336"/>
-      <c r="J12" s="344"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="345"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="345"/>
-      <c r="R12" s="345"/>
-      <c r="S12" s="345"/>
-      <c r="T12" s="345"/>
-      <c r="U12" s="345"/>
-      <c r="V12" s="345"/>
-      <c r="W12" s="345"/>
-      <c r="X12" s="345"/>
-      <c r="Y12" s="345"/>
-      <c r="Z12" s="345"/>
-      <c r="AA12" s="345"/>
-      <c r="AB12" s="345"/>
-      <c r="AC12" s="346"/>
+      <c r="E12" s="336"/>
+      <c r="F12" s="337"/>
+      <c r="G12" s="337"/>
+      <c r="H12" s="337"/>
+      <c r="I12" s="338"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="346"/>
+      <c r="L12" s="346"/>
+      <c r="M12" s="346"/>
+      <c r="N12" s="346"/>
+      <c r="O12" s="346"/>
+      <c r="P12" s="346"/>
+      <c r="Q12" s="346"/>
+      <c r="R12" s="346"/>
+      <c r="S12" s="346"/>
+      <c r="T12" s="346"/>
+      <c r="U12" s="346"/>
+      <c r="V12" s="346"/>
+      <c r="W12" s="346"/>
+      <c r="X12" s="346"/>
+      <c r="Y12" s="346"/>
+      <c r="Z12" s="346"/>
+      <c r="AA12" s="346"/>
+      <c r="AB12" s="346"/>
+      <c r="AC12" s="347"/>
       <c r="AD12" s="294"/>
     </row>
     <row r="13" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="351"/>
+      <c r="A13" s="309"/>
       <c r="B13" s="54"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -8105,35 +8299,35 @@
       <c r="D13" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="334"/>
-      <c r="F13" s="335"/>
-      <c r="G13" s="335"/>
-      <c r="H13" s="335"/>
-      <c r="I13" s="336"/>
-      <c r="J13" s="344"/>
-      <c r="K13" s="345"/>
-      <c r="L13" s="345"/>
-      <c r="M13" s="345"/>
-      <c r="N13" s="345"/>
-      <c r="O13" s="345"/>
-      <c r="P13" s="345"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="345"/>
-      <c r="S13" s="345"/>
-      <c r="T13" s="345"/>
-      <c r="U13" s="345"/>
-      <c r="V13" s="345"/>
-      <c r="W13" s="345"/>
-      <c r="X13" s="345"/>
-      <c r="Y13" s="345"/>
-      <c r="Z13" s="345"/>
-      <c r="AA13" s="345"/>
-      <c r="AB13" s="345"/>
-      <c r="AC13" s="346"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="337"/>
+      <c r="G13" s="337"/>
+      <c r="H13" s="337"/>
+      <c r="I13" s="338"/>
+      <c r="J13" s="345"/>
+      <c r="K13" s="346"/>
+      <c r="L13" s="346"/>
+      <c r="M13" s="346"/>
+      <c r="N13" s="346"/>
+      <c r="O13" s="346"/>
+      <c r="P13" s="346"/>
+      <c r="Q13" s="346"/>
+      <c r="R13" s="346"/>
+      <c r="S13" s="346"/>
+      <c r="T13" s="346"/>
+      <c r="U13" s="346"/>
+      <c r="V13" s="346"/>
+      <c r="W13" s="346"/>
+      <c r="X13" s="346"/>
+      <c r="Y13" s="346"/>
+      <c r="Z13" s="346"/>
+      <c r="AA13" s="346"/>
+      <c r="AB13" s="346"/>
+      <c r="AC13" s="347"/>
       <c r="AD13" s="294"/>
     </row>
     <row r="14" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="351"/>
+      <c r="A14" s="309"/>
       <c r="B14" s="54"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
@@ -8141,35 +8335,35 @@
       <c r="D14" s="298">
         <v>32</v>
       </c>
-      <c r="E14" s="334"/>
-      <c r="F14" s="335"/>
-      <c r="G14" s="335"/>
-      <c r="H14" s="335"/>
-      <c r="I14" s="336"/>
-      <c r="J14" s="344"/>
-      <c r="K14" s="345"/>
-      <c r="L14" s="345"/>
-      <c r="M14" s="345"/>
-      <c r="N14" s="345"/>
-      <c r="O14" s="345"/>
-      <c r="P14" s="345"/>
-      <c r="Q14" s="345"/>
-      <c r="R14" s="345"/>
-      <c r="S14" s="345"/>
-      <c r="T14" s="345"/>
-      <c r="U14" s="345"/>
-      <c r="V14" s="345"/>
-      <c r="W14" s="345"/>
-      <c r="X14" s="345"/>
-      <c r="Y14" s="345"/>
-      <c r="Z14" s="345"/>
-      <c r="AA14" s="345"/>
-      <c r="AB14" s="345"/>
-      <c r="AC14" s="346"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="337"/>
+      <c r="G14" s="337"/>
+      <c r="H14" s="337"/>
+      <c r="I14" s="338"/>
+      <c r="J14" s="345"/>
+      <c r="K14" s="346"/>
+      <c r="L14" s="346"/>
+      <c r="M14" s="346"/>
+      <c r="N14" s="346"/>
+      <c r="O14" s="346"/>
+      <c r="P14" s="346"/>
+      <c r="Q14" s="346"/>
+      <c r="R14" s="346"/>
+      <c r="S14" s="346"/>
+      <c r="T14" s="346"/>
+      <c r="U14" s="346"/>
+      <c r="V14" s="346"/>
+      <c r="W14" s="346"/>
+      <c r="X14" s="346"/>
+      <c r="Y14" s="346"/>
+      <c r="Z14" s="346"/>
+      <c r="AA14" s="346"/>
+      <c r="AB14" s="346"/>
+      <c r="AC14" s="347"/>
       <c r="AD14" s="294"/>
     </row>
     <row r="15" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="351"/>
+      <c r="A15" s="309"/>
       <c r="B15" s="54"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -8177,35 +8371,35 @@
       <c r="D15" s="298">
         <v>32</v>
       </c>
-      <c r="E15" s="334"/>
-      <c r="F15" s="335"/>
-      <c r="G15" s="335"/>
-      <c r="H15" s="335"/>
-      <c r="I15" s="336"/>
-      <c r="J15" s="344"/>
-      <c r="K15" s="345"/>
-      <c r="L15" s="345"/>
-      <c r="M15" s="345"/>
-      <c r="N15" s="345"/>
-      <c r="O15" s="345"/>
-      <c r="P15" s="345"/>
-      <c r="Q15" s="345"/>
-      <c r="R15" s="345"/>
-      <c r="S15" s="345"/>
-      <c r="T15" s="345"/>
-      <c r="U15" s="345"/>
-      <c r="V15" s="345"/>
-      <c r="W15" s="345"/>
-      <c r="X15" s="345"/>
-      <c r="Y15" s="345"/>
-      <c r="Z15" s="345"/>
-      <c r="AA15" s="345"/>
-      <c r="AB15" s="345"/>
-      <c r="AC15" s="346"/>
+      <c r="E15" s="336"/>
+      <c r="F15" s="337"/>
+      <c r="G15" s="337"/>
+      <c r="H15" s="337"/>
+      <c r="I15" s="338"/>
+      <c r="J15" s="345"/>
+      <c r="K15" s="346"/>
+      <c r="L15" s="346"/>
+      <c r="M15" s="346"/>
+      <c r="N15" s="346"/>
+      <c r="O15" s="346"/>
+      <c r="P15" s="346"/>
+      <c r="Q15" s="346"/>
+      <c r="R15" s="346"/>
+      <c r="S15" s="346"/>
+      <c r="T15" s="346"/>
+      <c r="U15" s="346"/>
+      <c r="V15" s="346"/>
+      <c r="W15" s="346"/>
+      <c r="X15" s="346"/>
+      <c r="Y15" s="346"/>
+      <c r="Z15" s="346"/>
+      <c r="AA15" s="346"/>
+      <c r="AB15" s="346"/>
+      <c r="AC15" s="347"/>
       <c r="AD15" s="294"/>
     </row>
     <row r="16" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="351"/>
+      <c r="A16" s="309"/>
       <c r="B16" s="54"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -8213,35 +8407,35 @@
       <c r="D16" s="296" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="334"/>
-      <c r="F16" s="335"/>
-      <c r="G16" s="335"/>
-      <c r="H16" s="335"/>
-      <c r="I16" s="336"/>
-      <c r="J16" s="344"/>
-      <c r="K16" s="345"/>
-      <c r="L16" s="345"/>
-      <c r="M16" s="345"/>
-      <c r="N16" s="345"/>
-      <c r="O16" s="345"/>
-      <c r="P16" s="345"/>
-      <c r="Q16" s="345"/>
-      <c r="R16" s="345"/>
-      <c r="S16" s="345"/>
-      <c r="T16" s="345"/>
-      <c r="U16" s="345"/>
-      <c r="V16" s="345"/>
-      <c r="W16" s="345"/>
-      <c r="X16" s="345"/>
-      <c r="Y16" s="345"/>
-      <c r="Z16" s="345"/>
-      <c r="AA16" s="345"/>
-      <c r="AB16" s="345"/>
-      <c r="AC16" s="346"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="337"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="338"/>
+      <c r="J16" s="345"/>
+      <c r="K16" s="346"/>
+      <c r="L16" s="346"/>
+      <c r="M16" s="346"/>
+      <c r="N16" s="346"/>
+      <c r="O16" s="346"/>
+      <c r="P16" s="346"/>
+      <c r="Q16" s="346"/>
+      <c r="R16" s="346"/>
+      <c r="S16" s="346"/>
+      <c r="T16" s="346"/>
+      <c r="U16" s="346"/>
+      <c r="V16" s="346"/>
+      <c r="W16" s="346"/>
+      <c r="X16" s="346"/>
+      <c r="Y16" s="346"/>
+      <c r="Z16" s="346"/>
+      <c r="AA16" s="346"/>
+      <c r="AB16" s="346"/>
+      <c r="AC16" s="347"/>
       <c r="AD16" s="294"/>
     </row>
     <row r="17" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="351"/>
+      <c r="A17" s="309"/>
       <c r="B17" s="48" t="s">
         <v>23</v>
       </c>
@@ -8251,35 +8445,35 @@
       <c r="D17" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="334"/>
-      <c r="F17" s="335"/>
-      <c r="G17" s="335"/>
-      <c r="H17" s="335"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="344"/>
-      <c r="K17" s="345"/>
-      <c r="L17" s="345"/>
-      <c r="M17" s="345"/>
-      <c r="N17" s="345"/>
-      <c r="O17" s="345"/>
-      <c r="P17" s="345"/>
-      <c r="Q17" s="345"/>
-      <c r="R17" s="345"/>
-      <c r="S17" s="345"/>
-      <c r="T17" s="345"/>
-      <c r="U17" s="345"/>
-      <c r="V17" s="345"/>
-      <c r="W17" s="345"/>
-      <c r="X17" s="345"/>
-      <c r="Y17" s="345"/>
-      <c r="Z17" s="345"/>
-      <c r="AA17" s="345"/>
-      <c r="AB17" s="345"/>
-      <c r="AC17" s="346"/>
+      <c r="E17" s="336"/>
+      <c r="F17" s="337"/>
+      <c r="G17" s="337"/>
+      <c r="H17" s="337"/>
+      <c r="I17" s="338"/>
+      <c r="J17" s="345"/>
+      <c r="K17" s="346"/>
+      <c r="L17" s="346"/>
+      <c r="M17" s="346"/>
+      <c r="N17" s="346"/>
+      <c r="O17" s="346"/>
+      <c r="P17" s="346"/>
+      <c r="Q17" s="346"/>
+      <c r="R17" s="346"/>
+      <c r="S17" s="346"/>
+      <c r="T17" s="346"/>
+      <c r="U17" s="346"/>
+      <c r="V17" s="346"/>
+      <c r="W17" s="346"/>
+      <c r="X17" s="346"/>
+      <c r="Y17" s="346"/>
+      <c r="Z17" s="346"/>
+      <c r="AA17" s="346"/>
+      <c r="AB17" s="346"/>
+      <c r="AC17" s="347"/>
       <c r="AD17" s="294"/>
     </row>
     <row r="18" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="351"/>
+      <c r="A18" s="309"/>
       <c r="B18" s="54"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -8287,35 +8481,35 @@
       <c r="D18" s="287">
         <v>128</v>
       </c>
-      <c r="E18" s="334"/>
-      <c r="F18" s="335"/>
-      <c r="G18" s="335"/>
-      <c r="H18" s="335"/>
-      <c r="I18" s="336"/>
-      <c r="J18" s="344"/>
-      <c r="K18" s="345"/>
-      <c r="L18" s="345"/>
-      <c r="M18" s="345"/>
-      <c r="N18" s="345"/>
-      <c r="O18" s="345"/>
-      <c r="P18" s="345"/>
-      <c r="Q18" s="345"/>
-      <c r="R18" s="345"/>
-      <c r="S18" s="345"/>
-      <c r="T18" s="345"/>
-      <c r="U18" s="345"/>
-      <c r="V18" s="345"/>
-      <c r="W18" s="345"/>
-      <c r="X18" s="345"/>
-      <c r="Y18" s="345"/>
-      <c r="Z18" s="345"/>
-      <c r="AA18" s="345"/>
-      <c r="AB18" s="345"/>
-      <c r="AC18" s="346"/>
+      <c r="E18" s="336"/>
+      <c r="F18" s="337"/>
+      <c r="G18" s="337"/>
+      <c r="H18" s="337"/>
+      <c r="I18" s="338"/>
+      <c r="J18" s="345"/>
+      <c r="K18" s="346"/>
+      <c r="L18" s="346"/>
+      <c r="M18" s="346"/>
+      <c r="N18" s="346"/>
+      <c r="O18" s="346"/>
+      <c r="P18" s="346"/>
+      <c r="Q18" s="346"/>
+      <c r="R18" s="346"/>
+      <c r="S18" s="346"/>
+      <c r="T18" s="346"/>
+      <c r="U18" s="346"/>
+      <c r="V18" s="346"/>
+      <c r="W18" s="346"/>
+      <c r="X18" s="346"/>
+      <c r="Y18" s="346"/>
+      <c r="Z18" s="346"/>
+      <c r="AA18" s="346"/>
+      <c r="AB18" s="346"/>
+      <c r="AC18" s="347"/>
       <c r="AD18" s="294"/>
     </row>
     <row r="19" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="351"/>
+      <c r="A19" s="309"/>
       <c r="B19" s="54"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -8323,35 +8517,35 @@
       <c r="D19" s="287" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="334"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
-      <c r="H19" s="335"/>
-      <c r="I19" s="336"/>
-      <c r="J19" s="344"/>
-      <c r="K19" s="345"/>
-      <c r="L19" s="345"/>
-      <c r="M19" s="345"/>
-      <c r="N19" s="345"/>
-      <c r="O19" s="345"/>
-      <c r="P19" s="345"/>
-      <c r="Q19" s="345"/>
-      <c r="R19" s="345"/>
-      <c r="S19" s="345"/>
-      <c r="T19" s="345"/>
-      <c r="U19" s="345"/>
-      <c r="V19" s="345"/>
-      <c r="W19" s="345"/>
-      <c r="X19" s="345"/>
-      <c r="Y19" s="345"/>
-      <c r="Z19" s="345"/>
-      <c r="AA19" s="345"/>
-      <c r="AB19" s="345"/>
-      <c r="AC19" s="346"/>
+      <c r="E19" s="336"/>
+      <c r="F19" s="337"/>
+      <c r="G19" s="337"/>
+      <c r="H19" s="337"/>
+      <c r="I19" s="338"/>
+      <c r="J19" s="345"/>
+      <c r="K19" s="346"/>
+      <c r="L19" s="346"/>
+      <c r="M19" s="346"/>
+      <c r="N19" s="346"/>
+      <c r="O19" s="346"/>
+      <c r="P19" s="346"/>
+      <c r="Q19" s="346"/>
+      <c r="R19" s="346"/>
+      <c r="S19" s="346"/>
+      <c r="T19" s="346"/>
+      <c r="U19" s="346"/>
+      <c r="V19" s="346"/>
+      <c r="W19" s="346"/>
+      <c r="X19" s="346"/>
+      <c r="Y19" s="346"/>
+      <c r="Z19" s="346"/>
+      <c r="AA19" s="346"/>
+      <c r="AB19" s="346"/>
+      <c r="AC19" s="347"/>
       <c r="AD19" s="294"/>
     </row>
     <row r="20" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="351"/>
+      <c r="A20" s="309"/>
       <c r="B20" s="75"/>
       <c r="C20" s="76" t="s">
         <v>29</v>
@@ -8359,35 +8553,35 @@
       <c r="D20" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="334"/>
-      <c r="F20" s="335"/>
-      <c r="G20" s="335"/>
-      <c r="H20" s="335"/>
-      <c r="I20" s="336"/>
-      <c r="J20" s="344"/>
-      <c r="K20" s="345"/>
-      <c r="L20" s="345"/>
-      <c r="M20" s="345"/>
-      <c r="N20" s="345"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="345"/>
-      <c r="Q20" s="345"/>
-      <c r="R20" s="345"/>
-      <c r="S20" s="345"/>
-      <c r="T20" s="345"/>
-      <c r="U20" s="345"/>
-      <c r="V20" s="345"/>
-      <c r="W20" s="345"/>
-      <c r="X20" s="345"/>
-      <c r="Y20" s="345"/>
-      <c r="Z20" s="345"/>
-      <c r="AA20" s="345"/>
-      <c r="AB20" s="345"/>
-      <c r="AC20" s="346"/>
+      <c r="E20" s="336"/>
+      <c r="F20" s="337"/>
+      <c r="G20" s="337"/>
+      <c r="H20" s="337"/>
+      <c r="I20" s="338"/>
+      <c r="J20" s="345"/>
+      <c r="K20" s="346"/>
+      <c r="L20" s="346"/>
+      <c r="M20" s="346"/>
+      <c r="N20" s="346"/>
+      <c r="O20" s="346"/>
+      <c r="P20" s="346"/>
+      <c r="Q20" s="346"/>
+      <c r="R20" s="346"/>
+      <c r="S20" s="346"/>
+      <c r="T20" s="346"/>
+      <c r="U20" s="346"/>
+      <c r="V20" s="346"/>
+      <c r="W20" s="346"/>
+      <c r="X20" s="346"/>
+      <c r="Y20" s="346"/>
+      <c r="Z20" s="346"/>
+      <c r="AA20" s="346"/>
+      <c r="AB20" s="346"/>
+      <c r="AC20" s="347"/>
       <c r="AD20" s="294"/>
     </row>
     <row r="21" spans="1:30" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="351"/>
+      <c r="A21" s="309"/>
       <c r="B21" s="290" t="s">
         <v>101</v>
       </c>
@@ -8397,35 +8591,35 @@
       <c r="D21" s="292" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="334"/>
-      <c r="F21" s="335"/>
-      <c r="G21" s="335"/>
-      <c r="H21" s="335"/>
-      <c r="I21" s="336"/>
-      <c r="J21" s="344"/>
-      <c r="K21" s="345"/>
-      <c r="L21" s="345"/>
-      <c r="M21" s="345"/>
-      <c r="N21" s="345"/>
-      <c r="O21" s="345"/>
-      <c r="P21" s="345"/>
-      <c r="Q21" s="345"/>
-      <c r="R21" s="345"/>
-      <c r="S21" s="345"/>
-      <c r="T21" s="345"/>
-      <c r="U21" s="345"/>
-      <c r="V21" s="345"/>
-      <c r="W21" s="345"/>
-      <c r="X21" s="345"/>
-      <c r="Y21" s="345"/>
-      <c r="Z21" s="345"/>
-      <c r="AA21" s="345"/>
-      <c r="AB21" s="345"/>
-      <c r="AC21" s="346"/>
+      <c r="E21" s="336"/>
+      <c r="F21" s="337"/>
+      <c r="G21" s="337"/>
+      <c r="H21" s="337"/>
+      <c r="I21" s="338"/>
+      <c r="J21" s="345"/>
+      <c r="K21" s="346"/>
+      <c r="L21" s="346"/>
+      <c r="M21" s="346"/>
+      <c r="N21" s="346"/>
+      <c r="O21" s="346"/>
+      <c r="P21" s="346"/>
+      <c r="Q21" s="346"/>
+      <c r="R21" s="346"/>
+      <c r="S21" s="346"/>
+      <c r="T21" s="346"/>
+      <c r="U21" s="346"/>
+      <c r="V21" s="346"/>
+      <c r="W21" s="346"/>
+      <c r="X21" s="346"/>
+      <c r="Y21" s="346"/>
+      <c r="Z21" s="346"/>
+      <c r="AA21" s="346"/>
+      <c r="AB21" s="346"/>
+      <c r="AC21" s="347"/>
       <c r="AD21" s="294"/>
     </row>
     <row r="22" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="351"/>
+      <c r="A22" s="309"/>
       <c r="B22" s="54" t="s">
         <v>46</v>
       </c>
@@ -8435,35 +8629,35 @@
       <c r="D22" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="334"/>
-      <c r="F22" s="335"/>
-      <c r="G22" s="335"/>
-      <c r="H22" s="335"/>
-      <c r="I22" s="336"/>
-      <c r="J22" s="344"/>
-      <c r="K22" s="345"/>
-      <c r="L22" s="345"/>
-      <c r="M22" s="345"/>
-      <c r="N22" s="345"/>
-      <c r="O22" s="345"/>
-      <c r="P22" s="345"/>
-      <c r="Q22" s="345"/>
-      <c r="R22" s="345"/>
-      <c r="S22" s="345"/>
-      <c r="T22" s="345"/>
-      <c r="U22" s="345"/>
-      <c r="V22" s="345"/>
-      <c r="W22" s="345"/>
-      <c r="X22" s="345"/>
-      <c r="Y22" s="345"/>
-      <c r="Z22" s="345"/>
-      <c r="AA22" s="345"/>
-      <c r="AB22" s="345"/>
-      <c r="AC22" s="346"/>
+      <c r="E22" s="336"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="337"/>
+      <c r="H22" s="337"/>
+      <c r="I22" s="338"/>
+      <c r="J22" s="345"/>
+      <c r="K22" s="346"/>
+      <c r="L22" s="346"/>
+      <c r="M22" s="346"/>
+      <c r="N22" s="346"/>
+      <c r="O22" s="346"/>
+      <c r="P22" s="346"/>
+      <c r="Q22" s="346"/>
+      <c r="R22" s="346"/>
+      <c r="S22" s="346"/>
+      <c r="T22" s="346"/>
+      <c r="U22" s="346"/>
+      <c r="V22" s="346"/>
+      <c r="W22" s="346"/>
+      <c r="X22" s="346"/>
+      <c r="Y22" s="346"/>
+      <c r="Z22" s="346"/>
+      <c r="AA22" s="346"/>
+      <c r="AB22" s="346"/>
+      <c r="AC22" s="347"/>
       <c r="AD22" s="216"/>
     </row>
     <row r="23" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="351"/>
+      <c r="A23" s="309"/>
       <c r="B23" s="54"/>
       <c r="C23" s="3" t="s">
         <v>351</v>
@@ -8471,35 +8665,35 @@
       <c r="D23" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="334"/>
-      <c r="F23" s="335"/>
-      <c r="G23" s="335"/>
-      <c r="H23" s="335"/>
-      <c r="I23" s="336"/>
-      <c r="J23" s="344"/>
-      <c r="K23" s="345"/>
-      <c r="L23" s="345"/>
-      <c r="M23" s="345"/>
-      <c r="N23" s="345"/>
-      <c r="O23" s="345"/>
-      <c r="P23" s="345"/>
-      <c r="Q23" s="345"/>
-      <c r="R23" s="345"/>
-      <c r="S23" s="345"/>
-      <c r="T23" s="345"/>
-      <c r="U23" s="345"/>
-      <c r="V23" s="345"/>
-      <c r="W23" s="345"/>
-      <c r="X23" s="345"/>
-      <c r="Y23" s="345"/>
-      <c r="Z23" s="345"/>
-      <c r="AA23" s="345"/>
-      <c r="AB23" s="345"/>
-      <c r="AC23" s="346"/>
+      <c r="E23" s="336"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="337"/>
+      <c r="H23" s="337"/>
+      <c r="I23" s="338"/>
+      <c r="J23" s="345"/>
+      <c r="K23" s="346"/>
+      <c r="L23" s="346"/>
+      <c r="M23" s="346"/>
+      <c r="N23" s="346"/>
+      <c r="O23" s="346"/>
+      <c r="P23" s="346"/>
+      <c r="Q23" s="346"/>
+      <c r="R23" s="346"/>
+      <c r="S23" s="346"/>
+      <c r="T23" s="346"/>
+      <c r="U23" s="346"/>
+      <c r="V23" s="346"/>
+      <c r="W23" s="346"/>
+      <c r="X23" s="346"/>
+      <c r="Y23" s="346"/>
+      <c r="Z23" s="346"/>
+      <c r="AA23" s="346"/>
+      <c r="AB23" s="346"/>
+      <c r="AC23" s="347"/>
       <c r="AD23" s="216"/>
     </row>
     <row r="24" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="351"/>
+      <c r="A24" s="309"/>
       <c r="B24" s="54"/>
       <c r="C24" s="3" t="s">
         <v>189</v>
@@ -8507,35 +8701,35 @@
       <c r="D24" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="334"/>
-      <c r="F24" s="335"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="335"/>
-      <c r="I24" s="336"/>
-      <c r="J24" s="344"/>
-      <c r="K24" s="345"/>
-      <c r="L24" s="345"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="345"/>
-      <c r="O24" s="345"/>
-      <c r="P24" s="345"/>
-      <c r="Q24" s="345"/>
-      <c r="R24" s="345"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="345"/>
-      <c r="U24" s="345"/>
-      <c r="V24" s="345"/>
-      <c r="W24" s="345"/>
-      <c r="X24" s="345"/>
-      <c r="Y24" s="345"/>
-      <c r="Z24" s="345"/>
-      <c r="AA24" s="345"/>
-      <c r="AB24" s="345"/>
-      <c r="AC24" s="346"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="337"/>
+      <c r="G24" s="337"/>
+      <c r="H24" s="337"/>
+      <c r="I24" s="338"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="346"/>
+      <c r="L24" s="346"/>
+      <c r="M24" s="346"/>
+      <c r="N24" s="346"/>
+      <c r="O24" s="346"/>
+      <c r="P24" s="346"/>
+      <c r="Q24" s="346"/>
+      <c r="R24" s="346"/>
+      <c r="S24" s="346"/>
+      <c r="T24" s="346"/>
+      <c r="U24" s="346"/>
+      <c r="V24" s="346"/>
+      <c r="W24" s="346"/>
+      <c r="X24" s="346"/>
+      <c r="Y24" s="346"/>
+      <c r="Z24" s="346"/>
+      <c r="AA24" s="346"/>
+      <c r="AB24" s="346"/>
+      <c r="AC24" s="347"/>
       <c r="AD24" s="216"/>
     </row>
     <row r="25" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="351"/>
+      <c r="A25" s="309"/>
       <c r="B25" s="54"/>
       <c r="C25" s="3" t="s">
         <v>191</v>
@@ -8543,35 +8737,35 @@
       <c r="D25" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="334"/>
-      <c r="F25" s="335"/>
-      <c r="G25" s="335"/>
-      <c r="H25" s="335"/>
-      <c r="I25" s="336"/>
-      <c r="J25" s="344"/>
-      <c r="K25" s="345"/>
-      <c r="L25" s="345"/>
-      <c r="M25" s="345"/>
-      <c r="N25" s="345"/>
-      <c r="O25" s="345"/>
-      <c r="P25" s="345"/>
-      <c r="Q25" s="345"/>
-      <c r="R25" s="345"/>
-      <c r="S25" s="345"/>
-      <c r="T25" s="345"/>
-      <c r="U25" s="345"/>
-      <c r="V25" s="345"/>
-      <c r="W25" s="345"/>
-      <c r="X25" s="345"/>
-      <c r="Y25" s="345"/>
-      <c r="Z25" s="345"/>
-      <c r="AA25" s="345"/>
-      <c r="AB25" s="345"/>
-      <c r="AC25" s="346"/>
+      <c r="E25" s="336"/>
+      <c r="F25" s="337"/>
+      <c r="G25" s="337"/>
+      <c r="H25" s="337"/>
+      <c r="I25" s="338"/>
+      <c r="J25" s="345"/>
+      <c r="K25" s="346"/>
+      <c r="L25" s="346"/>
+      <c r="M25" s="346"/>
+      <c r="N25" s="346"/>
+      <c r="O25" s="346"/>
+      <c r="P25" s="346"/>
+      <c r="Q25" s="346"/>
+      <c r="R25" s="346"/>
+      <c r="S25" s="346"/>
+      <c r="T25" s="346"/>
+      <c r="U25" s="346"/>
+      <c r="V25" s="346"/>
+      <c r="W25" s="346"/>
+      <c r="X25" s="346"/>
+      <c r="Y25" s="346"/>
+      <c r="Z25" s="346"/>
+      <c r="AA25" s="346"/>
+      <c r="AB25" s="346"/>
+      <c r="AC25" s="347"/>
       <c r="AD25" s="216"/>
     </row>
     <row r="26" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="351"/>
+      <c r="A26" s="309"/>
       <c r="B26" s="54"/>
       <c r="C26" s="3" t="s">
         <v>315</v>
@@ -8579,35 +8773,35 @@
       <c r="D26" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="334"/>
-      <c r="F26" s="335"/>
-      <c r="G26" s="335"/>
-      <c r="H26" s="335"/>
-      <c r="I26" s="336"/>
-      <c r="J26" s="344"/>
-      <c r="K26" s="345"/>
-      <c r="L26" s="345"/>
-      <c r="M26" s="345"/>
-      <c r="N26" s="345"/>
-      <c r="O26" s="345"/>
-      <c r="P26" s="345"/>
-      <c r="Q26" s="345"/>
-      <c r="R26" s="345"/>
-      <c r="S26" s="345"/>
-      <c r="T26" s="345"/>
-      <c r="U26" s="345"/>
-      <c r="V26" s="345"/>
-      <c r="W26" s="345"/>
-      <c r="X26" s="345"/>
-      <c r="Y26" s="345"/>
-      <c r="Z26" s="345"/>
-      <c r="AA26" s="345"/>
-      <c r="AB26" s="345"/>
-      <c r="AC26" s="346"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="337"/>
+      <c r="G26" s="337"/>
+      <c r="H26" s="337"/>
+      <c r="I26" s="338"/>
+      <c r="J26" s="345"/>
+      <c r="K26" s="346"/>
+      <c r="L26" s="346"/>
+      <c r="M26" s="346"/>
+      <c r="N26" s="346"/>
+      <c r="O26" s="346"/>
+      <c r="P26" s="346"/>
+      <c r="Q26" s="346"/>
+      <c r="R26" s="346"/>
+      <c r="S26" s="346"/>
+      <c r="T26" s="346"/>
+      <c r="U26" s="346"/>
+      <c r="V26" s="346"/>
+      <c r="W26" s="346"/>
+      <c r="X26" s="346"/>
+      <c r="Y26" s="346"/>
+      <c r="Z26" s="346"/>
+      <c r="AA26" s="346"/>
+      <c r="AB26" s="346"/>
+      <c r="AC26" s="347"/>
       <c r="AD26" s="216"/>
     </row>
     <row r="27" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="351"/>
+      <c r="A27" s="309"/>
       <c r="B27" s="54"/>
       <c r="C27" s="3" t="s">
         <v>200</v>
@@ -8615,35 +8809,35 @@
       <c r="D27" s="287" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="334"/>
-      <c r="F27" s="335"/>
-      <c r="G27" s="335"/>
-      <c r="H27" s="335"/>
-      <c r="I27" s="336"/>
-      <c r="J27" s="344"/>
-      <c r="K27" s="345"/>
-      <c r="L27" s="345"/>
-      <c r="M27" s="345"/>
-      <c r="N27" s="345"/>
-      <c r="O27" s="345"/>
-      <c r="P27" s="345"/>
-      <c r="Q27" s="345"/>
-      <c r="R27" s="345"/>
-      <c r="S27" s="345"/>
-      <c r="T27" s="345"/>
-      <c r="U27" s="345"/>
-      <c r="V27" s="345"/>
-      <c r="W27" s="345"/>
-      <c r="X27" s="345"/>
-      <c r="Y27" s="345"/>
-      <c r="Z27" s="345"/>
-      <c r="AA27" s="345"/>
-      <c r="AB27" s="345"/>
-      <c r="AC27" s="346"/>
+      <c r="E27" s="336"/>
+      <c r="F27" s="337"/>
+      <c r="G27" s="337"/>
+      <c r="H27" s="337"/>
+      <c r="I27" s="338"/>
+      <c r="J27" s="345"/>
+      <c r="K27" s="346"/>
+      <c r="L27" s="346"/>
+      <c r="M27" s="346"/>
+      <c r="N27" s="346"/>
+      <c r="O27" s="346"/>
+      <c r="P27" s="346"/>
+      <c r="Q27" s="346"/>
+      <c r="R27" s="346"/>
+      <c r="S27" s="346"/>
+      <c r="T27" s="346"/>
+      <c r="U27" s="346"/>
+      <c r="V27" s="346"/>
+      <c r="W27" s="346"/>
+      <c r="X27" s="346"/>
+      <c r="Y27" s="346"/>
+      <c r="Z27" s="346"/>
+      <c r="AA27" s="346"/>
+      <c r="AB27" s="346"/>
+      <c r="AC27" s="347"/>
       <c r="AD27" s="216"/>
     </row>
     <row r="28" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="351"/>
+      <c r="A28" s="309"/>
       <c r="B28" s="54"/>
       <c r="C28" s="3" t="s">
         <v>203</v>
@@ -8651,37 +8845,37 @@
       <c r="D28" s="287" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="334"/>
-      <c r="F28" s="335"/>
-      <c r="G28" s="335"/>
-      <c r="H28" s="335"/>
-      <c r="I28" s="336"/>
-      <c r="J28" s="344"/>
-      <c r="K28" s="345"/>
-      <c r="L28" s="345"/>
-      <c r="M28" s="345"/>
-      <c r="N28" s="345"/>
-      <c r="O28" s="345"/>
-      <c r="P28" s="345"/>
-      <c r="Q28" s="345"/>
-      <c r="R28" s="345"/>
-      <c r="S28" s="345"/>
-      <c r="T28" s="345"/>
-      <c r="U28" s="345"/>
-      <c r="V28" s="345"/>
-      <c r="W28" s="345"/>
-      <c r="X28" s="345"/>
-      <c r="Y28" s="345"/>
-      <c r="Z28" s="345"/>
-      <c r="AA28" s="345"/>
-      <c r="AB28" s="345"/>
-      <c r="AC28" s="346"/>
+      <c r="E28" s="336"/>
+      <c r="F28" s="337"/>
+      <c r="G28" s="337"/>
+      <c r="H28" s="337"/>
+      <c r="I28" s="338"/>
+      <c r="J28" s="345"/>
+      <c r="K28" s="346"/>
+      <c r="L28" s="346"/>
+      <c r="M28" s="346"/>
+      <c r="N28" s="346"/>
+      <c r="O28" s="346"/>
+      <c r="P28" s="346"/>
+      <c r="Q28" s="346"/>
+      <c r="R28" s="346"/>
+      <c r="S28" s="346"/>
+      <c r="T28" s="346"/>
+      <c r="U28" s="346"/>
+      <c r="V28" s="346"/>
+      <c r="W28" s="346"/>
+      <c r="X28" s="346"/>
+      <c r="Y28" s="346"/>
+      <c r="Z28" s="346"/>
+      <c r="AA28" s="346"/>
+      <c r="AB28" s="346"/>
+      <c r="AC28" s="347"/>
       <c r="AD28" s="216" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="351"/>
+      <c r="A29" s="309"/>
       <c r="B29" s="54"/>
       <c r="C29" s="3" t="s">
         <v>192</v>
@@ -8689,35 +8883,35 @@
       <c r="D29" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="334"/>
-      <c r="F29" s="335"/>
-      <c r="G29" s="335"/>
-      <c r="H29" s="335"/>
-      <c r="I29" s="336"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="345"/>
-      <c r="L29" s="345"/>
-      <c r="M29" s="345"/>
-      <c r="N29" s="345"/>
-      <c r="O29" s="345"/>
-      <c r="P29" s="345"/>
-      <c r="Q29" s="345"/>
-      <c r="R29" s="345"/>
-      <c r="S29" s="345"/>
-      <c r="T29" s="345"/>
-      <c r="U29" s="345"/>
-      <c r="V29" s="345"/>
-      <c r="W29" s="345"/>
-      <c r="X29" s="345"/>
-      <c r="Y29" s="345"/>
-      <c r="Z29" s="345"/>
-      <c r="AA29" s="345"/>
-      <c r="AB29" s="345"/>
-      <c r="AC29" s="346"/>
+      <c r="E29" s="336"/>
+      <c r="F29" s="337"/>
+      <c r="G29" s="337"/>
+      <c r="H29" s="337"/>
+      <c r="I29" s="338"/>
+      <c r="J29" s="345"/>
+      <c r="K29" s="346"/>
+      <c r="L29" s="346"/>
+      <c r="M29" s="346"/>
+      <c r="N29" s="346"/>
+      <c r="O29" s="346"/>
+      <c r="P29" s="346"/>
+      <c r="Q29" s="346"/>
+      <c r="R29" s="346"/>
+      <c r="S29" s="346"/>
+      <c r="T29" s="346"/>
+      <c r="U29" s="346"/>
+      <c r="V29" s="346"/>
+      <c r="W29" s="346"/>
+      <c r="X29" s="346"/>
+      <c r="Y29" s="346"/>
+      <c r="Z29" s="346"/>
+      <c r="AA29" s="346"/>
+      <c r="AB29" s="346"/>
+      <c r="AC29" s="347"/>
       <c r="AD29" s="216"/>
     </row>
     <row r="30" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="351"/>
+      <c r="A30" s="309"/>
       <c r="B30" s="54"/>
       <c r="C30" s="3" t="s">
         <v>68</v>
@@ -8725,35 +8919,35 @@
       <c r="D30" s="287" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="334"/>
-      <c r="F30" s="335"/>
-      <c r="G30" s="335"/>
-      <c r="H30" s="335"/>
-      <c r="I30" s="336"/>
-      <c r="J30" s="344"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="345"/>
-      <c r="M30" s="345"/>
-      <c r="N30" s="345"/>
-      <c r="O30" s="345"/>
-      <c r="P30" s="345"/>
-      <c r="Q30" s="345"/>
-      <c r="R30" s="345"/>
-      <c r="S30" s="345"/>
-      <c r="T30" s="345"/>
-      <c r="U30" s="345"/>
-      <c r="V30" s="345"/>
-      <c r="W30" s="345"/>
-      <c r="X30" s="345"/>
-      <c r="Y30" s="345"/>
-      <c r="Z30" s="345"/>
-      <c r="AA30" s="345"/>
-      <c r="AB30" s="345"/>
-      <c r="AC30" s="346"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="337"/>
+      <c r="G30" s="337"/>
+      <c r="H30" s="337"/>
+      <c r="I30" s="338"/>
+      <c r="J30" s="345"/>
+      <c r="K30" s="346"/>
+      <c r="L30" s="346"/>
+      <c r="M30" s="346"/>
+      <c r="N30" s="346"/>
+      <c r="O30" s="346"/>
+      <c r="P30" s="346"/>
+      <c r="Q30" s="346"/>
+      <c r="R30" s="346"/>
+      <c r="S30" s="346"/>
+      <c r="T30" s="346"/>
+      <c r="U30" s="346"/>
+      <c r="V30" s="346"/>
+      <c r="W30" s="346"/>
+      <c r="X30" s="346"/>
+      <c r="Y30" s="346"/>
+      <c r="Z30" s="346"/>
+      <c r="AA30" s="346"/>
+      <c r="AB30" s="346"/>
+      <c r="AC30" s="347"/>
       <c r="AD30" s="216"/>
     </row>
     <row r="31" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="351"/>
+      <c r="A31" s="309"/>
       <c r="B31" s="54"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
@@ -8761,35 +8955,35 @@
       <c r="D31" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="334"/>
-      <c r="F31" s="335"/>
-      <c r="G31" s="335"/>
-      <c r="H31" s="335"/>
-      <c r="I31" s="336"/>
-      <c r="J31" s="344"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="345"/>
-      <c r="M31" s="345"/>
-      <c r="N31" s="345"/>
-      <c r="O31" s="345"/>
-      <c r="P31" s="345"/>
-      <c r="Q31" s="345"/>
-      <c r="R31" s="345"/>
-      <c r="S31" s="345"/>
-      <c r="T31" s="345"/>
-      <c r="U31" s="345"/>
-      <c r="V31" s="345"/>
-      <c r="W31" s="345"/>
-      <c r="X31" s="345"/>
-      <c r="Y31" s="345"/>
-      <c r="Z31" s="345"/>
-      <c r="AA31" s="345"/>
-      <c r="AB31" s="345"/>
-      <c r="AC31" s="346"/>
+      <c r="E31" s="336"/>
+      <c r="F31" s="337"/>
+      <c r="G31" s="337"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="338"/>
+      <c r="J31" s="345"/>
+      <c r="K31" s="346"/>
+      <c r="L31" s="346"/>
+      <c r="M31" s="346"/>
+      <c r="N31" s="346"/>
+      <c r="O31" s="346"/>
+      <c r="P31" s="346"/>
+      <c r="Q31" s="346"/>
+      <c r="R31" s="346"/>
+      <c r="S31" s="346"/>
+      <c r="T31" s="346"/>
+      <c r="U31" s="346"/>
+      <c r="V31" s="346"/>
+      <c r="W31" s="346"/>
+      <c r="X31" s="346"/>
+      <c r="Y31" s="346"/>
+      <c r="Z31" s="346"/>
+      <c r="AA31" s="346"/>
+      <c r="AB31" s="346"/>
+      <c r="AC31" s="347"/>
       <c r="AD31" s="216"/>
     </row>
     <row r="32" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="351"/>
+      <c r="A32" s="309"/>
       <c r="B32" s="54"/>
       <c r="C32" s="3" t="s">
         <v>75</v>
@@ -8797,35 +8991,35 @@
       <c r="D32" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="334"/>
-      <c r="F32" s="335"/>
-      <c r="G32" s="335"/>
-      <c r="H32" s="335"/>
-      <c r="I32" s="336"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="345"/>
-      <c r="M32" s="345"/>
-      <c r="N32" s="345"/>
-      <c r="O32" s="345"/>
-      <c r="P32" s="345"/>
-      <c r="Q32" s="345"/>
-      <c r="R32" s="345"/>
-      <c r="S32" s="345"/>
-      <c r="T32" s="345"/>
-      <c r="U32" s="345"/>
-      <c r="V32" s="345"/>
-      <c r="W32" s="345"/>
-      <c r="X32" s="345"/>
-      <c r="Y32" s="345"/>
-      <c r="Z32" s="345"/>
-      <c r="AA32" s="345"/>
-      <c r="AB32" s="345"/>
-      <c r="AC32" s="346"/>
+      <c r="E32" s="336"/>
+      <c r="F32" s="337"/>
+      <c r="G32" s="337"/>
+      <c r="H32" s="337"/>
+      <c r="I32" s="338"/>
+      <c r="J32" s="345"/>
+      <c r="K32" s="346"/>
+      <c r="L32" s="346"/>
+      <c r="M32" s="346"/>
+      <c r="N32" s="346"/>
+      <c r="O32" s="346"/>
+      <c r="P32" s="346"/>
+      <c r="Q32" s="346"/>
+      <c r="R32" s="346"/>
+      <c r="S32" s="346"/>
+      <c r="T32" s="346"/>
+      <c r="U32" s="346"/>
+      <c r="V32" s="346"/>
+      <c r="W32" s="346"/>
+      <c r="X32" s="346"/>
+      <c r="Y32" s="346"/>
+      <c r="Z32" s="346"/>
+      <c r="AA32" s="346"/>
+      <c r="AB32" s="346"/>
+      <c r="AC32" s="347"/>
       <c r="AD32" s="216"/>
     </row>
     <row r="33" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="351"/>
+      <c r="A33" s="309"/>
       <c r="B33" s="54"/>
       <c r="C33" s="3" t="s">
         <v>76</v>
@@ -8833,35 +9027,35 @@
       <c r="D33" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="334"/>
-      <c r="F33" s="335"/>
-      <c r="G33" s="335"/>
-      <c r="H33" s="335"/>
-      <c r="I33" s="336"/>
-      <c r="J33" s="344"/>
-      <c r="K33" s="345"/>
-      <c r="L33" s="345"/>
-      <c r="M33" s="345"/>
-      <c r="N33" s="345"/>
-      <c r="O33" s="345"/>
-      <c r="P33" s="345"/>
-      <c r="Q33" s="345"/>
-      <c r="R33" s="345"/>
-      <c r="S33" s="345"/>
-      <c r="T33" s="345"/>
-      <c r="U33" s="345"/>
-      <c r="V33" s="345"/>
-      <c r="W33" s="345"/>
-      <c r="X33" s="345"/>
-      <c r="Y33" s="345"/>
-      <c r="Z33" s="345"/>
-      <c r="AA33" s="345"/>
-      <c r="AB33" s="345"/>
-      <c r="AC33" s="346"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="337"/>
+      <c r="G33" s="337"/>
+      <c r="H33" s="337"/>
+      <c r="I33" s="338"/>
+      <c r="J33" s="345"/>
+      <c r="K33" s="346"/>
+      <c r="L33" s="346"/>
+      <c r="M33" s="346"/>
+      <c r="N33" s="346"/>
+      <c r="O33" s="346"/>
+      <c r="P33" s="346"/>
+      <c r="Q33" s="346"/>
+      <c r="R33" s="346"/>
+      <c r="S33" s="346"/>
+      <c r="T33" s="346"/>
+      <c r="U33" s="346"/>
+      <c r="V33" s="346"/>
+      <c r="W33" s="346"/>
+      <c r="X33" s="346"/>
+      <c r="Y33" s="346"/>
+      <c r="Z33" s="346"/>
+      <c r="AA33" s="346"/>
+      <c r="AB33" s="346"/>
+      <c r="AC33" s="347"/>
       <c r="AD33" s="216"/>
     </row>
     <row r="34" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="351"/>
+      <c r="A34" s="309"/>
       <c r="B34" s="54"/>
       <c r="C34" s="3" t="s">
         <v>77</v>
@@ -8869,35 +9063,35 @@
       <c r="D34" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="334"/>
-      <c r="F34" s="335"/>
-      <c r="G34" s="335"/>
-      <c r="H34" s="335"/>
-      <c r="I34" s="336"/>
-      <c r="J34" s="344"/>
-      <c r="K34" s="345"/>
-      <c r="L34" s="345"/>
-      <c r="M34" s="345"/>
-      <c r="N34" s="345"/>
-      <c r="O34" s="345"/>
-      <c r="P34" s="345"/>
-      <c r="Q34" s="345"/>
-      <c r="R34" s="345"/>
-      <c r="S34" s="345"/>
-      <c r="T34" s="345"/>
-      <c r="U34" s="345"/>
-      <c r="V34" s="345"/>
-      <c r="W34" s="345"/>
-      <c r="X34" s="345"/>
-      <c r="Y34" s="345"/>
-      <c r="Z34" s="345"/>
-      <c r="AA34" s="345"/>
-      <c r="AB34" s="345"/>
-      <c r="AC34" s="346"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="337"/>
+      <c r="G34" s="337"/>
+      <c r="H34" s="337"/>
+      <c r="I34" s="338"/>
+      <c r="J34" s="345"/>
+      <c r="K34" s="346"/>
+      <c r="L34" s="346"/>
+      <c r="M34" s="346"/>
+      <c r="N34" s="346"/>
+      <c r="O34" s="346"/>
+      <c r="P34" s="346"/>
+      <c r="Q34" s="346"/>
+      <c r="R34" s="346"/>
+      <c r="S34" s="346"/>
+      <c r="T34" s="346"/>
+      <c r="U34" s="346"/>
+      <c r="V34" s="346"/>
+      <c r="W34" s="346"/>
+      <c r="X34" s="346"/>
+      <c r="Y34" s="346"/>
+      <c r="Z34" s="346"/>
+      <c r="AA34" s="346"/>
+      <c r="AB34" s="346"/>
+      <c r="AC34" s="347"/>
       <c r="AD34" s="216"/>
     </row>
     <row r="35" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="351"/>
+      <c r="A35" s="309"/>
       <c r="B35" s="75"/>
       <c r="C35" s="76" t="s">
         <v>78</v>
@@ -8905,43 +9099,43 @@
       <c r="D35" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="337"/>
-      <c r="F35" s="338"/>
-      <c r="G35" s="338"/>
-      <c r="H35" s="338"/>
-      <c r="I35" s="339"/>
-      <c r="J35" s="347"/>
-      <c r="K35" s="348"/>
-      <c r="L35" s="348"/>
-      <c r="M35" s="348"/>
-      <c r="N35" s="348"/>
-      <c r="O35" s="348"/>
-      <c r="P35" s="348"/>
-      <c r="Q35" s="348"/>
-      <c r="R35" s="348"/>
-      <c r="S35" s="348"/>
-      <c r="T35" s="348"/>
-      <c r="U35" s="348"/>
-      <c r="V35" s="348"/>
-      <c r="W35" s="348"/>
-      <c r="X35" s="348"/>
-      <c r="Y35" s="348"/>
-      <c r="Z35" s="348"/>
-      <c r="AA35" s="348"/>
-      <c r="AB35" s="348"/>
-      <c r="AC35" s="349"/>
+      <c r="E35" s="339"/>
+      <c r="F35" s="340"/>
+      <c r="G35" s="340"/>
+      <c r="H35" s="340"/>
+      <c r="I35" s="341"/>
+      <c r="J35" s="348"/>
+      <c r="K35" s="349"/>
+      <c r="L35" s="349"/>
+      <c r="M35" s="349"/>
+      <c r="N35" s="349"/>
+      <c r="O35" s="349"/>
+      <c r="P35" s="349"/>
+      <c r="Q35" s="349"/>
+      <c r="R35" s="349"/>
+      <c r="S35" s="349"/>
+      <c r="T35" s="349"/>
+      <c r="U35" s="349"/>
+      <c r="V35" s="349"/>
+      <c r="W35" s="349"/>
+      <c r="X35" s="349"/>
+      <c r="Y35" s="349"/>
+      <c r="Z35" s="349"/>
+      <c r="AA35" s="349"/>
+      <c r="AB35" s="349"/>
+      <c r="AC35" s="350"/>
       <c r="AD35" s="216"/>
     </row>
     <row r="36" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="351"/>
+      <c r="A36" s="309"/>
       <c r="B36" s="48" t="s">
         <v>321</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="329" t="s">
-        <v>374</v>
+      <c r="D36" s="330" t="s">
+        <v>366</v>
       </c>
       <c r="E36" s="119"/>
       <c r="F36" s="50"/>
@@ -9009,12 +9203,12 @@
       <c r="AD36" s="74"/>
     </row>
     <row r="37" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="351"/>
+      <c r="A37" s="309"/>
       <c r="B37" s="54"/>
       <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="330"/>
+      <c r="D37" s="331"/>
       <c r="E37" s="121"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -9081,12 +9275,12 @@
       <c r="AD37" s="216"/>
     </row>
     <row r="38" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="351"/>
+      <c r="A38" s="309"/>
       <c r="B38" s="54"/>
       <c r="C38" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="330"/>
+      <c r="D38" s="331"/>
       <c r="E38" s="121"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -9153,12 +9347,12 @@
       <c r="AD38" s="216"/>
     </row>
     <row r="39" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="351"/>
+      <c r="A39" s="309"/>
       <c r="B39" s="54"/>
       <c r="C39" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="330"/>
+      <c r="D39" s="331"/>
       <c r="E39" s="121"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -9225,12 +9419,12 @@
       <c r="AD39" s="216"/>
     </row>
     <row r="40" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="351"/>
+      <c r="A40" s="309"/>
       <c r="B40" s="54"/>
       <c r="C40" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="330"/>
+      <c r="D40" s="331"/>
       <c r="E40" s="121"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -9297,12 +9491,12 @@
       <c r="AD40" s="216"/>
     </row>
     <row r="41" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="351"/>
+      <c r="A41" s="309"/>
       <c r="B41" s="54"/>
       <c r="C41" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="330"/>
+      <c r="D41" s="331"/>
       <c r="E41" s="121"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -9369,12 +9563,12 @@
       <c r="AD41" s="216"/>
     </row>
     <row r="42" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="351"/>
+      <c r="A42" s="309"/>
       <c r="B42" s="54"/>
       <c r="C42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="330"/>
+      <c r="D42" s="331"/>
       <c r="E42" s="121"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -9441,12 +9635,12 @@
       <c r="AD42" s="216"/>
     </row>
     <row r="43" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="351"/>
+      <c r="A43" s="309"/>
       <c r="B43" s="54"/>
       <c r="C43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="330"/>
+      <c r="D43" s="331"/>
       <c r="E43" s="121"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -9487,12 +9681,12 @@
       <c r="AD43" s="217"/>
     </row>
     <row r="44" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="351"/>
+      <c r="A44" s="309"/>
       <c r="B44" s="54"/>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="330"/>
+      <c r="D44" s="331"/>
       <c r="E44" s="121"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -9559,12 +9753,12 @@
       <c r="AD44" s="216"/>
     </row>
     <row r="45" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="351"/>
+      <c r="A45" s="309"/>
       <c r="B45" s="54"/>
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="330"/>
+      <c r="D45" s="331"/>
       <c r="E45" s="121"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -9623,12 +9817,12 @@
       <c r="AD45" s="216"/>
     </row>
     <row r="46" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="351"/>
+      <c r="A46" s="309"/>
       <c r="B46" s="54"/>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="330"/>
+      <c r="D46" s="331"/>
       <c r="E46" s="121"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -9689,12 +9883,12 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="351"/>
+      <c r="A47" s="309"/>
       <c r="B47" s="54"/>
       <c r="C47" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="330"/>
+      <c r="D47" s="331"/>
       <c r="E47" s="121"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -9743,12 +9937,12 @@
       <c r="AD47" s="216"/>
     </row>
     <row r="48" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="351"/>
+      <c r="A48" s="309"/>
       <c r="B48" s="75"/>
       <c r="C48" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="D48" s="330"/>
+      <c r="D48" s="331"/>
       <c r="E48" s="123"/>
       <c r="F48" s="77"/>
       <c r="G48" s="77"/>
@@ -9783,14 +9977,14 @@
       <c r="AD48" s="218"/>
     </row>
     <row r="49" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="351"/>
+      <c r="A49" s="309"/>
       <c r="B49" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="330"/>
+      <c r="D49" s="331"/>
       <c r="E49" s="121"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -9857,12 +10051,12 @@
       <c r="AD49" s="216"/>
     </row>
     <row r="50" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="351"/>
+      <c r="A50" s="309"/>
       <c r="B50" s="54"/>
       <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="330"/>
+      <c r="D50" s="331"/>
       <c r="E50" s="121"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -9895,12 +10089,12 @@
       <c r="AD50" s="216"/>
     </row>
     <row r="51" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="351"/>
+      <c r="A51" s="309"/>
       <c r="B51" s="54"/>
       <c r="C51" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="330"/>
+      <c r="D51" s="331"/>
       <c r="E51" s="121"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -9933,12 +10127,12 @@
       <c r="AD51" s="216"/>
     </row>
     <row r="52" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="351"/>
+      <c r="A52" s="309"/>
       <c r="B52" s="75"/>
       <c r="C52" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="330"/>
+      <c r="D52" s="331"/>
       <c r="E52" s="123"/>
       <c r="F52" s="77"/>
       <c r="G52" s="77"/>
@@ -9967,14 +10161,14 @@
       <c r="AD52" s="218"/>
     </row>
     <row r="53" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="351"/>
+      <c r="A53" s="309"/>
       <c r="B53" s="48" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="330"/>
+      <c r="D53" s="331"/>
       <c r="E53" s="119"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
@@ -10034,8 +10228,8 @@
       <c r="AA53" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="AB53" s="194" t="s">
-        <v>160</v>
+      <c r="AB53" s="351" t="s">
+        <v>379</v>
       </c>
       <c r="AC53" s="249"/>
       <c r="AD53" s="74" t="s">
@@ -10043,12 +10237,12 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="351"/>
+      <c r="A54" s="309"/>
       <c r="B54" s="54"/>
       <c r="C54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="330"/>
+      <c r="D54" s="331"/>
       <c r="E54" s="121"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -10117,12 +10311,12 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="351"/>
+      <c r="A55" s="309"/>
       <c r="B55" s="80"/>
       <c r="C55" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="330"/>
+      <c r="D55" s="331"/>
       <c r="E55" s="125"/>
       <c r="F55" s="81"/>
       <c r="G55" s="81"/>
@@ -10163,14 +10357,14 @@
       <c r="AD55" s="219"/>
     </row>
     <row r="56" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="351"/>
+      <c r="A56" s="309"/>
       <c r="B56" s="82" t="s">
         <v>316</v>
       </c>
       <c r="C56" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="D56" s="330"/>
+      <c r="D56" s="331"/>
       <c r="E56" s="126"/>
       <c r="F56" s="84"/>
       <c r="G56" s="84"/>
@@ -10203,14 +10397,14 @@
       <c r="AD56" s="220"/>
     </row>
     <row r="57" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="351"/>
+      <c r="A57" s="309"/>
       <c r="B57" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="330"/>
+      <c r="D57" s="331"/>
       <c r="E57" s="119" t="s">
         <v>19</v>
       </c>
@@ -10287,12 +10481,12 @@
       <c r="AD57" s="74"/>
     </row>
     <row r="58" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="351"/>
+      <c r="A58" s="309"/>
       <c r="B58" s="55"/>
       <c r="C58" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="330"/>
+      <c r="D58" s="331"/>
       <c r="E58" s="128"/>
       <c r="F58" s="47" t="s">
         <v>10</v>
@@ -10367,12 +10561,12 @@
       <c r="AD58" s="221"/>
     </row>
     <row r="59" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="351"/>
+      <c r="A59" s="309"/>
       <c r="B59" s="55"/>
       <c r="C59" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="330"/>
+      <c r="D59" s="331"/>
       <c r="E59" s="130" t="s">
         <v>10</v>
       </c>
@@ -10449,12 +10643,12 @@
       <c r="AD59" s="221"/>
     </row>
     <row r="60" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="351"/>
+      <c r="A60" s="309"/>
       <c r="B60" s="54"/>
       <c r="C60" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="330"/>
+      <c r="D60" s="331"/>
       <c r="E60" s="121" t="s">
         <v>10</v>
       </c>
@@ -10531,12 +10725,12 @@
       <c r="AD60" s="216"/>
     </row>
     <row r="61" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="351"/>
+      <c r="A61" s="309"/>
       <c r="B61" s="54"/>
       <c r="C61" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="330"/>
+      <c r="D61" s="331"/>
       <c r="E61" s="131"/>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -10587,12 +10781,12 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="351"/>
+      <c r="A62" s="309"/>
       <c r="B62" s="54"/>
       <c r="C62" s="240" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="330"/>
+      <c r="D62" s="331"/>
       <c r="E62" s="121" t="s">
         <v>19</v>
       </c>
@@ -10669,12 +10863,12 @@
       <c r="AD62" s="216"/>
     </row>
     <row r="63" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="351"/>
+      <c r="A63" s="309"/>
       <c r="B63" s="54"/>
       <c r="C63" s="241" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="330"/>
+      <c r="D63" s="331"/>
       <c r="E63" s="131"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -10725,12 +10919,12 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="351"/>
+      <c r="A64" s="309"/>
       <c r="B64" s="54"/>
       <c r="C64" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="330"/>
+      <c r="D64" s="331"/>
       <c r="E64" s="121" t="s">
         <v>10</v>
       </c>
@@ -10807,12 +11001,12 @@
       <c r="AD64" s="216"/>
     </row>
     <row r="65" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="351"/>
+      <c r="A65" s="309"/>
       <c r="B65" s="54"/>
       <c r="C65" s="240" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="330"/>
+      <c r="D65" s="331"/>
       <c r="E65" s="121" t="s">
         <v>10</v>
       </c>
@@ -10889,12 +11083,12 @@
       <c r="AD65" s="216"/>
     </row>
     <row r="66" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="351"/>
+      <c r="A66" s="309"/>
       <c r="B66" s="54"/>
       <c r="C66" s="240" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="330"/>
+      <c r="D66" s="331"/>
       <c r="E66" s="121" t="s">
         <v>10</v>
       </c>
@@ -10971,12 +11165,12 @@
       <c r="AD66" s="216"/>
     </row>
     <row r="67" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="351"/>
+      <c r="A67" s="309"/>
       <c r="B67" s="54"/>
       <c r="C67" s="240" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="330"/>
+      <c r="D67" s="331"/>
       <c r="E67" s="121" t="s">
         <v>10</v>
       </c>
@@ -11053,12 +11247,12 @@
       <c r="AD67" s="216"/>
     </row>
     <row r="68" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="351"/>
+      <c r="A68" s="309"/>
       <c r="B68" s="54"/>
       <c r="C68" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="330"/>
+      <c r="D68" s="331"/>
       <c r="E68" s="133"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
@@ -11103,12 +11297,12 @@
       <c r="AD68" s="216"/>
     </row>
     <row r="69" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="351"/>
+      <c r="A69" s="309"/>
       <c r="B69" s="54"/>
       <c r="C69" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="330"/>
+      <c r="D69" s="331"/>
       <c r="E69" s="131"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -11157,12 +11351,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="351"/>
+      <c r="A70" s="309"/>
       <c r="B70" s="54"/>
       <c r="C70" s="241" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="330"/>
+      <c r="D70" s="331"/>
       <c r="E70" s="131"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -11211,12 +11405,12 @@
       <c r="AD70" s="216"/>
     </row>
     <row r="71" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="351"/>
+      <c r="A71" s="309"/>
       <c r="B71" s="54"/>
       <c r="C71" s="240" t="s">
         <v>252</v>
       </c>
-      <c r="D71" s="330"/>
+      <c r="D71" s="331"/>
       <c r="E71" s="121" t="s">
         <v>10</v>
       </c>
@@ -11293,12 +11487,12 @@
       <c r="AD71" s="216"/>
     </row>
     <row r="72" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="351"/>
+      <c r="A72" s="309"/>
       <c r="B72" s="54"/>
       <c r="C72" s="240" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="330"/>
+      <c r="D72" s="331"/>
       <c r="E72" s="121" t="s">
         <v>10</v>
       </c>
@@ -11375,12 +11569,12 @@
       <c r="AD72" s="216"/>
     </row>
     <row r="73" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="351"/>
+      <c r="A73" s="309"/>
       <c r="B73" s="54"/>
       <c r="C73" s="240" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="330"/>
+      <c r="D73" s="331"/>
       <c r="E73" s="121" t="s">
         <v>10</v>
       </c>
@@ -11457,12 +11651,12 @@
       <c r="AD73" s="216"/>
     </row>
     <row r="74" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="351"/>
+      <c r="A74" s="309"/>
       <c r="B74" s="54"/>
       <c r="C74" s="240" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="330"/>
+      <c r="D74" s="331"/>
       <c r="E74" s="121" t="s">
         <v>10</v>
       </c>
@@ -11539,12 +11733,12 @@
       <c r="AD74" s="216"/>
     </row>
     <row r="75" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="351"/>
+      <c r="A75" s="309"/>
       <c r="B75" s="54"/>
       <c r="C75" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="330"/>
+      <c r="D75" s="331"/>
       <c r="E75" s="133"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
@@ -11593,12 +11787,12 @@
       <c r="AD75" s="216"/>
     </row>
     <row r="76" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="351"/>
+      <c r="A76" s="309"/>
       <c r="B76" s="54"/>
       <c r="C76" s="240" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="330"/>
+      <c r="D76" s="331"/>
       <c r="E76" s="133"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
@@ -11639,12 +11833,12 @@
       <c r="AD76" s="216"/>
     </row>
     <row r="77" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="351"/>
+      <c r="A77" s="309"/>
       <c r="B77" s="54"/>
       <c r="C77" s="240" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="330"/>
+      <c r="D77" s="331"/>
       <c r="E77" s="133"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
@@ -11689,12 +11883,12 @@
       <c r="AD77" s="216"/>
     </row>
     <row r="78" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="351"/>
+      <c r="A78" s="309"/>
       <c r="B78" s="54"/>
       <c r="C78" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="330"/>
+      <c r="D78" s="331"/>
       <c r="E78" s="121" t="s">
         <v>19</v>
       </c>
@@ -11771,12 +11965,12 @@
       <c r="AD78" s="216"/>
     </row>
     <row r="79" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="351"/>
+      <c r="A79" s="309"/>
       <c r="B79" s="54"/>
       <c r="C79" s="240" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="330"/>
+      <c r="D79" s="331"/>
       <c r="E79" s="121" t="s">
         <v>10</v>
       </c>
@@ -11853,12 +12047,12 @@
       <c r="AD79" s="216"/>
     </row>
     <row r="80" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="351"/>
+      <c r="A80" s="309"/>
       <c r="B80" s="54"/>
       <c r="C80" s="240" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="330"/>
+      <c r="D80" s="331"/>
       <c r="E80" s="133"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
@@ -11899,12 +12093,12 @@
       <c r="AD80" s="216"/>
     </row>
     <row r="81" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="351"/>
+      <c r="A81" s="309"/>
       <c r="B81" s="54"/>
       <c r="C81" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="330"/>
+      <c r="D81" s="331"/>
       <c r="E81" s="121" t="s">
         <v>19</v>
       </c>
@@ -11983,12 +12177,12 @@
       </c>
     </row>
     <row r="82" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="351"/>
+      <c r="A82" s="309"/>
       <c r="B82" s="54"/>
       <c r="C82" s="240" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="330"/>
+      <c r="D82" s="331"/>
       <c r="E82" s="121" t="s">
         <v>10</v>
       </c>
@@ -12065,12 +12259,12 @@
       <c r="AD82" s="216"/>
     </row>
     <row r="83" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="351"/>
+      <c r="A83" s="309"/>
       <c r="B83" s="54"/>
       <c r="C83" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="330"/>
+      <c r="D83" s="331"/>
       <c r="E83" s="121" t="s">
         <v>19</v>
       </c>
@@ -12149,12 +12343,12 @@
       </c>
     </row>
     <row r="84" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="351"/>
+      <c r="A84" s="309"/>
       <c r="B84" s="54"/>
       <c r="C84" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="330"/>
+      <c r="D84" s="331"/>
       <c r="E84" s="133"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
@@ -12195,12 +12389,12 @@
       <c r="AD84" s="216"/>
     </row>
     <row r="85" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="351"/>
+      <c r="A85" s="309"/>
       <c r="B85" s="54"/>
       <c r="C85" s="240" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="330"/>
+      <c r="D85" s="331"/>
       <c r="E85" s="135" t="s">
         <v>262</v>
       </c>
@@ -12277,12 +12471,12 @@
       <c r="AD85" s="216"/>
     </row>
     <row r="86" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="351"/>
+      <c r="A86" s="309"/>
       <c r="B86" s="54"/>
       <c r="C86" s="240" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="330"/>
+      <c r="D86" s="331"/>
       <c r="E86" s="135" t="s">
         <v>19</v>
       </c>
@@ -12359,12 +12553,12 @@
       <c r="AD86" s="216"/>
     </row>
     <row r="87" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="351"/>
+      <c r="A87" s="309"/>
       <c r="B87" s="54"/>
       <c r="C87" s="240" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="330"/>
+      <c r="D87" s="331"/>
       <c r="E87" s="133"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
@@ -12417,12 +12611,12 @@
       <c r="AD87" s="216"/>
     </row>
     <row r="88" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="351"/>
+      <c r="A88" s="309"/>
       <c r="B88" s="54"/>
       <c r="C88" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="330"/>
+      <c r="D88" s="331"/>
       <c r="E88" s="133"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
@@ -12471,12 +12665,12 @@
       <c r="AD88" s="216"/>
     </row>
     <row r="89" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="351"/>
+      <c r="A89" s="309"/>
       <c r="B89" s="54"/>
       <c r="C89" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="330"/>
+      <c r="D89" s="331"/>
       <c r="E89" s="133"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
@@ -12521,12 +12715,12 @@
       <c r="AD89" s="216"/>
     </row>
     <row r="90" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="351"/>
+      <c r="A90" s="309"/>
       <c r="B90" s="54"/>
       <c r="C90" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="D90" s="330"/>
+      <c r="D90" s="331"/>
       <c r="E90" s="133"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
@@ -12575,12 +12769,12 @@
       <c r="AD90" s="216"/>
     </row>
     <row r="91" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="351"/>
+      <c r="A91" s="309"/>
       <c r="B91" s="54"/>
       <c r="C91" s="240" t="s">
         <v>206</v>
       </c>
-      <c r="D91" s="330"/>
+      <c r="D91" s="331"/>
       <c r="E91" s="133"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
@@ -12629,12 +12823,12 @@
       <c r="AD91" s="216"/>
     </row>
     <row r="92" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="351"/>
+      <c r="A92" s="309"/>
       <c r="B92" s="56"/>
       <c r="C92" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="D92" s="330"/>
+      <c r="D92" s="331"/>
       <c r="E92" s="138" t="s">
         <v>260</v>
       </c>
@@ -12711,12 +12905,12 @@
       <c r="AD92" s="222"/>
     </row>
     <row r="93" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="351"/>
+      <c r="A93" s="309"/>
       <c r="B93" s="86"/>
       <c r="C93" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="D93" s="330"/>
+      <c r="D93" s="331"/>
       <c r="E93" s="138" t="s">
         <v>242</v>
       </c>
@@ -12793,14 +12987,14 @@
       <c r="AD93" s="223"/>
     </row>
     <row r="94" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="351"/>
+      <c r="A94" s="309"/>
       <c r="B94" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="330"/>
+      <c r="D94" s="331"/>
       <c r="E94" s="119"/>
       <c r="F94" s="50"/>
       <c r="G94" s="50"/>
@@ -12867,12 +13061,12 @@
       <c r="AD94" s="74"/>
     </row>
     <row r="95" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="351"/>
+      <c r="A95" s="309"/>
       <c r="B95" s="55"/>
       <c r="C95" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="D95" s="330"/>
+      <c r="D95" s="331"/>
       <c r="E95" s="130"/>
       <c r="F95" s="47"/>
       <c r="G95" s="47"/>
@@ -12913,12 +13107,12 @@
       <c r="AD95" s="221"/>
     </row>
     <row r="96" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="351"/>
+      <c r="A96" s="309"/>
       <c r="B96" s="54"/>
       <c r="C96" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D96" s="330"/>
+      <c r="D96" s="331"/>
       <c r="E96" s="121"/>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -12985,12 +13179,12 @@
       <c r="AD96" s="216"/>
     </row>
     <row r="97" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="351"/>
+      <c r="A97" s="309"/>
       <c r="B97" s="54"/>
       <c r="C97" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="330"/>
+      <c r="D97" s="331"/>
       <c r="E97" s="121"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -13057,12 +13251,12 @@
       <c r="AD97" s="216"/>
     </row>
     <row r="98" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="351"/>
+      <c r="A98" s="309"/>
       <c r="B98" s="54"/>
       <c r="C98" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D98" s="330"/>
+      <c r="D98" s="331"/>
       <c r="E98" s="121"/>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -13129,12 +13323,12 @@
       <c r="AD98" s="216"/>
     </row>
     <row r="99" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="351"/>
+      <c r="A99" s="309"/>
       <c r="B99" s="54"/>
       <c r="C99" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="330"/>
+      <c r="D99" s="331"/>
       <c r="E99" s="121"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -13203,12 +13397,12 @@
       </c>
     </row>
     <row r="100" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="351"/>
+      <c r="A100" s="309"/>
       <c r="B100" s="54"/>
       <c r="C100" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="330"/>
+      <c r="D100" s="331"/>
       <c r="E100" s="121"/>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -13275,12 +13469,12 @@
       <c r="AD100" s="216"/>
     </row>
     <row r="101" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="351"/>
+      <c r="A101" s="309"/>
       <c r="B101" s="54"/>
       <c r="C101" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="330"/>
+      <c r="D101" s="331"/>
       <c r="E101" s="121"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -13349,12 +13543,12 @@
       </c>
     </row>
     <row r="102" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="351"/>
+      <c r="A102" s="309"/>
       <c r="B102" s="54"/>
       <c r="C102" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="330"/>
+      <c r="D102" s="331"/>
       <c r="E102" s="121"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -13423,12 +13617,12 @@
       </c>
     </row>
     <row r="103" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="351"/>
+      <c r="A103" s="309"/>
       <c r="B103" s="54"/>
       <c r="C103" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="330"/>
+      <c r="D103" s="331"/>
       <c r="E103" s="121"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -13497,12 +13691,12 @@
       </c>
     </row>
     <row r="104" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="351"/>
+      <c r="A104" s="309"/>
       <c r="B104" s="54"/>
       <c r="C104" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D104" s="330"/>
+      <c r="D104" s="331"/>
       <c r="E104" s="121"/>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -13571,12 +13765,12 @@
       </c>
     </row>
     <row r="105" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="351"/>
+      <c r="A105" s="309"/>
       <c r="B105" s="54"/>
       <c r="C105" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="330"/>
+      <c r="D105" s="331"/>
       <c r="E105" s="121"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -13617,12 +13811,12 @@
       <c r="AD105" s="216"/>
     </row>
     <row r="106" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="351"/>
+      <c r="A106" s="309"/>
       <c r="B106" s="54"/>
       <c r="C106" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="330"/>
+      <c r="D106" s="331"/>
       <c r="E106" s="121"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -13671,12 +13865,12 @@
       <c r="AD106" s="216"/>
     </row>
     <row r="107" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="351"/>
+      <c r="A107" s="309"/>
       <c r="B107" s="54"/>
       <c r="C107" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="330"/>
+      <c r="D107" s="331"/>
       <c r="E107" s="121"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -13743,12 +13937,12 @@
       <c r="AD107" s="216"/>
     </row>
     <row r="108" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="351"/>
+      <c r="A108" s="309"/>
       <c r="B108" s="54"/>
       <c r="C108" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="330"/>
+      <c r="D108" s="331"/>
       <c r="E108" s="121"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -13807,12 +14001,12 @@
       <c r="AD108" s="216"/>
     </row>
     <row r="109" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="351"/>
+      <c r="A109" s="309"/>
       <c r="B109" s="54"/>
       <c r="C109" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D109" s="330"/>
+        <v>371</v>
+      </c>
+      <c r="D109" s="331"/>
       <c r="E109" s="121"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -13879,12 +14073,12 @@
       <c r="AD109" s="224"/>
     </row>
     <row r="110" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="351"/>
+      <c r="A110" s="309"/>
       <c r="B110" s="54"/>
       <c r="C110" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D110" s="330"/>
+        <v>372</v>
+      </c>
+      <c r="D110" s="331"/>
       <c r="E110" s="121"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -13951,12 +14145,12 @@
       <c r="AD110" s="216"/>
     </row>
     <row r="111" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="351"/>
+      <c r="A111" s="309"/>
       <c r="B111" s="54"/>
       <c r="C111" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D111" s="330"/>
+        <v>373</v>
+      </c>
+      <c r="D111" s="331"/>
       <c r="E111" s="121"/>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -14023,12 +14217,12 @@
       <c r="AD111" s="216"/>
     </row>
     <row r="112" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="351"/>
+      <c r="A112" s="309"/>
       <c r="B112" s="54"/>
       <c r="C112" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D112" s="330"/>
+        <v>374</v>
+      </c>
+      <c r="D112" s="331"/>
       <c r="E112" s="121"/>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -14088,19 +14282,19 @@
       <c r="AA112" s="271" t="s">
         <v>357</v>
       </c>
-      <c r="AB112" s="305" t="s">
-        <v>379</v>
+      <c r="AB112" s="158" t="s">
+        <v>357</v>
       </c>
       <c r="AC112" s="256"/>
       <c r="AD112" s="224"/>
     </row>
     <row r="113" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="351"/>
+      <c r="A113" s="309"/>
       <c r="B113" s="54"/>
       <c r="C113" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D113" s="330"/>
+        <v>375</v>
+      </c>
+      <c r="D113" s="331"/>
       <c r="E113" s="121"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -14167,12 +14361,12 @@
       <c r="AD113" s="216"/>
     </row>
     <row r="114" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="351"/>
+      <c r="A114" s="309"/>
       <c r="B114" s="54"/>
       <c r="C114" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D114" s="330"/>
+        <v>376</v>
+      </c>
+      <c r="D114" s="331"/>
       <c r="E114" s="121"/>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -14191,13 +14385,13 @@
         <v>357</v>
       </c>
       <c r="N114" s="163" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q114" s="13" t="s">
         <v>357</v>
@@ -14206,45 +14400,45 @@
         <v>357</v>
       </c>
       <c r="S114" s="163" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="U114" s="13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="V114" s="136" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="W114" s="107" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="X114" s="19" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Y114" s="13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Z114" s="19" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AA114" s="271" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AB114" s="160" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AC114" s="256"/>
       <c r="AD114" s="224"/>
     </row>
     <row r="115" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="351"/>
+      <c r="A115" s="309"/>
       <c r="B115" s="54"/>
       <c r="C115" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D115" s="330"/>
+        <v>377</v>
+      </c>
+      <c r="D115" s="331"/>
       <c r="E115" s="121"/>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -14305,18 +14499,18 @@
         <v>357</v>
       </c>
       <c r="AB115" s="304" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AC115" s="256"/>
       <c r="AD115" s="216"/>
     </row>
     <row r="116" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="351"/>
+      <c r="A116" s="309"/>
       <c r="B116" s="54"/>
       <c r="C116" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D116" s="330"/>
+        <v>378</v>
+      </c>
+      <c r="D116" s="331"/>
       <c r="E116" s="121"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -14376,19 +14570,19 @@
       <c r="AA116" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="AB116" s="211" t="s">
-        <v>380</v>
+      <c r="AB116" s="156" t="s">
+        <v>361</v>
       </c>
       <c r="AC116" s="250"/>
       <c r="AD116" s="216"/>
     </row>
     <row r="117" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="351"/>
+      <c r="A117" s="309"/>
       <c r="B117" s="54"/>
       <c r="C117" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="330"/>
+      <c r="D117" s="331"/>
       <c r="E117" s="121"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -14457,12 +14651,12 @@
       </c>
     </row>
     <row r="118" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="351"/>
+      <c r="A118" s="309"/>
       <c r="B118" s="54"/>
       <c r="C118" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D118" s="330"/>
+      <c r="D118" s="331"/>
       <c r="E118" s="121"/>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -14531,12 +14725,12 @@
       </c>
     </row>
     <row r="119" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="351"/>
+      <c r="A119" s="309"/>
       <c r="B119" s="54"/>
       <c r="C119" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D119" s="330"/>
+      <c r="D119" s="331"/>
       <c r="E119" s="121"/>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -14603,12 +14797,12 @@
       <c r="AD119" s="216"/>
     </row>
     <row r="120" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="351"/>
+      <c r="A120" s="309"/>
       <c r="B120" s="54"/>
       <c r="C120" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D120" s="330"/>
+      <c r="D120" s="331"/>
       <c r="E120" s="121"/>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -14675,12 +14869,12 @@
       <c r="AD120" s="216"/>
     </row>
     <row r="121" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="351"/>
+      <c r="A121" s="309"/>
       <c r="B121" s="54"/>
       <c r="C121" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D121" s="330"/>
+      <c r="D121" s="331"/>
       <c r="E121" s="121"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -14749,12 +14943,12 @@
       </c>
     </row>
     <row r="122" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="351"/>
+      <c r="A122" s="309"/>
       <c r="B122" s="54"/>
       <c r="C122" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D122" s="330"/>
+      <c r="D122" s="331"/>
       <c r="E122" s="121"/>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -14823,12 +15017,12 @@
       </c>
     </row>
     <row r="123" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="351"/>
+      <c r="A123" s="309"/>
       <c r="B123" s="54"/>
       <c r="C123" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D123" s="330"/>
+      <c r="D123" s="331"/>
       <c r="E123" s="121"/>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -14897,12 +15091,12 @@
       </c>
     </row>
     <row r="124" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="351"/>
+      <c r="A124" s="309"/>
       <c r="B124" s="54"/>
       <c r="C124" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D124" s="330"/>
+      <c r="D124" s="331"/>
       <c r="E124" s="121"/>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -14945,12 +15139,12 @@
       <c r="AD124" s="216"/>
     </row>
     <row r="125" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="351"/>
+      <c r="A125" s="309"/>
       <c r="B125" s="54"/>
       <c r="C125" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="330"/>
+      <c r="D125" s="331"/>
       <c r="E125" s="121"/>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -14993,12 +15187,12 @@
       <c r="AD125" s="216"/>
     </row>
     <row r="126" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="351"/>
+      <c r="A126" s="309"/>
       <c r="B126" s="54"/>
       <c r="C126" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D126" s="330"/>
+      <c r="D126" s="331"/>
       <c r="E126" s="121"/>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -15041,12 +15235,12 @@
       <c r="AD126" s="216"/>
     </row>
     <row r="127" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="351"/>
+      <c r="A127" s="309"/>
       <c r="B127" s="54"/>
       <c r="C127" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D127" s="330"/>
+      <c r="D127" s="331"/>
       <c r="E127" s="121"/>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -15089,12 +15283,12 @@
       <c r="AD127" s="216"/>
     </row>
     <row r="128" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="351"/>
+      <c r="A128" s="309"/>
       <c r="B128" s="54"/>
       <c r="C128" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D128" s="330"/>
+      <c r="D128" s="331"/>
       <c r="E128" s="121"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -15137,12 +15331,12 @@
       <c r="AD128" s="216"/>
     </row>
     <row r="129" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="351"/>
+      <c r="A129" s="309"/>
       <c r="B129" s="54"/>
       <c r="C129" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D129" s="330"/>
+      <c r="D129" s="331"/>
       <c r="E129" s="121"/>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -15185,12 +15379,12 @@
       <c r="AD129" s="216"/>
     </row>
     <row r="130" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="351"/>
+      <c r="A130" s="309"/>
       <c r="B130" s="54"/>
       <c r="C130" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D130" s="330"/>
+      <c r="D130" s="331"/>
       <c r="E130" s="121"/>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -15233,12 +15427,12 @@
       <c r="AD130" s="216"/>
     </row>
     <row r="131" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="351"/>
+      <c r="A131" s="309"/>
       <c r="B131" s="54"/>
       <c r="C131" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D131" s="330"/>
+      <c r="D131" s="331"/>
       <c r="E131" s="121"/>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -15281,12 +15475,12 @@
       <c r="AD131" s="216"/>
     </row>
     <row r="132" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="351"/>
+      <c r="A132" s="309"/>
       <c r="B132" s="54"/>
       <c r="C132" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D132" s="330"/>
+      <c r="D132" s="331"/>
       <c r="E132" s="121"/>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -15329,12 +15523,12 @@
       <c r="AD132" s="216"/>
     </row>
     <row r="133" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="351"/>
+      <c r="A133" s="309"/>
       <c r="B133" s="54"/>
       <c r="C133" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D133" s="330"/>
+      <c r="D133" s="331"/>
       <c r="E133" s="121"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -15377,12 +15571,12 @@
       <c r="AD133" s="216"/>
     </row>
     <row r="134" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="351"/>
+      <c r="A134" s="309"/>
       <c r="B134" s="54"/>
       <c r="C134" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D134" s="330"/>
+      <c r="D134" s="331"/>
       <c r="E134" s="121"/>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -15425,12 +15619,12 @@
       <c r="AD134" s="216"/>
     </row>
     <row r="135" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="351"/>
+      <c r="A135" s="309"/>
       <c r="B135" s="54"/>
       <c r="C135" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D135" s="330"/>
+      <c r="D135" s="331"/>
       <c r="E135" s="121"/>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -15485,12 +15679,12 @@
       </c>
     </row>
     <row r="136" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="351"/>
+      <c r="A136" s="309"/>
       <c r="B136" s="54"/>
       <c r="C136" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D136" s="330"/>
+      <c r="D136" s="331"/>
       <c r="E136" s="121"/>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -15557,12 +15751,12 @@
       <c r="AD136" s="216"/>
     </row>
     <row r="137" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="351"/>
+      <c r="A137" s="309"/>
       <c r="B137" s="54"/>
       <c r="C137" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D137" s="330"/>
+      <c r="D137" s="331"/>
       <c r="E137" s="140"/>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -15597,12 +15791,12 @@
       <c r="AD137" s="216"/>
     </row>
     <row r="138" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="351"/>
+      <c r="A138" s="309"/>
       <c r="B138" s="54"/>
       <c r="C138" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D138" s="330"/>
+      <c r="D138" s="331"/>
       <c r="E138" s="140"/>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -15669,12 +15863,12 @@
       <c r="AD138" s="216"/>
     </row>
     <row r="139" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="351"/>
+      <c r="A139" s="309"/>
       <c r="B139" s="54"/>
       <c r="C139" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D139" s="330"/>
+      <c r="D139" s="331"/>
       <c r="E139" s="140"/>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -15741,12 +15935,12 @@
       <c r="AD139" s="216"/>
     </row>
     <row r="140" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="351"/>
+      <c r="A140" s="309"/>
       <c r="B140" s="54"/>
       <c r="C140" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D140" s="330"/>
+      <c r="D140" s="331"/>
       <c r="E140" s="140"/>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -15815,12 +16009,12 @@
       </c>
     </row>
     <row r="141" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="351"/>
+      <c r="A141" s="309"/>
       <c r="B141" s="54"/>
       <c r="C141" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D141" s="330"/>
+      <c r="D141" s="331"/>
       <c r="E141" s="140"/>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -15887,12 +16081,12 @@
       <c r="AD141" s="216"/>
     </row>
     <row r="142" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="351"/>
+      <c r="A142" s="309"/>
       <c r="B142" s="54"/>
       <c r="C142" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D142" s="330"/>
+      <c r="D142" s="331"/>
       <c r="E142" s="140"/>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -15937,12 +16131,12 @@
       <c r="AD142" s="216"/>
     </row>
     <row r="143" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="351"/>
+      <c r="A143" s="309"/>
       <c r="B143" s="54"/>
       <c r="C143" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D143" s="330"/>
+      <c r="D143" s="331"/>
       <c r="E143" s="140"/>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -16009,12 +16203,12 @@
       <c r="AD143" s="216"/>
     </row>
     <row r="144" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="351"/>
+      <c r="A144" s="309"/>
       <c r="B144" s="54"/>
       <c r="C144" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D144" s="330"/>
+      <c r="D144" s="331"/>
       <c r="E144" s="140"/>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -16081,12 +16275,12 @@
       <c r="AD144" s="216"/>
     </row>
     <row r="145" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="351"/>
+      <c r="A145" s="309"/>
       <c r="B145" s="75"/>
       <c r="C145" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="D145" s="330"/>
+      <c r="D145" s="331"/>
       <c r="E145" s="125"/>
       <c r="F145" s="81"/>
       <c r="G145" s="81"/>
@@ -16129,14 +16323,14 @@
       <c r="AD145" s="218"/>
     </row>
     <row r="146" spans="1:30" ht="39.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="351"/>
+      <c r="A146" s="309"/>
       <c r="B146" s="98" t="s">
         <v>79</v>
       </c>
       <c r="C146" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D146" s="330"/>
+      <c r="D146" s="331"/>
       <c r="E146" s="141"/>
       <c r="F146" s="99"/>
       <c r="G146" s="99"/>
@@ -16205,12 +16399,12 @@
       </c>
     </row>
     <row r="147" spans="1:30" ht="26" x14ac:dyDescent="0.35">
-      <c r="A147" s="351"/>
+      <c r="A147" s="309"/>
       <c r="B147" s="54"/>
       <c r="C147" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D147" s="330"/>
+      <c r="D147" s="331"/>
       <c r="E147" s="140"/>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -16279,12 +16473,12 @@
       </c>
     </row>
     <row r="148" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="351"/>
+      <c r="A148" s="309"/>
       <c r="B148" s="54"/>
       <c r="C148" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="330"/>
+      <c r="D148" s="331"/>
       <c r="E148" s="140"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -16351,12 +16545,12 @@
       <c r="AD148" s="216"/>
     </row>
     <row r="149" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="351"/>
+      <c r="A149" s="309"/>
       <c r="B149" s="54"/>
       <c r="C149" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D149" s="330"/>
+      <c r="D149" s="331"/>
       <c r="E149" s="140"/>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -16423,12 +16617,12 @@
       <c r="AD149" s="216"/>
     </row>
     <row r="150" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="351"/>
+      <c r="A150" s="309"/>
       <c r="B150" s="54"/>
       <c r="C150" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D150" s="330"/>
+      <c r="D150" s="331"/>
       <c r="E150" s="140"/>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -16495,12 +16689,12 @@
       <c r="AD150" s="216"/>
     </row>
     <row r="151" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="351"/>
+      <c r="A151" s="309"/>
       <c r="B151" s="54"/>
       <c r="C151" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D151" s="330"/>
+      <c r="D151" s="331"/>
       <c r="E151" s="140"/>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -16567,12 +16761,12 @@
       <c r="AD151" s="216"/>
     </row>
     <row r="152" spans="1:30" ht="52" x14ac:dyDescent="0.35">
-      <c r="A152" s="351"/>
+      <c r="A152" s="309"/>
       <c r="B152" s="54"/>
       <c r="C152" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D152" s="330"/>
+      <c r="D152" s="331"/>
       <c r="E152" s="140"/>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -16641,12 +16835,12 @@
       </c>
     </row>
     <row r="153" spans="1:30" ht="39" x14ac:dyDescent="0.35">
-      <c r="A153" s="351"/>
+      <c r="A153" s="309"/>
       <c r="B153" s="54"/>
       <c r="C153" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D153" s="330"/>
+      <c r="D153" s="331"/>
       <c r="E153" s="140"/>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -16713,12 +16907,12 @@
       <c r="AD153" s="224"/>
     </row>
     <row r="154" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="351"/>
+      <c r="A154" s="309"/>
       <c r="B154" s="54"/>
       <c r="C154" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D154" s="330"/>
+      <c r="D154" s="331"/>
       <c r="E154" s="140"/>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -16785,12 +16979,12 @@
       <c r="AD154" s="224"/>
     </row>
     <row r="155" spans="1:30" ht="39" x14ac:dyDescent="0.35">
-      <c r="A155" s="351"/>
+      <c r="A155" s="309"/>
       <c r="B155" s="54"/>
       <c r="C155" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D155" s="330"/>
+      <c r="D155" s="331"/>
       <c r="E155" s="140"/>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -16859,12 +17053,12 @@
       </c>
     </row>
     <row r="156" spans="1:30" ht="26" x14ac:dyDescent="0.35">
-      <c r="A156" s="351"/>
+      <c r="A156" s="309"/>
       <c r="B156" s="54"/>
       <c r="C156" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D156" s="330"/>
+      <c r="D156" s="331"/>
       <c r="E156" s="140"/>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -16933,12 +17127,12 @@
       </c>
     </row>
     <row r="157" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="351"/>
+      <c r="A157" s="309"/>
       <c r="B157" s="54"/>
       <c r="C157" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D157" s="330"/>
+      <c r="D157" s="331"/>
       <c r="E157" s="140"/>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -17005,12 +17199,12 @@
       <c r="AD157" s="216"/>
     </row>
     <row r="158" spans="1:30" ht="39" x14ac:dyDescent="0.35">
-      <c r="A158" s="351"/>
+      <c r="A158" s="309"/>
       <c r="B158" s="54"/>
       <c r="C158" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D158" s="330"/>
+      <c r="D158" s="331"/>
       <c r="E158" s="140"/>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -17079,12 +17273,12 @@
       </c>
     </row>
     <row r="159" spans="1:30" ht="52" x14ac:dyDescent="0.35">
-      <c r="A159" s="351"/>
+      <c r="A159" s="309"/>
       <c r="B159" s="54"/>
       <c r="C159" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="330"/>
+      <c r="D159" s="331"/>
       <c r="E159" s="140"/>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -17151,12 +17345,12 @@
       <c r="AD159" s="216"/>
     </row>
     <row r="160" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="351"/>
+      <c r="A160" s="309"/>
       <c r="B160" s="75"/>
       <c r="C160" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D160" s="330"/>
+      <c r="D160" s="331"/>
       <c r="E160" s="125"/>
       <c r="F160" s="81"/>
       <c r="G160" s="81"/>
@@ -17209,14 +17403,14 @@
       <c r="AD160" s="218"/>
     </row>
     <row r="161" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="351"/>
+      <c r="A161" s="309"/>
       <c r="B161" s="63" t="s">
         <v>140</v>
       </c>
       <c r="C161" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="330"/>
+      <c r="D161" s="331"/>
       <c r="E161" s="142"/>
       <c r="F161" s="65"/>
       <c r="G161" s="65"/>
@@ -17283,12 +17477,12 @@
       <c r="AD161" s="225"/>
     </row>
     <row r="162" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="351"/>
+      <c r="A162" s="309"/>
       <c r="B162" s="67"/>
       <c r="C162" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D162" s="330"/>
+      <c r="D162" s="331"/>
       <c r="E162" s="144"/>
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
@@ -17355,12 +17549,12 @@
       <c r="AD162" s="226"/>
     </row>
     <row r="163" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="351"/>
+      <c r="A163" s="309"/>
       <c r="B163" s="67"/>
       <c r="C163" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D163" s="330"/>
+      <c r="D163" s="331"/>
       <c r="E163" s="144"/>
       <c r="F163" s="39"/>
       <c r="G163" s="39"/>
@@ -17429,12 +17623,12 @@
       </c>
     </row>
     <row r="164" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="351"/>
+      <c r="A164" s="309"/>
       <c r="B164" s="67"/>
       <c r="C164" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D164" s="330"/>
+      <c r="D164" s="331"/>
       <c r="E164" s="144"/>
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
@@ -17501,12 +17695,12 @@
       <c r="AD164" s="226"/>
     </row>
     <row r="165" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="351"/>
+      <c r="A165" s="309"/>
       <c r="B165" s="67"/>
       <c r="C165" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D165" s="330"/>
+      <c r="D165" s="331"/>
       <c r="E165" s="144"/>
       <c r="F165" s="39"/>
       <c r="G165" s="39"/>
@@ -17573,12 +17767,12 @@
       <c r="AD165" s="226"/>
     </row>
     <row r="166" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="351"/>
+      <c r="A166" s="309"/>
       <c r="B166" s="67"/>
       <c r="C166" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D166" s="330"/>
+      <c r="D166" s="331"/>
       <c r="E166" s="144"/>
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
@@ -17647,12 +17841,12 @@
       </c>
     </row>
     <row r="167" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="351"/>
+      <c r="A167" s="309"/>
       <c r="B167" s="67"/>
       <c r="C167" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D167" s="330"/>
+      <c r="D167" s="331"/>
       <c r="E167" s="144"/>
       <c r="F167" s="39"/>
       <c r="G167" s="39"/>
@@ -17719,12 +17913,12 @@
       <c r="AD167" s="226"/>
     </row>
     <row r="168" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="351"/>
+      <c r="A168" s="309"/>
       <c r="B168" s="67"/>
       <c r="C168" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D168" s="330"/>
+      <c r="D168" s="331"/>
       <c r="E168" s="144"/>
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
@@ -17791,12 +17985,12 @@
       <c r="AD168" s="226"/>
     </row>
     <row r="169" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="351"/>
+      <c r="A169" s="309"/>
       <c r="B169" s="67"/>
       <c r="C169" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D169" s="330"/>
+      <c r="D169" s="331"/>
       <c r="E169" s="144"/>
       <c r="F169" s="39"/>
       <c r="G169" s="39"/>
@@ -17863,12 +18057,12 @@
       <c r="AD169" s="226"/>
     </row>
     <row r="170" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="351"/>
+      <c r="A170" s="309"/>
       <c r="B170" s="67"/>
       <c r="C170" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D170" s="330"/>
+      <c r="D170" s="331"/>
       <c r="E170" s="144"/>
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
@@ -17937,12 +18131,12 @@
       </c>
     </row>
     <row r="171" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="351"/>
+      <c r="A171" s="309"/>
       <c r="B171" s="67"/>
       <c r="C171" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D171" s="330"/>
+      <c r="D171" s="331"/>
       <c r="E171" s="144"/>
       <c r="F171" s="39"/>
       <c r="G171" s="39"/>
@@ -18009,12 +18203,12 @@
       <c r="AD171" s="226"/>
     </row>
     <row r="172" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="351"/>
+      <c r="A172" s="309"/>
       <c r="B172" s="67"/>
       <c r="C172" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="330"/>
+      <c r="D172" s="331"/>
       <c r="E172" s="144"/>
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
@@ -18081,12 +18275,12 @@
       <c r="AD172" s="226"/>
     </row>
     <row r="173" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="351"/>
+      <c r="A173" s="309"/>
       <c r="B173" s="68"/>
       <c r="C173" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D173" s="331"/>
+      <c r="D173" s="332"/>
       <c r="E173" s="146"/>
       <c r="F173" s="70"/>
       <c r="G173" s="70"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>+ PRTC, Hotahm, SMS, PMT</t>
+          <t>+ PRTC, Hotahm, SMS</t>
         </r>
         <r>
           <rPr>
@@ -3128,6 +3128,15 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+From: Jain, Praveen K 
+Sent: Thursday, December 14, 2017 10:30 PM
+To: Lee, Khee Wooi &lt;khee.wooi.lee@intel.com&gt;
+Cc: Klinglesmith, Michael T &lt;michael.t.klinglesmith@intel.com&gt;; Hunsaker, Mikal &lt;mikal.hunsaker@intel.com&gt;
+Subject: RE: MCC CSE
+Hi Khee Wooi,
+PMT is not needed for MCC. So please remove this from the CSE config.
+Regards,
+Praveen
 </t>
         </r>
       </text>
@@ -3275,7 +3284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="382">
   <si>
     <t>Feature</t>
   </si>
@@ -4712,15 +4721,19 @@
     <t>- Updated MCC CSE SRAM size to 768KB
 - Removed IUNIT IPC since MCC has no IUNIT</t>
   </si>
+  <si>
+    <t>- Removed PMT from CE MCC per Praveen's f/b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4872,6 +4885,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -5874,10 +5894,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6437,9 +6458,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6449,13 +6467,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6794,6 +6806,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6929,11 +6998,9 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7244,16 +7311,16 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="237" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="234" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" style="25" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="26" customWidth="1"/>
     <col min="5" max="5" width="77.36328125" style="26" bestFit="1" customWidth="1"/>
@@ -7261,7 +7328,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="232" t="s">
         <v>331</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -7275,7 +7342,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="236">
+      <c r="B3" s="233">
         <v>1</v>
       </c>
       <c r="C3" s="9">
@@ -7289,7 +7356,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="B4" s="236">
+      <c r="B4" s="233">
         <v>2</v>
       </c>
       <c r="C4" s="9">
@@ -7303,7 +7370,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="236">
+      <c r="B5" s="233">
         <v>3</v>
       </c>
       <c r="C5" s="9">
@@ -7317,7 +7384,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B6" s="236">
+      <c r="B6" s="233">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -7331,7 +7398,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="236">
+      <c r="B7" s="233">
         <v>5</v>
       </c>
       <c r="C7" s="9">
@@ -7345,7 +7412,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="236">
+      <c r="B8" s="233">
         <v>6</v>
       </c>
       <c r="C8" s="9">
@@ -7359,7 +7426,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="236">
+      <c r="B9" s="233">
         <v>7</v>
       </c>
       <c r="C9" s="9">
@@ -7373,7 +7440,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="236">
+      <c r="B10" s="233">
         <v>8</v>
       </c>
       <c r="C10" s="9">
@@ -7387,7 +7454,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="236">
+      <c r="B11" s="233">
         <v>9</v>
       </c>
       <c r="C11" s="9">
@@ -7401,7 +7468,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="236">
+      <c r="B12" s="233">
         <v>10</v>
       </c>
       <c r="C12" s="9">
@@ -7415,7 +7482,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="236">
+      <c r="B13" s="233">
         <v>11</v>
       </c>
       <c r="C13" s="9">
@@ -7429,7 +7496,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="236">
+      <c r="B14" s="233">
         <v>12</v>
       </c>
       <c r="C14" s="9">
@@ -7443,7 +7510,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="236">
+      <c r="B15" s="233">
         <v>13</v>
       </c>
       <c r="C15" s="9">
@@ -7457,7 +7524,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="236">
+      <c r="B16" s="233">
         <v>14</v>
       </c>
       <c r="C16" s="9">
@@ -7471,7 +7538,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="236">
+      <c r="B17" s="233">
         <v>15</v>
       </c>
       <c r="C17" s="9">
@@ -7485,7 +7552,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="236">
+      <c r="B18" s="233">
         <v>16</v>
       </c>
       <c r="C18" s="9">
@@ -7499,7 +7566,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="236">
+      <c r="B19" s="233">
         <v>17</v>
       </c>
       <c r="C19" s="9">
@@ -7513,7 +7580,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="236">
+      <c r="B20" s="233">
         <v>18</v>
       </c>
       <c r="C20" s="9">
@@ -7527,7 +7594,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="236">
+      <c r="B21" s="233">
         <v>19</v>
       </c>
       <c r="C21" s="9">
@@ -7541,7 +7608,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="236">
+      <c r="B22" s="233">
         <v>20</v>
       </c>
       <c r="C22" s="9">
@@ -7555,7 +7622,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="236">
+      <c r="B23" s="233">
         <v>21</v>
       </c>
       <c r="C23" s="9">
@@ -7569,7 +7636,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B24" s="236">
+      <c r="B24" s="233">
         <v>22</v>
       </c>
       <c r="C24" s="9">
@@ -7583,7 +7650,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="236">
+      <c r="B25" s="233">
         <v>23</v>
       </c>
       <c r="C25" s="9">
@@ -7597,7 +7664,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="236">
+      <c r="B26" s="233">
         <v>24</v>
       </c>
       <c r="C26" s="9">
@@ -7611,7 +7678,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="236">
+      <c r="B27" s="233">
         <v>25</v>
       </c>
       <c r="C27" s="9">
@@ -7625,7 +7692,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="236">
+      <c r="B28" s="233">
         <v>26</v>
       </c>
       <c r="C28" s="9">
@@ -7639,7 +7706,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="236">
+      <c r="B29" s="233">
         <v>27</v>
       </c>
       <c r="C29" s="9">
@@ -7653,7 +7720,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B30" s="236">
+      <c r="B30" s="233">
         <v>28</v>
       </c>
       <c r="C30" s="9">
@@ -7667,7 +7734,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="236">
+      <c r="B31" s="233">
         <v>29</v>
       </c>
       <c r="C31" s="9">
@@ -7681,7 +7748,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="236">
+      <c r="B32" s="233">
         <v>30</v>
       </c>
       <c r="C32" s="9">
@@ -7695,61 +7762,69 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="236"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="233">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9">
+        <v>43084</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="236"/>
+      <c r="B34" s="233"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="236"/>
+      <c r="B35" s="233"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="236"/>
+      <c r="B36" s="233"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="236"/>
+      <c r="B37" s="233"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="236"/>
+      <c r="B38" s="233"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="236"/>
+      <c r="B39" s="233"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="236"/>
+      <c r="B40" s="233"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="236"/>
+      <c r="B41" s="233"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="236"/>
+      <c r="B42" s="233"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -7766,70 +7841,72 @@
   <dimension ref="A1:AD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="U36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="305" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" style="302" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="12" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08984375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9.7265625" style="17" customWidth="1"/>
     <col min="10" max="13" width="9.7265625" style="28" customWidth="1"/>
-    <col min="14" max="29" width="9.7265625" style="17" customWidth="1"/>
+    <col min="14" max="17" width="9.7265625" style="17" customWidth="1"/>
+    <col min="18" max="18" width="9.7265625" style="304" customWidth="1"/>
+    <col min="19" max="29" width="9.7265625" style="17" customWidth="1"/>
     <col min="30" max="30" width="32.90625" style="1" customWidth="1"/>
     <col min="31" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B1" s="246"/>
-      <c r="C1" s="247" t="s">
+      <c r="B1" s="243"/>
+      <c r="C1" s="244" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="246"/>
-      <c r="C2" s="303" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="300" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="330" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="310" t="s">
+      <c r="C3" s="326" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="311"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="319" t="s">
+      <c r="D3" s="327"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="335" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="322" t="s">
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="338" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="323"/>
-      <c r="L3" s="324" t="s">
+      <c r="K3" s="339"/>
+      <c r="L3" s="340" t="s">
         <v>325</v>
       </c>
-      <c r="M3" s="325"/>
-      <c r="N3" s="328" t="s">
+      <c r="M3" s="341"/>
+      <c r="N3" s="344" t="s">
         <v>326</v>
       </c>
-      <c r="O3" s="326"/>
-      <c r="P3" s="329"/>
-      <c r="Q3" s="326" t="s">
+      <c r="O3" s="342"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="342" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="327"/>
-      <c r="S3" s="205" t="s">
+      <c r="R3" s="343"/>
+      <c r="S3" s="202" t="s">
         <v>102</v>
       </c>
       <c r="T3" s="89" t="s">
@@ -7838,7 +7915,7 @@
       <c r="U3" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="V3" s="206" t="s">
+      <c r="V3" s="203" t="s">
         <v>103</v>
       </c>
       <c r="W3" s="103" t="s">
@@ -7850,27 +7927,27 @@
       <c r="Y3" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="Z3" s="317" t="s">
+      <c r="Z3" s="333" t="s">
         <v>231</v>
       </c>
-      <c r="AA3" s="318"/>
-      <c r="AB3" s="278" t="s">
+      <c r="AA3" s="334"/>
+      <c r="AB3" s="275" t="s">
         <v>340</v>
       </c>
-      <c r="AC3" s="280" t="s">
+      <c r="AC3" s="277" t="s">
         <v>343</v>
       </c>
-      <c r="AD3" s="306" t="s">
+      <c r="AD3" s="322" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="315"/>
-      <c r="C4" s="312" t="s">
+      <c r="B4" s="331"/>
+      <c r="C4" s="328" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="313"/>
-      <c r="E4" s="300" t="s">
+      <c r="D4" s="329"/>
+      <c r="E4" s="297" t="s">
         <v>239</v>
       </c>
       <c r="F4" s="40" t="s">
@@ -7897,7 +7974,7 @@
       <c r="M4" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="N4" s="190" t="s">
+      <c r="N4" s="189" t="s">
         <v>1</v>
       </c>
       <c r="O4" s="23" t="s">
@@ -7909,10 +7986,10 @@
       <c r="Q4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="191" t="s">
+      <c r="R4" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="207" t="s">
+      <c r="S4" s="204" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="22" t="s">
@@ -7921,7 +7998,7 @@
       <c r="U4" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="V4" s="208" t="s">
+      <c r="V4" s="205" t="s">
         <v>104</v>
       </c>
       <c r="W4" s="62" t="s">
@@ -7936,26 +8013,26 @@
       <c r="Z4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AA4" s="264" t="s">
+      <c r="AA4" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="AB4" s="229" t="s">
+      <c r="AB4" s="226" t="s">
         <v>341</v>
       </c>
-      <c r="AC4" s="281" t="s">
+      <c r="AC4" s="278" t="s">
         <v>344</v>
       </c>
-      <c r="AD4" s="307"/>
+      <c r="AD4" s="323"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="316"/>
-      <c r="C5" s="286" t="s">
+      <c r="B5" s="332"/>
+      <c r="C5" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="302" t="s">
+      <c r="D5" s="299" t="s">
         <v>369</v>
       </c>
-      <c r="E5" s="301" t="s">
+      <c r="E5" s="298" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="92" t="s">
@@ -7982,7 +8059,7 @@
       <c r="M5" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="192" t="s">
+      <c r="N5" s="190" t="s">
         <v>2</v>
       </c>
       <c r="O5" s="94" t="s">
@@ -7994,10 +8071,10 @@
       <c r="Q5" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="193" t="s">
+      <c r="R5" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="209" t="s">
+      <c r="S5" s="206" t="s">
         <v>2</v>
       </c>
       <c r="T5" s="95" t="s">
@@ -8006,10 +8083,10 @@
       <c r="U5" s="95" t="s">
         <v>342</v>
       </c>
-      <c r="V5" s="210" t="s">
+      <c r="V5" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="203" t="s">
+      <c r="W5" s="200" t="s">
         <v>2</v>
       </c>
       <c r="X5" s="96" t="s">
@@ -8021,1120 +8098,1120 @@
       <c r="Z5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="265" t="s">
+      <c r="AA5" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="230" t="s">
+      <c r="AB5" s="227" t="s">
         <v>342</v>
       </c>
-      <c r="AC5" s="282" t="s">
+      <c r="AC5" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="AD5" s="308"/>
+      <c r="AD5" s="324"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="309"/>
+      <c r="A6" s="325"/>
       <c r="B6" s="54" t="s">
         <v>321</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="295" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="333" t="s">
+      <c r="D6" s="292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="349" t="s">
         <v>368</v>
       </c>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="342" t="s">
+      <c r="F6" s="350"/>
+      <c r="G6" s="350"/>
+      <c r="H6" s="350"/>
+      <c r="I6" s="351"/>
+      <c r="J6" s="358" t="s">
         <v>370</v>
       </c>
-      <c r="K6" s="343"/>
-      <c r="L6" s="343"/>
-      <c r="M6" s="343"/>
-      <c r="N6" s="343"/>
-      <c r="O6" s="343"/>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="343"/>
-      <c r="R6" s="343"/>
-      <c r="S6" s="343"/>
-      <c r="T6" s="343"/>
-      <c r="U6" s="343"/>
-      <c r="V6" s="343"/>
-      <c r="W6" s="343"/>
-      <c r="X6" s="343"/>
-      <c r="Y6" s="343"/>
-      <c r="Z6" s="343"/>
-      <c r="AA6" s="343"/>
-      <c r="AB6" s="343"/>
-      <c r="AC6" s="344"/>
-      <c r="AD6" s="293"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="359"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="359"/>
+      <c r="P6" s="359"/>
+      <c r="Q6" s="359"/>
+      <c r="R6" s="359"/>
+      <c r="S6" s="359"/>
+      <c r="T6" s="359"/>
+      <c r="U6" s="359"/>
+      <c r="V6" s="359"/>
+      <c r="W6" s="359"/>
+      <c r="X6" s="359"/>
+      <c r="Y6" s="359"/>
+      <c r="Z6" s="359"/>
+      <c r="AA6" s="359"/>
+      <c r="AB6" s="359"/>
+      <c r="AC6" s="360"/>
+      <c r="AD6" s="290"/>
     </row>
     <row r="7" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="309"/>
+      <c r="A7" s="325"/>
       <c r="B7" s="54"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="336"/>
-      <c r="F7" s="337"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="337"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="345"/>
-      <c r="K7" s="346"/>
-      <c r="L7" s="346"/>
-      <c r="M7" s="346"/>
-      <c r="N7" s="346"/>
-      <c r="O7" s="346"/>
-      <c r="P7" s="346"/>
-      <c r="Q7" s="346"/>
-      <c r="R7" s="346"/>
-      <c r="S7" s="346"/>
-      <c r="T7" s="346"/>
-      <c r="U7" s="346"/>
-      <c r="V7" s="346"/>
-      <c r="W7" s="346"/>
-      <c r="X7" s="346"/>
-      <c r="Y7" s="346"/>
-      <c r="Z7" s="346"/>
-      <c r="AA7" s="346"/>
-      <c r="AB7" s="346"/>
-      <c r="AC7" s="347"/>
-      <c r="AD7" s="294"/>
+      <c r="D7" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="352"/>
+      <c r="F7" s="353"/>
+      <c r="G7" s="353"/>
+      <c r="H7" s="353"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="362"/>
+      <c r="L7" s="362"/>
+      <c r="M7" s="362"/>
+      <c r="N7" s="362"/>
+      <c r="O7" s="362"/>
+      <c r="P7" s="362"/>
+      <c r="Q7" s="362"/>
+      <c r="R7" s="362"/>
+      <c r="S7" s="362"/>
+      <c r="T7" s="362"/>
+      <c r="U7" s="362"/>
+      <c r="V7" s="362"/>
+      <c r="W7" s="362"/>
+      <c r="X7" s="362"/>
+      <c r="Y7" s="362"/>
+      <c r="Z7" s="362"/>
+      <c r="AA7" s="362"/>
+      <c r="AB7" s="362"/>
+      <c r="AC7" s="363"/>
+      <c r="AD7" s="291"/>
     </row>
     <row r="8" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="309"/>
+      <c r="A8" s="325"/>
       <c r="B8" s="54"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="296" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="336"/>
-      <c r="F8" s="337"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="337"/>
-      <c r="I8" s="338"/>
-      <c r="J8" s="345"/>
-      <c r="K8" s="346"/>
-      <c r="L8" s="346"/>
-      <c r="M8" s="346"/>
-      <c r="N8" s="346"/>
-      <c r="O8" s="346"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="346"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="346"/>
-      <c r="T8" s="346"/>
-      <c r="U8" s="346"/>
-      <c r="V8" s="346"/>
-      <c r="W8" s="346"/>
-      <c r="X8" s="346"/>
-      <c r="Y8" s="346"/>
-      <c r="Z8" s="346"/>
-      <c r="AA8" s="346"/>
-      <c r="AB8" s="346"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="294"/>
+      <c r="D8" s="293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="352"/>
+      <c r="F8" s="353"/>
+      <c r="G8" s="353"/>
+      <c r="H8" s="353"/>
+      <c r="I8" s="354"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="362"/>
+      <c r="N8" s="362"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
+      <c r="Q8" s="362"/>
+      <c r="R8" s="362"/>
+      <c r="S8" s="362"/>
+      <c r="T8" s="362"/>
+      <c r="U8" s="362"/>
+      <c r="V8" s="362"/>
+      <c r="W8" s="362"/>
+      <c r="X8" s="362"/>
+      <c r="Y8" s="362"/>
+      <c r="Z8" s="362"/>
+      <c r="AA8" s="362"/>
+      <c r="AB8" s="362"/>
+      <c r="AC8" s="363"/>
+      <c r="AD8" s="291"/>
     </row>
     <row r="9" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="309"/>
+      <c r="A9" s="325"/>
       <c r="B9" s="54"/>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="297" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="336"/>
-      <c r="F9" s="337"/>
-      <c r="G9" s="337"/>
-      <c r="H9" s="337"/>
-      <c r="I9" s="338"/>
-      <c r="J9" s="345"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="346"/>
-      <c r="Q9" s="346"/>
-      <c r="R9" s="346"/>
-      <c r="S9" s="346"/>
-      <c r="T9" s="346"/>
-      <c r="U9" s="346"/>
-      <c r="V9" s="346"/>
-      <c r="W9" s="346"/>
-      <c r="X9" s="346"/>
-      <c r="Y9" s="346"/>
-      <c r="Z9" s="346"/>
-      <c r="AA9" s="346"/>
-      <c r="AB9" s="346"/>
-      <c r="AC9" s="347"/>
-      <c r="AD9" s="294"/>
+      <c r="D9" s="294" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="352"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="361"/>
+      <c r="K9" s="362"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="362"/>
+      <c r="N9" s="362"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
+      <c r="Q9" s="362"/>
+      <c r="R9" s="362"/>
+      <c r="S9" s="362"/>
+      <c r="T9" s="362"/>
+      <c r="U9" s="362"/>
+      <c r="V9" s="362"/>
+      <c r="W9" s="362"/>
+      <c r="X9" s="362"/>
+      <c r="Y9" s="362"/>
+      <c r="Z9" s="362"/>
+      <c r="AA9" s="362"/>
+      <c r="AB9" s="362"/>
+      <c r="AC9" s="363"/>
+      <c r="AD9" s="291"/>
     </row>
     <row r="10" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="309"/>
+      <c r="A10" s="325"/>
       <c r="B10" s="54"/>
       <c r="C10" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="296" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="336"/>
-      <c r="F10" s="337"/>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="338"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="346"/>
-      <c r="N10" s="346"/>
-      <c r="O10" s="346"/>
-      <c r="P10" s="346"/>
-      <c r="Q10" s="346"/>
-      <c r="R10" s="346"/>
-      <c r="S10" s="346"/>
-      <c r="T10" s="346"/>
-      <c r="U10" s="346"/>
-      <c r="V10" s="346"/>
-      <c r="W10" s="346"/>
-      <c r="X10" s="346"/>
-      <c r="Y10" s="346"/>
-      <c r="Z10" s="346"/>
-      <c r="AA10" s="346"/>
-      <c r="AB10" s="346"/>
-      <c r="AC10" s="347"/>
-      <c r="AD10" s="294"/>
+      <c r="D10" s="293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="352"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="353"/>
+      <c r="I10" s="354"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="362"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="362"/>
+      <c r="R10" s="362"/>
+      <c r="S10" s="362"/>
+      <c r="T10" s="362"/>
+      <c r="U10" s="362"/>
+      <c r="V10" s="362"/>
+      <c r="W10" s="362"/>
+      <c r="X10" s="362"/>
+      <c r="Y10" s="362"/>
+      <c r="Z10" s="362"/>
+      <c r="AA10" s="362"/>
+      <c r="AB10" s="362"/>
+      <c r="AC10" s="363"/>
+      <c r="AD10" s="291"/>
     </row>
     <row r="11" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="309"/>
+      <c r="A11" s="325"/>
       <c r="B11" s="54"/>
       <c r="C11" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="296" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="336"/>
-      <c r="F11" s="337"/>
-      <c r="G11" s="337"/>
-      <c r="H11" s="337"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="346"/>
-      <c r="L11" s="346"/>
-      <c r="M11" s="346"/>
-      <c r="N11" s="346"/>
-      <c r="O11" s="346"/>
-      <c r="P11" s="346"/>
-      <c r="Q11" s="346"/>
-      <c r="R11" s="346"/>
-      <c r="S11" s="346"/>
-      <c r="T11" s="346"/>
-      <c r="U11" s="346"/>
-      <c r="V11" s="346"/>
-      <c r="W11" s="346"/>
-      <c r="X11" s="346"/>
-      <c r="Y11" s="346"/>
-      <c r="Z11" s="346"/>
-      <c r="AA11" s="346"/>
-      <c r="AB11" s="346"/>
-      <c r="AC11" s="347"/>
-      <c r="AD11" s="294"/>
+      <c r="D11" s="293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="352"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="354"/>
+      <c r="J11" s="361"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="362"/>
+      <c r="O11" s="362"/>
+      <c r="P11" s="362"/>
+      <c r="Q11" s="362"/>
+      <c r="R11" s="362"/>
+      <c r="S11" s="362"/>
+      <c r="T11" s="362"/>
+      <c r="U11" s="362"/>
+      <c r="V11" s="362"/>
+      <c r="W11" s="362"/>
+      <c r="X11" s="362"/>
+      <c r="Y11" s="362"/>
+      <c r="Z11" s="362"/>
+      <c r="AA11" s="362"/>
+      <c r="AB11" s="362"/>
+      <c r="AC11" s="363"/>
+      <c r="AD11" s="291"/>
     </row>
     <row r="12" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="309"/>
+      <c r="A12" s="325"/>
       <c r="B12" s="54"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="298" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="336"/>
-      <c r="F12" s="337"/>
-      <c r="G12" s="337"/>
-      <c r="H12" s="337"/>
-      <c r="I12" s="338"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="346"/>
-      <c r="L12" s="346"/>
-      <c r="M12" s="346"/>
-      <c r="N12" s="346"/>
-      <c r="O12" s="346"/>
-      <c r="P12" s="346"/>
-      <c r="Q12" s="346"/>
-      <c r="R12" s="346"/>
-      <c r="S12" s="346"/>
-      <c r="T12" s="346"/>
-      <c r="U12" s="346"/>
-      <c r="V12" s="346"/>
-      <c r="W12" s="346"/>
-      <c r="X12" s="346"/>
-      <c r="Y12" s="346"/>
-      <c r="Z12" s="346"/>
-      <c r="AA12" s="346"/>
-      <c r="AB12" s="346"/>
-      <c r="AC12" s="347"/>
-      <c r="AD12" s="294"/>
+      <c r="D12" s="295" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="352"/>
+      <c r="F12" s="353"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="353"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="362"/>
+      <c r="L12" s="362"/>
+      <c r="M12" s="362"/>
+      <c r="N12" s="362"/>
+      <c r="O12" s="362"/>
+      <c r="P12" s="362"/>
+      <c r="Q12" s="362"/>
+      <c r="R12" s="362"/>
+      <c r="S12" s="362"/>
+      <c r="T12" s="362"/>
+      <c r="U12" s="362"/>
+      <c r="V12" s="362"/>
+      <c r="W12" s="362"/>
+      <c r="X12" s="362"/>
+      <c r="Y12" s="362"/>
+      <c r="Z12" s="362"/>
+      <c r="AA12" s="362"/>
+      <c r="AB12" s="362"/>
+      <c r="AC12" s="363"/>
+      <c r="AD12" s="291"/>
     </row>
     <row r="13" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="309"/>
+      <c r="A13" s="325"/>
       <c r="B13" s="54"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="336"/>
-      <c r="F13" s="337"/>
-      <c r="G13" s="337"/>
-      <c r="H13" s="337"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="345"/>
-      <c r="K13" s="346"/>
-      <c r="L13" s="346"/>
-      <c r="M13" s="346"/>
-      <c r="N13" s="346"/>
-      <c r="O13" s="346"/>
-      <c r="P13" s="346"/>
-      <c r="Q13" s="346"/>
-      <c r="R13" s="346"/>
-      <c r="S13" s="346"/>
-      <c r="T13" s="346"/>
-      <c r="U13" s="346"/>
-      <c r="V13" s="346"/>
-      <c r="W13" s="346"/>
-      <c r="X13" s="346"/>
-      <c r="Y13" s="346"/>
-      <c r="Z13" s="346"/>
-      <c r="AA13" s="346"/>
-      <c r="AB13" s="346"/>
-      <c r="AC13" s="347"/>
-      <c r="AD13" s="294"/>
+      <c r="D13" s="296" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="352"/>
+      <c r="F13" s="353"/>
+      <c r="G13" s="353"/>
+      <c r="H13" s="353"/>
+      <c r="I13" s="354"/>
+      <c r="J13" s="361"/>
+      <c r="K13" s="362"/>
+      <c r="L13" s="362"/>
+      <c r="M13" s="362"/>
+      <c r="N13" s="362"/>
+      <c r="O13" s="362"/>
+      <c r="P13" s="362"/>
+      <c r="Q13" s="362"/>
+      <c r="R13" s="362"/>
+      <c r="S13" s="362"/>
+      <c r="T13" s="362"/>
+      <c r="U13" s="362"/>
+      <c r="V13" s="362"/>
+      <c r="W13" s="362"/>
+      <c r="X13" s="362"/>
+      <c r="Y13" s="362"/>
+      <c r="Z13" s="362"/>
+      <c r="AA13" s="362"/>
+      <c r="AB13" s="362"/>
+      <c r="AC13" s="363"/>
+      <c r="AD13" s="291"/>
     </row>
     <row r="14" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="309"/>
+      <c r="A14" s="325"/>
       <c r="B14" s="54"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="298">
+      <c r="D14" s="295">
         <v>32</v>
       </c>
-      <c r="E14" s="336"/>
-      <c r="F14" s="337"/>
-      <c r="G14" s="337"/>
-      <c r="H14" s="337"/>
-      <c r="I14" s="338"/>
-      <c r="J14" s="345"/>
-      <c r="K14" s="346"/>
-      <c r="L14" s="346"/>
-      <c r="M14" s="346"/>
-      <c r="N14" s="346"/>
-      <c r="O14" s="346"/>
-      <c r="P14" s="346"/>
-      <c r="Q14" s="346"/>
-      <c r="R14" s="346"/>
-      <c r="S14" s="346"/>
-      <c r="T14" s="346"/>
-      <c r="U14" s="346"/>
-      <c r="V14" s="346"/>
-      <c r="W14" s="346"/>
-      <c r="X14" s="346"/>
-      <c r="Y14" s="346"/>
-      <c r="Z14" s="346"/>
-      <c r="AA14" s="346"/>
-      <c r="AB14" s="346"/>
-      <c r="AC14" s="347"/>
-      <c r="AD14" s="294"/>
+      <c r="E14" s="352"/>
+      <c r="F14" s="353"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="353"/>
+      <c r="I14" s="354"/>
+      <c r="J14" s="361"/>
+      <c r="K14" s="362"/>
+      <c r="L14" s="362"/>
+      <c r="M14" s="362"/>
+      <c r="N14" s="362"/>
+      <c r="O14" s="362"/>
+      <c r="P14" s="362"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="362"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="362"/>
+      <c r="U14" s="362"/>
+      <c r="V14" s="362"/>
+      <c r="W14" s="362"/>
+      <c r="X14" s="362"/>
+      <c r="Y14" s="362"/>
+      <c r="Z14" s="362"/>
+      <c r="AA14" s="362"/>
+      <c r="AB14" s="362"/>
+      <c r="AC14" s="363"/>
+      <c r="AD14" s="291"/>
     </row>
     <row r="15" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="309"/>
+      <c r="A15" s="325"/>
       <c r="B15" s="54"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="298">
+      <c r="D15" s="295">
         <v>32</v>
       </c>
-      <c r="E15" s="336"/>
-      <c r="F15" s="337"/>
-      <c r="G15" s="337"/>
-      <c r="H15" s="337"/>
-      <c r="I15" s="338"/>
-      <c r="J15" s="345"/>
-      <c r="K15" s="346"/>
-      <c r="L15" s="346"/>
-      <c r="M15" s="346"/>
-      <c r="N15" s="346"/>
-      <c r="O15" s="346"/>
-      <c r="P15" s="346"/>
-      <c r="Q15" s="346"/>
-      <c r="R15" s="346"/>
-      <c r="S15" s="346"/>
-      <c r="T15" s="346"/>
-      <c r="U15" s="346"/>
-      <c r="V15" s="346"/>
-      <c r="W15" s="346"/>
-      <c r="X15" s="346"/>
-      <c r="Y15" s="346"/>
-      <c r="Z15" s="346"/>
-      <c r="AA15" s="346"/>
-      <c r="AB15" s="346"/>
-      <c r="AC15" s="347"/>
-      <c r="AD15" s="294"/>
+      <c r="E15" s="352"/>
+      <c r="F15" s="353"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="353"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="361"/>
+      <c r="K15" s="362"/>
+      <c r="L15" s="362"/>
+      <c r="M15" s="362"/>
+      <c r="N15" s="362"/>
+      <c r="O15" s="362"/>
+      <c r="P15" s="362"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="362"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="362"/>
+      <c r="U15" s="362"/>
+      <c r="V15" s="362"/>
+      <c r="W15" s="362"/>
+      <c r="X15" s="362"/>
+      <c r="Y15" s="362"/>
+      <c r="Z15" s="362"/>
+      <c r="AA15" s="362"/>
+      <c r="AB15" s="362"/>
+      <c r="AC15" s="363"/>
+      <c r="AD15" s="291"/>
     </row>
     <row r="16" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="309"/>
+      <c r="A16" s="325"/>
       <c r="B16" s="54"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="296" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="336"/>
-      <c r="F16" s="337"/>
-      <c r="G16" s="337"/>
-      <c r="H16" s="337"/>
-      <c r="I16" s="338"/>
-      <c r="J16" s="345"/>
-      <c r="K16" s="346"/>
-      <c r="L16" s="346"/>
-      <c r="M16" s="346"/>
-      <c r="N16" s="346"/>
-      <c r="O16" s="346"/>
-      <c r="P16" s="346"/>
-      <c r="Q16" s="346"/>
-      <c r="R16" s="346"/>
-      <c r="S16" s="346"/>
-      <c r="T16" s="346"/>
-      <c r="U16" s="346"/>
-      <c r="V16" s="346"/>
-      <c r="W16" s="346"/>
-      <c r="X16" s="346"/>
-      <c r="Y16" s="346"/>
-      <c r="Z16" s="346"/>
-      <c r="AA16" s="346"/>
-      <c r="AB16" s="346"/>
-      <c r="AC16" s="347"/>
-      <c r="AD16" s="294"/>
+      <c r="D16" s="293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="352"/>
+      <c r="F16" s="353"/>
+      <c r="G16" s="353"/>
+      <c r="H16" s="353"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="361"/>
+      <c r="K16" s="362"/>
+      <c r="L16" s="362"/>
+      <c r="M16" s="362"/>
+      <c r="N16" s="362"/>
+      <c r="O16" s="362"/>
+      <c r="P16" s="362"/>
+      <c r="Q16" s="362"/>
+      <c r="R16" s="362"/>
+      <c r="S16" s="362"/>
+      <c r="T16" s="362"/>
+      <c r="U16" s="362"/>
+      <c r="V16" s="362"/>
+      <c r="W16" s="362"/>
+      <c r="X16" s="362"/>
+      <c r="Y16" s="362"/>
+      <c r="Z16" s="362"/>
+      <c r="AA16" s="362"/>
+      <c r="AB16" s="362"/>
+      <c r="AC16" s="363"/>
+      <c r="AD16" s="291"/>
     </row>
     <row r="17" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="309"/>
+      <c r="A17" s="325"/>
       <c r="B17" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="288" t="s">
+      <c r="D17" s="285" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="336"/>
-      <c r="F17" s="337"/>
-      <c r="G17" s="337"/>
-      <c r="H17" s="337"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="345"/>
-      <c r="K17" s="346"/>
-      <c r="L17" s="346"/>
-      <c r="M17" s="346"/>
-      <c r="N17" s="346"/>
-      <c r="O17" s="346"/>
-      <c r="P17" s="346"/>
-      <c r="Q17" s="346"/>
-      <c r="R17" s="346"/>
-      <c r="S17" s="346"/>
-      <c r="T17" s="346"/>
-      <c r="U17" s="346"/>
-      <c r="V17" s="346"/>
-      <c r="W17" s="346"/>
-      <c r="X17" s="346"/>
-      <c r="Y17" s="346"/>
-      <c r="Z17" s="346"/>
-      <c r="AA17" s="346"/>
-      <c r="AB17" s="346"/>
-      <c r="AC17" s="347"/>
-      <c r="AD17" s="294"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="353"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="353"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="361"/>
+      <c r="K17" s="362"/>
+      <c r="L17" s="362"/>
+      <c r="M17" s="362"/>
+      <c r="N17" s="362"/>
+      <c r="O17" s="362"/>
+      <c r="P17" s="362"/>
+      <c r="Q17" s="362"/>
+      <c r="R17" s="362"/>
+      <c r="S17" s="362"/>
+      <c r="T17" s="362"/>
+      <c r="U17" s="362"/>
+      <c r="V17" s="362"/>
+      <c r="W17" s="362"/>
+      <c r="X17" s="362"/>
+      <c r="Y17" s="362"/>
+      <c r="Z17" s="362"/>
+      <c r="AA17" s="362"/>
+      <c r="AB17" s="362"/>
+      <c r="AC17" s="363"/>
+      <c r="AD17" s="291"/>
     </row>
     <row r="18" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="309"/>
+      <c r="A18" s="325"/>
       <c r="B18" s="54"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="287">
+      <c r="D18" s="284">
         <v>128</v>
       </c>
-      <c r="E18" s="336"/>
-      <c r="F18" s="337"/>
-      <c r="G18" s="337"/>
-      <c r="H18" s="337"/>
-      <c r="I18" s="338"/>
-      <c r="J18" s="345"/>
-      <c r="K18" s="346"/>
-      <c r="L18" s="346"/>
-      <c r="M18" s="346"/>
-      <c r="N18" s="346"/>
-      <c r="O18" s="346"/>
-      <c r="P18" s="346"/>
-      <c r="Q18" s="346"/>
-      <c r="R18" s="346"/>
-      <c r="S18" s="346"/>
-      <c r="T18" s="346"/>
-      <c r="U18" s="346"/>
-      <c r="V18" s="346"/>
-      <c r="W18" s="346"/>
-      <c r="X18" s="346"/>
-      <c r="Y18" s="346"/>
-      <c r="Z18" s="346"/>
-      <c r="AA18" s="346"/>
-      <c r="AB18" s="346"/>
-      <c r="AC18" s="347"/>
-      <c r="AD18" s="294"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="353"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="354"/>
+      <c r="J18" s="361"/>
+      <c r="K18" s="362"/>
+      <c r="L18" s="362"/>
+      <c r="M18" s="362"/>
+      <c r="N18" s="362"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="362"/>
+      <c r="U18" s="362"/>
+      <c r="V18" s="362"/>
+      <c r="W18" s="362"/>
+      <c r="X18" s="362"/>
+      <c r="Y18" s="362"/>
+      <c r="Z18" s="362"/>
+      <c r="AA18" s="362"/>
+      <c r="AB18" s="362"/>
+      <c r="AC18" s="363"/>
+      <c r="AD18" s="291"/>
     </row>
     <row r="19" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="309"/>
+      <c r="A19" s="325"/>
       <c r="B19" s="54"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="287" t="s">
+      <c r="D19" s="284" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="336"/>
-      <c r="F19" s="337"/>
-      <c r="G19" s="337"/>
-      <c r="H19" s="337"/>
-      <c r="I19" s="338"/>
-      <c r="J19" s="345"/>
-      <c r="K19" s="346"/>
-      <c r="L19" s="346"/>
-      <c r="M19" s="346"/>
-      <c r="N19" s="346"/>
-      <c r="O19" s="346"/>
-      <c r="P19" s="346"/>
-      <c r="Q19" s="346"/>
-      <c r="R19" s="346"/>
-      <c r="S19" s="346"/>
-      <c r="T19" s="346"/>
-      <c r="U19" s="346"/>
-      <c r="V19" s="346"/>
-      <c r="W19" s="346"/>
-      <c r="X19" s="346"/>
-      <c r="Y19" s="346"/>
-      <c r="Z19" s="346"/>
-      <c r="AA19" s="346"/>
-      <c r="AB19" s="346"/>
-      <c r="AC19" s="347"/>
-      <c r="AD19" s="294"/>
+      <c r="E19" s="352"/>
+      <c r="F19" s="353"/>
+      <c r="G19" s="353"/>
+      <c r="H19" s="353"/>
+      <c r="I19" s="354"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="362"/>
+      <c r="L19" s="362"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="362"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="362"/>
+      <c r="U19" s="362"/>
+      <c r="V19" s="362"/>
+      <c r="W19" s="362"/>
+      <c r="X19" s="362"/>
+      <c r="Y19" s="362"/>
+      <c r="Z19" s="362"/>
+      <c r="AA19" s="362"/>
+      <c r="AB19" s="362"/>
+      <c r="AC19" s="363"/>
+      <c r="AD19" s="291"/>
     </row>
     <row r="20" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="309"/>
+      <c r="A20" s="325"/>
       <c r="B20" s="75"/>
       <c r="C20" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="289" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="336"/>
-      <c r="F20" s="337"/>
-      <c r="G20" s="337"/>
-      <c r="H20" s="337"/>
-      <c r="I20" s="338"/>
-      <c r="J20" s="345"/>
-      <c r="K20" s="346"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="346"/>
-      <c r="N20" s="346"/>
-      <c r="O20" s="346"/>
-      <c r="P20" s="346"/>
-      <c r="Q20" s="346"/>
-      <c r="R20" s="346"/>
-      <c r="S20" s="346"/>
-      <c r="T20" s="346"/>
-      <c r="U20" s="346"/>
-      <c r="V20" s="346"/>
-      <c r="W20" s="346"/>
-      <c r="X20" s="346"/>
-      <c r="Y20" s="346"/>
-      <c r="Z20" s="346"/>
-      <c r="AA20" s="346"/>
-      <c r="AB20" s="346"/>
-      <c r="AC20" s="347"/>
-      <c r="AD20" s="294"/>
+      <c r="D20" s="286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="352"/>
+      <c r="F20" s="353"/>
+      <c r="G20" s="353"/>
+      <c r="H20" s="353"/>
+      <c r="I20" s="354"/>
+      <c r="J20" s="361"/>
+      <c r="K20" s="362"/>
+      <c r="L20" s="362"/>
+      <c r="M20" s="362"/>
+      <c r="N20" s="362"/>
+      <c r="O20" s="362"/>
+      <c r="P20" s="362"/>
+      <c r="Q20" s="362"/>
+      <c r="R20" s="362"/>
+      <c r="S20" s="362"/>
+      <c r="T20" s="362"/>
+      <c r="U20" s="362"/>
+      <c r="V20" s="362"/>
+      <c r="W20" s="362"/>
+      <c r="X20" s="362"/>
+      <c r="Y20" s="362"/>
+      <c r="Z20" s="362"/>
+      <c r="AA20" s="362"/>
+      <c r="AB20" s="362"/>
+      <c r="AC20" s="363"/>
+      <c r="AD20" s="291"/>
     </row>
     <row r="21" spans="1:30" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="309"/>
-      <c r="B21" s="290" t="s">
+      <c r="A21" s="325"/>
+      <c r="B21" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="291" t="s">
+      <c r="C21" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="292" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="336"/>
-      <c r="F21" s="337"/>
-      <c r="G21" s="337"/>
-      <c r="H21" s="337"/>
-      <c r="I21" s="338"/>
-      <c r="J21" s="345"/>
-      <c r="K21" s="346"/>
-      <c r="L21" s="346"/>
-      <c r="M21" s="346"/>
-      <c r="N21" s="346"/>
-      <c r="O21" s="346"/>
-      <c r="P21" s="346"/>
-      <c r="Q21" s="346"/>
-      <c r="R21" s="346"/>
-      <c r="S21" s="346"/>
-      <c r="T21" s="346"/>
-      <c r="U21" s="346"/>
-      <c r="V21" s="346"/>
-      <c r="W21" s="346"/>
-      <c r="X21" s="346"/>
-      <c r="Y21" s="346"/>
-      <c r="Z21" s="346"/>
-      <c r="AA21" s="346"/>
-      <c r="AB21" s="346"/>
-      <c r="AC21" s="347"/>
-      <c r="AD21" s="294"/>
+      <c r="D21" s="289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="352"/>
+      <c r="F21" s="353"/>
+      <c r="G21" s="353"/>
+      <c r="H21" s="353"/>
+      <c r="I21" s="354"/>
+      <c r="J21" s="361"/>
+      <c r="K21" s="362"/>
+      <c r="L21" s="362"/>
+      <c r="M21" s="362"/>
+      <c r="N21" s="362"/>
+      <c r="O21" s="362"/>
+      <c r="P21" s="362"/>
+      <c r="Q21" s="362"/>
+      <c r="R21" s="362"/>
+      <c r="S21" s="362"/>
+      <c r="T21" s="362"/>
+      <c r="U21" s="362"/>
+      <c r="V21" s="362"/>
+      <c r="W21" s="362"/>
+      <c r="X21" s="362"/>
+      <c r="Y21" s="362"/>
+      <c r="Z21" s="362"/>
+      <c r="AA21" s="362"/>
+      <c r="AB21" s="362"/>
+      <c r="AC21" s="363"/>
+      <c r="AD21" s="291"/>
     </row>
     <row r="22" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="309"/>
+      <c r="A22" s="325"/>
       <c r="B22" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="336"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="337"/>
-      <c r="H22" s="337"/>
-      <c r="I22" s="338"/>
-      <c r="J22" s="345"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
-      <c r="N22" s="346"/>
-      <c r="O22" s="346"/>
-      <c r="P22" s="346"/>
-      <c r="Q22" s="346"/>
-      <c r="R22" s="346"/>
-      <c r="S22" s="346"/>
-      <c r="T22" s="346"/>
-      <c r="U22" s="346"/>
-      <c r="V22" s="346"/>
-      <c r="W22" s="346"/>
-      <c r="X22" s="346"/>
-      <c r="Y22" s="346"/>
-      <c r="Z22" s="346"/>
-      <c r="AA22" s="346"/>
-      <c r="AB22" s="346"/>
-      <c r="AC22" s="347"/>
-      <c r="AD22" s="216"/>
+      <c r="D22" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="352"/>
+      <c r="F22" s="353"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="353"/>
+      <c r="I22" s="354"/>
+      <c r="J22" s="361"/>
+      <c r="K22" s="362"/>
+      <c r="L22" s="362"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="362"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="362"/>
+      <c r="U22" s="362"/>
+      <c r="V22" s="362"/>
+      <c r="W22" s="362"/>
+      <c r="X22" s="362"/>
+      <c r="Y22" s="362"/>
+      <c r="Z22" s="362"/>
+      <c r="AA22" s="362"/>
+      <c r="AB22" s="362"/>
+      <c r="AC22" s="363"/>
+      <c r="AD22" s="213"/>
     </row>
     <row r="23" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="309"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="54"/>
       <c r="C23" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="336"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="337"/>
-      <c r="H23" s="337"/>
-      <c r="I23" s="338"/>
-      <c r="J23" s="345"/>
-      <c r="K23" s="346"/>
-      <c r="L23" s="346"/>
-      <c r="M23" s="346"/>
-      <c r="N23" s="346"/>
-      <c r="O23" s="346"/>
-      <c r="P23" s="346"/>
-      <c r="Q23" s="346"/>
-      <c r="R23" s="346"/>
-      <c r="S23" s="346"/>
-      <c r="T23" s="346"/>
-      <c r="U23" s="346"/>
-      <c r="V23" s="346"/>
-      <c r="W23" s="346"/>
-      <c r="X23" s="346"/>
-      <c r="Y23" s="346"/>
-      <c r="Z23" s="346"/>
-      <c r="AA23" s="346"/>
-      <c r="AB23" s="346"/>
-      <c r="AC23" s="347"/>
-      <c r="AD23" s="216"/>
+      <c r="D23" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="352"/>
+      <c r="F23" s="353"/>
+      <c r="G23" s="353"/>
+      <c r="H23" s="353"/>
+      <c r="I23" s="354"/>
+      <c r="J23" s="361"/>
+      <c r="K23" s="362"/>
+      <c r="L23" s="362"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="362"/>
+      <c r="O23" s="362"/>
+      <c r="P23" s="362"/>
+      <c r="Q23" s="362"/>
+      <c r="R23" s="362"/>
+      <c r="S23" s="362"/>
+      <c r="T23" s="362"/>
+      <c r="U23" s="362"/>
+      <c r="V23" s="362"/>
+      <c r="W23" s="362"/>
+      <c r="X23" s="362"/>
+      <c r="Y23" s="362"/>
+      <c r="Z23" s="362"/>
+      <c r="AA23" s="362"/>
+      <c r="AB23" s="362"/>
+      <c r="AC23" s="363"/>
+      <c r="AD23" s="213"/>
     </row>
     <row r="24" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="309"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="54"/>
       <c r="C24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="336"/>
-      <c r="F24" s="337"/>
-      <c r="G24" s="337"/>
-      <c r="H24" s="337"/>
-      <c r="I24" s="338"/>
-      <c r="J24" s="345"/>
-      <c r="K24" s="346"/>
-      <c r="L24" s="346"/>
-      <c r="M24" s="346"/>
-      <c r="N24" s="346"/>
-      <c r="O24" s="346"/>
-      <c r="P24" s="346"/>
-      <c r="Q24" s="346"/>
-      <c r="R24" s="346"/>
-      <c r="S24" s="346"/>
-      <c r="T24" s="346"/>
-      <c r="U24" s="346"/>
-      <c r="V24" s="346"/>
-      <c r="W24" s="346"/>
-      <c r="X24" s="346"/>
-      <c r="Y24" s="346"/>
-      <c r="Z24" s="346"/>
-      <c r="AA24" s="346"/>
-      <c r="AB24" s="346"/>
-      <c r="AC24" s="347"/>
-      <c r="AD24" s="216"/>
+      <c r="D24" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="352"/>
+      <c r="F24" s="353"/>
+      <c r="G24" s="353"/>
+      <c r="H24" s="353"/>
+      <c r="I24" s="354"/>
+      <c r="J24" s="361"/>
+      <c r="K24" s="362"/>
+      <c r="L24" s="362"/>
+      <c r="M24" s="362"/>
+      <c r="N24" s="362"/>
+      <c r="O24" s="362"/>
+      <c r="P24" s="362"/>
+      <c r="Q24" s="362"/>
+      <c r="R24" s="362"/>
+      <c r="S24" s="362"/>
+      <c r="T24" s="362"/>
+      <c r="U24" s="362"/>
+      <c r="V24" s="362"/>
+      <c r="W24" s="362"/>
+      <c r="X24" s="362"/>
+      <c r="Y24" s="362"/>
+      <c r="Z24" s="362"/>
+      <c r="AA24" s="362"/>
+      <c r="AB24" s="362"/>
+      <c r="AC24" s="363"/>
+      <c r="AD24" s="213"/>
     </row>
     <row r="25" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="309"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="54"/>
       <c r="C25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="336"/>
-      <c r="F25" s="337"/>
-      <c r="G25" s="337"/>
-      <c r="H25" s="337"/>
-      <c r="I25" s="338"/>
-      <c r="J25" s="345"/>
-      <c r="K25" s="346"/>
-      <c r="L25" s="346"/>
-      <c r="M25" s="346"/>
-      <c r="N25" s="346"/>
-      <c r="O25" s="346"/>
-      <c r="P25" s="346"/>
-      <c r="Q25" s="346"/>
-      <c r="R25" s="346"/>
-      <c r="S25" s="346"/>
-      <c r="T25" s="346"/>
-      <c r="U25" s="346"/>
-      <c r="V25" s="346"/>
-      <c r="W25" s="346"/>
-      <c r="X25" s="346"/>
-      <c r="Y25" s="346"/>
-      <c r="Z25" s="346"/>
-      <c r="AA25" s="346"/>
-      <c r="AB25" s="346"/>
-      <c r="AC25" s="347"/>
-      <c r="AD25" s="216"/>
+      <c r="D25" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="352"/>
+      <c r="F25" s="353"/>
+      <c r="G25" s="353"/>
+      <c r="H25" s="353"/>
+      <c r="I25" s="354"/>
+      <c r="J25" s="361"/>
+      <c r="K25" s="362"/>
+      <c r="L25" s="362"/>
+      <c r="M25" s="362"/>
+      <c r="N25" s="362"/>
+      <c r="O25" s="362"/>
+      <c r="P25" s="362"/>
+      <c r="Q25" s="362"/>
+      <c r="R25" s="362"/>
+      <c r="S25" s="362"/>
+      <c r="T25" s="362"/>
+      <c r="U25" s="362"/>
+      <c r="V25" s="362"/>
+      <c r="W25" s="362"/>
+      <c r="X25" s="362"/>
+      <c r="Y25" s="362"/>
+      <c r="Z25" s="362"/>
+      <c r="AA25" s="362"/>
+      <c r="AB25" s="362"/>
+      <c r="AC25" s="363"/>
+      <c r="AD25" s="213"/>
     </row>
     <row r="26" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="309"/>
+      <c r="A26" s="325"/>
       <c r="B26" s="54"/>
       <c r="C26" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D26" s="287" t="s">
+      <c r="D26" s="284" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="336"/>
-      <c r="F26" s="337"/>
-      <c r="G26" s="337"/>
-      <c r="H26" s="337"/>
-      <c r="I26" s="338"/>
-      <c r="J26" s="345"/>
-      <c r="K26" s="346"/>
-      <c r="L26" s="346"/>
-      <c r="M26" s="346"/>
-      <c r="N26" s="346"/>
-      <c r="O26" s="346"/>
-      <c r="P26" s="346"/>
-      <c r="Q26" s="346"/>
-      <c r="R26" s="346"/>
-      <c r="S26" s="346"/>
-      <c r="T26" s="346"/>
-      <c r="U26" s="346"/>
-      <c r="V26" s="346"/>
-      <c r="W26" s="346"/>
-      <c r="X26" s="346"/>
-      <c r="Y26" s="346"/>
-      <c r="Z26" s="346"/>
-      <c r="AA26" s="346"/>
-      <c r="AB26" s="346"/>
-      <c r="AC26" s="347"/>
-      <c r="AD26" s="216"/>
+      <c r="E26" s="352"/>
+      <c r="F26" s="353"/>
+      <c r="G26" s="353"/>
+      <c r="H26" s="353"/>
+      <c r="I26" s="354"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="362"/>
+      <c r="L26" s="362"/>
+      <c r="M26" s="362"/>
+      <c r="N26" s="362"/>
+      <c r="O26" s="362"/>
+      <c r="P26" s="362"/>
+      <c r="Q26" s="362"/>
+      <c r="R26" s="362"/>
+      <c r="S26" s="362"/>
+      <c r="T26" s="362"/>
+      <c r="U26" s="362"/>
+      <c r="V26" s="362"/>
+      <c r="W26" s="362"/>
+      <c r="X26" s="362"/>
+      <c r="Y26" s="362"/>
+      <c r="Z26" s="362"/>
+      <c r="AA26" s="362"/>
+      <c r="AB26" s="362"/>
+      <c r="AC26" s="363"/>
+      <c r="AD26" s="213"/>
     </row>
     <row r="27" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="309"/>
+      <c r="A27" s="325"/>
       <c r="B27" s="54"/>
       <c r="C27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="287" t="s">
+      <c r="D27" s="284" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="336"/>
-      <c r="F27" s="337"/>
-      <c r="G27" s="337"/>
-      <c r="H27" s="337"/>
-      <c r="I27" s="338"/>
-      <c r="J27" s="345"/>
-      <c r="K27" s="346"/>
-      <c r="L27" s="346"/>
-      <c r="M27" s="346"/>
-      <c r="N27" s="346"/>
-      <c r="O27" s="346"/>
-      <c r="P27" s="346"/>
-      <c r="Q27" s="346"/>
-      <c r="R27" s="346"/>
-      <c r="S27" s="346"/>
-      <c r="T27" s="346"/>
-      <c r="U27" s="346"/>
-      <c r="V27" s="346"/>
-      <c r="W27" s="346"/>
-      <c r="X27" s="346"/>
-      <c r="Y27" s="346"/>
-      <c r="Z27" s="346"/>
-      <c r="AA27" s="346"/>
-      <c r="AB27" s="346"/>
-      <c r="AC27" s="347"/>
-      <c r="AD27" s="216"/>
+      <c r="E27" s="352"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="354"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="362"/>
+      <c r="L27" s="362"/>
+      <c r="M27" s="362"/>
+      <c r="N27" s="362"/>
+      <c r="O27" s="362"/>
+      <c r="P27" s="362"/>
+      <c r="Q27" s="362"/>
+      <c r="R27" s="362"/>
+      <c r="S27" s="362"/>
+      <c r="T27" s="362"/>
+      <c r="U27" s="362"/>
+      <c r="V27" s="362"/>
+      <c r="W27" s="362"/>
+      <c r="X27" s="362"/>
+      <c r="Y27" s="362"/>
+      <c r="Z27" s="362"/>
+      <c r="AA27" s="362"/>
+      <c r="AB27" s="362"/>
+      <c r="AC27" s="363"/>
+      <c r="AD27" s="213"/>
     </row>
     <row r="28" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="309"/>
+      <c r="A28" s="325"/>
       <c r="B28" s="54"/>
       <c r="C28" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="287" t="s">
+      <c r="D28" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="336"/>
-      <c r="F28" s="337"/>
-      <c r="G28" s="337"/>
-      <c r="H28" s="337"/>
-      <c r="I28" s="338"/>
-      <c r="J28" s="345"/>
-      <c r="K28" s="346"/>
-      <c r="L28" s="346"/>
-      <c r="M28" s="346"/>
-      <c r="N28" s="346"/>
-      <c r="O28" s="346"/>
-      <c r="P28" s="346"/>
-      <c r="Q28" s="346"/>
-      <c r="R28" s="346"/>
-      <c r="S28" s="346"/>
-      <c r="T28" s="346"/>
-      <c r="U28" s="346"/>
-      <c r="V28" s="346"/>
-      <c r="W28" s="346"/>
-      <c r="X28" s="346"/>
-      <c r="Y28" s="346"/>
-      <c r="Z28" s="346"/>
-      <c r="AA28" s="346"/>
-      <c r="AB28" s="346"/>
-      <c r="AC28" s="347"/>
-      <c r="AD28" s="216" t="s">
+      <c r="E28" s="352"/>
+      <c r="F28" s="353"/>
+      <c r="G28" s="353"/>
+      <c r="H28" s="353"/>
+      <c r="I28" s="354"/>
+      <c r="J28" s="361"/>
+      <c r="K28" s="362"/>
+      <c r="L28" s="362"/>
+      <c r="M28" s="362"/>
+      <c r="N28" s="362"/>
+      <c r="O28" s="362"/>
+      <c r="P28" s="362"/>
+      <c r="Q28" s="362"/>
+      <c r="R28" s="362"/>
+      <c r="S28" s="362"/>
+      <c r="T28" s="362"/>
+      <c r="U28" s="362"/>
+      <c r="V28" s="362"/>
+      <c r="W28" s="362"/>
+      <c r="X28" s="362"/>
+      <c r="Y28" s="362"/>
+      <c r="Z28" s="362"/>
+      <c r="AA28" s="362"/>
+      <c r="AB28" s="362"/>
+      <c r="AC28" s="363"/>
+      <c r="AD28" s="213" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="309"/>
+      <c r="A29" s="325"/>
       <c r="B29" s="54"/>
       <c r="C29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="336"/>
-      <c r="F29" s="337"/>
-      <c r="G29" s="337"/>
-      <c r="H29" s="337"/>
-      <c r="I29" s="338"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="346"/>
-      <c r="L29" s="346"/>
-      <c r="M29" s="346"/>
-      <c r="N29" s="346"/>
-      <c r="O29" s="346"/>
-      <c r="P29" s="346"/>
-      <c r="Q29" s="346"/>
-      <c r="R29" s="346"/>
-      <c r="S29" s="346"/>
-      <c r="T29" s="346"/>
-      <c r="U29" s="346"/>
-      <c r="V29" s="346"/>
-      <c r="W29" s="346"/>
-      <c r="X29" s="346"/>
-      <c r="Y29" s="346"/>
-      <c r="Z29" s="346"/>
-      <c r="AA29" s="346"/>
-      <c r="AB29" s="346"/>
-      <c r="AC29" s="347"/>
-      <c r="AD29" s="216"/>
+      <c r="D29" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="352"/>
+      <c r="F29" s="353"/>
+      <c r="G29" s="353"/>
+      <c r="H29" s="353"/>
+      <c r="I29" s="354"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="362"/>
+      <c r="L29" s="362"/>
+      <c r="M29" s="362"/>
+      <c r="N29" s="362"/>
+      <c r="O29" s="362"/>
+      <c r="P29" s="362"/>
+      <c r="Q29" s="362"/>
+      <c r="R29" s="362"/>
+      <c r="S29" s="362"/>
+      <c r="T29" s="362"/>
+      <c r="U29" s="362"/>
+      <c r="V29" s="362"/>
+      <c r="W29" s="362"/>
+      <c r="X29" s="362"/>
+      <c r="Y29" s="362"/>
+      <c r="Z29" s="362"/>
+      <c r="AA29" s="362"/>
+      <c r="AB29" s="362"/>
+      <c r="AC29" s="363"/>
+      <c r="AD29" s="213"/>
     </row>
     <row r="30" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="309"/>
+      <c r="A30" s="325"/>
       <c r="B30" s="54"/>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="287" t="s">
+      <c r="D30" s="284" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="336"/>
-      <c r="F30" s="337"/>
-      <c r="G30" s="337"/>
-      <c r="H30" s="337"/>
-      <c r="I30" s="338"/>
-      <c r="J30" s="345"/>
-      <c r="K30" s="346"/>
-      <c r="L30" s="346"/>
-      <c r="M30" s="346"/>
-      <c r="N30" s="346"/>
-      <c r="O30" s="346"/>
-      <c r="P30" s="346"/>
-      <c r="Q30" s="346"/>
-      <c r="R30" s="346"/>
-      <c r="S30" s="346"/>
-      <c r="T30" s="346"/>
-      <c r="U30" s="346"/>
-      <c r="V30" s="346"/>
-      <c r="W30" s="346"/>
-      <c r="X30" s="346"/>
-      <c r="Y30" s="346"/>
-      <c r="Z30" s="346"/>
-      <c r="AA30" s="346"/>
-      <c r="AB30" s="346"/>
-      <c r="AC30" s="347"/>
-      <c r="AD30" s="216"/>
+      <c r="E30" s="352"/>
+      <c r="F30" s="353"/>
+      <c r="G30" s="353"/>
+      <c r="H30" s="353"/>
+      <c r="I30" s="354"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="362"/>
+      <c r="L30" s="362"/>
+      <c r="M30" s="362"/>
+      <c r="N30" s="362"/>
+      <c r="O30" s="362"/>
+      <c r="P30" s="362"/>
+      <c r="Q30" s="362"/>
+      <c r="R30" s="362"/>
+      <c r="S30" s="362"/>
+      <c r="T30" s="362"/>
+      <c r="U30" s="362"/>
+      <c r="V30" s="362"/>
+      <c r="W30" s="362"/>
+      <c r="X30" s="362"/>
+      <c r="Y30" s="362"/>
+      <c r="Z30" s="362"/>
+      <c r="AA30" s="362"/>
+      <c r="AB30" s="362"/>
+      <c r="AC30" s="363"/>
+      <c r="AD30" s="213"/>
     </row>
     <row r="31" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="309"/>
+      <c r="A31" s="325"/>
       <c r="B31" s="54"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="336"/>
-      <c r="F31" s="337"/>
-      <c r="G31" s="337"/>
-      <c r="H31" s="337"/>
-      <c r="I31" s="338"/>
-      <c r="J31" s="345"/>
-      <c r="K31" s="346"/>
-      <c r="L31" s="346"/>
-      <c r="M31" s="346"/>
-      <c r="N31" s="346"/>
-      <c r="O31" s="346"/>
-      <c r="P31" s="346"/>
-      <c r="Q31" s="346"/>
-      <c r="R31" s="346"/>
-      <c r="S31" s="346"/>
-      <c r="T31" s="346"/>
-      <c r="U31" s="346"/>
-      <c r="V31" s="346"/>
-      <c r="W31" s="346"/>
-      <c r="X31" s="346"/>
-      <c r="Y31" s="346"/>
-      <c r="Z31" s="346"/>
-      <c r="AA31" s="346"/>
-      <c r="AB31" s="346"/>
-      <c r="AC31" s="347"/>
-      <c r="AD31" s="216"/>
+      <c r="D31" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="352"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="353"/>
+      <c r="H31" s="353"/>
+      <c r="I31" s="354"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="362"/>
+      <c r="L31" s="362"/>
+      <c r="M31" s="362"/>
+      <c r="N31" s="362"/>
+      <c r="O31" s="362"/>
+      <c r="P31" s="362"/>
+      <c r="Q31" s="362"/>
+      <c r="R31" s="362"/>
+      <c r="S31" s="362"/>
+      <c r="T31" s="362"/>
+      <c r="U31" s="362"/>
+      <c r="V31" s="362"/>
+      <c r="W31" s="362"/>
+      <c r="X31" s="362"/>
+      <c r="Y31" s="362"/>
+      <c r="Z31" s="362"/>
+      <c r="AA31" s="362"/>
+      <c r="AB31" s="362"/>
+      <c r="AC31" s="363"/>
+      <c r="AD31" s="213"/>
     </row>
     <row r="32" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="309"/>
+      <c r="A32" s="325"/>
       <c r="B32" s="54"/>
       <c r="C32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="336"/>
-      <c r="F32" s="337"/>
-      <c r="G32" s="337"/>
-      <c r="H32" s="337"/>
-      <c r="I32" s="338"/>
-      <c r="J32" s="345"/>
-      <c r="K32" s="346"/>
-      <c r="L32" s="346"/>
-      <c r="M32" s="346"/>
-      <c r="N32" s="346"/>
-      <c r="O32" s="346"/>
-      <c r="P32" s="346"/>
-      <c r="Q32" s="346"/>
-      <c r="R32" s="346"/>
-      <c r="S32" s="346"/>
-      <c r="T32" s="346"/>
-      <c r="U32" s="346"/>
-      <c r="V32" s="346"/>
-      <c r="W32" s="346"/>
-      <c r="X32" s="346"/>
-      <c r="Y32" s="346"/>
-      <c r="Z32" s="346"/>
-      <c r="AA32" s="346"/>
-      <c r="AB32" s="346"/>
-      <c r="AC32" s="347"/>
-      <c r="AD32" s="216"/>
+      <c r="D32" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="352"/>
+      <c r="F32" s="353"/>
+      <c r="G32" s="353"/>
+      <c r="H32" s="353"/>
+      <c r="I32" s="354"/>
+      <c r="J32" s="361"/>
+      <c r="K32" s="362"/>
+      <c r="L32" s="362"/>
+      <c r="M32" s="362"/>
+      <c r="N32" s="362"/>
+      <c r="O32" s="362"/>
+      <c r="P32" s="362"/>
+      <c r="Q32" s="362"/>
+      <c r="R32" s="362"/>
+      <c r="S32" s="362"/>
+      <c r="T32" s="362"/>
+      <c r="U32" s="362"/>
+      <c r="V32" s="362"/>
+      <c r="W32" s="362"/>
+      <c r="X32" s="362"/>
+      <c r="Y32" s="362"/>
+      <c r="Z32" s="362"/>
+      <c r="AA32" s="362"/>
+      <c r="AB32" s="362"/>
+      <c r="AC32" s="363"/>
+      <c r="AD32" s="213"/>
     </row>
     <row r="33" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="309"/>
+      <c r="A33" s="325"/>
       <c r="B33" s="54"/>
       <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="336"/>
-      <c r="F33" s="337"/>
-      <c r="G33" s="337"/>
-      <c r="H33" s="337"/>
-      <c r="I33" s="338"/>
-      <c r="J33" s="345"/>
-      <c r="K33" s="346"/>
-      <c r="L33" s="346"/>
-      <c r="M33" s="346"/>
-      <c r="N33" s="346"/>
-      <c r="O33" s="346"/>
-      <c r="P33" s="346"/>
-      <c r="Q33" s="346"/>
-      <c r="R33" s="346"/>
-      <c r="S33" s="346"/>
-      <c r="T33" s="346"/>
-      <c r="U33" s="346"/>
-      <c r="V33" s="346"/>
-      <c r="W33" s="346"/>
-      <c r="X33" s="346"/>
-      <c r="Y33" s="346"/>
-      <c r="Z33" s="346"/>
-      <c r="AA33" s="346"/>
-      <c r="AB33" s="346"/>
-      <c r="AC33" s="347"/>
-      <c r="AD33" s="216"/>
+      <c r="D33" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="352"/>
+      <c r="F33" s="353"/>
+      <c r="G33" s="353"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="354"/>
+      <c r="J33" s="361"/>
+      <c r="K33" s="362"/>
+      <c r="L33" s="362"/>
+      <c r="M33" s="362"/>
+      <c r="N33" s="362"/>
+      <c r="O33" s="362"/>
+      <c r="P33" s="362"/>
+      <c r="Q33" s="362"/>
+      <c r="R33" s="362"/>
+      <c r="S33" s="362"/>
+      <c r="T33" s="362"/>
+      <c r="U33" s="362"/>
+      <c r="V33" s="362"/>
+      <c r="W33" s="362"/>
+      <c r="X33" s="362"/>
+      <c r="Y33" s="362"/>
+      <c r="Z33" s="362"/>
+      <c r="AA33" s="362"/>
+      <c r="AB33" s="362"/>
+      <c r="AC33" s="363"/>
+      <c r="AD33" s="213"/>
     </row>
     <row r="34" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="309"/>
+      <c r="A34" s="325"/>
       <c r="B34" s="54"/>
       <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="287" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="336"/>
-      <c r="F34" s="337"/>
-      <c r="G34" s="337"/>
-      <c r="H34" s="337"/>
-      <c r="I34" s="338"/>
-      <c r="J34" s="345"/>
-      <c r="K34" s="346"/>
-      <c r="L34" s="346"/>
-      <c r="M34" s="346"/>
-      <c r="N34" s="346"/>
-      <c r="O34" s="346"/>
-      <c r="P34" s="346"/>
-      <c r="Q34" s="346"/>
-      <c r="R34" s="346"/>
-      <c r="S34" s="346"/>
-      <c r="T34" s="346"/>
-      <c r="U34" s="346"/>
-      <c r="V34" s="346"/>
-      <c r="W34" s="346"/>
-      <c r="X34" s="346"/>
-      <c r="Y34" s="346"/>
-      <c r="Z34" s="346"/>
-      <c r="AA34" s="346"/>
-      <c r="AB34" s="346"/>
-      <c r="AC34" s="347"/>
-      <c r="AD34" s="216"/>
+      <c r="D34" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="352"/>
+      <c r="F34" s="353"/>
+      <c r="G34" s="353"/>
+      <c r="H34" s="353"/>
+      <c r="I34" s="354"/>
+      <c r="J34" s="361"/>
+      <c r="K34" s="362"/>
+      <c r="L34" s="362"/>
+      <c r="M34" s="362"/>
+      <c r="N34" s="362"/>
+      <c r="O34" s="362"/>
+      <c r="P34" s="362"/>
+      <c r="Q34" s="362"/>
+      <c r="R34" s="362"/>
+      <c r="S34" s="362"/>
+      <c r="T34" s="362"/>
+      <c r="U34" s="362"/>
+      <c r="V34" s="362"/>
+      <c r="W34" s="362"/>
+      <c r="X34" s="362"/>
+      <c r="Y34" s="362"/>
+      <c r="Z34" s="362"/>
+      <c r="AA34" s="362"/>
+      <c r="AB34" s="362"/>
+      <c r="AC34" s="363"/>
+      <c r="AD34" s="213"/>
     </row>
     <row r="35" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="309"/>
+      <c r="A35" s="325"/>
       <c r="B35" s="75"/>
       <c r="C35" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="289" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="339"/>
-      <c r="F35" s="340"/>
-      <c r="G35" s="340"/>
-      <c r="H35" s="340"/>
-      <c r="I35" s="341"/>
-      <c r="J35" s="348"/>
-      <c r="K35" s="349"/>
-      <c r="L35" s="349"/>
-      <c r="M35" s="349"/>
-      <c r="N35" s="349"/>
-      <c r="O35" s="349"/>
-      <c r="P35" s="349"/>
-      <c r="Q35" s="349"/>
-      <c r="R35" s="349"/>
-      <c r="S35" s="349"/>
-      <c r="T35" s="349"/>
-      <c r="U35" s="349"/>
-      <c r="V35" s="349"/>
-      <c r="W35" s="349"/>
-      <c r="X35" s="349"/>
-      <c r="Y35" s="349"/>
-      <c r="Z35" s="349"/>
-      <c r="AA35" s="349"/>
-      <c r="AB35" s="349"/>
-      <c r="AC35" s="350"/>
-      <c r="AD35" s="216"/>
+      <c r="D35" s="286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="355"/>
+      <c r="F35" s="356"/>
+      <c r="G35" s="356"/>
+      <c r="H35" s="356"/>
+      <c r="I35" s="357"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="365"/>
+      <c r="L35" s="365"/>
+      <c r="M35" s="365"/>
+      <c r="N35" s="365"/>
+      <c r="O35" s="365"/>
+      <c r="P35" s="365"/>
+      <c r="Q35" s="365"/>
+      <c r="R35" s="365"/>
+      <c r="S35" s="365"/>
+      <c r="T35" s="365"/>
+      <c r="U35" s="365"/>
+      <c r="V35" s="365"/>
+      <c r="W35" s="365"/>
+      <c r="X35" s="365"/>
+      <c r="Y35" s="365"/>
+      <c r="Z35" s="365"/>
+      <c r="AA35" s="365"/>
+      <c r="AB35" s="365"/>
+      <c r="AC35" s="366"/>
+      <c r="AD35" s="213"/>
     </row>
     <row r="36" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="309"/>
+      <c r="A36" s="325"/>
       <c r="B36" s="48" t="s">
         <v>321</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="330" t="s">
+      <c r="D36" s="346" t="s">
         <v>366</v>
       </c>
       <c r="E36" s="119"/>
@@ -9166,7 +9243,7 @@
       <c r="Q36" s="53">
         <v>3.5</v>
       </c>
-      <c r="R36" s="194">
+      <c r="R36" s="307">
         <v>3.5</v>
       </c>
       <c r="S36" s="168">
@@ -9178,7 +9255,7 @@
       <c r="U36" s="53">
         <v>3.6</v>
       </c>
-      <c r="V36" s="194">
+      <c r="V36" s="191">
         <v>3.6</v>
       </c>
       <c r="W36" s="104">
@@ -9193,22 +9270,22 @@
       <c r="Z36" s="53">
         <v>3.6</v>
       </c>
-      <c r="AA36" s="266">
+      <c r="AA36" s="263">
         <v>3.6</v>
       </c>
-      <c r="AB36" s="200">
+      <c r="AB36" s="197">
         <v>3.6</v>
       </c>
-      <c r="AC36" s="262"/>
+      <c r="AC36" s="259"/>
       <c r="AD36" s="74"/>
     </row>
     <row r="37" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="309"/>
+      <c r="A37" s="325"/>
       <c r="B37" s="54"/>
       <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="331"/>
+      <c r="D37" s="347"/>
       <c r="E37" s="121"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -9238,7 +9315,7 @@
       <c r="Q37" s="13">
         <v>1.38</v>
       </c>
-      <c r="R37" s="136">
+      <c r="R37" s="308">
         <v>1.38</v>
       </c>
       <c r="S37" s="163">
@@ -9271,16 +9348,16 @@
       <c r="AB37" s="156">
         <v>1.79</v>
       </c>
-      <c r="AC37" s="251"/>
-      <c r="AD37" s="216"/>
+      <c r="AC37" s="248"/>
+      <c r="AD37" s="213"/>
     </row>
     <row r="38" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="309"/>
+      <c r="A38" s="325"/>
       <c r="B38" s="54"/>
       <c r="C38" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="331"/>
+      <c r="D38" s="347"/>
       <c r="E38" s="121"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -9310,7 +9387,7 @@
       <c r="Q38" s="13">
         <v>342</v>
       </c>
-      <c r="R38" s="136">
+      <c r="R38" s="308">
         <v>342</v>
       </c>
       <c r="S38" s="155">
@@ -9343,16 +9420,16 @@
       <c r="AB38" s="156">
         <v>384</v>
       </c>
-      <c r="AC38" s="251"/>
-      <c r="AD38" s="216"/>
+      <c r="AC38" s="248"/>
+      <c r="AD38" s="213"/>
     </row>
     <row r="39" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="309"/>
+      <c r="A39" s="325"/>
       <c r="B39" s="54"/>
       <c r="C39" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="331"/>
+      <c r="D39" s="347"/>
       <c r="E39" s="121"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -9382,7 +9459,7 @@
       <c r="Q39" s="16">
         <v>120</v>
       </c>
-      <c r="R39" s="156">
+      <c r="R39" s="309">
         <v>120</v>
       </c>
       <c r="S39" s="163">
@@ -9409,22 +9486,22 @@
       <c r="Z39" s="16">
         <v>120</v>
       </c>
-      <c r="AA39" s="267">
+      <c r="AA39" s="264">
         <v>120</v>
       </c>
       <c r="AB39" s="136">
         <v>200</v>
       </c>
-      <c r="AC39" s="250"/>
-      <c r="AD39" s="216"/>
+      <c r="AC39" s="247"/>
+      <c r="AD39" s="213"/>
     </row>
     <row r="40" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="309"/>
+      <c r="A40" s="325"/>
       <c r="B40" s="54"/>
       <c r="C40" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="331"/>
+      <c r="D40" s="347"/>
       <c r="E40" s="121"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -9454,7 +9531,7 @@
       <c r="Q40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="136" t="s">
+      <c r="R40" s="308" t="s">
         <v>8</v>
       </c>
       <c r="S40" s="163" t="s">
@@ -9487,16 +9564,16 @@
       <c r="AB40" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AC40" s="251"/>
-      <c r="AD40" s="216"/>
+      <c r="AC40" s="248"/>
+      <c r="AD40" s="213"/>
     </row>
     <row r="41" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="309"/>
+      <c r="A41" s="325"/>
       <c r="B41" s="54"/>
       <c r="C41" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="331"/>
+      <c r="D41" s="347"/>
       <c r="E41" s="121"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -9526,7 +9603,7 @@
       <c r="Q41" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="R41" s="136" t="s">
+      <c r="R41" s="308" t="s">
         <v>307</v>
       </c>
       <c r="S41" s="163" t="s">
@@ -9559,16 +9636,16 @@
       <c r="AB41" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="AC41" s="250"/>
-      <c r="AD41" s="216"/>
+      <c r="AC41" s="247"/>
+      <c r="AD41" s="213"/>
     </row>
     <row r="42" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="309"/>
+      <c r="A42" s="325"/>
       <c r="B42" s="54"/>
       <c r="C42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="331"/>
+      <c r="D42" s="347"/>
       <c r="E42" s="121"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -9598,7 +9675,7 @@
       <c r="Q42" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="160" t="s">
+      <c r="R42" s="310" t="s">
         <v>19</v>
       </c>
       <c r="S42" s="159" t="s">
@@ -9631,16 +9708,16 @@
       <c r="AB42" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="AC42" s="279"/>
-      <c r="AD42" s="216"/>
+      <c r="AC42" s="276"/>
+      <c r="AD42" s="213"/>
     </row>
     <row r="43" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="309"/>
+      <c r="A43" s="325"/>
       <c r="B43" s="54"/>
       <c r="C43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="331"/>
+      <c r="D43" s="347"/>
       <c r="E43" s="121"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -9654,7 +9731,7 @@
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
-      <c r="R43" s="165"/>
+      <c r="R43" s="311"/>
       <c r="S43" s="164"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
@@ -9677,16 +9754,16 @@
       <c r="AB43" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC43" s="251"/>
-      <c r="AD43" s="217"/>
+      <c r="AC43" s="248"/>
+      <c r="AD43" s="214"/>
     </row>
     <row r="44" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="309"/>
+      <c r="A44" s="325"/>
       <c r="B44" s="54"/>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="331"/>
+      <c r="D44" s="347"/>
       <c r="E44" s="121"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -9716,7 +9793,7 @@
       <c r="Q44" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="R44" s="136" t="s">
+      <c r="R44" s="308" t="s">
         <v>309</v>
       </c>
       <c r="S44" s="163" t="s">
@@ -9749,16 +9826,16 @@
       <c r="AB44" s="136" t="s">
         <v>309</v>
       </c>
-      <c r="AC44" s="250"/>
-      <c r="AD44" s="216"/>
+      <c r="AC44" s="247"/>
+      <c r="AD44" s="213"/>
     </row>
     <row r="45" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="309"/>
+      <c r="A45" s="325"/>
       <c r="B45" s="54"/>
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="331"/>
+      <c r="D45" s="347"/>
       <c r="E45" s="121"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -9780,7 +9857,7 @@
       <c r="Q45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="136" t="s">
+      <c r="R45" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S45" s="163" t="s">
@@ -9813,16 +9890,16 @@
       <c r="AB45" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC45" s="251"/>
-      <c r="AD45" s="216"/>
+      <c r="AC45" s="248"/>
+      <c r="AD45" s="213"/>
     </row>
     <row r="46" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="309"/>
+      <c r="A46" s="325"/>
       <c r="B46" s="54"/>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="331"/>
+      <c r="D46" s="347"/>
       <c r="E46" s="121"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -9844,7 +9921,7 @@
       <c r="Q46" s="13">
         <v>32</v>
       </c>
-      <c r="R46" s="136">
+      <c r="R46" s="308">
         <v>32</v>
       </c>
       <c r="S46" s="163">
@@ -9877,18 +9954,18 @@
       <c r="AB46" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="AC46" s="251"/>
-      <c r="AD46" s="216" t="s">
+      <c r="AC46" s="248"/>
+      <c r="AD46" s="213" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="309"/>
+      <c r="A47" s="325"/>
       <c r="B47" s="54"/>
       <c r="C47" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="331"/>
+      <c r="D47" s="347"/>
       <c r="E47" s="121"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -9902,8 +9979,8 @@
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
-      <c r="R47" s="165"/>
-      <c r="S47" s="198" t="s">
+      <c r="R47" s="311"/>
+      <c r="S47" s="195" t="s">
         <v>10</v>
       </c>
       <c r="T47" s="13" t="s">
@@ -9912,7 +9989,7 @@
       <c r="U47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V47" s="211" t="s">
+      <c r="V47" s="208" t="s">
         <v>10</v>
       </c>
       <c r="W47" s="105" t="s">
@@ -9933,16 +10010,16 @@
       <c r="AB47" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AC47" s="251"/>
-      <c r="AD47" s="216"/>
+      <c r="AC47" s="248"/>
+      <c r="AD47" s="213"/>
     </row>
     <row r="48" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="309"/>
+      <c r="A48" s="325"/>
       <c r="B48" s="75"/>
       <c r="C48" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="D48" s="331"/>
+      <c r="D48" s="347"/>
       <c r="E48" s="123"/>
       <c r="F48" s="77"/>
       <c r="G48" s="77"/>
@@ -9956,7 +10033,7 @@
       <c r="O48" s="78"/>
       <c r="P48" s="78"/>
       <c r="Q48" s="78"/>
-      <c r="R48" s="167"/>
+      <c r="R48" s="312"/>
       <c r="S48" s="166"/>
       <c r="T48" s="78"/>
       <c r="U48" s="78"/>
@@ -9967,24 +10044,24 @@
       <c r="Z48" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA48" s="268" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB48" s="199" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC48" s="252"/>
-      <c r="AD48" s="218"/>
+      <c r="AA48" s="265" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC48" s="249"/>
+      <c r="AD48" s="215"/>
     </row>
     <row r="49" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="309"/>
+      <c r="A49" s="325"/>
       <c r="B49" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="331"/>
+      <c r="D49" s="347"/>
       <c r="E49" s="121"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -10014,7 +10091,7 @@
       <c r="Q49" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R49" s="136" t="s">
+      <c r="R49" s="308" t="s">
         <v>26</v>
       </c>
       <c r="S49" s="163" t="s">
@@ -10047,16 +10124,16 @@
       <c r="AB49" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="AC49" s="250"/>
-      <c r="AD49" s="216"/>
+      <c r="AC49" s="247"/>
+      <c r="AD49" s="213"/>
     </row>
     <row r="50" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="309"/>
+      <c r="A50" s="325"/>
       <c r="B50" s="54"/>
       <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="331"/>
+      <c r="D50" s="347"/>
       <c r="E50" s="121"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -10070,7 +10147,7 @@
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
-      <c r="R50" s="165"/>
+      <c r="R50" s="311"/>
       <c r="S50" s="164"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
@@ -10085,16 +10162,16 @@
       <c r="AB50" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC50" s="250"/>
-      <c r="AD50" s="216"/>
+      <c r="AC50" s="247"/>
+      <c r="AD50" s="213"/>
     </row>
     <row r="51" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="309"/>
+      <c r="A51" s="325"/>
       <c r="B51" s="54"/>
       <c r="C51" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="331"/>
+      <c r="D51" s="347"/>
       <c r="E51" s="121"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -10108,7 +10185,7 @@
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
-      <c r="R51" s="165"/>
+      <c r="R51" s="311"/>
       <c r="S51" s="164"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
@@ -10123,16 +10200,16 @@
       <c r="AB51" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC51" s="250"/>
-      <c r="AD51" s="216"/>
+      <c r="AC51" s="247"/>
+      <c r="AD51" s="213"/>
     </row>
     <row r="52" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="309"/>
+      <c r="A52" s="325"/>
       <c r="B52" s="75"/>
       <c r="C52" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="331"/>
+      <c r="D52" s="347"/>
       <c r="E52" s="123"/>
       <c r="F52" s="77"/>
       <c r="G52" s="77"/>
@@ -10146,7 +10223,7 @@
       <c r="O52" s="78"/>
       <c r="P52" s="78"/>
       <c r="Q52" s="78"/>
-      <c r="R52" s="167"/>
+      <c r="R52" s="312"/>
       <c r="S52" s="166"/>
       <c r="T52" s="78"/>
       <c r="U52" s="78"/>
@@ -10155,20 +10232,20 @@
       <c r="X52" s="61"/>
       <c r="Y52" s="61"/>
       <c r="Z52" s="61"/>
-      <c r="AA52" s="269"/>
+      <c r="AA52" s="266"/>
       <c r="AB52" s="170"/>
-      <c r="AC52" s="284"/>
-      <c r="AD52" s="218"/>
+      <c r="AC52" s="281"/>
+      <c r="AD52" s="215"/>
     </row>
     <row r="53" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="309"/>
+      <c r="A53" s="325"/>
       <c r="B53" s="48" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="331"/>
+      <c r="D53" s="347"/>
       <c r="E53" s="119"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
@@ -10198,7 +10275,7 @@
       <c r="Q53" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="R53" s="194" t="s">
+      <c r="R53" s="307" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="168" t="s">
@@ -10210,13 +10287,13 @@
       <c r="U53" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="V53" s="194" t="s">
+      <c r="V53" s="191" t="s">
         <v>31</v>
       </c>
       <c r="W53" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="X53" s="234" t="s">
+      <c r="X53" s="231" t="s">
         <v>31</v>
       </c>
       <c r="Y53" s="53" t="s">
@@ -10225,24 +10302,24 @@
       <c r="Z53" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AA53" s="266" t="s">
+      <c r="AA53" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="AB53" s="351" t="s">
+      <c r="AB53" s="303" t="s">
         <v>379</v>
       </c>
-      <c r="AC53" s="249"/>
+      <c r="AC53" s="246"/>
       <c r="AD53" s="74" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="309"/>
+      <c r="A54" s="325"/>
       <c r="B54" s="54"/>
       <c r="C54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="331"/>
+      <c r="D54" s="347"/>
       <c r="E54" s="121"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -10272,7 +10349,7 @@
       <c r="Q54" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="R54" s="136" t="s">
+      <c r="R54" s="308" t="s">
         <v>346</v>
       </c>
       <c r="S54" s="163" t="s">
@@ -10305,18 +10382,18 @@
       <c r="AB54" s="136" t="s">
         <v>346</v>
       </c>
-      <c r="AC54" s="250"/>
-      <c r="AD54" s="216" t="s">
+      <c r="AC54" s="247"/>
+      <c r="AD54" s="213" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="309"/>
+      <c r="A55" s="325"/>
       <c r="B55" s="80"/>
       <c r="C55" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="331"/>
+      <c r="D55" s="347"/>
       <c r="E55" s="125"/>
       <c r="F55" s="81"/>
       <c r="G55" s="81"/>
@@ -10330,7 +10407,7 @@
       <c r="O55" s="78"/>
       <c r="P55" s="78"/>
       <c r="Q55" s="78"/>
-      <c r="R55" s="167"/>
+      <c r="R55" s="312"/>
       <c r="S55" s="166"/>
       <c r="T55" s="78"/>
       <c r="U55" s="78"/>
@@ -10347,24 +10424,24 @@
       <c r="Z55" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA55" s="268" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB55" s="199" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC55" s="252"/>
-      <c r="AD55" s="219"/>
+      <c r="AA55" s="265" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB55" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC55" s="249"/>
+      <c r="AD55" s="216"/>
     </row>
     <row r="56" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="309"/>
+      <c r="A56" s="325"/>
       <c r="B56" s="82" t="s">
         <v>316</v>
       </c>
       <c r="C56" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="D56" s="331"/>
+      <c r="D56" s="347"/>
       <c r="E56" s="126"/>
       <c r="F56" s="84"/>
       <c r="G56" s="84"/>
@@ -10378,7 +10455,7 @@
       <c r="O56" s="85"/>
       <c r="P56" s="85"/>
       <c r="Q56" s="85"/>
-      <c r="R56" s="172"/>
+      <c r="R56" s="313"/>
       <c r="S56" s="171"/>
       <c r="T56" s="85"/>
       <c r="U56" s="85"/>
@@ -10387,24 +10464,24 @@
       <c r="X56" s="85"/>
       <c r="Y56" s="85"/>
       <c r="Z56" s="85"/>
-      <c r="AA56" s="270" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB56" s="231" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC56" s="253"/>
-      <c r="AD56" s="220"/>
+      <c r="AA56" s="267" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB56" s="228" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC56" s="250"/>
+      <c r="AD56" s="217"/>
     </row>
     <row r="57" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="309"/>
+      <c r="A57" s="325"/>
       <c r="B57" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="331"/>
+      <c r="D57" s="347"/>
       <c r="E57" s="119" t="s">
         <v>19</v>
       </c>
@@ -10444,7 +10521,7 @@
       <c r="Q57" s="53">
         <v>1</v>
       </c>
-      <c r="R57" s="194">
+      <c r="R57" s="307">
         <v>1</v>
       </c>
       <c r="S57" s="168">
@@ -10456,7 +10533,7 @@
       <c r="U57" s="53">
         <v>1</v>
       </c>
-      <c r="V57" s="194">
+      <c r="V57" s="191">
         <v>1</v>
       </c>
       <c r="W57" s="111">
@@ -10471,22 +10548,22 @@
       <c r="Z57" s="53">
         <v>1</v>
       </c>
-      <c r="AA57" s="266">
+      <c r="AA57" s="263">
         <v>1</v>
       </c>
-      <c r="AB57" s="194">
+      <c r="AB57" s="191">
         <v>1</v>
       </c>
-      <c r="AC57" s="249"/>
+      <c r="AC57" s="246"/>
       <c r="AD57" s="74"/>
     </row>
     <row r="58" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="309"/>
+      <c r="A58" s="325"/>
       <c r="B58" s="55"/>
       <c r="C58" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="331"/>
+      <c r="D58" s="347"/>
       <c r="E58" s="128"/>
       <c r="F58" s="47" t="s">
         <v>10</v>
@@ -10524,7 +10601,7 @@
       <c r="Q58" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="R58" s="129" t="s">
+      <c r="R58" s="314" t="s">
         <v>19</v>
       </c>
       <c r="S58" s="130" t="s">
@@ -10557,16 +10634,16 @@
       <c r="AB58" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AC58" s="254"/>
-      <c r="AD58" s="221"/>
+      <c r="AC58" s="251"/>
+      <c r="AD58" s="218"/>
     </row>
     <row r="59" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="309"/>
+      <c r="A59" s="325"/>
       <c r="B59" s="55"/>
       <c r="C59" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="331"/>
+      <c r="D59" s="347"/>
       <c r="E59" s="130" t="s">
         <v>10</v>
       </c>
@@ -10606,7 +10683,7 @@
       <c r="Q59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="156" t="s">
+      <c r="R59" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S59" s="155" t="s">
@@ -10633,22 +10710,22 @@
       <c r="Z59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA59" s="267" t="s">
+      <c r="AA59" s="264" t="s">
         <v>10</v>
       </c>
       <c r="AB59" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC59" s="255"/>
-      <c r="AD59" s="221"/>
+      <c r="AC59" s="252"/>
+      <c r="AD59" s="218"/>
     </row>
     <row r="60" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="309"/>
+      <c r="A60" s="325"/>
       <c r="B60" s="54"/>
       <c r="C60" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="331"/>
+      <c r="D60" s="347"/>
       <c r="E60" s="121" t="s">
         <v>10</v>
       </c>
@@ -10688,7 +10765,7 @@
       <c r="Q60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R60" s="136" t="s">
+      <c r="R60" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S60" s="163" t="s">
@@ -10721,16 +10798,16 @@
       <c r="AB60" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC60" s="250"/>
-      <c r="AD60" s="216"/>
+      <c r="AC60" s="247"/>
+      <c r="AD60" s="213"/>
     </row>
     <row r="61" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="309"/>
+      <c r="A61" s="325"/>
       <c r="B61" s="54"/>
       <c r="C61" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="331"/>
+      <c r="D61" s="347"/>
       <c r="E61" s="131"/>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -10744,7 +10821,7 @@
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
       <c r="Q61" s="36"/>
-      <c r="R61" s="165"/>
+      <c r="R61" s="311"/>
       <c r="S61" s="163" t="s">
         <v>10</v>
       </c>
@@ -10775,18 +10852,18 @@
       <c r="AB61" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC61" s="250"/>
-      <c r="AD61" s="216" t="s">
+      <c r="AC61" s="247"/>
+      <c r="AD61" s="213" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="309"/>
+      <c r="A62" s="325"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="240" t="s">
+      <c r="C62" s="237" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="331"/>
+      <c r="D62" s="347"/>
       <c r="E62" s="121" t="s">
         <v>19</v>
       </c>
@@ -10826,7 +10903,7 @@
       <c r="Q62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="136" t="s">
+      <c r="R62" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S62" s="163" t="s">
@@ -10859,16 +10936,16 @@
       <c r="AB62" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC62" s="250"/>
-      <c r="AD62" s="216"/>
+      <c r="AC62" s="247"/>
+      <c r="AD62" s="213"/>
     </row>
     <row r="63" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="309"/>
+      <c r="A63" s="325"/>
       <c r="B63" s="54"/>
-      <c r="C63" s="241" t="s">
+      <c r="C63" s="238" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="331"/>
+      <c r="D63" s="347"/>
       <c r="E63" s="131"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -10882,7 +10959,7 @@
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
       <c r="Q63" s="36"/>
-      <c r="R63" s="165"/>
+      <c r="R63" s="311"/>
       <c r="S63" s="163" t="s">
         <v>10</v>
       </c>
@@ -10913,18 +10990,18 @@
       <c r="AB63" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC63" s="250"/>
-      <c r="AD63" s="216" t="s">
+      <c r="AC63" s="247"/>
+      <c r="AD63" s="213" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="309"/>
+      <c r="A64" s="325"/>
       <c r="B64" s="54"/>
-      <c r="C64" s="240" t="s">
+      <c r="C64" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="331"/>
+      <c r="D64" s="347"/>
       <c r="E64" s="121" t="s">
         <v>10</v>
       </c>
@@ -10964,7 +11041,7 @@
       <c r="Q64" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R64" s="136" t="s">
+      <c r="R64" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S64" s="163" t="s">
@@ -10997,16 +11074,16 @@
       <c r="AB64" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC64" s="250"/>
-      <c r="AD64" s="216"/>
+      <c r="AC64" s="247"/>
+      <c r="AD64" s="213"/>
     </row>
     <row r="65" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="309"/>
+      <c r="A65" s="325"/>
       <c r="B65" s="54"/>
-      <c r="C65" s="240" t="s">
+      <c r="C65" s="237" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="331"/>
+      <c r="D65" s="347"/>
       <c r="E65" s="121" t="s">
         <v>10</v>
       </c>
@@ -11046,7 +11123,7 @@
       <c r="Q65" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R65" s="136" t="s">
+      <c r="R65" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S65" s="163" t="s">
@@ -11079,16 +11156,16 @@
       <c r="AB65" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC65" s="250"/>
-      <c r="AD65" s="216"/>
+      <c r="AC65" s="247"/>
+      <c r="AD65" s="213"/>
     </row>
     <row r="66" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="309"/>
+      <c r="A66" s="325"/>
       <c r="B66" s="54"/>
-      <c r="C66" s="240" t="s">
+      <c r="C66" s="237" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="331"/>
+      <c r="D66" s="347"/>
       <c r="E66" s="121" t="s">
         <v>10</v>
       </c>
@@ -11128,7 +11205,7 @@
       <c r="Q66" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R66" s="136" t="s">
+      <c r="R66" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S66" s="163" t="s">
@@ -11161,16 +11238,16 @@
       <c r="AB66" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC66" s="250"/>
-      <c r="AD66" s="216"/>
+      <c r="AC66" s="247"/>
+      <c r="AD66" s="213"/>
     </row>
     <row r="67" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="309"/>
+      <c r="A67" s="325"/>
       <c r="B67" s="54"/>
-      <c r="C67" s="240" t="s">
+      <c r="C67" s="237" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="331"/>
+      <c r="D67" s="347"/>
       <c r="E67" s="121" t="s">
         <v>10</v>
       </c>
@@ -11210,7 +11287,7 @@
       <c r="Q67" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R67" s="136" t="s">
+      <c r="R67" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S67" s="163" t="s">
@@ -11243,16 +11320,16 @@
       <c r="AB67" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC67" s="250"/>
-      <c r="AD67" s="216"/>
+      <c r="AC67" s="247"/>
+      <c r="AD67" s="213"/>
     </row>
     <row r="68" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="309"/>
+      <c r="A68" s="325"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="240" t="s">
+      <c r="C68" s="237" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="331"/>
+      <c r="D68" s="347"/>
       <c r="E68" s="133"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
@@ -11266,7 +11343,7 @@
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
       <c r="Q68" s="36"/>
-      <c r="R68" s="165"/>
+      <c r="R68" s="311"/>
       <c r="S68" s="164"/>
       <c r="T68" s="36"/>
       <c r="U68" s="16" t="s">
@@ -11293,16 +11370,16 @@
       <c r="AB68" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC68" s="250"/>
-      <c r="AD68" s="216"/>
+      <c r="AC68" s="247"/>
+      <c r="AD68" s="213"/>
     </row>
     <row r="69" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="309"/>
+      <c r="A69" s="325"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="241" t="s">
+      <c r="C69" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="331"/>
+      <c r="D69" s="347"/>
       <c r="E69" s="131"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -11316,7 +11393,7 @@
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
       <c r="Q69" s="36"/>
-      <c r="R69" s="165"/>
+      <c r="R69" s="311"/>
       <c r="S69" s="163" t="s">
         <v>10</v>
       </c>
@@ -11347,16 +11424,16 @@
       <c r="AB69" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC69" s="250"/>
-      <c r="AD69" s="216"/>
+      <c r="AC69" s="247"/>
+      <c r="AD69" s="213"/>
     </row>
     <row r="70" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="309"/>
+      <c r="A70" s="325"/>
       <c r="B70" s="54"/>
-      <c r="C70" s="241" t="s">
+      <c r="C70" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="331"/>
+      <c r="D70" s="347"/>
       <c r="E70" s="131"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -11370,7 +11447,7 @@
       <c r="O70" s="36"/>
       <c r="P70" s="36"/>
       <c r="Q70" s="36"/>
-      <c r="R70" s="165"/>
+      <c r="R70" s="311"/>
       <c r="S70" s="163" t="s">
         <v>111</v>
       </c>
@@ -11401,16 +11478,16 @@
       <c r="AB70" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="AC70" s="250"/>
-      <c r="AD70" s="216"/>
+      <c r="AC70" s="247"/>
+      <c r="AD70" s="213"/>
     </row>
     <row r="71" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="309"/>
+      <c r="A71" s="325"/>
       <c r="B71" s="54"/>
-      <c r="C71" s="240" t="s">
+      <c r="C71" s="237" t="s">
         <v>252</v>
       </c>
-      <c r="D71" s="331"/>
+      <c r="D71" s="347"/>
       <c r="E71" s="121" t="s">
         <v>10</v>
       </c>
@@ -11450,7 +11527,7 @@
       <c r="Q71" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R71" s="136" t="s">
+      <c r="R71" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S71" s="163" t="s">
@@ -11483,16 +11560,16 @@
       <c r="AB71" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC71" s="250"/>
-      <c r="AD71" s="216"/>
+      <c r="AC71" s="247"/>
+      <c r="AD71" s="213"/>
     </row>
     <row r="72" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="309"/>
+      <c r="A72" s="325"/>
       <c r="B72" s="54"/>
-      <c r="C72" s="240" t="s">
+      <c r="C72" s="237" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="331"/>
+      <c r="D72" s="347"/>
       <c r="E72" s="121" t="s">
         <v>10</v>
       </c>
@@ -11532,7 +11609,7 @@
       <c r="Q72" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="136" t="s">
+      <c r="R72" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S72" s="163" t="s">
@@ -11565,16 +11642,16 @@
       <c r="AB72" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC72" s="250"/>
-      <c r="AD72" s="216"/>
+      <c r="AC72" s="247"/>
+      <c r="AD72" s="213"/>
     </row>
     <row r="73" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="309"/>
+      <c r="A73" s="325"/>
       <c r="B73" s="54"/>
-      <c r="C73" s="240" t="s">
+      <c r="C73" s="237" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="331"/>
+      <c r="D73" s="347"/>
       <c r="E73" s="121" t="s">
         <v>10</v>
       </c>
@@ -11614,7 +11691,7 @@
       <c r="Q73" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R73" s="136" t="s">
+      <c r="R73" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S73" s="163" t="s">
@@ -11647,16 +11724,16 @@
       <c r="AB73" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC73" s="250"/>
-      <c r="AD73" s="216"/>
+      <c r="AC73" s="247"/>
+      <c r="AD73" s="213"/>
     </row>
     <row r="74" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="309"/>
+      <c r="A74" s="325"/>
       <c r="B74" s="54"/>
-      <c r="C74" s="240" t="s">
+      <c r="C74" s="237" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="331"/>
+      <c r="D74" s="347"/>
       <c r="E74" s="121" t="s">
         <v>10</v>
       </c>
@@ -11696,7 +11773,7 @@
       <c r="Q74" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R74" s="136" t="s">
+      <c r="R74" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S74" s="163" t="s">
@@ -11729,16 +11806,16 @@
       <c r="AB74" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC74" s="250"/>
-      <c r="AD74" s="216"/>
+      <c r="AC74" s="247"/>
+      <c r="AD74" s="213"/>
     </row>
     <row r="75" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="309"/>
+      <c r="A75" s="325"/>
       <c r="B75" s="54"/>
-      <c r="C75" s="240" t="s">
+      <c r="C75" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="331"/>
+      <c r="D75" s="347"/>
       <c r="E75" s="133"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
@@ -11752,7 +11829,7 @@
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
       <c r="Q75" s="36"/>
-      <c r="R75" s="165"/>
+      <c r="R75" s="311"/>
       <c r="S75" s="163" t="s">
         <v>10</v>
       </c>
@@ -11783,16 +11860,16 @@
       <c r="AB75" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC75" s="250"/>
-      <c r="AD75" s="216"/>
+      <c r="AC75" s="247"/>
+      <c r="AD75" s="213"/>
     </row>
     <row r="76" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="309"/>
+      <c r="A76" s="325"/>
       <c r="B76" s="54"/>
-      <c r="C76" s="240" t="s">
+      <c r="C76" s="237" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="331"/>
+      <c r="D76" s="347"/>
       <c r="E76" s="133"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
@@ -11806,7 +11883,7 @@
       <c r="O76" s="36"/>
       <c r="P76" s="36"/>
       <c r="Q76" s="36"/>
-      <c r="R76" s="165"/>
+      <c r="R76" s="311"/>
       <c r="S76" s="164"/>
       <c r="T76" s="36"/>
       <c r="U76" s="36"/>
@@ -11829,16 +11906,16 @@
       <c r="AB76" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC76" s="250"/>
-      <c r="AD76" s="216"/>
+      <c r="AC76" s="247"/>
+      <c r="AD76" s="213"/>
     </row>
     <row r="77" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="309"/>
+      <c r="A77" s="325"/>
       <c r="B77" s="54"/>
-      <c r="C77" s="240" t="s">
+      <c r="C77" s="237" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="331"/>
+      <c r="D77" s="347"/>
       <c r="E77" s="133"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
@@ -11852,7 +11929,7 @@
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
       <c r="Q77" s="36"/>
-      <c r="R77" s="165"/>
+      <c r="R77" s="311"/>
       <c r="S77" s="164"/>
       <c r="T77" s="36"/>
       <c r="U77" s="19" t="s">
@@ -11873,22 +11950,22 @@
       <c r="Z77" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA77" s="271" t="s">
+      <c r="AA77" s="268" t="s">
         <v>10</v>
       </c>
       <c r="AB77" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AC77" s="256"/>
-      <c r="AD77" s="216"/>
+      <c r="AC77" s="253"/>
+      <c r="AD77" s="213"/>
     </row>
     <row r="78" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="309"/>
+      <c r="A78" s="325"/>
       <c r="B78" s="54"/>
-      <c r="C78" s="240" t="s">
+      <c r="C78" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="331"/>
+      <c r="D78" s="347"/>
       <c r="E78" s="121" t="s">
         <v>19</v>
       </c>
@@ -11928,7 +12005,7 @@
       <c r="Q78" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R78" s="136" t="s">
+      <c r="R78" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S78" s="163" t="s">
@@ -11961,16 +12038,16 @@
       <c r="AB78" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC78" s="250"/>
-      <c r="AD78" s="216"/>
+      <c r="AC78" s="247"/>
+      <c r="AD78" s="213"/>
     </row>
     <row r="79" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="309"/>
+      <c r="A79" s="325"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="240" t="s">
+      <c r="C79" s="237" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="331"/>
+      <c r="D79" s="347"/>
       <c r="E79" s="121" t="s">
         <v>10</v>
       </c>
@@ -12010,7 +12087,7 @@
       <c r="Q79" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R79" s="136" t="s">
+      <c r="R79" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S79" s="163" t="s">
@@ -12043,16 +12120,16 @@
       <c r="AB79" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC79" s="250"/>
-      <c r="AD79" s="216"/>
+      <c r="AC79" s="247"/>
+      <c r="AD79" s="213"/>
     </row>
     <row r="80" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="309"/>
+      <c r="A80" s="325"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="240" t="s">
+      <c r="C80" s="237" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="331"/>
+      <c r="D80" s="347"/>
       <c r="E80" s="133"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
@@ -12066,7 +12143,7 @@
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
       <c r="Q80" s="36"/>
-      <c r="R80" s="165"/>
+      <c r="R80" s="311"/>
       <c r="S80" s="164"/>
       <c r="T80" s="36"/>
       <c r="U80" s="36"/>
@@ -12089,16 +12166,16 @@
       <c r="AB80" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC80" s="250"/>
-      <c r="AD80" s="216"/>
+      <c r="AC80" s="247"/>
+      <c r="AD80" s="213"/>
     </row>
     <row r="81" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="309"/>
+      <c r="A81" s="325"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="240" t="s">
+      <c r="C81" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="331"/>
+      <c r="D81" s="347"/>
       <c r="E81" s="121" t="s">
         <v>19</v>
       </c>
@@ -12138,7 +12215,7 @@
       <c r="Q81" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R81" s="136" t="s">
+      <c r="R81" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S81" s="163" t="s">
@@ -12171,18 +12248,18 @@
       <c r="AB81" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC81" s="250"/>
-      <c r="AD81" s="216" t="s">
+      <c r="AC81" s="247"/>
+      <c r="AD81" s="213" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="309"/>
+      <c r="A82" s="325"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="240" t="s">
+      <c r="C82" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="331"/>
+      <c r="D82" s="347"/>
       <c r="E82" s="121" t="s">
         <v>10</v>
       </c>
@@ -12222,7 +12299,7 @@
       <c r="Q82" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R82" s="136" t="s">
+      <c r="R82" s="308" t="s">
         <v>55</v>
       </c>
       <c r="S82" s="163" t="s">
@@ -12249,22 +12326,22 @@
       <c r="Z82" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AA82" s="272" t="s">
+      <c r="AA82" s="269" t="s">
         <v>55</v>
       </c>
       <c r="AB82" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC82" s="257"/>
-      <c r="AD82" s="216"/>
+      <c r="AC82" s="254"/>
+      <c r="AD82" s="213"/>
     </row>
     <row r="83" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="309"/>
+      <c r="A83" s="325"/>
       <c r="B83" s="54"/>
-      <c r="C83" s="240" t="s">
+      <c r="C83" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="331"/>
+      <c r="D83" s="347"/>
       <c r="E83" s="121" t="s">
         <v>19</v>
       </c>
@@ -12304,7 +12381,7 @@
       <c r="Q83" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R83" s="136" t="s">
+      <c r="R83" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S83" s="163" t="s">
@@ -12337,35 +12414,35 @@
       <c r="AB83" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC83" s="250"/>
-      <c r="AD83" s="216" t="s">
+      <c r="AC83" s="247"/>
+      <c r="AD83" s="213" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="309"/>
+      <c r="A84" s="325"/>
       <c r="B84" s="54"/>
-      <c r="C84" s="240" t="s">
+      <c r="C84" s="237" t="s">
         <v>334</v>
       </c>
-      <c r="D84" s="331"/>
+      <c r="D84" s="347"/>
       <c r="E84" s="133"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
       <c r="I84" s="134"/>
-      <c r="J84" s="242"/>
-      <c r="K84" s="243"/>
+      <c r="J84" s="239"/>
+      <c r="K84" s="240"/>
       <c r="L84" s="35"/>
       <c r="M84" s="162"/>
-      <c r="N84" s="244"/>
-      <c r="O84" s="245"/>
-      <c r="P84" s="245"/>
-      <c r="Q84" s="245"/>
-      <c r="R84" s="165"/>
-      <c r="S84" s="244"/>
-      <c r="T84" s="245"/>
-      <c r="U84" s="245"/>
+      <c r="N84" s="241"/>
+      <c r="O84" s="242"/>
+      <c r="P84" s="242"/>
+      <c r="Q84" s="242"/>
+      <c r="R84" s="311"/>
+      <c r="S84" s="241"/>
+      <c r="T84" s="242"/>
+      <c r="U84" s="242"/>
       <c r="V84" s="165"/>
       <c r="W84" s="109" t="s">
         <v>10</v>
@@ -12385,16 +12462,16 @@
       <c r="AB84" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC84" s="250"/>
-      <c r="AD84" s="216"/>
+      <c r="AC84" s="247"/>
+      <c r="AD84" s="213"/>
     </row>
     <row r="85" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="309"/>
+      <c r="A85" s="325"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="240" t="s">
+      <c r="C85" s="237" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="331"/>
+      <c r="D85" s="347"/>
       <c r="E85" s="135" t="s">
         <v>262</v>
       </c>
@@ -12434,7 +12511,7 @@
       <c r="Q85" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="R85" s="136" t="s">
+      <c r="R85" s="308" t="s">
         <v>262</v>
       </c>
       <c r="S85" s="135" t="s">
@@ -12461,22 +12538,22 @@
       <c r="Z85" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="AA85" s="267" t="s">
+      <c r="AA85" s="264" t="s">
         <v>311</v>
       </c>
       <c r="AB85" s="156" t="s">
         <v>311</v>
       </c>
-      <c r="AC85" s="251"/>
-      <c r="AD85" s="216"/>
+      <c r="AC85" s="248"/>
+      <c r="AD85" s="213"/>
     </row>
     <row r="86" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="309"/>
+      <c r="A86" s="325"/>
       <c r="B86" s="54"/>
-      <c r="C86" s="240" t="s">
+      <c r="C86" s="237" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="331"/>
+      <c r="D86" s="347"/>
       <c r="E86" s="135" t="s">
         <v>19</v>
       </c>
@@ -12516,7 +12593,7 @@
       <c r="Q86" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R86" s="136" t="s">
+      <c r="R86" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S86" s="163" t="s">
@@ -12549,16 +12626,16 @@
       <c r="AB86" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC86" s="250"/>
-      <c r="AD86" s="216"/>
+      <c r="AC86" s="247"/>
+      <c r="AD86" s="213"/>
     </row>
     <row r="87" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="309"/>
+      <c r="A87" s="325"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="240" t="s">
+      <c r="C87" s="237" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="331"/>
+      <c r="D87" s="347"/>
       <c r="E87" s="133"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
@@ -12576,7 +12653,7 @@
       <c r="O87" s="36"/>
       <c r="P87" s="36"/>
       <c r="Q87" s="36"/>
-      <c r="R87" s="165"/>
+      <c r="R87" s="311"/>
       <c r="S87" s="163" t="s">
         <v>10</v>
       </c>
@@ -12607,16 +12684,16 @@
       <c r="AB87" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC87" s="250"/>
-      <c r="AD87" s="216"/>
+      <c r="AC87" s="247"/>
+      <c r="AD87" s="213"/>
     </row>
     <row r="88" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="309"/>
+      <c r="A88" s="325"/>
       <c r="B88" s="54"/>
-      <c r="C88" s="240" t="s">
+      <c r="C88" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="331"/>
+      <c r="D88" s="347"/>
       <c r="E88" s="133"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
@@ -12632,7 +12709,7 @@
       <c r="O88" s="36"/>
       <c r="P88" s="36"/>
       <c r="Q88" s="36"/>
-      <c r="R88" s="165"/>
+      <c r="R88" s="311"/>
       <c r="S88" s="164"/>
       <c r="T88" s="13" t="s">
         <v>10</v>
@@ -12661,16 +12738,16 @@
       <c r="AB88" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AC88" s="250"/>
-      <c r="AD88" s="216"/>
+      <c r="AC88" s="247"/>
+      <c r="AD88" s="213"/>
     </row>
     <row r="89" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="309"/>
+      <c r="A89" s="325"/>
       <c r="B89" s="54"/>
-      <c r="C89" s="240" t="s">
+      <c r="C89" s="237" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="331"/>
+      <c r="D89" s="347"/>
       <c r="E89" s="133"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
@@ -12688,7 +12765,7 @@
       <c r="O89" s="36"/>
       <c r="P89" s="36"/>
       <c r="Q89" s="36"/>
-      <c r="R89" s="165"/>
+      <c r="R89" s="311"/>
       <c r="S89" s="164"/>
       <c r="T89" s="36"/>
       <c r="U89" s="36"/>
@@ -12711,16 +12788,16 @@
       <c r="AB89" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC89" s="250"/>
-      <c r="AD89" s="216"/>
+      <c r="AC89" s="247"/>
+      <c r="AD89" s="213"/>
     </row>
     <row r="90" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="309"/>
+      <c r="A90" s="325"/>
       <c r="B90" s="54"/>
-      <c r="C90" s="240" t="s">
+      <c r="C90" s="237" t="s">
         <v>238</v>
       </c>
-      <c r="D90" s="331"/>
+      <c r="D90" s="347"/>
       <c r="E90" s="133"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
@@ -12738,7 +12815,7 @@
       <c r="O90" s="36"/>
       <c r="P90" s="36"/>
       <c r="Q90" s="36"/>
-      <c r="R90" s="165"/>
+      <c r="R90" s="311"/>
       <c r="S90" s="164"/>
       <c r="T90" s="36"/>
       <c r="U90" s="19" t="s">
@@ -12759,22 +12836,22 @@
       <c r="Z90" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA90" s="271" t="s">
+      <c r="AA90" s="268" t="s">
         <v>10</v>
       </c>
       <c r="AB90" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AC90" s="256"/>
-      <c r="AD90" s="216"/>
+      <c r="AC90" s="253"/>
+      <c r="AD90" s="213"/>
     </row>
     <row r="91" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="309"/>
+      <c r="A91" s="325"/>
       <c r="B91" s="54"/>
-      <c r="C91" s="240" t="s">
+      <c r="C91" s="237" t="s">
         <v>206</v>
       </c>
-      <c r="D91" s="331"/>
+      <c r="D91" s="347"/>
       <c r="E91" s="133"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
@@ -12792,7 +12869,7 @@
       <c r="O91" s="36"/>
       <c r="P91" s="36"/>
       <c r="Q91" s="36"/>
-      <c r="R91" s="165"/>
+      <c r="R91" s="311"/>
       <c r="S91" s="164"/>
       <c r="T91" s="36"/>
       <c r="U91" s="21" t="s">
@@ -12819,16 +12896,16 @@
       <c r="AB91" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC91" s="250"/>
-      <c r="AD91" s="216"/>
+      <c r="AC91" s="247"/>
+      <c r="AD91" s="213"/>
     </row>
     <row r="92" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="309"/>
+      <c r="A92" s="325"/>
       <c r="B92" s="56"/>
       <c r="C92" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="D92" s="331"/>
+      <c r="D92" s="347"/>
       <c r="E92" s="138" t="s">
         <v>260</v>
       </c>
@@ -12868,7 +12945,7 @@
       <c r="Q92" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="R92" s="139" t="s">
+      <c r="R92" s="315" t="s">
         <v>260</v>
       </c>
       <c r="S92" s="138" t="s">
@@ -12901,16 +12978,16 @@
       <c r="AB92" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="AC92" s="258"/>
-      <c r="AD92" s="222"/>
+      <c r="AC92" s="255"/>
+      <c r="AD92" s="219"/>
     </row>
     <row r="93" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="309"/>
+      <c r="A93" s="325"/>
       <c r="B93" s="86"/>
       <c r="C93" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="D93" s="331"/>
+      <c r="D93" s="347"/>
       <c r="E93" s="138" t="s">
         <v>242</v>
       </c>
@@ -12950,7 +13027,7 @@
       <c r="Q93" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="R93" s="174" t="s">
+      <c r="R93" s="316" t="s">
         <v>259</v>
       </c>
       <c r="S93" s="173" t="s">
@@ -12977,24 +13054,24 @@
       <c r="Z93" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="AA93" s="273" t="s">
+      <c r="AA93" s="270" t="s">
         <v>259</v>
       </c>
-      <c r="AB93" s="283" t="s">
+      <c r="AB93" s="280" t="s">
         <v>259</v>
       </c>
-      <c r="AC93" s="259"/>
-      <c r="AD93" s="223"/>
+      <c r="AC93" s="256"/>
+      <c r="AD93" s="220"/>
     </row>
     <row r="94" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="309"/>
+      <c r="A94" s="325"/>
       <c r="B94" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="331"/>
+      <c r="D94" s="347"/>
       <c r="E94" s="119"/>
       <c r="F94" s="50"/>
       <c r="G94" s="50"/>
@@ -13024,7 +13101,7 @@
       <c r="Q94" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="R94" s="194" t="s">
+      <c r="R94" s="307" t="s">
         <v>47</v>
       </c>
       <c r="S94" s="168" t="s">
@@ -13036,7 +13113,7 @@
       <c r="U94" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="V94" s="194" t="s">
+      <c r="V94" s="191" t="s">
         <v>47</v>
       </c>
       <c r="W94" s="111" t="s">
@@ -13051,22 +13128,22 @@
       <c r="Z94" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AA94" s="266" t="s">
+      <c r="AA94" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="AB94" s="194" t="s">
+      <c r="AB94" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="AC94" s="249"/>
+      <c r="AC94" s="246"/>
       <c r="AD94" s="74"/>
     </row>
     <row r="95" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="309"/>
+      <c r="A95" s="325"/>
       <c r="B95" s="55"/>
       <c r="C95" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="D95" s="331"/>
+      <c r="D95" s="347"/>
       <c r="E95" s="130"/>
       <c r="F95" s="47"/>
       <c r="G95" s="47"/>
@@ -13076,16 +13153,16 @@
       <c r="K95" s="59"/>
       <c r="L95" s="59"/>
       <c r="M95" s="176"/>
-      <c r="N95" s="195"/>
+      <c r="N95" s="192"/>
       <c r="O95" s="60"/>
       <c r="P95" s="60"/>
       <c r="Q95" s="60"/>
-      <c r="R95" s="196"/>
-      <c r="S95" s="195"/>
+      <c r="R95" s="317"/>
+      <c r="S95" s="192"/>
       <c r="T95" s="60"/>
       <c r="U95" s="60"/>
-      <c r="V95" s="196"/>
-      <c r="W95" s="204" t="s">
+      <c r="V95" s="193"/>
+      <c r="W95" s="201" t="s">
         <v>10</v>
       </c>
       <c r="X95" s="14" t="s">
@@ -13097,22 +13174,22 @@
       <c r="Z95" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA95" s="274" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB95" s="233" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC95" s="260"/>
-      <c r="AD95" s="221"/>
+      <c r="AA95" s="271" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB95" s="230" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC95" s="257"/>
+      <c r="AD95" s="218"/>
     </row>
     <row r="96" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="309"/>
+      <c r="A96" s="325"/>
       <c r="B96" s="54"/>
       <c r="C96" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D96" s="331"/>
+      <c r="D96" s="347"/>
       <c r="E96" s="121"/>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -13142,7 +13219,7 @@
       <c r="Q96" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R96" s="136" t="s">
+      <c r="R96" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S96" s="163" t="s">
@@ -13175,16 +13252,16 @@
       <c r="AB96" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC96" s="250"/>
-      <c r="AD96" s="216"/>
+      <c r="AC96" s="247"/>
+      <c r="AD96" s="213"/>
     </row>
     <row r="97" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="309"/>
+      <c r="A97" s="325"/>
       <c r="B97" s="54"/>
       <c r="C97" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="331"/>
+      <c r="D97" s="347"/>
       <c r="E97" s="121"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -13214,7 +13291,7 @@
       <c r="Q97" s="13">
         <v>5</v>
       </c>
-      <c r="R97" s="136" t="s">
+      <c r="R97" s="308" t="s">
         <v>49</v>
       </c>
       <c r="S97" s="163">
@@ -13247,16 +13324,16 @@
       <c r="AB97" s="136">
         <v>5</v>
       </c>
-      <c r="AC97" s="250"/>
-      <c r="AD97" s="216"/>
+      <c r="AC97" s="247"/>
+      <c r="AD97" s="213"/>
     </row>
     <row r="98" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="309"/>
+      <c r="A98" s="325"/>
       <c r="B98" s="54"/>
       <c r="C98" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D98" s="331"/>
+      <c r="D98" s="347"/>
       <c r="E98" s="121"/>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -13286,7 +13363,7 @@
       <c r="Q98" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="R98" s="136" t="s">
+      <c r="R98" s="308" t="s">
         <v>49</v>
       </c>
       <c r="S98" s="163" t="s">
@@ -13319,16 +13396,16 @@
       <c r="AB98" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="AC98" s="250"/>
-      <c r="AD98" s="216"/>
+      <c r="AC98" s="247"/>
+      <c r="AD98" s="213"/>
     </row>
     <row r="99" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="309"/>
+      <c r="A99" s="325"/>
       <c r="B99" s="54"/>
       <c r="C99" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="331"/>
+      <c r="D99" s="347"/>
       <c r="E99" s="121"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -13346,7 +13423,7 @@
       <c r="M99" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="N99" s="197" t="s">
+      <c r="N99" s="194" t="s">
         <v>10</v>
       </c>
       <c r="O99" s="18" t="s">
@@ -13358,7 +13435,7 @@
       <c r="Q99" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="R99" s="136" t="s">
+      <c r="R99" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S99" s="163" t="s">
@@ -13391,18 +13468,18 @@
       <c r="AB99" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC99" s="250"/>
-      <c r="AD99" s="216" t="s">
+      <c r="AC99" s="247"/>
+      <c r="AD99" s="213" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="309"/>
+      <c r="A100" s="325"/>
       <c r="B100" s="54"/>
       <c r="C100" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="331"/>
+      <c r="D100" s="347"/>
       <c r="E100" s="121"/>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -13420,7 +13497,7 @@
       <c r="M100" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="N100" s="197" t="s">
+      <c r="N100" s="194" t="s">
         <v>10</v>
       </c>
       <c r="O100" s="18" t="s">
@@ -13432,7 +13509,7 @@
       <c r="Q100" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="R100" s="136" t="s">
+      <c r="R100" s="308" t="s">
         <v>55</v>
       </c>
       <c r="S100" s="163" t="s">
@@ -13444,7 +13521,7 @@
       <c r="U100" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V100" s="212" t="s">
+      <c r="V100" s="209" t="s">
         <v>45</v>
       </c>
       <c r="W100" s="109" t="s">
@@ -13465,16 +13542,16 @@
       <c r="AB100" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC100" s="250"/>
-      <c r="AD100" s="216"/>
+      <c r="AC100" s="247"/>
+      <c r="AD100" s="213"/>
     </row>
     <row r="101" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="309"/>
+      <c r="A101" s="325"/>
       <c r="B101" s="54"/>
       <c r="C101" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="331"/>
+      <c r="D101" s="347"/>
       <c r="E101" s="121"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -13492,7 +13569,7 @@
       <c r="M101" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="197" t="s">
+      <c r="N101" s="194" t="s">
         <v>10</v>
       </c>
       <c r="O101" s="18" t="s">
@@ -13504,7 +13581,7 @@
       <c r="Q101" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="R101" s="136" t="s">
+      <c r="R101" s="308" t="s">
         <v>55</v>
       </c>
       <c r="S101" s="163" t="s">
@@ -13537,18 +13614,18 @@
       <c r="AB101" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC101" s="250"/>
-      <c r="AD101" s="216" t="s">
+      <c r="AC101" s="247"/>
+      <c r="AD101" s="213" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="309"/>
+      <c r="A102" s="325"/>
       <c r="B102" s="54"/>
       <c r="C102" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D102" s="331"/>
+      <c r="D102" s="347"/>
       <c r="E102" s="121"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -13566,7 +13643,7 @@
       <c r="M102" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="N102" s="197" t="s">
+      <c r="N102" s="194" t="s">
         <v>10</v>
       </c>
       <c r="O102" s="18" t="s">
@@ -13578,7 +13655,7 @@
       <c r="Q102" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="R102" s="136" t="s">
+      <c r="R102" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S102" s="163" t="s">
@@ -13611,18 +13688,18 @@
       <c r="AB102" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC102" s="250"/>
-      <c r="AD102" s="216" t="s">
+      <c r="AC102" s="247"/>
+      <c r="AD102" s="213" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="309"/>
+      <c r="A103" s="325"/>
       <c r="B103" s="54"/>
       <c r="C103" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="331"/>
+      <c r="D103" s="347"/>
       <c r="E103" s="121"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -13640,7 +13717,7 @@
       <c r="M103" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="N103" s="197" t="s">
+      <c r="N103" s="194" t="s">
         <v>10</v>
       </c>
       <c r="O103" s="18" t="s">
@@ -13652,7 +13729,7 @@
       <c r="Q103" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="R103" s="136" t="s">
+      <c r="R103" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S103" s="163" t="s">
@@ -13685,18 +13762,18 @@
       <c r="AB103" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC103" s="250"/>
-      <c r="AD103" s="216" t="s">
+      <c r="AC103" s="247"/>
+      <c r="AD103" s="213" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="309"/>
+      <c r="A104" s="325"/>
       <c r="B104" s="54"/>
       <c r="C104" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D104" s="331"/>
+      <c r="D104" s="347"/>
       <c r="E104" s="121"/>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -13714,7 +13791,7 @@
       <c r="M104" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="N104" s="197" t="s">
+      <c r="N104" s="194" t="s">
         <v>10</v>
       </c>
       <c r="O104" s="18" t="s">
@@ -13726,7 +13803,7 @@
       <c r="Q104" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="R104" s="136" t="s">
+      <c r="R104" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S104" s="163" t="s">
@@ -13759,18 +13836,18 @@
       <c r="AB104" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC104" s="250"/>
-      <c r="AD104" s="216" t="s">
+      <c r="AC104" s="247"/>
+      <c r="AD104" s="213" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="309"/>
+      <c r="A105" s="325"/>
       <c r="B105" s="54"/>
       <c r="C105" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="331"/>
+      <c r="D105" s="347"/>
       <c r="E105" s="121"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -13784,7 +13861,7 @@
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
       <c r="Q105" s="36"/>
-      <c r="R105" s="165"/>
+      <c r="R105" s="311"/>
       <c r="S105" s="164"/>
       <c r="T105" s="36"/>
       <c r="U105" s="36"/>
@@ -13807,16 +13884,16 @@
       <c r="AB105" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC105" s="250"/>
-      <c r="AD105" s="216"/>
+      <c r="AC105" s="247"/>
+      <c r="AD105" s="213"/>
     </row>
     <row r="106" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="309"/>
+      <c r="A106" s="325"/>
       <c r="B106" s="54"/>
       <c r="C106" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="331"/>
+      <c r="D106" s="347"/>
       <c r="E106" s="121"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -13830,7 +13907,7 @@
       <c r="O106" s="36"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="36"/>
-      <c r="R106" s="165"/>
+      <c r="R106" s="311"/>
       <c r="S106" s="163" t="s">
         <v>61</v>
       </c>
@@ -13855,22 +13932,22 @@
       <c r="Z106" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="AA106" s="272" t="s">
+      <c r="AA106" s="269" t="s">
         <v>116</v>
       </c>
       <c r="AB106" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="AC106" s="257"/>
-      <c r="AD106" s="216"/>
+      <c r="AC106" s="254"/>
+      <c r="AD106" s="213"/>
     </row>
     <row r="107" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="309"/>
+      <c r="A107" s="325"/>
       <c r="B107" s="54"/>
       <c r="C107" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="331"/>
+      <c r="D107" s="347"/>
       <c r="E107" s="121"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -13900,7 +13977,7 @@
       <c r="Q107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R107" s="136" t="s">
+      <c r="R107" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S107" s="163" t="s">
@@ -13933,16 +14010,16 @@
       <c r="AB107" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC107" s="250"/>
-      <c r="AD107" s="216"/>
+      <c r="AC107" s="247"/>
+      <c r="AD107" s="213"/>
     </row>
     <row r="108" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="309"/>
+      <c r="A108" s="325"/>
       <c r="B108" s="54"/>
       <c r="C108" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="331"/>
+      <c r="D108" s="347"/>
       <c r="E108" s="121"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -13964,7 +14041,7 @@
       <c r="Q108" s="13">
         <v>1</v>
       </c>
-      <c r="R108" s="136">
+      <c r="R108" s="308">
         <v>1</v>
       </c>
       <c r="S108" s="163">
@@ -13997,16 +14074,16 @@
       <c r="AB108" s="136">
         <v>1</v>
       </c>
-      <c r="AC108" s="250"/>
-      <c r="AD108" s="216"/>
+      <c r="AC108" s="247"/>
+      <c r="AD108" s="213"/>
     </row>
     <row r="109" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="309"/>
+      <c r="A109" s="325"/>
       <c r="B109" s="54"/>
       <c r="C109" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D109" s="331"/>
+      <c r="D109" s="347"/>
       <c r="E109" s="121"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -14036,7 +14113,7 @@
       <c r="Q109" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R109" s="136" t="s">
+      <c r="R109" s="308" t="s">
         <v>357</v>
       </c>
       <c r="S109" s="13" t="s">
@@ -14063,22 +14140,22 @@
       <c r="Z109" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="AA109" s="271" t="s">
+      <c r="AA109" s="268" t="s">
         <v>357</v>
       </c>
       <c r="AB109" s="160" t="s">
         <v>356</v>
       </c>
-      <c r="AC109" s="256"/>
-      <c r="AD109" s="224"/>
+      <c r="AC109" s="253"/>
+      <c r="AD109" s="221"/>
     </row>
     <row r="110" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="309"/>
+      <c r="A110" s="325"/>
       <c r="B110" s="54"/>
       <c r="C110" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D110" s="331"/>
+      <c r="D110" s="347"/>
       <c r="E110" s="121"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -14108,7 +14185,7 @@
       <c r="Q110" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R110" s="136" t="s">
+      <c r="R110" s="308" t="s">
         <v>2</v>
       </c>
       <c r="S110" s="163" t="s">
@@ -14135,22 +14212,22 @@
       <c r="Z110" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AA110" s="271" t="s">
+      <c r="AA110" s="268" t="s">
         <v>2</v>
       </c>
       <c r="AB110" s="160" t="s">
         <v>357</v>
       </c>
-      <c r="AC110" s="256"/>
-      <c r="AD110" s="216"/>
+      <c r="AC110" s="253"/>
+      <c r="AD110" s="213"/>
     </row>
     <row r="111" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="309"/>
+      <c r="A111" s="325"/>
       <c r="B111" s="54"/>
       <c r="C111" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D111" s="331"/>
+      <c r="D111" s="347"/>
       <c r="E111" s="121"/>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -14180,7 +14257,7 @@
       <c r="Q111" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="R111" s="136" t="s">
+      <c r="R111" s="308" t="s">
         <v>358</v>
       </c>
       <c r="S111" s="163" t="s">
@@ -14207,22 +14284,22 @@
       <c r="Z111" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="AA111" s="271" t="s">
+      <c r="AA111" s="268" t="s">
         <v>358</v>
       </c>
       <c r="AB111" s="160" t="s">
         <v>358</v>
       </c>
-      <c r="AC111" s="256"/>
-      <c r="AD111" s="216"/>
+      <c r="AC111" s="253"/>
+      <c r="AD111" s="213"/>
     </row>
     <row r="112" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="309"/>
+      <c r="A112" s="325"/>
       <c r="B112" s="54"/>
       <c r="C112" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D112" s="331"/>
+      <c r="D112" s="347"/>
       <c r="E112" s="121"/>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -14252,7 +14329,7 @@
       <c r="Q112" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R112" s="136" t="s">
+      <c r="R112" s="308" t="s">
         <v>357</v>
       </c>
       <c r="S112" s="163" t="s">
@@ -14279,22 +14356,22 @@
       <c r="Z112" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="AA112" s="271" t="s">
+      <c r="AA112" s="268" t="s">
         <v>357</v>
       </c>
       <c r="AB112" s="158" t="s">
         <v>357</v>
       </c>
-      <c r="AC112" s="256"/>
-      <c r="AD112" s="224"/>
+      <c r="AC112" s="253"/>
+      <c r="AD112" s="221"/>
     </row>
     <row r="113" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="309"/>
+      <c r="A113" s="325"/>
       <c r="B113" s="54"/>
       <c r="C113" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D113" s="331"/>
+      <c r="D113" s="347"/>
       <c r="E113" s="121"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -14324,7 +14401,7 @@
       <c r="Q113" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="R113" s="136" t="s">
+      <c r="R113" s="308" t="s">
         <v>357</v>
       </c>
       <c r="S113" s="163" t="s">
@@ -14351,22 +14428,22 @@
       <c r="Z113" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="AA113" s="271" t="s">
+      <c r="AA113" s="268" t="s">
         <v>357</v>
       </c>
       <c r="AB113" s="160" t="s">
         <v>357</v>
       </c>
-      <c r="AC113" s="256"/>
-      <c r="AD113" s="216"/>
+      <c r="AC113" s="253"/>
+      <c r="AD113" s="213"/>
     </row>
     <row r="114" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="309"/>
+      <c r="A114" s="325"/>
       <c r="B114" s="54"/>
       <c r="C114" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D114" s="331"/>
+      <c r="D114" s="347"/>
       <c r="E114" s="121"/>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -14396,7 +14473,7 @@
       <c r="Q114" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R114" s="136" t="s">
+      <c r="R114" s="308" t="s">
         <v>357</v>
       </c>
       <c r="S114" s="163" t="s">
@@ -14423,22 +14500,22 @@
       <c r="Z114" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="AA114" s="271" t="s">
+      <c r="AA114" s="268" t="s">
         <v>364</v>
       </c>
       <c r="AB114" s="160" t="s">
         <v>364</v>
       </c>
-      <c r="AC114" s="256"/>
-      <c r="AD114" s="224"/>
+      <c r="AC114" s="253"/>
+      <c r="AD114" s="221"/>
     </row>
     <row r="115" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="309"/>
+      <c r="A115" s="325"/>
       <c r="B115" s="54"/>
       <c r="C115" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="331"/>
+      <c r="D115" s="347"/>
       <c r="E115" s="121"/>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -14468,7 +14545,7 @@
       <c r="Q115" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R115" s="136" t="s">
+      <c r="R115" s="308" t="s">
         <v>357</v>
       </c>
       <c r="S115" s="163" t="s">
@@ -14495,22 +14572,22 @@
       <c r="Z115" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="AA115" s="271" t="s">
+      <c r="AA115" s="268" t="s">
         <v>357</v>
       </c>
-      <c r="AB115" s="304" t="s">
+      <c r="AB115" s="301" t="s">
         <v>365</v>
       </c>
-      <c r="AC115" s="256"/>
-      <c r="AD115" s="216"/>
+      <c r="AC115" s="253"/>
+      <c r="AD115" s="213"/>
     </row>
     <row r="116" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="309"/>
+      <c r="A116" s="325"/>
       <c r="B116" s="54"/>
       <c r="C116" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D116" s="331"/>
+      <c r="D116" s="347"/>
       <c r="E116" s="121"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -14540,7 +14617,7 @@
       <c r="Q116" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="R116" s="136" t="s">
+      <c r="R116" s="308" t="s">
         <v>357</v>
       </c>
       <c r="S116" s="163" t="s">
@@ -14573,16 +14650,16 @@
       <c r="AB116" s="156" t="s">
         <v>361</v>
       </c>
-      <c r="AC116" s="250"/>
-      <c r="AD116" s="216"/>
+      <c r="AC116" s="247"/>
+      <c r="AD116" s="213"/>
     </row>
     <row r="117" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="309"/>
+      <c r="A117" s="325"/>
       <c r="B117" s="54"/>
       <c r="C117" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="331"/>
+      <c r="D117" s="347"/>
       <c r="E117" s="121"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -14612,7 +14689,7 @@
       <c r="Q117" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="R117" s="136" t="s">
+      <c r="R117" s="308" t="s">
         <v>173</v>
       </c>
       <c r="S117" s="163" t="s">
@@ -14645,18 +14722,18 @@
       <c r="AB117" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC117" s="250"/>
-      <c r="AD117" s="216" t="s">
+      <c r="AC117" s="247"/>
+      <c r="AD117" s="213" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="309"/>
+      <c r="A118" s="325"/>
       <c r="B118" s="54"/>
       <c r="C118" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D118" s="331"/>
+      <c r="D118" s="347"/>
       <c r="E118" s="121"/>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -14686,7 +14763,7 @@
       <c r="Q118" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="R118" s="136" t="s">
+      <c r="R118" s="308" t="s">
         <v>173</v>
       </c>
       <c r="S118" s="163" t="s">
@@ -14719,18 +14796,18 @@
       <c r="AB118" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC118" s="250"/>
-      <c r="AD118" s="216" t="s">
+      <c r="AC118" s="247"/>
+      <c r="AD118" s="213" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="309"/>
+      <c r="A119" s="325"/>
       <c r="B119" s="54"/>
       <c r="C119" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D119" s="331"/>
+      <c r="D119" s="347"/>
       <c r="E119" s="121"/>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -14760,7 +14837,7 @@
       <c r="Q119" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="R119" s="136" t="s">
+      <c r="R119" s="308" t="s">
         <v>61</v>
       </c>
       <c r="S119" s="163" t="s">
@@ -14793,16 +14870,16 @@
       <c r="AB119" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="AC119" s="250"/>
-      <c r="AD119" s="216"/>
+      <c r="AC119" s="247"/>
+      <c r="AD119" s="213"/>
     </row>
     <row r="120" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="309"/>
+      <c r="A120" s="325"/>
       <c r="B120" s="54"/>
       <c r="C120" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D120" s="331"/>
+      <c r="D120" s="347"/>
       <c r="E120" s="121"/>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -14832,7 +14909,7 @@
       <c r="Q120" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="R120" s="136" t="s">
+      <c r="R120" s="308" t="s">
         <v>61</v>
       </c>
       <c r="S120" s="163" t="s">
@@ -14865,16 +14942,16 @@
       <c r="AB120" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="AC120" s="250"/>
-      <c r="AD120" s="216"/>
+      <c r="AC120" s="247"/>
+      <c r="AD120" s="213"/>
     </row>
     <row r="121" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="309"/>
+      <c r="A121" s="325"/>
       <c r="B121" s="54"/>
       <c r="C121" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D121" s="331"/>
+      <c r="D121" s="347"/>
       <c r="E121" s="121"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -14904,7 +14981,7 @@
       <c r="Q121" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="R121" s="136" t="s">
+      <c r="R121" s="308" t="s">
         <v>174</v>
       </c>
       <c r="S121" s="163" t="s">
@@ -14937,18 +15014,18 @@
       <c r="AB121" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="AC121" s="250"/>
-      <c r="AD121" s="216" t="s">
+      <c r="AC121" s="247"/>
+      <c r="AD121" s="213" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="309"/>
+      <c r="A122" s="325"/>
       <c r="B122" s="54"/>
       <c r="C122" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D122" s="331"/>
+      <c r="D122" s="347"/>
       <c r="E122" s="121"/>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -14978,7 +15055,7 @@
       <c r="Q122" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="R122" s="136" t="s">
+      <c r="R122" s="308" t="s">
         <v>173</v>
       </c>
       <c r="S122" s="163" t="s">
@@ -15011,18 +15088,18 @@
       <c r="AB122" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC122" s="250"/>
-      <c r="AD122" s="216" t="s">
+      <c r="AC122" s="247"/>
+      <c r="AD122" s="213" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="309"/>
+      <c r="A123" s="325"/>
       <c r="B123" s="54"/>
       <c r="C123" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D123" s="331"/>
+      <c r="D123" s="347"/>
       <c r="E123" s="121"/>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -15052,7 +15129,7 @@
       <c r="Q123" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="R123" s="136" t="s">
+      <c r="R123" s="308" t="s">
         <v>173</v>
       </c>
       <c r="S123" s="163" t="s">
@@ -15085,18 +15162,18 @@
       <c r="AB123" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="AC123" s="250"/>
-      <c r="AD123" s="216" t="s">
+      <c r="AC123" s="247"/>
+      <c r="AD123" s="213" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="309"/>
+      <c r="A124" s="325"/>
       <c r="B124" s="54"/>
       <c r="C124" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D124" s="331"/>
+      <c r="D124" s="347"/>
       <c r="E124" s="121"/>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -15110,7 +15187,7 @@
       <c r="O124" s="36"/>
       <c r="P124" s="36"/>
       <c r="Q124" s="36"/>
-      <c r="R124" s="165"/>
+      <c r="R124" s="311"/>
       <c r="S124" s="164"/>
       <c r="T124" s="36"/>
       <c r="U124" s="36"/>
@@ -15135,16 +15212,16 @@
       <c r="AB124" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="AC124" s="250"/>
-      <c r="AD124" s="216"/>
+      <c r="AC124" s="247"/>
+      <c r="AD124" s="213"/>
     </row>
     <row r="125" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="309"/>
+      <c r="A125" s="325"/>
       <c r="B125" s="54"/>
       <c r="C125" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="331"/>
+      <c r="D125" s="347"/>
       <c r="E125" s="121"/>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -15158,7 +15235,7 @@
       <c r="O125" s="36"/>
       <c r="P125" s="36"/>
       <c r="Q125" s="36"/>
-      <c r="R125" s="165"/>
+      <c r="R125" s="311"/>
       <c r="S125" s="164"/>
       <c r="T125" s="36"/>
       <c r="U125" s="36"/>
@@ -15183,16 +15260,16 @@
       <c r="AB125" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="AC125" s="250"/>
-      <c r="AD125" s="216"/>
+      <c r="AC125" s="247"/>
+      <c r="AD125" s="213"/>
     </row>
     <row r="126" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="309"/>
+      <c r="A126" s="325"/>
       <c r="B126" s="54"/>
       <c r="C126" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D126" s="331"/>
+      <c r="D126" s="347"/>
       <c r="E126" s="121"/>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -15206,7 +15283,7 @@
       <c r="O126" s="36"/>
       <c r="P126" s="36"/>
       <c r="Q126" s="36"/>
-      <c r="R126" s="165"/>
+      <c r="R126" s="311"/>
       <c r="S126" s="164"/>
       <c r="T126" s="36"/>
       <c r="U126" s="36"/>
@@ -15231,16 +15308,16 @@
       <c r="AB126" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="AC126" s="250"/>
-      <c r="AD126" s="216"/>
+      <c r="AC126" s="247"/>
+      <c r="AD126" s="213"/>
     </row>
     <row r="127" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="309"/>
+      <c r="A127" s="325"/>
       <c r="B127" s="54"/>
       <c r="C127" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D127" s="331"/>
+      <c r="D127" s="347"/>
       <c r="E127" s="121"/>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -15254,7 +15331,7 @@
       <c r="O127" s="36"/>
       <c r="P127" s="36"/>
       <c r="Q127" s="36"/>
-      <c r="R127" s="165"/>
+      <c r="R127" s="311"/>
       <c r="S127" s="164"/>
       <c r="T127" s="36"/>
       <c r="U127" s="36"/>
@@ -15279,16 +15356,16 @@
       <c r="AB127" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="AC127" s="250"/>
-      <c r="AD127" s="216"/>
+      <c r="AC127" s="247"/>
+      <c r="AD127" s="213"/>
     </row>
     <row r="128" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="309"/>
+      <c r="A128" s="325"/>
       <c r="B128" s="54"/>
       <c r="C128" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D128" s="331"/>
+      <c r="D128" s="347"/>
       <c r="E128" s="121"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -15302,7 +15379,7 @@
       <c r="O128" s="36"/>
       <c r="P128" s="36"/>
       <c r="Q128" s="36"/>
-      <c r="R128" s="165"/>
+      <c r="R128" s="311"/>
       <c r="S128" s="164"/>
       <c r="T128" s="36"/>
       <c r="U128" s="36"/>
@@ -15327,16 +15404,16 @@
       <c r="AB128" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="AC128" s="250"/>
-      <c r="AD128" s="216"/>
+      <c r="AC128" s="247"/>
+      <c r="AD128" s="213"/>
     </row>
     <row r="129" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="309"/>
+      <c r="A129" s="325"/>
       <c r="B129" s="54"/>
       <c r="C129" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D129" s="331"/>
+      <c r="D129" s="347"/>
       <c r="E129" s="121"/>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -15350,7 +15427,7 @@
       <c r="O129" s="36"/>
       <c r="P129" s="36"/>
       <c r="Q129" s="36"/>
-      <c r="R129" s="165"/>
+      <c r="R129" s="311"/>
       <c r="S129" s="164"/>
       <c r="T129" s="36"/>
       <c r="U129" s="36"/>
@@ -15375,16 +15452,16 @@
       <c r="AB129" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="AC129" s="250"/>
-      <c r="AD129" s="216"/>
+      <c r="AC129" s="247"/>
+      <c r="AD129" s="213"/>
     </row>
     <row r="130" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="309"/>
+      <c r="A130" s="325"/>
       <c r="B130" s="54"/>
       <c r="C130" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D130" s="331"/>
+      <c r="D130" s="347"/>
       <c r="E130" s="121"/>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -15398,7 +15475,7 @@
       <c r="O130" s="36"/>
       <c r="P130" s="36"/>
       <c r="Q130" s="36"/>
-      <c r="R130" s="165"/>
+      <c r="R130" s="311"/>
       <c r="S130" s="164"/>
       <c r="T130" s="36"/>
       <c r="U130" s="36"/>
@@ -15423,16 +15500,16 @@
       <c r="AB130" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="AC130" s="250"/>
-      <c r="AD130" s="216"/>
+      <c r="AC130" s="247"/>
+      <c r="AD130" s="213"/>
     </row>
     <row r="131" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="309"/>
+      <c r="A131" s="325"/>
       <c r="B131" s="54"/>
       <c r="C131" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D131" s="331"/>
+      <c r="D131" s="347"/>
       <c r="E131" s="121"/>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -15446,7 +15523,7 @@
       <c r="O131" s="36"/>
       <c r="P131" s="36"/>
       <c r="Q131" s="36"/>
-      <c r="R131" s="165"/>
+      <c r="R131" s="311"/>
       <c r="S131" s="164"/>
       <c r="T131" s="36"/>
       <c r="U131" s="36"/>
@@ -15471,16 +15548,16 @@
       <c r="AB131" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="AC131" s="250"/>
-      <c r="AD131" s="216"/>
+      <c r="AC131" s="247"/>
+      <c r="AD131" s="213"/>
     </row>
     <row r="132" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="309"/>
+      <c r="A132" s="325"/>
       <c r="B132" s="54"/>
       <c r="C132" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D132" s="331"/>
+      <c r="D132" s="347"/>
       <c r="E132" s="121"/>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -15494,7 +15571,7 @@
       <c r="O132" s="36"/>
       <c r="P132" s="36"/>
       <c r="Q132" s="36"/>
-      <c r="R132" s="165"/>
+      <c r="R132" s="311"/>
       <c r="S132" s="164"/>
       <c r="T132" s="36"/>
       <c r="U132" s="36"/>
@@ -15519,16 +15596,16 @@
       <c r="AB132" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="AC132" s="250"/>
-      <c r="AD132" s="216"/>
+      <c r="AC132" s="247"/>
+      <c r="AD132" s="213"/>
     </row>
     <row r="133" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="309"/>
+      <c r="A133" s="325"/>
       <c r="B133" s="54"/>
       <c r="C133" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D133" s="331"/>
+      <c r="D133" s="347"/>
       <c r="E133" s="121"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -15542,7 +15619,7 @@
       <c r="O133" s="36"/>
       <c r="P133" s="36"/>
       <c r="Q133" s="36"/>
-      <c r="R133" s="165"/>
+      <c r="R133" s="311"/>
       <c r="S133" s="164"/>
       <c r="T133" s="36"/>
       <c r="U133" s="36"/>
@@ -15567,16 +15644,16 @@
       <c r="AB133" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="AC133" s="250"/>
-      <c r="AD133" s="216"/>
+      <c r="AC133" s="247"/>
+      <c r="AD133" s="213"/>
     </row>
     <row r="134" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="309"/>
+      <c r="A134" s="325"/>
       <c r="B134" s="54"/>
       <c r="C134" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D134" s="331"/>
+      <c r="D134" s="347"/>
       <c r="E134" s="121"/>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -15590,7 +15667,7 @@
       <c r="O134" s="36"/>
       <c r="P134" s="36"/>
       <c r="Q134" s="36"/>
-      <c r="R134" s="165"/>
+      <c r="R134" s="311"/>
       <c r="S134" s="164"/>
       <c r="T134" s="36"/>
       <c r="U134" s="36"/>
@@ -15615,16 +15692,16 @@
       <c r="AB134" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="AC134" s="250"/>
-      <c r="AD134" s="216"/>
+      <c r="AC134" s="247"/>
+      <c r="AD134" s="213"/>
     </row>
     <row r="135" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="309"/>
+      <c r="A135" s="325"/>
       <c r="B135" s="54"/>
       <c r="C135" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D135" s="331"/>
+      <c r="D135" s="347"/>
       <c r="E135" s="121"/>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -15640,7 +15717,7 @@
       <c r="Q135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R135" s="136" t="s">
+      <c r="R135" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S135" s="163" t="s">
@@ -15673,18 +15750,18 @@
       <c r="AB135" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC135" s="250"/>
-      <c r="AD135" s="216" t="s">
+      <c r="AC135" s="247"/>
+      <c r="AD135" s="213" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="309"/>
+      <c r="A136" s="325"/>
       <c r="B136" s="54"/>
       <c r="C136" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D136" s="331"/>
+      <c r="D136" s="347"/>
       <c r="E136" s="121"/>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -15714,7 +15791,7 @@
       <c r="Q136" s="13">
         <v>12</v>
       </c>
-      <c r="R136" s="136">
+      <c r="R136" s="308">
         <v>12</v>
       </c>
       <c r="S136" s="163">
@@ -15747,16 +15824,16 @@
       <c r="AB136" s="136">
         <v>12</v>
       </c>
-      <c r="AC136" s="250"/>
-      <c r="AD136" s="216"/>
+      <c r="AC136" s="247"/>
+      <c r="AD136" s="213"/>
     </row>
     <row r="137" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="309"/>
+      <c r="A137" s="325"/>
       <c r="B137" s="54"/>
       <c r="C137" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D137" s="331"/>
+      <c r="D137" s="347"/>
       <c r="E137" s="140"/>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -15770,7 +15847,7 @@
       <c r="O137" s="36"/>
       <c r="P137" s="36"/>
       <c r="Q137" s="36"/>
-      <c r="R137" s="165"/>
+      <c r="R137" s="311"/>
       <c r="S137" s="164"/>
       <c r="T137" s="36"/>
       <c r="U137" s="36"/>
@@ -15781,22 +15858,22 @@
       <c r="Z137" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA137" s="272" t="s">
+      <c r="AA137" s="269" t="s">
         <v>10</v>
       </c>
       <c r="AB137" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC137" s="250"/>
-      <c r="AD137" s="216"/>
+      <c r="AC137" s="247"/>
+      <c r="AD137" s="213"/>
     </row>
     <row r="138" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="309"/>
+      <c r="A138" s="325"/>
       <c r="B138" s="54"/>
       <c r="C138" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D138" s="331"/>
+      <c r="D138" s="347"/>
       <c r="E138" s="140"/>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -15826,7 +15903,7 @@
       <c r="Q138" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R138" s="136" t="s">
+      <c r="R138" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S138" s="163" t="s">
@@ -15859,16 +15936,16 @@
       <c r="AB138" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC138" s="250"/>
-      <c r="AD138" s="216"/>
+      <c r="AC138" s="247"/>
+      <c r="AD138" s="213"/>
     </row>
     <row r="139" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="309"/>
+      <c r="A139" s="325"/>
       <c r="B139" s="54"/>
       <c r="C139" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D139" s="331"/>
+      <c r="D139" s="347"/>
       <c r="E139" s="140"/>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -15898,7 +15975,7 @@
       <c r="Q139" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R139" s="136" t="s">
+      <c r="R139" s="308" t="s">
         <v>202</v>
       </c>
       <c r="S139" s="163" t="s">
@@ -15931,16 +16008,16 @@
       <c r="AB139" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="AC139" s="250"/>
-      <c r="AD139" s="216"/>
+      <c r="AC139" s="247"/>
+      <c r="AD139" s="213"/>
     </row>
     <row r="140" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="309"/>
+      <c r="A140" s="325"/>
       <c r="B140" s="54"/>
       <c r="C140" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D140" s="331"/>
+      <c r="D140" s="347"/>
       <c r="E140" s="140"/>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -15970,7 +16047,7 @@
       <c r="Q140" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R140" s="136" t="s">
+      <c r="R140" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S140" s="163" t="s">
@@ -16003,18 +16080,18 @@
       <c r="AB140" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="AC140" s="250"/>
-      <c r="AD140" s="216" t="s">
+      <c r="AC140" s="247"/>
+      <c r="AD140" s="213" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="309"/>
+      <c r="A141" s="325"/>
       <c r="B141" s="54"/>
       <c r="C141" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D141" s="331"/>
+      <c r="D141" s="347"/>
       <c r="E141" s="140"/>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -16044,7 +16121,7 @@
       <c r="Q141" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="R141" s="136" t="s">
+      <c r="R141" s="308" t="s">
         <v>193</v>
       </c>
       <c r="S141" s="163" t="s">
@@ -16077,16 +16154,16 @@
       <c r="AB141" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="AC141" s="250"/>
-      <c r="AD141" s="216"/>
+      <c r="AC141" s="247"/>
+      <c r="AD141" s="213"/>
     </row>
     <row r="142" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="309"/>
+      <c r="A142" s="325"/>
       <c r="B142" s="54"/>
       <c r="C142" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D142" s="331"/>
+      <c r="D142" s="347"/>
       <c r="E142" s="140"/>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -16100,7 +16177,7 @@
       <c r="O142" s="36"/>
       <c r="P142" s="36"/>
       <c r="Q142" s="36"/>
-      <c r="R142" s="165"/>
+      <c r="R142" s="311"/>
       <c r="S142" s="164"/>
       <c r="T142" s="36"/>
       <c r="U142" s="21" t="s">
@@ -16127,16 +16204,16 @@
       <c r="AB142" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="AC142" s="250"/>
-      <c r="AD142" s="216"/>
+      <c r="AC142" s="247"/>
+      <c r="AD142" s="213"/>
     </row>
     <row r="143" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="309"/>
+      <c r="A143" s="325"/>
       <c r="B143" s="54"/>
       <c r="C143" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D143" s="331"/>
+      <c r="D143" s="347"/>
       <c r="E143" s="140"/>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -16166,7 +16243,7 @@
       <c r="Q143" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R143" s="136" t="s">
+      <c r="R143" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S143" s="163" t="s">
@@ -16199,16 +16276,16 @@
       <c r="AB143" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC143" s="250"/>
-      <c r="AD143" s="216"/>
+      <c r="AC143" s="247"/>
+      <c r="AD143" s="213"/>
     </row>
     <row r="144" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="309"/>
+      <c r="A144" s="325"/>
       <c r="B144" s="54"/>
       <c r="C144" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D144" s="331"/>
+      <c r="D144" s="347"/>
       <c r="E144" s="140"/>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -16226,7 +16303,7 @@
       <c r="M144" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="N144" s="198" t="s">
+      <c r="N144" s="195" t="s">
         <v>73</v>
       </c>
       <c r="O144" s="16" t="s">
@@ -16238,7 +16315,7 @@
       <c r="Q144" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="R144" s="136" t="s">
+      <c r="R144" s="308" t="s">
         <v>74</v>
       </c>
       <c r="S144" s="163" t="s">
@@ -16271,16 +16348,16 @@
       <c r="AB144" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="AC144" s="250"/>
-      <c r="AD144" s="216"/>
+      <c r="AC144" s="247"/>
+      <c r="AD144" s="213"/>
     </row>
     <row r="145" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="309"/>
+      <c r="A145" s="325"/>
       <c r="B145" s="75"/>
       <c r="C145" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="D145" s="331"/>
+      <c r="D145" s="347"/>
       <c r="E145" s="125"/>
       <c r="F145" s="81"/>
       <c r="G145" s="81"/>
@@ -16294,14 +16371,14 @@
       <c r="O145" s="78"/>
       <c r="P145" s="78"/>
       <c r="Q145" s="78"/>
-      <c r="R145" s="167"/>
+      <c r="R145" s="312"/>
       <c r="S145" s="166"/>
       <c r="T145" s="78"/>
       <c r="U145" s="78"/>
-      <c r="V145" s="199" t="s">
-        <v>10</v>
-      </c>
-      <c r="W145" s="189" t="s">
+      <c r="V145" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="W145" s="188" t="s">
         <v>10</v>
       </c>
       <c r="X145" s="79" t="s">
@@ -16313,24 +16390,24 @@
       <c r="Z145" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA145" s="268" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB145" s="199" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC145" s="252"/>
-      <c r="AD145" s="218"/>
+      <c r="AA145" s="265" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB145" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC145" s="249"/>
+      <c r="AD145" s="215"/>
     </row>
     <row r="146" spans="1:30" ht="39.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="309"/>
+      <c r="A146" s="325"/>
       <c r="B146" s="98" t="s">
         <v>79</v>
       </c>
       <c r="C146" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D146" s="331"/>
+      <c r="D146" s="347"/>
       <c r="E146" s="141"/>
       <c r="F146" s="99"/>
       <c r="G146" s="99"/>
@@ -16360,10 +16437,10 @@
       <c r="Q146" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R146" s="194" t="s">
-        <v>10</v>
-      </c>
-      <c r="S146" s="213" t="s">
+      <c r="R146" s="307" t="s">
+        <v>10</v>
+      </c>
+      <c r="S146" s="210" t="s">
         <v>10</v>
       </c>
       <c r="T146" s="53" t="s">
@@ -16372,10 +16449,10 @@
       <c r="U146" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="V146" s="214" t="s">
-        <v>10</v>
-      </c>
-      <c r="W146" s="188" t="s">
+      <c r="V146" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="W146" s="187" t="s">
         <v>10</v>
       </c>
       <c r="X146" s="101" t="s">
@@ -16387,24 +16464,24 @@
       <c r="Z146" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="AA146" s="275" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB146" s="214" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC146" s="261"/>
+      <c r="AA146" s="272" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB146" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC146" s="258"/>
       <c r="AD146" s="74" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="26" x14ac:dyDescent="0.35">
-      <c r="A147" s="309"/>
+      <c r="A147" s="325"/>
       <c r="B147" s="54"/>
       <c r="C147" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D147" s="331"/>
+      <c r="D147" s="347"/>
       <c r="E147" s="140"/>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -16434,7 +16511,7 @@
       <c r="Q147" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R147" s="136" t="s">
+      <c r="R147" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S147" s="163" t="s">
@@ -16467,18 +16544,18 @@
       <c r="AB147" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC147" s="250"/>
-      <c r="AD147" s="216" t="s">
+      <c r="AC147" s="247"/>
+      <c r="AD147" s="213" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="309"/>
+      <c r="A148" s="325"/>
       <c r="B148" s="54"/>
       <c r="C148" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="331"/>
+      <c r="D148" s="347"/>
       <c r="E148" s="140"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -16508,7 +16585,7 @@
       <c r="Q148" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R148" s="136" t="s">
+      <c r="R148" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S148" s="163" t="s">
@@ -16541,16 +16618,16 @@
       <c r="AB148" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC148" s="250"/>
-      <c r="AD148" s="216"/>
+      <c r="AC148" s="247"/>
+      <c r="AD148" s="213"/>
     </row>
     <row r="149" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="309"/>
+      <c r="A149" s="325"/>
       <c r="B149" s="54"/>
       <c r="C149" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D149" s="331"/>
+      <c r="D149" s="347"/>
       <c r="E149" s="140"/>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -16580,7 +16657,7 @@
       <c r="Q149" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R149" s="136" t="s">
+      <c r="R149" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S149" s="163" t="s">
@@ -16613,16 +16690,16 @@
       <c r="AB149" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC149" s="250"/>
-      <c r="AD149" s="216"/>
+      <c r="AC149" s="247"/>
+      <c r="AD149" s="213"/>
     </row>
     <row r="150" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="309"/>
+      <c r="A150" s="325"/>
       <c r="B150" s="54"/>
       <c r="C150" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D150" s="331"/>
+      <c r="D150" s="347"/>
       <c r="E150" s="140"/>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -16652,7 +16729,7 @@
       <c r="Q150" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R150" s="136" t="s">
+      <c r="R150" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S150" s="163" t="s">
@@ -16685,16 +16762,16 @@
       <c r="AB150" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC150" s="250"/>
-      <c r="AD150" s="216"/>
+      <c r="AC150" s="247"/>
+      <c r="AD150" s="213"/>
     </row>
     <row r="151" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="309"/>
+      <c r="A151" s="325"/>
       <c r="B151" s="54"/>
       <c r="C151" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D151" s="331"/>
+      <c r="D151" s="347"/>
       <c r="E151" s="140"/>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -16724,7 +16801,7 @@
       <c r="Q151" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R151" s="136" t="s">
+      <c r="R151" s="308" t="s">
         <v>19</v>
       </c>
       <c r="S151" s="163" t="s">
@@ -16757,16 +16834,16 @@
       <c r="AB151" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC151" s="250"/>
-      <c r="AD151" s="216"/>
+      <c r="AC151" s="247"/>
+      <c r="AD151" s="213"/>
     </row>
     <row r="152" spans="1:30" ht="52" x14ac:dyDescent="0.35">
-      <c r="A152" s="309"/>
+      <c r="A152" s="325"/>
       <c r="B152" s="54"/>
       <c r="C152" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D152" s="331"/>
+      <c r="D152" s="347"/>
       <c r="E152" s="140"/>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -16796,7 +16873,7 @@
       <c r="Q152" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R152" s="136" t="s">
+      <c r="R152" s="308" t="s">
         <v>45</v>
       </c>
       <c r="S152" s="163" t="s">
@@ -16829,18 +16906,18 @@
       <c r="AB152" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC152" s="250"/>
-      <c r="AD152" s="216" t="s">
+      <c r="AC152" s="247"/>
+      <c r="AD152" s="213" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:30" ht="39" x14ac:dyDescent="0.35">
-      <c r="A153" s="309"/>
+      <c r="A153" s="325"/>
       <c r="B153" s="54"/>
       <c r="C153" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D153" s="331"/>
+      <c r="D153" s="347"/>
       <c r="E153" s="140"/>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -16870,7 +16947,7 @@
       <c r="Q153" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="R153" s="160" t="s">
+      <c r="R153" s="310" t="s">
         <v>129</v>
       </c>
       <c r="S153" s="163" t="s">
@@ -16903,16 +16980,16 @@
       <c r="AB153" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="AC153" s="250"/>
-      <c r="AD153" s="224"/>
+      <c r="AC153" s="247"/>
+      <c r="AD153" s="221"/>
     </row>
     <row r="154" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="309"/>
+      <c r="A154" s="325"/>
       <c r="B154" s="54"/>
       <c r="C154" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D154" s="331"/>
+      <c r="D154" s="347"/>
       <c r="E154" s="140"/>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -16942,7 +17019,7 @@
       <c r="Q154" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R154" s="160" t="s">
+      <c r="R154" s="310" t="s">
         <v>45</v>
       </c>
       <c r="S154" s="163" t="s">
@@ -16969,22 +17046,22 @@
       <c r="Z154" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA154" s="271" t="s">
+      <c r="AA154" s="268" t="s">
         <v>45</v>
       </c>
       <c r="AB154" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="AC154" s="256"/>
-      <c r="AD154" s="224"/>
+      <c r="AC154" s="253"/>
+      <c r="AD154" s="221"/>
     </row>
     <row r="155" spans="1:30" ht="39" x14ac:dyDescent="0.35">
-      <c r="A155" s="309"/>
+      <c r="A155" s="325"/>
       <c r="B155" s="54"/>
       <c r="C155" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D155" s="331"/>
+      <c r="D155" s="347"/>
       <c r="E155" s="140"/>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -17014,7 +17091,7 @@
       <c r="Q155" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="R155" s="136" t="s">
+      <c r="R155" s="308" t="s">
         <v>92</v>
       </c>
       <c r="S155" s="163" t="s">
@@ -17047,18 +17124,18 @@
       <c r="AB155" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="AC155" s="250"/>
-      <c r="AD155" s="224" t="s">
+      <c r="AC155" s="247"/>
+      <c r="AD155" s="221" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="26" x14ac:dyDescent="0.35">
-      <c r="A156" s="309"/>
+      <c r="A156" s="325"/>
       <c r="B156" s="54"/>
       <c r="C156" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D156" s="331"/>
+      <c r="D156" s="347"/>
       <c r="E156" s="140"/>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -17088,7 +17165,7 @@
       <c r="Q156" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R156" s="136" t="s">
+      <c r="R156" s="308" t="s">
         <v>55</v>
       </c>
       <c r="S156" s="163" t="s">
@@ -17121,18 +17198,18 @@
       <c r="AB156" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC156" s="250"/>
-      <c r="AD156" s="224" t="s">
+      <c r="AC156" s="247"/>
+      <c r="AD156" s="221" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="309"/>
+      <c r="A157" s="325"/>
       <c r="B157" s="54"/>
       <c r="C157" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D157" s="331"/>
+      <c r="D157" s="347"/>
       <c r="E157" s="140"/>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -17162,7 +17239,7 @@
       <c r="Q157" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R157" s="136" t="s">
+      <c r="R157" s="308" t="s">
         <v>10</v>
       </c>
       <c r="S157" s="163" t="s">
@@ -17195,16 +17272,16 @@
       <c r="AB157" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AC157" s="250"/>
-      <c r="AD157" s="216"/>
+      <c r="AC157" s="247"/>
+      <c r="AD157" s="213"/>
     </row>
     <row r="158" spans="1:30" ht="39" x14ac:dyDescent="0.35">
-      <c r="A158" s="309"/>
+      <c r="A158" s="325"/>
       <c r="B158" s="54"/>
       <c r="C158" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D158" s="331"/>
+      <c r="D158" s="347"/>
       <c r="E158" s="140"/>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -17234,7 +17311,7 @@
       <c r="Q158" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R158" s="136" t="s">
+      <c r="R158" s="308" t="s">
         <v>97</v>
       </c>
       <c r="S158" s="163" t="s">
@@ -17267,18 +17344,18 @@
       <c r="AB158" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="AC158" s="250"/>
-      <c r="AD158" s="216" t="s">
+      <c r="AC158" s="247"/>
+      <c r="AD158" s="213" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:30" ht="52" x14ac:dyDescent="0.35">
-      <c r="A159" s="309"/>
+      <c r="A159" s="325"/>
       <c r="B159" s="54"/>
       <c r="C159" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="331"/>
+      <c r="D159" s="347"/>
       <c r="E159" s="140"/>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -17308,7 +17385,7 @@
       <c r="Q159" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="R159" s="136" t="s">
+      <c r="R159" s="308" t="s">
         <v>99</v>
       </c>
       <c r="S159" s="163" t="s">
@@ -17341,16 +17418,16 @@
       <c r="AB159" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="AC159" s="250"/>
-      <c r="AD159" s="216"/>
+      <c r="AC159" s="247"/>
+      <c r="AD159" s="213"/>
     </row>
     <row r="160" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="309"/>
+      <c r="A160" s="325"/>
       <c r="B160" s="75"/>
       <c r="C160" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D160" s="331"/>
+      <c r="D160" s="347"/>
       <c r="E160" s="125"/>
       <c r="F160" s="81"/>
       <c r="G160" s="81"/>
@@ -17366,10 +17443,10 @@
       <c r="Q160" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="R160" s="199" t="s">
-        <v>10</v>
-      </c>
-      <c r="S160" s="215" t="s">
+      <c r="R160" s="318" t="s">
+        <v>10</v>
+      </c>
+      <c r="S160" s="212" t="s">
         <v>19</v>
       </c>
       <c r="T160" s="79" t="s">
@@ -17378,10 +17455,10 @@
       <c r="U160" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="V160" s="199" t="s">
-        <v>19</v>
-      </c>
-      <c r="W160" s="189" t="s">
+      <c r="V160" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="W160" s="188" t="s">
         <v>19</v>
       </c>
       <c r="X160" s="79" t="s">
@@ -17393,24 +17470,24 @@
       <c r="Z160" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AA160" s="268" t="s">
+      <c r="AA160" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="AB160" s="199" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC160" s="252"/>
-      <c r="AD160" s="218"/>
+      <c r="AB160" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC160" s="249"/>
+      <c r="AD160" s="215"/>
     </row>
     <row r="161" spans="1:30" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="309"/>
+      <c r="A161" s="325"/>
       <c r="B161" s="63" t="s">
         <v>140</v>
       </c>
       <c r="C161" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D161" s="331"/>
+      <c r="D161" s="347"/>
       <c r="E161" s="142"/>
       <c r="F161" s="65"/>
       <c r="G161" s="65"/>
@@ -17440,7 +17517,7 @@
       <c r="Q161" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="R161" s="200" t="s">
+      <c r="R161" s="319" t="s">
         <v>19</v>
       </c>
       <c r="S161" s="153" t="s">
@@ -17452,7 +17529,7 @@
       <c r="U161" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="V161" s="200" t="s">
+      <c r="V161" s="197" t="s">
         <v>10</v>
       </c>
       <c r="W161" s="104" t="s">
@@ -17467,22 +17544,22 @@
       <c r="Z161" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AA161" s="276" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB161" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC161" s="262"/>
-      <c r="AD161" s="225"/>
+      <c r="AA161" s="273" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB161" s="191" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC161" s="259"/>
+      <c r="AD161" s="222"/>
     </row>
     <row r="162" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="309"/>
+      <c r="A162" s="325"/>
       <c r="B162" s="67"/>
       <c r="C162" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D162" s="331"/>
+      <c r="D162" s="347"/>
       <c r="E162" s="144"/>
       <c r="F162" s="39"/>
       <c r="G162" s="39"/>
@@ -17497,7 +17574,7 @@
       <c r="L162" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M162" s="238" t="s">
+      <c r="M162" s="235" t="s">
         <v>10</v>
       </c>
       <c r="N162" s="155" t="s">
@@ -17512,7 +17589,7 @@
       <c r="Q162" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R162" s="156" t="s">
+      <c r="R162" s="309" t="s">
         <v>143</v>
       </c>
       <c r="S162" s="155" t="s">
@@ -17539,22 +17616,22 @@
       <c r="Z162" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="AA162" s="267" t="s">
+      <c r="AA162" s="264" t="s">
         <v>143</v>
       </c>
       <c r="AB162" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC162" s="251"/>
-      <c r="AD162" s="226"/>
+      <c r="AC162" s="248"/>
+      <c r="AD162" s="223"/>
     </row>
     <row r="163" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="309"/>
+      <c r="A163" s="325"/>
       <c r="B163" s="67"/>
       <c r="C163" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D163" s="331"/>
+      <c r="D163" s="347"/>
       <c r="E163" s="144"/>
       <c r="F163" s="39"/>
       <c r="G163" s="39"/>
@@ -17584,7 +17661,7 @@
       <c r="Q163" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="R163" s="156" t="s">
+      <c r="R163" s="309" t="s">
         <v>147</v>
       </c>
       <c r="S163" s="155" t="s">
@@ -17611,24 +17688,24 @@
       <c r="Z163" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AA163" s="267" t="s">
+      <c r="AA163" s="264" t="s">
         <v>146</v>
       </c>
       <c r="AB163" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC163" s="251"/>
-      <c r="AD163" s="226" t="s">
+      <c r="AC163" s="248"/>
+      <c r="AD163" s="223" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="309"/>
+      <c r="A164" s="325"/>
       <c r="B164" s="67"/>
       <c r="C164" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D164" s="331"/>
+      <c r="D164" s="347"/>
       <c r="E164" s="144"/>
       <c r="F164" s="39"/>
       <c r="G164" s="39"/>
@@ -17643,7 +17720,7 @@
       <c r="L164" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M164" s="238" t="s">
+      <c r="M164" s="235" t="s">
         <v>19</v>
       </c>
       <c r="N164" s="155" t="s">
@@ -17658,7 +17735,7 @@
       <c r="Q164" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R164" s="156" t="s">
+      <c r="R164" s="309" t="s">
         <v>19</v>
       </c>
       <c r="S164" s="155" t="s">
@@ -17685,22 +17762,22 @@
       <c r="Z164" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AA164" s="267" t="s">
+      <c r="AA164" s="264" t="s">
         <v>19</v>
       </c>
       <c r="AB164" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC164" s="251"/>
-      <c r="AD164" s="226"/>
+      <c r="AC164" s="248"/>
+      <c r="AD164" s="223"/>
     </row>
     <row r="165" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="309"/>
+      <c r="A165" s="325"/>
       <c r="B165" s="67"/>
       <c r="C165" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D165" s="331"/>
+      <c r="D165" s="347"/>
       <c r="E165" s="144"/>
       <c r="F165" s="39"/>
       <c r="G165" s="39"/>
@@ -17715,7 +17792,7 @@
       <c r="L165" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M165" s="238" t="s">
+      <c r="M165" s="235" t="s">
         <v>19</v>
       </c>
       <c r="N165" s="155" t="s">
@@ -17730,7 +17807,7 @@
       <c r="Q165" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R165" s="156" t="s">
+      <c r="R165" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S165" s="155" t="s">
@@ -17757,22 +17834,22 @@
       <c r="Z165" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA165" s="267" t="s">
+      <c r="AA165" s="264" t="s">
         <v>10</v>
       </c>
       <c r="AB165" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC165" s="251"/>
-      <c r="AD165" s="226"/>
+      <c r="AC165" s="248"/>
+      <c r="AD165" s="223"/>
     </row>
     <row r="166" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="309"/>
+      <c r="A166" s="325"/>
       <c r="B166" s="67"/>
       <c r="C166" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D166" s="331"/>
+      <c r="D166" s="347"/>
       <c r="E166" s="144"/>
       <c r="F166" s="39"/>
       <c r="G166" s="39"/>
@@ -17787,7 +17864,7 @@
       <c r="L166" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M166" s="238" t="s">
+      <c r="M166" s="235" t="s">
         <v>10</v>
       </c>
       <c r="N166" s="155" t="s">
@@ -17802,7 +17879,7 @@
       <c r="Q166" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R166" s="156" t="s">
+      <c r="R166" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S166" s="155" t="s">
@@ -17829,24 +17906,24 @@
       <c r="Z166" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AA166" s="267" t="s">
+      <c r="AA166" s="264" t="s">
         <v>45</v>
       </c>
       <c r="AB166" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC166" s="251"/>
-      <c r="AD166" s="226" t="s">
+      <c r="AC166" s="248"/>
+      <c r="AD166" s="223" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="309"/>
+      <c r="A167" s="325"/>
       <c r="B167" s="67"/>
       <c r="C167" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D167" s="331"/>
+      <c r="D167" s="347"/>
       <c r="E167" s="144"/>
       <c r="F167" s="39"/>
       <c r="G167" s="39"/>
@@ -17861,7 +17938,7 @@
       <c r="L167" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M167" s="238" t="s">
+      <c r="M167" s="235" t="s">
         <v>10</v>
       </c>
       <c r="N167" s="155" t="s">
@@ -17876,7 +17953,7 @@
       <c r="Q167" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R167" s="156" t="s">
+      <c r="R167" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S167" s="155" t="s">
@@ -17903,22 +17980,22 @@
       <c r="Z167" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA167" s="267" t="s">
+      <c r="AA167" s="264" t="s">
         <v>10</v>
       </c>
       <c r="AB167" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC167" s="251"/>
-      <c r="AD167" s="226"/>
+      <c r="AC167" s="248"/>
+      <c r="AD167" s="223"/>
     </row>
     <row r="168" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="309"/>
+      <c r="A168" s="325"/>
       <c r="B168" s="67"/>
       <c r="C168" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D168" s="331"/>
+      <c r="D168" s="347"/>
       <c r="E168" s="144"/>
       <c r="F168" s="39"/>
       <c r="G168" s="39"/>
@@ -17933,7 +18010,7 @@
       <c r="L168" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M168" s="238" t="s">
+      <c r="M168" s="235" t="s">
         <v>10</v>
       </c>
       <c r="N168" s="155" t="s">
@@ -17948,7 +18025,7 @@
       <c r="Q168" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R168" s="156" t="s">
+      <c r="R168" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S168" s="155" t="s">
@@ -17975,22 +18052,22 @@
       <c r="Z168" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA168" s="267" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB168" s="232" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC168" s="251"/>
-      <c r="AD168" s="226"/>
+      <c r="AA168" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB168" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC168" s="248"/>
+      <c r="AD168" s="223"/>
     </row>
     <row r="169" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="309"/>
+      <c r="A169" s="325"/>
       <c r="B169" s="67"/>
       <c r="C169" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D169" s="331"/>
+      <c r="D169" s="347"/>
       <c r="E169" s="144"/>
       <c r="F169" s="39"/>
       <c r="G169" s="39"/>
@@ -18005,7 +18082,7 @@
       <c r="L169" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="M169" s="238" t="s">
+      <c r="M169" s="235" t="s">
         <v>214</v>
       </c>
       <c r="N169" s="155" t="s">
@@ -18020,7 +18097,7 @@
       <c r="Q169" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="R169" s="187" t="s">
+      <c r="R169" s="320" t="s">
         <v>214</v>
       </c>
       <c r="S169" s="155" t="s">
@@ -18047,22 +18124,22 @@
       <c r="Z169" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="AA169" s="267" t="s">
+      <c r="AA169" s="264" t="s">
         <v>319</v>
       </c>
       <c r="AB169" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC169" s="251"/>
-      <c r="AD169" s="226"/>
+      <c r="AC169" s="248"/>
+      <c r="AD169" s="223"/>
     </row>
     <row r="170" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="309"/>
+      <c r="A170" s="325"/>
       <c r="B170" s="67"/>
       <c r="C170" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D170" s="331"/>
+      <c r="D170" s="347"/>
       <c r="E170" s="144"/>
       <c r="F170" s="39"/>
       <c r="G170" s="39"/>
@@ -18077,7 +18154,7 @@
       <c r="L170" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M170" s="238" t="s">
+      <c r="M170" s="235" t="s">
         <v>19</v>
       </c>
       <c r="N170" s="155" t="s">
@@ -18092,7 +18169,7 @@
       <c r="Q170" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R170" s="156" t="s">
+      <c r="R170" s="309" t="s">
         <v>19</v>
       </c>
       <c r="S170" s="155" t="s">
@@ -18119,24 +18196,24 @@
       <c r="Z170" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA170" s="267" t="s">
+      <c r="AA170" s="264" t="s">
         <v>45</v>
       </c>
-      <c r="AB170" s="232" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC170" s="251"/>
-      <c r="AD170" s="227" t="s">
+      <c r="AB170" s="229" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC170" s="248"/>
+      <c r="AD170" s="224" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="309"/>
+      <c r="A171" s="325"/>
       <c r="B171" s="67"/>
       <c r="C171" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D171" s="331"/>
+      <c r="D171" s="347"/>
       <c r="E171" s="144"/>
       <c r="F171" s="39"/>
       <c r="G171" s="39"/>
@@ -18151,7 +18228,7 @@
       <c r="L171" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M171" s="238" t="s">
+      <c r="M171" s="235" t="s">
         <v>10</v>
       </c>
       <c r="N171" s="155" t="s">
@@ -18166,7 +18243,7 @@
       <c r="Q171" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R171" s="156" t="s">
+      <c r="R171" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S171" s="155" t="s">
@@ -18193,22 +18270,22 @@
       <c r="Z171" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA171" s="267" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB171" s="232" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC171" s="251"/>
-      <c r="AD171" s="226"/>
+      <c r="AA171" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB171" s="229" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC171" s="248"/>
+      <c r="AD171" s="223"/>
     </row>
     <row r="172" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="309"/>
+      <c r="A172" s="325"/>
       <c r="B172" s="67"/>
       <c r="C172" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="331"/>
+      <c r="D172" s="347"/>
       <c r="E172" s="144"/>
       <c r="F172" s="39"/>
       <c r="G172" s="39"/>
@@ -18223,7 +18300,7 @@
       <c r="L172" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M172" s="238" t="s">
+      <c r="M172" s="235" t="s">
         <v>10</v>
       </c>
       <c r="N172" s="155" t="s">
@@ -18238,7 +18315,7 @@
       <c r="Q172" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R172" s="156" t="s">
+      <c r="R172" s="309" t="s">
         <v>10</v>
       </c>
       <c r="S172" s="155" t="s">
@@ -18265,28 +18342,28 @@
       <c r="Z172" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AA172" s="267" t="s">
+      <c r="AA172" s="264" t="s">
         <v>10</v>
       </c>
       <c r="AB172" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AC172" s="251"/>
-      <c r="AD172" s="226"/>
+      <c r="AC172" s="248"/>
+      <c r="AD172" s="223"/>
     </row>
     <row r="173" spans="1:30" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="309"/>
+      <c r="A173" s="325"/>
       <c r="B173" s="68"/>
       <c r="C173" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D173" s="332"/>
+      <c r="D173" s="348"/>
       <c r="E173" s="146"/>
       <c r="F173" s="70"/>
       <c r="G173" s="70"/>
       <c r="H173" s="70"/>
       <c r="I173" s="147"/>
-      <c r="J173" s="201" t="s">
+      <c r="J173" s="198" t="s">
         <v>143</v>
       </c>
       <c r="K173" s="71" t="s">
@@ -18295,10 +18372,10 @@
       <c r="L173" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="M173" s="239" t="s">
-        <v>19</v>
-      </c>
-      <c r="N173" s="201" t="s">
+      <c r="M173" s="236" t="s">
+        <v>19</v>
+      </c>
+      <c r="N173" s="198" t="s">
         <v>143</v>
       </c>
       <c r="O173" s="72" t="s">
@@ -18310,10 +18387,10 @@
       <c r="Q173" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="R173" s="202" t="s">
-        <v>19</v>
-      </c>
-      <c r="S173" s="201" t="s">
+      <c r="R173" s="321" t="s">
+        <v>19</v>
+      </c>
+      <c r="S173" s="198" t="s">
         <v>143</v>
       </c>
       <c r="T173" s="73" t="s">
@@ -18322,7 +18399,7 @@
       <c r="U173" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="V173" s="202" t="s">
+      <c r="V173" s="199" t="s">
         <v>143</v>
       </c>
       <c r="W173" s="148" t="s">
@@ -18337,14 +18414,14 @@
       <c r="Z173" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="AA173" s="277" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB173" s="285" t="s">
+      <c r="AA173" s="274" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB173" s="282" t="s">
         <v>143</v>
       </c>
-      <c r="AC173" s="263"/>
-      <c r="AD173" s="228"/>
+      <c r="AC173" s="260"/>
+      <c r="AD173" s="225"/>
     </row>
     <row r="174" spans="1:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -3284,7 +3284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="384">
   <si>
     <t>Feature</t>
   </si>
@@ -4723,6 +4723,13 @@
   </si>
   <si>
     <t>- Removed PMT from CE MCC per Praveen's f/b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my record was </t>
+  </si>
+  <si>
+    <t>- Fix LMB ME/IE LMT freq - should be 358, not 342
+- Updated EBG ME/IE LMT to be 3.7 to match version number used by LMT team</t>
   </si>
 </sst>
 </file>
@@ -7314,7 +7321,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7775,11 +7782,19 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="233"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+    <row r="34" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" s="233">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9">
+        <v>43087</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="233"/>
@@ -7841,10 +7856,10 @@
   <dimension ref="A1:AD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="T30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8401,7 +8416,9 @@
       <c r="AA13" s="362"/>
       <c r="AB13" s="362"/>
       <c r="AC13" s="363"/>
-      <c r="AD13" s="291"/>
+      <c r="AD13" s="291" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="14" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="325"/>
@@ -9243,7 +9260,7 @@
       <c r="Q36" s="53">
         <v>3.5</v>
       </c>
-      <c r="R36" s="307">
+      <c r="R36" s="191">
         <v>3.5</v>
       </c>
       <c r="S36" s="168">
@@ -9268,10 +9285,10 @@
         <v>3.6</v>
       </c>
       <c r="Z36" s="53">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA36" s="263">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB36" s="197">
         <v>3.6</v>
@@ -9315,7 +9332,7 @@
       <c r="Q37" s="13">
         <v>1.38</v>
       </c>
-      <c r="R37" s="308">
+      <c r="R37" s="13">
         <v>1.38</v>
       </c>
       <c r="S37" s="163">
@@ -9364,13 +9381,13 @@
       <c r="H38" s="37"/>
       <c r="I38" s="122"/>
       <c r="J38" s="157">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="K38" s="20">
         <v>342</v>
       </c>
       <c r="L38" s="20">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="M38" s="158">
         <v>342</v>
@@ -9387,7 +9404,7 @@
       <c r="Q38" s="13">
         <v>342</v>
       </c>
-      <c r="R38" s="308">
+      <c r="R38" s="13">
         <v>342</v>
       </c>
       <c r="S38" s="155">

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -359,6 +359,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+12/19/16:
+IE has 3 targeted 2xclk frequency now due to change in DUNIT POR
+• 369Mhz when running with LP4 disable
+• 400Mhz when running with LP4 enabled in 1.05V
+• 300Mhz when running with LP4 enabled in 0.75V
 </t>
         </r>
       </text>
@@ -3284,7 +3289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="385">
   <si>
     <t>Feature</t>
   </si>
@@ -4425,9 +4430,6 @@
     <t>CPU Freqeuncy Mhz (ROSC)</t>
   </si>
   <si>
-    <t>363/400</t>
-  </si>
-  <si>
     <t>Unified</t>
   </si>
   <si>
@@ -4730,6 +4732,12 @@
   <si>
     <t>- Fix LMB ME/IE LMT freq - should be 358, not 342
 - Updated EBG ME/IE LMT to be 3.7 to match version number used by LMT team</t>
+  </si>
+  <si>
+    <t>369/300/400</t>
+  </si>
+  <si>
+    <t>- Updated EBG IE freq to 369/300/400Mhz</t>
   </si>
 </sst>
 </file>
@@ -7321,7 +7329,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7336,7 +7344,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="232" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>134</v>
@@ -7653,7 +7661,7 @@
         <v>137</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -7667,7 +7675,7 @@
         <v>137</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7681,7 +7689,7 @@
         <v>137</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -7695,7 +7703,7 @@
         <v>137</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -7709,7 +7717,7 @@
         <v>137</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -7723,7 +7731,7 @@
         <v>137</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -7737,7 +7745,7 @@
         <v>137</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
@@ -7751,7 +7759,7 @@
         <v>137</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7765,7 +7773,7 @@
         <v>137</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
@@ -7779,7 +7787,7 @@
         <v>137</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7793,14 +7801,22 @@
         <v>137</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="233"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="233">
+        <v>33</v>
+      </c>
+      <c r="C35" s="9">
+        <v>43088</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="233"/>
@@ -7856,10 +7872,10 @@
   <dimension ref="A1:AD174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="T30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="T32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA37" sqref="AA37"/>
+      <selection pane="bottomRight" activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7872,7 +7888,9 @@
     <col min="10" max="13" width="9.7265625" style="28" customWidth="1"/>
     <col min="14" max="17" width="9.7265625" style="17" customWidth="1"/>
     <col min="18" max="18" width="9.7265625" style="304" customWidth="1"/>
-    <col min="19" max="29" width="9.7265625" style="17" customWidth="1"/>
+    <col min="19" max="26" width="9.7265625" style="17" customWidth="1"/>
+    <col min="27" max="27" width="10.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.7265625" style="17" customWidth="1"/>
     <col min="30" max="30" width="32.90625" style="1" customWidth="1"/>
     <col min="31" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -7880,13 +7898,13 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="243"/>
       <c r="C1" s="244" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="243"/>
       <c r="C2" s="300" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -7905,15 +7923,15 @@
       <c r="H3" s="336"/>
       <c r="I3" s="337"/>
       <c r="J3" s="338" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="339"/>
       <c r="L3" s="340" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M3" s="341"/>
       <c r="N3" s="344" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O3" s="342"/>
       <c r="P3" s="345"/>
@@ -7937,7 +7955,7 @@
         <v>230</v>
       </c>
       <c r="X3" s="91" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y3" s="91" t="s">
         <v>298</v>
@@ -7947,10 +7965,10 @@
       </c>
       <c r="AA3" s="334"/>
       <c r="AB3" s="275" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC3" s="277" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AD3" s="322" t="s">
         <v>6</v>
@@ -7996,7 +8014,7 @@
         <v>139</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="23" t="s">
         <v>3</v>
@@ -8020,7 +8038,7 @@
         <v>105</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y4" s="34" t="s">
         <v>294</v>
@@ -8032,10 +8050,10 @@
         <v>106</v>
       </c>
       <c r="AB4" s="226" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC4" s="278" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AD4" s="323"/>
     </row>
@@ -8045,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="299" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" s="298" t="s">
         <v>36</v>
@@ -8093,10 +8111,10 @@
         <v>2</v>
       </c>
       <c r="T5" s="95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U5" s="95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V5" s="207" t="s">
         <v>2</v>
@@ -8108,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z5" s="97" t="s">
         <v>2</v>
@@ -8117,7 +8135,7 @@
         <v>4</v>
       </c>
       <c r="AB5" s="227" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC5" s="279" t="s">
         <v>2</v>
@@ -8127,7 +8145,7 @@
     <row r="6" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="325"/>
       <c r="B6" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -8136,14 +8154,14 @@
         <v>10</v>
       </c>
       <c r="E6" s="349" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F6" s="350"/>
       <c r="G6" s="350"/>
       <c r="H6" s="350"/>
       <c r="I6" s="351"/>
       <c r="J6" s="358" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K6" s="359"/>
       <c r="L6" s="359"/>
@@ -8278,7 +8296,7 @@
       <c r="A10" s="325"/>
       <c r="B10" s="54"/>
       <c r="C10" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="293" t="s">
         <v>10</v>
@@ -8417,7 +8435,7 @@
       <c r="AB13" s="362"/>
       <c r="AC13" s="363"/>
       <c r="AD13" s="291" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8609,7 +8627,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="284" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E19" s="352"/>
       <c r="F19" s="353"/>
@@ -8718,7 +8736,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D22" s="284" t="s">
         <v>10</v>
@@ -8754,7 +8772,7 @@
       <c r="A23" s="325"/>
       <c r="B23" s="54"/>
       <c r="C23" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D23" s="284" t="s">
         <v>10</v>
@@ -8862,7 +8880,7 @@
       <c r="A26" s="325"/>
       <c r="B26" s="54"/>
       <c r="C26" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" s="284" t="s">
         <v>67</v>
@@ -9223,13 +9241,13 @@
     <row r="36" spans="1:30" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A36" s="325"/>
       <c r="B36" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="346" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E36" s="119"/>
       <c r="F36" s="50"/>
@@ -9429,10 +9447,10 @@
         <v>384</v>
       </c>
       <c r="Z38" s="13">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AA38" s="43" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="AB38" s="156">
         <v>384</v>
@@ -9588,7 +9606,7 @@
       <c r="A41" s="325"/>
       <c r="B41" s="54"/>
       <c r="C41" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D41" s="347"/>
       <c r="E41" s="121"/>
@@ -9597,61 +9615,61 @@
       <c r="H41" s="37"/>
       <c r="I41" s="122"/>
       <c r="J41" s="155" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="M41" s="156" t="s">
+        <v>305</v>
+      </c>
+      <c r="N41" s="163" t="s">
         <v>306</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="O41" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="P41" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="M41" s="156" t="s">
+      <c r="Q41" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="N41" s="163" t="s">
-        <v>307</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="R41" s="308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S41" s="163" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V41" s="136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W41" s="109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X41" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y41" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA41" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB41" s="136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC41" s="247"/>
       <c r="AD41" s="213"/>
@@ -9799,49 +9817,49 @@
         <v>19</v>
       </c>
       <c r="N44" s="163" t="s">
+        <v>308</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="R44" s="308" t="s">
+        <v>308</v>
+      </c>
+      <c r="S44" s="163" t="s">
+        <v>308</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V44" s="136" t="s">
+        <v>308</v>
+      </c>
+      <c r="W44" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z44" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA44" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="O44" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="R44" s="308" t="s">
-        <v>309</v>
-      </c>
-      <c r="S44" s="163" t="s">
-        <v>309</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V44" s="136" t="s">
-        <v>309</v>
-      </c>
-      <c r="W44" s="109" t="s">
-        <v>309</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y44" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA44" s="43" t="s">
-        <v>310</v>
-      </c>
       <c r="AB44" s="136" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC44" s="247"/>
       <c r="AD44" s="213"/>
@@ -9973,7 +9991,7 @@
       </c>
       <c r="AC46" s="248"/>
       <c r="AD46" s="213" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10186,7 +10204,7 @@
       <c r="A51" s="325"/>
       <c r="B51" s="54"/>
       <c r="C51" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D51" s="347"/>
       <c r="E51" s="121"/>
@@ -10323,7 +10341,7 @@
         <v>31</v>
       </c>
       <c r="AB53" s="303" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AC53" s="246"/>
       <c r="AD53" s="74" t="s">
@@ -10343,61 +10361,61 @@
       <c r="H54" s="37"/>
       <c r="I54" s="122"/>
       <c r="J54" s="155" t="s">
+        <v>345</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="M54" s="158" t="s">
+        <v>345</v>
+      </c>
+      <c r="N54" s="163" t="s">
+        <v>347</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="R54" s="308" t="s">
+        <v>345</v>
+      </c>
+      <c r="S54" s="163" t="s">
+        <v>345</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="U54" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="V54" s="136" t="s">
         <v>346</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="W54" s="105" t="s">
+        <v>344</v>
+      </c>
+      <c r="X54" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y54" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z54" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="L54" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="M54" s="158" t="s">
-        <v>346</v>
-      </c>
-      <c r="N54" s="163" t="s">
-        <v>348</v>
-      </c>
-      <c r="O54" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q54" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="R54" s="308" t="s">
-        <v>346</v>
-      </c>
-      <c r="S54" s="163" t="s">
-        <v>346</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="V54" s="136" t="s">
-        <v>347</v>
-      </c>
-      <c r="W54" s="105" t="s">
+      <c r="AA54" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="X54" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y54" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z54" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA54" s="43" t="s">
-        <v>346</v>
-      </c>
       <c r="AB54" s="136" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AC54" s="247"/>
       <c r="AD54" s="213" t="s">
@@ -10453,10 +10471,10 @@
     <row r="56" spans="1:30" s="45" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="325"/>
       <c r="B56" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="83" t="s">
         <v>316</v>
-      </c>
-      <c r="C56" s="83" t="s">
-        <v>317</v>
       </c>
       <c r="D56" s="347"/>
       <c r="E56" s="126"/>
@@ -12440,7 +12458,7 @@
       <c r="A84" s="325"/>
       <c r="B84" s="54"/>
       <c r="C84" s="237" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D84" s="347"/>
       <c r="E84" s="133"/>
@@ -12544,22 +12562,22 @@
         <v>262</v>
       </c>
       <c r="W85" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="X85" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y85" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="X85" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y85" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="Z85" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA85" s="264" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AB85" s="156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AC85" s="248"/>
       <c r="AD85" s="213"/>
@@ -12920,7 +12938,7 @@
       <c r="A92" s="325"/>
       <c r="B92" s="56"/>
       <c r="C92" s="87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D92" s="347"/>
       <c r="E92" s="138" t="s">
@@ -13158,7 +13176,7 @@
       <c r="A95" s="325"/>
       <c r="B95" s="55"/>
       <c r="C95" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D95" s="347"/>
       <c r="E95" s="130"/>
@@ -13862,7 +13880,7 @@
       <c r="A105" s="325"/>
       <c r="B105" s="54"/>
       <c r="C105" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D105" s="347"/>
       <c r="E105" s="121"/>
@@ -14098,7 +14116,7 @@
       <c r="A109" s="325"/>
       <c r="B109" s="54"/>
       <c r="C109" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D109" s="347"/>
       <c r="E109" s="121"/>
@@ -14107,61 +14125,61 @@
       <c r="H109" s="37"/>
       <c r="I109" s="122"/>
       <c r="J109" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L109" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M109" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N109" s="163" t="s">
+        <v>354</v>
+      </c>
+      <c r="O109" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="P109" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q109" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="R109" s="308" t="s">
+        <v>356</v>
+      </c>
+      <c r="S109" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T109" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="U109" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="V109" s="136" t="s">
+        <v>354</v>
+      </c>
+      <c r="W109" s="107" t="s">
+        <v>354</v>
+      </c>
+      <c r="X109" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y109" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z109" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA109" s="268" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB109" s="160" t="s">
         <v>355</v>
-      </c>
-      <c r="O109" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="P109" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q109" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="R109" s="308" t="s">
-        <v>357</v>
-      </c>
-      <c r="S109" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="T109" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="U109" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="V109" s="136" t="s">
-        <v>355</v>
-      </c>
-      <c r="W109" s="107" t="s">
-        <v>355</v>
-      </c>
-      <c r="X109" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y109" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z109" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA109" s="268" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB109" s="160" t="s">
-        <v>356</v>
       </c>
       <c r="AC109" s="253"/>
       <c r="AD109" s="221"/>
@@ -14170,7 +14188,7 @@
       <c r="A110" s="325"/>
       <c r="B110" s="54"/>
       <c r="C110" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D110" s="347"/>
       <c r="E110" s="121"/>
@@ -14191,13 +14209,13 @@
         <v>2</v>
       </c>
       <c r="N110" s="163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P110" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q110" s="13" t="s">
         <v>4</v>
@@ -14206,25 +14224,25 @@
         <v>2</v>
       </c>
       <c r="S110" s="163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T110" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U110" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V110" s="136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W110" s="107" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X110" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y110" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z110" s="19" t="s">
         <v>4</v>
@@ -14233,7 +14251,7 @@
         <v>2</v>
       </c>
       <c r="AB110" s="160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC110" s="253"/>
       <c r="AD110" s="213"/>
@@ -14242,7 +14260,7 @@
       <c r="A111" s="325"/>
       <c r="B111" s="54"/>
       <c r="C111" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D111" s="347"/>
       <c r="E111" s="121"/>
@@ -14251,61 +14269,61 @@
       <c r="H111" s="37"/>
       <c r="I111" s="122"/>
       <c r="J111" s="155" t="s">
+        <v>356</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="M111" s="158" t="s">
+        <v>356</v>
+      </c>
+      <c r="N111" s="163" t="s">
         <v>357</v>
       </c>
-      <c r="K111" s="16" t="s">
+      <c r="O111" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="P111" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="M111" s="158" t="s">
+      <c r="Q111" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="N111" s="163" t="s">
-        <v>358</v>
-      </c>
-      <c r="O111" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="P111" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q111" s="13" t="s">
-        <v>358</v>
-      </c>
       <c r="R111" s="308" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S111" s="163" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U111" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V111" s="136" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W111" s="107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X111" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y111" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z111" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA111" s="268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB111" s="160" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC111" s="253"/>
       <c r="AD111" s="213"/>
@@ -14314,7 +14332,7 @@
       <c r="A112" s="325"/>
       <c r="B112" s="54"/>
       <c r="C112" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D112" s="347"/>
       <c r="E112" s="121"/>
@@ -14323,61 +14341,61 @@
       <c r="H112" s="37"/>
       <c r="I112" s="122"/>
       <c r="J112" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L112" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M112" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N112" s="163" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P112" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R112" s="308" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S112" s="163" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U112" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V112" s="136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W112" s="107" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X112" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y112" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z112" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA112" s="268" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB112" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC112" s="253"/>
       <c r="AD112" s="221"/>
@@ -14386,7 +14404,7 @@
       <c r="A113" s="325"/>
       <c r="B113" s="54"/>
       <c r="C113" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D113" s="347"/>
       <c r="E113" s="121"/>
@@ -14395,61 +14413,61 @@
       <c r="H113" s="37"/>
       <c r="I113" s="122"/>
       <c r="J113" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L113" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M113" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N113" s="163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q113" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R113" s="308" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S113" s="163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V113" s="136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W113" s="107" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X113" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y113" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z113" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA113" s="268" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB113" s="160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC113" s="253"/>
       <c r="AD113" s="213"/>
@@ -14458,7 +14476,7 @@
       <c r="A114" s="325"/>
       <c r="B114" s="54"/>
       <c r="C114" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D114" s="347"/>
       <c r="E114" s="121"/>
@@ -14467,61 +14485,61 @@
       <c r="H114" s="37"/>
       <c r="I114" s="122"/>
       <c r="J114" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L114" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M114" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N114" s="163" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q114" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R114" s="308" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S114" s="163" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U114" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V114" s="136" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W114" s="107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X114" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y114" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Z114" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA114" s="268" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AB114" s="160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC114" s="253"/>
       <c r="AD114" s="221"/>
@@ -14530,7 +14548,7 @@
       <c r="A115" s="325"/>
       <c r="B115" s="54"/>
       <c r="C115" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D115" s="347"/>
       <c r="E115" s="121"/>
@@ -14539,61 +14557,61 @@
       <c r="H115" s="37"/>
       <c r="I115" s="122"/>
       <c r="J115" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L115" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M115" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N115" s="163" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O115" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P115" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q115" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R115" s="308" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S115" s="163" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T115" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U115" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V115" s="136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W115" s="107" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X115" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y115" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z115" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA115" s="268" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB115" s="301" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC115" s="253"/>
       <c r="AD115" s="213"/>
@@ -14602,7 +14620,7 @@
       <c r="A116" s="325"/>
       <c r="B116" s="54"/>
       <c r="C116" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D116" s="347"/>
       <c r="E116" s="121"/>
@@ -14611,61 +14629,61 @@
       <c r="H116" s="37"/>
       <c r="I116" s="122"/>
       <c r="J116" s="155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L116" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M116" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N116" s="163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P116" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q116" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R116" s="308" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S116" s="163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T116" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U116" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V116" s="136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W116" s="109" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X116" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y116" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z116" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA116" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB116" s="156" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC116" s="247"/>
       <c r="AD116" s="213"/>
@@ -16032,7 +16050,7 @@
       <c r="A140" s="325"/>
       <c r="B140" s="54"/>
       <c r="C140" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D140" s="347"/>
       <c r="E140" s="140"/>
@@ -17697,7 +17715,7 @@
         <v>147</v>
       </c>
       <c r="X163" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y163" s="15" t="s">
         <v>19</v>
@@ -17931,7 +17949,7 @@
       </c>
       <c r="AC166" s="248"/>
       <c r="AD166" s="223" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18142,7 +18160,7 @@
         <v>156</v>
       </c>
       <c r="AA169" s="264" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB169" s="136" t="s">
         <v>19</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -3313,7 +3313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="394">
   <si>
     <t>Feature</t>
   </si>
@@ -4777,6 +4777,40 @@
   </si>
   <si>
     <t>- Added KMB OCS Column and 3 new OCS features (AXI i/f, load SKS from external ports, per algo disable from external ports.</t>
+  </si>
+  <si>
+    <t>- Filled up KMB OCS column</t>
+  </si>
+  <si>
+    <t>Yes </t>
+  </si>
+  <si>
+    <t>No </t>
+  </si>
+  <si>
+    <r>
+      <t> Yes (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2/14/6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6916,6 +6950,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7041,21 +7090,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7369,11 +7403,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7382,7 +7416,7 @@
     <col min="2" max="2" width="9.54296875" style="223" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" style="25" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="77.36328125" style="371" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.36328125" style="329" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
@@ -7877,10 +7911,18 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="222"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="222">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9">
+        <v>43102</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="222"/>
@@ -7923,11 +7965,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="S62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7960,38 +8002,38 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
+      <c r="B3" s="342" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="333" t="s">
+      <c r="C3" s="338" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="334"/>
-      <c r="E3" s="368" t="s">
+      <c r="D3" s="339"/>
+      <c r="E3" s="373" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="370"/>
-      <c r="K3" s="342" t="s">
+      <c r="F3" s="374"/>
+      <c r="G3" s="374"/>
+      <c r="H3" s="374"/>
+      <c r="I3" s="374"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="347" t="s">
         <v>323</v>
       </c>
-      <c r="L3" s="343"/>
-      <c r="M3" s="344" t="s">
+      <c r="L3" s="348"/>
+      <c r="M3" s="349" t="s">
         <v>324</v>
       </c>
-      <c r="N3" s="345"/>
-      <c r="O3" s="348" t="s">
+      <c r="N3" s="350"/>
+      <c r="O3" s="353" t="s">
         <v>325</v>
       </c>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="349"/>
-      <c r="R3" s="346" t="s">
+      <c r="P3" s="351"/>
+      <c r="Q3" s="354"/>
+      <c r="R3" s="351" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="347"/>
+      <c r="S3" s="352"/>
       <c r="T3" s="191" t="s">
         <v>102</v>
       </c>
@@ -8013,26 +8055,26 @@
       <c r="Z3" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="345" t="s">
         <v>231</v>
       </c>
-      <c r="AB3" s="341"/>
+      <c r="AB3" s="346"/>
       <c r="AC3" s="263" t="s">
         <v>339</v>
       </c>
       <c r="AD3" s="265" t="s">
         <v>342</v>
       </c>
-      <c r="AE3" s="329" t="s">
+      <c r="AE3" s="334" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="338"/>
-      <c r="C4" s="335" t="s">
+      <c r="B4" s="343"/>
+      <c r="C4" s="340" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="336"/>
+      <c r="D4" s="341"/>
       <c r="E4" s="285" t="s">
         <v>239</v>
       </c>
@@ -8111,10 +8153,10 @@
       <c r="AD4" s="266" t="s">
         <v>343</v>
       </c>
-      <c r="AE4" s="330"/>
+      <c r="AE4" s="335"/>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="339"/>
+      <c r="B5" s="344"/>
       <c r="C5" s="271" t="s">
         <v>0</v>
       </c>
@@ -8199,10 +8241,10 @@
       <c r="AD5" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="AE5" s="331"/>
+      <c r="AE5" s="336"/>
     </row>
     <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="332"/>
+      <c r="A6" s="337"/>
       <c r="B6" s="53" t="s">
         <v>320</v>
       </c>
@@ -8212,40 +8254,40 @@
       <c r="D6" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="353" t="s">
+      <c r="E6" s="358" t="s">
         <v>367</v>
       </c>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354"/>
-      <c r="H6" s="354"/>
-      <c r="I6" s="354"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
       <c r="J6" s="316"/>
-      <c r="K6" s="359" t="s">
+      <c r="K6" s="364" t="s">
         <v>369</v>
       </c>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
-      <c r="T6" s="360"/>
-      <c r="U6" s="360"/>
-      <c r="V6" s="360"/>
-      <c r="W6" s="360"/>
-      <c r="X6" s="360"/>
-      <c r="Y6" s="360"/>
-      <c r="Z6" s="360"/>
-      <c r="AA6" s="360"/>
-      <c r="AB6" s="360"/>
-      <c r="AC6" s="360"/>
-      <c r="AD6" s="361"/>
+      <c r="L6" s="365"/>
+      <c r="M6" s="365"/>
+      <c r="N6" s="365"/>
+      <c r="O6" s="365"/>
+      <c r="P6" s="365"/>
+      <c r="Q6" s="365"/>
+      <c r="R6" s="365"/>
+      <c r="S6" s="365"/>
+      <c r="T6" s="365"/>
+      <c r="U6" s="365"/>
+      <c r="V6" s="365"/>
+      <c r="W6" s="365"/>
+      <c r="X6" s="365"/>
+      <c r="Y6" s="365"/>
+      <c r="Z6" s="365"/>
+      <c r="AA6" s="365"/>
+      <c r="AB6" s="365"/>
+      <c r="AC6" s="365"/>
+      <c r="AD6" s="366"/>
       <c r="AE6" s="278"/>
     </row>
     <row r="7" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="332"/>
+      <c r="A7" s="337"/>
       <c r="B7" s="53"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -8253,36 +8295,36 @@
       <c r="D7" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="356"/>
-      <c r="H7" s="356"/>
-      <c r="I7" s="356"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
+      <c r="I7" s="361"/>
       <c r="J7" s="317"/>
-      <c r="K7" s="362"/>
-      <c r="L7" s="363"/>
-      <c r="M7" s="363"/>
-      <c r="N7" s="363"/>
-      <c r="O7" s="363"/>
-      <c r="P7" s="363"/>
-      <c r="Q7" s="363"/>
-      <c r="R7" s="363"/>
-      <c r="S7" s="363"/>
-      <c r="T7" s="363"/>
-      <c r="U7" s="363"/>
-      <c r="V7" s="363"/>
-      <c r="W7" s="363"/>
-      <c r="X7" s="363"/>
-      <c r="Y7" s="363"/>
-      <c r="Z7" s="363"/>
-      <c r="AA7" s="363"/>
-      <c r="AB7" s="363"/>
-      <c r="AC7" s="363"/>
-      <c r="AD7" s="364"/>
+      <c r="K7" s="367"/>
+      <c r="L7" s="368"/>
+      <c r="M7" s="368"/>
+      <c r="N7" s="368"/>
+      <c r="O7" s="368"/>
+      <c r="P7" s="368"/>
+      <c r="Q7" s="368"/>
+      <c r="R7" s="368"/>
+      <c r="S7" s="368"/>
+      <c r="T7" s="368"/>
+      <c r="U7" s="368"/>
+      <c r="V7" s="368"/>
+      <c r="W7" s="368"/>
+      <c r="X7" s="368"/>
+      <c r="Y7" s="368"/>
+      <c r="Z7" s="368"/>
+      <c r="AA7" s="368"/>
+      <c r="AB7" s="368"/>
+      <c r="AC7" s="368"/>
+      <c r="AD7" s="369"/>
       <c r="AE7" s="279"/>
     </row>
     <row r="8" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="332"/>
+      <c r="A8" s="337"/>
       <c r="B8" s="53"/>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -8290,36 +8332,36 @@
       <c r="D8" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="355"/>
-      <c r="F8" s="356"/>
-      <c r="G8" s="356"/>
-      <c r="H8" s="356"/>
-      <c r="I8" s="356"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="361"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="361"/>
       <c r="J8" s="317"/>
-      <c r="K8" s="362"/>
-      <c r="L8" s="363"/>
-      <c r="M8" s="363"/>
-      <c r="N8" s="363"/>
-      <c r="O8" s="363"/>
-      <c r="P8" s="363"/>
-      <c r="Q8" s="363"/>
-      <c r="R8" s="363"/>
-      <c r="S8" s="363"/>
-      <c r="T8" s="363"/>
-      <c r="U8" s="363"/>
-      <c r="V8" s="363"/>
-      <c r="W8" s="363"/>
-      <c r="X8" s="363"/>
-      <c r="Y8" s="363"/>
-      <c r="Z8" s="363"/>
-      <c r="AA8" s="363"/>
-      <c r="AB8" s="363"/>
-      <c r="AC8" s="363"/>
-      <c r="AD8" s="364"/>
+      <c r="K8" s="367"/>
+      <c r="L8" s="368"/>
+      <c r="M8" s="368"/>
+      <c r="N8" s="368"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="368"/>
+      <c r="Q8" s="368"/>
+      <c r="R8" s="368"/>
+      <c r="S8" s="368"/>
+      <c r="T8" s="368"/>
+      <c r="U8" s="368"/>
+      <c r="V8" s="368"/>
+      <c r="W8" s="368"/>
+      <c r="X8" s="368"/>
+      <c r="Y8" s="368"/>
+      <c r="Z8" s="368"/>
+      <c r="AA8" s="368"/>
+      <c r="AB8" s="368"/>
+      <c r="AC8" s="368"/>
+      <c r="AD8" s="369"/>
       <c r="AE8" s="279"/>
     </row>
     <row r="9" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="332"/>
+      <c r="A9" s="337"/>
       <c r="B9" s="53"/>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -8327,36 +8369,36 @@
       <c r="D9" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="355"/>
-      <c r="F9" s="356"/>
-      <c r="G9" s="356"/>
-      <c r="H9" s="356"/>
-      <c r="I9" s="356"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="361"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="361"/>
       <c r="J9" s="317"/>
-      <c r="K9" s="362"/>
-      <c r="L9" s="363"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="363"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="363"/>
-      <c r="R9" s="363"/>
-      <c r="S9" s="363"/>
-      <c r="T9" s="363"/>
-      <c r="U9" s="363"/>
-      <c r="V9" s="363"/>
-      <c r="W9" s="363"/>
-      <c r="X9" s="363"/>
-      <c r="Y9" s="363"/>
-      <c r="Z9" s="363"/>
-      <c r="AA9" s="363"/>
-      <c r="AB9" s="363"/>
-      <c r="AC9" s="363"/>
-      <c r="AD9" s="364"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="368"/>
+      <c r="M9" s="368"/>
+      <c r="N9" s="368"/>
+      <c r="O9" s="368"/>
+      <c r="P9" s="368"/>
+      <c r="Q9" s="368"/>
+      <c r="R9" s="368"/>
+      <c r="S9" s="368"/>
+      <c r="T9" s="368"/>
+      <c r="U9" s="368"/>
+      <c r="V9" s="368"/>
+      <c r="W9" s="368"/>
+      <c r="X9" s="368"/>
+      <c r="Y9" s="368"/>
+      <c r="Z9" s="368"/>
+      <c r="AA9" s="368"/>
+      <c r="AB9" s="368"/>
+      <c r="AC9" s="368"/>
+      <c r="AD9" s="369"/>
       <c r="AE9" s="279"/>
     </row>
     <row r="10" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="332"/>
+      <c r="A10" s="337"/>
       <c r="B10" s="53"/>
       <c r="C10" s="3" t="s">
         <v>351</v>
@@ -8364,36 +8406,36 @@
       <c r="D10" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="355"/>
-      <c r="F10" s="356"/>
-      <c r="G10" s="356"/>
-      <c r="H10" s="356"/>
-      <c r="I10" s="356"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="361"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="361"/>
       <c r="J10" s="317"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="363"/>
-      <c r="M10" s="363"/>
-      <c r="N10" s="363"/>
-      <c r="O10" s="363"/>
-      <c r="P10" s="363"/>
-      <c r="Q10" s="363"/>
-      <c r="R10" s="363"/>
-      <c r="S10" s="363"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="363"/>
-      <c r="V10" s="363"/>
-      <c r="W10" s="363"/>
-      <c r="X10" s="363"/>
-      <c r="Y10" s="363"/>
-      <c r="Z10" s="363"/>
-      <c r="AA10" s="363"/>
-      <c r="AB10" s="363"/>
-      <c r="AC10" s="363"/>
-      <c r="AD10" s="364"/>
+      <c r="K10" s="367"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="368"/>
+      <c r="N10" s="368"/>
+      <c r="O10" s="368"/>
+      <c r="P10" s="368"/>
+      <c r="Q10" s="368"/>
+      <c r="R10" s="368"/>
+      <c r="S10" s="368"/>
+      <c r="T10" s="368"/>
+      <c r="U10" s="368"/>
+      <c r="V10" s="368"/>
+      <c r="W10" s="368"/>
+      <c r="X10" s="368"/>
+      <c r="Y10" s="368"/>
+      <c r="Z10" s="368"/>
+      <c r="AA10" s="368"/>
+      <c r="AB10" s="368"/>
+      <c r="AC10" s="368"/>
+      <c r="AD10" s="369"/>
       <c r="AE10" s="279"/>
     </row>
     <row r="11" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="332"/>
+      <c r="A11" s="337"/>
       <c r="B11" s="53"/>
       <c r="C11" s="3" t="s">
         <v>184</v>
@@ -8401,36 +8443,36 @@
       <c r="D11" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="355"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="356"/>
-      <c r="H11" s="356"/>
-      <c r="I11" s="356"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="361"/>
+      <c r="G11" s="361"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="361"/>
       <c r="J11" s="317"/>
-      <c r="K11" s="362"/>
-      <c r="L11" s="363"/>
-      <c r="M11" s="363"/>
-      <c r="N11" s="363"/>
-      <c r="O11" s="363"/>
-      <c r="P11" s="363"/>
-      <c r="Q11" s="363"/>
-      <c r="R11" s="363"/>
-      <c r="S11" s="363"/>
-      <c r="T11" s="363"/>
-      <c r="U11" s="363"/>
-      <c r="V11" s="363"/>
-      <c r="W11" s="363"/>
-      <c r="X11" s="363"/>
-      <c r="Y11" s="363"/>
-      <c r="Z11" s="363"/>
-      <c r="AA11" s="363"/>
-      <c r="AB11" s="363"/>
-      <c r="AC11" s="363"/>
-      <c r="AD11" s="364"/>
+      <c r="K11" s="367"/>
+      <c r="L11" s="368"/>
+      <c r="M11" s="368"/>
+      <c r="N11" s="368"/>
+      <c r="O11" s="368"/>
+      <c r="P11" s="368"/>
+      <c r="Q11" s="368"/>
+      <c r="R11" s="368"/>
+      <c r="S11" s="368"/>
+      <c r="T11" s="368"/>
+      <c r="U11" s="368"/>
+      <c r="V11" s="368"/>
+      <c r="W11" s="368"/>
+      <c r="X11" s="368"/>
+      <c r="Y11" s="368"/>
+      <c r="Z11" s="368"/>
+      <c r="AA11" s="368"/>
+      <c r="AB11" s="368"/>
+      <c r="AC11" s="368"/>
+      <c r="AD11" s="369"/>
       <c r="AE11" s="279"/>
     </row>
     <row r="12" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="332"/>
+      <c r="A12" s="337"/>
       <c r="B12" s="53"/>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -8438,36 +8480,36 @@
       <c r="D12" s="283" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="355"/>
-      <c r="F12" s="356"/>
-      <c r="G12" s="356"/>
-      <c r="H12" s="356"/>
-      <c r="I12" s="356"/>
+      <c r="E12" s="360"/>
+      <c r="F12" s="361"/>
+      <c r="G12" s="361"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="361"/>
       <c r="J12" s="317"/>
-      <c r="K12" s="362"/>
-      <c r="L12" s="363"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="363"/>
-      <c r="Q12" s="363"/>
-      <c r="R12" s="363"/>
-      <c r="S12" s="363"/>
-      <c r="T12" s="363"/>
-      <c r="U12" s="363"/>
-      <c r="V12" s="363"/>
-      <c r="W12" s="363"/>
-      <c r="X12" s="363"/>
-      <c r="Y12" s="363"/>
-      <c r="Z12" s="363"/>
-      <c r="AA12" s="363"/>
-      <c r="AB12" s="363"/>
-      <c r="AC12" s="363"/>
-      <c r="AD12" s="364"/>
+      <c r="K12" s="367"/>
+      <c r="L12" s="368"/>
+      <c r="M12" s="368"/>
+      <c r="N12" s="368"/>
+      <c r="O12" s="368"/>
+      <c r="P12" s="368"/>
+      <c r="Q12" s="368"/>
+      <c r="R12" s="368"/>
+      <c r="S12" s="368"/>
+      <c r="T12" s="368"/>
+      <c r="U12" s="368"/>
+      <c r="V12" s="368"/>
+      <c r="W12" s="368"/>
+      <c r="X12" s="368"/>
+      <c r="Y12" s="368"/>
+      <c r="Z12" s="368"/>
+      <c r="AA12" s="368"/>
+      <c r="AB12" s="368"/>
+      <c r="AC12" s="368"/>
+      <c r="AD12" s="369"/>
       <c r="AE12" s="279"/>
     </row>
     <row r="13" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="332"/>
+      <c r="A13" s="337"/>
       <c r="B13" s="53"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
@@ -8475,38 +8517,38 @@
       <c r="D13" s="284" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="355"/>
-      <c r="F13" s="356"/>
-      <c r="G13" s="356"/>
-      <c r="H13" s="356"/>
-      <c r="I13" s="356"/>
+      <c r="E13" s="360"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="361"/>
+      <c r="H13" s="361"/>
+      <c r="I13" s="361"/>
       <c r="J13" s="317"/>
-      <c r="K13" s="362"/>
-      <c r="L13" s="363"/>
-      <c r="M13" s="363"/>
-      <c r="N13" s="363"/>
-      <c r="O13" s="363"/>
-      <c r="P13" s="363"/>
-      <c r="Q13" s="363"/>
-      <c r="R13" s="363"/>
-      <c r="S13" s="363"/>
-      <c r="T13" s="363"/>
-      <c r="U13" s="363"/>
-      <c r="V13" s="363"/>
-      <c r="W13" s="363"/>
-      <c r="X13" s="363"/>
-      <c r="Y13" s="363"/>
-      <c r="Z13" s="363"/>
-      <c r="AA13" s="363"/>
-      <c r="AB13" s="363"/>
-      <c r="AC13" s="363"/>
-      <c r="AD13" s="364"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="368"/>
+      <c r="M13" s="368"/>
+      <c r="N13" s="368"/>
+      <c r="O13" s="368"/>
+      <c r="P13" s="368"/>
+      <c r="Q13" s="368"/>
+      <c r="R13" s="368"/>
+      <c r="S13" s="368"/>
+      <c r="T13" s="368"/>
+      <c r="U13" s="368"/>
+      <c r="V13" s="368"/>
+      <c r="W13" s="368"/>
+      <c r="X13" s="368"/>
+      <c r="Y13" s="368"/>
+      <c r="Z13" s="368"/>
+      <c r="AA13" s="368"/>
+      <c r="AB13" s="368"/>
+      <c r="AC13" s="368"/>
+      <c r="AD13" s="369"/>
       <c r="AE13" s="279" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="332"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="53"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
@@ -8514,36 +8556,36 @@
       <c r="D14" s="283">
         <v>32</v>
       </c>
-      <c r="E14" s="355"/>
-      <c r="F14" s="356"/>
-      <c r="G14" s="356"/>
-      <c r="H14" s="356"/>
-      <c r="I14" s="356"/>
+      <c r="E14" s="360"/>
+      <c r="F14" s="361"/>
+      <c r="G14" s="361"/>
+      <c r="H14" s="361"/>
+      <c r="I14" s="361"/>
       <c r="J14" s="317"/>
-      <c r="K14" s="362"/>
-      <c r="L14" s="363"/>
-      <c r="M14" s="363"/>
-      <c r="N14" s="363"/>
-      <c r="O14" s="363"/>
-      <c r="P14" s="363"/>
-      <c r="Q14" s="363"/>
-      <c r="R14" s="363"/>
-      <c r="S14" s="363"/>
-      <c r="T14" s="363"/>
-      <c r="U14" s="363"/>
-      <c r="V14" s="363"/>
-      <c r="W14" s="363"/>
-      <c r="X14" s="363"/>
-      <c r="Y14" s="363"/>
-      <c r="Z14" s="363"/>
-      <c r="AA14" s="363"/>
-      <c r="AB14" s="363"/>
-      <c r="AC14" s="363"/>
-      <c r="AD14" s="364"/>
+      <c r="K14" s="367"/>
+      <c r="L14" s="368"/>
+      <c r="M14" s="368"/>
+      <c r="N14" s="368"/>
+      <c r="O14" s="368"/>
+      <c r="P14" s="368"/>
+      <c r="Q14" s="368"/>
+      <c r="R14" s="368"/>
+      <c r="S14" s="368"/>
+      <c r="T14" s="368"/>
+      <c r="U14" s="368"/>
+      <c r="V14" s="368"/>
+      <c r="W14" s="368"/>
+      <c r="X14" s="368"/>
+      <c r="Y14" s="368"/>
+      <c r="Z14" s="368"/>
+      <c r="AA14" s="368"/>
+      <c r="AB14" s="368"/>
+      <c r="AC14" s="368"/>
+      <c r="AD14" s="369"/>
       <c r="AE14" s="279"/>
     </row>
     <row r="15" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="332"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="53"/>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -8551,36 +8593,36 @@
       <c r="D15" s="283">
         <v>32</v>
       </c>
-      <c r="E15" s="355"/>
-      <c r="F15" s="356"/>
-      <c r="G15" s="356"/>
-      <c r="H15" s="356"/>
-      <c r="I15" s="356"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="361"/>
+      <c r="G15" s="361"/>
+      <c r="H15" s="361"/>
+      <c r="I15" s="361"/>
       <c r="J15" s="317"/>
-      <c r="K15" s="362"/>
-      <c r="L15" s="363"/>
-      <c r="M15" s="363"/>
-      <c r="N15" s="363"/>
-      <c r="O15" s="363"/>
-      <c r="P15" s="363"/>
-      <c r="Q15" s="363"/>
-      <c r="R15" s="363"/>
-      <c r="S15" s="363"/>
-      <c r="T15" s="363"/>
-      <c r="U15" s="363"/>
-      <c r="V15" s="363"/>
-      <c r="W15" s="363"/>
-      <c r="X15" s="363"/>
-      <c r="Y15" s="363"/>
-      <c r="Z15" s="363"/>
-      <c r="AA15" s="363"/>
-      <c r="AB15" s="363"/>
-      <c r="AC15" s="363"/>
-      <c r="AD15" s="364"/>
+      <c r="K15" s="367"/>
+      <c r="L15" s="368"/>
+      <c r="M15" s="368"/>
+      <c r="N15" s="368"/>
+      <c r="O15" s="368"/>
+      <c r="P15" s="368"/>
+      <c r="Q15" s="368"/>
+      <c r="R15" s="368"/>
+      <c r="S15" s="368"/>
+      <c r="T15" s="368"/>
+      <c r="U15" s="368"/>
+      <c r="V15" s="368"/>
+      <c r="W15" s="368"/>
+      <c r="X15" s="368"/>
+      <c r="Y15" s="368"/>
+      <c r="Z15" s="368"/>
+      <c r="AA15" s="368"/>
+      <c r="AB15" s="368"/>
+      <c r="AC15" s="368"/>
+      <c r="AD15" s="369"/>
       <c r="AE15" s="279"/>
     </row>
     <row r="16" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="332"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="53"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -8588,36 +8630,36 @@
       <c r="D16" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="355"/>
-      <c r="F16" s="356"/>
-      <c r="G16" s="356"/>
-      <c r="H16" s="356"/>
-      <c r="I16" s="356"/>
+      <c r="E16" s="360"/>
+      <c r="F16" s="361"/>
+      <c r="G16" s="361"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="361"/>
       <c r="J16" s="317"/>
-      <c r="K16" s="362"/>
-      <c r="L16" s="363"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="363"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="363"/>
-      <c r="Q16" s="363"/>
-      <c r="R16" s="363"/>
-      <c r="S16" s="363"/>
-      <c r="T16" s="363"/>
-      <c r="U16" s="363"/>
-      <c r="V16" s="363"/>
-      <c r="W16" s="363"/>
-      <c r="X16" s="363"/>
-      <c r="Y16" s="363"/>
-      <c r="Z16" s="363"/>
-      <c r="AA16" s="363"/>
-      <c r="AB16" s="363"/>
-      <c r="AC16" s="363"/>
-      <c r="AD16" s="364"/>
+      <c r="K16" s="367"/>
+      <c r="L16" s="368"/>
+      <c r="M16" s="368"/>
+      <c r="N16" s="368"/>
+      <c r="O16" s="368"/>
+      <c r="P16" s="368"/>
+      <c r="Q16" s="368"/>
+      <c r="R16" s="368"/>
+      <c r="S16" s="368"/>
+      <c r="T16" s="368"/>
+      <c r="U16" s="368"/>
+      <c r="V16" s="368"/>
+      <c r="W16" s="368"/>
+      <c r="X16" s="368"/>
+      <c r="Y16" s="368"/>
+      <c r="Z16" s="368"/>
+      <c r="AA16" s="368"/>
+      <c r="AB16" s="368"/>
+      <c r="AC16" s="368"/>
+      <c r="AD16" s="369"/>
       <c r="AE16" s="279"/>
     </row>
     <row r="17" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="332"/>
+      <c r="A17" s="337"/>
       <c r="B17" s="47" t="s">
         <v>23</v>
       </c>
@@ -8627,36 +8669,36 @@
       <c r="D17" s="273" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="356"/>
-      <c r="G17" s="356"/>
-      <c r="H17" s="356"/>
-      <c r="I17" s="356"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="361"/>
+      <c r="G17" s="361"/>
+      <c r="H17" s="361"/>
+      <c r="I17" s="361"/>
       <c r="J17" s="317"/>
-      <c r="K17" s="362"/>
-      <c r="L17" s="363"/>
-      <c r="M17" s="363"/>
-      <c r="N17" s="363"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="363"/>
-      <c r="Q17" s="363"/>
-      <c r="R17" s="363"/>
-      <c r="S17" s="363"/>
-      <c r="T17" s="363"/>
-      <c r="U17" s="363"/>
-      <c r="V17" s="363"/>
-      <c r="W17" s="363"/>
-      <c r="X17" s="363"/>
-      <c r="Y17" s="363"/>
-      <c r="Z17" s="363"/>
-      <c r="AA17" s="363"/>
-      <c r="AB17" s="363"/>
-      <c r="AC17" s="363"/>
-      <c r="AD17" s="364"/>
+      <c r="K17" s="367"/>
+      <c r="L17" s="368"/>
+      <c r="M17" s="368"/>
+      <c r="N17" s="368"/>
+      <c r="O17" s="368"/>
+      <c r="P17" s="368"/>
+      <c r="Q17" s="368"/>
+      <c r="R17" s="368"/>
+      <c r="S17" s="368"/>
+      <c r="T17" s="368"/>
+      <c r="U17" s="368"/>
+      <c r="V17" s="368"/>
+      <c r="W17" s="368"/>
+      <c r="X17" s="368"/>
+      <c r="Y17" s="368"/>
+      <c r="Z17" s="368"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="368"/>
+      <c r="AC17" s="368"/>
+      <c r="AD17" s="369"/>
       <c r="AE17" s="279"/>
     </row>
     <row r="18" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="332"/>
+      <c r="A18" s="337"/>
       <c r="B18" s="53"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -8664,36 +8706,36 @@
       <c r="D18" s="272">
         <v>128</v>
       </c>
-      <c r="E18" s="355"/>
-      <c r="F18" s="356"/>
-      <c r="G18" s="356"/>
-      <c r="H18" s="356"/>
-      <c r="I18" s="356"/>
+      <c r="E18" s="360"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="361"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="361"/>
       <c r="J18" s="317"/>
-      <c r="K18" s="362"/>
-      <c r="L18" s="363"/>
-      <c r="M18" s="363"/>
-      <c r="N18" s="363"/>
-      <c r="O18" s="363"/>
-      <c r="P18" s="363"/>
-      <c r="Q18" s="363"/>
-      <c r="R18" s="363"/>
-      <c r="S18" s="363"/>
-      <c r="T18" s="363"/>
-      <c r="U18" s="363"/>
-      <c r="V18" s="363"/>
-      <c r="W18" s="363"/>
-      <c r="X18" s="363"/>
-      <c r="Y18" s="363"/>
-      <c r="Z18" s="363"/>
-      <c r="AA18" s="363"/>
-      <c r="AB18" s="363"/>
-      <c r="AC18" s="363"/>
-      <c r="AD18" s="364"/>
+      <c r="K18" s="367"/>
+      <c r="L18" s="368"/>
+      <c r="M18" s="368"/>
+      <c r="N18" s="368"/>
+      <c r="O18" s="368"/>
+      <c r="P18" s="368"/>
+      <c r="Q18" s="368"/>
+      <c r="R18" s="368"/>
+      <c r="S18" s="368"/>
+      <c r="T18" s="368"/>
+      <c r="U18" s="368"/>
+      <c r="V18" s="368"/>
+      <c r="W18" s="368"/>
+      <c r="X18" s="368"/>
+      <c r="Y18" s="368"/>
+      <c r="Z18" s="368"/>
+      <c r="AA18" s="368"/>
+      <c r="AB18" s="368"/>
+      <c r="AC18" s="368"/>
+      <c r="AD18" s="369"/>
       <c r="AE18" s="279"/>
     </row>
     <row r="19" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="332"/>
+      <c r="A19" s="337"/>
       <c r="B19" s="53"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -8701,36 +8743,36 @@
       <c r="D19" s="272" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="355"/>
-      <c r="F19" s="356"/>
-      <c r="G19" s="356"/>
-      <c r="H19" s="356"/>
-      <c r="I19" s="356"/>
+      <c r="E19" s="360"/>
+      <c r="F19" s="361"/>
+      <c r="G19" s="361"/>
+      <c r="H19" s="361"/>
+      <c r="I19" s="361"/>
       <c r="J19" s="317"/>
-      <c r="K19" s="362"/>
-      <c r="L19" s="363"/>
-      <c r="M19" s="363"/>
-      <c r="N19" s="363"/>
-      <c r="O19" s="363"/>
-      <c r="P19" s="363"/>
-      <c r="Q19" s="363"/>
-      <c r="R19" s="363"/>
-      <c r="S19" s="363"/>
-      <c r="T19" s="363"/>
-      <c r="U19" s="363"/>
-      <c r="V19" s="363"/>
-      <c r="W19" s="363"/>
-      <c r="X19" s="363"/>
-      <c r="Y19" s="363"/>
-      <c r="Z19" s="363"/>
-      <c r="AA19" s="363"/>
-      <c r="AB19" s="363"/>
-      <c r="AC19" s="363"/>
-      <c r="AD19" s="364"/>
+      <c r="K19" s="367"/>
+      <c r="L19" s="368"/>
+      <c r="M19" s="368"/>
+      <c r="N19" s="368"/>
+      <c r="O19" s="368"/>
+      <c r="P19" s="368"/>
+      <c r="Q19" s="368"/>
+      <c r="R19" s="368"/>
+      <c r="S19" s="368"/>
+      <c r="T19" s="368"/>
+      <c r="U19" s="368"/>
+      <c r="V19" s="368"/>
+      <c r="W19" s="368"/>
+      <c r="X19" s="368"/>
+      <c r="Y19" s="368"/>
+      <c r="Z19" s="368"/>
+      <c r="AA19" s="368"/>
+      <c r="AB19" s="368"/>
+      <c r="AC19" s="368"/>
+      <c r="AD19" s="369"/>
       <c r="AE19" s="279"/>
     </row>
     <row r="20" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="332"/>
+      <c r="A20" s="337"/>
       <c r="B20" s="74"/>
       <c r="C20" s="75" t="s">
         <v>29</v>
@@ -8738,36 +8780,36 @@
       <c r="D20" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="355"/>
-      <c r="F20" s="356"/>
-      <c r="G20" s="356"/>
-      <c r="H20" s="356"/>
-      <c r="I20" s="356"/>
+      <c r="E20" s="360"/>
+      <c r="F20" s="361"/>
+      <c r="G20" s="361"/>
+      <c r="H20" s="361"/>
+      <c r="I20" s="361"/>
       <c r="J20" s="317"/>
-      <c r="K20" s="362"/>
-      <c r="L20" s="363"/>
-      <c r="M20" s="363"/>
-      <c r="N20" s="363"/>
-      <c r="O20" s="363"/>
-      <c r="P20" s="363"/>
-      <c r="Q20" s="363"/>
-      <c r="R20" s="363"/>
-      <c r="S20" s="363"/>
-      <c r="T20" s="363"/>
-      <c r="U20" s="363"/>
-      <c r="V20" s="363"/>
-      <c r="W20" s="363"/>
-      <c r="X20" s="363"/>
-      <c r="Y20" s="363"/>
-      <c r="Z20" s="363"/>
-      <c r="AA20" s="363"/>
-      <c r="AB20" s="363"/>
-      <c r="AC20" s="363"/>
-      <c r="AD20" s="364"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
+      <c r="M20" s="368"/>
+      <c r="N20" s="368"/>
+      <c r="O20" s="368"/>
+      <c r="P20" s="368"/>
+      <c r="Q20" s="368"/>
+      <c r="R20" s="368"/>
+      <c r="S20" s="368"/>
+      <c r="T20" s="368"/>
+      <c r="U20" s="368"/>
+      <c r="V20" s="368"/>
+      <c r="W20" s="368"/>
+      <c r="X20" s="368"/>
+      <c r="Y20" s="368"/>
+      <c r="Z20" s="368"/>
+      <c r="AA20" s="368"/>
+      <c r="AB20" s="368"/>
+      <c r="AC20" s="368"/>
+      <c r="AD20" s="369"/>
       <c r="AE20" s="279"/>
     </row>
     <row r="21" spans="1:31" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="332"/>
+      <c r="A21" s="337"/>
       <c r="B21" s="275" t="s">
         <v>101</v>
       </c>
@@ -8777,36 +8819,36 @@
       <c r="D21" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="355"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
+      <c r="E21" s="360"/>
+      <c r="F21" s="361"/>
+      <c r="G21" s="361"/>
+      <c r="H21" s="361"/>
+      <c r="I21" s="361"/>
       <c r="J21" s="317"/>
-      <c r="K21" s="362"/>
-      <c r="L21" s="363"/>
-      <c r="M21" s="363"/>
-      <c r="N21" s="363"/>
-      <c r="O21" s="363"/>
-      <c r="P21" s="363"/>
-      <c r="Q21" s="363"/>
-      <c r="R21" s="363"/>
-      <c r="S21" s="363"/>
-      <c r="T21" s="363"/>
-      <c r="U21" s="363"/>
-      <c r="V21" s="363"/>
-      <c r="W21" s="363"/>
-      <c r="X21" s="363"/>
-      <c r="Y21" s="363"/>
-      <c r="Z21" s="363"/>
-      <c r="AA21" s="363"/>
-      <c r="AB21" s="363"/>
-      <c r="AC21" s="363"/>
-      <c r="AD21" s="364"/>
+      <c r="K21" s="367"/>
+      <c r="L21" s="368"/>
+      <c r="M21" s="368"/>
+      <c r="N21" s="368"/>
+      <c r="O21" s="368"/>
+      <c r="P21" s="368"/>
+      <c r="Q21" s="368"/>
+      <c r="R21" s="368"/>
+      <c r="S21" s="368"/>
+      <c r="T21" s="368"/>
+      <c r="U21" s="368"/>
+      <c r="V21" s="368"/>
+      <c r="W21" s="368"/>
+      <c r="X21" s="368"/>
+      <c r="Y21" s="368"/>
+      <c r="Z21" s="368"/>
+      <c r="AA21" s="368"/>
+      <c r="AB21" s="368"/>
+      <c r="AC21" s="368"/>
+      <c r="AD21" s="369"/>
       <c r="AE21" s="279"/>
     </row>
     <row r="22" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="332"/>
+      <c r="A22" s="337"/>
       <c r="B22" s="53" t="s">
         <v>46</v>
       </c>
@@ -8816,36 +8858,36 @@
       <c r="D22" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="355"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="356"/>
-      <c r="H22" s="356"/>
-      <c r="I22" s="356"/>
+      <c r="E22" s="360"/>
+      <c r="F22" s="361"/>
+      <c r="G22" s="361"/>
+      <c r="H22" s="361"/>
+      <c r="I22" s="361"/>
       <c r="J22" s="317"/>
-      <c r="K22" s="362"/>
-      <c r="L22" s="363"/>
-      <c r="M22" s="363"/>
-      <c r="N22" s="363"/>
-      <c r="O22" s="363"/>
-      <c r="P22" s="363"/>
-      <c r="Q22" s="363"/>
-      <c r="R22" s="363"/>
-      <c r="S22" s="363"/>
-      <c r="T22" s="363"/>
-      <c r="U22" s="363"/>
-      <c r="V22" s="363"/>
-      <c r="W22" s="363"/>
-      <c r="X22" s="363"/>
-      <c r="Y22" s="363"/>
-      <c r="Z22" s="363"/>
-      <c r="AA22" s="363"/>
-      <c r="AB22" s="363"/>
-      <c r="AC22" s="363"/>
-      <c r="AD22" s="364"/>
+      <c r="K22" s="367"/>
+      <c r="L22" s="368"/>
+      <c r="M22" s="368"/>
+      <c r="N22" s="368"/>
+      <c r="O22" s="368"/>
+      <c r="P22" s="368"/>
+      <c r="Q22" s="368"/>
+      <c r="R22" s="368"/>
+      <c r="S22" s="368"/>
+      <c r="T22" s="368"/>
+      <c r="U22" s="368"/>
+      <c r="V22" s="368"/>
+      <c r="W22" s="368"/>
+      <c r="X22" s="368"/>
+      <c r="Y22" s="368"/>
+      <c r="Z22" s="368"/>
+      <c r="AA22" s="368"/>
+      <c r="AB22" s="368"/>
+      <c r="AC22" s="368"/>
+      <c r="AD22" s="369"/>
       <c r="AE22" s="202"/>
     </row>
     <row r="23" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="332"/>
+      <c r="A23" s="337"/>
       <c r="B23" s="53"/>
       <c r="C23" s="3" t="s">
         <v>350</v>
@@ -8853,36 +8895,36 @@
       <c r="D23" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="355"/>
-      <c r="F23" s="356"/>
-      <c r="G23" s="356"/>
-      <c r="H23" s="356"/>
-      <c r="I23" s="356"/>
+      <c r="E23" s="360"/>
+      <c r="F23" s="361"/>
+      <c r="G23" s="361"/>
+      <c r="H23" s="361"/>
+      <c r="I23" s="361"/>
       <c r="J23" s="317"/>
-      <c r="K23" s="362"/>
-      <c r="L23" s="363"/>
-      <c r="M23" s="363"/>
-      <c r="N23" s="363"/>
-      <c r="O23" s="363"/>
-      <c r="P23" s="363"/>
-      <c r="Q23" s="363"/>
-      <c r="R23" s="363"/>
-      <c r="S23" s="363"/>
-      <c r="T23" s="363"/>
-      <c r="U23" s="363"/>
-      <c r="V23" s="363"/>
-      <c r="W23" s="363"/>
-      <c r="X23" s="363"/>
-      <c r="Y23" s="363"/>
-      <c r="Z23" s="363"/>
-      <c r="AA23" s="363"/>
-      <c r="AB23" s="363"/>
-      <c r="AC23" s="363"/>
-      <c r="AD23" s="364"/>
+      <c r="K23" s="367"/>
+      <c r="L23" s="368"/>
+      <c r="M23" s="368"/>
+      <c r="N23" s="368"/>
+      <c r="O23" s="368"/>
+      <c r="P23" s="368"/>
+      <c r="Q23" s="368"/>
+      <c r="R23" s="368"/>
+      <c r="S23" s="368"/>
+      <c r="T23" s="368"/>
+      <c r="U23" s="368"/>
+      <c r="V23" s="368"/>
+      <c r="W23" s="368"/>
+      <c r="X23" s="368"/>
+      <c r="Y23" s="368"/>
+      <c r="Z23" s="368"/>
+      <c r="AA23" s="368"/>
+      <c r="AB23" s="368"/>
+      <c r="AC23" s="368"/>
+      <c r="AD23" s="369"/>
       <c r="AE23" s="202"/>
     </row>
     <row r="24" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="332"/>
+      <c r="A24" s="337"/>
       <c r="B24" s="53"/>
       <c r="C24" s="3" t="s">
         <v>189</v>
@@ -8890,36 +8932,36 @@
       <c r="D24" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="355"/>
-      <c r="F24" s="356"/>
-      <c r="G24" s="356"/>
-      <c r="H24" s="356"/>
-      <c r="I24" s="356"/>
+      <c r="E24" s="360"/>
+      <c r="F24" s="361"/>
+      <c r="G24" s="361"/>
+      <c r="H24" s="361"/>
+      <c r="I24" s="361"/>
       <c r="J24" s="317"/>
-      <c r="K24" s="362"/>
-      <c r="L24" s="363"/>
-      <c r="M24" s="363"/>
-      <c r="N24" s="363"/>
-      <c r="O24" s="363"/>
-      <c r="P24" s="363"/>
-      <c r="Q24" s="363"/>
-      <c r="R24" s="363"/>
-      <c r="S24" s="363"/>
-      <c r="T24" s="363"/>
-      <c r="U24" s="363"/>
-      <c r="V24" s="363"/>
-      <c r="W24" s="363"/>
-      <c r="X24" s="363"/>
-      <c r="Y24" s="363"/>
-      <c r="Z24" s="363"/>
-      <c r="AA24" s="363"/>
-      <c r="AB24" s="363"/>
-      <c r="AC24" s="363"/>
-      <c r="AD24" s="364"/>
+      <c r="K24" s="367"/>
+      <c r="L24" s="368"/>
+      <c r="M24" s="368"/>
+      <c r="N24" s="368"/>
+      <c r="O24" s="368"/>
+      <c r="P24" s="368"/>
+      <c r="Q24" s="368"/>
+      <c r="R24" s="368"/>
+      <c r="S24" s="368"/>
+      <c r="T24" s="368"/>
+      <c r="U24" s="368"/>
+      <c r="V24" s="368"/>
+      <c r="W24" s="368"/>
+      <c r="X24" s="368"/>
+      <c r="Y24" s="368"/>
+      <c r="Z24" s="368"/>
+      <c r="AA24" s="368"/>
+      <c r="AB24" s="368"/>
+      <c r="AC24" s="368"/>
+      <c r="AD24" s="369"/>
       <c r="AE24" s="202"/>
     </row>
     <row r="25" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="332"/>
+      <c r="A25" s="337"/>
       <c r="B25" s="53"/>
       <c r="C25" s="3" t="s">
         <v>191</v>
@@ -8927,36 +8969,36 @@
       <c r="D25" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="355"/>
-      <c r="F25" s="356"/>
-      <c r="G25" s="356"/>
-      <c r="H25" s="356"/>
-      <c r="I25" s="356"/>
+      <c r="E25" s="360"/>
+      <c r="F25" s="361"/>
+      <c r="G25" s="361"/>
+      <c r="H25" s="361"/>
+      <c r="I25" s="361"/>
       <c r="J25" s="317"/>
-      <c r="K25" s="362"/>
-      <c r="L25" s="363"/>
-      <c r="M25" s="363"/>
-      <c r="N25" s="363"/>
-      <c r="O25" s="363"/>
-      <c r="P25" s="363"/>
-      <c r="Q25" s="363"/>
-      <c r="R25" s="363"/>
-      <c r="S25" s="363"/>
-      <c r="T25" s="363"/>
-      <c r="U25" s="363"/>
-      <c r="V25" s="363"/>
-      <c r="W25" s="363"/>
-      <c r="X25" s="363"/>
-      <c r="Y25" s="363"/>
-      <c r="Z25" s="363"/>
-      <c r="AA25" s="363"/>
-      <c r="AB25" s="363"/>
-      <c r="AC25" s="363"/>
-      <c r="AD25" s="364"/>
+      <c r="K25" s="367"/>
+      <c r="L25" s="368"/>
+      <c r="M25" s="368"/>
+      <c r="N25" s="368"/>
+      <c r="O25" s="368"/>
+      <c r="P25" s="368"/>
+      <c r="Q25" s="368"/>
+      <c r="R25" s="368"/>
+      <c r="S25" s="368"/>
+      <c r="T25" s="368"/>
+      <c r="U25" s="368"/>
+      <c r="V25" s="368"/>
+      <c r="W25" s="368"/>
+      <c r="X25" s="368"/>
+      <c r="Y25" s="368"/>
+      <c r="Z25" s="368"/>
+      <c r="AA25" s="368"/>
+      <c r="AB25" s="368"/>
+      <c r="AC25" s="368"/>
+      <c r="AD25" s="369"/>
       <c r="AE25" s="202"/>
     </row>
     <row r="26" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="332"/>
+      <c r="A26" s="337"/>
       <c r="B26" s="53"/>
       <c r="C26" s="3" t="s">
         <v>314</v>
@@ -8964,36 +9006,36 @@
       <c r="D26" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="355"/>
-      <c r="F26" s="356"/>
-      <c r="G26" s="356"/>
-      <c r="H26" s="356"/>
-      <c r="I26" s="356"/>
+      <c r="E26" s="360"/>
+      <c r="F26" s="361"/>
+      <c r="G26" s="361"/>
+      <c r="H26" s="361"/>
+      <c r="I26" s="361"/>
       <c r="J26" s="317"/>
-      <c r="K26" s="362"/>
-      <c r="L26" s="363"/>
-      <c r="M26" s="363"/>
-      <c r="N26" s="363"/>
-      <c r="O26" s="363"/>
-      <c r="P26" s="363"/>
-      <c r="Q26" s="363"/>
-      <c r="R26" s="363"/>
-      <c r="S26" s="363"/>
-      <c r="T26" s="363"/>
-      <c r="U26" s="363"/>
-      <c r="V26" s="363"/>
-      <c r="W26" s="363"/>
-      <c r="X26" s="363"/>
-      <c r="Y26" s="363"/>
-      <c r="Z26" s="363"/>
-      <c r="AA26" s="363"/>
-      <c r="AB26" s="363"/>
-      <c r="AC26" s="363"/>
-      <c r="AD26" s="364"/>
+      <c r="K26" s="367"/>
+      <c r="L26" s="368"/>
+      <c r="M26" s="368"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="368"/>
+      <c r="P26" s="368"/>
+      <c r="Q26" s="368"/>
+      <c r="R26" s="368"/>
+      <c r="S26" s="368"/>
+      <c r="T26" s="368"/>
+      <c r="U26" s="368"/>
+      <c r="V26" s="368"/>
+      <c r="W26" s="368"/>
+      <c r="X26" s="368"/>
+      <c r="Y26" s="368"/>
+      <c r="Z26" s="368"/>
+      <c r="AA26" s="368"/>
+      <c r="AB26" s="368"/>
+      <c r="AC26" s="368"/>
+      <c r="AD26" s="369"/>
       <c r="AE26" s="202"/>
     </row>
     <row r="27" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="332"/>
+      <c r="A27" s="337"/>
       <c r="B27" s="53"/>
       <c r="C27" s="3" t="s">
         <v>200</v>
@@ -9001,36 +9043,36 @@
       <c r="D27" s="272" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="355"/>
-      <c r="F27" s="356"/>
-      <c r="G27" s="356"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
+      <c r="E27" s="360"/>
+      <c r="F27" s="361"/>
+      <c r="G27" s="361"/>
+      <c r="H27" s="361"/>
+      <c r="I27" s="361"/>
       <c r="J27" s="317"/>
-      <c r="K27" s="362"/>
-      <c r="L27" s="363"/>
-      <c r="M27" s="363"/>
-      <c r="N27" s="363"/>
-      <c r="O27" s="363"/>
-      <c r="P27" s="363"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="363"/>
-      <c r="S27" s="363"/>
-      <c r="T27" s="363"/>
-      <c r="U27" s="363"/>
-      <c r="V27" s="363"/>
-      <c r="W27" s="363"/>
-      <c r="X27" s="363"/>
-      <c r="Y27" s="363"/>
-      <c r="Z27" s="363"/>
-      <c r="AA27" s="363"/>
-      <c r="AB27" s="363"/>
-      <c r="AC27" s="363"/>
-      <c r="AD27" s="364"/>
+      <c r="K27" s="367"/>
+      <c r="L27" s="368"/>
+      <c r="M27" s="368"/>
+      <c r="N27" s="368"/>
+      <c r="O27" s="368"/>
+      <c r="P27" s="368"/>
+      <c r="Q27" s="368"/>
+      <c r="R27" s="368"/>
+      <c r="S27" s="368"/>
+      <c r="T27" s="368"/>
+      <c r="U27" s="368"/>
+      <c r="V27" s="368"/>
+      <c r="W27" s="368"/>
+      <c r="X27" s="368"/>
+      <c r="Y27" s="368"/>
+      <c r="Z27" s="368"/>
+      <c r="AA27" s="368"/>
+      <c r="AB27" s="368"/>
+      <c r="AC27" s="368"/>
+      <c r="AD27" s="369"/>
       <c r="AE27" s="202"/>
     </row>
     <row r="28" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="332"/>
+      <c r="A28" s="337"/>
       <c r="B28" s="53"/>
       <c r="C28" s="3" t="s">
         <v>203</v>
@@ -9038,38 +9080,38 @@
       <c r="D28" s="272" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="355"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="356"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="356"/>
+      <c r="E28" s="360"/>
+      <c r="F28" s="361"/>
+      <c r="G28" s="361"/>
+      <c r="H28" s="361"/>
+      <c r="I28" s="361"/>
       <c r="J28" s="317"/>
-      <c r="K28" s="362"/>
-      <c r="L28" s="363"/>
-      <c r="M28" s="363"/>
-      <c r="N28" s="363"/>
-      <c r="O28" s="363"/>
-      <c r="P28" s="363"/>
-      <c r="Q28" s="363"/>
-      <c r="R28" s="363"/>
-      <c r="S28" s="363"/>
-      <c r="T28" s="363"/>
-      <c r="U28" s="363"/>
-      <c r="V28" s="363"/>
-      <c r="W28" s="363"/>
-      <c r="X28" s="363"/>
-      <c r="Y28" s="363"/>
-      <c r="Z28" s="363"/>
-      <c r="AA28" s="363"/>
-      <c r="AB28" s="363"/>
-      <c r="AC28" s="363"/>
-      <c r="AD28" s="364"/>
+      <c r="K28" s="367"/>
+      <c r="L28" s="368"/>
+      <c r="M28" s="368"/>
+      <c r="N28" s="368"/>
+      <c r="O28" s="368"/>
+      <c r="P28" s="368"/>
+      <c r="Q28" s="368"/>
+      <c r="R28" s="368"/>
+      <c r="S28" s="368"/>
+      <c r="T28" s="368"/>
+      <c r="U28" s="368"/>
+      <c r="V28" s="368"/>
+      <c r="W28" s="368"/>
+      <c r="X28" s="368"/>
+      <c r="Y28" s="368"/>
+      <c r="Z28" s="368"/>
+      <c r="AA28" s="368"/>
+      <c r="AB28" s="368"/>
+      <c r="AC28" s="368"/>
+      <c r="AD28" s="369"/>
       <c r="AE28" s="202" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="332"/>
+      <c r="A29" s="337"/>
       <c r="B29" s="53"/>
       <c r="C29" s="3" t="s">
         <v>192</v>
@@ -9077,36 +9119,36 @@
       <c r="D29" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="355"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="361"/>
+      <c r="G29" s="361"/>
+      <c r="H29" s="361"/>
+      <c r="I29" s="361"/>
       <c r="J29" s="317"/>
-      <c r="K29" s="362"/>
-      <c r="L29" s="363"/>
-      <c r="M29" s="363"/>
-      <c r="N29" s="363"/>
-      <c r="O29" s="363"/>
-      <c r="P29" s="363"/>
-      <c r="Q29" s="363"/>
-      <c r="R29" s="363"/>
-      <c r="S29" s="363"/>
-      <c r="T29" s="363"/>
-      <c r="U29" s="363"/>
-      <c r="V29" s="363"/>
-      <c r="W29" s="363"/>
-      <c r="X29" s="363"/>
-      <c r="Y29" s="363"/>
-      <c r="Z29" s="363"/>
-      <c r="AA29" s="363"/>
-      <c r="AB29" s="363"/>
-      <c r="AC29" s="363"/>
-      <c r="AD29" s="364"/>
+      <c r="K29" s="367"/>
+      <c r="L29" s="368"/>
+      <c r="M29" s="368"/>
+      <c r="N29" s="368"/>
+      <c r="O29" s="368"/>
+      <c r="P29" s="368"/>
+      <c r="Q29" s="368"/>
+      <c r="R29" s="368"/>
+      <c r="S29" s="368"/>
+      <c r="T29" s="368"/>
+      <c r="U29" s="368"/>
+      <c r="V29" s="368"/>
+      <c r="W29" s="368"/>
+      <c r="X29" s="368"/>
+      <c r="Y29" s="368"/>
+      <c r="Z29" s="368"/>
+      <c r="AA29" s="368"/>
+      <c r="AB29" s="368"/>
+      <c r="AC29" s="368"/>
+      <c r="AD29" s="369"/>
       <c r="AE29" s="202"/>
     </row>
     <row r="30" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="332"/>
+      <c r="A30" s="337"/>
       <c r="B30" s="53"/>
       <c r="C30" s="3" t="s">
         <v>68</v>
@@ -9114,36 +9156,36 @@
       <c r="D30" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="355"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="356"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="356"/>
+      <c r="E30" s="360"/>
+      <c r="F30" s="361"/>
+      <c r="G30" s="361"/>
+      <c r="H30" s="361"/>
+      <c r="I30" s="361"/>
       <c r="J30" s="317"/>
-      <c r="K30" s="362"/>
-      <c r="L30" s="363"/>
-      <c r="M30" s="363"/>
-      <c r="N30" s="363"/>
-      <c r="O30" s="363"/>
-      <c r="P30" s="363"/>
-      <c r="Q30" s="363"/>
-      <c r="R30" s="363"/>
-      <c r="S30" s="363"/>
-      <c r="T30" s="363"/>
-      <c r="U30" s="363"/>
-      <c r="V30" s="363"/>
-      <c r="W30" s="363"/>
-      <c r="X30" s="363"/>
-      <c r="Y30" s="363"/>
-      <c r="Z30" s="363"/>
-      <c r="AA30" s="363"/>
-      <c r="AB30" s="363"/>
-      <c r="AC30" s="363"/>
-      <c r="AD30" s="364"/>
+      <c r="K30" s="367"/>
+      <c r="L30" s="368"/>
+      <c r="M30" s="368"/>
+      <c r="N30" s="368"/>
+      <c r="O30" s="368"/>
+      <c r="P30" s="368"/>
+      <c r="Q30" s="368"/>
+      <c r="R30" s="368"/>
+      <c r="S30" s="368"/>
+      <c r="T30" s="368"/>
+      <c r="U30" s="368"/>
+      <c r="V30" s="368"/>
+      <c r="W30" s="368"/>
+      <c r="X30" s="368"/>
+      <c r="Y30" s="368"/>
+      <c r="Z30" s="368"/>
+      <c r="AA30" s="368"/>
+      <c r="AB30" s="368"/>
+      <c r="AC30" s="368"/>
+      <c r="AD30" s="369"/>
       <c r="AE30" s="202"/>
     </row>
     <row r="31" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="332"/>
+      <c r="A31" s="337"/>
       <c r="B31" s="53"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
@@ -9151,36 +9193,36 @@
       <c r="D31" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="355"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="356"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="356"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="361"/>
+      <c r="G31" s="361"/>
+      <c r="H31" s="361"/>
+      <c r="I31" s="361"/>
       <c r="J31" s="317"/>
-      <c r="K31" s="362"/>
-      <c r="L31" s="363"/>
-      <c r="M31" s="363"/>
-      <c r="N31" s="363"/>
-      <c r="O31" s="363"/>
-      <c r="P31" s="363"/>
-      <c r="Q31" s="363"/>
-      <c r="R31" s="363"/>
-      <c r="S31" s="363"/>
-      <c r="T31" s="363"/>
-      <c r="U31" s="363"/>
-      <c r="V31" s="363"/>
-      <c r="W31" s="363"/>
-      <c r="X31" s="363"/>
-      <c r="Y31" s="363"/>
-      <c r="Z31" s="363"/>
-      <c r="AA31" s="363"/>
-      <c r="AB31" s="363"/>
-      <c r="AC31" s="363"/>
-      <c r="AD31" s="364"/>
+      <c r="K31" s="367"/>
+      <c r="L31" s="368"/>
+      <c r="M31" s="368"/>
+      <c r="N31" s="368"/>
+      <c r="O31" s="368"/>
+      <c r="P31" s="368"/>
+      <c r="Q31" s="368"/>
+      <c r="R31" s="368"/>
+      <c r="S31" s="368"/>
+      <c r="T31" s="368"/>
+      <c r="U31" s="368"/>
+      <c r="V31" s="368"/>
+      <c r="W31" s="368"/>
+      <c r="X31" s="368"/>
+      <c r="Y31" s="368"/>
+      <c r="Z31" s="368"/>
+      <c r="AA31" s="368"/>
+      <c r="AB31" s="368"/>
+      <c r="AC31" s="368"/>
+      <c r="AD31" s="369"/>
       <c r="AE31" s="202"/>
     </row>
     <row r="32" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="332"/>
+      <c r="A32" s="337"/>
       <c r="B32" s="53"/>
       <c r="C32" s="3" t="s">
         <v>75</v>
@@ -9188,36 +9230,36 @@
       <c r="D32" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="355"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="356"/>
-      <c r="H32" s="356"/>
-      <c r="I32" s="356"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="361"/>
+      <c r="G32" s="361"/>
+      <c r="H32" s="361"/>
+      <c r="I32" s="361"/>
       <c r="J32" s="317"/>
-      <c r="K32" s="362"/>
-      <c r="L32" s="363"/>
-      <c r="M32" s="363"/>
-      <c r="N32" s="363"/>
-      <c r="O32" s="363"/>
-      <c r="P32" s="363"/>
-      <c r="Q32" s="363"/>
-      <c r="R32" s="363"/>
-      <c r="S32" s="363"/>
-      <c r="T32" s="363"/>
-      <c r="U32" s="363"/>
-      <c r="V32" s="363"/>
-      <c r="W32" s="363"/>
-      <c r="X32" s="363"/>
-      <c r="Y32" s="363"/>
-      <c r="Z32" s="363"/>
-      <c r="AA32" s="363"/>
-      <c r="AB32" s="363"/>
-      <c r="AC32" s="363"/>
-      <c r="AD32" s="364"/>
+      <c r="K32" s="367"/>
+      <c r="L32" s="368"/>
+      <c r="M32" s="368"/>
+      <c r="N32" s="368"/>
+      <c r="O32" s="368"/>
+      <c r="P32" s="368"/>
+      <c r="Q32" s="368"/>
+      <c r="R32" s="368"/>
+      <c r="S32" s="368"/>
+      <c r="T32" s="368"/>
+      <c r="U32" s="368"/>
+      <c r="V32" s="368"/>
+      <c r="W32" s="368"/>
+      <c r="X32" s="368"/>
+      <c r="Y32" s="368"/>
+      <c r="Z32" s="368"/>
+      <c r="AA32" s="368"/>
+      <c r="AB32" s="368"/>
+      <c r="AC32" s="368"/>
+      <c r="AD32" s="369"/>
       <c r="AE32" s="202"/>
     </row>
     <row r="33" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="332"/>
+      <c r="A33" s="337"/>
       <c r="B33" s="53"/>
       <c r="C33" s="3" t="s">
         <v>76</v>
@@ -9225,36 +9267,36 @@
       <c r="D33" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="355"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="356"/>
-      <c r="H33" s="356"/>
-      <c r="I33" s="356"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="361"/>
+      <c r="G33" s="361"/>
+      <c r="H33" s="361"/>
+      <c r="I33" s="361"/>
       <c r="J33" s="317"/>
-      <c r="K33" s="362"/>
-      <c r="L33" s="363"/>
-      <c r="M33" s="363"/>
-      <c r="N33" s="363"/>
-      <c r="O33" s="363"/>
-      <c r="P33" s="363"/>
-      <c r="Q33" s="363"/>
-      <c r="R33" s="363"/>
-      <c r="S33" s="363"/>
-      <c r="T33" s="363"/>
-      <c r="U33" s="363"/>
-      <c r="V33" s="363"/>
-      <c r="W33" s="363"/>
-      <c r="X33" s="363"/>
-      <c r="Y33" s="363"/>
-      <c r="Z33" s="363"/>
-      <c r="AA33" s="363"/>
-      <c r="AB33" s="363"/>
-      <c r="AC33" s="363"/>
-      <c r="AD33" s="364"/>
+      <c r="K33" s="367"/>
+      <c r="L33" s="368"/>
+      <c r="M33" s="368"/>
+      <c r="N33" s="368"/>
+      <c r="O33" s="368"/>
+      <c r="P33" s="368"/>
+      <c r="Q33" s="368"/>
+      <c r="R33" s="368"/>
+      <c r="S33" s="368"/>
+      <c r="T33" s="368"/>
+      <c r="U33" s="368"/>
+      <c r="V33" s="368"/>
+      <c r="W33" s="368"/>
+      <c r="X33" s="368"/>
+      <c r="Y33" s="368"/>
+      <c r="Z33" s="368"/>
+      <c r="AA33" s="368"/>
+      <c r="AB33" s="368"/>
+      <c r="AC33" s="368"/>
+      <c r="AD33" s="369"/>
       <c r="AE33" s="202"/>
     </row>
     <row r="34" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="332"/>
+      <c r="A34" s="337"/>
       <c r="B34" s="53"/>
       <c r="C34" s="3" t="s">
         <v>77</v>
@@ -9262,36 +9304,36 @@
       <c r="D34" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="355"/>
-      <c r="F34" s="356"/>
-      <c r="G34" s="356"/>
-      <c r="H34" s="356"/>
-      <c r="I34" s="356"/>
+      <c r="E34" s="360"/>
+      <c r="F34" s="361"/>
+      <c r="G34" s="361"/>
+      <c r="H34" s="361"/>
+      <c r="I34" s="361"/>
       <c r="J34" s="317"/>
-      <c r="K34" s="362"/>
-      <c r="L34" s="363"/>
-      <c r="M34" s="363"/>
-      <c r="N34" s="363"/>
-      <c r="O34" s="363"/>
-      <c r="P34" s="363"/>
-      <c r="Q34" s="363"/>
-      <c r="R34" s="363"/>
-      <c r="S34" s="363"/>
-      <c r="T34" s="363"/>
-      <c r="U34" s="363"/>
-      <c r="V34" s="363"/>
-      <c r="W34" s="363"/>
-      <c r="X34" s="363"/>
-      <c r="Y34" s="363"/>
-      <c r="Z34" s="363"/>
-      <c r="AA34" s="363"/>
-      <c r="AB34" s="363"/>
-      <c r="AC34" s="363"/>
-      <c r="AD34" s="364"/>
+      <c r="K34" s="367"/>
+      <c r="L34" s="368"/>
+      <c r="M34" s="368"/>
+      <c r="N34" s="368"/>
+      <c r="O34" s="368"/>
+      <c r="P34" s="368"/>
+      <c r="Q34" s="368"/>
+      <c r="R34" s="368"/>
+      <c r="S34" s="368"/>
+      <c r="T34" s="368"/>
+      <c r="U34" s="368"/>
+      <c r="V34" s="368"/>
+      <c r="W34" s="368"/>
+      <c r="X34" s="368"/>
+      <c r="Y34" s="368"/>
+      <c r="Z34" s="368"/>
+      <c r="AA34" s="368"/>
+      <c r="AB34" s="368"/>
+      <c r="AC34" s="368"/>
+      <c r="AD34" s="369"/>
       <c r="AE34" s="202"/>
     </row>
     <row r="35" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="332"/>
+      <c r="A35" s="337"/>
       <c r="B35" s="74"/>
       <c r="C35" s="75" t="s">
         <v>78</v>
@@ -9299,43 +9341,43 @@
       <c r="D35" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="357"/>
-      <c r="F35" s="358"/>
-      <c r="G35" s="358"/>
-      <c r="H35" s="358"/>
-      <c r="I35" s="358"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="363"/>
+      <c r="G35" s="363"/>
+      <c r="H35" s="363"/>
+      <c r="I35" s="363"/>
       <c r="J35" s="318"/>
-      <c r="K35" s="365"/>
-      <c r="L35" s="366"/>
-      <c r="M35" s="366"/>
-      <c r="N35" s="366"/>
-      <c r="O35" s="366"/>
-      <c r="P35" s="366"/>
-      <c r="Q35" s="366"/>
-      <c r="R35" s="366"/>
-      <c r="S35" s="366"/>
-      <c r="T35" s="366"/>
-      <c r="U35" s="366"/>
-      <c r="V35" s="366"/>
-      <c r="W35" s="366"/>
-      <c r="X35" s="366"/>
-      <c r="Y35" s="366"/>
-      <c r="Z35" s="366"/>
-      <c r="AA35" s="366"/>
-      <c r="AB35" s="366"/>
-      <c r="AC35" s="366"/>
-      <c r="AD35" s="367"/>
+      <c r="K35" s="370"/>
+      <c r="L35" s="371"/>
+      <c r="M35" s="371"/>
+      <c r="N35" s="371"/>
+      <c r="O35" s="371"/>
+      <c r="P35" s="371"/>
+      <c r="Q35" s="371"/>
+      <c r="R35" s="371"/>
+      <c r="S35" s="371"/>
+      <c r="T35" s="371"/>
+      <c r="U35" s="371"/>
+      <c r="V35" s="371"/>
+      <c r="W35" s="371"/>
+      <c r="X35" s="371"/>
+      <c r="Y35" s="371"/>
+      <c r="Z35" s="371"/>
+      <c r="AA35" s="371"/>
+      <c r="AB35" s="371"/>
+      <c r="AC35" s="371"/>
+      <c r="AD35" s="372"/>
       <c r="AE35" s="202"/>
     </row>
     <row r="36" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="332"/>
+      <c r="A36" s="337"/>
       <c r="B36" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="350" t="s">
+      <c r="D36" s="355" t="s">
         <v>365</v>
       </c>
       <c r="E36" s="116"/>
@@ -9405,12 +9447,12 @@
       <c r="AE36" s="73"/>
     </row>
     <row r="37" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="332"/>
+      <c r="A37" s="337"/>
       <c r="B37" s="53"/>
       <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="351"/>
+      <c r="D37" s="356"/>
       <c r="E37" s="117"/>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -9478,12 +9520,12 @@
       <c r="AE37" s="202"/>
     </row>
     <row r="38" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="332"/>
+      <c r="A38" s="337"/>
       <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="351"/>
+      <c r="D38" s="356"/>
       <c r="E38" s="117"/>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -9551,12 +9593,12 @@
       <c r="AE38" s="202"/>
     </row>
     <row r="39" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="332"/>
+      <c r="A39" s="337"/>
       <c r="B39" s="53"/>
       <c r="C39" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="351"/>
+      <c r="D39" s="356"/>
       <c r="E39" s="117"/>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -9624,12 +9666,12 @@
       <c r="AE39" s="202"/>
     </row>
     <row r="40" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="332"/>
+      <c r="A40" s="337"/>
       <c r="B40" s="53"/>
       <c r="C40" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="351"/>
+      <c r="D40" s="356"/>
       <c r="E40" s="117"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -9697,12 +9739,12 @@
       <c r="AE40" s="202"/>
     </row>
     <row r="41" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="332"/>
+      <c r="A41" s="337"/>
       <c r="B41" s="53"/>
       <c r="C41" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D41" s="351"/>
+      <c r="D41" s="356"/>
       <c r="E41" s="117"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -9770,12 +9812,12 @@
       <c r="AE41" s="202"/>
     </row>
     <row r="42" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332"/>
+      <c r="A42" s="337"/>
       <c r="B42" s="53"/>
       <c r="C42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="351"/>
+      <c r="D42" s="356"/>
       <c r="E42" s="117"/>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
@@ -9843,12 +9885,12 @@
       <c r="AE42" s="202"/>
     </row>
     <row r="43" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="332"/>
+      <c r="A43" s="337"/>
       <c r="B43" s="53"/>
       <c r="C43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="351"/>
+      <c r="D43" s="356"/>
       <c r="E43" s="117"/>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
@@ -9890,12 +9932,12 @@
       <c r="AE43" s="203"/>
     </row>
     <row r="44" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="332"/>
+      <c r="A44" s="337"/>
       <c r="B44" s="53"/>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="351"/>
+      <c r="D44" s="356"/>
       <c r="E44" s="117"/>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
@@ -9963,12 +10005,12 @@
       <c r="AE44" s="202"/>
     </row>
     <row r="45" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="332"/>
+      <c r="A45" s="337"/>
       <c r="B45" s="53"/>
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="351"/>
+      <c r="D45" s="356"/>
       <c r="E45" s="117"/>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -10028,12 +10070,12 @@
       <c r="AE45" s="202"/>
     </row>
     <row r="46" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="332"/>
+      <c r="A46" s="337"/>
       <c r="B46" s="53"/>
       <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="351"/>
+      <c r="D46" s="356"/>
       <c r="E46" s="117"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -10095,12 +10137,12 @@
       </c>
     </row>
     <row r="47" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="332"/>
+      <c r="A47" s="337"/>
       <c r="B47" s="53"/>
       <c r="C47" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="351"/>
+      <c r="D47" s="356"/>
       <c r="E47" s="117"/>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -10150,12 +10192,12 @@
       <c r="AE47" s="202"/>
     </row>
     <row r="48" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="332"/>
+      <c r="A48" s="337"/>
       <c r="B48" s="74"/>
       <c r="C48" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="D48" s="351"/>
+      <c r="D48" s="356"/>
       <c r="E48" s="119"/>
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
@@ -10191,14 +10233,14 @@
       <c r="AE48" s="204"/>
     </row>
     <row r="49" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="332"/>
+      <c r="A49" s="337"/>
       <c r="B49" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="351"/>
+      <c r="D49" s="356"/>
       <c r="E49" s="117"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -10266,12 +10308,12 @@
       <c r="AE49" s="202"/>
     </row>
     <row r="50" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="332"/>
+      <c r="A50" s="337"/>
       <c r="B50" s="53"/>
       <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="351"/>
+      <c r="D50" s="356"/>
       <c r="E50" s="117"/>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -10305,12 +10347,12 @@
       <c r="AE50" s="202"/>
     </row>
     <row r="51" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="332"/>
+      <c r="A51" s="337"/>
       <c r="B51" s="53"/>
       <c r="C51" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="351"/>
+      <c r="D51" s="356"/>
       <c r="E51" s="117"/>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -10344,12 +10386,12 @@
       <c r="AE51" s="202"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="332"/>
+      <c r="A52" s="337"/>
       <c r="B52" s="74"/>
       <c r="C52" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="351"/>
+      <c r="D52" s="356"/>
       <c r="E52" s="119"/>
       <c r="F52" s="76"/>
       <c r="G52" s="76"/>
@@ -10379,14 +10421,14 @@
       <c r="AE52" s="204"/>
     </row>
     <row r="53" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="332"/>
+      <c r="A53" s="337"/>
       <c r="B53" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="351"/>
+      <c r="D53" s="356"/>
       <c r="E53" s="116"/>
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
@@ -10456,12 +10498,12 @@
       </c>
     </row>
     <row r="54" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="332"/>
+      <c r="A54" s="337"/>
       <c r="B54" s="53"/>
       <c r="C54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="351"/>
+      <c r="D54" s="356"/>
       <c r="E54" s="117"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -10531,12 +10573,12 @@
       </c>
     </row>
     <row r="55" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="332"/>
+      <c r="A55" s="337"/>
       <c r="B55" s="79"/>
       <c r="C55" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="351"/>
+      <c r="D55" s="356"/>
       <c r="E55" s="120"/>
       <c r="F55" s="80"/>
       <c r="G55" s="80"/>
@@ -10578,14 +10620,14 @@
       <c r="AE55" s="205"/>
     </row>
     <row r="56" spans="1:31" s="44" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="332"/>
+      <c r="A56" s="337"/>
       <c r="B56" s="81" t="s">
         <v>315</v>
       </c>
       <c r="C56" s="82" t="s">
         <v>316</v>
       </c>
-      <c r="D56" s="351"/>
+      <c r="D56" s="356"/>
       <c r="E56" s="121"/>
       <c r="F56" s="83"/>
       <c r="G56" s="83"/>
@@ -10619,14 +10661,14 @@
       <c r="AE56" s="206"/>
     </row>
     <row r="57" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="332"/>
+      <c r="A57" s="337"/>
       <c r="B57" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="351"/>
+      <c r="D57" s="356"/>
       <c r="E57" s="116" t="s">
         <v>19</v>
       </c>
@@ -10642,7 +10684,9 @@
       <c r="I57" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="49"/>
+      <c r="J57" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="K57" s="142">
         <v>1</v>
       </c>
@@ -10704,12 +10748,12 @@
       <c r="AE57" s="73"/>
     </row>
     <row r="58" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="332"/>
+      <c r="A58" s="337"/>
       <c r="B58" s="54"/>
       <c r="C58" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="351"/>
+      <c r="D58" s="356"/>
       <c r="E58" s="122"/>
       <c r="F58" s="46" t="s">
         <v>10</v>
@@ -10723,7 +10767,9 @@
       <c r="I58" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="46"/>
+      <c r="J58" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="K58" s="124" t="s">
         <v>19</v>
       </c>
@@ -10785,12 +10831,12 @@
       <c r="AE58" s="207"/>
     </row>
     <row r="59" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="332"/>
+      <c r="A59" s="337"/>
       <c r="B59" s="54"/>
       <c r="C59" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="351"/>
+      <c r="D59" s="356"/>
       <c r="E59" s="124" t="s">
         <v>10</v>
       </c>
@@ -10806,7 +10852,9 @@
       <c r="I59" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="46"/>
+      <c r="J59" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="K59" s="144" t="s">
         <v>10</v>
       </c>
@@ -10868,12 +10916,12 @@
       <c r="AE59" s="207"/>
     </row>
     <row r="60" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="332"/>
+      <c r="A60" s="337"/>
       <c r="B60" s="53"/>
       <c r="C60" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="351"/>
+      <c r="D60" s="356"/>
       <c r="E60" s="117" t="s">
         <v>10</v>
       </c>
@@ -10889,7 +10937,9 @@
       <c r="I60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J60" s="36"/>
+      <c r="J60" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="K60" s="144" t="s">
         <v>10</v>
       </c>
@@ -10951,18 +11001,20 @@
       <c r="AE60" s="202"/>
     </row>
     <row r="61" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="332"/>
+      <c r="A61" s="337"/>
       <c r="B61" s="53"/>
       <c r="C61" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="351"/>
+      <c r="D61" s="356"/>
       <c r="E61" s="125"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="328"/>
+      <c r="J61" s="328" t="s">
+        <v>391</v>
+      </c>
       <c r="K61" s="150"/>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
@@ -11008,12 +11060,12 @@
       </c>
     </row>
     <row r="62" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="332"/>
+      <c r="A62" s="337"/>
       <c r="B62" s="53"/>
       <c r="C62" s="226" t="s">
         <v>290</v>
       </c>
-      <c r="D62" s="351"/>
+      <c r="D62" s="356"/>
       <c r="E62" s="117" t="s">
         <v>19</v>
       </c>
@@ -11029,7 +11081,9 @@
       <c r="I62" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="43"/>
+      <c r="J62" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K62" s="144" t="s">
         <v>10</v>
       </c>
@@ -11091,18 +11145,20 @@
       <c r="AE62" s="202"/>
     </row>
     <row r="63" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="332"/>
+      <c r="A63" s="337"/>
       <c r="B63" s="53"/>
       <c r="C63" s="227" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="351"/>
+      <c r="D63" s="356"/>
       <c r="E63" s="125"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="328"/>
+      <c r="J63" s="328" t="s">
+        <v>392</v>
+      </c>
       <c r="K63" s="150"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34"/>
@@ -11148,12 +11204,12 @@
       </c>
     </row>
     <row r="64" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="332"/>
+      <c r="A64" s="337"/>
       <c r="B64" s="53"/>
       <c r="C64" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="351"/>
+      <c r="D64" s="356"/>
       <c r="E64" s="117" t="s">
         <v>10</v>
       </c>
@@ -11169,7 +11225,9 @@
       <c r="I64" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="43"/>
+      <c r="J64" s="43" t="s">
+        <v>391</v>
+      </c>
       <c r="K64" s="144" t="s">
         <v>10</v>
       </c>
@@ -11231,12 +11289,12 @@
       <c r="AE64" s="202"/>
     </row>
     <row r="65" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="332"/>
+      <c r="A65" s="337"/>
       <c r="B65" s="53"/>
       <c r="C65" s="226" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="351"/>
+      <c r="D65" s="356"/>
       <c r="E65" s="117" t="s">
         <v>10</v>
       </c>
@@ -11252,7 +11310,9 @@
       <c r="I65" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J65" s="43"/>
+      <c r="J65" s="43" t="s">
+        <v>391</v>
+      </c>
       <c r="K65" s="144" t="s">
         <v>10</v>
       </c>
@@ -11314,12 +11374,12 @@
       <c r="AE65" s="202"/>
     </row>
     <row r="66" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="332"/>
+      <c r="A66" s="337"/>
       <c r="B66" s="53"/>
       <c r="C66" s="226" t="s">
         <v>249</v>
       </c>
-      <c r="D66" s="351"/>
+      <c r="D66" s="356"/>
       <c r="E66" s="117" t="s">
         <v>10</v>
       </c>
@@ -11335,7 +11395,9 @@
       <c r="I66" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="43"/>
+      <c r="J66" s="43" t="s">
+        <v>391</v>
+      </c>
       <c r="K66" s="144" t="s">
         <v>10</v>
       </c>
@@ -11397,12 +11459,12 @@
       <c r="AE66" s="202"/>
     </row>
     <row r="67" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="332"/>
+      <c r="A67" s="337"/>
       <c r="B67" s="53"/>
       <c r="C67" s="226" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="351"/>
+      <c r="D67" s="356"/>
       <c r="E67" s="117" t="s">
         <v>10</v>
       </c>
@@ -11418,7 +11480,9 @@
       <c r="I67" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J67" s="43"/>
+      <c r="J67" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K67" s="144" t="s">
         <v>10</v>
       </c>
@@ -11480,18 +11544,20 @@
       <c r="AE67" s="202"/>
     </row>
     <row r="68" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="332"/>
+      <c r="A68" s="337"/>
       <c r="B68" s="53"/>
       <c r="C68" s="226" t="s">
         <v>240</v>
       </c>
-      <c r="D68" s="351"/>
+      <c r="D68" s="356"/>
       <c r="E68" s="126"/>
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="43"/>
+      <c r="J68" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K68" s="150"/>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
@@ -11531,18 +11597,20 @@
       <c r="AE68" s="202"/>
     </row>
     <row r="69" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="332"/>
+      <c r="A69" s="337"/>
       <c r="B69" s="53"/>
       <c r="C69" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="351"/>
+      <c r="D69" s="356"/>
       <c r="E69" s="125"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
-      <c r="J69" s="328"/>
+      <c r="J69" s="328" t="s">
+        <v>391</v>
+      </c>
       <c r="K69" s="150"/>
       <c r="L69" s="34"/>
       <c r="M69" s="34"/>
@@ -11586,18 +11654,20 @@
       <c r="AE69" s="202"/>
     </row>
     <row r="70" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="332"/>
+      <c r="A70" s="337"/>
       <c r="B70" s="53"/>
       <c r="C70" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="351"/>
+      <c r="D70" s="356"/>
       <c r="E70" s="125"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
-      <c r="J70" s="328"/>
+      <c r="J70" s="328" t="s">
+        <v>391</v>
+      </c>
       <c r="K70" s="150"/>
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
@@ -11641,12 +11711,12 @@
       <c r="AE70" s="202"/>
     </row>
     <row r="71" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="332"/>
+      <c r="A71" s="337"/>
       <c r="B71" s="53"/>
       <c r="C71" s="226" t="s">
         <v>252</v>
       </c>
-      <c r="D71" s="351"/>
+      <c r="D71" s="356"/>
       <c r="E71" s="117" t="s">
         <v>10</v>
       </c>
@@ -11662,7 +11732,9 @@
       <c r="I71" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="36"/>
+      <c r="J71" s="36" t="s">
+        <v>392</v>
+      </c>
       <c r="K71" s="144" t="s">
         <v>10</v>
       </c>
@@ -11724,12 +11796,12 @@
       <c r="AE71" s="202"/>
     </row>
     <row r="72" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="332"/>
+      <c r="A72" s="337"/>
       <c r="B72" s="53"/>
       <c r="C72" s="226" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="351"/>
+      <c r="D72" s="356"/>
       <c r="E72" s="117" t="s">
         <v>10</v>
       </c>
@@ -11745,7 +11817,9 @@
       <c r="I72" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="36"/>
+      <c r="J72" s="36" t="s">
+        <v>391</v>
+      </c>
       <c r="K72" s="144" t="s">
         <v>10</v>
       </c>
@@ -11807,12 +11881,12 @@
       <c r="AE72" s="202"/>
     </row>
     <row r="73" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="332"/>
+      <c r="A73" s="337"/>
       <c r="B73" s="53"/>
       <c r="C73" s="226" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="351"/>
+      <c r="D73" s="356"/>
       <c r="E73" s="117" t="s">
         <v>10</v>
       </c>
@@ -11828,7 +11902,9 @@
       <c r="I73" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J73" s="36"/>
+      <c r="J73" s="36" t="s">
+        <v>392</v>
+      </c>
       <c r="K73" s="144" t="s">
         <v>10</v>
       </c>
@@ -11890,12 +11966,12 @@
       <c r="AE73" s="202"/>
     </row>
     <row r="74" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="332"/>
+      <c r="A74" s="337"/>
       <c r="B74" s="53"/>
       <c r="C74" s="226" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="351"/>
+      <c r="D74" s="356"/>
       <c r="E74" s="117" t="s">
         <v>10</v>
       </c>
@@ -11911,7 +11987,9 @@
       <c r="I74" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="36"/>
+      <c r="J74" s="36" t="s">
+        <v>391</v>
+      </c>
       <c r="K74" s="144" t="s">
         <v>10</v>
       </c>
@@ -11973,18 +12051,20 @@
       <c r="AE74" s="202"/>
     </row>
     <row r="75" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="332"/>
+      <c r="A75" s="337"/>
       <c r="B75" s="53"/>
       <c r="C75" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="351"/>
+      <c r="D75" s="356"/>
       <c r="E75" s="126"/>
       <c r="F75" s="40"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="43"/>
+      <c r="J75" s="43" t="s">
+        <v>391</v>
+      </c>
       <c r="K75" s="150"/>
       <c r="L75" s="34"/>
       <c r="M75" s="34"/>
@@ -12028,18 +12108,20 @@
       <c r="AE75" s="202"/>
     </row>
     <row r="76" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="332"/>
+      <c r="A76" s="337"/>
       <c r="B76" s="53"/>
       <c r="C76" s="226" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="351"/>
+      <c r="D76" s="356"/>
       <c r="E76" s="126"/>
       <c r="F76" s="40"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="43"/>
+      <c r="J76" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K76" s="150"/>
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
@@ -12075,18 +12157,20 @@
       <c r="AE76" s="202"/>
     </row>
     <row r="77" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="332"/>
+      <c r="A77" s="337"/>
       <c r="B77" s="53"/>
       <c r="C77" s="226" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="351"/>
+      <c r="D77" s="356"/>
       <c r="E77" s="126"/>
       <c r="F77" s="40"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="43"/>
+      <c r="J77" s="43" t="s">
+        <v>392</v>
+      </c>
       <c r="K77" s="150"/>
       <c r="L77" s="34"/>
       <c r="M77" s="34"/>
@@ -12126,12 +12210,12 @@
       <c r="AE77" s="202"/>
     </row>
     <row r="78" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="332"/>
+      <c r="A78" s="337"/>
       <c r="B78" s="53"/>
       <c r="C78" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="351"/>
+      <c r="D78" s="356"/>
       <c r="E78" s="117" t="s">
         <v>19</v>
       </c>
@@ -12147,7 +12231,9 @@
       <c r="I78" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="36"/>
+      <c r="J78" s="36" t="s">
+        <v>392</v>
+      </c>
       <c r="K78" s="152" t="s">
         <v>10</v>
       </c>
@@ -12209,12 +12295,12 @@
       <c r="AE78" s="202"/>
     </row>
     <row r="79" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="332"/>
+      <c r="A79" s="337"/>
       <c r="B79" s="53"/>
       <c r="C79" s="226" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="351"/>
+      <c r="D79" s="356"/>
       <c r="E79" s="117" t="s">
         <v>10</v>
       </c>
@@ -12230,7 +12316,9 @@
       <c r="I79" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J79" s="36"/>
+      <c r="J79" s="36" t="s">
+        <v>392</v>
+      </c>
       <c r="K79" s="144" t="s">
         <v>10</v>
       </c>
@@ -12292,18 +12380,20 @@
       <c r="AE79" s="202"/>
     </row>
     <row r="80" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="332"/>
+      <c r="A80" s="337"/>
       <c r="B80" s="53"/>
       <c r="C80" s="226" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="351"/>
+      <c r="D80" s="356"/>
       <c r="E80" s="126"/>
       <c r="F80" s="40"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="43"/>
+      <c r="J80" s="43" t="s">
+        <v>392</v>
+      </c>
       <c r="K80" s="150"/>
       <c r="L80" s="34"/>
       <c r="M80" s="34"/>
@@ -12339,12 +12429,12 @@
       <c r="AE80" s="202"/>
     </row>
     <row r="81" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="332"/>
+      <c r="A81" s="337"/>
       <c r="B81" s="53"/>
       <c r="C81" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="351"/>
+      <c r="D81" s="356"/>
       <c r="E81" s="117" t="s">
         <v>19</v>
       </c>
@@ -12360,7 +12450,9 @@
       <c r="I81" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J81" s="43"/>
+      <c r="J81" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K81" s="144" t="s">
         <v>45</v>
       </c>
@@ -12424,12 +12516,12 @@
       </c>
     </row>
     <row r="82" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="332"/>
+      <c r="A82" s="337"/>
       <c r="B82" s="53"/>
       <c r="C82" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="351"/>
+      <c r="D82" s="356"/>
       <c r="E82" s="117" t="s">
         <v>10</v>
       </c>
@@ -12445,7 +12537,9 @@
       <c r="I82" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J82" s="43"/>
+      <c r="J82" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K82" s="144" t="s">
         <v>10</v>
       </c>
@@ -12507,12 +12601,12 @@
       <c r="AE82" s="202"/>
     </row>
     <row r="83" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="332"/>
+      <c r="A83" s="337"/>
       <c r="B83" s="53"/>
       <c r="C83" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="351"/>
+      <c r="D83" s="356"/>
       <c r="E83" s="117" t="s">
         <v>19</v>
       </c>
@@ -12528,7 +12622,9 @@
       <c r="I83" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="43"/>
+      <c r="J83" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K83" s="144" t="s">
         <v>45</v>
       </c>
@@ -12592,18 +12688,20 @@
       </c>
     </row>
     <row r="84" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="332"/>
+      <c r="A84" s="337"/>
       <c r="B84" s="53"/>
       <c r="C84" s="226" t="s">
         <v>333</v>
       </c>
-      <c r="D84" s="351"/>
+      <c r="D84" s="356"/>
       <c r="E84" s="126"/>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="43"/>
+      <c r="J84" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K84" s="228"/>
       <c r="L84" s="229"/>
       <c r="M84" s="34"/>
@@ -12639,12 +12737,12 @@
       <c r="AE84" s="202"/>
     </row>
     <row r="85" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="332"/>
+      <c r="A85" s="337"/>
       <c r="B85" s="53"/>
       <c r="C85" s="226" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="351"/>
+      <c r="D85" s="356"/>
       <c r="E85" s="127" t="s">
         <v>262</v>
       </c>
@@ -12660,7 +12758,9 @@
       <c r="I85" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="J85" s="42"/>
+      <c r="J85" s="42" t="s">
+        <v>393</v>
+      </c>
       <c r="K85" s="127" t="s">
         <v>262</v>
       </c>
@@ -12722,12 +12822,12 @@
       <c r="AE85" s="202"/>
     </row>
     <row r="86" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="332"/>
+      <c r="A86" s="337"/>
       <c r="B86" s="53"/>
       <c r="C86" s="226" t="s">
         <v>387</v>
       </c>
-      <c r="D86" s="351"/>
+      <c r="D86" s="356"/>
       <c r="E86" s="230"/>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
@@ -12751,7 +12851,7 @@
       <c r="W86" s="154"/>
       <c r="X86" s="107"/>
       <c r="Y86" s="34"/>
-      <c r="Z86" s="372"/>
+      <c r="Z86" s="330"/>
       <c r="AA86" s="34"/>
       <c r="AB86" s="229"/>
       <c r="AC86" s="151"/>
@@ -12759,12 +12859,12 @@
       <c r="AE86" s="202"/>
     </row>
     <row r="87" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="332"/>
+      <c r="A87" s="337"/>
       <c r="B87" s="53"/>
       <c r="C87" s="226" t="s">
         <v>256</v>
       </c>
-      <c r="D87" s="351"/>
+      <c r="D87" s="356"/>
       <c r="E87" s="127" t="s">
         <v>19</v>
       </c>
@@ -12780,7 +12880,9 @@
       <c r="I87" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="36"/>
+      <c r="J87" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="K87" s="152" t="s">
         <v>19</v>
       </c>
@@ -12842,12 +12944,12 @@
       <c r="AE87" s="202"/>
     </row>
     <row r="88" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="332"/>
+      <c r="A88" s="337"/>
       <c r="B88" s="53"/>
       <c r="C88" s="226" t="s">
         <v>212</v>
       </c>
-      <c r="D88" s="351"/>
+      <c r="D88" s="356"/>
       <c r="E88" s="126"/>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -12857,7 +12959,9 @@
       <c r="I88" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J88" s="43"/>
+      <c r="J88" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K88" s="150"/>
       <c r="L88" s="34"/>
       <c r="M88" s="34"/>
@@ -12901,12 +13005,12 @@
       <c r="AE88" s="202"/>
     </row>
     <row r="89" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="332"/>
+      <c r="A89" s="337"/>
       <c r="B89" s="53"/>
       <c r="C89" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="351"/>
+      <c r="D89" s="356"/>
       <c r="E89" s="126"/>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -12914,7 +13018,9 @@
         <v>19</v>
       </c>
       <c r="I89" s="40"/>
-      <c r="J89" s="43"/>
+      <c r="J89" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K89" s="150"/>
       <c r="L89" s="34"/>
       <c r="M89" s="34"/>
@@ -12956,12 +13062,12 @@
       <c r="AE89" s="202"/>
     </row>
     <row r="90" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="332"/>
+      <c r="A90" s="337"/>
       <c r="B90" s="53"/>
       <c r="C90" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="351"/>
+      <c r="D90" s="356"/>
       <c r="E90" s="126"/>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
@@ -12971,7 +13077,9 @@
       <c r="I90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J90" s="43"/>
+      <c r="J90" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K90" s="150"/>
       <c r="L90" s="34"/>
       <c r="M90" s="34"/>
@@ -13007,12 +13115,12 @@
       <c r="AE90" s="202"/>
     </row>
     <row r="91" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="332"/>
+      <c r="A91" s="337"/>
       <c r="B91" s="53"/>
       <c r="C91" s="226" t="s">
         <v>238</v>
       </c>
-      <c r="D91" s="351"/>
+      <c r="D91" s="356"/>
       <c r="E91" s="126"/>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -13022,7 +13130,9 @@
       <c r="I91" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J91" s="43"/>
+      <c r="J91" s="43" t="s">
+        <v>10</v>
+      </c>
       <c r="K91" s="150"/>
       <c r="L91" s="34"/>
       <c r="M91" s="34"/>
@@ -13062,12 +13172,12 @@
       <c r="AE91" s="202"/>
     </row>
     <row r="92" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="332"/>
+      <c r="A92" s="337"/>
       <c r="B92" s="53"/>
       <c r="C92" s="226" t="s">
         <v>206</v>
       </c>
-      <c r="D92" s="351"/>
+      <c r="D92" s="356"/>
       <c r="E92" s="126"/>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -13077,7 +13187,9 @@
       <c r="I92" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J92" s="43"/>
+      <c r="J92" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="K92" s="150"/>
       <c r="L92" s="34"/>
       <c r="M92" s="34"/>
@@ -13117,12 +13229,12 @@
       <c r="AE92" s="202"/>
     </row>
     <row r="93" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="332"/>
+      <c r="A93" s="337"/>
       <c r="B93" s="55"/>
       <c r="C93" s="86" t="s">
         <v>388</v>
       </c>
-      <c r="D93" s="351"/>
+      <c r="D93" s="356"/>
       <c r="E93" s="319"/>
       <c r="F93" s="320"/>
       <c r="G93" s="320"/>
@@ -13142,11 +13254,11 @@
       <c r="S93" s="326"/>
       <c r="T93" s="324"/>
       <c r="U93" s="325"/>
-      <c r="V93" s="373"/>
-      <c r="W93" s="374"/>
-      <c r="X93" s="375"/>
+      <c r="V93" s="331"/>
+      <c r="W93" s="332"/>
+      <c r="X93" s="333"/>
       <c r="Y93" s="325"/>
-      <c r="Z93" s="373"/>
+      <c r="Z93" s="331"/>
       <c r="AA93" s="325"/>
       <c r="AB93" s="325"/>
       <c r="AC93" s="154"/>
@@ -13154,12 +13266,12 @@
       <c r="AE93" s="208"/>
     </row>
     <row r="94" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="332"/>
+      <c r="A94" s="337"/>
       <c r="B94" s="55"/>
       <c r="C94" s="86" t="s">
         <v>312</v>
       </c>
-      <c r="D94" s="351"/>
+      <c r="D94" s="356"/>
       <c r="E94" s="130" t="s">
         <v>260</v>
       </c>
@@ -13239,12 +13351,12 @@
       <c r="AE94" s="208"/>
     </row>
     <row r="95" spans="1:31" s="44" customFormat="1" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="332"/>
+      <c r="A95" s="337"/>
       <c r="B95" s="85"/>
       <c r="C95" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="D95" s="351"/>
+      <c r="D95" s="356"/>
       <c r="E95" s="130" t="s">
         <v>242</v>
       </c>
@@ -13260,7 +13372,9 @@
       <c r="I95" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="J95" s="56"/>
+      <c r="J95" s="56" t="s">
+        <v>242</v>
+      </c>
       <c r="K95" s="162" t="s">
         <v>259</v>
       </c>
@@ -13322,14 +13436,14 @@
       <c r="AE95" s="209"/>
     </row>
     <row r="96" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="332"/>
+      <c r="A96" s="337"/>
       <c r="B96" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C96" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="351"/>
+      <c r="D96" s="356"/>
       <c r="E96" s="116"/>
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
@@ -13397,12 +13511,12 @@
       <c r="AE96" s="73"/>
     </row>
     <row r="97" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="332"/>
+      <c r="A97" s="337"/>
       <c r="B97" s="54"/>
       <c r="C97" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D97" s="351"/>
+      <c r="D97" s="356"/>
       <c r="E97" s="124"/>
       <c r="F97" s="46"/>
       <c r="G97" s="46"/>
@@ -13444,12 +13558,12 @@
       <c r="AE97" s="207"/>
     </row>
     <row r="98" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="332"/>
+      <c r="A98" s="337"/>
       <c r="B98" s="53"/>
       <c r="C98" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D98" s="351"/>
+      <c r="D98" s="356"/>
       <c r="E98" s="117"/>
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
@@ -13517,12 +13631,12 @@
       <c r="AE98" s="202"/>
     </row>
     <row r="99" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="332"/>
+      <c r="A99" s="337"/>
       <c r="B99" s="53"/>
       <c r="C99" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="351"/>
+      <c r="D99" s="356"/>
       <c r="E99" s="117"/>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
@@ -13590,12 +13704,12 @@
       <c r="AE99" s="202"/>
     </row>
     <row r="100" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="332"/>
+      <c r="A100" s="337"/>
       <c r="B100" s="53"/>
       <c r="C100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="351"/>
+      <c r="D100" s="356"/>
       <c r="E100" s="117"/>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
@@ -13663,12 +13777,12 @@
       <c r="AE100" s="202"/>
     </row>
     <row r="101" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="332"/>
+      <c r="A101" s="337"/>
       <c r="B101" s="53"/>
       <c r="C101" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D101" s="351"/>
+      <c r="D101" s="356"/>
       <c r="E101" s="117"/>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
@@ -13738,12 +13852,12 @@
       </c>
     </row>
     <row r="102" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="332"/>
+      <c r="A102" s="337"/>
       <c r="B102" s="53"/>
       <c r="C102" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D102" s="351"/>
+      <c r="D102" s="356"/>
       <c r="E102" s="117"/>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
@@ -13811,12 +13925,12 @@
       <c r="AE102" s="202"/>
     </row>
     <row r="103" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="332"/>
+      <c r="A103" s="337"/>
       <c r="B103" s="53"/>
       <c r="C103" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="351"/>
+      <c r="D103" s="356"/>
       <c r="E103" s="117"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -13886,12 +14000,12 @@
       </c>
     </row>
     <row r="104" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="332"/>
+      <c r="A104" s="337"/>
       <c r="B104" s="53"/>
       <c r="C104" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D104" s="351"/>
+      <c r="D104" s="356"/>
       <c r="E104" s="117"/>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -13961,12 +14075,12 @@
       </c>
     </row>
     <row r="105" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="332"/>
+      <c r="A105" s="337"/>
       <c r="B105" s="53"/>
       <c r="C105" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="351"/>
+      <c r="D105" s="356"/>
       <c r="E105" s="117"/>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -14036,12 +14150,12 @@
       </c>
     </row>
     <row r="106" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="332"/>
+      <c r="A106" s="337"/>
       <c r="B106" s="53"/>
       <c r="C106" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="351"/>
+      <c r="D106" s="356"/>
       <c r="E106" s="117"/>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
@@ -14111,12 +14225,12 @@
       </c>
     </row>
     <row r="107" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="332"/>
+      <c r="A107" s="337"/>
       <c r="B107" s="53"/>
       <c r="C107" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D107" s="351"/>
+      <c r="D107" s="356"/>
       <c r="E107" s="117"/>
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
@@ -14158,12 +14272,12 @@
       <c r="AE107" s="202"/>
     </row>
     <row r="108" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="332"/>
+      <c r="A108" s="337"/>
       <c r="B108" s="53"/>
       <c r="C108" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="351"/>
+      <c r="D108" s="356"/>
       <c r="E108" s="117"/>
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
@@ -14213,12 +14327,12 @@
       <c r="AE108" s="202"/>
     </row>
     <row r="109" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="332"/>
+      <c r="A109" s="337"/>
       <c r="B109" s="53"/>
       <c r="C109" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D109" s="351"/>
+      <c r="D109" s="356"/>
       <c r="E109" s="117"/>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -14286,12 +14400,12 @@
       <c r="AE109" s="202"/>
     </row>
     <row r="110" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="332"/>
+      <c r="A110" s="337"/>
       <c r="B110" s="53"/>
       <c r="C110" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D110" s="351"/>
+      <c r="D110" s="356"/>
       <c r="E110" s="117"/>
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
@@ -14351,12 +14465,12 @@
       <c r="AE110" s="202"/>
     </row>
     <row r="111" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="332"/>
+      <c r="A111" s="337"/>
       <c r="B111" s="53"/>
       <c r="C111" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D111" s="351"/>
+      <c r="D111" s="356"/>
       <c r="E111" s="117"/>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
@@ -14424,12 +14538,12 @@
       <c r="AE111" s="210"/>
     </row>
     <row r="112" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="332"/>
+      <c r="A112" s="337"/>
       <c r="B112" s="53"/>
       <c r="C112" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D112" s="351"/>
+      <c r="D112" s="356"/>
       <c r="E112" s="117"/>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
@@ -14497,12 +14611,12 @@
       <c r="AE112" s="202"/>
     </row>
     <row r="113" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="332"/>
+      <c r="A113" s="337"/>
       <c r="B113" s="53"/>
       <c r="C113" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D113" s="351"/>
+      <c r="D113" s="356"/>
       <c r="E113" s="117"/>
       <c r="F113" s="36"/>
       <c r="G113" s="36"/>
@@ -14570,12 +14684,12 @@
       <c r="AE113" s="202"/>
     </row>
     <row r="114" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="332"/>
+      <c r="A114" s="337"/>
       <c r="B114" s="53"/>
       <c r="C114" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D114" s="351"/>
+      <c r="D114" s="356"/>
       <c r="E114" s="117"/>
       <c r="F114" s="36"/>
       <c r="G114" s="36"/>
@@ -14643,12 +14757,12 @@
       <c r="AE114" s="210"/>
     </row>
     <row r="115" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="332"/>
+      <c r="A115" s="337"/>
       <c r="B115" s="53"/>
       <c r="C115" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D115" s="351"/>
+      <c r="D115" s="356"/>
       <c r="E115" s="117"/>
       <c r="F115" s="36"/>
       <c r="G115" s="36"/>
@@ -14716,12 +14830,12 @@
       <c r="AE115" s="202"/>
     </row>
     <row r="116" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="332"/>
+      <c r="A116" s="337"/>
       <c r="B116" s="53"/>
       <c r="C116" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D116" s="351"/>
+      <c r="D116" s="356"/>
       <c r="E116" s="117"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
@@ -14789,12 +14903,12 @@
       <c r="AE116" s="210"/>
     </row>
     <row r="117" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="332"/>
+      <c r="A117" s="337"/>
       <c r="B117" s="53"/>
       <c r="C117" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D117" s="351"/>
+      <c r="D117" s="356"/>
       <c r="E117" s="117"/>
       <c r="F117" s="36"/>
       <c r="G117" s="36"/>
@@ -14862,12 +14976,12 @@
       <c r="AE117" s="202"/>
     </row>
     <row r="118" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="332"/>
+      <c r="A118" s="337"/>
       <c r="B118" s="53"/>
       <c r="C118" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D118" s="351"/>
+      <c r="D118" s="356"/>
       <c r="E118" s="117"/>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
@@ -14935,12 +15049,12 @@
       <c r="AE118" s="202"/>
     </row>
     <row r="119" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="332"/>
+      <c r="A119" s="337"/>
       <c r="B119" s="53"/>
       <c r="C119" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D119" s="351"/>
+      <c r="D119" s="356"/>
       <c r="E119" s="117"/>
       <c r="F119" s="36"/>
       <c r="G119" s="36"/>
@@ -15010,12 +15124,12 @@
       </c>
     </row>
     <row r="120" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="332"/>
+      <c r="A120" s="337"/>
       <c r="B120" s="53"/>
       <c r="C120" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D120" s="351"/>
+      <c r="D120" s="356"/>
       <c r="E120" s="117"/>
       <c r="F120" s="36"/>
       <c r="G120" s="36"/>
@@ -15085,12 +15199,12 @@
       </c>
     </row>
     <row r="121" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="332"/>
+      <c r="A121" s="337"/>
       <c r="B121" s="53"/>
       <c r="C121" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D121" s="351"/>
+      <c r="D121" s="356"/>
       <c r="E121" s="117"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
@@ -15158,12 +15272,12 @@
       <c r="AE121" s="202"/>
     </row>
     <row r="122" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="332"/>
+      <c r="A122" s="337"/>
       <c r="B122" s="53"/>
       <c r="C122" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D122" s="351"/>
+      <c r="D122" s="356"/>
       <c r="E122" s="117"/>
       <c r="F122" s="36"/>
       <c r="G122" s="36"/>
@@ -15231,12 +15345,12 @@
       <c r="AE122" s="202"/>
     </row>
     <row r="123" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="332"/>
+      <c r="A123" s="337"/>
       <c r="B123" s="53"/>
       <c r="C123" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D123" s="351"/>
+      <c r="D123" s="356"/>
       <c r="E123" s="117"/>
       <c r="F123" s="36"/>
       <c r="G123" s="36"/>
@@ -15306,12 +15420,12 @@
       </c>
     </row>
     <row r="124" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="332"/>
+      <c r="A124" s="337"/>
       <c r="B124" s="53"/>
       <c r="C124" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="351"/>
+      <c r="D124" s="356"/>
       <c r="E124" s="117"/>
       <c r="F124" s="36"/>
       <c r="G124" s="36"/>
@@ -15381,12 +15495,12 @@
       </c>
     </row>
     <row r="125" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="332"/>
+      <c r="A125" s="337"/>
       <c r="B125" s="53"/>
       <c r="C125" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D125" s="351"/>
+      <c r="D125" s="356"/>
       <c r="E125" s="117"/>
       <c r="F125" s="36"/>
       <c r="G125" s="36"/>
@@ -15456,12 +15570,12 @@
       </c>
     </row>
     <row r="126" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="332"/>
+      <c r="A126" s="337"/>
       <c r="B126" s="53"/>
       <c r="C126" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D126" s="351"/>
+      <c r="D126" s="356"/>
       <c r="E126" s="117"/>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
@@ -15505,12 +15619,12 @@
       <c r="AE126" s="202"/>
     </row>
     <row r="127" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="332"/>
+      <c r="A127" s="337"/>
       <c r="B127" s="53"/>
       <c r="C127" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="351"/>
+      <c r="D127" s="356"/>
       <c r="E127" s="117"/>
       <c r="F127" s="36"/>
       <c r="G127" s="36"/>
@@ -15554,12 +15668,12 @@
       <c r="AE127" s="202"/>
     </row>
     <row r="128" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="332"/>
+      <c r="A128" s="337"/>
       <c r="B128" s="53"/>
       <c r="C128" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="351"/>
+      <c r="D128" s="356"/>
       <c r="E128" s="117"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
@@ -15603,12 +15717,12 @@
       <c r="AE128" s="202"/>
     </row>
     <row r="129" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="332"/>
+      <c r="A129" s="337"/>
       <c r="B129" s="53"/>
       <c r="C129" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="351"/>
+      <c r="D129" s="356"/>
       <c r="E129" s="117"/>
       <c r="F129" s="36"/>
       <c r="G129" s="36"/>
@@ -15652,12 +15766,12 @@
       <c r="AE129" s="202"/>
     </row>
     <row r="130" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="332"/>
+      <c r="A130" s="337"/>
       <c r="B130" s="53"/>
       <c r="C130" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D130" s="351"/>
+      <c r="D130" s="356"/>
       <c r="E130" s="117"/>
       <c r="F130" s="36"/>
       <c r="G130" s="36"/>
@@ -15701,12 +15815,12 @@
       <c r="AE130" s="202"/>
     </row>
     <row r="131" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="332"/>
+      <c r="A131" s="337"/>
       <c r="B131" s="53"/>
       <c r="C131" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="351"/>
+      <c r="D131" s="356"/>
       <c r="E131" s="117"/>
       <c r="F131" s="36"/>
       <c r="G131" s="36"/>
@@ -15750,12 +15864,12 @@
       <c r="AE131" s="202"/>
     </row>
     <row r="132" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="332"/>
+      <c r="A132" s="337"/>
       <c r="B132" s="53"/>
       <c r="C132" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D132" s="351"/>
+      <c r="D132" s="356"/>
       <c r="E132" s="117"/>
       <c r="F132" s="36"/>
       <c r="G132" s="36"/>
@@ -15799,12 +15913,12 @@
       <c r="AE132" s="202"/>
     </row>
     <row r="133" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="332"/>
+      <c r="A133" s="337"/>
       <c r="B133" s="53"/>
       <c r="C133" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D133" s="351"/>
+      <c r="D133" s="356"/>
       <c r="E133" s="117"/>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
@@ -15848,12 +15962,12 @@
       <c r="AE133" s="202"/>
     </row>
     <row r="134" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="332"/>
+      <c r="A134" s="337"/>
       <c r="B134" s="53"/>
       <c r="C134" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D134" s="351"/>
+      <c r="D134" s="356"/>
       <c r="E134" s="117"/>
       <c r="F134" s="36"/>
       <c r="G134" s="36"/>
@@ -15897,12 +16011,12 @@
       <c r="AE134" s="202"/>
     </row>
     <row r="135" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="332"/>
+      <c r="A135" s="337"/>
       <c r="B135" s="53"/>
       <c r="C135" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D135" s="351"/>
+      <c r="D135" s="356"/>
       <c r="E135" s="117"/>
       <c r="F135" s="36"/>
       <c r="G135" s="36"/>
@@ -15946,12 +16060,12 @@
       <c r="AE135" s="202"/>
     </row>
     <row r="136" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="332"/>
+      <c r="A136" s="337"/>
       <c r="B136" s="53"/>
       <c r="C136" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D136" s="351"/>
+      <c r="D136" s="356"/>
       <c r="E136" s="117"/>
       <c r="F136" s="36"/>
       <c r="G136" s="36"/>
@@ -15995,12 +16109,12 @@
       <c r="AE136" s="202"/>
     </row>
     <row r="137" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="332"/>
+      <c r="A137" s="337"/>
       <c r="B137" s="53"/>
       <c r="C137" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D137" s="351"/>
+      <c r="D137" s="356"/>
       <c r="E137" s="117"/>
       <c r="F137" s="36"/>
       <c r="G137" s="36"/>
@@ -16056,12 +16170,12 @@
       </c>
     </row>
     <row r="138" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="332"/>
+      <c r="A138" s="337"/>
       <c r="B138" s="53"/>
       <c r="C138" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D138" s="351"/>
+      <c r="D138" s="356"/>
       <c r="E138" s="117"/>
       <c r="F138" s="36"/>
       <c r="G138" s="36"/>
@@ -16129,12 +16243,12 @@
       <c r="AE138" s="202"/>
     </row>
     <row r="139" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="332"/>
+      <c r="A139" s="337"/>
       <c r="B139" s="53"/>
       <c r="C139" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D139" s="351"/>
+      <c r="D139" s="356"/>
       <c r="E139" s="132"/>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -16170,12 +16284,12 @@
       <c r="AE139" s="202"/>
     </row>
     <row r="140" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="332"/>
+      <c r="A140" s="337"/>
       <c r="B140" s="53"/>
       <c r="C140" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D140" s="351"/>
+      <c r="D140" s="356"/>
       <c r="E140" s="132"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -16243,12 +16357,12 @@
       <c r="AE140" s="202"/>
     </row>
     <row r="141" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="332"/>
+      <c r="A141" s="337"/>
       <c r="B141" s="53"/>
       <c r="C141" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D141" s="351"/>
+      <c r="D141" s="356"/>
       <c r="E141" s="132"/>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -16316,12 +16430,12 @@
       <c r="AE141" s="202"/>
     </row>
     <row r="142" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="332"/>
+      <c r="A142" s="337"/>
       <c r="B142" s="53"/>
       <c r="C142" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D142" s="351"/>
+      <c r="D142" s="356"/>
       <c r="E142" s="132"/>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -16391,12 +16505,12 @@
       </c>
     </row>
     <row r="143" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="332"/>
+      <c r="A143" s="337"/>
       <c r="B143" s="53"/>
       <c r="C143" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D143" s="351"/>
+      <c r="D143" s="356"/>
       <c r="E143" s="132"/>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -16464,12 +16578,12 @@
       <c r="AE143" s="202"/>
     </row>
     <row r="144" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="332"/>
+      <c r="A144" s="337"/>
       <c r="B144" s="53"/>
       <c r="C144" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D144" s="351"/>
+      <c r="D144" s="356"/>
       <c r="E144" s="132"/>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -16515,12 +16629,12 @@
       <c r="AE144" s="202"/>
     </row>
     <row r="145" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="332"/>
+      <c r="A145" s="337"/>
       <c r="B145" s="53"/>
       <c r="C145" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D145" s="351"/>
+      <c r="D145" s="356"/>
       <c r="E145" s="132"/>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -16588,12 +16702,12 @@
       <c r="AE145" s="202"/>
     </row>
     <row r="146" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="332"/>
+      <c r="A146" s="337"/>
       <c r="B146" s="53"/>
       <c r="C146" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D146" s="351"/>
+      <c r="D146" s="356"/>
       <c r="E146" s="132"/>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -16661,12 +16775,12 @@
       <c r="AE146" s="202"/>
     </row>
     <row r="147" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="332"/>
+      <c r="A147" s="337"/>
       <c r="B147" s="74"/>
       <c r="C147" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="D147" s="351"/>
+      <c r="D147" s="356"/>
       <c r="E147" s="120"/>
       <c r="F147" s="80"/>
       <c r="G147" s="80"/>
@@ -16710,14 +16824,14 @@
       <c r="AE147" s="204"/>
     </row>
     <row r="148" spans="1:31" ht="39.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="332"/>
+      <c r="A148" s="337"/>
       <c r="B148" s="97" t="s">
         <v>79</v>
       </c>
       <c r="C148" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D148" s="351"/>
+      <c r="D148" s="356"/>
       <c r="E148" s="133"/>
       <c r="F148" s="98"/>
       <c r="G148" s="98"/>
@@ -16787,12 +16901,12 @@
       </c>
     </row>
     <row r="149" spans="1:31" ht="26" x14ac:dyDescent="0.35">
-      <c r="A149" s="332"/>
+      <c r="A149" s="337"/>
       <c r="B149" s="53"/>
       <c r="C149" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D149" s="351"/>
+      <c r="D149" s="356"/>
       <c r="E149" s="132"/>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -16862,12 +16976,12 @@
       </c>
     </row>
     <row r="150" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="332"/>
+      <c r="A150" s="337"/>
       <c r="B150" s="53"/>
       <c r="C150" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D150" s="351"/>
+      <c r="D150" s="356"/>
       <c r="E150" s="132"/>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -16935,12 +17049,12 @@
       <c r="AE150" s="202"/>
     </row>
     <row r="151" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="332"/>
+      <c r="A151" s="337"/>
       <c r="B151" s="53"/>
       <c r="C151" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D151" s="351"/>
+      <c r="D151" s="356"/>
       <c r="E151" s="132"/>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -17008,12 +17122,12 @@
       <c r="AE151" s="202"/>
     </row>
     <row r="152" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="332"/>
+      <c r="A152" s="337"/>
       <c r="B152" s="53"/>
       <c r="C152" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D152" s="351"/>
+      <c r="D152" s="356"/>
       <c r="E152" s="132"/>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -17081,12 +17195,12 @@
       <c r="AE152" s="202"/>
     </row>
     <row r="153" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="332"/>
+      <c r="A153" s="337"/>
       <c r="B153" s="53"/>
       <c r="C153" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D153" s="351"/>
+      <c r="D153" s="356"/>
       <c r="E153" s="132"/>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -17154,12 +17268,12 @@
       <c r="AE153" s="202"/>
     </row>
     <row r="154" spans="1:31" ht="52" x14ac:dyDescent="0.35">
-      <c r="A154" s="332"/>
+      <c r="A154" s="337"/>
       <c r="B154" s="53"/>
       <c r="C154" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D154" s="351"/>
+      <c r="D154" s="356"/>
       <c r="E154" s="132"/>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -17229,12 +17343,12 @@
       </c>
     </row>
     <row r="155" spans="1:31" ht="39" x14ac:dyDescent="0.35">
-      <c r="A155" s="332"/>
+      <c r="A155" s="337"/>
       <c r="B155" s="53"/>
       <c r="C155" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D155" s="351"/>
+      <c r="D155" s="356"/>
       <c r="E155" s="132"/>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -17302,12 +17416,12 @@
       <c r="AE155" s="210"/>
     </row>
     <row r="156" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="332"/>
+      <c r="A156" s="337"/>
       <c r="B156" s="53"/>
       <c r="C156" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D156" s="351"/>
+      <c r="D156" s="356"/>
       <c r="E156" s="132"/>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -17375,12 +17489,12 @@
       <c r="AE156" s="210"/>
     </row>
     <row r="157" spans="1:31" ht="39" x14ac:dyDescent="0.35">
-      <c r="A157" s="332"/>
+      <c r="A157" s="337"/>
       <c r="B157" s="53"/>
       <c r="C157" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D157" s="351"/>
+      <c r="D157" s="356"/>
       <c r="E157" s="132"/>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -17450,12 +17564,12 @@
       </c>
     </row>
     <row r="158" spans="1:31" ht="26" x14ac:dyDescent="0.35">
-      <c r="A158" s="332"/>
+      <c r="A158" s="337"/>
       <c r="B158" s="53"/>
       <c r="C158" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D158" s="351"/>
+      <c r="D158" s="356"/>
       <c r="E158" s="132"/>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -17525,12 +17639,12 @@
       </c>
     </row>
     <row r="159" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="332"/>
+      <c r="A159" s="337"/>
       <c r="B159" s="53"/>
       <c r="C159" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D159" s="351"/>
+      <c r="D159" s="356"/>
       <c r="E159" s="132"/>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -17598,12 +17712,12 @@
       <c r="AE159" s="202"/>
     </row>
     <row r="160" spans="1:31" ht="39" x14ac:dyDescent="0.35">
-      <c r="A160" s="332"/>
+      <c r="A160" s="337"/>
       <c r="B160" s="53"/>
       <c r="C160" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D160" s="351"/>
+      <c r="D160" s="356"/>
       <c r="E160" s="132"/>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -17673,12 +17787,12 @@
       </c>
     </row>
     <row r="161" spans="1:31" ht="52" x14ac:dyDescent="0.35">
-      <c r="A161" s="332"/>
+      <c r="A161" s="337"/>
       <c r="B161" s="53"/>
       <c r="C161" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D161" s="351"/>
+      <c r="D161" s="356"/>
       <c r="E161" s="132"/>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -17746,12 +17860,12 @@
       <c r="AE161" s="202"/>
     </row>
     <row r="162" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="332"/>
+      <c r="A162" s="337"/>
       <c r="B162" s="74"/>
       <c r="C162" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D162" s="351"/>
+      <c r="D162" s="356"/>
       <c r="E162" s="120"/>
       <c r="F162" s="80"/>
       <c r="G162" s="80"/>
@@ -17805,14 +17919,14 @@
       <c r="AE162" s="204"/>
     </row>
     <row r="163" spans="1:31" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="332"/>
+      <c r="A163" s="337"/>
       <c r="B163" s="62" t="s">
         <v>140</v>
       </c>
       <c r="C163" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="D163" s="351"/>
+      <c r="D163" s="356"/>
       <c r="E163" s="134"/>
       <c r="F163" s="64"/>
       <c r="G163" s="64"/>
@@ -17880,12 +17994,12 @@
       <c r="AE163" s="211"/>
     </row>
     <row r="164" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="332"/>
+      <c r="A164" s="337"/>
       <c r="B164" s="66"/>
       <c r="C164" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D164" s="351"/>
+      <c r="D164" s="356"/>
       <c r="E164" s="135"/>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -17953,12 +18067,12 @@
       <c r="AE164" s="212"/>
     </row>
     <row r="165" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="332"/>
+      <c r="A165" s="337"/>
       <c r="B165" s="66"/>
       <c r="C165" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D165" s="351"/>
+      <c r="D165" s="356"/>
       <c r="E165" s="135"/>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -18028,12 +18142,12 @@
       </c>
     </row>
     <row r="166" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="332"/>
+      <c r="A166" s="337"/>
       <c r="B166" s="66"/>
       <c r="C166" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D166" s="351"/>
+      <c r="D166" s="356"/>
       <c r="E166" s="135"/>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -18101,12 +18215,12 @@
       <c r="AE166" s="212"/>
     </row>
     <row r="167" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="332"/>
+      <c r="A167" s="337"/>
       <c r="B167" s="66"/>
       <c r="C167" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D167" s="351"/>
+      <c r="D167" s="356"/>
       <c r="E167" s="135"/>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -18174,12 +18288,12 @@
       <c r="AE167" s="212"/>
     </row>
     <row r="168" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="332"/>
+      <c r="A168" s="337"/>
       <c r="B168" s="66"/>
       <c r="C168" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D168" s="351"/>
+      <c r="D168" s="356"/>
       <c r="E168" s="135"/>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -18249,12 +18363,12 @@
       </c>
     </row>
     <row r="169" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="332"/>
+      <c r="A169" s="337"/>
       <c r="B169" s="66"/>
       <c r="C169" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D169" s="351"/>
+      <c r="D169" s="356"/>
       <c r="E169" s="135"/>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -18322,12 +18436,12 @@
       <c r="AE169" s="212"/>
     </row>
     <row r="170" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="332"/>
+      <c r="A170" s="337"/>
       <c r="B170" s="66"/>
       <c r="C170" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D170" s="351"/>
+      <c r="D170" s="356"/>
       <c r="E170" s="135"/>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -18395,12 +18509,12 @@
       <c r="AE170" s="212"/>
     </row>
     <row r="171" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="332"/>
+      <c r="A171" s="337"/>
       <c r="B171" s="66"/>
       <c r="C171" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D171" s="351"/>
+      <c r="D171" s="356"/>
       <c r="E171" s="135"/>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -18468,12 +18582,12 @@
       <c r="AE171" s="212"/>
     </row>
     <row r="172" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="332"/>
+      <c r="A172" s="337"/>
       <c r="B172" s="66"/>
       <c r="C172" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D172" s="351"/>
+      <c r="D172" s="356"/>
       <c r="E172" s="135"/>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -18543,12 +18657,12 @@
       </c>
     </row>
     <row r="173" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="332"/>
+      <c r="A173" s="337"/>
       <c r="B173" s="66"/>
       <c r="C173" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D173" s="351"/>
+      <c r="D173" s="356"/>
       <c r="E173" s="135"/>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -18616,12 +18730,12 @@
       <c r="AE173" s="212"/>
     </row>
     <row r="174" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="332"/>
+      <c r="A174" s="337"/>
       <c r="B174" s="66"/>
       <c r="C174" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D174" s="351"/>
+      <c r="D174" s="356"/>
       <c r="E174" s="135"/>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -18689,12 +18803,12 @@
       <c r="AE174" s="212"/>
     </row>
     <row r="175" spans="1:31" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="332"/>
+      <c r="A175" s="337"/>
       <c r="B175" s="67"/>
       <c r="C175" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D175" s="352"/>
+      <c r="D175" s="357"/>
       <c r="E175" s="136"/>
       <c r="F175" s="69"/>
       <c r="G175" s="69"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -3137,6 +3137,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z170" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>PCR 220850427</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AC170" authorId="0" shapeId="0">
       <text>
         <r>
@@ -3313,7 +3337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="395">
   <si>
     <t>Feature</t>
   </si>
@@ -4811,6 +4835,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>- Updated to remove PMT from TGP-K</t>
   </si>
 </sst>
 </file>
@@ -7403,11 +7430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7925,10 +7952,18 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="222"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="222">
+        <v>36</v>
+      </c>
+      <c r="C38" s="9">
+        <v>43104</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="222"/>
@@ -7965,11 +8000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="S62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="V159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="Z170" sqref="Z170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -18494,7 +18529,7 @@
         <v>10</v>
       </c>
       <c r="Z170" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA170" s="16" t="s">
         <v>10</v>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="2" r:id="rId1"/>
@@ -1019,6 +1019,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C85" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>The #128bit slot exclude slot0/1 which are reserved and cannot be used by FW for other purposes Khee Wooi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C86" authorId="0" shapeId="0">
       <text>
         <r>
@@ -3337,7 +3361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="396">
   <si>
     <t>Feature</t>
   </si>
@@ -4838,6 +4862,10 @@
   </si>
   <si>
     <t>- Updated to remove PMT from TGP-K</t>
+  </si>
+  <si>
+    <t>- Fixed # SKS slot for CDF
+- Added comments that the #128bit slot exclude slot0/1 which are reserved and cannot be used by FW for other purposes.</t>
   </si>
 </sst>
 </file>
@@ -7430,11 +7458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7965,11 +7993,19 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="222"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="4"/>
+    <row r="39" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="222">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9">
+        <v>43110</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="222"/>
@@ -8000,11 +8036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="V159" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="Y138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z170" sqref="Z170"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -1023,22 +1023,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>The #128bit slot exclude slot0/1 which are reserved and cannot be used by FW for other purposes Khee Wooi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">“The #128bit slot inlcude slot0/1 which are reserved and cannot be used by FW for other purposes.”
 </t>
         </r>
       </text>
@@ -3361,7 +3351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="397">
   <si>
     <t>Feature</t>
   </si>
@@ -4204,21 +4194,6 @@
   </si>
   <si>
     <r>
-      <t>Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (10,10,0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>SKS</t>
     </r>
     <r>
@@ -4517,36 +4492,6 @@
     <t>HP-FPU</t>
   </si>
   <si>
-    <r>
-      <t>Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (11,19,15)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (11,19,15)</t>
-    </r>
-  </si>
-  <si>
     <t>SOC/CSME/IE Interface</t>
   </si>
   <si>
@@ -4866,6 +4811,54 @@
   <si>
     <t>- Fixed # SKS slot for CDF
 - Added comments that the #128bit slot exclude slot0/1 which are reserved and cannot be used by FW for other purposes.</t>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (13,19,15)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (13,19,15)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (12,10,0)</t>
+    </r>
+  </si>
+  <si>
+    <t>- Updated #128 slot for SKS (13 for TGP*and after, 12 prior to TGP*) to account for the reserverd slot0/1 to match how the design parameter is implemented</t>
   </si>
 </sst>
 </file>
@@ -7462,7 +7455,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7477,7 +7470,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="221" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>134</v>
@@ -7668,7 +7661,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -7682,7 +7675,7 @@
         <v>137</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -7696,7 +7689,7 @@
         <v>137</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -7710,7 +7703,7 @@
         <v>137</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -7724,7 +7717,7 @@
         <v>137</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -7738,7 +7731,7 @@
         <v>137</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -7752,7 +7745,7 @@
         <v>137</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7766,7 +7759,7 @@
         <v>137</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -7780,7 +7773,7 @@
         <v>137</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -7794,7 +7787,7 @@
         <v>137</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -7808,7 +7801,7 @@
         <v>137</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7822,7 +7815,7 @@
         <v>137</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -7836,7 +7829,7 @@
         <v>137</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -7850,7 +7843,7 @@
         <v>137</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -7864,7 +7857,7 @@
         <v>137</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="58" x14ac:dyDescent="0.35">
@@ -7878,7 +7871,7 @@
         <v>137</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
@@ -7892,7 +7885,7 @@
         <v>137</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7906,7 +7899,7 @@
         <v>137</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
@@ -7920,7 +7913,7 @@
         <v>137</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7934,7 +7927,7 @@
         <v>137</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
@@ -7948,7 +7941,7 @@
         <v>137</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="29" x14ac:dyDescent="0.35">
@@ -7962,7 +7955,7 @@
         <v>137</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
@@ -7976,7 +7969,7 @@
         <v>137</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
@@ -7990,7 +7983,7 @@
         <v>137</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -8004,14 +7997,22 @@
         <v>137</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="222"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B40" s="222">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9">
+        <v>43111</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="222"/>
@@ -8037,10 +8038,10 @@
   <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="Y138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="T72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8052,7 +8053,7 @@
     <col min="5" max="10" width="9.7265625" style="17" customWidth="1"/>
     <col min="11" max="14" width="9.7265625" style="27" customWidth="1"/>
     <col min="15" max="18" width="9.7265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" style="292" customWidth="1"/>
+    <col min="19" max="19" width="9.90625" style="292" bestFit="1" customWidth="1"/>
     <col min="20" max="27" width="9.7265625" style="17" customWidth="1"/>
     <col min="28" max="28" width="10.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="9.7265625" style="17" customWidth="1"/>
@@ -8063,21 +8064,21 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="232"/>
       <c r="C1" s="233" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="232"/>
       <c r="C2" s="288" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="342" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="338" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="339"/>
       <c r="E3" s="373" t="s">
@@ -8089,15 +8090,15 @@
       <c r="I3" s="374"/>
       <c r="J3" s="375"/>
       <c r="K3" s="347" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L3" s="348"/>
       <c r="M3" s="349" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N3" s="350"/>
       <c r="O3" s="353" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P3" s="351"/>
       <c r="Q3" s="354"/>
@@ -8121,20 +8122,20 @@
         <v>230</v>
       </c>
       <c r="Y3" s="90" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Z3" s="90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA3" s="345" t="s">
         <v>231</v>
       </c>
       <c r="AB3" s="346"/>
       <c r="AC3" s="263" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD3" s="265" t="s">
         <v>339</v>
-      </c>
-      <c r="AD3" s="265" t="s">
-        <v>342</v>
       </c>
       <c r="AE3" s="334" t="s">
         <v>6</v>
@@ -8143,7 +8144,7 @@
     <row r="4" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="343"/>
       <c r="C4" s="340" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="341"/>
       <c r="E4" s="285" t="s">
@@ -8162,7 +8163,7 @@
         <v>258</v>
       </c>
       <c r="J4" s="311" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K4" s="138" t="s">
         <v>219</v>
@@ -8183,7 +8184,7 @@
         <v>139</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>3</v>
@@ -8207,10 +8208,10 @@
         <v>105</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Z4" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA4" s="24" t="s">
         <v>106</v>
@@ -8219,10 +8220,10 @@
         <v>106</v>
       </c>
       <c r="AC4" s="215" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD4" s="266" t="s">
         <v>340</v>
-      </c>
-      <c r="AD4" s="266" t="s">
-        <v>343</v>
       </c>
       <c r="AE4" s="335"/>
     </row>
@@ -8232,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="287" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E5" s="286" t="s">
         <v>36</v>
@@ -8283,10 +8284,10 @@
         <v>2</v>
       </c>
       <c r="U5" s="94" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="V5" s="94" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W5" s="196" t="s">
         <v>2</v>
@@ -8298,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="95" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AA5" s="96" t="s">
         <v>2</v>
@@ -8307,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="AC5" s="216" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AD5" s="267" t="s">
         <v>2</v>
@@ -8317,7 +8318,7 @@
     <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="337"/>
       <c r="B6" s="53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -8326,7 +8327,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="358" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F6" s="359"/>
       <c r="G6" s="359"/>
@@ -8334,7 +8335,7 @@
       <c r="I6" s="359"/>
       <c r="J6" s="316"/>
       <c r="K6" s="364" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L6" s="365"/>
       <c r="M6" s="365"/>
@@ -8472,7 +8473,7 @@
       <c r="A10" s="337"/>
       <c r="B10" s="53"/>
       <c r="C10" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D10" s="281" t="s">
         <v>10</v>
@@ -8615,7 +8616,7 @@
       <c r="AC13" s="368"/>
       <c r="AD13" s="369"/>
       <c r="AE13" s="279" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8812,7 +8813,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="272" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E19" s="360"/>
       <c r="F19" s="361"/>
@@ -8924,7 +8925,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D22" s="272" t="s">
         <v>10</v>
@@ -8961,7 +8962,7 @@
       <c r="A23" s="337"/>
       <c r="B23" s="53"/>
       <c r="C23" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D23" s="272" t="s">
         <v>10</v>
@@ -9072,7 +9073,7 @@
       <c r="A26" s="337"/>
       <c r="B26" s="53"/>
       <c r="C26" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D26" s="272" t="s">
         <v>67</v>
@@ -9443,13 +9444,13 @@
     <row r="36" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A36" s="337"/>
       <c r="B36" s="47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="355" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E36" s="116"/>
       <c r="F36" s="49"/>
@@ -9594,7 +9595,7 @@
       <c r="A38" s="337"/>
       <c r="B38" s="53"/>
       <c r="C38" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D38" s="356"/>
       <c r="E38" s="117"/>
@@ -9655,7 +9656,7 @@
         <v>369</v>
       </c>
       <c r="AB38" s="42" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AC38" s="145">
         <v>384</v>
@@ -9667,7 +9668,7 @@
       <c r="A39" s="337"/>
       <c r="B39" s="53"/>
       <c r="C39" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D39" s="356"/>
       <c r="E39" s="117"/>
@@ -9740,7 +9741,7 @@
       <c r="A40" s="337"/>
       <c r="B40" s="53"/>
       <c r="C40" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D40" s="356"/>
       <c r="E40" s="117"/>
@@ -9801,7 +9802,7 @@
         <v>8</v>
       </c>
       <c r="AB40" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AC40" s="145" t="s">
         <v>8</v>
@@ -9813,7 +9814,7 @@
       <c r="A41" s="337"/>
       <c r="B41" s="53"/>
       <c r="C41" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D41" s="356"/>
       <c r="E41" s="117"/>
@@ -9823,61 +9824,61 @@
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="144" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="N41" s="145" t="s">
+        <v>304</v>
+      </c>
+      <c r="O41" s="152" t="s">
         <v>305</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="P41" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="M41" s="16" t="s">
+      <c r="Q41" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="N41" s="145" t="s">
+      <c r="R41" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="O41" s="152" t="s">
-        <v>306</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>306</v>
-      </c>
       <c r="S41" s="296" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T41" s="152" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W41" s="128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X41" s="108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y41" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB41" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC41" s="128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD41" s="235"/>
       <c r="AE41" s="202"/>
@@ -10028,49 +10029,49 @@
         <v>19</v>
       </c>
       <c r="O44" s="152" t="s">
+        <v>307</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="S44" s="296" t="s">
+        <v>307</v>
+      </c>
+      <c r="T44" s="152" t="s">
+        <v>307</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W44" s="128" t="s">
+        <v>307</v>
+      </c>
+      <c r="X44" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA44" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB44" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="P44" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="S44" s="296" t="s">
-        <v>308</v>
-      </c>
-      <c r="T44" s="152" t="s">
-        <v>308</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="V44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W44" s="128" t="s">
-        <v>308</v>
-      </c>
-      <c r="X44" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y44" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z44" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA44" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB44" s="42" t="s">
-        <v>309</v>
-      </c>
       <c r="AC44" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD44" s="235"/>
       <c r="AE44" s="202"/>
@@ -10204,14 +10205,14 @@
       </c>
       <c r="AD46" s="236"/>
       <c r="AE46" s="202" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="337"/>
       <c r="B47" s="53"/>
       <c r="C47" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D47" s="356"/>
       <c r="E47" s="117"/>
@@ -10266,7 +10267,7 @@
       <c r="A48" s="337"/>
       <c r="B48" s="74"/>
       <c r="C48" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D48" s="356"/>
       <c r="E48" s="119"/>
@@ -10421,7 +10422,7 @@
       <c r="A51" s="337"/>
       <c r="B51" s="53"/>
       <c r="C51" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D51" s="356"/>
       <c r="E51" s="117"/>
@@ -10460,7 +10461,7 @@
       <c r="A52" s="337"/>
       <c r="B52" s="74"/>
       <c r="C52" s="75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D52" s="356"/>
       <c r="E52" s="119"/>
@@ -10561,7 +10562,7 @@
         <v>31</v>
       </c>
       <c r="AC53" s="291" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AD53" s="234"/>
       <c r="AE53" s="73" t="s">
@@ -10582,61 +10583,61 @@
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
       <c r="K54" s="144" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N54" s="147" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O54" s="152" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S54" s="296" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="T54" s="152" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V54" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="W54" s="128" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="X54" s="104" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Y54" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z54" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AA54" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AB54" s="42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AC54" s="128" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AD54" s="235"/>
       <c r="AE54" s="202" t="s">
@@ -10693,10 +10694,10 @@
     <row r="56" spans="1:31" s="44" customFormat="1" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="337"/>
       <c r="B56" s="81" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D56" s="356"/>
       <c r="E56" s="121"/>
@@ -10822,7 +10823,7 @@
       <c r="A58" s="337"/>
       <c r="B58" s="54"/>
       <c r="C58" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D58" s="356"/>
       <c r="E58" s="122"/>
@@ -10905,7 +10906,7 @@
       <c r="A59" s="337"/>
       <c r="B59" s="54"/>
       <c r="C59" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D59" s="356"/>
       <c r="E59" s="124" t="s">
@@ -10990,7 +10991,7 @@
       <c r="A60" s="337"/>
       <c r="B60" s="53"/>
       <c r="C60" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D60" s="356"/>
       <c r="E60" s="117" t="s">
@@ -11084,7 +11085,7 @@
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
       <c r="J61" s="328" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K61" s="150"/>
       <c r="L61" s="34"/>
@@ -11134,7 +11135,7 @@
       <c r="A62" s="337"/>
       <c r="B62" s="53"/>
       <c r="C62" s="226" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D62" s="356"/>
       <c r="E62" s="117" t="s">
@@ -11228,7 +11229,7 @@
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
       <c r="J63" s="328" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K63" s="150"/>
       <c r="L63" s="34"/>
@@ -11297,7 +11298,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K64" s="144" t="s">
         <v>10</v>
@@ -11382,7 +11383,7 @@
         <v>10</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K65" s="144" t="s">
         <v>10</v>
@@ -11467,7 +11468,7 @@
         <v>10</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K66" s="144" t="s">
         <v>10</v>
@@ -11680,7 +11681,7 @@
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
       <c r="J69" s="328" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K69" s="150"/>
       <c r="L69" s="34"/>
@@ -11737,7 +11738,7 @@
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
       <c r="J70" s="328" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K70" s="150"/>
       <c r="L70" s="34"/>
@@ -11804,7 +11805,7 @@
         <v>10</v>
       </c>
       <c r="J71" s="36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K71" s="144" t="s">
         <v>10</v>
@@ -11889,7 +11890,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K72" s="144" t="s">
         <v>10</v>
@@ -11974,7 +11975,7 @@
         <v>10</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K73" s="144" t="s">
         <v>10</v>
@@ -12059,7 +12060,7 @@
         <v>10</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K74" s="144" t="s">
         <v>10</v>
@@ -12134,7 +12135,7 @@
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
       <c r="J75" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K75" s="150"/>
       <c r="L75" s="34"/>
@@ -12182,7 +12183,7 @@
       <c r="A76" s="337"/>
       <c r="B76" s="53"/>
       <c r="C76" s="226" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D76" s="356"/>
       <c r="E76" s="126"/>
@@ -12231,7 +12232,7 @@
       <c r="A77" s="337"/>
       <c r="B77" s="53"/>
       <c r="C77" s="226" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D77" s="356"/>
       <c r="E77" s="126"/>
@@ -12240,7 +12241,7 @@
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
       <c r="J77" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K77" s="150"/>
       <c r="L77" s="34"/>
@@ -12303,7 +12304,7 @@
         <v>19</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K78" s="152" t="s">
         <v>10</v>
@@ -12388,7 +12389,7 @@
         <v>10</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K79" s="144" t="s">
         <v>10</v>
@@ -12463,7 +12464,7 @@
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
       <c r="J80" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K80" s="150"/>
       <c r="L80" s="34"/>
@@ -12762,7 +12763,7 @@
       <c r="A84" s="337"/>
       <c r="B84" s="53"/>
       <c r="C84" s="226" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D84" s="356"/>
       <c r="E84" s="126"/>
@@ -12811,11 +12812,11 @@
       <c r="A85" s="337"/>
       <c r="B85" s="53"/>
       <c r="C85" s="226" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" s="356"/>
-      <c r="E85" s="127" t="s">
-        <v>262</v>
+      <c r="E85" s="42" t="s">
+        <v>395</v>
       </c>
       <c r="F85" s="36" t="s">
         <v>19</v>
@@ -12827,67 +12828,67 @@
         <v>19</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="J85" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="K85" s="127" t="s">
+        <v>395</v>
+      </c>
+      <c r="L85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="M85" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" s="147" t="s">
+        <v>19</v>
+      </c>
+      <c r="O85" s="127" t="s">
+        <v>395</v>
+      </c>
+      <c r="P85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="R85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="S85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="T85" s="127" t="s">
+        <v>395</v>
+      </c>
+      <c r="U85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="V85" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="W85" s="128" t="s">
+        <v>395</v>
+      </c>
+      <c r="X85" s="104" t="s">
         <v>393</v>
       </c>
-      <c r="K85" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="L85" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="M85" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N85" s="147" t="s">
-        <v>19</v>
-      </c>
-      <c r="O85" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="P85" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q85" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="R85" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="S85" s="296" t="s">
-        <v>262</v>
-      </c>
-      <c r="T85" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="U85" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="V85" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="W85" s="128" t="s">
-        <v>262</v>
-      </c>
-      <c r="X85" s="104" t="s">
-        <v>310</v>
-      </c>
       <c r="Y85" s="16" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="Z85" s="21" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
       <c r="AA85" s="16" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="AB85" s="252" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="AC85" s="145" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="AD85" s="236"/>
       <c r="AE85" s="202"/>
@@ -12896,7 +12897,7 @@
       <c r="A86" s="337"/>
       <c r="B86" s="53"/>
       <c r="C86" s="226" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D86" s="356"/>
       <c r="E86" s="230"/>
@@ -13303,7 +13304,7 @@
       <c r="A93" s="337"/>
       <c r="B93" s="55"/>
       <c r="C93" s="86" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D93" s="356"/>
       <c r="E93" s="319"/>
@@ -13340,7 +13341,7 @@
       <c r="A94" s="337"/>
       <c r="B94" s="55"/>
       <c r="C94" s="86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D94" s="356"/>
       <c r="E94" s="130" t="s">
@@ -13359,7 +13360,7 @@
         <v>261</v>
       </c>
       <c r="J94" s="56" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K94" s="130" t="s">
         <v>260</v>
@@ -13585,7 +13586,7 @@
       <c r="A97" s="337"/>
       <c r="B97" s="54"/>
       <c r="C97" s="45" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D97" s="356"/>
       <c r="E97" s="124"/>
@@ -14299,7 +14300,7 @@
       <c r="A107" s="337"/>
       <c r="B107" s="53"/>
       <c r="C107" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D107" s="356"/>
       <c r="E107" s="117"/>
@@ -14539,7 +14540,7 @@
       <c r="A111" s="337"/>
       <c r="B111" s="53"/>
       <c r="C111" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D111" s="356"/>
       <c r="E111" s="117"/>
@@ -14549,61 +14550,61 @@
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
       <c r="K111" s="144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N111" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O111" s="152" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P111" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S111" s="296" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U111" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="V111" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="W111" s="128" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="X111" s="106" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y111" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Z111" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AA111" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB111" s="256" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AC111" s="149" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AD111" s="241"/>
       <c r="AE111" s="210"/>
@@ -14612,7 +14613,7 @@
       <c r="A112" s="337"/>
       <c r="B112" s="53"/>
       <c r="C112" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D112" s="356"/>
       <c r="E112" s="117"/>
@@ -14634,13 +14635,13 @@
         <v>2</v>
       </c>
       <c r="O112" s="152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P112" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="R112" s="13" t="s">
         <v>4</v>
@@ -14649,25 +14650,25 @@
         <v>2</v>
       </c>
       <c r="T112" s="152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U112" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V112" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W112" s="128" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="X112" s="106" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y112" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Z112" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AA112" s="19" t="s">
         <v>4</v>
@@ -14676,7 +14677,7 @@
         <v>2</v>
       </c>
       <c r="AC112" s="149" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AD112" s="241"/>
       <c r="AE112" s="202"/>
@@ -14685,7 +14686,7 @@
       <c r="A113" s="337"/>
       <c r="B113" s="53"/>
       <c r="C113" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D113" s="356"/>
       <c r="E113" s="117"/>
@@ -14695,61 +14696,61 @@
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
       <c r="K113" s="144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L113" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N113" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O113" s="152" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q113" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="R113" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S113" s="296" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="T113" s="152" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V113" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="W113" s="128" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="X113" s="106" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Y113" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z113" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AA113" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB113" s="256" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AC113" s="149" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AD113" s="241"/>
       <c r="AE113" s="202"/>
@@ -14758,7 +14759,7 @@
       <c r="A114" s="337"/>
       <c r="B114" s="53"/>
       <c r="C114" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D114" s="356"/>
       <c r="E114" s="117"/>
@@ -14768,61 +14769,61 @@
       <c r="I114" s="36"/>
       <c r="J114" s="36"/>
       <c r="K114" s="144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N114" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O114" s="152" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q114" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R114" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S114" s="296" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T114" s="152" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U114" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V114" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W114" s="128" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="X114" s="106" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Y114" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Z114" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA114" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB114" s="256" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AC114" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AD114" s="241"/>
       <c r="AE114" s="210"/>
@@ -14831,7 +14832,7 @@
       <c r="A115" s="337"/>
       <c r="B115" s="53"/>
       <c r="C115" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D115" s="356"/>
       <c r="E115" s="117"/>
@@ -14841,61 +14842,61 @@
       <c r="I115" s="36"/>
       <c r="J115" s="36"/>
       <c r="K115" s="144" t="s">
+        <v>353</v>
+      </c>
+      <c r="L115" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="L115" s="16" t="s">
-        <v>359</v>
-      </c>
       <c r="M115" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="N115" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="O115" s="152" t="s">
+        <v>353</v>
+      </c>
+      <c r="P115" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q115" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="R115" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="N115" s="147" t="s">
-        <v>356</v>
-      </c>
-      <c r="O115" s="152" t="s">
-        <v>356</v>
-      </c>
-      <c r="P115" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q115" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="R115" s="13" t="s">
-        <v>359</v>
-      </c>
       <c r="S115" s="296" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T115" s="152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U115" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V115" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W115" s="128" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="X115" s="106" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y115" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Z115" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AA115" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB115" s="256" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AC115" s="149" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AD115" s="241"/>
       <c r="AE115" s="202"/>
@@ -14904,7 +14905,7 @@
       <c r="A116" s="337"/>
       <c r="B116" s="53"/>
       <c r="C116" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D116" s="356"/>
       <c r="E116" s="117"/>
@@ -14914,61 +14915,61 @@
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
       <c r="K116" s="144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L116" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N116" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O116" s="152" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P116" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q116" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R116" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S116" s="296" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T116" s="152" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U116" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="V116" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="W116" s="128" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="X116" s="106" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Y116" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z116" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AA116" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AB116" s="256" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AC116" s="149" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AD116" s="241"/>
       <c r="AE116" s="210"/>
@@ -14977,7 +14978,7 @@
       <c r="A117" s="337"/>
       <c r="B117" s="53"/>
       <c r="C117" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D117" s="356"/>
       <c r="E117" s="117"/>
@@ -14987,61 +14988,61 @@
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
       <c r="K117" s="144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L117" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N117" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O117" s="152" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P117" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q117" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R117" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S117" s="296" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T117" s="152" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U117" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V117" s="21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W117" s="128" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X117" s="106" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y117" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Z117" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AA117" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB117" s="256" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AC117" s="289" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AD117" s="241"/>
       <c r="AE117" s="202"/>
@@ -15050,7 +15051,7 @@
       <c r="A118" s="337"/>
       <c r="B118" s="53"/>
       <c r="C118" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D118" s="356"/>
       <c r="E118" s="117"/>
@@ -15060,61 +15061,61 @@
       <c r="I118" s="36"/>
       <c r="J118" s="36"/>
       <c r="K118" s="144" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L118" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N118" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O118" s="152" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P118" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q118" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R118" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S118" s="296" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T118" s="152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U118" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V118" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W118" s="128" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="X118" s="108" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y118" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z118" s="13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AA118" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB118" s="42" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AC118" s="145" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AD118" s="235"/>
       <c r="AE118" s="202"/>
@@ -15644,7 +15645,7 @@
       <c r="A126" s="337"/>
       <c r="B126" s="53"/>
       <c r="C126" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D126" s="356"/>
       <c r="E126" s="117"/>
@@ -15666,25 +15667,25 @@
       <c r="U126" s="35"/>
       <c r="V126" s="35"/>
       <c r="W126" s="128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X126" s="108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y126" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z126" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA126" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB126" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC126" s="128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD126" s="235"/>
       <c r="AE126" s="202"/>
@@ -15715,25 +15716,25 @@
       <c r="U127" s="35"/>
       <c r="V127" s="35"/>
       <c r="W127" s="128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X127" s="108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y127" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z127" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA127" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB127" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AC127" s="128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD127" s="235"/>
       <c r="AE127" s="202"/>
@@ -15764,25 +15765,25 @@
       <c r="U128" s="35"/>
       <c r="V128" s="35"/>
       <c r="W128" s="128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X128" s="108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y128" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z128" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA128" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB128" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC128" s="128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD128" s="235"/>
       <c r="AE128" s="202"/>
@@ -15813,25 +15814,25 @@
       <c r="U129" s="35"/>
       <c r="V129" s="35"/>
       <c r="W129" s="128" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X129" s="108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y129" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z129" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA129" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB129" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC129" s="128" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD129" s="235"/>
       <c r="AE129" s="202"/>
@@ -15862,25 +15863,25 @@
       <c r="U130" s="35"/>
       <c r="V130" s="35"/>
       <c r="W130" s="128" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X130" s="108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y130" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z130" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA130" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB130" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC130" s="128" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD130" s="235"/>
       <c r="AE130" s="202"/>
@@ -15911,25 +15912,25 @@
       <c r="U131" s="35"/>
       <c r="V131" s="35"/>
       <c r="W131" s="128" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X131" s="108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y131" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z131" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA131" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB131" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC131" s="128" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD131" s="235"/>
       <c r="AE131" s="202"/>
@@ -15960,25 +15961,25 @@
       <c r="U132" s="35"/>
       <c r="V132" s="35"/>
       <c r="W132" s="128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X132" s="108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y132" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z132" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA132" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB132" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AC132" s="128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD132" s="235"/>
       <c r="AE132" s="202"/>
@@ -16009,25 +16010,25 @@
       <c r="U133" s="35"/>
       <c r="V133" s="35"/>
       <c r="W133" s="128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X133" s="108" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y133" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z133" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA133" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB133" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC133" s="128" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD133" s="235"/>
       <c r="AE133" s="202"/>
@@ -16058,25 +16059,25 @@
       <c r="U134" s="35"/>
       <c r="V134" s="35"/>
       <c r="W134" s="128" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X134" s="108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y134" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z134" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA134" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB134" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC134" s="128" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD134" s="235"/>
       <c r="AE134" s="202"/>
@@ -16107,25 +16108,25 @@
       <c r="U135" s="35"/>
       <c r="V135" s="35"/>
       <c r="W135" s="128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X135" s="108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y135" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z135" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA135" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB135" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC135" s="128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD135" s="235"/>
       <c r="AE135" s="202"/>
@@ -16156,25 +16157,25 @@
       <c r="U136" s="35"/>
       <c r="V136" s="35"/>
       <c r="W136" s="128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X136" s="108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y136" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z136" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA136" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB136" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC136" s="128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD136" s="235"/>
       <c r="AE136" s="202"/>
@@ -16504,7 +16505,7 @@
       <c r="A142" s="337"/>
       <c r="B142" s="53"/>
       <c r="C142" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D142" s="356"/>
       <c r="E142" s="132"/>
@@ -18193,7 +18194,7 @@
         <v>147</v>
       </c>
       <c r="Y165" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Z165" s="15" t="s">
         <v>19</v>
@@ -18430,7 +18431,7 @@
       </c>
       <c r="AD168" s="236"/>
       <c r="AE168" s="212" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -18644,7 +18645,7 @@
         <v>156</v>
       </c>
       <c r="AB171" s="252" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AC171" s="128" t="s">
         <v>19</v>
@@ -18656,7 +18657,7 @@
       <c r="A172" s="337"/>
       <c r="B172" s="66"/>
       <c r="C172" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D172" s="356"/>
       <c r="E172" s="135"/>
@@ -18731,7 +18732,7 @@
       <c r="A173" s="337"/>
       <c r="B173" s="66"/>
       <c r="C173" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D173" s="356"/>
       <c r="E173" s="135"/>

--- a/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
+++ b/ArchSpecs/Working/CSME IE OCS Hardware Architecture Features Per Project.xlsx
@@ -153,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>+ PRTC, Hotahm, SMS</t>
         </r>
@@ -162,7 +162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -346,7 +346,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>* 369 = 9600/2/13
 * 400 = 9600/2/12</t>
@@ -356,7 +356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 12/19/16:
@@ -392,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -401,7 +401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 PCR 1504370672</t>
@@ -425,7 +425,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 40KGates</t>
@@ -440,7 +440,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Hig Performance FPU (160Kgates)</t>
         </r>
@@ -449,7 +449,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -488,7 +488,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yes for MinuteIA for not hooked up to PCH</t>
         </r>
@@ -497,7 +497,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -512,7 +512,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Yes for MinuteIA for not hooked up to PCH</t>
         </r>
@@ -521,7 +521,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1026,7 +1026,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">“The #128bit slot inlcude slot0/1 which are reserved and cannot be used by FW for other purposes.”
 </t>
@@ -1041,7 +1041,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 128/256/384bit supported</t>
         </r>
@@ -1050,7 +1050,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1511,7 +1511,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>All IPC channels have 32DW IPC Message regsiters</t>
         </r>
@@ -1520,7 +1520,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1606,7 +1606,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>This is actually not needed since TGP-K will remove the DSP, so will not have FW for IPC.  DSP FW will not be loaded.  Kept for consistency only</t>
         </r>
@@ -1615,7 +1615,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2359,7 +2359,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2725,7 +2725,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Orange means VISA is accessible to Orange and REd</t>
         </r>
@@ -2734,7 +2734,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2994,7 +2994,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No Vnn removal support</t>
         </r>
@@ -3003,7 +3003,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3090,7 +3090,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3159,7 +3159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>PCR 220850427</t>
         </r>
@@ -3168,7 +3168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3183,7 +3183,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Per mail thread with Praveen 12/12/2017</t>
         </r>
@@ -3192,7 +3192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 From: Jain, Praveen K 
@@ -3339,7 +3339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3351,7 +3351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="397">
   <si>
     <t>Feature</t>
   </si>
@@ -4857,6 +4857,9 @@
   <si>
     <t>- Fixed the text wrapping issue in "SKS (#128bit slot, #256bit slot, #384bit slot)" row</t>
   </si>
+  <si>
+    <t>- Removed CAVS ICP channels in EBG (typo)</t>
+  </si>
 </sst>
 </file>
 
@@ -4866,7 +4869,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4990,19 +4993,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
@@ -6143,7 +6133,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7098,6 +7088,93 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7161,34 +7238,28 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7199,87 +7270,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7597,7 +7587,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8171,10 +8161,18 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="222"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="222">
+        <v>30</v>
+      </c>
+      <c r="C42" s="9">
+        <v>43139</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="222"/>
@@ -8242,10 +8240,10 @@
   <dimension ref="A1:AE175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="V80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="R98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8268,43 +8266,43 @@
   <sheetData>
     <row r="1" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="232"/>
-      <c r="C